--- a/Planning & Assetlist.xlsx
+++ b/Planning & Assetlist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="8" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="190">
   <si>
     <t>Code Name</t>
   </si>
@@ -222,13 +222,373 @@
     <t>Main Character</t>
   </si>
   <si>
-    <t>Legs, Arms</t>
-  </si>
-  <si>
     <t>Anthony</t>
   </si>
   <si>
     <t>Jesse</t>
+  </si>
+  <si>
+    <t>Legs, Arms, cockpit, wapens</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>weapon switch</t>
+  </si>
+  <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>walk</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>jump</t>
+  </si>
+  <si>
+    <t>companion</t>
+  </si>
+  <si>
+    <t>fly</t>
+  </si>
+  <si>
+    <t>drone</t>
+  </si>
+  <si>
+    <t>mech wolf</t>
+  </si>
+  <si>
+    <t>walking</t>
+  </si>
+  <si>
+    <t>run</t>
+  </si>
+  <si>
+    <t>dead</t>
+  </si>
+  <si>
+    <t>idle</t>
+  </si>
+  <si>
+    <t>Mech Eagle</t>
+  </si>
+  <si>
+    <t>Mutter Eliza</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>nano power core</t>
+  </si>
+  <si>
+    <t>small houses</t>
+  </si>
+  <si>
+    <t>medium houses</t>
+  </si>
+  <si>
+    <t>large buildigs</t>
+  </si>
+  <si>
+    <t>city hall</t>
+  </si>
+  <si>
+    <t>trees</t>
+  </si>
+  <si>
+    <t>land mines</t>
+  </si>
+  <si>
+    <t>health pickup</t>
+  </si>
+  <si>
+    <t>crates</t>
+  </si>
+  <si>
+    <t>Mech Spider</t>
+  </si>
+  <si>
+    <t>broken street light</t>
+  </si>
+  <si>
+    <t>fence</t>
+  </si>
+  <si>
+    <t>trash cans</t>
+  </si>
+  <si>
+    <t>mail box</t>
+  </si>
+  <si>
+    <t>bushes</t>
+  </si>
+  <si>
+    <t>cracked streets</t>
+  </si>
+  <si>
+    <t>broken walls</t>
+  </si>
+  <si>
+    <t>barrels</t>
+  </si>
+  <si>
+    <t>planks</t>
+  </si>
+  <si>
+    <t>flying flyers</t>
+  </si>
+  <si>
+    <t>fire</t>
+  </si>
+  <si>
+    <t>destruction</t>
+  </si>
+  <si>
+    <t>smoke</t>
+  </si>
+  <si>
+    <t>gun fire</t>
+  </si>
+  <si>
+    <t>explosions</t>
+  </si>
+  <si>
+    <t>hit enemy</t>
+  </si>
+  <si>
+    <t>sparks</t>
+  </si>
+  <si>
+    <t>enemy dead</t>
+  </si>
+  <si>
+    <t>health bar</t>
+  </si>
+  <si>
+    <t>shield</t>
+  </si>
+  <si>
+    <t>minimap</t>
+  </si>
+  <si>
+    <t>selected weapon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hexagon pattern </t>
+  </si>
+  <si>
+    <t>hit detection</t>
+  </si>
+  <si>
+    <t>ammo</t>
+  </si>
+  <si>
+    <t>crosshair</t>
+  </si>
+  <si>
+    <t>moving</t>
+  </si>
+  <si>
+    <t>shooting (gun)</t>
+  </si>
+  <si>
+    <t>shooting (rocket)</t>
+  </si>
+  <si>
+    <t>swinging melee</t>
+  </si>
+  <si>
+    <t>taking damage</t>
+  </si>
+  <si>
+    <t>dealing damage</t>
+  </si>
+  <si>
+    <t>Enemy wolf</t>
+  </si>
+  <si>
+    <t>enemy eagle</t>
+  </si>
+  <si>
+    <t>Enemy Spider</t>
+  </si>
+  <si>
+    <t>Ambient sounds</t>
+  </si>
+  <si>
+    <t>background noises</t>
+  </si>
+  <si>
+    <t>voice overs</t>
+  </si>
+  <si>
+    <t>explosion</t>
+  </si>
+  <si>
+    <t>arc de triomphe</t>
+  </si>
+  <si>
+    <t>fountain</t>
+  </si>
+  <si>
+    <t>ammo pickups</t>
+  </si>
+  <si>
+    <t>main menu</t>
+  </si>
+  <si>
+    <t>pause menu</t>
+  </si>
+  <si>
+    <t>game over screen</t>
+  </si>
+  <si>
+    <t>credits</t>
+  </si>
+  <si>
+    <t>electric bolts</t>
+  </si>
+  <si>
+    <t>power core</t>
+  </si>
+  <si>
+    <t>glow</t>
+  </si>
+  <si>
+    <t>pylon</t>
+  </si>
+  <si>
+    <t>ammo pickup</t>
+  </si>
+  <si>
+    <t>gun switch</t>
+  </si>
+  <si>
+    <t>activate blade</t>
+  </si>
+  <si>
+    <t>beam canon</t>
+  </si>
+  <si>
+    <t>rocket fire</t>
+  </si>
+  <si>
+    <t>rocket</t>
+  </si>
+  <si>
+    <t>roundabout</t>
+  </si>
+  <si>
+    <t>traffic signs</t>
+  </si>
+  <si>
+    <t>dirt with moss</t>
+  </si>
+  <si>
+    <t>electric poles</t>
+  </si>
+  <si>
+    <t>brandenburg gate</t>
+  </si>
+  <si>
+    <t>phonecell</t>
+  </si>
+  <si>
+    <t>bus</t>
+  </si>
+  <si>
+    <t>bus waiting station</t>
+  </si>
+  <si>
+    <t>german flags</t>
+  </si>
+  <si>
+    <t>german spire</t>
+  </si>
+  <si>
+    <t>berlin wall</t>
+  </si>
+  <si>
+    <t>(pole with round thing)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">outside benches </t>
+  </si>
+  <si>
+    <t>inside benches</t>
+  </si>
+  <si>
+    <t>counter</t>
+  </si>
+  <si>
+    <t>40 hours</t>
+  </si>
+  <si>
+    <t>4 hours</t>
+  </si>
+  <si>
+    <t>30 hours</t>
+  </si>
+  <si>
+    <t>25 hours</t>
+  </si>
+  <si>
+    <t>20 hours</t>
+  </si>
+  <si>
+    <t>5 hours</t>
+  </si>
+  <si>
+    <t>10 hours</t>
+  </si>
+  <si>
+    <t>15 hours</t>
+  </si>
+  <si>
+    <t>(broken) cars</t>
+  </si>
+  <si>
+    <t>2 hours</t>
+  </si>
+  <si>
+    <t>30 min</t>
+  </si>
+  <si>
+    <t>(broken) truck</t>
+  </si>
+  <si>
+    <t>3 hours</t>
+  </si>
+  <si>
+    <t>30min</t>
+  </si>
+  <si>
+    <t>1 hour</t>
+  </si>
+  <si>
+    <t>traffic lights</t>
+  </si>
+  <si>
+    <t>50 hours</t>
+  </si>
+  <si>
+    <t>waving</t>
+  </si>
+  <si>
+    <t>blue for hit on shield, red for hit without shield</t>
+  </si>
+  <si>
+    <t>break things</t>
+  </si>
+  <si>
+    <t>use hit enemy partical</t>
+  </si>
+  <si>
+    <t>internet</t>
   </si>
 </sst>
 </file>
@@ -593,7 +953,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -672,33 +1032,6 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -706,27 +1039,55 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1043,18 +1404,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="38"/>
+      <c r="B1" s="47"/>
       <c r="C1" s="5" t="s">
         <v>64</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>9</v>
@@ -1076,14 +1437,14 @@
       <c r="B2" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="36"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="45"/>
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1">
@@ -1093,31 +1454,31 @@
       <c r="B3" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="33"/>
-    </row>
-    <row r="4" spans="1:9" s="43" customFormat="1">
-      <c r="A4" s="46" t="s">
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="42"/>
+    </row>
+    <row r="4" spans="1:9" s="34" customFormat="1">
+      <c r="A4" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="42"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="33"/>
     </row>
     <row r="5" spans="1:9" s="16" customFormat="1">
       <c r="A5" s="28" t="s">
@@ -1126,14 +1487,14 @@
       <c r="B5" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="45"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="50"/>
       <c r="I5" s="27" t="s">
         <v>65</v>
       </c>
@@ -1336,10 +1697,10 @@
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -1352,7 +1713,7 @@
     <col min="6" max="6" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="41" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="32" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="33" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" hidden="1"/>
   </cols>
@@ -1382,7 +1743,7 @@
       <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="30" t="s">
         <v>63</v>
       </c>
       <c r="J1" s="4" t="s">
@@ -1394,15 +1755,837 @@
       <c r="B2" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>168</v>
+      </c>
       <c r="H2" s="3"/>
-      <c r="I2" s="40"/>
+      <c r="I2" s="31"/>
       <c r="J2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="D4" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="D5" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="D6" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="D7" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="D8" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="D10" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="D12" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="D13" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="D14" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="D15" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="2">
+        <v>2</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="D17" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="D18" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="D19" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="2">
+        <v>5</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="51"/>
+      <c r="D21" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="51"/>
+      <c r="D22" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="51"/>
+      <c r="D23" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" s="2">
+        <v>3</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F30" s="2">
+        <v>2</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F32" s="2">
+        <v>2</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F33" s="2">
+        <v>4</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F34" s="2">
+        <v>5</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F35" s="2">
+        <v>4</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F36" s="2">
+        <v>3</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F37" s="2">
+        <v>5</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F38" s="2">
+        <v>3</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F39" s="2">
+        <v>2</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F40" s="2">
+        <v>1</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F41" s="2">
+        <v>3</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F42" s="2">
+        <v>5</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F43" s="2">
+        <v>4</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" s="2">
+        <v>2</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" s="2">
+        <v>3</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F46" s="2">
+        <v>1</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F47" s="2">
+        <v>2</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F48" s="2">
+        <v>3</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10">
+      <c r="B49" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F49" s="2">
+        <v>3</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10">
+      <c r="B50" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F50" s="2">
+        <v>5</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10">
+      <c r="B51" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F51" s="2">
+        <v>5</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10">
+      <c r="B52" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F52" s="2">
+        <v>3</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10">
+      <c r="B53" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F53" s="2">
+        <v>3</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10">
+      <c r="B54" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F54" s="2">
+        <v>3</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10">
+      <c r="B55" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F55" s="2">
+        <v>2</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10">
+      <c r="B56" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F56" s="2">
+        <v>3</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10">
+      <c r="B57" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F57" s="2">
+        <v>3</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10">
+      <c r="B58" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F58" s="2">
+        <v>3</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10">
+      <c r="B59" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F59" s="2">
+        <v>3</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10">
+      <c r="B60" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F60" s="2">
+        <v>2</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10">
+      <c r="B61" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F61" s="2">
+        <v>3</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -1416,21 +2599,21 @@
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33" style="2" customWidth="1"/>
+    <col min="7" max="7" width="43.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
@@ -1459,12 +2642,153 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="B3" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="B4" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="B5" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="B9" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" s="2">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>177</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1478,7 +2802,7 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1541,16 +2865,16 @@
   <sheetPr>
     <tabColor theme="0" tint="-4.9989318521683403E-2"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.140625" style="2" bestFit="1" customWidth="1"/>
@@ -1588,13 +2912,213 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="D2" s="3">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="B3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="B4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" s="2">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D15" s="2">
+        <v>3</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="2">
+        <v>5</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17" s="2">
+        <v>3</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D18" s="2">
+        <v>3</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>189</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1606,16 +3130,16 @@
   <sheetPr>
     <tabColor theme="0" tint="-4.9989318521683403E-2"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
@@ -1649,13 +3173,75 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
+    <row r="3" spans="1:7">
+      <c r="B3" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="B4" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="B5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="B9" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Planning & Assetlist.xlsx
+++ b/Planning & Assetlist.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fafos\Documents\GitHub\Order66\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="72" windowWidth="20052" windowHeight="7932"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="8" r:id="rId1"/>
     <sheet name="3D" sheetId="1" r:id="rId2"/>
     <sheet name="2D" sheetId="2" r:id="rId3"/>
     <sheet name="Scripts" sheetId="5" r:id="rId4"/>
-    <sheet name="Particals" sheetId="3" r:id="rId5"/>
+    <sheet name="Particles" sheetId="3" r:id="rId5"/>
     <sheet name="Sounds" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -594,8 +599,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1045,6 +1050,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1087,18 +1093,25 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-thema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Kantoor">
       <a:dk1>
@@ -1140,7 +1153,7 @@
     </a:clrScheme>
     <a:fontScheme name="Kantoor">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1172,9 +1185,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1206,6 +1220,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Kantoor">
@@ -1381,33 +1396,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="20" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="11" customWidth="1"/>
-    <col min="4" max="5" width="20.7109375" style="12" customWidth="1"/>
-    <col min="6" max="7" width="20.7109375" style="13" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" style="14" customWidth="1"/>
-    <col min="9" max="9" width="39.5703125" style="15" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="5.44140625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="11" customWidth="1"/>
+    <col min="4" max="5" width="20.6640625" style="12" customWidth="1"/>
+    <col min="6" max="7" width="20.6640625" style="13" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" style="14" customWidth="1"/>
+    <col min="9" max="9" width="39.5546875" style="15" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="47"/>
+      <c r="B1" s="48"/>
       <c r="C1" s="5" t="s">
         <v>64</v>
       </c>
@@ -1430,76 +1445,76 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="46"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
-    </row>
-    <row r="4" spans="1:9" s="34" customFormat="1">
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="43"/>
+    </row>
+    <row r="4" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="35" t="s">
         <v>39</v>
       </c>
       <c r="B4" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="40"/>
       <c r="I4" s="33"/>
     </row>
-    <row r="5" spans="1:9" s="16" customFormat="1">
+    <row r="5" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>41</v>
       </c>
       <c r="B5" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="51"/>
       <c r="I5" s="27" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>43</v>
       </c>
@@ -1516,7 +1531,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>14</v>
       </c>
@@ -1524,7 +1539,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>15</v>
       </c>
@@ -1532,7 +1547,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>16</v>
       </c>
@@ -1540,7 +1555,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>17</v>
       </c>
@@ -1548,7 +1563,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
         <v>18</v>
       </c>
@@ -1556,7 +1571,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="16" customFormat="1">
+    <row r="12" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
         <v>19</v>
       </c>
@@ -1573,7 +1588,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>20</v>
       </c>
@@ -1581,7 +1596,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
         <v>21</v>
       </c>
@@ -1589,7 +1604,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>22</v>
       </c>
@@ -1606,7 +1621,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
         <v>23</v>
       </c>
@@ -1614,7 +1629,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
         <v>24</v>
       </c>
@@ -1622,7 +1637,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
         <v>25</v>
       </c>
@@ -1630,7 +1645,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
         <v>26</v>
       </c>
@@ -1638,7 +1653,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
         <v>27</v>
       </c>
@@ -1646,7 +1661,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="18" t="s">
         <v>28</v>
       </c>
@@ -1654,7 +1669,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
         <v>29</v>
       </c>
@@ -1662,7 +1677,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="16" customFormat="1">
+    <row r="23" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
         <v>30</v>
       </c>
@@ -1693,7 +1708,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1703,22 +1718,22 @@
       <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" style="32" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="33" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" hidden="1"/>
+    <col min="11" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1750,7 +1765,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>66</v>
@@ -1774,7 +1789,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1788,32 +1803,32 @@
       <c r="I3" s="31"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D4" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D5" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D6" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D7" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D8" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>76</v>
       </c>
@@ -1833,12 +1848,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D10" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>79</v>
       </c>
@@ -1855,27 +1870,27 @@
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D12" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D13" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D14" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D15" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>84</v>
       </c>
@@ -1892,23 +1907,23 @@
         <v>171</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D17" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D18" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D19" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="51" t="s">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="37" t="s">
         <v>96</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -1924,25 +1939,25 @@
         <v>172</v>
       </c>
     </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="51"/>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="37"/>
       <c r="D21" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="51"/>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="37"/>
       <c r="D22" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="51"/>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="37"/>
       <c r="D23" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
         <v>87</v>
       </c>
@@ -1959,7 +1974,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
         <v>88</v>
       </c>
@@ -1976,7 +1991,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
         <v>89</v>
       </c>
@@ -1993,7 +2008,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="27" spans="2:7">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
         <v>90</v>
       </c>
@@ -2010,7 +2025,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="28" spans="2:7">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="2" t="s">
         <v>91</v>
       </c>
@@ -2027,7 +2042,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="29" spans="2:7">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="2" t="s">
         <v>176</v>
       </c>
@@ -2044,7 +2059,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="30" spans="2:7">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="2" t="s">
         <v>92</v>
       </c>
@@ -2055,7 +2070,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="31" spans="2:7">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>93</v>
       </c>
@@ -2072,7 +2087,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="32" spans="2:7">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
         <v>94</v>
       </c>
@@ -2089,7 +2104,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="33" spans="2:7">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
         <v>95</v>
       </c>
@@ -2106,7 +2121,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="34" spans="2:7">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="2" t="s">
         <v>179</v>
       </c>
@@ -2123,7 +2138,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="35" spans="2:7">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="2" t="s">
         <v>97</v>
       </c>
@@ -2140,7 +2155,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="36" spans="2:7">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="2" t="s">
         <v>98</v>
       </c>
@@ -2157,7 +2172,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="37" spans="2:7">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="2" t="s">
         <v>99</v>
       </c>
@@ -2174,7 +2189,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="38" spans="2:7">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="2" t="s">
         <v>100</v>
       </c>
@@ -2191,7 +2206,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="39" spans="2:7">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="2" t="s">
         <v>101</v>
       </c>
@@ -2208,7 +2223,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="40" spans="2:7">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="s">
         <v>102</v>
       </c>
@@ -2225,7 +2240,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="41" spans="2:7">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="s">
         <v>103</v>
       </c>
@@ -2242,7 +2257,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="42" spans="2:7">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
         <v>104</v>
       </c>
@@ -2259,7 +2274,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="43" spans="2:7">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="2" t="s">
         <v>105</v>
       </c>
@@ -2276,7 +2291,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="44" spans="2:7">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="2" t="s">
         <v>136</v>
       </c>
@@ -2293,7 +2308,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="45" spans="2:7">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="2" t="s">
         <v>137</v>
       </c>
@@ -2310,7 +2325,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="46" spans="2:7">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46" s="2" t="s">
         <v>138</v>
       </c>
@@ -2327,7 +2342,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="47" spans="2:7">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B47" s="2" t="s">
         <v>152</v>
       </c>
@@ -2344,7 +2359,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="48" spans="2:7">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B48" s="2" t="s">
         <v>153</v>
       </c>
@@ -2361,7 +2376,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B49" s="2" t="s">
         <v>154</v>
       </c>
@@ -2381,7 +2396,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="50" spans="2:10">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B50" s="2" t="s">
         <v>156</v>
       </c>
@@ -2398,7 +2413,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="51" spans="2:10">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B51" s="2" t="s">
         <v>157</v>
       </c>
@@ -2415,7 +2430,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="52" spans="2:10">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B52" s="2" t="s">
         <v>158</v>
       </c>
@@ -2432,7 +2447,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="53" spans="2:10">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B53" s="2" t="s">
         <v>160</v>
       </c>
@@ -2449,7 +2464,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="54" spans="2:10">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B54" s="2" t="s">
         <v>159</v>
       </c>
@@ -2466,7 +2481,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="55" spans="2:10">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B55" s="2" t="s">
         <v>161</v>
       </c>
@@ -2483,7 +2498,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="56" spans="2:10">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B56" s="2" t="s">
         <v>162</v>
       </c>
@@ -2503,7 +2518,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="57" spans="2:10">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B57" s="2" t="s">
         <v>163</v>
       </c>
@@ -2520,7 +2535,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="58" spans="2:10">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B58" s="2" t="s">
         <v>165</v>
       </c>
@@ -2537,7 +2552,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="59" spans="2:10">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B59" s="2" t="s">
         <v>166</v>
       </c>
@@ -2554,7 +2569,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="60" spans="2:10">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B60" s="2" t="s">
         <v>167</v>
       </c>
@@ -2571,7 +2586,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="61" spans="2:10">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B61" s="2" t="s">
         <v>183</v>
       </c>
@@ -2595,7 +2610,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
@@ -2605,19 +2620,19 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2640,7 +2655,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>115</v>
@@ -2655,7 +2670,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>116</v>
       </c>
@@ -2666,7 +2681,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>117</v>
       </c>
@@ -2677,7 +2692,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>118</v>
       </c>
@@ -2688,7 +2703,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>119</v>
       </c>
@@ -2699,7 +2714,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>120</v>
       </c>
@@ -2713,7 +2728,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>121</v>
       </c>
@@ -2724,7 +2739,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>122</v>
       </c>
@@ -2735,7 +2750,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>139</v>
       </c>
@@ -2746,7 +2761,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>140</v>
       </c>
@@ -2757,7 +2772,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>141</v>
       </c>
@@ -2768,7 +2783,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>142</v>
       </c>
@@ -2779,7 +2794,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>85</v>
       </c>
@@ -2796,7 +2811,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
@@ -2806,20 +2821,20 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" hidden="1"/>
+    <col min="9" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2845,7 +2860,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2861,30 +2876,30 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-4.9989318521683403E-2"/>
   </sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" hidden="1"/>
+    <col min="9" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2910,7 +2925,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>106</v>
@@ -2926,7 +2941,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>107</v>
       </c>
@@ -2937,7 +2952,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>108</v>
       </c>
@@ -2951,7 +2966,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>109</v>
       </c>
@@ -2962,7 +2977,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>110</v>
       </c>
@@ -2973,7 +2988,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>111</v>
       </c>
@@ -2984,7 +2999,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>112</v>
       </c>
@@ -2998,7 +3013,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>114</v>
       </c>
@@ -3012,7 +3027,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>144</v>
       </c>
@@ -3026,7 +3041,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>146</v>
       </c>
@@ -3037,7 +3052,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>94</v>
       </c>
@@ -3048,7 +3063,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>147</v>
       </c>
@@ -3059,7 +3074,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>148</v>
       </c>
@@ -3073,7 +3088,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>149</v>
       </c>
@@ -3087,7 +3102,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>150</v>
       </c>
@@ -3098,7 +3113,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>151</v>
       </c>
@@ -3109,7 +3124,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>137</v>
       </c>
@@ -3126,7 +3141,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-4.9989318521683403E-2"/>
   </sheetPr>
@@ -3136,19 +3151,19 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" hidden="1"/>
+    <col min="8" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3171,7 +3186,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>123</v>
@@ -3182,62 +3197,62 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>135</v>
       </c>

--- a/Planning & Assetlist.xlsx
+++ b/Planning & Assetlist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="8" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="499">
   <si>
     <t>Code Name</t>
   </si>
@@ -1448,6 +1448,75 @@
   </si>
   <si>
     <t>Boss Fight</t>
+  </si>
+  <si>
+    <t>Fountain Water Shader</t>
+  </si>
+  <si>
+    <t>7S_CAMC_001</t>
+  </si>
+  <si>
+    <t>7S_SHLD_001</t>
+  </si>
+  <si>
+    <t>7S_CRHP_001</t>
+  </si>
+  <si>
+    <t>7S_WPSW_001</t>
+  </si>
+  <si>
+    <t>7S_CRCB_001</t>
+  </si>
+  <si>
+    <t>7S_CRCO_001</t>
+  </si>
+  <si>
+    <t>7S_WPST_001</t>
+  </si>
+  <si>
+    <t>7S_AIBH_001</t>
+  </si>
+  <si>
+    <t>7S_AICB_001</t>
+  </si>
+  <si>
+    <t>7S_AIHP_001</t>
+  </si>
+  <si>
+    <t>7S_ENWA_001</t>
+  </si>
+  <si>
+    <t>7S_CPBH_001</t>
+  </si>
+  <si>
+    <t>7S_CPCB_001</t>
+  </si>
+  <si>
+    <t>7S_UIME_001</t>
+  </si>
+  <si>
+    <t>7S_GMOP_001</t>
+  </si>
+  <si>
+    <t>7S_MMAP_001</t>
+  </si>
+  <si>
+    <t>7S_RESP_001</t>
+  </si>
+  <si>
+    <t>7S_MINE_001</t>
+  </si>
+  <si>
+    <t>7S_NANO_001</t>
+  </si>
+  <si>
+    <t>7S_ENVI_001</t>
+  </si>
+  <si>
+    <t>7S_BOSF_001</t>
+  </si>
+  <si>
+    <t>7S_FOUN_001</t>
   </si>
 </sst>
 </file>
@@ -2203,81 +2272,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2286,6 +2280,81 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -2615,10 +2684,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="112"/>
+      <c r="B1" s="116"/>
       <c r="C1" s="5" t="s">
         <v>62</v>
       </c>
@@ -2648,14 +2717,14 @@
       <c r="B2" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="108" t="s">
+      <c r="C2" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="110"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="114"/>
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1">
@@ -2665,14 +2734,14 @@
       <c r="B3" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="105" t="s">
+      <c r="C3" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="107"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="111"/>
     </row>
     <row r="4" spans="1:9" s="31" customFormat="1">
       <c r="A4" s="32" t="s">
@@ -2681,14 +2750,14 @@
       <c r="B4" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="102" t="s">
+      <c r="C4" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="104"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="108"/>
       <c r="I4" s="30"/>
     </row>
     <row r="5" spans="1:9" s="16" customFormat="1">
@@ -2698,14 +2767,14 @@
       <c r="B5" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="113" t="s">
+      <c r="C5" s="117" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="115"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="118"/>
+      <c r="H5" s="119"/>
       <c r="I5" s="25" t="s">
         <v>63</v>
       </c>
@@ -2910,8 +2979,8 @@
   </sheetPr>
   <dimension ref="A1:N74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView topLeftCell="D51" workbookViewId="0">
+      <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -2999,7 +3068,7 @@
       </c>
       <c r="J2" s="79"/>
       <c r="K2" s="78"/>
-      <c r="L2" s="116" t="s">
+      <c r="L2" s="120" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3017,7 +3086,7 @@
       <c r="I3" s="101"/>
       <c r="J3" s="101"/>
       <c r="K3" s="101"/>
-      <c r="L3" s="117"/>
+      <c r="L3" s="121"/>
     </row>
     <row r="4" spans="1:12" s="36" customFormat="1">
       <c r="A4" s="101"/>
@@ -3033,7 +3102,7 @@
       <c r="I4" s="101"/>
       <c r="J4" s="101"/>
       <c r="K4" s="101"/>
-      <c r="L4" s="117"/>
+      <c r="L4" s="121"/>
     </row>
     <row r="5" spans="1:12" s="36" customFormat="1">
       <c r="A5" s="101"/>
@@ -3049,7 +3118,7 @@
       <c r="I5" s="101"/>
       <c r="J5" s="101"/>
       <c r="K5" s="101"/>
-      <c r="L5" s="117"/>
+      <c r="L5" s="121"/>
     </row>
     <row r="6" spans="1:12" s="36" customFormat="1">
       <c r="A6" s="101"/>
@@ -3065,7 +3134,7 @@
       <c r="I6" s="101"/>
       <c r="J6" s="101"/>
       <c r="K6" s="101"/>
-      <c r="L6" s="117"/>
+      <c r="L6" s="121"/>
     </row>
     <row r="7" spans="1:12" s="36" customFormat="1">
       <c r="A7" s="101"/>
@@ -3081,7 +3150,7 @@
       <c r="I7" s="101"/>
       <c r="J7" s="101"/>
       <c r="K7" s="101"/>
-      <c r="L7" s="117"/>
+      <c r="L7" s="121"/>
     </row>
     <row r="8" spans="1:12" s="36" customFormat="1">
       <c r="A8" s="101"/>
@@ -3097,7 +3166,7 @@
       <c r="I8" s="101"/>
       <c r="J8" s="101"/>
       <c r="K8" s="101"/>
-      <c r="L8" s="117"/>
+      <c r="L8" s="121"/>
     </row>
     <row r="9" spans="1:12" s="36" customFormat="1">
       <c r="A9" s="101"/>
@@ -3113,7 +3182,7 @@
       <c r="I9" s="101"/>
       <c r="J9" s="101"/>
       <c r="K9" s="101"/>
-      <c r="L9" s="117"/>
+      <c r="L9" s="121"/>
     </row>
     <row r="10" spans="1:12" s="36" customFormat="1">
       <c r="A10" s="101"/>
@@ -3129,7 +3198,7 @@
       <c r="I10" s="101"/>
       <c r="J10" s="101"/>
       <c r="K10" s="101"/>
-      <c r="L10" s="117"/>
+      <c r="L10" s="121"/>
     </row>
     <row r="11" spans="1:12" s="36" customFormat="1">
       <c r="A11" s="101"/>
@@ -3145,7 +3214,7 @@
       <c r="I11" s="101"/>
       <c r="J11" s="101"/>
       <c r="K11" s="101"/>
-      <c r="L11" s="118"/>
+      <c r="L11" s="122"/>
     </row>
     <row r="12" spans="1:12" s="2" customFormat="1">
       <c r="A12" s="2" t="s">
@@ -3176,7 +3245,7 @@
         <v>72</v>
       </c>
       <c r="K12" s="29"/>
-      <c r="L12" s="119" t="s">
+      <c r="L12" s="123" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3194,7 +3263,7 @@
       <c r="I13" s="39"/>
       <c r="J13" s="39"/>
       <c r="K13" s="39"/>
-      <c r="L13" s="120"/>
+      <c r="L13" s="124"/>
     </row>
     <row r="14" spans="1:12" s="75" customFormat="1">
       <c r="A14" s="75" t="s">
@@ -3225,7 +3294,7 @@
         <v>73</v>
       </c>
       <c r="K14" s="82"/>
-      <c r="L14" s="121"/>
+      <c r="L14" s="125"/>
     </row>
     <row r="15" spans="1:12" s="36" customFormat="1">
       <c r="A15" s="101"/>
@@ -3241,7 +3310,7 @@
       <c r="I15" s="101"/>
       <c r="J15" s="101"/>
       <c r="K15" s="101"/>
-      <c r="L15" s="117"/>
+      <c r="L15" s="121"/>
     </row>
     <row r="16" spans="1:12" s="36" customFormat="1">
       <c r="A16" s="101"/>
@@ -3257,7 +3326,7 @@
       <c r="I16" s="101"/>
       <c r="J16" s="101"/>
       <c r="K16" s="101"/>
-      <c r="L16" s="117"/>
+      <c r="L16" s="121"/>
     </row>
     <row r="17" spans="1:12" s="36" customFormat="1">
       <c r="A17" s="101"/>
@@ -3273,7 +3342,7 @@
       <c r="I17" s="101"/>
       <c r="J17" s="101"/>
       <c r="K17" s="101"/>
-      <c r="L17" s="117"/>
+      <c r="L17" s="121"/>
     </row>
     <row r="18" spans="1:12" s="36" customFormat="1">
       <c r="A18" s="101"/>
@@ -3289,7 +3358,7 @@
       <c r="I18" s="101"/>
       <c r="J18" s="101"/>
       <c r="K18" s="101"/>
-      <c r="L18" s="118"/>
+      <c r="L18" s="122"/>
     </row>
     <row r="19" spans="1:12" s="2" customFormat="1">
       <c r="A19" s="2" t="s">
@@ -3320,7 +3389,7 @@
         <v>74</v>
       </c>
       <c r="K19" s="29"/>
-      <c r="L19" s="119"/>
+      <c r="L19" s="123"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="39"/>
@@ -3336,7 +3405,7 @@
       <c r="I20" s="39"/>
       <c r="J20" s="39"/>
       <c r="K20" s="39"/>
-      <c r="L20" s="120"/>
+      <c r="L20" s="124"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="39"/>
@@ -3352,7 +3421,7 @@
       <c r="I21" s="39"/>
       <c r="J21" s="39"/>
       <c r="K21" s="39"/>
-      <c r="L21" s="120"/>
+      <c r="L21" s="124"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="39"/>
@@ -3368,7 +3437,7 @@
       <c r="I22" s="39"/>
       <c r="J22" s="39"/>
       <c r="K22" s="39"/>
-      <c r="L22" s="122"/>
+      <c r="L22" s="126"/>
     </row>
     <row r="23" spans="1:12" s="75" customFormat="1">
       <c r="A23" s="75" t="s">
@@ -3399,7 +3468,7 @@
         <v>75</v>
       </c>
       <c r="K23" s="82"/>
-      <c r="L23" s="121"/>
+      <c r="L23" s="125"/>
     </row>
     <row r="24" spans="1:12" s="36" customFormat="1">
       <c r="A24" s="101"/>
@@ -3415,7 +3484,7 @@
       <c r="I24" s="101"/>
       <c r="J24" s="101"/>
       <c r="K24" s="101"/>
-      <c r="L24" s="117"/>
+      <c r="L24" s="121"/>
     </row>
     <row r="25" spans="1:12" s="36" customFormat="1">
       <c r="A25" s="101"/>
@@ -3431,7 +3500,7 @@
       <c r="I25" s="101"/>
       <c r="J25" s="101"/>
       <c r="K25" s="101"/>
-      <c r="L25" s="117"/>
+      <c r="L25" s="121"/>
     </row>
     <row r="26" spans="1:12" s="36" customFormat="1">
       <c r="A26" s="101"/>
@@ -3447,7 +3516,7 @@
       <c r="I26" s="101"/>
       <c r="J26" s="101"/>
       <c r="K26" s="101"/>
-      <c r="L26" s="118"/>
+      <c r="L26" s="122"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="2" t="s">
@@ -3841,7 +3910,7 @@
         <v>443</v>
       </c>
       <c r="H39" s="45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>76</v>
@@ -3870,7 +3939,7 @@
         <v>444</v>
       </c>
       <c r="H40" s="76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I40" s="75" t="s">
         <v>76</v>
@@ -4942,7 +5011,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -5197,15 +5266,15 @@
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="24" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.5703125" style="44" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" style="2" bestFit="1" customWidth="1"/>
@@ -5240,59 +5309,93 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="35" customFormat="1">
-      <c r="A2" s="47"/>
+      <c r="A2" s="47" t="s">
+        <v>477</v>
+      </c>
       <c r="B2" s="47" t="s">
         <v>460</v>
       </c>
-      <c r="C2" s="49"/>
+      <c r="C2" s="49">
+        <v>1</v>
+      </c>
       <c r="D2" s="47"/>
       <c r="E2" s="47"/>
       <c r="F2" s="47"/>
       <c r="G2" s="47"/>
     </row>
     <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>482</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>95</v>
       </c>
+      <c r="C3" s="44">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:7" s="35" customFormat="1">
-      <c r="A4" s="48"/>
-      <c r="B4" s="127" t="s">
+      <c r="A4" s="48" t="s">
+        <v>478</v>
+      </c>
+      <c r="B4" s="102" t="s">
         <v>459</v>
       </c>
-      <c r="C4" s="50"/>
+      <c r="C4" s="50">
+        <v>1</v>
+      </c>
       <c r="D4" s="48"/>
       <c r="E4" s="48"/>
       <c r="F4" s="48"/>
       <c r="G4" s="48"/>
     </row>
     <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>479</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>151</v>
       </c>
+      <c r="C5" s="44">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7" s="35" customFormat="1">
-      <c r="A6" s="48"/>
+      <c r="A6" s="48" t="s">
+        <v>480</v>
+      </c>
       <c r="B6" s="35" t="s">
         <v>458</v>
       </c>
-      <c r="C6" s="50"/>
+      <c r="C6" s="50">
+        <v>1</v>
+      </c>
       <c r="D6" s="48"/>
       <c r="E6" s="48"/>
       <c r="F6" s="48"/>
       <c r="G6" s="48"/>
     </row>
     <row r="7" spans="1:7">
+      <c r="A7" s="2" t="s">
+        <v>481</v>
+      </c>
       <c r="B7" s="2" t="s">
         <v>465</v>
       </c>
+      <c r="C7" s="44">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:7" s="35" customFormat="1">
-      <c r="A8" s="48"/>
+      <c r="A8" s="48" t="s">
+        <v>483</v>
+      </c>
       <c r="B8" s="48" t="s">
         <v>461</v>
       </c>
-      <c r="C8" s="50"/>
+      <c r="C8" s="50">
+        <v>1</v>
+      </c>
       <c r="D8" s="48"/>
       <c r="E8" s="48"/>
       <c r="F8" s="48"/>
@@ -5301,85 +5404,196 @@
       </c>
     </row>
     <row r="9" spans="1:7">
+      <c r="A9" s="2" t="s">
+        <v>484</v>
+      </c>
       <c r="B9" s="2" t="s">
         <v>463</v>
       </c>
+      <c r="C9" s="44">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:7" s="35" customFormat="1">
-      <c r="A10" s="48"/>
+      <c r="A10" s="48" t="s">
+        <v>485</v>
+      </c>
       <c r="B10" s="48" t="s">
         <v>464</v>
       </c>
-      <c r="C10" s="50"/>
+      <c r="C10" s="50">
+        <v>1</v>
+      </c>
       <c r="D10" s="48"/>
       <c r="E10" s="48"/>
       <c r="F10" s="48"/>
       <c r="G10" s="48"/>
     </row>
     <row r="11" spans="1:7">
+      <c r="A11" s="2" t="s">
+        <v>486</v>
+      </c>
       <c r="B11" s="2" t="s">
         <v>466</v>
       </c>
+      <c r="C11" s="44">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:7" s="35" customFormat="1">
-      <c r="A12" s="48"/>
+      <c r="A12" s="48" t="s">
+        <v>487</v>
+      </c>
       <c r="B12" s="48" t="s">
         <v>467</v>
       </c>
-      <c r="C12" s="50"/>
+      <c r="C12" s="50">
+        <v>2</v>
+      </c>
       <c r="D12" s="48"/>
       <c r="E12" s="48"/>
       <c r="F12" s="48"/>
       <c r="G12" s="48"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="B13" s="128" t="s">
+      <c r="A13" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B13" s="103" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="B14" s="128" t="s">
+      <c r="C13" s="44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="35" customFormat="1">
+      <c r="A14" s="48" t="s">
+        <v>489</v>
+      </c>
+      <c r="B14" s="48" t="s">
         <v>468</v>
       </c>
+      <c r="C14" s="50">
+        <v>2</v>
+      </c>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="B15" s="128" t="s">
+      <c r="A15" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B15" s="103" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="B16" s="2" t="s">
+      <c r="C15" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="35" customFormat="1">
+      <c r="A16" s="48" t="s">
+        <v>491</v>
+      </c>
+      <c r="B16" s="48" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="128" t="s">
+      <c r="C16" s="50">
+        <v>4</v>
+      </c>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B17" s="103" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="128" t="s">
+      <c r="C17" s="44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="35" customFormat="1">
+      <c r="A18" s="48" t="s">
+        <v>493</v>
+      </c>
+      <c r="B18" s="48" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="129" t="s">
+      <c r="C18" s="50">
+        <v>1</v>
+      </c>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="B19" s="104" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="128" t="s">
+      <c r="C19" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="35" customFormat="1">
+      <c r="A20" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="B20" s="48" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="130" t="s">
+      <c r="C20" s="50">
+        <v>1</v>
+      </c>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B21" s="105" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="2" t="s">
+      <c r="C21" s="44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="35" customFormat="1">
+      <c r="A22" s="48" t="s">
+        <v>497</v>
+      </c>
+      <c r="B22" s="48" t="s">
         <v>475</v>
+      </c>
+      <c r="C22" s="50">
+        <v>1</v>
+      </c>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C23" s="44">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -5395,7 +5609,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -5727,7 +5941,7 @@
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -5774,7 +5988,9 @@
       <c r="B2" s="87" t="s">
         <v>184</v>
       </c>
-      <c r="C2" s="88"/>
+      <c r="C2" s="88">
+        <v>4</v>
+      </c>
       <c r="D2" s="87"/>
       <c r="E2" s="87"/>
       <c r="F2" s="87"/>
@@ -5787,7 +6003,9 @@
       <c r="B3" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C3" s="44"/>
+      <c r="C3" s="44">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:7" s="42" customFormat="1">
       <c r="A4" s="42" t="s">
@@ -5796,7 +6014,9 @@
       <c r="B4" s="42" t="s">
         <v>186</v>
       </c>
-      <c r="C4" s="86"/>
+      <c r="C4" s="86">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1">
       <c r="A5" s="2" t="s">
@@ -5805,7 +6025,9 @@
       <c r="B5" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C5" s="44"/>
+      <c r="C5" s="44">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7" s="42" customFormat="1">
       <c r="A6" s="42" t="s">
@@ -5814,7 +6036,9 @@
       <c r="B6" s="42" t="s">
         <v>188</v>
       </c>
-      <c r="C6" s="86"/>
+      <c r="C6" s="86">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:7" s="2" customFormat="1">
       <c r="A7" s="2" t="s">
@@ -5823,7 +6047,9 @@
       <c r="B7" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C7" s="44"/>
+      <c r="C7" s="44">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:7" s="42" customFormat="1">
       <c r="A8" s="42" t="s">
@@ -5832,7 +6058,9 @@
       <c r="B8" s="42" t="s">
         <v>190</v>
       </c>
-      <c r="C8" s="86"/>
+      <c r="C8" s="86">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:7" s="2" customFormat="1">
       <c r="A9" s="2" t="s">
@@ -5841,7 +6069,9 @@
       <c r="B9" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C9" s="44"/>
+      <c r="C9" s="44">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:7" s="42" customFormat="1">
       <c r="A10" s="42" t="s">
@@ -5861,7 +6091,9 @@
       <c r="B11" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C11" s="44"/>
+      <c r="C11" s="44">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:7" s="42" customFormat="1">
       <c r="A12" s="42" t="s">
@@ -5870,7 +6102,9 @@
       <c r="B12" s="42" t="s">
         <v>193</v>
       </c>
-      <c r="C12" s="86"/>
+      <c r="C12" s="86">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:7" s="2" customFormat="1">
       <c r="A13" s="2" t="s">
@@ -5879,7 +6113,9 @@
       <c r="B13" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C13" s="44"/>
+      <c r="C13" s="44">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:7" s="42" customFormat="1">
       <c r="A14" s="42" t="s">
@@ -5888,7 +6124,9 @@
       <c r="B14" s="42" t="s">
         <v>195</v>
       </c>
-      <c r="C14" s="86"/>
+      <c r="C14" s="86">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="3"/>
@@ -5931,20 +6169,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="124"/>
+      <c r="B1" s="128"/>
       <c r="C1" s="37"/>
-      <c r="D1" s="123" t="s">
+      <c r="D1" s="127" t="s">
         <v>196</v>
       </c>
-      <c r="E1" s="124"/>
+      <c r="E1" s="128"/>
       <c r="F1" s="72"/>
-      <c r="G1" s="125" t="s">
+      <c r="G1" s="129" t="s">
         <v>209</v>
       </c>
-      <c r="H1" s="126"/>
+      <c r="H1" s="130"/>
       <c r="I1" s="37"/>
       <c r="J1" s="37"/>
       <c r="K1" s="37"/>

--- a/Planning & Assetlist.xlsx
+++ b/Planning & Assetlist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="8" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="507">
   <si>
     <t>Code Name</t>
   </si>
@@ -601,12 +601,6 @@
     <t>Ambient Sounds</t>
   </si>
   <si>
-    <t>Background Noises</t>
-  </si>
-  <si>
-    <t>Voice Overs</t>
-  </si>
-  <si>
     <t>Explosion</t>
   </si>
   <si>
@@ -1192,9 +1186,6 @@
     <t>SN_BGMN_001</t>
   </si>
   <si>
-    <t>SN_VOIO_001</t>
-  </si>
-  <si>
     <t>SN_EXPL_001</t>
   </si>
   <si>
@@ -1517,6 +1508,39 @@
   </si>
   <si>
     <t>7S_FOUN_001</t>
+  </si>
+  <si>
+    <t>Background Music Level</t>
+  </si>
+  <si>
+    <t>Background Music Menu</t>
+  </si>
+  <si>
+    <t>Voice Overs Mutter Eliza</t>
+  </si>
+  <si>
+    <t>Background Music Dead</t>
+  </si>
+  <si>
+    <t>SN_BGML_001</t>
+  </si>
+  <si>
+    <t>SN_BGMD_001</t>
+  </si>
+  <si>
+    <t>SN_VOIM_001</t>
+  </si>
+  <si>
+    <t>Background Music Boss</t>
+  </si>
+  <si>
+    <t>SN_BGMB_001</t>
+  </si>
+  <si>
+    <t>Voice Overs Hans Bähr</t>
+  </si>
+  <si>
+    <t>SN_VOIH_001</t>
   </si>
 </sst>
 </file>
@@ -2979,7 +3003,7 @@
   </sheetPr>
   <dimension ref="A1:N74"/>
   <sheetViews>
-    <sheetView topLeftCell="D51" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
@@ -3017,7 +3041,7 @@
         <v>6</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>7</v>
@@ -3032,7 +3056,7 @@
         <v>4</v>
       </c>
       <c r="K1" s="28" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>11</v>
@@ -3040,25 +3064,25 @@
     </row>
     <row r="2" spans="1:12" s="36" customFormat="1">
       <c r="A2" s="77" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B2" s="77" t="s">
         <v>64</v>
       </c>
       <c r="C2" s="77" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D2" s="77" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E2" s="79" t="s">
         <v>138</v>
       </c>
       <c r="F2" s="77" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G2" s="77" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H2" s="80">
         <v>1</v>
@@ -3218,25 +3242,25 @@
     </row>
     <row r="12" spans="1:12" s="2" customFormat="1">
       <c r="A12" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>146</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H12" s="45">
         <v>2</v>
@@ -3267,25 +3291,25 @@
     </row>
     <row r="14" spans="1:12" s="75" customFormat="1">
       <c r="A14" s="75" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B14" s="75" t="s">
         <v>97</v>
       </c>
       <c r="C14" s="75" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D14" s="75" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E14" s="75" t="s">
         <v>138</v>
       </c>
       <c r="F14" s="75" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G14" s="75" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H14" s="76">
         <v>1</v>
@@ -3362,25 +3386,25 @@
     </row>
     <row r="19" spans="1:12" s="2" customFormat="1">
       <c r="A19" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>138</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H19" s="45">
         <v>2</v>
@@ -3441,25 +3465,25 @@
     </row>
     <row r="23" spans="1:12" s="75" customFormat="1">
       <c r="A23" s="75" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B23" s="75" t="s">
         <v>70</v>
       </c>
       <c r="C23" s="75" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D23" s="75" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E23" s="75" t="s">
         <v>138</v>
       </c>
       <c r="F23" s="75" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G23" s="75" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H23" s="76">
         <v>5</v>
@@ -3520,7 +3544,7 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>98</v>
@@ -3535,10 +3559,10 @@
         <v>69</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H27" s="45">
         <v>1</v>
@@ -3549,10 +3573,10 @@
     </row>
     <row r="28" spans="1:12" s="36" customFormat="1">
       <c r="A28" s="75" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B28" s="75" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C28" s="82" t="s">
         <v>69</v>
@@ -3564,10 +3588,10 @@
         <v>69</v>
       </c>
       <c r="F28" s="75" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G28" s="75" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H28" s="76">
         <v>1</v>
@@ -3581,25 +3605,25 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>412</v>
-      </c>
-      <c r="C29" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="D29" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>415</v>
       </c>
       <c r="H29" s="45">
         <v>4</v>
@@ -3610,25 +3634,25 @@
     </row>
     <row r="30" spans="1:12" s="36" customFormat="1">
       <c r="A30" s="75" t="s">
+        <v>407</v>
+      </c>
+      <c r="B30" s="75" t="s">
         <v>410</v>
       </c>
-      <c r="B30" s="75" t="s">
+      <c r="C30" s="82" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="82" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" s="75" t="s">
+        <v>411</v>
+      </c>
+      <c r="G30" s="75" t="s">
         <v>413</v>
-      </c>
-      <c r="C30" s="82" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30" s="82" t="s">
-        <v>69</v>
-      </c>
-      <c r="E30" s="75" t="s">
-        <v>69</v>
-      </c>
-      <c r="F30" s="75" t="s">
-        <v>414</v>
-      </c>
-      <c r="G30" s="75" t="s">
-        <v>416</v>
       </c>
       <c r="H30" s="76">
         <v>5</v>
@@ -3642,10 +3666,10 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C31" s="29" t="s">
         <v>69</v>
@@ -3657,10 +3681,10 @@
         <v>69</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H31" s="45">
         <v>1</v>
@@ -3671,10 +3695,10 @@
     </row>
     <row r="32" spans="1:12" s="36" customFormat="1">
       <c r="A32" s="75" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B32" s="75" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C32" s="82" t="s">
         <v>69</v>
@@ -3686,10 +3710,10 @@
         <v>69</v>
       </c>
       <c r="F32" s="75" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="G32" s="75" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="H32" s="76">
         <v>4</v>
@@ -3703,10 +3727,10 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="2" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C33" s="29" t="s">
         <v>69</v>
@@ -3718,10 +3742,10 @@
         <v>69</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="H33" s="45">
         <v>5</v>
@@ -3732,10 +3756,10 @@
     </row>
     <row r="34" spans="1:12" s="36" customFormat="1">
       <c r="A34" s="75" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B34" s="75" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C34" s="82" t="s">
         <v>69</v>
@@ -3747,10 +3771,10 @@
         <v>69</v>
       </c>
       <c r="F34" s="75" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G34" s="75" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H34" s="76">
         <v>1</v>
@@ -3764,10 +3788,10 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="2" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C35" s="29" t="s">
         <v>69</v>
@@ -3779,10 +3803,10 @@
         <v>69</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="H35" s="45">
         <v>4</v>
@@ -3793,10 +3817,10 @@
     </row>
     <row r="36" spans="1:12" s="36" customFormat="1">
       <c r="A36" s="75" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B36" s="75" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C36" s="82" t="s">
         <v>69</v>
@@ -3808,10 +3832,10 @@
         <v>69</v>
       </c>
       <c r="F36" s="75" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="G36" s="75" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="H36" s="76">
         <v>5</v>
@@ -3825,7 +3849,7 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>99</v>
@@ -3840,10 +3864,10 @@
         <v>69</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H37" s="45">
         <v>1</v>
@@ -3852,15 +3876,15 @@
         <v>73</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="38" spans="1:12" s="36" customFormat="1">
       <c r="A38" s="75" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B38" s="75" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C38" s="82" t="s">
         <v>69</v>
@@ -3872,10 +3896,10 @@
         <v>69</v>
       </c>
       <c r="F38" s="75" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G38" s="75" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H38" s="76">
         <v>3</v>
@@ -3889,10 +3913,10 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C39" s="29" t="s">
         <v>69</v>
@@ -3904,10 +3928,10 @@
         <v>69</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="H39" s="45">
         <v>4</v>
@@ -3918,10 +3942,10 @@
     </row>
     <row r="40" spans="1:12" s="36" customFormat="1">
       <c r="A40" s="75" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B40" s="75" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C40" s="82" t="s">
         <v>69</v>
@@ -3933,10 +3957,10 @@
         <v>69</v>
       </c>
       <c r="F40" s="75" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G40" s="75" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="H40" s="76">
         <v>4</v>
@@ -3950,25 +3974,25 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>149</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H41" s="45">
         <v>2</v>
@@ -3979,25 +4003,25 @@
     </row>
     <row r="42" spans="1:12" s="36" customFormat="1">
       <c r="A42" s="75" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B42" s="75" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C42" s="82" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D42" s="82" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E42" s="75" t="s">
         <v>149</v>
       </c>
       <c r="F42" s="75" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G42" s="75" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="H42" s="76">
         <v>5</v>
@@ -4011,25 +4035,25 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="2" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D43" s="29" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>149</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="H43" s="45">
         <v>5</v>
@@ -4040,7 +4064,7 @@
     </row>
     <row r="44" spans="1:12" s="36" customFormat="1">
       <c r="A44" s="75" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B44" s="75" t="s">
         <v>100</v>
@@ -4055,10 +4079,10 @@
         <v>69</v>
       </c>
       <c r="F44" s="75" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G44" s="75" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H44" s="76">
         <v>1</v>
@@ -4072,7 +4096,7 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>101</v>
@@ -4087,10 +4111,10 @@
         <v>69</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H45" s="45">
         <v>2</v>
@@ -4101,7 +4125,7 @@
     </row>
     <row r="46" spans="1:12" s="36" customFormat="1">
       <c r="A46" s="75" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B46" s="75" t="s">
         <v>102</v>
@@ -4116,10 +4140,10 @@
         <v>69</v>
       </c>
       <c r="F46" s="75" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G46" s="75" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H46" s="76">
         <v>4</v>
@@ -4133,7 +4157,7 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>103</v>
@@ -4148,10 +4172,10 @@
         <v>69</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H47" s="45">
         <v>5</v>
@@ -4162,7 +4186,7 @@
     </row>
     <row r="48" spans="1:12" s="36" customFormat="1">
       <c r="A48" s="75" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B48" s="75" t="s">
         <v>104</v>
@@ -4177,10 +4201,10 @@
         <v>69</v>
       </c>
       <c r="F48" s="75" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G48" s="75" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H48" s="76">
         <v>4</v>
@@ -4194,7 +4218,7 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>105</v>
@@ -4209,10 +4233,10 @@
         <v>69</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H49" s="45">
         <v>3</v>
@@ -4223,7 +4247,7 @@
     </row>
     <row r="50" spans="1:12" s="36" customFormat="1">
       <c r="A50" s="75" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B50" s="75" t="s">
         <v>106</v>
@@ -4238,10 +4262,10 @@
         <v>69</v>
       </c>
       <c r="F50" s="75" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G50" s="75" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H50" s="76">
         <v>5</v>
@@ -4255,7 +4279,7 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>107</v>
@@ -4270,10 +4294,10 @@
         <v>69</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H51" s="45">
         <v>3</v>
@@ -4284,7 +4308,7 @@
     </row>
     <row r="52" spans="1:12" s="36" customFormat="1">
       <c r="A52" s="75" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B52" s="75" t="s">
         <v>108</v>
@@ -4299,10 +4323,10 @@
         <v>69</v>
       </c>
       <c r="F52" s="75" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G52" s="75" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H52" s="76">
         <v>2</v>
@@ -4316,7 +4340,7 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>109</v>
@@ -4331,10 +4355,10 @@
         <v>69</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H53" s="45">
         <v>1</v>
@@ -4345,7 +4369,7 @@
     </row>
     <row r="54" spans="1:12" s="36" customFormat="1">
       <c r="A54" s="75" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B54" s="75" t="s">
         <v>110</v>
@@ -4360,10 +4384,10 @@
         <v>69</v>
       </c>
       <c r="F54" s="75" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G54" s="75" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H54" s="76">
         <v>3</v>
@@ -4377,7 +4401,7 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>111</v>
@@ -4392,10 +4416,10 @@
         <v>69</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H55" s="45">
         <v>5</v>
@@ -4406,7 +4430,7 @@
     </row>
     <row r="56" spans="1:12" s="36" customFormat="1">
       <c r="A56" s="75" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B56" s="75" t="s">
         <v>112</v>
@@ -4421,10 +4445,10 @@
         <v>69</v>
       </c>
       <c r="F56" s="75" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G56" s="75" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H56" s="76">
         <v>4</v>
@@ -4438,7 +4462,7 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>113</v>
@@ -4453,10 +4477,10 @@
         <v>69</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H57" s="45">
         <v>2</v>
@@ -4467,7 +4491,7 @@
     </row>
     <row r="58" spans="1:12" s="36" customFormat="1">
       <c r="A58" s="75" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B58" s="75" t="s">
         <v>114</v>
@@ -4482,10 +4506,10 @@
         <v>69</v>
       </c>
       <c r="F58" s="75" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G58" s="75" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H58" s="76">
         <v>3</v>
@@ -4499,7 +4523,7 @@
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>115</v>
@@ -4514,10 +4538,10 @@
         <v>69</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H59" s="45">
         <v>1</v>
@@ -4528,7 +4552,7 @@
     </row>
     <row r="60" spans="1:12" s="36" customFormat="1">
       <c r="A60" s="75" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B60" s="75" t="s">
         <v>116</v>
@@ -4543,10 +4567,10 @@
         <v>69</v>
       </c>
       <c r="F60" s="75" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G60" s="75" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H60" s="76">
         <v>2</v>
@@ -4560,7 +4584,7 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>117</v>
@@ -4575,10 +4599,10 @@
         <v>69</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H61" s="45">
         <v>3</v>
@@ -4589,7 +4613,7 @@
     </row>
     <row r="62" spans="1:12" s="36" customFormat="1">
       <c r="A62" s="75" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B62" s="75" t="s">
         <v>118</v>
@@ -4604,10 +4628,10 @@
         <v>69</v>
       </c>
       <c r="F62" s="75" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G62" s="75" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H62" s="76">
         <v>3</v>
@@ -4623,7 +4647,7 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>119</v>
@@ -4638,10 +4662,10 @@
         <v>69</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H63" s="45">
         <v>5</v>
@@ -4652,7 +4676,7 @@
     </row>
     <row r="64" spans="1:12" s="36" customFormat="1">
       <c r="A64" s="75" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B64" s="75" t="s">
         <v>120</v>
@@ -4667,10 +4691,10 @@
         <v>69</v>
       </c>
       <c r="F64" s="75" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G64" s="75" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H64" s="76">
         <v>5</v>
@@ -4684,7 +4708,7 @@
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>121</v>
@@ -4699,10 +4723,10 @@
         <v>69</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H65" s="45">
         <v>3</v>
@@ -4713,7 +4737,7 @@
     </row>
     <row r="66" spans="1:12" s="36" customFormat="1">
       <c r="A66" s="75" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B66" s="75" t="s">
         <v>122</v>
@@ -4728,10 +4752,10 @@
         <v>69</v>
       </c>
       <c r="F66" s="75" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G66" s="75" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H66" s="76">
         <v>3</v>
@@ -4745,7 +4769,7 @@
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>123</v>
@@ -4760,10 +4784,10 @@
         <v>69</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H67" s="45">
         <v>3</v>
@@ -4774,25 +4798,25 @@
     </row>
     <row r="68" spans="1:12" s="36" customFormat="1">
       <c r="A68" s="75" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B68" s="75" t="s">
         <v>124</v>
       </c>
       <c r="C68" s="75" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D68" s="75" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E68" s="75" t="s">
         <v>125</v>
       </c>
       <c r="F68" s="75" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G68" s="75" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H68" s="76">
         <v>2</v>
@@ -4806,7 +4830,7 @@
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>126</v>
@@ -4821,10 +4845,10 @@
         <v>69</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H69" s="45">
         <v>3</v>
@@ -4838,7 +4862,7 @@
     </row>
     <row r="70" spans="1:12" s="36" customFormat="1">
       <c r="A70" s="75" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B70" s="75" t="s">
         <v>127</v>
@@ -4853,10 +4877,10 @@
         <v>69</v>
       </c>
       <c r="F70" s="75" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G70" s="75" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H70" s="76">
         <v>3</v>
@@ -4870,7 +4894,7 @@
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>128</v>
@@ -4885,10 +4909,10 @@
         <v>69</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H71" s="45">
         <v>3</v>
@@ -4899,7 +4923,7 @@
     </row>
     <row r="72" spans="1:12" s="36" customFormat="1">
       <c r="A72" s="75" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B72" s="75" t="s">
         <v>129</v>
@@ -4914,10 +4938,10 @@
         <v>69</v>
       </c>
       <c r="F72" s="75" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G72" s="75" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H72" s="76">
         <v>3</v>
@@ -4931,7 +4955,7 @@
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>130</v>
@@ -4946,10 +4970,10 @@
         <v>69</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H73" s="45">
         <v>2</v>
@@ -4960,7 +4984,7 @@
     </row>
     <row r="74" spans="1:12" s="36" customFormat="1">
       <c r="A74" s="75" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B74" s="75" t="s">
         <v>133</v>
@@ -4975,10 +4999,10 @@
         <v>69</v>
       </c>
       <c r="F74" s="75" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G74" s="75" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H74" s="76">
         <v>3</v>
@@ -5044,7 +5068,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>11</v>
@@ -5052,7 +5076,7 @@
     </row>
     <row r="2" spans="1:7" s="36" customFormat="1">
       <c r="A2" s="79" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B2" s="79" t="s">
         <v>153</v>
@@ -5069,7 +5093,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>154</v>
@@ -5083,7 +5107,7 @@
     </row>
     <row r="4" spans="1:7" s="36" customFormat="1">
       <c r="A4" s="75" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B4" s="75" t="s">
         <v>152</v>
@@ -5100,7 +5124,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>155</v>
@@ -5114,7 +5138,7 @@
     </row>
     <row r="6" spans="1:7" s="36" customFormat="1">
       <c r="A6" s="75" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B6" s="36" t="s">
         <v>156</v>
@@ -5131,7 +5155,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>157</v>
@@ -5148,7 +5172,7 @@
     </row>
     <row r="8" spans="1:7" s="36" customFormat="1">
       <c r="A8" s="75" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B8" s="75" t="s">
         <v>158</v>
@@ -5165,7 +5189,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>159</v>
@@ -5179,7 +5203,7 @@
     </row>
     <row r="10" spans="1:7" s="36" customFormat="1">
       <c r="A10" s="75" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B10" s="75" t="s">
         <v>160</v>
@@ -5196,7 +5220,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>161</v>
@@ -5210,7 +5234,7 @@
     </row>
     <row r="12" spans="1:7" s="36" customFormat="1">
       <c r="A12" s="75" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B12" s="75" t="s">
         <v>162</v>
@@ -5227,7 +5251,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>163</v>
@@ -5241,7 +5265,7 @@
     </row>
     <row r="14" spans="1:7" s="36" customFormat="1">
       <c r="A14" s="75" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B14" s="75" t="s">
         <v>68</v>
@@ -5268,7 +5292,7 @@
   </sheetPr>
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -5302,7 +5326,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>11</v>
@@ -5310,10 +5334,10 @@
     </row>
     <row r="2" spans="1:7" s="35" customFormat="1">
       <c r="A2" s="47" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C2" s="49">
         <v>1</v>
@@ -5325,7 +5349,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>95</v>
@@ -5336,10 +5360,10 @@
     </row>
     <row r="4" spans="1:7" s="35" customFormat="1">
       <c r="A4" s="48" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B4" s="102" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C4" s="50">
         <v>1</v>
@@ -5351,7 +5375,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>151</v>
@@ -5362,10 +5386,10 @@
     </row>
     <row r="6" spans="1:7" s="35" customFormat="1">
       <c r="A6" s="48" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C6" s="50">
         <v>1</v>
@@ -5377,10 +5401,10 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C7" s="44">
         <v>1</v>
@@ -5388,10 +5412,10 @@
     </row>
     <row r="8" spans="1:7" s="35" customFormat="1">
       <c r="A8" s="48" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B8" s="48" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C8" s="50">
         <v>1</v>
@@ -5400,15 +5424,15 @@
       <c r="E8" s="48"/>
       <c r="F8" s="48"/>
       <c r="G8" s="48" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C9" s="44">
         <v>1</v>
@@ -5416,10 +5440,10 @@
     </row>
     <row r="10" spans="1:7" s="35" customFormat="1">
       <c r="A10" s="48" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C10" s="50">
         <v>1</v>
@@ -5431,10 +5455,10 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C11" s="44">
         <v>1</v>
@@ -5442,10 +5466,10 @@
     </row>
     <row r="12" spans="1:7" s="35" customFormat="1">
       <c r="A12" s="48" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B12" s="48" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C12" s="50">
         <v>2</v>
@@ -5457,10 +5481,10 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B13" s="103" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C13" s="44">
         <v>2</v>
@@ -5468,10 +5492,10 @@
     </row>
     <row r="14" spans="1:7" s="35" customFormat="1">
       <c r="A14" s="48" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B14" s="48" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C14" s="50">
         <v>2</v>
@@ -5483,10 +5507,10 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B15" s="103" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C15" s="44">
         <v>1</v>
@@ -5494,10 +5518,10 @@
     </row>
     <row r="16" spans="1:7" s="35" customFormat="1">
       <c r="A16" s="48" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C16" s="50">
         <v>4</v>
@@ -5509,7 +5533,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B17" s="103" t="s">
         <v>152</v>
@@ -5520,10 +5544,10 @@
     </row>
     <row r="18" spans="1:7" s="35" customFormat="1">
       <c r="A18" s="48" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C18" s="50">
         <v>1</v>
@@ -5535,10 +5559,10 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B19" s="104" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C19" s="44">
         <v>1</v>
@@ -5546,7 +5570,7 @@
     </row>
     <row r="20" spans="1:7" s="35" customFormat="1">
       <c r="A20" s="48" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B20" s="48" t="s">
         <v>98</v>
@@ -5561,10 +5585,10 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B21" s="105" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C21" s="44">
         <v>2</v>
@@ -5572,10 +5596,10 @@
     </row>
     <row r="22" spans="1:7" s="35" customFormat="1">
       <c r="A22" s="48" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C22" s="50">
         <v>1</v>
@@ -5587,10 +5611,10 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C23" s="44">
         <v>3</v>
@@ -5642,7 +5666,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>11</v>
@@ -5650,7 +5674,7 @@
     </row>
     <row r="2" spans="1:7" s="41" customFormat="1">
       <c r="A2" s="40" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B2" s="40" t="s">
         <v>165</v>
@@ -5667,7 +5691,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>166</v>
@@ -5681,7 +5705,7 @@
     </row>
     <row r="4" spans="1:7" s="41" customFormat="1">
       <c r="A4" s="42" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B4" s="42" t="s">
         <v>167</v>
@@ -5700,7 +5724,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>168</v>
@@ -5714,7 +5738,7 @@
     </row>
     <row r="6" spans="1:7" s="41" customFormat="1">
       <c r="A6" s="42" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B6" s="42" t="s">
         <v>169</v>
@@ -5731,7 +5755,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>170</v>
@@ -5745,10 +5769,10 @@
     </row>
     <row r="8" spans="1:7" s="41" customFormat="1">
       <c r="A8" s="42" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C8" s="86">
         <v>1</v>
@@ -5764,7 +5788,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>171</v>
@@ -5781,7 +5805,7 @@
     </row>
     <row r="10" spans="1:7" s="41" customFormat="1">
       <c r="A10" s="42" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B10" s="42" t="s">
         <v>172</v>
@@ -5800,7 +5824,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>173</v>
@@ -5814,7 +5838,7 @@
     </row>
     <row r="12" spans="1:7" s="41" customFormat="1">
       <c r="A12" s="42" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B12" s="42" t="s">
         <v>101</v>
@@ -5831,7 +5855,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>174</v>
@@ -5845,10 +5869,10 @@
     </row>
     <row r="14" spans="1:7" s="41" customFormat="1">
       <c r="A14" s="42" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C14" s="86">
         <v>3</v>
@@ -5864,7 +5888,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>175</v>
@@ -5881,7 +5905,7 @@
     </row>
     <row r="16" spans="1:7" s="41" customFormat="1">
       <c r="A16" s="42" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B16" s="42" t="s">
         <v>176</v>
@@ -5898,7 +5922,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>177</v>
@@ -5912,7 +5936,7 @@
     </row>
     <row r="18" spans="1:7" s="41" customFormat="1">
       <c r="A18" s="42" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B18" s="42" t="s">
         <v>114</v>
@@ -5921,7 +5945,7 @@
         <v>3</v>
       </c>
       <c r="D18" s="42" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E18" s="42"/>
       <c r="F18" s="42"/>
@@ -5939,10 +5963,10 @@
   <sheetPr>
     <tabColor theme="0" tint="-4.9989318521683403E-2"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -5975,7 +5999,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>11</v>
@@ -5983,7 +6007,7 @@
     </row>
     <row r="2" spans="1:7" s="41" customFormat="1">
       <c r="A2" s="87" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B2" s="87" t="s">
         <v>184</v>
@@ -5991,14 +6015,16 @@
       <c r="C2" s="88">
         <v>4</v>
       </c>
-      <c r="D2" s="87"/>
+      <c r="D2" s="87" t="s">
+        <v>83</v>
+      </c>
       <c r="E2" s="87"/>
       <c r="F2" s="87"/>
       <c r="G2" s="87"/>
     </row>
     <row r="3" spans="1:7" s="2" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>185</v>
@@ -6006,10 +6032,13 @@
       <c r="C3" s="44">
         <v>1</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="4" spans="1:7" s="42" customFormat="1">
       <c r="A4" s="42" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B4" s="42" t="s">
         <v>186</v>
@@ -6017,10 +6046,13 @@
       <c r="C4" s="86">
         <v>1</v>
       </c>
+      <c r="D4" s="42" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>187</v>
@@ -6028,10 +6060,13 @@
       <c r="C5" s="44">
         <v>1</v>
       </c>
+      <c r="D5" s="2" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="6" spans="1:7" s="42" customFormat="1">
       <c r="A6" s="42" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B6" s="42" t="s">
         <v>188</v>
@@ -6039,10 +6074,13 @@
       <c r="C6" s="86">
         <v>2</v>
       </c>
+      <c r="D6" s="42" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="7" spans="1:7" s="2" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>189</v>
@@ -6050,10 +6088,13 @@
       <c r="C7" s="44">
         <v>2</v>
       </c>
+      <c r="D7" s="2" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="8" spans="1:7" s="42" customFormat="1">
       <c r="A8" s="42" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B8" s="42" t="s">
         <v>190</v>
@@ -6061,10 +6102,13 @@
       <c r="C8" s="86">
         <v>3</v>
       </c>
+      <c r="D8" s="42" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="9" spans="1:7" s="2" customFormat="1">
       <c r="A9" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>191</v>
@@ -6072,10 +6116,13 @@
       <c r="C9" s="44">
         <v>3</v>
       </c>
+      <c r="D9" s="2" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="10" spans="1:7" s="42" customFormat="1">
       <c r="A10" s="42" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B10" s="42" t="s">
         <v>71</v>
@@ -6083,10 +6130,13 @@
       <c r="C10" s="86">
         <v>5</v>
       </c>
+      <c r="D10" s="42" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="11" spans="1:7" s="2" customFormat="1">
       <c r="A11" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>192</v>
@@ -6094,48 +6144,116 @@
       <c r="C11" s="44">
         <v>2</v>
       </c>
+      <c r="D11" s="2" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="12" spans="1:7" s="42" customFormat="1">
       <c r="A12" s="42" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>193</v>
+        <v>497</v>
       </c>
       <c r="C12" s="86">
         <v>2</v>
       </c>
+      <c r="D12" s="42" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="13" spans="1:7" s="2" customFormat="1">
       <c r="A13" s="2" t="s">
-        <v>390</v>
+        <v>500</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>194</v>
+        <v>496</v>
       </c>
       <c r="C13" s="44">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="42" customFormat="1">
       <c r="A14" s="42" t="s">
-        <v>391</v>
+        <v>504</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>195</v>
+        <v>503</v>
       </c>
       <c r="C14" s="86">
+        <v>2</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="2" customFormat="1">
+      <c r="A15" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C15" s="44">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="42" customFormat="1">
+      <c r="A16" s="42" t="s">
+        <v>502</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>498</v>
+      </c>
+      <c r="C16" s="86">
+        <v>3</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="2" customFormat="1">
+      <c r="A17" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C17" s="44">
+        <v>3</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="42" customFormat="1">
+      <c r="A18" s="42" t="s">
+        <v>388</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="C18" s="86">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="D18" s="42" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6175,12 +6293,12 @@
       <c r="B1" s="128"/>
       <c r="C1" s="37"/>
       <c r="D1" s="127" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E1" s="128"/>
       <c r="F1" s="72"/>
       <c r="G1" s="129" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H1" s="130"/>
       <c r="I1" s="37"/>
@@ -6205,10 +6323,10 @@
       <c r="E2" s="53"/>
       <c r="F2" s="37"/>
       <c r="G2" s="95" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H2" s="96" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I2" s="37"/>
       <c r="J2" s="37"/>
@@ -6230,14 +6348,14 @@
       <c r="C3" s="37"/>
       <c r="D3" s="91"/>
       <c r="E3" s="92" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F3" s="37"/>
       <c r="G3" s="95" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H3" s="96" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I3" s="37"/>
       <c r="J3" s="37"/>
@@ -6259,11 +6377,11 @@
       <c r="C4" s="37"/>
       <c r="D4" s="54"/>
       <c r="E4" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F4" s="37"/>
       <c r="G4" s="95" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H4" s="96" t="s">
         <v>7</v>
@@ -6288,11 +6406,11 @@
       <c r="C5" s="37"/>
       <c r="D5" s="56"/>
       <c r="E5" s="57" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F5" s="37"/>
       <c r="G5" s="95" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H5" s="96" t="s">
         <v>5</v>
@@ -6317,14 +6435,14 @@
       <c r="C6" s="37"/>
       <c r="D6" s="58"/>
       <c r="E6" s="59" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F6" s="37"/>
       <c r="G6" s="95" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H6" s="96" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I6" s="37"/>
       <c r="J6" s="37"/>
@@ -6339,38 +6457,38 @@
     <row r="7" spans="1:17">
       <c r="D7" s="60"/>
       <c r="E7" s="61" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G7" s="95" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H7" s="96" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="E8" s="37"/>
       <c r="G8" s="93" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H8" s="94" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="G9" s="97" t="s">
+        <v>211</v>
+      </c>
+      <c r="H9" s="98" t="s">
         <v>213</v>
-      </c>
-      <c r="H9" s="98" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="G10" s="99" t="s">
+        <v>210</v>
+      </c>
+      <c r="H10" s="100" t="s">
         <v>212</v>
-      </c>
-      <c r="H10" s="100" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:17"/>

--- a/Planning & Assetlist.xlsx
+++ b/Planning & Assetlist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="8" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="534">
   <si>
     <t>Code Name</t>
   </si>
@@ -1541,6 +1541,87 @@
   </si>
   <si>
     <t>SN_VOIH_001</t>
+  </si>
+  <si>
+    <t>2 weeks</t>
+  </si>
+  <si>
+    <t>1 week</t>
+  </si>
+  <si>
+    <t>Wolf + Eagle</t>
+  </si>
+  <si>
+    <t>HUD Popups</t>
+  </si>
+  <si>
+    <t>7S_HUDP_001</t>
+  </si>
+  <si>
+    <t>Stats Upgrades</t>
+  </si>
+  <si>
+    <t>Difficulty</t>
+  </si>
+  <si>
+    <t>AI Power</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + E.X.P. </t>
+  </si>
+  <si>
+    <t>Medium = Normal, Easy = Weaker, Hard = Stronger, More waves, Less ammo</t>
+  </si>
+  <si>
+    <t>Stats</t>
+  </si>
+  <si>
+    <t>1 Week</t>
+  </si>
+  <si>
+    <t>2 Days</t>
+  </si>
+  <si>
+    <t>2 Week</t>
+  </si>
+  <si>
+    <t>2 Weeks</t>
+  </si>
+  <si>
+    <t>Companion Stats</t>
+  </si>
+  <si>
+    <t>Companion Cannister</t>
+  </si>
+  <si>
+    <t>7S_STUP_001</t>
+  </si>
+  <si>
+    <t>7S_LVLS_001</t>
+  </si>
+  <si>
+    <t>Level System</t>
+  </si>
+  <si>
+    <t>7S_DIFF_001</t>
+  </si>
+  <si>
+    <t>7S_AIPO_001</t>
+  </si>
+  <si>
+    <t>7S_CPST_001</t>
+  </si>
+  <si>
+    <t>7S_CPCA_001</t>
+  </si>
+  <si>
+    <t>3D_CPCA_001</t>
+  </si>
+  <si>
+    <t>4U_CPCA_001</t>
+  </si>
+  <si>
+    <t>2D_CPCA_001</t>
   </si>
 </sst>
 </file>
@@ -2077,7 +2158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2379,6 +2460,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -3001,22 +3087,22 @@
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:N74"/>
+  <dimension ref="A1:N75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G74" sqref="G74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I77" sqref="I77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="29" customWidth="1"/>
-    <col min="4" max="4" width="14" style="29" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="29" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="14.140625" style="2" customWidth="1"/>
     <col min="8" max="8" width="7.5703125" style="45" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.7109375" style="29" customWidth="1"/>
     <col min="12" max="12" width="33" style="2" customWidth="1"/>
@@ -5013,6 +5099,38 @@
       <c r="J74" s="75"/>
       <c r="K74" s="82"/>
       <c r="L74" s="75"/>
+    </row>
+    <row r="75" spans="1:12" s="133" customFormat="1">
+      <c r="A75" s="103" t="s">
+        <v>531</v>
+      </c>
+      <c r="B75" s="103" t="s">
+        <v>523</v>
+      </c>
+      <c r="C75" s="131" t="s">
+        <v>69</v>
+      </c>
+      <c r="D75" s="131" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="103" t="s">
+        <v>69</v>
+      </c>
+      <c r="F75" s="103" t="s">
+        <v>532</v>
+      </c>
+      <c r="G75" s="103" t="s">
+        <v>533</v>
+      </c>
+      <c r="H75" s="132">
+        <v>5</v>
+      </c>
+      <c r="I75" s="103" t="s">
+        <v>72</v>
+      </c>
+      <c r="J75" s="103"/>
+      <c r="K75" s="131"/>
+      <c r="L75" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5290,10 +5408,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -5304,7 +5422,7 @@
     <col min="4" max="4" width="13.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="33" style="2" customWidth="1"/>
+    <col min="7" max="7" width="69.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="0" hidden="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" hidden="1"/>
   </cols>
@@ -5342,7 +5460,9 @@
       <c r="C2" s="49">
         <v>1</v>
       </c>
-      <c r="D2" s="47"/>
+      <c r="D2" s="47" t="s">
+        <v>518</v>
+      </c>
       <c r="E2" s="47"/>
       <c r="F2" s="47"/>
       <c r="G2" s="47"/>
@@ -5357,6 +5477,9 @@
       <c r="C3" s="44">
         <v>1</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="4" spans="1:7" s="35" customFormat="1">
       <c r="A4" s="48" t="s">
@@ -5368,7 +5491,9 @@
       <c r="C4" s="50">
         <v>1</v>
       </c>
-      <c r="D4" s="48"/>
+      <c r="D4" s="47" t="s">
+        <v>518</v>
+      </c>
       <c r="E4" s="48"/>
       <c r="F4" s="48"/>
       <c r="G4" s="48"/>
@@ -5383,6 +5508,9 @@
       <c r="C5" s="44">
         <v>1</v>
       </c>
+      <c r="D5" s="2" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="6" spans="1:7" s="35" customFormat="1">
       <c r="A6" s="48" t="s">
@@ -5394,7 +5522,9 @@
       <c r="C6" s="50">
         <v>1</v>
       </c>
-      <c r="D6" s="48"/>
+      <c r="D6" s="47" t="s">
+        <v>518</v>
+      </c>
       <c r="E6" s="48"/>
       <c r="F6" s="48"/>
       <c r="G6" s="48"/>
@@ -5409,6 +5539,9 @@
       <c r="C7" s="44">
         <v>1</v>
       </c>
+      <c r="D7" s="2" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="8" spans="1:7" s="35" customFormat="1">
       <c r="A8" s="48" t="s">
@@ -5420,7 +5553,9 @@
       <c r="C8" s="50">
         <v>1</v>
       </c>
-      <c r="D8" s="48"/>
+      <c r="D8" s="47" t="s">
+        <v>518</v>
+      </c>
       <c r="E8" s="48"/>
       <c r="F8" s="48"/>
       <c r="G8" s="48" t="s">
@@ -5437,6 +5572,12 @@
       <c r="C9" s="44">
         <v>1</v>
       </c>
+      <c r="D9" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>509</v>
+      </c>
     </row>
     <row r="10" spans="1:7" s="35" customFormat="1">
       <c r="A10" s="48" t="s">
@@ -5448,10 +5589,14 @@
       <c r="C10" s="50">
         <v>1</v>
       </c>
-      <c r="D10" s="48"/>
+      <c r="D10" s="47" t="s">
+        <v>518</v>
+      </c>
       <c r="E10" s="48"/>
       <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
+      <c r="G10" s="48" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
@@ -5463,6 +5608,9 @@
       <c r="C11" s="44">
         <v>1</v>
       </c>
+      <c r="D11" s="2" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="12" spans="1:7" s="35" customFormat="1">
       <c r="A12" s="48" t="s">
@@ -5474,7 +5622,9 @@
       <c r="C12" s="50">
         <v>2</v>
       </c>
-      <c r="D12" s="48"/>
+      <c r="D12" s="47" t="s">
+        <v>518</v>
+      </c>
       <c r="E12" s="48"/>
       <c r="F12" s="48"/>
       <c r="G12" s="48"/>
@@ -5489,6 +5639,9 @@
       <c r="C13" s="44">
         <v>2</v>
       </c>
+      <c r="D13" s="2" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="14" spans="1:7" s="35" customFormat="1">
       <c r="A14" s="48" t="s">
@@ -5500,7 +5653,9 @@
       <c r="C14" s="50">
         <v>2</v>
       </c>
-      <c r="D14" s="48"/>
+      <c r="D14" s="48" t="s">
+        <v>518</v>
+      </c>
       <c r="E14" s="48"/>
       <c r="F14" s="48"/>
       <c r="G14" s="48"/>
@@ -5515,6 +5670,9 @@
       <c r="C15" s="44">
         <v>1</v>
       </c>
+      <c r="D15" s="2" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="16" spans="1:7" s="35" customFormat="1">
       <c r="A16" s="48" t="s">
@@ -5526,7 +5684,9 @@
       <c r="C16" s="50">
         <v>4</v>
       </c>
-      <c r="D16" s="48"/>
+      <c r="D16" s="48" t="s">
+        <v>508</v>
+      </c>
       <c r="E16" s="48"/>
       <c r="F16" s="48"/>
       <c r="G16" s="48"/>
@@ -5541,6 +5701,9 @@
       <c r="C17" s="44">
         <v>2</v>
       </c>
+      <c r="D17" s="2" t="s">
+        <v>520</v>
+      </c>
     </row>
     <row r="18" spans="1:7" s="35" customFormat="1">
       <c r="A18" s="48" t="s">
@@ -5552,7 +5715,9 @@
       <c r="C18" s="50">
         <v>1</v>
       </c>
-      <c r="D18" s="48"/>
+      <c r="D18" s="48" t="s">
+        <v>518</v>
+      </c>
       <c r="E18" s="48"/>
       <c r="F18" s="48"/>
       <c r="G18" s="48"/>
@@ -5567,6 +5732,9 @@
       <c r="C19" s="44">
         <v>1</v>
       </c>
+      <c r="D19" s="2" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="20" spans="1:7" s="35" customFormat="1">
       <c r="A20" s="48" t="s">
@@ -5578,7 +5746,9 @@
       <c r="C20" s="50">
         <v>1</v>
       </c>
-      <c r="D20" s="48"/>
+      <c r="D20" s="48" t="s">
+        <v>518</v>
+      </c>
       <c r="E20" s="48"/>
       <c r="F20" s="48"/>
       <c r="G20" s="48"/>
@@ -5593,6 +5763,9 @@
       <c r="C21" s="44">
         <v>2</v>
       </c>
+      <c r="D21" s="2" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="22" spans="1:7" s="35" customFormat="1">
       <c r="A22" s="48" t="s">
@@ -5604,7 +5777,9 @@
       <c r="C22" s="50">
         <v>1</v>
       </c>
-      <c r="D22" s="48"/>
+      <c r="D22" s="48" t="s">
+        <v>518</v>
+      </c>
       <c r="E22" s="48"/>
       <c r="F22" s="48"/>
       <c r="G22" s="48"/>
@@ -5619,6 +5794,124 @@
       <c r="C23" s="44">
         <v>3</v>
       </c>
+      <c r="D23" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="35" customFormat="1">
+      <c r="A24" s="48" t="s">
+        <v>511</v>
+      </c>
+      <c r="B24" s="48" t="s">
+        <v>510</v>
+      </c>
+      <c r="C24" s="50">
+        <v>1</v>
+      </c>
+      <c r="D24" s="48" t="s">
+        <v>518</v>
+      </c>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C25" s="44">
+        <v>5</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="35" customFormat="1">
+      <c r="A26" s="48" t="s">
+        <v>525</v>
+      </c>
+      <c r="B26" s="48" t="s">
+        <v>526</v>
+      </c>
+      <c r="C26" s="50">
+        <v>5</v>
+      </c>
+      <c r="D26" s="48" t="s">
+        <v>518</v>
+      </c>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="C27" s="44">
+        <v>5</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="35" customFormat="1">
+      <c r="A28" s="48" t="s">
+        <v>528</v>
+      </c>
+      <c r="B28" s="48" t="s">
+        <v>514</v>
+      </c>
+      <c r="C28" s="50">
+        <v>4</v>
+      </c>
+      <c r="D28" s="48" t="s">
+        <v>518</v>
+      </c>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="C29" s="44">
+        <v>5</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="35" customFormat="1">
+      <c r="A30" s="48" t="s">
+        <v>530</v>
+      </c>
+      <c r="B30" s="48" t="s">
+        <v>523</v>
+      </c>
+      <c r="C30" s="50">
+        <v>5</v>
+      </c>
+      <c r="D30" s="48" t="s">
+        <v>518</v>
+      </c>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5965,7 +6258,7 @@
   </sheetPr>
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>

--- a/Planning & Assetlist.xlsx
+++ b/Planning & Assetlist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="8" r:id="rId1"/>
@@ -2385,86 +2385,86 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -2775,10 +2775,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -2794,10 +2794,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="116"/>
+      <c r="B1" s="119"/>
       <c r="C1" s="5" t="s">
         <v>62</v>
       </c>
@@ -2827,31 +2827,31 @@
       <c r="B2" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="112" t="s">
+      <c r="C2" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="114"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="117"/>
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="109" t="s">
+      <c r="C3" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="111"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="114"/>
     </row>
     <row r="4" spans="1:9" s="31" customFormat="1">
       <c r="A4" s="32" t="s">
@@ -2860,14 +2860,14 @@
       <c r="B4" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="106" t="s">
+      <c r="C4" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="108"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="111"/>
       <c r="I4" s="30"/>
     </row>
     <row r="5" spans="1:9" s="16" customFormat="1">
@@ -2877,14 +2877,14 @@
       <c r="B5" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="117" t="s">
+      <c r="C5" s="120" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="118"/>
-      <c r="E5" s="118"/>
-      <c r="F5" s="118"/>
-      <c r="G5" s="118"/>
-      <c r="H5" s="119"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="122"/>
       <c r="I5" s="25" t="s">
         <v>63</v>
       </c>
@@ -2914,158 +2914,158 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="16" customFormat="1">
-      <c r="A12" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="25" t="s">
-        <v>30</v>
-      </c>
-    </row>
     <row r="13" spans="1:9">
       <c r="A13" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="16" customFormat="1">
+      <c r="A37" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="23"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B38" s="18" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="17" t="s">
+    <row r="39" spans="1:9">
+      <c r="A39" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B39" s="18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="17" t="s">
+    <row r="40" spans="1:9">
+      <c r="A40" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B40" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="15" t="s">
+      <c r="C40" s="19"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="15" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="17" t="s">
+    <row r="41" spans="1:9">
+      <c r="A41" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B41" s="18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="17" t="s">
+    <row r="42" spans="1:9">
+      <c r="A42" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B42" s="18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="17" t="s">
+    <row r="43" spans="1:9">
+      <c r="A43" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B43" s="18" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="17" t="s">
+    <row r="44" spans="1:9">
+      <c r="A44" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B44" s="18" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="17" t="s">
+    <row r="45" spans="1:9">
+      <c r="A45" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B45" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="17" t="s">
+    <row r="46" spans="1:9">
+      <c r="A46" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B46" s="18" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="17" t="s">
+    <row r="47" spans="1:9">
+      <c r="A47" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B47" s="18" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="16" customFormat="1">
-      <c r="A23" s="26" t="s">
+    <row r="48" spans="1:9" s="16" customFormat="1">
+      <c r="A48" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B48" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="25" t="s">
+      <c r="C48" s="23"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="25" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3089,7 +3089,7 @@
   </sheetPr>
   <dimension ref="A1:N75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I77" sqref="I77"/>
     </sheetView>
   </sheetViews>
@@ -3178,7 +3178,7 @@
       </c>
       <c r="J2" s="79"/>
       <c r="K2" s="78"/>
-      <c r="L2" s="120" t="s">
+      <c r="L2" s="123" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3196,7 +3196,7 @@
       <c r="I3" s="101"/>
       <c r="J3" s="101"/>
       <c r="K3" s="101"/>
-      <c r="L3" s="121"/>
+      <c r="L3" s="124"/>
     </row>
     <row r="4" spans="1:12" s="36" customFormat="1">
       <c r="A4" s="101"/>
@@ -3212,7 +3212,7 @@
       <c r="I4" s="101"/>
       <c r="J4" s="101"/>
       <c r="K4" s="101"/>
-      <c r="L4" s="121"/>
+      <c r="L4" s="124"/>
     </row>
     <row r="5" spans="1:12" s="36" customFormat="1">
       <c r="A5" s="101"/>
@@ -3228,7 +3228,7 @@
       <c r="I5" s="101"/>
       <c r="J5" s="101"/>
       <c r="K5" s="101"/>
-      <c r="L5" s="121"/>
+      <c r="L5" s="124"/>
     </row>
     <row r="6" spans="1:12" s="36" customFormat="1">
       <c r="A6" s="101"/>
@@ -3244,7 +3244,7 @@
       <c r="I6" s="101"/>
       <c r="J6" s="101"/>
       <c r="K6" s="101"/>
-      <c r="L6" s="121"/>
+      <c r="L6" s="124"/>
     </row>
     <row r="7" spans="1:12" s="36" customFormat="1">
       <c r="A7" s="101"/>
@@ -3260,7 +3260,7 @@
       <c r="I7" s="101"/>
       <c r="J7" s="101"/>
       <c r="K7" s="101"/>
-      <c r="L7" s="121"/>
+      <c r="L7" s="124"/>
     </row>
     <row r="8" spans="1:12" s="36" customFormat="1">
       <c r="A8" s="101"/>
@@ -3276,7 +3276,7 @@
       <c r="I8" s="101"/>
       <c r="J8" s="101"/>
       <c r="K8" s="101"/>
-      <c r="L8" s="121"/>
+      <c r="L8" s="124"/>
     </row>
     <row r="9" spans="1:12" s="36" customFormat="1">
       <c r="A9" s="101"/>
@@ -3292,7 +3292,7 @@
       <c r="I9" s="101"/>
       <c r="J9" s="101"/>
       <c r="K9" s="101"/>
-      <c r="L9" s="121"/>
+      <c r="L9" s="124"/>
     </row>
     <row r="10" spans="1:12" s="36" customFormat="1">
       <c r="A10" s="101"/>
@@ -3308,7 +3308,7 @@
       <c r="I10" s="101"/>
       <c r="J10" s="101"/>
       <c r="K10" s="101"/>
-      <c r="L10" s="121"/>
+      <c r="L10" s="124"/>
     </row>
     <row r="11" spans="1:12" s="36" customFormat="1">
       <c r="A11" s="101"/>
@@ -3324,7 +3324,7 @@
       <c r="I11" s="101"/>
       <c r="J11" s="101"/>
       <c r="K11" s="101"/>
-      <c r="L11" s="122"/>
+      <c r="L11" s="125"/>
     </row>
     <row r="12" spans="1:12" s="2" customFormat="1">
       <c r="A12" s="2" t="s">
@@ -3355,7 +3355,7 @@
         <v>72</v>
       </c>
       <c r="K12" s="29"/>
-      <c r="L12" s="123" t="s">
+      <c r="L12" s="126" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3373,7 +3373,7 @@
       <c r="I13" s="39"/>
       <c r="J13" s="39"/>
       <c r="K13" s="39"/>
-      <c r="L13" s="124"/>
+      <c r="L13" s="127"/>
     </row>
     <row r="14" spans="1:12" s="75" customFormat="1">
       <c r="A14" s="75" t="s">
@@ -3404,7 +3404,7 @@
         <v>73</v>
       </c>
       <c r="K14" s="82"/>
-      <c r="L14" s="125"/>
+      <c r="L14" s="128"/>
     </row>
     <row r="15" spans="1:12" s="36" customFormat="1">
       <c r="A15" s="101"/>
@@ -3420,7 +3420,7 @@
       <c r="I15" s="101"/>
       <c r="J15" s="101"/>
       <c r="K15" s="101"/>
-      <c r="L15" s="121"/>
+      <c r="L15" s="124"/>
     </row>
     <row r="16" spans="1:12" s="36" customFormat="1">
       <c r="A16" s="101"/>
@@ -3436,7 +3436,7 @@
       <c r="I16" s="101"/>
       <c r="J16" s="101"/>
       <c r="K16" s="101"/>
-      <c r="L16" s="121"/>
+      <c r="L16" s="124"/>
     </row>
     <row r="17" spans="1:12" s="36" customFormat="1">
       <c r="A17" s="101"/>
@@ -3452,7 +3452,7 @@
       <c r="I17" s="101"/>
       <c r="J17" s="101"/>
       <c r="K17" s="101"/>
-      <c r="L17" s="121"/>
+      <c r="L17" s="124"/>
     </row>
     <row r="18" spans="1:12" s="36" customFormat="1">
       <c r="A18" s="101"/>
@@ -3468,7 +3468,7 @@
       <c r="I18" s="101"/>
       <c r="J18" s="101"/>
       <c r="K18" s="101"/>
-      <c r="L18" s="122"/>
+      <c r="L18" s="125"/>
     </row>
     <row r="19" spans="1:12" s="2" customFormat="1">
       <c r="A19" s="2" t="s">
@@ -3499,7 +3499,7 @@
         <v>74</v>
       </c>
       <c r="K19" s="29"/>
-      <c r="L19" s="123"/>
+      <c r="L19" s="126"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="39"/>
@@ -3515,7 +3515,7 @@
       <c r="I20" s="39"/>
       <c r="J20" s="39"/>
       <c r="K20" s="39"/>
-      <c r="L20" s="124"/>
+      <c r="L20" s="127"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="39"/>
@@ -3531,7 +3531,7 @@
       <c r="I21" s="39"/>
       <c r="J21" s="39"/>
       <c r="K21" s="39"/>
-      <c r="L21" s="124"/>
+      <c r="L21" s="127"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="39"/>
@@ -3547,7 +3547,7 @@
       <c r="I22" s="39"/>
       <c r="J22" s="39"/>
       <c r="K22" s="39"/>
-      <c r="L22" s="126"/>
+      <c r="L22" s="129"/>
     </row>
     <row r="23" spans="1:12" s="75" customFormat="1">
       <c r="A23" s="75" t="s">
@@ -3578,7 +3578,7 @@
         <v>75</v>
       </c>
       <c r="K23" s="82"/>
-      <c r="L23" s="125"/>
+      <c r="L23" s="128"/>
     </row>
     <row r="24" spans="1:12" s="36" customFormat="1">
       <c r="A24" s="101"/>
@@ -3594,7 +3594,7 @@
       <c r="I24" s="101"/>
       <c r="J24" s="101"/>
       <c r="K24" s="101"/>
-      <c r="L24" s="121"/>
+      <c r="L24" s="124"/>
     </row>
     <row r="25" spans="1:12" s="36" customFormat="1">
       <c r="A25" s="101"/>
@@ -3610,7 +3610,7 @@
       <c r="I25" s="101"/>
       <c r="J25" s="101"/>
       <c r="K25" s="101"/>
-      <c r="L25" s="121"/>
+      <c r="L25" s="124"/>
     </row>
     <row r="26" spans="1:12" s="36" customFormat="1">
       <c r="A26" s="101"/>
@@ -3626,7 +3626,7 @@
       <c r="I26" s="101"/>
       <c r="J26" s="101"/>
       <c r="K26" s="101"/>
-      <c r="L26" s="122"/>
+      <c r="L26" s="125"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="2" t="s">
@@ -5100,17 +5100,17 @@
       <c r="K74" s="82"/>
       <c r="L74" s="75"/>
     </row>
-    <row r="75" spans="1:12" s="133" customFormat="1">
+    <row r="75" spans="1:12" s="108" customFormat="1">
       <c r="A75" s="103" t="s">
         <v>531</v>
       </c>
       <c r="B75" s="103" t="s">
         <v>523</v>
       </c>
-      <c r="C75" s="131" t="s">
-        <v>69</v>
-      </c>
-      <c r="D75" s="131" t="s">
+      <c r="C75" s="106" t="s">
+        <v>69</v>
+      </c>
+      <c r="D75" s="106" t="s">
         <v>69</v>
       </c>
       <c r="E75" s="103" t="s">
@@ -5122,14 +5122,14 @@
       <c r="G75" s="103" t="s">
         <v>533</v>
       </c>
-      <c r="H75" s="132">
+      <c r="H75" s="107">
         <v>5</v>
       </c>
       <c r="I75" s="103" t="s">
         <v>72</v>
       </c>
       <c r="J75" s="103"/>
-      <c r="K75" s="131"/>
+      <c r="K75" s="106"/>
       <c r="L75" s="103"/>
     </row>
   </sheetData>
@@ -6580,20 +6580,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="128"/>
+      <c r="B1" s="131"/>
       <c r="C1" s="37"/>
-      <c r="D1" s="127" t="s">
+      <c r="D1" s="130" t="s">
         <v>194</v>
       </c>
-      <c r="E1" s="128"/>
+      <c r="E1" s="131"/>
       <c r="F1" s="72"/>
-      <c r="G1" s="129" t="s">
+      <c r="G1" s="132" t="s">
         <v>207</v>
       </c>
-      <c r="H1" s="130"/>
+      <c r="H1" s="133"/>
       <c r="I1" s="37"/>
       <c r="J1" s="37"/>
       <c r="K1" s="37"/>

--- a/Planning & Assetlist.xlsx
+++ b/Planning & Assetlist.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="543">
   <si>
     <t>Code Name</t>
   </si>
@@ -205,9 +205,6 @@
     <t>(Jun 27 - Jul 1)</t>
   </si>
   <si>
-    <t>Vakantie</t>
-  </si>
-  <si>
     <t>Kilian</t>
   </si>
   <si>
@@ -1622,6 +1619,36 @@
   </si>
   <si>
     <t>2D_CPCA_001</t>
+  </si>
+  <si>
+    <t>Full Check &amp; Start Planning Week #10</t>
+  </si>
+  <si>
+    <t>Holidays</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + Dash</t>
+  </si>
+  <si>
+    <t>3 Week</t>
+  </si>
+  <si>
+    <t>Ammo Script</t>
+  </si>
+  <si>
+    <t>3 Days</t>
+  </si>
+  <si>
+    <t>Pickup Script</t>
+  </si>
+  <si>
+    <t>7S_PICK_001</t>
+  </si>
+  <si>
+    <t>Inplement Scripts + Testing</t>
+  </si>
+  <si>
+    <t>7S_AMMO_001</t>
   </si>
 </sst>
 </file>
@@ -2158,27 +2185,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2417,12 +2429,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2464,6 +2470,37 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2775,302 +2812,382 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="17" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="18" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="11" customWidth="1"/>
-    <col min="4" max="5" width="20.7109375" style="12" customWidth="1"/>
-    <col min="6" max="7" width="20.7109375" style="13" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" style="14" customWidth="1"/>
-    <col min="9" max="9" width="39.5703125" style="15" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="6" customWidth="1"/>
+    <col min="4" max="5" width="20.7109375" style="7" customWidth="1"/>
+    <col min="6" max="7" width="20.7109375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" style="9" customWidth="1"/>
+    <col min="9" max="9" width="39.5703125" style="10" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A1" s="118" t="s">
+    <row r="1" spans="1:9" s="134" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A1" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="128"/>
+      <c r="C1" s="129" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="130" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="130" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="131" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="131" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="132" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="133" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="85" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="110" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1">
+      <c r="A3" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="85" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="107" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="109"/>
+    </row>
+    <row r="4" spans="1:9" s="26" customFormat="1">
+      <c r="A4" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="104" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="25"/>
+    </row>
+    <row r="5" spans="1:9" s="11" customFormat="1">
+      <c r="A5" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="113" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="89" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="90" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="115" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="10"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1">
-      <c r="A3" s="89" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="90" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="112" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="114"/>
-    </row>
-    <row r="4" spans="1:9" s="31" customFormat="1">
-      <c r="A4" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="109" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="30"/>
-    </row>
-    <row r="5" spans="1:9" s="16" customFormat="1">
-      <c r="A5" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="120" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="25" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="17" t="s">
+    </row>
+    <row r="6" spans="1:9" s="11" customFormat="1">
+      <c r="A6" s="21"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="113" t="s">
+        <v>533</v>
+      </c>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="20"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B7" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="17" t="s">
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="10" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B8" s="13" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="17" t="s">
+      <c r="F8" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="G9" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="H10" s="9" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B14" s="13" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="17" t="s">
+      <c r="F14" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="H15" s="9" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B20" s="13" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="17" t="s">
+      <c r="F20" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="H20" s="43" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B26" s="13" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="17" t="s">
+      <c r="F26" s="43" t="s">
+        <v>483</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B32" s="13" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" s="16" customFormat="1">
-      <c r="A37" s="26" t="s">
+      <c r="G32" s="43" t="s">
+        <v>481</v>
+      </c>
+      <c r="H32" s="8"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="F33" s="135" t="s">
+        <v>541</v>
+      </c>
+      <c r="G33" s="136"/>
+      <c r="H33" s="137"/>
+    </row>
+    <row r="38" spans="1:9" s="11" customFormat="1">
+      <c r="A38" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="27" t="s">
+      <c r="B38" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="23"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="25" t="s">
+      <c r="C38" s="18"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="20" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="17" t="s">
+    <row r="39" spans="1:9">
+      <c r="A39" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B39" s="13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="17" t="s">
+    <row r="40" spans="1:9">
+      <c r="A40" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B40" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="17" t="s">
+    <row r="41" spans="1:9">
+      <c r="A41" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B41" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C40" s="19"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="17" t="s">
+      <c r="C41" s="14"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="10" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B42" s="13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="17" t="s">
+    <row r="43" spans="1:9">
+      <c r="A43" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B43" s="13" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="17" t="s">
+    <row r="44" spans="1:9">
+      <c r="A44" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B44" s="13" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="17" t="s">
+    <row r="45" spans="1:9">
+      <c r="A45" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B45" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="17" t="s">
+    <row r="46" spans="1:9">
+      <c r="A46" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B46" s="13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="17" t="s">
+    <row r="47" spans="1:9">
+      <c r="A47" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B47" s="13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="17" t="s">
+    <row r="48" spans="1:9">
+      <c r="A48" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B48" s="13" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="16" customFormat="1">
-      <c r="A48" s="26" t="s">
+    <row r="49" spans="1:9" s="11" customFormat="1">
+      <c r="A49" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B48" s="27" t="s">
+      <c r="B49" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C48" s="23"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="25" t="s">
+      <c r="C49" s="18"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="20" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="F33:H33"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C3:H3"/>
     <mergeCell ref="C2:H2"/>
@@ -3097,14 +3214,14 @@
   <cols>
     <col min="1" max="1" width="14.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="29" customWidth="1"/>
+    <col min="3" max="3" width="14" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="24" customWidth="1"/>
     <col min="5" max="5" width="16.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="14.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" style="45" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" style="40" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" style="29" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" style="24" customWidth="1"/>
     <col min="12" max="12" width="33" style="2" customWidth="1"/>
     <col min="13" max="14" width="0" hidden="1" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" hidden="1"/>
@@ -3117,22 +3234,22 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="28" t="s">
-        <v>150</v>
+      <c r="D1" s="23" t="s">
+        <v>149</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="38" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -3141,1996 +3258,1996 @@
       <c r="J1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="28" t="s">
-        <v>194</v>
+      <c r="K1" s="23" t="s">
+        <v>193</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="36" customFormat="1">
-      <c r="A2" s="77" t="s">
-        <v>216</v>
-      </c>
-      <c r="B2" s="77" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="77" t="s">
-        <v>391</v>
-      </c>
-      <c r="D2" s="77" t="s">
-        <v>400</v>
-      </c>
-      <c r="E2" s="79" t="s">
-        <v>138</v>
-      </c>
-      <c r="F2" s="77" t="s">
-        <v>200</v>
-      </c>
-      <c r="G2" s="77" t="s">
-        <v>259</v>
-      </c>
-      <c r="H2" s="80">
+    <row r="2" spans="1:12" s="31" customFormat="1">
+      <c r="A2" s="72" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" s="72" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="72" t="s">
+        <v>390</v>
+      </c>
+      <c r="D2" s="72" t="s">
+        <v>399</v>
+      </c>
+      <c r="E2" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="72" t="s">
+        <v>199</v>
+      </c>
+      <c r="G2" s="72" t="s">
+        <v>258</v>
+      </c>
+      <c r="H2" s="75">
         <v>1</v>
       </c>
-      <c r="I2" s="79" t="s">
-        <v>84</v>
-      </c>
-      <c r="J2" s="79"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="123" t="s">
+      <c r="I2" s="74" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2" s="74"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="116" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="31" customFormat="1">
+      <c r="A3" s="96"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="74" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" s="36" customFormat="1">
-      <c r="A3" s="101"/>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="79" t="s">
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="117"/>
+    </row>
+    <row r="4" spans="1:12" s="31" customFormat="1">
+      <c r="A4" s="96"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="74" t="s">
         <v>136</v>
       </c>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="124"/>
-    </row>
-    <row r="4" spans="1:12" s="36" customFormat="1">
-      <c r="A4" s="101"/>
-      <c r="B4" s="101"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="79" t="s">
-        <v>137</v>
-      </c>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="124"/>
-    </row>
-    <row r="5" spans="1:12" s="36" customFormat="1">
-      <c r="A5" s="101"/>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="75" t="s">
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="117"/>
+    </row>
+    <row r="5" spans="1:12" s="31" customFormat="1">
+      <c r="A5" s="96"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="70" t="s">
+        <v>142</v>
+      </c>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="96"/>
+      <c r="L5" s="117"/>
+    </row>
+    <row r="6" spans="1:12" s="31" customFormat="1">
+      <c r="A6" s="96"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="70" t="s">
+        <v>141</v>
+      </c>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="117"/>
+    </row>
+    <row r="7" spans="1:12" s="31" customFormat="1">
+      <c r="A7" s="96"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="70" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="96"/>
+      <c r="L7" s="117"/>
+    </row>
+    <row r="8" spans="1:12" s="31" customFormat="1">
+      <c r="A8" s="96"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="70" t="s">
+        <v>139</v>
+      </c>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="96"/>
+      <c r="K8" s="96"/>
+      <c r="L8" s="117"/>
+    </row>
+    <row r="9" spans="1:12" s="31" customFormat="1">
+      <c r="A9" s="96"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="70" t="s">
         <v>143</v>
       </c>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="101"/>
-      <c r="I5" s="101"/>
-      <c r="J5" s="101"/>
-      <c r="K5" s="101"/>
-      <c r="L5" s="124"/>
-    </row>
-    <row r="6" spans="1:12" s="36" customFormat="1">
-      <c r="A6" s="101"/>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="75" t="s">
-        <v>142</v>
-      </c>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="101"/>
-      <c r="L6" s="124"/>
-    </row>
-    <row r="7" spans="1:12" s="36" customFormat="1">
-      <c r="A7" s="101"/>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="75" t="s">
-        <v>141</v>
-      </c>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="124"/>
-    </row>
-    <row r="8" spans="1:12" s="36" customFormat="1">
-      <c r="A8" s="101"/>
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="75" t="s">
-        <v>140</v>
-      </c>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="124"/>
-    </row>
-    <row r="9" spans="1:12" s="36" customFormat="1">
-      <c r="A9" s="101"/>
-      <c r="B9" s="101"/>
-      <c r="C9" s="101"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="75" t="s">
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="96"/>
+      <c r="J9" s="96"/>
+      <c r="K9" s="96"/>
+      <c r="L9" s="117"/>
+    </row>
+    <row r="10" spans="1:12" s="31" customFormat="1">
+      <c r="A10" s="96"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="70" t="s">
         <v>144</v>
       </c>
-      <c r="F9" s="101"/>
-      <c r="G9" s="101"/>
-      <c r="H9" s="101"/>
-      <c r="I9" s="101"/>
-      <c r="J9" s="101"/>
-      <c r="K9" s="101"/>
-      <c r="L9" s="124"/>
-    </row>
-    <row r="10" spans="1:12" s="36" customFormat="1">
-      <c r="A10" s="101"/>
-      <c r="B10" s="101"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="75" t="s">
-        <v>145</v>
-      </c>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="101"/>
-      <c r="J10" s="101"/>
-      <c r="K10" s="101"/>
-      <c r="L10" s="124"/>
-    </row>
-    <row r="11" spans="1:12" s="36" customFormat="1">
-      <c r="A11" s="101"/>
-      <c r="B11" s="101"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="81" t="s">
-        <v>148</v>
-      </c>
-      <c r="F11" s="101"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="101"/>
-      <c r="K11" s="101"/>
-      <c r="L11" s="125"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="117"/>
+    </row>
+    <row r="11" spans="1:12" s="31" customFormat="1">
+      <c r="A11" s="96"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="76" t="s">
+        <v>147</v>
+      </c>
+      <c r="F11" s="96"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="96"/>
+      <c r="K11" s="96"/>
+      <c r="L11" s="118"/>
     </row>
     <row r="12" spans="1:12" s="2" customFormat="1">
       <c r="A12" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="H12" s="40">
+        <v>2</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" s="24"/>
+      <c r="L12" s="119" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="29" customFormat="1">
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="120"/>
+    </row>
+    <row r="14" spans="1:12" s="70" customFormat="1">
+      <c r="A14" s="70" t="s">
         <v>217</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B14" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C14" s="70" t="s">
         <v>392</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D14" s="70" t="s">
         <v>401</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E14" s="70" t="s">
+        <v>137</v>
+      </c>
+      <c r="F14" s="70" t="s">
+        <v>302</v>
+      </c>
+      <c r="G14" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="H14" s="71">
+        <v>1</v>
+      </c>
+      <c r="I14" s="70" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" s="77"/>
+      <c r="L14" s="121"/>
+    </row>
+    <row r="15" spans="1:12" s="31" customFormat="1">
+      <c r="A15" s="96"/>
+      <c r="B15" s="96"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="74" t="s">
+        <v>139</v>
+      </c>
+      <c r="F15" s="96"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="96"/>
+      <c r="I15" s="96"/>
+      <c r="J15" s="96"/>
+      <c r="K15" s="96"/>
+      <c r="L15" s="117"/>
+    </row>
+    <row r="16" spans="1:12" s="31" customFormat="1">
+      <c r="A16" s="96"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="H12" s="45">
-        <v>2</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="K12" s="29"/>
-      <c r="L12" s="126" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="34" customFormat="1">
-      <c r="A13" s="39"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="127"/>
-    </row>
-    <row r="14" spans="1:12" s="75" customFormat="1">
-      <c r="A14" s="75" t="s">
-        <v>218</v>
-      </c>
-      <c r="B14" s="75" t="s">
-        <v>97</v>
-      </c>
-      <c r="C14" s="75" t="s">
-        <v>393</v>
-      </c>
-      <c r="D14" s="75" t="s">
-        <v>402</v>
-      </c>
-      <c r="E14" s="75" t="s">
+      <c r="F16" s="96"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="96"/>
+      <c r="J16" s="96"/>
+      <c r="K16" s="96"/>
+      <c r="L16" s="117"/>
+    </row>
+    <row r="17" spans="1:12" s="31" customFormat="1">
+      <c r="A17" s="96"/>
+      <c r="B17" s="96"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="70" t="s">
         <v>138</v>
       </c>
-      <c r="F14" s="75" t="s">
-        <v>303</v>
-      </c>
-      <c r="G14" s="75" t="s">
-        <v>261</v>
-      </c>
-      <c r="H14" s="76">
-        <v>1</v>
-      </c>
-      <c r="I14" s="75" t="s">
-        <v>73</v>
-      </c>
-      <c r="K14" s="82"/>
-      <c r="L14" s="128"/>
-    </row>
-    <row r="15" spans="1:12" s="36" customFormat="1">
-      <c r="A15" s="101"/>
-      <c r="B15" s="101"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="79" t="s">
-        <v>140</v>
-      </c>
-      <c r="F15" s="101"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="101"/>
-      <c r="J15" s="101"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="124"/>
-    </row>
-    <row r="16" spans="1:12" s="36" customFormat="1">
-      <c r="A16" s="101"/>
-      <c r="B16" s="101"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="75" t="s">
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="117"/>
+    </row>
+    <row r="18" spans="1:12" s="31" customFormat="1">
+      <c r="A18" s="96"/>
+      <c r="B18" s="96"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="76" t="s">
         <v>147</v>
       </c>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="124"/>
-    </row>
-    <row r="17" spans="1:12" s="36" customFormat="1">
-      <c r="A17" s="101"/>
-      <c r="B17" s="101"/>
-      <c r="C17" s="101"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="75" t="s">
-        <v>139</v>
-      </c>
-      <c r="F17" s="101"/>
-      <c r="G17" s="101"/>
-      <c r="H17" s="101"/>
-      <c r="I17" s="101"/>
-      <c r="J17" s="101"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="124"/>
-    </row>
-    <row r="18" spans="1:12" s="36" customFormat="1">
-      <c r="A18" s="101"/>
-      <c r="B18" s="101"/>
-      <c r="C18" s="101"/>
-      <c r="D18" s="101"/>
-      <c r="E18" s="81" t="s">
-        <v>148</v>
-      </c>
-      <c r="F18" s="101"/>
-      <c r="G18" s="101"/>
-      <c r="H18" s="101"/>
-      <c r="I18" s="101"/>
-      <c r="J18" s="101"/>
-      <c r="K18" s="101"/>
-      <c r="L18" s="125"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="96"/>
+      <c r="K18" s="96"/>
+      <c r="L18" s="118"/>
     </row>
     <row r="19" spans="1:12" s="2" customFormat="1">
       <c r="A19" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="H19" s="40">
+        <v>2</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K19" s="24"/>
+      <c r="L19" s="119"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="120"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="120"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="122"/>
+    </row>
+    <row r="23" spans="1:12" s="70" customFormat="1">
+      <c r="A23" s="70" t="s">
         <v>219</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="B23" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="70" t="s">
         <v>394</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D23" s="70" t="s">
         <v>403</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E23" s="70" t="s">
+        <v>137</v>
+      </c>
+      <c r="F23" s="70" t="s">
+        <v>304</v>
+      </c>
+      <c r="G23" s="70" t="s">
+        <v>262</v>
+      </c>
+      <c r="H23" s="71">
+        <v>5</v>
+      </c>
+      <c r="I23" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="K23" s="77"/>
+      <c r="L23" s="121"/>
+    </row>
+    <row r="24" spans="1:12" s="31" customFormat="1">
+      <c r="A24" s="96"/>
+      <c r="B24" s="96"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="74" t="s">
+        <v>139</v>
+      </c>
+      <c r="F24" s="96"/>
+      <c r="G24" s="96"/>
+      <c r="H24" s="96"/>
+      <c r="I24" s="96"/>
+      <c r="J24" s="96"/>
+      <c r="K24" s="96"/>
+      <c r="L24" s="117"/>
+    </row>
+    <row r="25" spans="1:12" s="31" customFormat="1">
+      <c r="A25" s="96"/>
+      <c r="B25" s="96"/>
+      <c r="C25" s="96"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="70" t="s">
         <v>138</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="H19" s="45">
-        <v>2</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K19" s="29"/>
-      <c r="L19" s="126"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="39"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="127"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="39"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="127"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="39"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="129"/>
-    </row>
-    <row r="23" spans="1:12" s="75" customFormat="1">
-      <c r="A23" s="75" t="s">
-        <v>220</v>
-      </c>
-      <c r="B23" s="75" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="75" t="s">
-        <v>395</v>
-      </c>
-      <c r="D23" s="75" t="s">
-        <v>404</v>
-      </c>
-      <c r="E23" s="75" t="s">
-        <v>138</v>
-      </c>
-      <c r="F23" s="75" t="s">
-        <v>305</v>
-      </c>
-      <c r="G23" s="75" t="s">
-        <v>263</v>
-      </c>
-      <c r="H23" s="76">
-        <v>5</v>
-      </c>
-      <c r="I23" s="75" t="s">
-        <v>75</v>
-      </c>
-      <c r="K23" s="82"/>
-      <c r="L23" s="128"/>
-    </row>
-    <row r="24" spans="1:12" s="36" customFormat="1">
-      <c r="A24" s="101"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="79" t="s">
-        <v>140</v>
-      </c>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="101"/>
-      <c r="K24" s="101"/>
-      <c r="L24" s="124"/>
-    </row>
-    <row r="25" spans="1:12" s="36" customFormat="1">
-      <c r="A25" s="101"/>
-      <c r="B25" s="101"/>
-      <c r="C25" s="101"/>
-      <c r="D25" s="101"/>
-      <c r="E25" s="75" t="s">
-        <v>139</v>
-      </c>
-      <c r="F25" s="101"/>
-      <c r="G25" s="101"/>
-      <c r="H25" s="101"/>
-      <c r="I25" s="101"/>
-      <c r="J25" s="101"/>
-      <c r="K25" s="101"/>
-      <c r="L25" s="124"/>
-    </row>
-    <row r="26" spans="1:12" s="36" customFormat="1">
-      <c r="A26" s="101"/>
-      <c r="B26" s="101"/>
-      <c r="C26" s="101"/>
-      <c r="D26" s="101"/>
-      <c r="E26" s="75" t="s">
-        <v>148</v>
-      </c>
-      <c r="F26" s="101"/>
-      <c r="G26" s="101"/>
-      <c r="H26" s="101"/>
-      <c r="I26" s="101"/>
-      <c r="J26" s="101"/>
-      <c r="K26" s="101"/>
-      <c r="L26" s="125"/>
+      <c r="F25" s="96"/>
+      <c r="G25" s="96"/>
+      <c r="H25" s="96"/>
+      <c r="I25" s="96"/>
+      <c r="J25" s="96"/>
+      <c r="K25" s="96"/>
+      <c r="L25" s="117"/>
+    </row>
+    <row r="26" spans="1:12" s="31" customFormat="1">
+      <c r="A26" s="96"/>
+      <c r="B26" s="96"/>
+      <c r="C26" s="96"/>
+      <c r="D26" s="96"/>
+      <c r="E26" s="70" t="s">
+        <v>147</v>
+      </c>
+      <c r="F26" s="96"/>
+      <c r="G26" s="96"/>
+      <c r="H26" s="96"/>
+      <c r="I26" s="96"/>
+      <c r="J26" s="96"/>
+      <c r="K26" s="96"/>
+      <c r="L26" s="118"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="H27" s="40">
+        <v>1</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="31" customFormat="1">
+      <c r="A28" s="70" t="s">
         <v>221</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C27" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F27" s="2" t="s">
+      <c r="B28" s="70" t="s">
+        <v>404</v>
+      </c>
+      <c r="C28" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" s="70" t="s">
         <v>306</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G28" s="70" t="s">
         <v>264</v>
       </c>
-      <c r="H27" s="45">
+      <c r="H28" s="71">
         <v>1</v>
       </c>
-      <c r="I27" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" s="36" customFormat="1">
-      <c r="A28" s="75" t="s">
-        <v>222</v>
-      </c>
-      <c r="B28" s="75" t="s">
-        <v>405</v>
-      </c>
-      <c r="C28" s="82" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" s="82" t="s">
-        <v>69</v>
-      </c>
-      <c r="E28" s="75" t="s">
-        <v>69</v>
-      </c>
-      <c r="F28" s="75" t="s">
-        <v>307</v>
-      </c>
-      <c r="G28" s="75" t="s">
-        <v>265</v>
-      </c>
-      <c r="H28" s="76">
-        <v>1</v>
-      </c>
-      <c r="I28" s="75" t="s">
-        <v>76</v>
-      </c>
-      <c r="J28" s="75"/>
-      <c r="K28" s="82"/>
-      <c r="L28" s="75"/>
+      <c r="I28" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="J28" s="70"/>
+      <c r="K28" s="77"/>
+      <c r="L28" s="70"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="H29" s="40">
+        <v>4</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="31" customFormat="1">
+      <c r="A30" s="70" t="s">
         <v>406</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B30" s="70" t="s">
         <v>409</v>
       </c>
-      <c r="C29" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="D29" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="G29" s="2" t="s">
+      <c r="C30" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" s="70" t="s">
+        <v>410</v>
+      </c>
+      <c r="G30" s="70" t="s">
         <v>412</v>
       </c>
-      <c r="H29" s="45">
-        <v>4</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" s="36" customFormat="1">
-      <c r="A30" s="75" t="s">
-        <v>407</v>
-      </c>
-      <c r="B30" s="75" t="s">
-        <v>410</v>
-      </c>
-      <c r="C30" s="82" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30" s="82" t="s">
-        <v>69</v>
-      </c>
-      <c r="E30" s="75" t="s">
-        <v>69</v>
-      </c>
-      <c r="F30" s="75" t="s">
-        <v>411</v>
-      </c>
-      <c r="G30" s="75" t="s">
-        <v>413</v>
-      </c>
-      <c r="H30" s="76">
+      <c r="H30" s="71">
         <v>5</v>
       </c>
-      <c r="I30" s="75" t="s">
-        <v>76</v>
-      </c>
-      <c r="J30" s="75"/>
-      <c r="K30" s="82"/>
-      <c r="L30" s="75"/>
+      <c r="I30" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="J30" s="70"/>
+      <c r="K30" s="77"/>
+      <c r="L30" s="70"/>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="H31" s="40">
+        <v>1</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="31" customFormat="1">
+      <c r="A32" s="70" t="s">
+        <v>417</v>
+      </c>
+      <c r="B32" s="70" t="s">
         <v>415</v>
       </c>
-      <c r="C31" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="H31" s="45">
-        <v>1</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" s="36" customFormat="1">
-      <c r="A32" s="75" t="s">
-        <v>418</v>
-      </c>
-      <c r="B32" s="75" t="s">
-        <v>416</v>
-      </c>
-      <c r="C32" s="82" t="s">
-        <v>69</v>
-      </c>
-      <c r="D32" s="82" t="s">
-        <v>69</v>
-      </c>
-      <c r="E32" s="75" t="s">
-        <v>69</v>
-      </c>
-      <c r="F32" s="75" t="s">
-        <v>420</v>
-      </c>
-      <c r="G32" s="75" t="s">
-        <v>422</v>
-      </c>
-      <c r="H32" s="76">
+      <c r="C32" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="F32" s="70" t="s">
+        <v>419</v>
+      </c>
+      <c r="G32" s="70" t="s">
+        <v>421</v>
+      </c>
+      <c r="H32" s="71">
         <v>4</v>
       </c>
-      <c r="I32" s="75" t="s">
-        <v>77</v>
-      </c>
-      <c r="J32" s="75"/>
-      <c r="K32" s="82"/>
-      <c r="L32" s="75"/>
+      <c r="I32" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="J32" s="70"/>
+      <c r="K32" s="77"/>
+      <c r="L32" s="70"/>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="C33" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33" s="29" t="s">
-        <v>69</v>
+        <v>416</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>68</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G33" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="H33" s="40">
+        <v>5</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="31" customFormat="1">
+      <c r="A34" s="70" t="s">
+        <v>223</v>
+      </c>
+      <c r="B34" s="70" t="s">
         <v>423</v>
       </c>
-      <c r="H33" s="45">
-        <v>5</v>
-      </c>
-      <c r="I33" s="2" t="s">
+      <c r="C34" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="F34" s="70" t="s">
+        <v>308</v>
+      </c>
+      <c r="G34" s="70" t="s">
+        <v>266</v>
+      </c>
+      <c r="H34" s="71">
+        <v>1</v>
+      </c>
+      <c r="I34" s="70" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" s="36" customFormat="1">
-      <c r="A34" s="75" t="s">
-        <v>224</v>
-      </c>
-      <c r="B34" s="75" t="s">
-        <v>424</v>
-      </c>
-      <c r="C34" s="82" t="s">
-        <v>69</v>
-      </c>
-      <c r="D34" s="82" t="s">
-        <v>69</v>
-      </c>
-      <c r="E34" s="75" t="s">
-        <v>69</v>
-      </c>
-      <c r="F34" s="75" t="s">
-        <v>309</v>
-      </c>
-      <c r="G34" s="75" t="s">
-        <v>267</v>
-      </c>
-      <c r="H34" s="76">
-        <v>1</v>
-      </c>
-      <c r="I34" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="J34" s="75"/>
-      <c r="K34" s="82"/>
-      <c r="L34" s="75"/>
+      <c r="J34" s="70"/>
+      <c r="K34" s="77"/>
+      <c r="L34" s="70"/>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="H35" s="40">
+        <v>4</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" s="31" customFormat="1">
+      <c r="A36" s="70" t="s">
         <v>427</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B36" s="70" t="s">
         <v>425</v>
       </c>
-      <c r="C35" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="D35" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F35" s="2" t="s">
+      <c r="C36" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" s="70" t="s">
         <v>429</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G36" s="70" t="s">
         <v>431</v>
       </c>
-      <c r="H35" s="45">
-        <v>4</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" s="36" customFormat="1">
-      <c r="A36" s="75" t="s">
-        <v>428</v>
-      </c>
-      <c r="B36" s="75" t="s">
-        <v>426</v>
-      </c>
-      <c r="C36" s="82" t="s">
-        <v>69</v>
-      </c>
-      <c r="D36" s="82" t="s">
-        <v>69</v>
-      </c>
-      <c r="E36" s="75" t="s">
-        <v>69</v>
-      </c>
-      <c r="F36" s="75" t="s">
-        <v>430</v>
-      </c>
-      <c r="G36" s="75" t="s">
-        <v>432</v>
-      </c>
-      <c r="H36" s="76">
+      <c r="H36" s="71">
         <v>5</v>
       </c>
-      <c r="I36" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="J36" s="75"/>
-      <c r="K36" s="82"/>
-      <c r="L36" s="75"/>
+      <c r="I36" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="J36" s="70"/>
+      <c r="K36" s="77"/>
+      <c r="L36" s="70"/>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="H37" s="40">
+        <v>1</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" s="31" customFormat="1">
+      <c r="A38" s="70" t="s">
         <v>225</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C37" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="D37" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F37" s="2" t="s">
+      <c r="B38" s="70" t="s">
+        <v>432</v>
+      </c>
+      <c r="C38" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="E38" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="F38" s="70" t="s">
         <v>310</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="G38" s="70" t="s">
         <v>268</v>
       </c>
-      <c r="H37" s="45">
-        <v>1</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" s="36" customFormat="1">
-      <c r="A38" s="75" t="s">
-        <v>226</v>
-      </c>
-      <c r="B38" s="75" t="s">
-        <v>433</v>
-      </c>
-      <c r="C38" s="82" t="s">
-        <v>69</v>
-      </c>
-      <c r="D38" s="82" t="s">
-        <v>69</v>
-      </c>
-      <c r="E38" s="75" t="s">
-        <v>69</v>
-      </c>
-      <c r="F38" s="75" t="s">
-        <v>311</v>
-      </c>
-      <c r="G38" s="75" t="s">
-        <v>269</v>
-      </c>
-      <c r="H38" s="76">
+      <c r="H38" s="71">
         <v>3</v>
       </c>
-      <c r="I38" s="75" t="s">
-        <v>76</v>
-      </c>
-      <c r="J38" s="75"/>
-      <c r="K38" s="82"/>
-      <c r="L38" s="75"/>
+      <c r="I38" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="J38" s="70"/>
+      <c r="K38" s="77"/>
+      <c r="L38" s="70"/>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="H39" s="40">
+        <v>4</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" s="31" customFormat="1">
+      <c r="A40" s="70" t="s">
         <v>436</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B40" s="70" t="s">
         <v>434</v>
       </c>
-      <c r="C39" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="D39" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F39" s="2" t="s">
+      <c r="C40" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="E40" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="F40" s="70" t="s">
         <v>438</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="G40" s="70" t="s">
         <v>440</v>
       </c>
-      <c r="H39" s="45">
+      <c r="H40" s="71">
         <v>4</v>
       </c>
-      <c r="I39" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" s="36" customFormat="1">
-      <c r="A40" s="75" t="s">
-        <v>437</v>
-      </c>
-      <c r="B40" s="75" t="s">
-        <v>435</v>
-      </c>
-      <c r="C40" s="82" t="s">
-        <v>69</v>
-      </c>
-      <c r="D40" s="82" t="s">
-        <v>69</v>
-      </c>
-      <c r="E40" s="75" t="s">
-        <v>69</v>
-      </c>
-      <c r="F40" s="75" t="s">
-        <v>439</v>
-      </c>
-      <c r="G40" s="75" t="s">
-        <v>441</v>
-      </c>
-      <c r="H40" s="76">
-        <v>4</v>
-      </c>
-      <c r="I40" s="75" t="s">
-        <v>76</v>
-      </c>
-      <c r="J40" s="75"/>
-      <c r="K40" s="82"/>
-      <c r="L40" s="75"/>
+      <c r="I40" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="J40" s="70"/>
+      <c r="K40" s="77"/>
+      <c r="L40" s="70"/>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="H41" s="40">
+        <v>2</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" s="31" customFormat="1">
+      <c r="A42" s="70" t="s">
+        <v>444</v>
+      </c>
+      <c r="B42" s="70" t="s">
         <v>442</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="H41" s="45">
-        <v>2</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" s="36" customFormat="1">
-      <c r="A42" s="75" t="s">
-        <v>445</v>
-      </c>
-      <c r="B42" s="75" t="s">
-        <v>443</v>
-      </c>
-      <c r="C42" s="82" t="s">
-        <v>447</v>
-      </c>
-      <c r="D42" s="82" t="s">
-        <v>449</v>
-      </c>
-      <c r="E42" s="75" t="s">
-        <v>149</v>
-      </c>
-      <c r="F42" s="75" t="s">
-        <v>451</v>
-      </c>
-      <c r="G42" s="75" t="s">
-        <v>453</v>
-      </c>
-      <c r="H42" s="76">
+      <c r="C42" s="77" t="s">
+        <v>446</v>
+      </c>
+      <c r="D42" s="77" t="s">
+        <v>448</v>
+      </c>
+      <c r="E42" s="70" t="s">
+        <v>148</v>
+      </c>
+      <c r="F42" s="70" t="s">
+        <v>450</v>
+      </c>
+      <c r="G42" s="70" t="s">
+        <v>452</v>
+      </c>
+      <c r="H42" s="71">
         <v>5</v>
       </c>
-      <c r="I42" s="75" t="s">
-        <v>76</v>
-      </c>
-      <c r="J42" s="75"/>
-      <c r="K42" s="82"/>
-      <c r="L42" s="75"/>
+      <c r="I42" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="J42" s="70"/>
+      <c r="K42" s="77"/>
+      <c r="L42" s="70"/>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="C43" s="29" t="s">
-        <v>448</v>
-      </c>
-      <c r="D43" s="29" t="s">
-        <v>450</v>
+        <v>443</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>447</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>449</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="H43" s="45">
+        <v>453</v>
+      </c>
+      <c r="H43" s="40">
         <v>5</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" s="36" customFormat="1">
-      <c r="A44" s="75" t="s">
-        <v>228</v>
-      </c>
-      <c r="B44" s="75" t="s">
-        <v>100</v>
-      </c>
-      <c r="C44" s="82" t="s">
-        <v>69</v>
-      </c>
-      <c r="D44" s="82" t="s">
-        <v>69</v>
-      </c>
-      <c r="E44" s="75" t="s">
-        <v>69</v>
-      </c>
-      <c r="F44" s="75" t="s">
-        <v>313</v>
-      </c>
-      <c r="G44" s="75" t="s">
-        <v>271</v>
-      </c>
-      <c r="H44" s="76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" s="31" customFormat="1">
+      <c r="A44" s="70" t="s">
+        <v>227</v>
+      </c>
+      <c r="B44" s="70" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="E44" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="F44" s="70" t="s">
+        <v>312</v>
+      </c>
+      <c r="G44" s="70" t="s">
+        <v>270</v>
+      </c>
+      <c r="H44" s="71">
         <v>1</v>
       </c>
-      <c r="I44" s="75" t="s">
-        <v>79</v>
-      </c>
-      <c r="J44" s="75"/>
-      <c r="K44" s="82"/>
-      <c r="L44" s="75"/>
+      <c r="I44" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="J44" s="70"/>
+      <c r="K44" s="77"/>
+      <c r="L44" s="70"/>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="H45" s="40">
+        <v>2</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" s="31" customFormat="1">
+      <c r="A46" s="70" t="s">
         <v>229</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B46" s="70" t="s">
         <v>101</v>
       </c>
-      <c r="C45" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="D45" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F45" s="2" t="s">
+      <c r="C46" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="E46" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="F46" s="70" t="s">
         <v>314</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="G46" s="70" t="s">
         <v>272</v>
       </c>
-      <c r="H45" s="45">
-        <v>2</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" s="36" customFormat="1">
-      <c r="A46" s="75" t="s">
-        <v>230</v>
-      </c>
-      <c r="B46" s="75" t="s">
-        <v>102</v>
-      </c>
-      <c r="C46" s="82" t="s">
-        <v>69</v>
-      </c>
-      <c r="D46" s="82" t="s">
-        <v>69</v>
-      </c>
-      <c r="E46" s="75" t="s">
-        <v>69</v>
-      </c>
-      <c r="F46" s="75" t="s">
-        <v>315</v>
-      </c>
-      <c r="G46" s="75" t="s">
-        <v>273</v>
-      </c>
-      <c r="H46" s="76">
+      <c r="H46" s="71">
         <v>4</v>
       </c>
-      <c r="I46" s="75" t="s">
-        <v>80</v>
-      </c>
-      <c r="J46" s="75"/>
-      <c r="K46" s="82"/>
-      <c r="L46" s="75"/>
+      <c r="I46" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="J46" s="70"/>
+      <c r="K46" s="77"/>
+      <c r="L46" s="70"/>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="H47" s="40">
+        <v>5</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" s="31" customFormat="1">
+      <c r="A48" s="70" t="s">
         <v>231</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B48" s="70" t="s">
         <v>103</v>
       </c>
-      <c r="C47" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="D47" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F47" s="2" t="s">
+      <c r="C48" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="E48" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="F48" s="70" t="s">
         <v>316</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="G48" s="70" t="s">
         <v>274</v>
       </c>
-      <c r="H47" s="45">
-        <v>5</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" s="36" customFormat="1">
-      <c r="A48" s="75" t="s">
-        <v>232</v>
-      </c>
-      <c r="B48" s="75" t="s">
-        <v>104</v>
-      </c>
-      <c r="C48" s="82" t="s">
-        <v>69</v>
-      </c>
-      <c r="D48" s="82" t="s">
-        <v>69</v>
-      </c>
-      <c r="E48" s="75" t="s">
-        <v>69</v>
-      </c>
-      <c r="F48" s="75" t="s">
-        <v>317</v>
-      </c>
-      <c r="G48" s="75" t="s">
-        <v>275</v>
-      </c>
-      <c r="H48" s="76">
+      <c r="H48" s="71">
         <v>4</v>
       </c>
-      <c r="I48" s="75" t="s">
-        <v>79</v>
-      </c>
-      <c r="J48" s="75"/>
-      <c r="K48" s="82"/>
-      <c r="L48" s="75"/>
+      <c r="I48" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="J48" s="70"/>
+      <c r="K48" s="77"/>
+      <c r="L48" s="70"/>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="H49" s="40">
+        <v>3</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" s="31" customFormat="1">
+      <c r="A50" s="70" t="s">
         <v>233</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B50" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="C49" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="D49" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F49" s="2" t="s">
+      <c r="C50" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="E50" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="F50" s="70" t="s">
         <v>318</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="G50" s="70" t="s">
         <v>276</v>
       </c>
-      <c r="H49" s="45">
-        <v>3</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" s="36" customFormat="1">
-      <c r="A50" s="75" t="s">
-        <v>234</v>
-      </c>
-      <c r="B50" s="75" t="s">
-        <v>106</v>
-      </c>
-      <c r="C50" s="82" t="s">
-        <v>69</v>
-      </c>
-      <c r="D50" s="82" t="s">
-        <v>69</v>
-      </c>
-      <c r="E50" s="75" t="s">
-        <v>69</v>
-      </c>
-      <c r="F50" s="75" t="s">
-        <v>319</v>
-      </c>
-      <c r="G50" s="75" t="s">
-        <v>277</v>
-      </c>
-      <c r="H50" s="76">
+      <c r="H50" s="71">
         <v>5</v>
       </c>
-      <c r="I50" s="75" t="s">
-        <v>80</v>
-      </c>
-      <c r="J50" s="75"/>
-      <c r="K50" s="82"/>
-      <c r="L50" s="75"/>
+      <c r="I50" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="J50" s="70"/>
+      <c r="K50" s="77"/>
+      <c r="L50" s="70"/>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="H51" s="40">
+        <v>3</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" s="31" customFormat="1">
+      <c r="A52" s="70" t="s">
         <v>235</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B52" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="C51" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="D51" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F51" s="2" t="s">
+      <c r="C52" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="E52" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="F52" s="70" t="s">
         <v>320</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="G52" s="70" t="s">
         <v>278</v>
       </c>
-      <c r="H51" s="45">
-        <v>3</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" s="36" customFormat="1">
-      <c r="A52" s="75" t="s">
-        <v>236</v>
-      </c>
-      <c r="B52" s="75" t="s">
-        <v>108</v>
-      </c>
-      <c r="C52" s="82" t="s">
-        <v>69</v>
-      </c>
-      <c r="D52" s="82" t="s">
-        <v>69</v>
-      </c>
-      <c r="E52" s="75" t="s">
-        <v>69</v>
-      </c>
-      <c r="F52" s="75" t="s">
-        <v>321</v>
-      </c>
-      <c r="G52" s="75" t="s">
-        <v>279</v>
-      </c>
-      <c r="H52" s="76">
+      <c r="H52" s="71">
         <v>2</v>
       </c>
-      <c r="I52" s="75" t="s">
-        <v>80</v>
-      </c>
-      <c r="J52" s="75"/>
-      <c r="K52" s="82"/>
-      <c r="L52" s="75"/>
+      <c r="I52" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="J52" s="70"/>
+      <c r="K52" s="77"/>
+      <c r="L52" s="70"/>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="H53" s="40">
+        <v>1</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" s="31" customFormat="1">
+      <c r="A54" s="70" t="s">
+        <v>236</v>
+      </c>
+      <c r="B54" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="C53" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="D53" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F53" s="2" t="s">
+      <c r="C54" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="E54" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="F54" s="70" t="s">
         <v>322</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="G54" s="70" t="s">
         <v>280</v>
       </c>
-      <c r="H53" s="45">
-        <v>1</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" s="36" customFormat="1">
-      <c r="A54" s="75" t="s">
-        <v>237</v>
-      </c>
-      <c r="B54" s="75" t="s">
-        <v>110</v>
-      </c>
-      <c r="C54" s="82" t="s">
-        <v>69</v>
-      </c>
-      <c r="D54" s="82" t="s">
-        <v>69</v>
-      </c>
-      <c r="E54" s="75" t="s">
-        <v>69</v>
-      </c>
-      <c r="F54" s="75" t="s">
-        <v>323</v>
-      </c>
-      <c r="G54" s="75" t="s">
-        <v>281</v>
-      </c>
-      <c r="H54" s="76">
+      <c r="H54" s="71">
         <v>3</v>
       </c>
-      <c r="I54" s="75" t="s">
-        <v>79</v>
-      </c>
-      <c r="J54" s="75"/>
-      <c r="K54" s="82"/>
-      <c r="L54" s="75"/>
+      <c r="I54" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="J54" s="70"/>
+      <c r="K54" s="77"/>
+      <c r="L54" s="70"/>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H55" s="40">
+        <v>5</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" s="31" customFormat="1">
+      <c r="A56" s="70" t="s">
         <v>239</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B56" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="C55" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="D55" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F55" s="2" t="s">
+      <c r="C56" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="E56" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="F56" s="70" t="s">
         <v>324</v>
       </c>
-      <c r="G55" s="2" t="s">
+      <c r="G56" s="70" t="s">
         <v>282</v>
       </c>
-      <c r="H55" s="45">
-        <v>5</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" s="36" customFormat="1">
-      <c r="A56" s="75" t="s">
-        <v>240</v>
-      </c>
-      <c r="B56" s="75" t="s">
-        <v>112</v>
-      </c>
-      <c r="C56" s="82" t="s">
-        <v>69</v>
-      </c>
-      <c r="D56" s="82" t="s">
-        <v>69</v>
-      </c>
-      <c r="E56" s="75" t="s">
-        <v>69</v>
-      </c>
-      <c r="F56" s="75" t="s">
-        <v>325</v>
-      </c>
-      <c r="G56" s="75" t="s">
-        <v>283</v>
-      </c>
-      <c r="H56" s="76">
+      <c r="H56" s="71">
         <v>4</v>
       </c>
-      <c r="I56" s="75" t="s">
-        <v>82</v>
-      </c>
-      <c r="J56" s="75"/>
-      <c r="K56" s="82"/>
-      <c r="L56" s="75"/>
+      <c r="I56" s="70" t="s">
+        <v>81</v>
+      </c>
+      <c r="J56" s="70"/>
+      <c r="K56" s="77"/>
+      <c r="L56" s="70"/>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C57" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H57" s="40">
+        <v>2</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" s="31" customFormat="1">
+      <c r="A58" s="70" t="s">
         <v>241</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B58" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C57" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="D57" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F57" s="2" t="s">
+      <c r="C58" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="E58" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="F58" s="70" t="s">
         <v>326</v>
       </c>
-      <c r="G57" s="2" t="s">
+      <c r="G58" s="70" t="s">
         <v>284</v>
       </c>
-      <c r="H57" s="45">
-        <v>2</v>
-      </c>
-      <c r="I57" s="2" t="s">
+      <c r="H58" s="71">
+        <v>3</v>
+      </c>
+      <c r="I58" s="70" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" s="36" customFormat="1">
-      <c r="A58" s="75" t="s">
-        <v>242</v>
-      </c>
-      <c r="B58" s="75" t="s">
-        <v>114</v>
-      </c>
-      <c r="C58" s="82" t="s">
-        <v>69</v>
-      </c>
-      <c r="D58" s="82" t="s">
-        <v>69</v>
-      </c>
-      <c r="E58" s="75" t="s">
-        <v>69</v>
-      </c>
-      <c r="F58" s="75" t="s">
-        <v>327</v>
-      </c>
-      <c r="G58" s="75" t="s">
-        <v>285</v>
-      </c>
-      <c r="H58" s="76">
-        <v>3</v>
-      </c>
-      <c r="I58" s="75" t="s">
-        <v>76</v>
-      </c>
-      <c r="J58" s="75"/>
-      <c r="K58" s="82"/>
-      <c r="L58" s="75"/>
+      <c r="J58" s="70"/>
+      <c r="K58" s="77"/>
+      <c r="L58" s="70"/>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C59" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="H59" s="40">
+        <v>1</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" s="31" customFormat="1">
+      <c r="A60" s="70" t="s">
         <v>243</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B60" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="C59" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="D59" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F59" s="2" t="s">
+      <c r="C60" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="E60" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="F60" s="70" t="s">
         <v>328</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="G60" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="H59" s="45">
-        <v>1</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" s="36" customFormat="1">
-      <c r="A60" s="75" t="s">
-        <v>244</v>
-      </c>
-      <c r="B60" s="75" t="s">
-        <v>116</v>
-      </c>
-      <c r="C60" s="82" t="s">
-        <v>69</v>
-      </c>
-      <c r="D60" s="82" t="s">
-        <v>69</v>
-      </c>
-      <c r="E60" s="75" t="s">
-        <v>69</v>
-      </c>
-      <c r="F60" s="75" t="s">
-        <v>329</v>
-      </c>
-      <c r="G60" s="75" t="s">
-        <v>287</v>
-      </c>
-      <c r="H60" s="76">
+      <c r="H60" s="71">
         <v>2</v>
       </c>
-      <c r="I60" s="75" t="s">
-        <v>83</v>
-      </c>
-      <c r="J60" s="75"/>
-      <c r="K60" s="82"/>
-      <c r="L60" s="75"/>
+      <c r="I60" s="70" t="s">
+        <v>82</v>
+      </c>
+      <c r="J60" s="70"/>
+      <c r="K60" s="77"/>
+      <c r="L60" s="70"/>
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C61" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="H61" s="40">
+        <v>3</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" s="31" customFormat="1">
+      <c r="A62" s="70" t="s">
         <v>245</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B62" s="70" t="s">
         <v>117</v>
       </c>
-      <c r="C61" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="D61" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F61" s="2" t="s">
+      <c r="C62" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="E62" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="F62" s="70" t="s">
         <v>330</v>
       </c>
-      <c r="G61" s="2" t="s">
+      <c r="G62" s="70" t="s">
         <v>288</v>
       </c>
-      <c r="H61" s="45">
+      <c r="H62" s="71">
         <v>3</v>
       </c>
-      <c r="I61" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" s="36" customFormat="1">
-      <c r="A62" s="75" t="s">
-        <v>246</v>
-      </c>
-      <c r="B62" s="75" t="s">
-        <v>118</v>
-      </c>
-      <c r="C62" s="82" t="s">
-        <v>69</v>
-      </c>
-      <c r="D62" s="82" t="s">
-        <v>69</v>
-      </c>
-      <c r="E62" s="75" t="s">
-        <v>69</v>
-      </c>
-      <c r="F62" s="75" t="s">
-        <v>331</v>
-      </c>
-      <c r="G62" s="75" t="s">
-        <v>289</v>
-      </c>
-      <c r="H62" s="76">
-        <v>3</v>
-      </c>
-      <c r="I62" s="75" t="s">
-        <v>80</v>
-      </c>
-      <c r="J62" s="75"/>
-      <c r="K62" s="82"/>
-      <c r="L62" s="75" t="s">
-        <v>131</v>
+      <c r="I62" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="J62" s="70"/>
+      <c r="K62" s="77"/>
+      <c r="L62" s="70" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C63" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H63" s="40">
+        <v>5</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" s="31" customFormat="1">
+      <c r="A64" s="70" t="s">
         <v>247</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B64" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="C63" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="D63" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F63" s="2" t="s">
+      <c r="C64" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="E64" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="F64" s="70" t="s">
         <v>332</v>
       </c>
-      <c r="G63" s="2" t="s">
+      <c r="G64" s="70" t="s">
         <v>290</v>
       </c>
-      <c r="H63" s="45">
+      <c r="H64" s="71">
         <v>5</v>
       </c>
-      <c r="I63" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" s="36" customFormat="1">
-      <c r="A64" s="75" t="s">
-        <v>248</v>
-      </c>
-      <c r="B64" s="75" t="s">
-        <v>120</v>
-      </c>
-      <c r="C64" s="82" t="s">
-        <v>69</v>
-      </c>
-      <c r="D64" s="82" t="s">
-        <v>69</v>
-      </c>
-      <c r="E64" s="75" t="s">
-        <v>69</v>
-      </c>
-      <c r="F64" s="75" t="s">
-        <v>333</v>
-      </c>
-      <c r="G64" s="75" t="s">
-        <v>291</v>
-      </c>
-      <c r="H64" s="76">
-        <v>5</v>
-      </c>
-      <c r="I64" s="75" t="s">
-        <v>84</v>
-      </c>
-      <c r="J64" s="75"/>
-      <c r="K64" s="82"/>
-      <c r="L64" s="75"/>
+      <c r="I64" s="70" t="s">
+        <v>83</v>
+      </c>
+      <c r="J64" s="70"/>
+      <c r="K64" s="77"/>
+      <c r="L64" s="70"/>
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C65" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="H65" s="40">
+        <v>3</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" s="31" customFormat="1">
+      <c r="A66" s="70" t="s">
         <v>249</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B66" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="C65" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="D65" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F65" s="2" t="s">
+      <c r="C66" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="E66" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="F66" s="70" t="s">
         <v>334</v>
       </c>
-      <c r="G65" s="2" t="s">
+      <c r="G66" s="70" t="s">
         <v>292</v>
       </c>
-      <c r="H65" s="45">
+      <c r="H66" s="71">
         <v>3</v>
       </c>
-      <c r="I65" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" s="36" customFormat="1">
-      <c r="A66" s="75" t="s">
-        <v>250</v>
-      </c>
-      <c r="B66" s="75" t="s">
-        <v>122</v>
-      </c>
-      <c r="C66" s="82" t="s">
-        <v>69</v>
-      </c>
-      <c r="D66" s="82" t="s">
-        <v>69</v>
-      </c>
-      <c r="E66" s="75" t="s">
-        <v>69</v>
-      </c>
-      <c r="F66" s="75" t="s">
-        <v>335</v>
-      </c>
-      <c r="G66" s="75" t="s">
-        <v>293</v>
-      </c>
-      <c r="H66" s="76">
-        <v>3</v>
-      </c>
-      <c r="I66" s="75" t="s">
-        <v>82</v>
-      </c>
-      <c r="J66" s="75"/>
-      <c r="K66" s="82"/>
-      <c r="L66" s="75"/>
+      <c r="I66" s="70" t="s">
+        <v>81</v>
+      </c>
+      <c r="J66" s="70"/>
+      <c r="K66" s="77"/>
+      <c r="L66" s="70"/>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C67" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H67" s="40">
+        <v>3</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" s="31" customFormat="1">
+      <c r="A68" s="70" t="s">
         <v>251</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B68" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C67" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="D67" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F67" s="2" t="s">
+      <c r="C68" s="70" t="s">
+        <v>397</v>
+      </c>
+      <c r="D68" s="70" t="s">
+        <v>398</v>
+      </c>
+      <c r="E68" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="F68" s="70" t="s">
         <v>336</v>
       </c>
-      <c r="G67" s="2" t="s">
+      <c r="G68" s="70" t="s">
         <v>294</v>
       </c>
-      <c r="H67" s="45">
-        <v>3</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" s="36" customFormat="1">
-      <c r="A68" s="75" t="s">
-        <v>252</v>
-      </c>
-      <c r="B68" s="75" t="s">
-        <v>124</v>
-      </c>
-      <c r="C68" s="75" t="s">
-        <v>398</v>
-      </c>
-      <c r="D68" s="75" t="s">
-        <v>399</v>
-      </c>
-      <c r="E68" s="75" t="s">
-        <v>125</v>
-      </c>
-      <c r="F68" s="75" t="s">
-        <v>337</v>
-      </c>
-      <c r="G68" s="75" t="s">
-        <v>295</v>
-      </c>
-      <c r="H68" s="76">
+      <c r="H68" s="71">
         <v>2</v>
       </c>
-      <c r="I68" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="J68" s="75"/>
-      <c r="K68" s="82"/>
-      <c r="L68" s="75"/>
+      <c r="I68" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="J68" s="70"/>
+      <c r="K68" s="77"/>
+      <c r="L68" s="70"/>
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C69" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="H69" s="40">
+        <v>3</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" s="31" customFormat="1">
+      <c r="A70" s="70" t="s">
         <v>253</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B70" s="70" t="s">
         <v>126</v>
       </c>
-      <c r="C69" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="D69" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F69" s="2" t="s">
+      <c r="C70" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="E70" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="F70" s="70" t="s">
         <v>338</v>
       </c>
-      <c r="G69" s="2" t="s">
+      <c r="G70" s="70" t="s">
         <v>296</v>
       </c>
-      <c r="H69" s="45">
+      <c r="H70" s="71">
         <v>3</v>
       </c>
-      <c r="I69" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="L69" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" s="36" customFormat="1">
-      <c r="A70" s="75" t="s">
-        <v>254</v>
-      </c>
-      <c r="B70" s="75" t="s">
-        <v>127</v>
-      </c>
-      <c r="C70" s="82" t="s">
-        <v>69</v>
-      </c>
-      <c r="D70" s="82" t="s">
-        <v>69</v>
-      </c>
-      <c r="E70" s="75" t="s">
-        <v>69</v>
-      </c>
-      <c r="F70" s="75" t="s">
-        <v>339</v>
-      </c>
-      <c r="G70" s="75" t="s">
-        <v>297</v>
-      </c>
-      <c r="H70" s="76">
-        <v>3</v>
-      </c>
-      <c r="I70" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="J70" s="75"/>
-      <c r="K70" s="82"/>
-      <c r="L70" s="75"/>
+      <c r="I70" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="J70" s="70"/>
+      <c r="K70" s="77"/>
+      <c r="L70" s="70"/>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C71" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="H71" s="40">
+        <v>3</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" s="31" customFormat="1">
+      <c r="A72" s="70" t="s">
         <v>255</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B72" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="C71" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="D71" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F71" s="2" t="s">
+      <c r="C72" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="E72" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="F72" s="70" t="s">
         <v>340</v>
       </c>
-      <c r="G71" s="2" t="s">
+      <c r="G72" s="70" t="s">
         <v>298</v>
       </c>
-      <c r="H71" s="45">
+      <c r="H72" s="71">
         <v>3</v>
       </c>
-      <c r="I71" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" s="36" customFormat="1">
-      <c r="A72" s="75" t="s">
-        <v>256</v>
-      </c>
-      <c r="B72" s="75" t="s">
-        <v>129</v>
-      </c>
-      <c r="C72" s="82" t="s">
-        <v>69</v>
-      </c>
-      <c r="D72" s="82" t="s">
-        <v>69</v>
-      </c>
-      <c r="E72" s="75" t="s">
-        <v>69</v>
-      </c>
-      <c r="F72" s="75" t="s">
-        <v>341</v>
-      </c>
-      <c r="G72" s="75" t="s">
-        <v>299</v>
-      </c>
-      <c r="H72" s="76">
-        <v>3</v>
-      </c>
-      <c r="I72" s="75" t="s">
-        <v>79</v>
-      </c>
-      <c r="J72" s="75"/>
-      <c r="K72" s="82"/>
-      <c r="L72" s="75"/>
+      <c r="I72" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="J72" s="70"/>
+      <c r="K72" s="77"/>
+      <c r="L72" s="70"/>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C73" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="H73" s="40">
+        <v>2</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" s="31" customFormat="1">
+      <c r="A74" s="70" t="s">
         <v>257</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C73" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="D73" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="G73" s="2" t="s">
+      <c r="B74" s="70" t="s">
+        <v>132</v>
+      </c>
+      <c r="C74" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="E74" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="F74" s="70" t="s">
+        <v>341</v>
+      </c>
+      <c r="G74" s="70" t="s">
         <v>300</v>
       </c>
-      <c r="H73" s="45">
-        <v>2</v>
-      </c>
-      <c r="I73" s="2" t="s">
+      <c r="H74" s="71">
+        <v>3</v>
+      </c>
+      <c r="I74" s="70" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" s="36" customFormat="1">
-      <c r="A74" s="75" t="s">
-        <v>258</v>
-      </c>
-      <c r="B74" s="75" t="s">
-        <v>133</v>
-      </c>
-      <c r="C74" s="82" t="s">
-        <v>69</v>
-      </c>
-      <c r="D74" s="82" t="s">
-        <v>69</v>
-      </c>
-      <c r="E74" s="75" t="s">
-        <v>69</v>
-      </c>
-      <c r="F74" s="75" t="s">
-        <v>342</v>
-      </c>
-      <c r="G74" s="75" t="s">
-        <v>301</v>
-      </c>
-      <c r="H74" s="76">
-        <v>3</v>
-      </c>
-      <c r="I74" s="75" t="s">
-        <v>80</v>
-      </c>
-      <c r="J74" s="75"/>
-      <c r="K74" s="82"/>
-      <c r="L74" s="75"/>
-    </row>
-    <row r="75" spans="1:12" s="108" customFormat="1">
-      <c r="A75" s="103" t="s">
+      <c r="J74" s="70"/>
+      <c r="K74" s="77"/>
+      <c r="L74" s="70"/>
+    </row>
+    <row r="75" spans="1:12" s="103" customFormat="1">
+      <c r="A75" s="98" t="s">
+        <v>530</v>
+      </c>
+      <c r="B75" s="98" t="s">
+        <v>522</v>
+      </c>
+      <c r="C75" s="101" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" s="101" t="s">
+        <v>68</v>
+      </c>
+      <c r="E75" s="98" t="s">
+        <v>68</v>
+      </c>
+      <c r="F75" s="98" t="s">
         <v>531</v>
       </c>
-      <c r="B75" s="103" t="s">
-        <v>523</v>
-      </c>
-      <c r="C75" s="106" t="s">
-        <v>69</v>
-      </c>
-      <c r="D75" s="106" t="s">
-        <v>69</v>
-      </c>
-      <c r="E75" s="103" t="s">
-        <v>69</v>
-      </c>
-      <c r="F75" s="103" t="s">
+      <c r="G75" s="98" t="s">
         <v>532</v>
       </c>
-      <c r="G75" s="103" t="s">
-        <v>533</v>
-      </c>
-      <c r="H75" s="107">
+      <c r="H75" s="102">
         <v>5</v>
       </c>
-      <c r="I75" s="103" t="s">
-        <v>72</v>
-      </c>
-      <c r="J75" s="103"/>
-      <c r="K75" s="106"/>
-      <c r="L75" s="103"/>
+      <c r="I75" s="98" t="s">
+        <v>71</v>
+      </c>
+      <c r="J75" s="98"/>
+      <c r="K75" s="101"/>
+      <c r="L75" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5160,7 +5277,7 @@
   <cols>
     <col min="1" max="1" width="13.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="27.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" style="44" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="39" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
@@ -5176,7 +5293,7 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="38" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -5186,217 +5303,217 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="36" customFormat="1">
-      <c r="A2" s="79" t="s">
-        <v>344</v>
-      </c>
-      <c r="B2" s="79" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2" s="83">
+    <row r="2" spans="1:7" s="31" customFormat="1">
+      <c r="A2" s="74" t="s">
+        <v>343</v>
+      </c>
+      <c r="B2" s="74" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="78">
         <v>1</v>
       </c>
-      <c r="D2" s="79" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
+      <c r="D2" s="74" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="39">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="31" customFormat="1">
+      <c r="A4" s="70" t="s">
         <v>345</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C3" s="44">
+      <c r="B4" s="70" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="79">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="36" customFormat="1">
-      <c r="A4" s="75" t="s">
-        <v>346</v>
-      </c>
-      <c r="B4" s="75" t="s">
-        <v>152</v>
-      </c>
-      <c r="C4" s="84">
-        <v>1</v>
-      </c>
-      <c r="D4" s="75" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
+      <c r="D4" s="70" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="39">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="31" customFormat="1">
+      <c r="A6" s="70" t="s">
         <v>347</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C6" s="79">
         <v>1</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="36" customFormat="1">
-      <c r="A6" s="75" t="s">
-        <v>348</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="C6" s="84">
-        <v>1</v>
-      </c>
-      <c r="D6" s="75" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
+      <c r="D6" s="70" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="39">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="31" customFormat="1">
+      <c r="A8" s="70" t="s">
         <v>349</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="70" t="s">
         <v>157</v>
       </c>
-      <c r="C7" s="44">
+      <c r="C8" s="79">
         <v>1</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="36" customFormat="1">
-      <c r="A8" s="75" t="s">
-        <v>350</v>
-      </c>
-      <c r="B8" s="75" t="s">
-        <v>158</v>
-      </c>
-      <c r="C8" s="84">
-        <v>1</v>
-      </c>
-      <c r="D8" s="75" t="s">
-        <v>83</v>
-      </c>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
+      <c r="D8" s="70" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" s="39">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="31" customFormat="1">
+      <c r="A10" s="70" t="s">
         <v>351</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="70" t="s">
         <v>159</v>
       </c>
-      <c r="C9" s="44">
-        <v>2</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="36" customFormat="1">
-      <c r="A10" s="75" t="s">
-        <v>352</v>
-      </c>
-      <c r="B10" s="75" t="s">
-        <v>160</v>
-      </c>
-      <c r="C10" s="84">
+      <c r="C10" s="79">
         <v>1</v>
       </c>
-      <c r="D10" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
+      <c r="D10" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" s="39">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="31" customFormat="1">
+      <c r="A12" s="70" t="s">
         <v>353</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="70" t="s">
         <v>161</v>
       </c>
-      <c r="C11" s="44">
+      <c r="C12" s="79">
         <v>1</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D12" s="70" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" s="36" customFormat="1">
-      <c r="A12" s="75" t="s">
-        <v>354</v>
-      </c>
-      <c r="B12" s="75" t="s">
-        <v>162</v>
-      </c>
-      <c r="C12" s="84">
-        <v>1</v>
-      </c>
-      <c r="D12" s="75" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C13" s="39">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="31" customFormat="1">
+      <c r="A14" s="70" t="s">
         <v>355</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C13" s="44">
-        <v>3</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="36" customFormat="1">
-      <c r="A14" s="75" t="s">
-        <v>356</v>
-      </c>
-      <c r="B14" s="75" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="84">
+      <c r="B14" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="79">
         <v>2</v>
       </c>
-      <c r="D14" s="75" t="s">
-        <v>79</v>
-      </c>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
+      <c r="D14" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5408,17 +5525,17 @@
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:B30"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="24" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" style="44" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="39" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" style="2" customWidth="1"/>
@@ -5434,7 +5551,7 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="38" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -5444,474 +5561,545 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="35" customFormat="1">
-      <c r="A2" s="47" t="s">
-        <v>474</v>
-      </c>
-      <c r="B2" s="47" t="s">
-        <v>457</v>
-      </c>
-      <c r="C2" s="49">
+    <row r="2" spans="1:7" s="30" customFormat="1">
+      <c r="A2" s="42" t="s">
+        <v>473</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>456</v>
+      </c>
+      <c r="C2" s="44">
         <v>1</v>
       </c>
-      <c r="D2" s="47" t="s">
-        <v>518</v>
-      </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
+      <c r="D2" s="42" t="s">
+        <v>517</v>
+      </c>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="G2" s="42"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="44">
+        <v>94</v>
+      </c>
+      <c r="C3" s="39">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="35" customFormat="1">
-      <c r="A4" s="48" t="s">
-        <v>475</v>
-      </c>
-      <c r="B4" s="102" t="s">
-        <v>456</v>
-      </c>
-      <c r="C4" s="50">
+        <v>536</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="30" customFormat="1">
+      <c r="A4" s="43" t="s">
+        <v>474</v>
+      </c>
+      <c r="B4" s="97" t="s">
+        <v>455</v>
+      </c>
+      <c r="C4" s="45">
         <v>1</v>
       </c>
-      <c r="D4" s="47" t="s">
-        <v>518</v>
-      </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
+      <c r="D4" s="42" t="s">
+        <v>517</v>
+      </c>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="G4" s="43"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="39">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="30" customFormat="1">
+      <c r="A6" s="43" t="s">
         <v>476</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C5" s="44">
+      <c r="B6" s="30" t="s">
+        <v>454</v>
+      </c>
+      <c r="C6" s="45">
         <v>1</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="35" customFormat="1">
-      <c r="A6" s="48" t="s">
-        <v>477</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>455</v>
-      </c>
-      <c r="C6" s="50">
-        <v>1</v>
-      </c>
-      <c r="D6" s="47" t="s">
-        <v>518</v>
-      </c>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
+      <c r="D6" s="42" t="s">
+        <v>517</v>
+      </c>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="G6" s="43"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="C7" s="44">
+        <v>461</v>
+      </c>
+      <c r="C7" s="39">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="35" customFormat="1">
-      <c r="A8" s="48" t="s">
-        <v>480</v>
-      </c>
-      <c r="B8" s="48" t="s">
+        <v>517</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="30" customFormat="1">
+      <c r="A8" s="43" t="s">
+        <v>479</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>457</v>
+      </c>
+      <c r="C8" s="45">
+        <v>1</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>517</v>
+      </c>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="G8" s="43" t="s">
         <v>458</v>
-      </c>
-      <c r="C8" s="50">
-        <v>1</v>
-      </c>
-      <c r="D8" s="47" t="s">
-        <v>518</v>
-      </c>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C9" s="39">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="30" customFormat="1">
+      <c r="A10" s="43" t="s">
         <v>481</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="43" t="s">
         <v>460</v>
       </c>
-      <c r="C9" s="44">
+      <c r="C10" s="45">
         <v>1</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="35" customFormat="1">
-      <c r="A10" s="48" t="s">
-        <v>482</v>
-      </c>
-      <c r="B10" s="48" t="s">
-        <v>461</v>
-      </c>
-      <c r="C10" s="50">
-        <v>1</v>
-      </c>
-      <c r="D10" s="47" t="s">
-        <v>518</v>
-      </c>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48" t="s">
-        <v>515</v>
+      <c r="D10" s="42" t="s">
+        <v>517</v>
+      </c>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="G10" s="43" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C11" s="39">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="30" customFormat="1">
+      <c r="A12" s="43" t="s">
         <v>483</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="43" t="s">
         <v>463</v>
       </c>
-      <c r="C11" s="44">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="35" customFormat="1">
-      <c r="A12" s="48" t="s">
-        <v>484</v>
-      </c>
-      <c r="B12" s="48" t="s">
-        <v>464</v>
-      </c>
-      <c r="C12" s="50">
+      <c r="C12" s="45">
         <v>2</v>
       </c>
-      <c r="D12" s="47" t="s">
-        <v>518</v>
-      </c>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
+      <c r="D12" s="42" t="s">
+        <v>517</v>
+      </c>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="G12" s="43"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="B13" s="98" t="s">
+        <v>465</v>
+      </c>
+      <c r="C13" s="39">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="30" customFormat="1">
+      <c r="A14" s="43" t="s">
         <v>485</v>
       </c>
-      <c r="B13" s="103" t="s">
-        <v>466</v>
-      </c>
-      <c r="C13" s="44">
+      <c r="B14" s="43" t="s">
+        <v>464</v>
+      </c>
+      <c r="C14" s="45">
         <v>2</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="35" customFormat="1">
-      <c r="A14" s="48" t="s">
-        <v>486</v>
-      </c>
-      <c r="B14" s="48" t="s">
-        <v>465</v>
-      </c>
-      <c r="C14" s="50">
-        <v>2</v>
-      </c>
-      <c r="D14" s="48" t="s">
-        <v>518</v>
-      </c>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
+      <c r="D14" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B15" s="98" t="s">
+        <v>466</v>
+      </c>
+      <c r="C15" s="39">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="30" customFormat="1">
+      <c r="A16" s="43" t="s">
         <v>487</v>
       </c>
-      <c r="B15" s="103" t="s">
+      <c r="B16" s="43" t="s">
         <v>467</v>
       </c>
-      <c r="C15" s="44">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="35" customFormat="1">
-      <c r="A16" s="48" t="s">
-        <v>488</v>
-      </c>
-      <c r="B16" s="48" t="s">
-        <v>468</v>
-      </c>
-      <c r="C16" s="50">
+      <c r="C16" s="45">
         <v>4</v>
       </c>
-      <c r="D16" s="48" t="s">
-        <v>508</v>
-      </c>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
+      <c r="D16" s="43" t="s">
+        <v>507</v>
+      </c>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B17" s="98" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17" s="39">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="30" customFormat="1">
+      <c r="A18" s="43" t="s">
         <v>489</v>
       </c>
-      <c r="B17" s="103" t="s">
-        <v>152</v>
-      </c>
-      <c r="C17" s="44">
-        <v>2</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="35" customFormat="1">
-      <c r="A18" s="48" t="s">
-        <v>490</v>
-      </c>
-      <c r="B18" s="48" t="s">
-        <v>469</v>
-      </c>
-      <c r="C18" s="50">
+      <c r="B18" s="43" t="s">
+        <v>468</v>
+      </c>
+      <c r="C18" s="45">
         <v>1</v>
       </c>
-      <c r="D18" s="48" t="s">
-        <v>518</v>
-      </c>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
+      <c r="D18" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="G18" s="43"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B19" s="99" t="s">
+        <v>469</v>
+      </c>
+      <c r="C19" s="39">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="30" customFormat="1">
+      <c r="A20" s="43" t="s">
         <v>491</v>
       </c>
-      <c r="B19" s="104" t="s">
-        <v>470</v>
-      </c>
-      <c r="C19" s="44">
+      <c r="B20" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="45">
         <v>1</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="35" customFormat="1">
-      <c r="A20" s="48" t="s">
-        <v>492</v>
-      </c>
-      <c r="B20" s="48" t="s">
-        <v>98</v>
-      </c>
-      <c r="C20" s="50">
-        <v>1</v>
-      </c>
-      <c r="D20" s="48" t="s">
-        <v>518</v>
-      </c>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
+      <c r="D20" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B21" s="100" t="s">
+        <v>470</v>
+      </c>
+      <c r="C21" s="39">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="30" customFormat="1">
+      <c r="A22" s="43" t="s">
         <v>493</v>
       </c>
-      <c r="B21" s="105" t="s">
+      <c r="B22" s="43" t="s">
         <v>471</v>
       </c>
-      <c r="C21" s="44">
-        <v>2</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="35" customFormat="1">
-      <c r="A22" s="48" t="s">
-        <v>494</v>
-      </c>
-      <c r="B22" s="48" t="s">
-        <v>472</v>
-      </c>
-      <c r="C22" s="50">
+      <c r="C22" s="45">
         <v>1</v>
       </c>
-      <c r="D22" s="48" t="s">
-        <v>518</v>
-      </c>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
+      <c r="D22" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="C23" s="44">
+        <v>472</v>
+      </c>
+      <c r="C23" s="39">
         <v>3</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="35" customFormat="1">
-      <c r="A24" s="48" t="s">
-        <v>511</v>
-      </c>
-      <c r="B24" s="48" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="30" customFormat="1">
+      <c r="A24" s="43" t="s">
         <v>510</v>
       </c>
-      <c r="C24" s="50">
+      <c r="B24" s="43" t="s">
+        <v>509</v>
+      </c>
+      <c r="C24" s="45">
         <v>1</v>
       </c>
-      <c r="D24" s="48" t="s">
-        <v>518</v>
-      </c>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
+      <c r="D24" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="C25" s="39">
+        <v>5</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="30" customFormat="1">
+      <c r="A26" s="43" t="s">
         <v>524</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="C25" s="44">
+      <c r="B26" s="43" t="s">
+        <v>525</v>
+      </c>
+      <c r="C26" s="45">
         <v>5</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="35" customFormat="1">
-      <c r="A26" s="48" t="s">
-        <v>525</v>
-      </c>
-      <c r="B26" s="48" t="s">
-        <v>526</v>
-      </c>
-      <c r="C26" s="50">
-        <v>5</v>
-      </c>
-      <c r="D26" s="48" t="s">
-        <v>518</v>
-      </c>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
+      <c r="D26" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C27" s="39">
+        <v>5</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="30" customFormat="1">
+      <c r="A28" s="43" t="s">
         <v>527</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B28" s="43" t="s">
         <v>513</v>
       </c>
-      <c r="C27" s="44">
-        <v>5</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="G27" s="2" t="s">
+      <c r="C28" s="45">
+        <v>4</v>
+      </c>
+      <c r="D28" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43" t="s">
         <v>516</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="35" customFormat="1">
-      <c r="A28" s="48" t="s">
-        <v>528</v>
-      </c>
-      <c r="B28" s="48" t="s">
-        <v>514</v>
-      </c>
-      <c r="C28" s="50">
-        <v>4</v>
-      </c>
-      <c r="D28" s="48" t="s">
-        <v>518</v>
-      </c>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C29" s="39">
+        <v>5</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="30" customFormat="1">
+      <c r="A30" s="43" t="s">
         <v>529</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B30" s="43" t="s">
         <v>522</v>
       </c>
-      <c r="C29" s="44">
+      <c r="C30" s="45">
         <v>5</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="35" customFormat="1">
-      <c r="A30" s="48" t="s">
-        <v>530</v>
-      </c>
-      <c r="B30" s="48" t="s">
-        <v>523</v>
-      </c>
-      <c r="C30" s="50">
-        <v>5</v>
-      </c>
-      <c r="D30" s="48" t="s">
-        <v>518</v>
-      </c>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
+      <c r="D30" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="C31" s="39">
+        <v>3</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="30" customFormat="1">
+      <c r="A32" s="43" t="s">
+        <v>540</v>
+      </c>
+      <c r="B32" s="43" t="s">
+        <v>539</v>
+      </c>
+      <c r="C32" s="45">
+        <v>2</v>
+      </c>
+      <c r="D32" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="G32" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5933,7 +6121,7 @@
   <cols>
     <col min="1" max="1" width="19.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="18.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" style="44" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="39" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" style="2" customWidth="1"/>
@@ -5949,7 +6137,7 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="38" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -5959,291 +6147,291 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="41" customFormat="1">
-      <c r="A2" s="40" t="s">
-        <v>357</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>165</v>
-      </c>
-      <c r="C2" s="85">
+    <row r="2" spans="1:7" s="36" customFormat="1">
+      <c r="A2" s="35" t="s">
+        <v>356</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="80">
         <v>4</v>
       </c>
-      <c r="D2" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
+      <c r="D2" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="39">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="36" customFormat="1">
+      <c r="A4" s="37" t="s">
         <v>358</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="C3" s="44">
+      <c r="C4" s="81">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="41" customFormat="1">
-      <c r="A4" s="42" t="s">
-        <v>359</v>
-      </c>
-      <c r="B4" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="C4" s="86">
-        <v>2</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42" t="s">
-        <v>178</v>
+      <c r="D4" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="39">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="36" customFormat="1">
+      <c r="A6" s="37" t="s">
         <v>360</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="C5" s="44">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="C6" s="81">
+        <v>1</v>
+      </c>
+      <c r="D6" s="37" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" s="41" customFormat="1">
-      <c r="A6" s="42" t="s">
-        <v>361</v>
-      </c>
-      <c r="B6" s="42" t="s">
-        <v>169</v>
-      </c>
-      <c r="C6" s="86">
-        <v>1</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C7" s="44">
+        <v>169</v>
+      </c>
+      <c r="C7" s="39">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="41" customFormat="1">
-      <c r="A8" s="42" t="s">
-        <v>364</v>
-      </c>
-      <c r="B8" s="42" t="s">
-        <v>371</v>
-      </c>
-      <c r="C8" s="86">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="36" customFormat="1">
+      <c r="A8" s="37" t="s">
+        <v>363</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>370</v>
+      </c>
+      <c r="C8" s="81">
         <v>1</v>
       </c>
-      <c r="D8" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42" t="s">
-        <v>179</v>
+      <c r="D8" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" s="39">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="36" customFormat="1">
+      <c r="A10" s="37" t="s">
+        <v>364</v>
+      </c>
+      <c r="B10" s="37" t="s">
         <v>171</v>
       </c>
-      <c r="C9" s="44">
+      <c r="C10" s="81">
         <v>2</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G9" s="2" t="s">
+      <c r="D10" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37" t="s">
         <v>180</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="41" customFormat="1">
-      <c r="A10" s="42" t="s">
-        <v>365</v>
-      </c>
-      <c r="B10" s="42" t="s">
-        <v>172</v>
-      </c>
-      <c r="C10" s="86">
-        <v>2</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" s="39">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="36" customFormat="1">
+      <c r="A12" s="37" t="s">
         <v>366</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C11" s="44">
+      <c r="B12" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="81">
         <v>2</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="41" customFormat="1">
-      <c r="A12" s="42" t="s">
-        <v>367</v>
-      </c>
-      <c r="B12" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" s="86">
-        <v>2</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
+      <c r="D12" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" s="39">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="36" customFormat="1">
+      <c r="A14" s="37" t="s">
         <v>368</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C13" s="44">
-        <v>2</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="41" customFormat="1">
-      <c r="A14" s="42" t="s">
+      <c r="B14" s="37" t="s">
         <v>369</v>
       </c>
-      <c r="B14" s="42" t="s">
-        <v>370</v>
-      </c>
-      <c r="C14" s="86">
+      <c r="C14" s="81">
         <v>3</v>
       </c>
-      <c r="D14" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42" t="s">
-        <v>182</v>
+      <c r="D14" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C15" s="39">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="36" customFormat="1">
+      <c r="A16" s="37" t="s">
         <v>372</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="C15" s="44">
-        <v>3</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="41" customFormat="1">
-      <c r="A16" s="42" t="s">
-        <v>373</v>
-      </c>
-      <c r="B16" s="42" t="s">
-        <v>176</v>
-      </c>
-      <c r="C16" s="86">
+      <c r="C16" s="81">
         <v>5</v>
       </c>
-      <c r="D16" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
+      <c r="D16" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C17" s="39">
+        <v>3</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="36" customFormat="1">
+      <c r="A18" s="37" t="s">
         <v>374</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C17" s="44">
+      <c r="B18" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="81">
         <v>3</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="41" customFormat="1">
-      <c r="A18" s="42" t="s">
+      <c r="D18" s="37" t="s">
         <v>375</v>
       </c>
-      <c r="B18" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="C18" s="86">
-        <v>3</v>
-      </c>
-      <c r="D18" s="42" t="s">
-        <v>376</v>
-      </c>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42" t="s">
-        <v>183</v>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -6266,7 +6454,7 @@
   <cols>
     <col min="1" max="1" width="17.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="22.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" style="44" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="39" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" style="2" customWidth="1"/>
@@ -6282,7 +6470,7 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="38" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -6292,257 +6480,257 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="41" customFormat="1">
-      <c r="A2" s="87" t="s">
-        <v>377</v>
-      </c>
-      <c r="B2" s="87" t="s">
-        <v>184</v>
-      </c>
-      <c r="C2" s="88">
+    <row r="2" spans="1:7" s="36" customFormat="1">
+      <c r="A2" s="82" t="s">
+        <v>376</v>
+      </c>
+      <c r="B2" s="82" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="83">
         <v>4</v>
       </c>
-      <c r="D2" s="87" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
+      <c r="D2" s="82" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
     </row>
     <row r="3" spans="1:7" s="2" customFormat="1">
       <c r="A3" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" s="39">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="37" customFormat="1">
+      <c r="A4" s="37" t="s">
         <v>378</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="C3" s="44">
+      <c r="C4" s="81">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="42" customFormat="1">
-      <c r="A4" s="42" t="s">
-        <v>379</v>
-      </c>
-      <c r="B4" s="42" t="s">
-        <v>186</v>
-      </c>
-      <c r="C4" s="86">
-        <v>1</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>80</v>
+      <c r="D4" s="37" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1">
       <c r="A5" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C5" s="39">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="37" customFormat="1">
+      <c r="A6" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="37" t="s">
         <v>187</v>
       </c>
-      <c r="C5" s="44">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="42" customFormat="1">
-      <c r="A6" s="42" t="s">
-        <v>381</v>
-      </c>
-      <c r="B6" s="42" t="s">
-        <v>188</v>
-      </c>
-      <c r="C6" s="86">
+      <c r="C6" s="81">
         <v>2</v>
       </c>
-      <c r="D6" s="42" t="s">
-        <v>82</v>
+      <c r="D6" s="37" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="2" customFormat="1">
       <c r="A7" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" s="39">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="37" customFormat="1">
+      <c r="A8" s="37" t="s">
         <v>382</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="C7" s="44">
-        <v>2</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="42" customFormat="1">
-      <c r="A8" s="42" t="s">
-        <v>383</v>
-      </c>
-      <c r="B8" s="42" t="s">
-        <v>190</v>
-      </c>
-      <c r="C8" s="86">
+      <c r="C8" s="81">
         <v>3</v>
       </c>
-      <c r="D8" s="42" t="s">
-        <v>80</v>
+      <c r="D8" s="37" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="2" customFormat="1">
       <c r="A9" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C9" s="39">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="37" customFormat="1">
+      <c r="A10" s="37" t="s">
         <v>384</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C9" s="44">
-        <v>3</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="42" customFormat="1">
-      <c r="A10" s="42" t="s">
-        <v>385</v>
-      </c>
-      <c r="B10" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="86">
+      <c r="B10" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="81">
         <v>5</v>
       </c>
-      <c r="D10" s="42" t="s">
-        <v>80</v>
+      <c r="D10" s="37" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="2" customFormat="1">
       <c r="A11" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C11" s="39">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="37" customFormat="1">
+      <c r="A12" s="37" t="s">
         <v>386</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C11" s="44">
+      <c r="B12" s="37" t="s">
+        <v>496</v>
+      </c>
+      <c r="C12" s="81">
         <v>2</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="42" customFormat="1">
-      <c r="A12" s="42" t="s">
-        <v>387</v>
-      </c>
-      <c r="B12" s="42" t="s">
-        <v>497</v>
-      </c>
-      <c r="C12" s="86">
-        <v>2</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>83</v>
+      <c r="D12" s="37" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="2" customFormat="1">
       <c r="A13" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="C13" s="44">
+        <v>495</v>
+      </c>
+      <c r="C13" s="39">
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="42" customFormat="1">
-      <c r="A14" s="42" t="s">
-        <v>504</v>
-      </c>
-      <c r="B14" s="42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="37" customFormat="1">
+      <c r="A14" s="37" t="s">
         <v>503</v>
       </c>
-      <c r="C14" s="86">
+      <c r="B14" s="37" t="s">
+        <v>502</v>
+      </c>
+      <c r="C14" s="81">
         <v>2</v>
       </c>
-      <c r="D14" s="42" t="s">
-        <v>83</v>
+      <c r="D14" s="37" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="2" customFormat="1">
       <c r="A15" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C15" s="39">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="37" customFormat="1">
+      <c r="A16" s="37" t="s">
         <v>501</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="C15" s="44">
-        <v>2</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="42" customFormat="1">
-      <c r="A16" s="42" t="s">
-        <v>502</v>
-      </c>
-      <c r="B16" s="42" t="s">
-        <v>498</v>
-      </c>
-      <c r="C16" s="86">
+      <c r="B16" s="37" t="s">
+        <v>497</v>
+      </c>
+      <c r="C16" s="81">
         <v>3</v>
       </c>
-      <c r="D16" s="42" t="s">
-        <v>81</v>
+      <c r="D16" s="37" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="2" customFormat="1">
       <c r="A17" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="C17" s="44">
+        <v>504</v>
+      </c>
+      <c r="C17" s="39">
         <v>3</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="42" customFormat="1">
-      <c r="A18" s="42" t="s">
-        <v>388</v>
-      </c>
-      <c r="B18" s="42" t="s">
-        <v>193</v>
-      </c>
-      <c r="C18" s="86">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="37" customFormat="1">
+      <c r="A18" s="37" t="s">
+        <v>387</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="C18" s="81">
         <v>1</v>
       </c>
-      <c r="D18" s="42" t="s">
-        <v>80</v>
+      <c r="D18" s="37" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="51"/>
+      <c r="C19" s="46"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -6566,222 +6754,222 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="73" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="37" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="37" customWidth="1"/>
-    <col min="4" max="4" width="4" style="37" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="74" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="37" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" style="37" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" style="37" customWidth="1"/>
-    <col min="9" max="16" width="9.140625" style="37" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="37" hidden="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="37" hidden="1"/>
+    <col min="1" max="1" width="5.85546875" style="68" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="32" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="32" customWidth="1"/>
+    <col min="4" max="4" width="4" style="32" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="69" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="32" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" style="32" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" style="32" customWidth="1"/>
+    <col min="9" max="16" width="9.140625" style="32" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="32" hidden="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="32" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="130" t="s">
+      <c r="B1" s="124"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="123" t="s">
+        <v>193</v>
+      </c>
+      <c r="E1" s="124"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="125" t="s">
+        <v>206</v>
+      </c>
+      <c r="H1" s="126"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+    </row>
+    <row r="2" spans="1:17" customFormat="1">
+      <c r="A2" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="90" t="s">
+        <v>202</v>
+      </c>
+      <c r="H2" s="91" t="s">
+        <v>203</v>
+      </c>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+    </row>
+    <row r="3" spans="1:17" customFormat="1">
+      <c r="A3" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="87" t="s">
+        <v>200</v>
+      </c>
+      <c r="F3" s="32"/>
+      <c r="G3" s="90" t="s">
+        <v>204</v>
+      </c>
+      <c r="H3" s="91" t="s">
+        <v>198</v>
+      </c>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+    </row>
+    <row r="4" spans="1:17" customFormat="1">
+      <c r="A4" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="50" t="s">
         <v>194</v>
       </c>
-      <c r="E1" s="131"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="132" t="s">
+      <c r="F4" s="32"/>
+      <c r="G4" s="90" t="s">
+        <v>201</v>
+      </c>
+      <c r="H4" s="91" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+    </row>
+    <row r="5" spans="1:17" customFormat="1">
+      <c r="A5" s="63" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="52" t="s">
+        <v>195</v>
+      </c>
+      <c r="F5" s="32"/>
+      <c r="G5" s="90" t="s">
+        <v>388</v>
+      </c>
+      <c r="H5" s="91" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+    </row>
+    <row r="6" spans="1:17" customFormat="1">
+      <c r="A6" s="65" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="54" t="s">
+        <v>196</v>
+      </c>
+      <c r="F6" s="32"/>
+      <c r="G6" s="90" t="s">
+        <v>389</v>
+      </c>
+      <c r="H6" s="91" t="s">
+        <v>205</v>
+      </c>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="D7" s="55"/>
+      <c r="E7" s="56" t="s">
+        <v>197</v>
+      </c>
+      <c r="G7" s="90" t="s">
         <v>207</v>
       </c>
-      <c r="H1" s="133"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-    </row>
-    <row r="2" spans="1:17" customFormat="1">
-      <c r="A2" s="62" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" s="63" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="95" t="s">
-        <v>203</v>
-      </c>
-      <c r="H2" s="96" t="s">
-        <v>204</v>
-      </c>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-    </row>
-    <row r="3" spans="1:17" customFormat="1">
-      <c r="A3" s="64" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" s="65" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="92" t="s">
-        <v>201</v>
-      </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="95" t="s">
-        <v>205</v>
-      </c>
-      <c r="H3" s="96" t="s">
-        <v>199</v>
-      </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-    </row>
-    <row r="4" spans="1:17" customFormat="1">
-      <c r="A4" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4" s="67" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="55" t="s">
-        <v>195</v>
-      </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="95" t="s">
-        <v>202</v>
-      </c>
-      <c r="H4" s="96" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-    </row>
-    <row r="5" spans="1:17" customFormat="1">
-      <c r="A5" s="68" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="69" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="57" t="s">
-        <v>196</v>
-      </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="95" t="s">
-        <v>389</v>
-      </c>
-      <c r="H5" s="96" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-    </row>
-    <row r="6" spans="1:17" customFormat="1">
-      <c r="A6" s="70" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6" s="71" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="59" t="s">
-        <v>197</v>
-      </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="95" t="s">
-        <v>390</v>
-      </c>
-      <c r="H6" s="96" t="s">
-        <v>206</v>
-      </c>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="D7" s="60"/>
-      <c r="E7" s="61" t="s">
-        <v>198</v>
-      </c>
-      <c r="G7" s="95" t="s">
+      <c r="H7" s="91" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="E8" s="32"/>
+      <c r="G8" s="88" t="s">
         <v>208</v>
       </c>
-      <c r="H7" s="96" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="E8" s="37"/>
-      <c r="G8" s="93" t="s">
+      <c r="H8" s="89" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="G9" s="92" t="s">
+        <v>210</v>
+      </c>
+      <c r="H9" s="93" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="G10" s="94" t="s">
         <v>209</v>
       </c>
-      <c r="H8" s="94" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="G9" s="97" t="s">
+      <c r="H10" s="95" t="s">
         <v>211</v>
-      </c>
-      <c r="H9" s="98" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="G10" s="99" t="s">
-        <v>210</v>
-      </c>
-      <c r="H10" s="100" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:17"/>

--- a/Planning & Assetlist.xlsx
+++ b/Planning & Assetlist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="8" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="554">
   <si>
     <t>Code Name</t>
   </si>
@@ -1649,6 +1649,39 @@
   </si>
   <si>
     <t>7S_AMMO_001</t>
+  </si>
+  <si>
+    <t>scrapped</t>
+  </si>
+  <si>
+    <t>3D_MHOU_004</t>
+  </si>
+  <si>
+    <t>4U_MHOU_004</t>
+  </si>
+  <si>
+    <t>2D_MHOU_004</t>
+  </si>
+  <si>
+    <t>3D_STRL_002</t>
+  </si>
+  <si>
+    <t>4U_STRL_002</t>
+  </si>
+  <si>
+    <t>2D_STRL_002</t>
+  </si>
+  <si>
+    <t>Inplementation</t>
+  </si>
+  <si>
+    <t>Buffer</t>
+  </si>
+  <si>
+    <t>Street Light</t>
+  </si>
+  <si>
+    <t>Medium House #4</t>
   </si>
 </sst>
 </file>
@@ -1685,7 +1718,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1818,8 +1851,38 @@
         <bgColor theme="6" tint="0.39994506668294322"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="29">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -2142,19 +2205,6 @@
         <color theme="1" tint="0.34998626667073579"/>
       </left>
       <right/>
-      <top style="medium">
-        <color theme="1" tint="0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -2185,7 +2235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2216,32 +2266,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -2287,42 +2313,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2339,7 +2365,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2368,22 +2393,22 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2402,81 +2427,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2500,6 +2450,149 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2812,10 +2905,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -2830,38 +2923,38 @@
     <col min="10" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="134" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A1" s="127" t="s">
+    <row r="1" spans="1:9" s="100" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A1" s="113" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="129" t="s">
+      <c r="B1" s="114"/>
+      <c r="C1" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="130" t="s">
+      <c r="D1" s="96" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="130" t="s">
+      <c r="E1" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="131" t="s">
+      <c r="F1" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="131" t="s">
+      <c r="G1" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="132" t="s">
+      <c r="H1" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="133" t="s">
+      <c r="I1" s="99" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="76" t="s">
         <v>36</v>
       </c>
       <c r="C2" s="110" t="s">
@@ -2875,10 +2968,10 @@
       <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="76" t="s">
         <v>37</v>
       </c>
       <c r="C3" s="107" t="s">
@@ -2890,11 +2983,11 @@
       <c r="G3" s="108"/>
       <c r="H3" s="109"/>
     </row>
-    <row r="4" spans="1:9" s="26" customFormat="1">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:9" s="18" customFormat="1">
+      <c r="A4" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="20" t="s">
         <v>39</v>
       </c>
       <c r="C4" s="104" t="s">
@@ -2905,54 +2998,54 @@
       <c r="F4" s="105"/>
       <c r="G4" s="105"/>
       <c r="H4" s="106"/>
-      <c r="I4" s="25"/>
+      <c r="I4" s="17"/>
     </row>
     <row r="5" spans="1:9" s="11" customFormat="1">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="141" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="149" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="113" t="s">
+      <c r="C5" s="150" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="20" t="s">
+      <c r="D5" s="151"/>
+      <c r="E5" s="151"/>
+      <c r="F5" s="151"/>
+      <c r="G5" s="151"/>
+      <c r="H5" s="152"/>
+      <c r="I5" s="146" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="11" customFormat="1">
-      <c r="A6" s="21"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="113" t="s">
+      <c r="A6" s="141"/>
+      <c r="B6" s="149"/>
+      <c r="C6" s="150" t="s">
         <v>533</v>
       </c>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="20"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="12" t="s">
+      <c r="D6" s="151"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="151"/>
+      <c r="G6" s="151"/>
+      <c r="H6" s="152"/>
+      <c r="I6" s="146"/>
+    </row>
+    <row r="7" spans="1:9" s="131" customFormat="1">
+      <c r="A7" s="126" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="127" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="10" t="s">
+      <c r="C7" s="128"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="126"/>
+      <c r="I7" s="130" t="s">
         <v>534</v>
       </c>
     </row>
@@ -2963,6 +3056,15 @@
       <c r="B8" s="13" t="s">
         <v>44</v>
       </c>
+      <c r="C8" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>222</v>
+      </c>
       <c r="F8" s="8" t="s">
         <v>480</v>
       </c>
@@ -2974,6 +3076,12 @@
       </c>
     </row>
     <row r="9" spans="1:9">
+      <c r="D9" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>417</v>
+      </c>
       <c r="G9" s="8" t="s">
         <v>475</v>
       </c>
@@ -2982,217 +3090,573 @@
       </c>
     </row>
     <row r="10" spans="1:9">
+      <c r="D10" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>307</v>
+      </c>
       <c r="H10" s="9" t="s">
         <v>479</v>
       </c>
     </row>
+    <row r="11" spans="1:9">
+      <c r="E11" s="7" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="E12" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="E13" s="7" t="s">
+        <v>421</v>
+      </c>
+    </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="12" t="s">
+      <c r="E14" s="7" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B15" s="148" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="C15" s="133" t="s">
+        <v>215</v>
+      </c>
+      <c r="D15" s="134" t="s">
+        <v>303</v>
+      </c>
+      <c r="E15" s="134" t="s">
+        <v>418</v>
+      </c>
+      <c r="F15" s="138" t="s">
         <v>480</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G15" s="138" t="s">
         <v>482</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H15" s="145" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="H15" s="9" t="s">
+      <c r="I15" s="132"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="147"/>
+      <c r="B16" s="148"/>
+      <c r="C16" s="133" t="s">
+        <v>199</v>
+      </c>
+      <c r="D16" s="134" t="s">
+        <v>261</v>
+      </c>
+      <c r="E16" s="134" t="s">
+        <v>420</v>
+      </c>
+      <c r="F16" s="138"/>
+      <c r="G16" s="138"/>
+      <c r="H16" s="145" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="12" t="s">
+      <c r="I16" s="132"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="147"/>
+      <c r="B17" s="148"/>
+      <c r="C17" s="133" t="s">
+        <v>258</v>
+      </c>
+      <c r="D17" s="134" t="s">
+        <v>393</v>
+      </c>
+      <c r="E17" s="134" t="s">
+        <v>422</v>
+      </c>
+      <c r="F17" s="138"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="145"/>
+      <c r="I17" s="132"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="147"/>
+      <c r="B18" s="148"/>
+      <c r="C18" s="133"/>
+      <c r="D18" s="134" t="s">
+        <v>402</v>
+      </c>
+      <c r="E18" s="134" t="s">
+        <v>544</v>
+      </c>
+      <c r="F18" s="138"/>
+      <c r="G18" s="138"/>
+      <c r="H18" s="145"/>
+      <c r="I18" s="132"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="147"/>
+      <c r="B19" s="148"/>
+      <c r="C19" s="133"/>
+      <c r="D19" s="134"/>
+      <c r="E19" s="134" t="s">
+        <v>545</v>
+      </c>
+      <c r="F19" s="138"/>
+      <c r="G19" s="138"/>
+      <c r="H19" s="145"/>
+      <c r="I19" s="132"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="147"/>
+      <c r="B20" s="148"/>
+      <c r="C20" s="133"/>
+      <c r="D20" s="134"/>
+      <c r="E20" s="134" t="s">
+        <v>546</v>
+      </c>
+      <c r="F20" s="138"/>
+      <c r="G20" s="138"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="132"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B21" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="C21" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>492</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G21" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="H20" s="43" t="s">
+      <c r="H21" s="35" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="12" t="s">
+    <row r="22" spans="1:9">
+      <c r="C22" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="C23" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="C24" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="E25" s="7" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="E26" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="E27" s="7" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="E28" s="7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="147" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B29" s="148" t="s">
         <v>47</v>
       </c>
-      <c r="F26" s="43" t="s">
+      <c r="C29" s="133" t="s">
+        <v>390</v>
+      </c>
+      <c r="D29" s="134" t="s">
+        <v>217</v>
+      </c>
+      <c r="E29" s="134" t="s">
+        <v>232</v>
+      </c>
+      <c r="F29" s="144" t="s">
         <v>483</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="G29" s="138" t="s">
         <v>484</v>
       </c>
-      <c r="H26" s="9" t="s">
+      <c r="H29" s="145" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="12" t="s">
+      <c r="I29" s="14"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="147"/>
+      <c r="B30" s="148"/>
+      <c r="C30" s="133" t="s">
+        <v>399</v>
+      </c>
+      <c r="D30" s="134" t="s">
+        <v>302</v>
+      </c>
+      <c r="E30" s="134" t="s">
+        <v>317</v>
+      </c>
+      <c r="F30" s="138"/>
+      <c r="G30" s="138"/>
+      <c r="H30" s="145"/>
+      <c r="I30" s="14"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="147"/>
+      <c r="B31" s="148"/>
+      <c r="C31" s="133"/>
+      <c r="D31" s="134" t="s">
+        <v>260</v>
+      </c>
+      <c r="E31" s="134" t="s">
+        <v>275</v>
+      </c>
+      <c r="F31" s="138"/>
+      <c r="G31" s="138"/>
+      <c r="H31" s="145"/>
+      <c r="I31" s="14"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="147"/>
+      <c r="B32" s="148"/>
+      <c r="C32" s="133"/>
+      <c r="D32" s="134" t="s">
+        <v>392</v>
+      </c>
+      <c r="E32" s="134" t="s">
+        <v>550</v>
+      </c>
+      <c r="F32" s="138"/>
+      <c r="G32" s="138"/>
+      <c r="H32" s="145"/>
+      <c r="I32" s="14"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="147"/>
+      <c r="B33" s="148"/>
+      <c r="C33" s="133"/>
+      <c r="D33" s="134" t="s">
+        <v>401</v>
+      </c>
+      <c r="E33" s="134"/>
+      <c r="F33" s="138"/>
+      <c r="G33" s="138"/>
+      <c r="H33" s="145"/>
+      <c r="I33" s="14"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="147"/>
+      <c r="B34" s="148"/>
+      <c r="C34" s="133"/>
+      <c r="D34" s="134"/>
+      <c r="E34" s="134"/>
+      <c r="F34" s="138"/>
+      <c r="G34" s="138"/>
+      <c r="H34" s="145"/>
+      <c r="I34" s="14"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B35" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G32" s="43" t="s">
+      <c r="D35" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="G35" s="35" t="s">
         <v>481</v>
       </c>
-      <c r="H32" s="8"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="F33" s="135" t="s">
+      <c r="H35" s="8"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="D36" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="101" t="s">
         <v>541</v>
       </c>
-      <c r="G33" s="136"/>
-      <c r="H33" s="137"/>
+      <c r="G36" s="102"/>
+      <c r="H36" s="103"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="C37" s="136" t="s">
+        <v>551</v>
+      </c>
+      <c r="D37" s="137"/>
+      <c r="E37" s="135"/>
+      <c r="F37" s="101" t="s">
+        <v>551</v>
+      </c>
+      <c r="G37" s="102"/>
+      <c r="H37" s="103"/>
     </row>
     <row r="38" spans="1:9" s="11" customFormat="1">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="149" t="s">
         <v>49</v>
       </c>
-      <c r="C38" s="18"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="20" t="s">
+      <c r="C38" s="139"/>
+      <c r="D38" s="140"/>
+      <c r="E38" s="140"/>
+      <c r="F38" s="142"/>
+      <c r="G38" s="142"/>
+      <c r="H38" s="143"/>
+      <c r="I38" s="146" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C41" s="14"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="10" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>53</v>
-      </c>
+    <row r="39" spans="1:9" s="11" customFormat="1">
+      <c r="A39" s="141"/>
+      <c r="B39" s="149"/>
+      <c r="C39" s="139"/>
+      <c r="D39" s="140"/>
+      <c r="E39" s="140"/>
+      <c r="F39" s="142"/>
+      <c r="G39" s="142"/>
+      <c r="H39" s="143"/>
+      <c r="I39" s="146"/>
+    </row>
+    <row r="40" spans="1:9" s="11" customFormat="1">
+      <c r="A40" s="141"/>
+      <c r="B40" s="149"/>
+      <c r="C40" s="139"/>
+      <c r="D40" s="140"/>
+      <c r="E40" s="140"/>
+      <c r="F40" s="142"/>
+      <c r="G40" s="142"/>
+      <c r="H40" s="143"/>
+      <c r="I40" s="146"/>
+    </row>
+    <row r="41" spans="1:9" s="11" customFormat="1">
+      <c r="A41" s="141"/>
+      <c r="B41" s="149"/>
+      <c r="C41" s="139"/>
+      <c r="D41" s="140"/>
+      <c r="E41" s="140"/>
+      <c r="F41" s="142"/>
+      <c r="G41" s="142"/>
+      <c r="H41" s="143"/>
+      <c r="I41" s="146"/>
+    </row>
+    <row r="42" spans="1:9" s="11" customFormat="1">
+      <c r="A42" s="141"/>
+      <c r="B42" s="149"/>
+      <c r="C42" s="139"/>
+      <c r="D42" s="140"/>
+      <c r="E42" s="140"/>
+      <c r="F42" s="142"/>
+      <c r="G42" s="142"/>
+      <c r="H42" s="143"/>
+      <c r="I42" s="146"/>
+    </row>
+    <row r="43" spans="1:9" s="11" customFormat="1">
+      <c r="A43" s="141"/>
+      <c r="B43" s="149"/>
+      <c r="C43" s="139"/>
+      <c r="D43" s="140"/>
+      <c r="E43" s="140"/>
+      <c r="F43" s="142"/>
+      <c r="G43" s="142"/>
+      <c r="H43" s="143"/>
+      <c r="I43" s="146"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>57</v>
+      <c r="A45" s="147" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" s="148" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="133"/>
+      <c r="D45" s="134"/>
+      <c r="E45" s="134"/>
+      <c r="F45" s="138"/>
+      <c r="G45" s="138"/>
+      <c r="H45" s="145"/>
+      <c r="I45" s="132"/>
+    </row>
+    <row r="46" spans="1:9" s="131" customFormat="1">
+      <c r="A46" s="126" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" s="127" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="128"/>
+      <c r="D46" s="129"/>
+      <c r="E46" s="129"/>
+      <c r="F46" s="129"/>
+      <c r="G46" s="129"/>
+      <c r="H46" s="126"/>
+      <c r="I46" s="130" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>58</v>
-      </c>
+      <c r="A47" s="147" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" s="148" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" s="133"/>
+      <c r="D47" s="134"/>
+      <c r="E47" s="134"/>
+      <c r="F47" s="138"/>
+      <c r="G47" s="138"/>
+      <c r="H47" s="145"/>
+      <c r="I47" s="132"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="147" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49" s="148" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" s="133"/>
+      <c r="D49" s="134"/>
+      <c r="E49" s="134"/>
+      <c r="F49" s="138"/>
+      <c r="G49" s="138"/>
+      <c r="H49" s="145"/>
+      <c r="I49" s="132"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="147" t="s">
+        <v>26</v>
+      </c>
+      <c r="B51" s="148" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" s="133"/>
+      <c r="D51" s="134"/>
+      <c r="E51" s="134"/>
+      <c r="F51" s="138"/>
+      <c r="G51" s="138"/>
+      <c r="H51" s="145"/>
+      <c r="I51" s="132"/>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="147" t="s">
         <v>28</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B53" s="148" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" s="11" customFormat="1">
-      <c r="A49" s="21" t="s">
+      <c r="C53" s="133"/>
+      <c r="D53" s="134"/>
+      <c r="E53" s="134"/>
+      <c r="F53" s="138"/>
+      <c r="G53" s="138"/>
+      <c r="H53" s="145"/>
+      <c r="I53" s="132"/>
+    </row>
+    <row r="54" spans="1:9" s="11" customFormat="1">
+      <c r="A54" s="141" t="s">
         <v>29</v>
       </c>
-      <c r="B49" s="22" t="s">
+      <c r="B54" s="149" t="s">
         <v>60</v>
       </c>
-      <c r="C49" s="18"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="20" t="s">
+      <c r="C54" s="139"/>
+      <c r="D54" s="140"/>
+      <c r="E54" s="140"/>
+      <c r="F54" s="142"/>
+      <c r="G54" s="142"/>
+      <c r="H54" s="143"/>
+      <c r="I54" s="146" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:H37"/>
     <mergeCell ref="C6:H6"/>
-    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="F36:H36"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C3:H3"/>
     <mergeCell ref="C2:H2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3204,24 +3668,24 @@
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:N75"/>
+  <dimension ref="A1:N77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I77" sqref="I77"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="24" customWidth="1"/>
+    <col min="3" max="3" width="14" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="16" customWidth="1"/>
     <col min="5" max="5" width="16.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="14.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" style="32" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" style="24" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" style="16" customWidth="1"/>
     <col min="12" max="12" width="33" style="2" customWidth="1"/>
     <col min="13" max="14" width="0" hidden="1" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" hidden="1"/>
@@ -3234,10 +3698,10 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="15" t="s">
         <v>149</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -3249,7 +3713,7 @@
       <c r="G1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="30" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -3258,190 +3722,192 @@
       <c r="J1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="15" t="s">
         <v>193</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="31" customFormat="1">
-      <c r="A2" s="72" t="s">
+    <row r="2" spans="1:12" s="23" customFormat="1">
+      <c r="A2" s="64" t="s">
         <v>215</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="64" t="s">
         <v>390</v>
       </c>
-      <c r="D2" s="72" t="s">
+      <c r="D2" s="64" t="s">
         <v>399</v>
       </c>
-      <c r="E2" s="74" t="s">
+      <c r="E2" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="F2" s="72" t="s">
+      <c r="F2" s="64" t="s">
         <v>199</v>
       </c>
-      <c r="G2" s="72" t="s">
+      <c r="G2" s="64" t="s">
         <v>258</v>
       </c>
-      <c r="H2" s="75">
+      <c r="H2" s="66">
         <v>1</v>
       </c>
-      <c r="I2" s="74" t="s">
+      <c r="I2" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="J2" s="74"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="116" t="s">
+      <c r="J2" s="65"/>
+      <c r="K2" s="68" t="s">
+        <v>200</v>
+      </c>
+      <c r="L2" s="115" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="31" customFormat="1">
-      <c r="A3" s="96"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="74" t="s">
+    <row r="3" spans="1:12" s="23" customFormat="1">
+      <c r="A3" s="87"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="117"/>
-    </row>
-    <row r="4" spans="1:12" s="31" customFormat="1">
-      <c r="A4" s="96"/>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="74" t="s">
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="116"/>
+    </row>
+    <row r="4" spans="1:12" s="23" customFormat="1">
+      <c r="A4" s="87"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="65" t="s">
         <v>136</v>
       </c>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="117"/>
-    </row>
-    <row r="5" spans="1:12" s="31" customFormat="1">
-      <c r="A5" s="96"/>
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="70" t="s">
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="116"/>
+    </row>
+    <row r="5" spans="1:12" s="23" customFormat="1">
+      <c r="A5" s="87"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="96"/>
-      <c r="K5" s="96"/>
-      <c r="L5" s="117"/>
-    </row>
-    <row r="6" spans="1:12" s="31" customFormat="1">
-      <c r="A6" s="96"/>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="70" t="s">
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="116"/>
+    </row>
+    <row r="6" spans="1:12" s="23" customFormat="1">
+      <c r="A6" s="87"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="62" t="s">
         <v>141</v>
       </c>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="117"/>
-    </row>
-    <row r="7" spans="1:12" s="31" customFormat="1">
-      <c r="A7" s="96"/>
-      <c r="B7" s="96"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="70" t="s">
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="116"/>
+    </row>
+    <row r="7" spans="1:12" s="23" customFormat="1">
+      <c r="A7" s="87"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="62" t="s">
         <v>140</v>
       </c>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="96"/>
-      <c r="L7" s="117"/>
-    </row>
-    <row r="8" spans="1:12" s="31" customFormat="1">
-      <c r="A8" s="96"/>
-      <c r="B8" s="96"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="70" t="s">
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="87"/>
+      <c r="L7" s="116"/>
+    </row>
+    <row r="8" spans="1:12" s="23" customFormat="1">
+      <c r="A8" s="87"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="62" t="s">
         <v>139</v>
       </c>
-      <c r="F8" s="96"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="96"/>
-      <c r="J8" s="96"/>
-      <c r="K8" s="96"/>
-      <c r="L8" s="117"/>
-    </row>
-    <row r="9" spans="1:12" s="31" customFormat="1">
-      <c r="A9" s="96"/>
-      <c r="B9" s="96"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="70" t="s">
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="87"/>
+      <c r="J8" s="87"/>
+      <c r="K8" s="87"/>
+      <c r="L8" s="116"/>
+    </row>
+    <row r="9" spans="1:12" s="23" customFormat="1">
+      <c r="A9" s="87"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="62" t="s">
         <v>143</v>
       </c>
-      <c r="F9" s="96"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="96"/>
-      <c r="J9" s="96"/>
-      <c r="K9" s="96"/>
-      <c r="L9" s="117"/>
-    </row>
-    <row r="10" spans="1:12" s="31" customFormat="1">
-      <c r="A10" s="96"/>
-      <c r="B10" s="96"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="70" t="s">
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="87"/>
+      <c r="L9" s="116"/>
+    </row>
+    <row r="10" spans="1:12" s="23" customFormat="1">
+      <c r="A10" s="87"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="F10" s="96"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="96"/>
-      <c r="J10" s="96"/>
-      <c r="K10" s="96"/>
-      <c r="L10" s="117"/>
-    </row>
-    <row r="11" spans="1:12" s="31" customFormat="1">
-      <c r="A11" s="96"/>
-      <c r="B11" s="96"/>
-      <c r="C11" s="96"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="76" t="s">
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="116"/>
+    </row>
+    <row r="11" spans="1:12" s="23" customFormat="1">
+      <c r="A11" s="87"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="67" t="s">
         <v>147</v>
       </c>
-      <c r="F11" s="96"/>
-      <c r="G11" s="96"/>
-      <c r="H11" s="96"/>
-      <c r="I11" s="96"/>
-      <c r="J11" s="96"/>
-      <c r="K11" s="96"/>
-      <c r="L11" s="118"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="117"/>
     </row>
     <row r="12" spans="1:12" s="2" customFormat="1">
       <c r="A12" s="2" t="s">
@@ -3465,127 +3931,129 @@
       <c r="G12" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="H12" s="40">
+      <c r="H12" s="32">
         <v>2</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="K12" s="24"/>
-      <c r="L12" s="119" t="s">
+      <c r="K12" s="16"/>
+      <c r="L12" s="118" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="29" customFormat="1">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
+    <row r="13" spans="1:12" s="21" customFormat="1">
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
       <c r="E13" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="120"/>
-    </row>
-    <row r="14" spans="1:12" s="70" customFormat="1">
-      <c r="A14" s="70" t="s">
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="119"/>
+    </row>
+    <row r="14" spans="1:12" s="62" customFormat="1">
+      <c r="A14" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="B14" s="70" t="s">
+      <c r="B14" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="70" t="s">
+      <c r="C14" s="62" t="s">
         <v>392</v>
       </c>
-      <c r="D14" s="70" t="s">
+      <c r="D14" s="62" t="s">
         <v>401</v>
       </c>
-      <c r="E14" s="70" t="s">
+      <c r="E14" s="62" t="s">
         <v>137</v>
       </c>
-      <c r="F14" s="70" t="s">
+      <c r="F14" s="62" t="s">
         <v>302</v>
       </c>
-      <c r="G14" s="70" t="s">
+      <c r="G14" s="62" t="s">
         <v>260</v>
       </c>
-      <c r="H14" s="71">
+      <c r="H14" s="63">
         <v>1</v>
       </c>
-      <c r="I14" s="70" t="s">
+      <c r="I14" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="K14" s="77"/>
-      <c r="L14" s="121"/>
-    </row>
-    <row r="15" spans="1:12" s="31" customFormat="1">
-      <c r="A15" s="96"/>
-      <c r="B15" s="96"/>
-      <c r="C15" s="96"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="74" t="s">
+      <c r="K14" s="68" t="s">
+        <v>200</v>
+      </c>
+      <c r="L14" s="120"/>
+    </row>
+    <row r="15" spans="1:12" s="23" customFormat="1">
+      <c r="A15" s="87"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="65" t="s">
         <v>139</v>
       </c>
-      <c r="F15" s="96"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="96"/>
-      <c r="I15" s="96"/>
-      <c r="J15" s="96"/>
-      <c r="K15" s="96"/>
-      <c r="L15" s="117"/>
-    </row>
-    <row r="16" spans="1:12" s="31" customFormat="1">
-      <c r="A16" s="96"/>
-      <c r="B16" s="96"/>
-      <c r="C16" s="96"/>
-      <c r="D16" s="96"/>
-      <c r="E16" s="70" t="s">
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="87"/>
+      <c r="L15" s="116"/>
+    </row>
+    <row r="16" spans="1:12" s="23" customFormat="1">
+      <c r="A16" s="87"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="62" t="s">
         <v>146</v>
       </c>
-      <c r="F16" s="96"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="96"/>
-      <c r="I16" s="96"/>
-      <c r="J16" s="96"/>
-      <c r="K16" s="96"/>
-      <c r="L16" s="117"/>
-    </row>
-    <row r="17" spans="1:12" s="31" customFormat="1">
-      <c r="A17" s="96"/>
-      <c r="B17" s="96"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="70" t="s">
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="87"/>
+      <c r="L16" s="116"/>
+    </row>
+    <row r="17" spans="1:12" s="23" customFormat="1">
+      <c r="A17" s="87"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="62" t="s">
         <v>138</v>
       </c>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="96"/>
-      <c r="K17" s="96"/>
-      <c r="L17" s="117"/>
-    </row>
-    <row r="18" spans="1:12" s="31" customFormat="1">
-      <c r="A18" s="96"/>
-      <c r="B18" s="96"/>
-      <c r="C18" s="96"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="76" t="s">
+      <c r="F17" s="87"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="116"/>
+    </row>
+    <row r="18" spans="1:12" s="23" customFormat="1">
+      <c r="A18" s="87"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="67" t="s">
         <v>147</v>
       </c>
-      <c r="F18" s="96"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="96"/>
-      <c r="J18" s="96"/>
-      <c r="K18" s="96"/>
-      <c r="L18" s="118"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="117"/>
     </row>
     <row r="19" spans="1:12" s="2" customFormat="1">
       <c r="A19" s="2" t="s">
@@ -3609,141 +4077,143 @@
       <c r="G19" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="H19" s="40">
+      <c r="H19" s="32">
         <v>2</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K19" s="24"/>
-      <c r="L19" s="119"/>
+      <c r="K19" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="L19" s="118"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="34"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
       <c r="E20" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="120"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="119"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="34"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
       <c r="E21" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="120"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="119"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="34"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="33" t="s">
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="122"/>
-    </row>
-    <row r="23" spans="1:12" s="70" customFormat="1">
-      <c r="A23" s="70" t="s">
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="121"/>
+    </row>
+    <row r="23" spans="1:12" s="62" customFormat="1">
+      <c r="A23" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="B23" s="70" t="s">
+      <c r="B23" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="70" t="s">
+      <c r="C23" s="62" t="s">
         <v>394</v>
       </c>
-      <c r="D23" s="70" t="s">
+      <c r="D23" s="62" t="s">
         <v>403</v>
       </c>
-      <c r="E23" s="70" t="s">
+      <c r="E23" s="62" t="s">
         <v>137</v>
       </c>
-      <c r="F23" s="70" t="s">
+      <c r="F23" s="62" t="s">
         <v>304</v>
       </c>
-      <c r="G23" s="70" t="s">
+      <c r="G23" s="62" t="s">
         <v>262</v>
       </c>
-      <c r="H23" s="71">
+      <c r="H23" s="63">
         <v>5</v>
       </c>
-      <c r="I23" s="70" t="s">
+      <c r="I23" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="K23" s="77"/>
-      <c r="L23" s="121"/>
-    </row>
-    <row r="24" spans="1:12" s="31" customFormat="1">
-      <c r="A24" s="96"/>
-      <c r="B24" s="96"/>
-      <c r="C24" s="96"/>
-      <c r="D24" s="96"/>
-      <c r="E24" s="74" t="s">
+      <c r="K23" s="68"/>
+      <c r="L23" s="120"/>
+    </row>
+    <row r="24" spans="1:12" s="23" customFormat="1">
+      <c r="A24" s="87"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="65" t="s">
         <v>139</v>
       </c>
-      <c r="F24" s="96"/>
-      <c r="G24" s="96"/>
-      <c r="H24" s="96"/>
-      <c r="I24" s="96"/>
-      <c r="J24" s="96"/>
-      <c r="K24" s="96"/>
-      <c r="L24" s="117"/>
-    </row>
-    <row r="25" spans="1:12" s="31" customFormat="1">
-      <c r="A25" s="96"/>
-      <c r="B25" s="96"/>
-      <c r="C25" s="96"/>
-      <c r="D25" s="96"/>
-      <c r="E25" s="70" t="s">
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
+      <c r="K24" s="87"/>
+      <c r="L24" s="116"/>
+    </row>
+    <row r="25" spans="1:12" s="23" customFormat="1">
+      <c r="A25" s="87"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="62" t="s">
         <v>138</v>
       </c>
-      <c r="F25" s="96"/>
-      <c r="G25" s="96"/>
-      <c r="H25" s="96"/>
-      <c r="I25" s="96"/>
-      <c r="J25" s="96"/>
-      <c r="K25" s="96"/>
-      <c r="L25" s="117"/>
-    </row>
-    <row r="26" spans="1:12" s="31" customFormat="1">
-      <c r="A26" s="96"/>
-      <c r="B26" s="96"/>
-      <c r="C26" s="96"/>
-      <c r="D26" s="96"/>
-      <c r="E26" s="70" t="s">
+      <c r="F25" s="87"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="87"/>
+      <c r="J25" s="87"/>
+      <c r="K25" s="87"/>
+      <c r="L25" s="116"/>
+    </row>
+    <row r="26" spans="1:12" s="23" customFormat="1">
+      <c r="A26" s="87"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="F26" s="96"/>
-      <c r="G26" s="96"/>
-      <c r="H26" s="96"/>
-      <c r="I26" s="96"/>
-      <c r="J26" s="96"/>
-      <c r="K26" s="96"/>
-      <c r="L26" s="118"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="87"/>
+      <c r="I26" s="87"/>
+      <c r="J26" s="87"/>
+      <c r="K26" s="87"/>
+      <c r="L26" s="117"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="2" t="s">
@@ -3752,10 +4222,10 @@
       <c r="B27" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C27" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" s="24" t="s">
+      <c r="C27" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="16" t="s">
         <v>68</v>
       </c>
       <c r="E27" s="2" t="s">
@@ -3767,44 +4237,46 @@
       <c r="G27" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="H27" s="40">
+      <c r="H27" s="32">
         <v>1</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="31" customFormat="1">
-      <c r="A28" s="70" t="s">
+    <row r="28" spans="1:12" s="23" customFormat="1">
+      <c r="A28" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="B28" s="70" t="s">
+      <c r="B28" s="62" t="s">
         <v>404</v>
       </c>
-      <c r="C28" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="E28" s="70" t="s">
-        <v>68</v>
-      </c>
-      <c r="F28" s="70" t="s">
+      <c r="C28" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" s="62" t="s">
         <v>306</v>
       </c>
-      <c r="G28" s="70" t="s">
+      <c r="G28" s="62" t="s">
         <v>264</v>
       </c>
-      <c r="H28" s="71">
+      <c r="H28" s="63">
         <v>1</v>
       </c>
-      <c r="I28" s="70" t="s">
+      <c r="I28" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="J28" s="70"/>
-      <c r="K28" s="77"/>
-      <c r="L28" s="70"/>
+      <c r="J28" s="62"/>
+      <c r="K28" s="68" t="s">
+        <v>543</v>
+      </c>
+      <c r="L28" s="62"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="2" t="s">
@@ -3813,10 +4285,10 @@
       <c r="B29" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="C29" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="24" t="s">
+      <c r="C29" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="16" t="s">
         <v>68</v>
       </c>
       <c r="E29" s="2" t="s">
@@ -3828,44 +4300,49 @@
       <c r="G29" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="H29" s="40">
+      <c r="H29" s="32">
         <v>4</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" s="31" customFormat="1">
-      <c r="A30" s="70" t="s">
+      <c r="K29" s="92" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="23" customFormat="1">
+      <c r="A30" s="62" t="s">
         <v>406</v>
       </c>
-      <c r="B30" s="70" t="s">
+      <c r="B30" s="62" t="s">
         <v>409</v>
       </c>
-      <c r="C30" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="E30" s="70" t="s">
-        <v>68</v>
-      </c>
-      <c r="F30" s="70" t="s">
+      <c r="C30" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" s="62" t="s">
         <v>410</v>
       </c>
-      <c r="G30" s="70" t="s">
+      <c r="G30" s="62" t="s">
         <v>412</v>
       </c>
-      <c r="H30" s="71">
+      <c r="H30" s="63">
         <v>5</v>
       </c>
-      <c r="I30" s="70" t="s">
+      <c r="I30" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="J30" s="70"/>
-      <c r="K30" s="77"/>
-      <c r="L30" s="70"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="68" t="s">
+        <v>543</v>
+      </c>
+      <c r="L30" s="62"/>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="2" t="s">
@@ -3874,10 +4351,10 @@
       <c r="B31" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="C31" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31" s="24" t="s">
+      <c r="C31" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="16" t="s">
         <v>68</v>
       </c>
       <c r="E31" s="2" t="s">
@@ -3889,44 +4366,49 @@
       <c r="G31" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="H31" s="40">
+      <c r="H31" s="32">
         <v>1</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" s="31" customFormat="1">
-      <c r="A32" s="70" t="s">
+      <c r="K31" s="16" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="23" customFormat="1">
+      <c r="A32" s="62" t="s">
         <v>417</v>
       </c>
-      <c r="B32" s="70" t="s">
+      <c r="B32" s="62" t="s">
         <v>415</v>
       </c>
-      <c r="C32" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="D32" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="E32" s="70" t="s">
-        <v>68</v>
-      </c>
-      <c r="F32" s="70" t="s">
+      <c r="C32" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="F32" s="62" t="s">
         <v>419</v>
       </c>
-      <c r="G32" s="70" t="s">
+      <c r="G32" s="62" t="s">
         <v>421</v>
       </c>
-      <c r="H32" s="71">
-        <v>4</v>
-      </c>
-      <c r="I32" s="70" t="s">
+      <c r="H32" s="63">
+        <v>2</v>
+      </c>
+      <c r="I32" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="J32" s="70"/>
-      <c r="K32" s="77"/>
-      <c r="L32" s="70"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="68" t="s">
+        <v>200</v>
+      </c>
+      <c r="L32" s="62"/>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="2" t="s">
@@ -3935,1319 +4417,1395 @@
       <c r="B33" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="C33" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D33" s="24" t="s">
+      <c r="C33" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="16" t="s">
         <v>68</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" s="89" t="s">
         <v>420</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G33" s="89" t="s">
         <v>422</v>
       </c>
-      <c r="H33" s="40">
-        <v>5</v>
+      <c r="H33" s="32">
+        <v>3</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" s="31" customFormat="1">
-      <c r="A34" s="70" t="s">
-        <v>223</v>
-      </c>
-      <c r="B34" s="70" t="s">
-        <v>423</v>
-      </c>
-      <c r="C34" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="D34" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="E34" s="70" t="s">
-        <v>68</v>
-      </c>
-      <c r="F34" s="70" t="s">
-        <v>308</v>
-      </c>
-      <c r="G34" s="70" t="s">
-        <v>266</v>
-      </c>
-      <c r="H34" s="71">
-        <v>1</v>
-      </c>
-      <c r="I34" s="70" t="s">
-        <v>77</v>
-      </c>
-      <c r="J34" s="70"/>
-      <c r="K34" s="77"/>
-      <c r="L34" s="70"/>
+      <c r="K33" s="16" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="23" customFormat="1">
+      <c r="A34" s="62" t="s">
+        <v>544</v>
+      </c>
+      <c r="B34" s="68" t="s">
+        <v>553</v>
+      </c>
+      <c r="C34" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="F34" s="62" t="s">
+        <v>545</v>
+      </c>
+      <c r="G34" s="62" t="s">
+        <v>546</v>
+      </c>
+      <c r="H34" s="63">
+        <v>3</v>
+      </c>
+      <c r="I34" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="J34" s="62"/>
+      <c r="K34" s="68" t="s">
+        <v>200</v>
+      </c>
+      <c r="L34" s="62"/>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="2" t="s">
-        <v>426</v>
+        <v>223</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D35" s="24" t="s">
+        <v>423</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="16" t="s">
         <v>68</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>428</v>
+        <v>308</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="H35" s="40">
-        <v>4</v>
+        <v>266</v>
+      </c>
+      <c r="H35" s="32">
+        <v>1</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:12" s="31" customFormat="1">
-      <c r="A36" s="70" t="s">
-        <v>427</v>
-      </c>
-      <c r="B36" s="70" t="s">
-        <v>425</v>
-      </c>
-      <c r="C36" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="D36" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="E36" s="70" t="s">
-        <v>68</v>
-      </c>
-      <c r="F36" s="70" t="s">
-        <v>429</v>
-      </c>
-      <c r="G36" s="70" t="s">
-        <v>431</v>
-      </c>
-      <c r="H36" s="71">
-        <v>5</v>
-      </c>
-      <c r="I36" s="70" t="s">
+    <row r="36" spans="1:12" s="23" customFormat="1">
+      <c r="A36" s="62" t="s">
+        <v>426</v>
+      </c>
+      <c r="B36" s="68" t="s">
+        <v>424</v>
+      </c>
+      <c r="C36" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" s="62" t="s">
+        <v>428</v>
+      </c>
+      <c r="G36" s="62" t="s">
+        <v>430</v>
+      </c>
+      <c r="H36" s="63">
+        <v>4</v>
+      </c>
+      <c r="I36" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="J36" s="70"/>
-      <c r="K36" s="77"/>
-      <c r="L36" s="70"/>
+      <c r="J36" s="62"/>
+      <c r="K36" s="68"/>
+      <c r="L36" s="62"/>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="H37" s="32">
+        <v>5</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" s="23" customFormat="1">
+      <c r="A38" s="62" t="s">
         <v>224</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B38" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="C37" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D37" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F37" s="2" t="s">
+      <c r="C38" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="E38" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="F38" s="62" t="s">
         <v>309</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="G38" s="62" t="s">
         <v>267</v>
       </c>
-      <c r="H37" s="40">
+      <c r="H38" s="63">
         <v>1</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="I38" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="L37" s="2" t="s">
+      <c r="J38" s="62"/>
+      <c r="K38" s="68"/>
+      <c r="L38" s="62" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" s="31" customFormat="1">
-      <c r="A38" s="70" t="s">
-        <v>225</v>
-      </c>
-      <c r="B38" s="70" t="s">
-        <v>432</v>
-      </c>
-      <c r="C38" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="D38" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="E38" s="70" t="s">
-        <v>68</v>
-      </c>
-      <c r="F38" s="70" t="s">
-        <v>310</v>
-      </c>
-      <c r="G38" s="70" t="s">
-        <v>268</v>
-      </c>
-      <c r="H38" s="71">
-        <v>3</v>
-      </c>
-      <c r="I38" s="70" t="s">
-        <v>75</v>
-      </c>
-      <c r="J38" s="70"/>
-      <c r="K38" s="77"/>
-      <c r="L38" s="70"/>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="2" t="s">
-        <v>435</v>
+        <v>225</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D39" s="24" t="s">
+        <v>432</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" s="16" t="s">
         <v>68</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>437</v>
+        <v>310</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="H39" s="40">
-        <v>4</v>
+        <v>268</v>
+      </c>
+      <c r="H39" s="32">
+        <v>3</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:12" s="31" customFormat="1">
-      <c r="A40" s="70" t="s">
-        <v>436</v>
-      </c>
-      <c r="B40" s="70" t="s">
-        <v>434</v>
-      </c>
-      <c r="C40" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="D40" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="E40" s="70" t="s">
-        <v>68</v>
-      </c>
-      <c r="F40" s="70" t="s">
-        <v>438</v>
-      </c>
-      <c r="G40" s="70" t="s">
-        <v>440</v>
-      </c>
-      <c r="H40" s="71">
+    <row r="40" spans="1:12" s="23" customFormat="1">
+      <c r="A40" s="62" t="s">
+        <v>435</v>
+      </c>
+      <c r="B40" s="68" t="s">
+        <v>433</v>
+      </c>
+      <c r="C40" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="E40" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="F40" s="62" t="s">
+        <v>437</v>
+      </c>
+      <c r="G40" s="62" t="s">
+        <v>439</v>
+      </c>
+      <c r="H40" s="63">
         <v>4</v>
       </c>
-      <c r="I40" s="70" t="s">
+      <c r="I40" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="J40" s="70"/>
-      <c r="K40" s="77"/>
-      <c r="L40" s="70"/>
+      <c r="J40" s="62"/>
+      <c r="K40" s="68"/>
+      <c r="L40" s="62"/>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="2" t="s">
-        <v>226</v>
+        <v>436</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>396</v>
+        <v>434</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>68</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>148</v>
+        <v>68</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>311</v>
+        <v>438</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="H41" s="40">
-        <v>2</v>
+        <v>440</v>
+      </c>
+      <c r="H41" s="32">
+        <v>4</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:12" s="31" customFormat="1">
-      <c r="A42" s="70" t="s">
-        <v>444</v>
-      </c>
-      <c r="B42" s="70" t="s">
-        <v>442</v>
-      </c>
-      <c r="C42" s="77" t="s">
-        <v>446</v>
-      </c>
-      <c r="D42" s="77" t="s">
-        <v>448</v>
-      </c>
-      <c r="E42" s="70" t="s">
+    <row r="42" spans="1:12" s="23" customFormat="1">
+      <c r="A42" s="62" t="s">
+        <v>226</v>
+      </c>
+      <c r="B42" s="68" t="s">
+        <v>441</v>
+      </c>
+      <c r="C42" s="68" t="s">
+        <v>395</v>
+      </c>
+      <c r="D42" s="68" t="s">
+        <v>396</v>
+      </c>
+      <c r="E42" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="F42" s="70" t="s">
-        <v>450</v>
-      </c>
-      <c r="G42" s="70" t="s">
-        <v>452</v>
-      </c>
-      <c r="H42" s="71">
-        <v>5</v>
-      </c>
-      <c r="I42" s="70" t="s">
+      <c r="F42" s="62" t="s">
+        <v>311</v>
+      </c>
+      <c r="G42" s="62" t="s">
+        <v>269</v>
+      </c>
+      <c r="H42" s="63">
+        <v>2</v>
+      </c>
+      <c r="I42" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="J42" s="70"/>
-      <c r="K42" s="77"/>
-      <c r="L42" s="70"/>
+      <c r="J42" s="62"/>
+      <c r="K42" s="68"/>
+      <c r="L42" s="62"/>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="C43" s="24" t="s">
-        <v>447</v>
-      </c>
-      <c r="D43" s="24" t="s">
-        <v>449</v>
+        <v>442</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>446</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>448</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>148</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="H43" s="40">
+        <v>452</v>
+      </c>
+      <c r="H43" s="32">
         <v>5</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:12" s="31" customFormat="1">
-      <c r="A44" s="70" t="s">
-        <v>227</v>
-      </c>
-      <c r="B44" s="70" t="s">
-        <v>99</v>
-      </c>
-      <c r="C44" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="D44" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="E44" s="70" t="s">
-        <v>68</v>
-      </c>
-      <c r="F44" s="70" t="s">
-        <v>312</v>
-      </c>
-      <c r="G44" s="70" t="s">
-        <v>270</v>
-      </c>
-      <c r="H44" s="71">
-        <v>1</v>
-      </c>
-      <c r="I44" s="70" t="s">
-        <v>78</v>
-      </c>
-      <c r="J44" s="70"/>
-      <c r="K44" s="77"/>
-      <c r="L44" s="70"/>
+    <row r="44" spans="1:12" s="23" customFormat="1">
+      <c r="A44" s="62" t="s">
+        <v>445</v>
+      </c>
+      <c r="B44" s="68" t="s">
+        <v>443</v>
+      </c>
+      <c r="C44" s="68" t="s">
+        <v>447</v>
+      </c>
+      <c r="D44" s="68" t="s">
+        <v>449</v>
+      </c>
+      <c r="E44" s="62" t="s">
+        <v>148</v>
+      </c>
+      <c r="F44" s="62" t="s">
+        <v>451</v>
+      </c>
+      <c r="G44" s="62" t="s">
+        <v>453</v>
+      </c>
+      <c r="H44" s="63">
+        <v>5</v>
+      </c>
+      <c r="I44" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="J44" s="62"/>
+      <c r="K44" s="68"/>
+      <c r="L44" s="62"/>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H45" s="32">
+        <v>1</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" s="23" customFormat="1">
+      <c r="A46" s="62" t="s">
         <v>228</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B46" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="C45" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D45" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F45" s="2" t="s">
+      <c r="C46" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="E46" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="F46" s="62" t="s">
         <v>313</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="G46" s="62" t="s">
         <v>271</v>
       </c>
-      <c r="H45" s="40">
+      <c r="H46" s="63">
         <v>2</v>
       </c>
-      <c r="I45" s="2" t="s">
+      <c r="I46" s="62" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" s="31" customFormat="1">
-      <c r="A46" s="70" t="s">
-        <v>229</v>
-      </c>
-      <c r="B46" s="70" t="s">
-        <v>101</v>
-      </c>
-      <c r="C46" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="D46" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="E46" s="70" t="s">
-        <v>68</v>
-      </c>
-      <c r="F46" s="70" t="s">
-        <v>314</v>
-      </c>
-      <c r="G46" s="70" t="s">
-        <v>272</v>
-      </c>
-      <c r="H46" s="71">
-        <v>4</v>
-      </c>
-      <c r="I46" s="70" t="s">
-        <v>79</v>
-      </c>
-      <c r="J46" s="70"/>
-      <c r="K46" s="77"/>
-      <c r="L46" s="70"/>
+      <c r="J46" s="62"/>
+      <c r="K46" s="68"/>
+      <c r="L46" s="62"/>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="H47" s="32">
+        <v>4</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" s="23" customFormat="1">
+      <c r="A48" s="62" t="s">
         <v>230</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B48" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="C47" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D47" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F47" s="2" t="s">
+      <c r="C48" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="E48" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="F48" s="62" t="s">
         <v>315</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="G48" s="62" t="s">
         <v>273</v>
       </c>
-      <c r="H47" s="40">
+      <c r="H48" s="63">
         <v>5</v>
       </c>
-      <c r="I47" s="2" t="s">
+      <c r="I48" s="62" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" s="31" customFormat="1">
-      <c r="A48" s="70" t="s">
-        <v>231</v>
-      </c>
-      <c r="B48" s="70" t="s">
-        <v>103</v>
-      </c>
-      <c r="C48" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="D48" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="E48" s="70" t="s">
-        <v>68</v>
-      </c>
-      <c r="F48" s="70" t="s">
-        <v>316</v>
-      </c>
-      <c r="G48" s="70" t="s">
-        <v>274</v>
-      </c>
-      <c r="H48" s="71">
-        <v>4</v>
-      </c>
-      <c r="I48" s="70" t="s">
-        <v>78</v>
-      </c>
-      <c r="J48" s="70"/>
-      <c r="K48" s="77"/>
-      <c r="L48" s="70"/>
+      <c r="J48" s="62"/>
+      <c r="K48" s="68"/>
+      <c r="L48" s="62"/>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C49" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D49" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" s="16" t="s">
         <v>68</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="H49" s="40">
-        <v>3</v>
+        <v>274</v>
+      </c>
+      <c r="H49" s="32">
+        <v>4</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" s="31" customFormat="1">
-      <c r="A50" s="70" t="s">
-        <v>233</v>
-      </c>
-      <c r="B50" s="70" t="s">
-        <v>105</v>
-      </c>
-      <c r="C50" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="D50" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="E50" s="70" t="s">
-        <v>68</v>
-      </c>
-      <c r="F50" s="70" t="s">
-        <v>318</v>
-      </c>
-      <c r="G50" s="70" t="s">
-        <v>276</v>
-      </c>
-      <c r="H50" s="71">
-        <v>5</v>
-      </c>
-      <c r="I50" s="70" t="s">
-        <v>79</v>
-      </c>
-      <c r="J50" s="70"/>
-      <c r="K50" s="77"/>
-      <c r="L50" s="70"/>
+        <v>78</v>
+      </c>
+      <c r="K49" s="16" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" s="23" customFormat="1">
+      <c r="A50" s="62" t="s">
+        <v>547</v>
+      </c>
+      <c r="B50" s="62" t="s">
+        <v>552</v>
+      </c>
+      <c r="C50" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="E50" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="F50" s="62" t="s">
+        <v>548</v>
+      </c>
+      <c r="G50" s="62" t="s">
+        <v>549</v>
+      </c>
+      <c r="H50" s="63">
+        <v>4</v>
+      </c>
+      <c r="I50" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="J50" s="62"/>
+      <c r="K50" s="68" t="s">
+        <v>200</v>
+      </c>
+      <c r="L50" s="62"/>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C51" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D51" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" s="16" t="s">
         <v>68</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="H51" s="40">
+        <v>275</v>
+      </c>
+      <c r="H51" s="32">
         <v>3</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" s="31" customFormat="1">
-      <c r="A52" s="70" t="s">
-        <v>235</v>
-      </c>
-      <c r="B52" s="70" t="s">
-        <v>107</v>
-      </c>
-      <c r="C52" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="D52" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="E52" s="70" t="s">
-        <v>68</v>
-      </c>
-      <c r="F52" s="70" t="s">
-        <v>320</v>
-      </c>
-      <c r="G52" s="70" t="s">
-        <v>278</v>
-      </c>
-      <c r="H52" s="71">
-        <v>2</v>
-      </c>
-      <c r="I52" s="70" t="s">
+      <c r="K51" s="16" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" s="23" customFormat="1">
+      <c r="A52" s="62" t="s">
+        <v>233</v>
+      </c>
+      <c r="B52" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="E52" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="F52" s="62" t="s">
+        <v>318</v>
+      </c>
+      <c r="G52" s="62" t="s">
+        <v>276</v>
+      </c>
+      <c r="H52" s="63">
+        <v>5</v>
+      </c>
+      <c r="I52" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="J52" s="70"/>
-      <c r="K52" s="77"/>
-      <c r="L52" s="70"/>
+      <c r="J52" s="62"/>
+      <c r="K52" s="68"/>
+      <c r="L52" s="62"/>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C53" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D53" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" s="16" t="s">
         <v>68</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="H53" s="40">
-        <v>1</v>
+        <v>277</v>
+      </c>
+      <c r="H53" s="32">
+        <v>3</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" s="31" customFormat="1">
-      <c r="A54" s="70" t="s">
-        <v>236</v>
-      </c>
-      <c r="B54" s="70" t="s">
-        <v>109</v>
-      </c>
-      <c r="C54" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="D54" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="E54" s="70" t="s">
-        <v>68</v>
-      </c>
-      <c r="F54" s="70" t="s">
-        <v>322</v>
-      </c>
-      <c r="G54" s="70" t="s">
-        <v>280</v>
-      </c>
-      <c r="H54" s="71">
-        <v>3</v>
-      </c>
-      <c r="I54" s="70" t="s">
-        <v>78</v>
-      </c>
-      <c r="J54" s="70"/>
-      <c r="K54" s="77"/>
-      <c r="L54" s="70"/>
+        <v>79</v>
+      </c>
+      <c r="K53" s="16" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" s="23" customFormat="1">
+      <c r="A54" s="62" t="s">
+        <v>235</v>
+      </c>
+      <c r="B54" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="C54" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="E54" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="F54" s="62" t="s">
+        <v>320</v>
+      </c>
+      <c r="G54" s="62" t="s">
+        <v>278</v>
+      </c>
+      <c r="H54" s="63">
+        <v>2</v>
+      </c>
+      <c r="I54" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="J54" s="62"/>
+      <c r="K54" s="68"/>
+      <c r="L54" s="62"/>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C55" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D55" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" s="16" t="s">
         <v>68</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="H55" s="40">
-        <v>5</v>
+        <v>279</v>
+      </c>
+      <c r="H55" s="32">
+        <v>1</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" s="31" customFormat="1">
-      <c r="A56" s="70" t="s">
-        <v>239</v>
-      </c>
-      <c r="B56" s="70" t="s">
-        <v>111</v>
-      </c>
-      <c r="C56" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="D56" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="E56" s="70" t="s">
-        <v>68</v>
-      </c>
-      <c r="F56" s="70" t="s">
-        <v>324</v>
-      </c>
-      <c r="G56" s="70" t="s">
-        <v>282</v>
-      </c>
-      <c r="H56" s="71">
-        <v>4</v>
-      </c>
-      <c r="I56" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="J56" s="70"/>
-      <c r="K56" s="77"/>
-      <c r="L56" s="70"/>
+    </row>
+    <row r="56" spans="1:12" s="23" customFormat="1">
+      <c r="A56" s="62" t="s">
+        <v>236</v>
+      </c>
+      <c r="B56" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="C56" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="E56" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="F56" s="62" t="s">
+        <v>322</v>
+      </c>
+      <c r="G56" s="62" t="s">
+        <v>280</v>
+      </c>
+      <c r="H56" s="63">
+        <v>3</v>
+      </c>
+      <c r="I56" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="J56" s="62"/>
+      <c r="K56" s="68"/>
+      <c r="L56" s="62"/>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C57" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D57" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" s="16" t="s">
         <v>68</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="H57" s="40">
-        <v>2</v>
+        <v>281</v>
+      </c>
+      <c r="H57" s="32">
+        <v>5</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" s="31" customFormat="1">
-      <c r="A58" s="70" t="s">
-        <v>241</v>
-      </c>
-      <c r="B58" s="70" t="s">
-        <v>113</v>
-      </c>
-      <c r="C58" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="D58" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="E58" s="70" t="s">
-        <v>68</v>
-      </c>
-      <c r="F58" s="70" t="s">
-        <v>326</v>
-      </c>
-      <c r="G58" s="70" t="s">
-        <v>284</v>
-      </c>
-      <c r="H58" s="71">
-        <v>3</v>
-      </c>
-      <c r="I58" s="70" t="s">
-        <v>75</v>
-      </c>
-      <c r="J58" s="70"/>
-      <c r="K58" s="77"/>
-      <c r="L58" s="70"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" s="23" customFormat="1">
+      <c r="A58" s="62" t="s">
+        <v>239</v>
+      </c>
+      <c r="B58" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="C58" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="E58" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="F58" s="62" t="s">
+        <v>324</v>
+      </c>
+      <c r="G58" s="62" t="s">
+        <v>282</v>
+      </c>
+      <c r="H58" s="63">
+        <v>4</v>
+      </c>
+      <c r="I58" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="J58" s="62"/>
+      <c r="K58" s="68"/>
+      <c r="L58" s="62"/>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C59" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D59" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" s="16" t="s">
         <v>68</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="H59" s="40">
-        <v>1</v>
+        <v>283</v>
+      </c>
+      <c r="H59" s="32">
+        <v>2</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" s="31" customFormat="1">
-      <c r="A60" s="70" t="s">
-        <v>243</v>
-      </c>
-      <c r="B60" s="70" t="s">
-        <v>115</v>
-      </c>
-      <c r="C60" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="D60" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="E60" s="70" t="s">
-        <v>68</v>
-      </c>
-      <c r="F60" s="70" t="s">
-        <v>328</v>
-      </c>
-      <c r="G60" s="70" t="s">
-        <v>286</v>
-      </c>
-      <c r="H60" s="71">
-        <v>2</v>
-      </c>
-      <c r="I60" s="70" t="s">
-        <v>82</v>
-      </c>
-      <c r="J60" s="70"/>
-      <c r="K60" s="77"/>
-      <c r="L60" s="70"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" s="23" customFormat="1">
+      <c r="A60" s="62" t="s">
+        <v>241</v>
+      </c>
+      <c r="B60" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="C60" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="E60" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="F60" s="62" t="s">
+        <v>326</v>
+      </c>
+      <c r="G60" s="62" t="s">
+        <v>284</v>
+      </c>
+      <c r="H60" s="63">
+        <v>3</v>
+      </c>
+      <c r="I60" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="J60" s="62"/>
+      <c r="K60" s="68"/>
+      <c r="L60" s="62"/>
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C61" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D61" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" s="16" t="s">
         <v>68</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="H61" s="40">
-        <v>3</v>
+        <v>285</v>
+      </c>
+      <c r="H61" s="32">
+        <v>1</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" s="31" customFormat="1">
-      <c r="A62" s="70" t="s">
-        <v>245</v>
-      </c>
-      <c r="B62" s="70" t="s">
-        <v>117</v>
-      </c>
-      <c r="C62" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="D62" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="E62" s="70" t="s">
-        <v>68</v>
-      </c>
-      <c r="F62" s="70" t="s">
-        <v>330</v>
-      </c>
-      <c r="G62" s="70" t="s">
-        <v>288</v>
-      </c>
-      <c r="H62" s="71">
-        <v>3</v>
-      </c>
-      <c r="I62" s="70" t="s">
-        <v>79</v>
-      </c>
-      <c r="J62" s="70"/>
-      <c r="K62" s="77"/>
-      <c r="L62" s="70" t="s">
-        <v>130</v>
-      </c>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" s="23" customFormat="1">
+      <c r="A62" s="62" t="s">
+        <v>243</v>
+      </c>
+      <c r="B62" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="C62" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="E62" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="F62" s="62" t="s">
+        <v>328</v>
+      </c>
+      <c r="G62" s="62" t="s">
+        <v>286</v>
+      </c>
+      <c r="H62" s="63">
+        <v>2</v>
+      </c>
+      <c r="I62" s="62" t="s">
+        <v>82</v>
+      </c>
+      <c r="J62" s="62"/>
+      <c r="K62" s="68"/>
+      <c r="L62" s="62"/>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C63" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D63" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" s="16" t="s">
         <v>68</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="H63" s="40">
-        <v>5</v>
+        <v>287</v>
+      </c>
+      <c r="H63" s="32">
+        <v>3</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="64" spans="1:12" s="31" customFormat="1">
-      <c r="A64" s="70" t="s">
-        <v>247</v>
-      </c>
-      <c r="B64" s="70" t="s">
-        <v>119</v>
-      </c>
-      <c r="C64" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="D64" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="E64" s="70" t="s">
-        <v>68</v>
-      </c>
-      <c r="F64" s="70" t="s">
-        <v>332</v>
-      </c>
-      <c r="G64" s="70" t="s">
-        <v>290</v>
-      </c>
-      <c r="H64" s="71">
-        <v>5</v>
-      </c>
-      <c r="I64" s="70" t="s">
-        <v>83</v>
-      </c>
-      <c r="J64" s="70"/>
-      <c r="K64" s="77"/>
-      <c r="L64" s="70"/>
+    <row r="64" spans="1:12" s="23" customFormat="1">
+      <c r="A64" s="62" t="s">
+        <v>245</v>
+      </c>
+      <c r="B64" s="62" t="s">
+        <v>117</v>
+      </c>
+      <c r="C64" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="E64" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="F64" s="62" t="s">
+        <v>330</v>
+      </c>
+      <c r="G64" s="62" t="s">
+        <v>288</v>
+      </c>
+      <c r="H64" s="63">
+        <v>3</v>
+      </c>
+      <c r="I64" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="J64" s="62"/>
+      <c r="K64" s="68"/>
+      <c r="L64" s="62" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C65" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D65" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" s="16" t="s">
         <v>68</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="H65" s="40">
-        <v>3</v>
+        <v>289</v>
+      </c>
+      <c r="H65" s="32">
+        <v>5</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" s="31" customFormat="1">
-      <c r="A66" s="70" t="s">
-        <v>249</v>
-      </c>
-      <c r="B66" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="C66" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="D66" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="E66" s="70" t="s">
-        <v>68</v>
-      </c>
-      <c r="F66" s="70" t="s">
-        <v>334</v>
-      </c>
-      <c r="G66" s="70" t="s">
-        <v>292</v>
-      </c>
-      <c r="H66" s="71">
-        <v>3</v>
-      </c>
-      <c r="I66" s="70" t="s">
-        <v>81</v>
-      </c>
-      <c r="J66" s="70"/>
-      <c r="K66" s="77"/>
-      <c r="L66" s="70"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" s="23" customFormat="1">
+      <c r="A66" s="62" t="s">
+        <v>247</v>
+      </c>
+      <c r="B66" s="62" t="s">
+        <v>119</v>
+      </c>
+      <c r="C66" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="E66" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="F66" s="62" t="s">
+        <v>332</v>
+      </c>
+      <c r="G66" s="62" t="s">
+        <v>290</v>
+      </c>
+      <c r="H66" s="63">
+        <v>5</v>
+      </c>
+      <c r="I66" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="J66" s="62"/>
+      <c r="K66" s="68"/>
+      <c r="L66" s="62"/>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C67" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D67" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" s="16" t="s">
         <v>68</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="H67" s="40">
+        <v>291</v>
+      </c>
+      <c r="H67" s="32">
         <v>3</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" s="31" customFormat="1">
-      <c r="A68" s="70" t="s">
-        <v>251</v>
-      </c>
-      <c r="B68" s="70" t="s">
-        <v>123</v>
-      </c>
-      <c r="C68" s="70" t="s">
-        <v>397</v>
-      </c>
-      <c r="D68" s="70" t="s">
-        <v>398</v>
-      </c>
-      <c r="E68" s="70" t="s">
-        <v>124</v>
-      </c>
-      <c r="F68" s="70" t="s">
-        <v>336</v>
-      </c>
-      <c r="G68" s="70" t="s">
-        <v>294</v>
-      </c>
-      <c r="H68" s="71">
-        <v>2</v>
-      </c>
-      <c r="I68" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="J68" s="70"/>
-      <c r="K68" s="77"/>
-      <c r="L68" s="70"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" s="23" customFormat="1">
+      <c r="A68" s="62" t="s">
+        <v>249</v>
+      </c>
+      <c r="B68" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="C68" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="E68" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="F68" s="62" t="s">
+        <v>334</v>
+      </c>
+      <c r="G68" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="H68" s="63">
+        <v>3</v>
+      </c>
+      <c r="I68" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="J68" s="62"/>
+      <c r="K68" s="68"/>
+      <c r="L68" s="62"/>
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C69" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D69" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" s="16" t="s">
         <v>68</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="H69" s="40">
+        <v>293</v>
+      </c>
+      <c r="H69" s="32">
         <v>3</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="L69" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" s="31" customFormat="1">
-      <c r="A70" s="70" t="s">
-        <v>253</v>
-      </c>
-      <c r="B70" s="70" t="s">
-        <v>126</v>
-      </c>
-      <c r="C70" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="D70" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="E70" s="70" t="s">
-        <v>68</v>
-      </c>
-      <c r="F70" s="70" t="s">
-        <v>338</v>
-      </c>
-      <c r="G70" s="70" t="s">
-        <v>296</v>
-      </c>
-      <c r="H70" s="71">
-        <v>3</v>
-      </c>
-      <c r="I70" s="70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" s="23" customFormat="1">
+      <c r="A70" s="62" t="s">
+        <v>251</v>
+      </c>
+      <c r="B70" s="62" t="s">
+        <v>123</v>
+      </c>
+      <c r="C70" s="62" t="s">
+        <v>397</v>
+      </c>
+      <c r="D70" s="62" t="s">
+        <v>398</v>
+      </c>
+      <c r="E70" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="F70" s="62" t="s">
+        <v>336</v>
+      </c>
+      <c r="G70" s="62" t="s">
+        <v>294</v>
+      </c>
+      <c r="H70" s="63">
+        <v>2</v>
+      </c>
+      <c r="I70" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="J70" s="70"/>
-      <c r="K70" s="77"/>
-      <c r="L70" s="70"/>
+      <c r="J70" s="62"/>
+      <c r="K70" s="68"/>
+      <c r="L70" s="62"/>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C71" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D71" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" s="16" t="s">
         <v>68</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="H71" s="40">
+        <v>295</v>
+      </c>
+      <c r="H71" s="32">
         <v>3</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" s="31" customFormat="1">
-      <c r="A72" s="70" t="s">
-        <v>255</v>
-      </c>
-      <c r="B72" s="70" t="s">
-        <v>128</v>
-      </c>
-      <c r="C72" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="D72" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="E72" s="70" t="s">
-        <v>68</v>
-      </c>
-      <c r="F72" s="70" t="s">
-        <v>340</v>
-      </c>
-      <c r="G72" s="70" t="s">
-        <v>298</v>
-      </c>
-      <c r="H72" s="71">
+      <c r="L71" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" s="23" customFormat="1">
+      <c r="A72" s="62" t="s">
+        <v>253</v>
+      </c>
+      <c r="B72" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="C72" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="E72" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="F72" s="62" t="s">
+        <v>338</v>
+      </c>
+      <c r="G72" s="62" t="s">
+        <v>296</v>
+      </c>
+      <c r="H72" s="63">
         <v>3</v>
       </c>
-      <c r="I72" s="70" t="s">
-        <v>78</v>
-      </c>
-      <c r="J72" s="70"/>
-      <c r="K72" s="77"/>
-      <c r="L72" s="70"/>
+      <c r="I72" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="J72" s="62"/>
+      <c r="K72" s="68"/>
+      <c r="L72" s="62"/>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C73" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D73" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" s="16" t="s">
         <v>68</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="H73" s="40">
-        <v>2</v>
+        <v>297</v>
+      </c>
+      <c r="H73" s="32">
+        <v>3</v>
       </c>
       <c r="I73" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="74" spans="1:12" s="31" customFormat="1">
-      <c r="A74" s="70" t="s">
+    <row r="74" spans="1:12" s="23" customFormat="1">
+      <c r="A74" s="62" t="s">
+        <v>255</v>
+      </c>
+      <c r="B74" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="C74" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="E74" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="F74" s="62" t="s">
+        <v>340</v>
+      </c>
+      <c r="G74" s="62" t="s">
+        <v>298</v>
+      </c>
+      <c r="H74" s="63">
+        <v>3</v>
+      </c>
+      <c r="I74" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="J74" s="62"/>
+      <c r="K74" s="68"/>
+      <c r="L74" s="62"/>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="H75" s="32">
+        <v>2</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" s="23" customFormat="1">
+      <c r="A76" s="62" t="s">
         <v>257</v>
       </c>
-      <c r="B74" s="70" t="s">
+      <c r="B76" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="C74" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="D74" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="E74" s="70" t="s">
-        <v>68</v>
-      </c>
-      <c r="F74" s="70" t="s">
+      <c r="C76" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="E76" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="F76" s="62" t="s">
         <v>341</v>
       </c>
-      <c r="G74" s="70" t="s">
+      <c r="G76" s="62" t="s">
         <v>300</v>
       </c>
-      <c r="H74" s="71">
+      <c r="H76" s="63">
         <v>3</v>
       </c>
-      <c r="I74" s="70" t="s">
+      <c r="I76" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="J74" s="70"/>
-      <c r="K74" s="77"/>
-      <c r="L74" s="70"/>
-    </row>
-    <row r="75" spans="1:12" s="103" customFormat="1">
-      <c r="A75" s="98" t="s">
+      <c r="J76" s="62"/>
+      <c r="K76" s="68"/>
+      <c r="L76" s="62"/>
+    </row>
+    <row r="77" spans="1:12" s="94" customFormat="1">
+      <c r="A77" s="89" t="s">
         <v>530</v>
       </c>
-      <c r="B75" s="98" t="s">
+      <c r="B77" s="89" t="s">
         <v>522</v>
       </c>
-      <c r="C75" s="101" t="s">
-        <v>68</v>
-      </c>
-      <c r="D75" s="101" t="s">
-        <v>68</v>
-      </c>
-      <c r="E75" s="98" t="s">
-        <v>68</v>
-      </c>
-      <c r="F75" s="98" t="s">
+      <c r="C77" s="92" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" s="92" t="s">
+        <v>68</v>
+      </c>
+      <c r="E77" s="89" t="s">
+        <v>68</v>
+      </c>
+      <c r="F77" s="89" t="s">
         <v>531</v>
       </c>
-      <c r="G75" s="98" t="s">
+      <c r="G77" s="89" t="s">
         <v>532</v>
       </c>
-      <c r="H75" s="102">
+      <c r="H77" s="93">
         <v>5</v>
       </c>
-      <c r="I75" s="98" t="s">
+      <c r="I77" s="89" t="s">
         <v>71</v>
       </c>
-      <c r="J75" s="98"/>
-      <c r="K75" s="101"/>
-      <c r="L75" s="98"/>
+      <c r="J77" s="89"/>
+      <c r="K77" s="92"/>
+      <c r="L77" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5277,7 +5835,7 @@
   <cols>
     <col min="1" max="1" width="13.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="27.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="31" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
@@ -5293,7 +5851,7 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -5309,22 +5867,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="31" customFormat="1">
-      <c r="A2" s="74" t="s">
+    <row r="2" spans="1:7" s="23" customFormat="1">
+      <c r="A2" s="65" t="s">
         <v>343</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="65" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="78">
+      <c r="C2" s="69">
         <v>1</v>
       </c>
-      <c r="D2" s="74" t="s">
+      <c r="D2" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
@@ -5333,29 +5891,29 @@
       <c r="B3" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C3" s="39">
+      <c r="C3" s="31">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="31" customFormat="1">
-      <c r="A4" s="70" t="s">
+    <row r="4" spans="1:7" s="23" customFormat="1">
+      <c r="A4" s="62" t="s">
         <v>345</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="C4" s="79">
+      <c r="C4" s="70">
         <v>1</v>
       </c>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
@@ -5364,29 +5922,29 @@
       <c r="B5" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="39">
+      <c r="C5" s="31">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="31" customFormat="1">
-      <c r="A6" s="70" t="s">
+    <row r="6" spans="1:7" s="23" customFormat="1">
+      <c r="A6" s="62" t="s">
         <v>347</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="79">
+      <c r="C6" s="70">
         <v>1</v>
       </c>
-      <c r="D6" s="70" t="s">
+      <c r="D6" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
@@ -5395,7 +5953,7 @@
       <c r="B7" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7" s="31">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -5405,22 +5963,22 @@
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="31" customFormat="1">
-      <c r="A8" s="70" t="s">
+    <row r="8" spans="1:7" s="23" customFormat="1">
+      <c r="A8" s="62" t="s">
         <v>349</v>
       </c>
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="C8" s="79">
+      <c r="C8" s="70">
         <v>1</v>
       </c>
-      <c r="D8" s="70" t="s">
+      <c r="D8" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
@@ -5429,29 +5987,29 @@
       <c r="B9" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C9" s="39">
+      <c r="C9" s="31">
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="31" customFormat="1">
-      <c r="A10" s="70" t="s">
+    <row r="10" spans="1:7" s="23" customFormat="1">
+      <c r="A10" s="62" t="s">
         <v>351</v>
       </c>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="C10" s="79">
+      <c r="C10" s="70">
         <v>1</v>
       </c>
-      <c r="D10" s="70" t="s">
+      <c r="D10" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
@@ -5460,29 +6018,29 @@
       <c r="B11" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C11" s="39">
+      <c r="C11" s="31">
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="31" customFormat="1">
-      <c r="A12" s="70" t="s">
+    <row r="12" spans="1:7" s="23" customFormat="1">
+      <c r="A12" s="62" t="s">
         <v>353</v>
       </c>
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="C12" s="79">
+      <c r="C12" s="70">
         <v>1</v>
       </c>
-      <c r="D12" s="70" t="s">
+      <c r="D12" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
@@ -5491,29 +6049,29 @@
       <c r="B13" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C13" s="39">
+      <c r="C13" s="31">
         <v>3</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="31" customFormat="1">
-      <c r="A14" s="70" t="s">
+    <row r="14" spans="1:7" s="23" customFormat="1">
+      <c r="A14" s="62" t="s">
         <v>355</v>
       </c>
-      <c r="B14" s="70" t="s">
+      <c r="B14" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="79">
+      <c r="C14" s="70">
         <v>2</v>
       </c>
-      <c r="D14" s="70" t="s">
+      <c r="D14" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5535,7 +6093,7 @@
   <cols>
     <col min="1" max="1" width="16.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="24" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="31" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" style="2" customWidth="1"/>
@@ -5551,7 +6109,7 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -5567,24 +6125,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="30" customFormat="1">
-      <c r="A2" s="42" t="s">
+    <row r="2" spans="1:7" s="22" customFormat="1">
+      <c r="A2" s="34" t="s">
         <v>473</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="34" t="s">
         <v>456</v>
       </c>
-      <c r="C2" s="44">
+      <c r="C2" s="36">
         <v>1</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="34" t="s">
         <v>517</v>
       </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42" t="s">
+      <c r="E2" s="34"/>
+      <c r="F2" s="34" t="s">
         <v>200</v>
       </c>
-      <c r="G2" s="42"/>
+      <c r="G2" s="34"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
@@ -5593,7 +6151,7 @@
       <c r="B3" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="39">
+      <c r="C3" s="31">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -5606,24 +6164,24 @@
         <v>535</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="30" customFormat="1">
-      <c r="A4" s="43" t="s">
+    <row r="4" spans="1:7" s="22" customFormat="1">
+      <c r="A4" s="35" t="s">
         <v>474</v>
       </c>
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="88" t="s">
         <v>455</v>
       </c>
-      <c r="C4" s="45">
+      <c r="C4" s="37">
         <v>1</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="34" t="s">
         <v>517</v>
       </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43" t="s">
+      <c r="E4" s="35"/>
+      <c r="F4" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="G4" s="43"/>
+      <c r="G4" s="35"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
@@ -5632,7 +6190,7 @@
       <c r="B5" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C5" s="39">
+      <c r="C5" s="31">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -5642,24 +6200,24 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="30" customFormat="1">
-      <c r="A6" s="43" t="s">
+    <row r="6" spans="1:7" s="22" customFormat="1">
+      <c r="A6" s="35" t="s">
         <v>476</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="22" t="s">
         <v>454</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="37">
         <v>1</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="34" t="s">
         <v>517</v>
       </c>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43" t="s">
+      <c r="E6" s="35"/>
+      <c r="F6" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="G6" s="43"/>
+      <c r="G6" s="35"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
@@ -5668,7 +6226,7 @@
       <c r="B7" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7" s="31">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -5678,24 +6236,24 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="30" customFormat="1">
-      <c r="A8" s="43" t="s">
+    <row r="8" spans="1:7" s="22" customFormat="1">
+      <c r="A8" s="35" t="s">
         <v>479</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="35" t="s">
         <v>457</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C8" s="37">
         <v>1</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="34" t="s">
         <v>517</v>
       </c>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43" t="s">
+      <c r="E8" s="35"/>
+      <c r="F8" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="G8" s="43" t="s">
+      <c r="G8" s="35" t="s">
         <v>458</v>
       </c>
     </row>
@@ -5706,7 +6264,7 @@
       <c r="B9" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="C9" s="39">
+      <c r="C9" s="31">
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -5719,24 +6277,24 @@
         <v>508</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="30" customFormat="1">
-      <c r="A10" s="43" t="s">
+    <row r="10" spans="1:7" s="22" customFormat="1">
+      <c r="A10" s="35" t="s">
         <v>481</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="35" t="s">
         <v>460</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="37">
         <v>1</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="34" t="s">
         <v>517</v>
       </c>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43" t="s">
+      <c r="E10" s="35"/>
+      <c r="F10" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="G10" s="43" t="s">
+      <c r="G10" s="35" t="s">
         <v>514</v>
       </c>
     </row>
@@ -5747,7 +6305,7 @@
       <c r="B11" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="C11" s="39">
+      <c r="C11" s="31">
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -5757,33 +6315,33 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="30" customFormat="1">
-      <c r="A12" s="43" t="s">
+    <row r="12" spans="1:7" s="22" customFormat="1">
+      <c r="A12" s="35" t="s">
         <v>483</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="35" t="s">
         <v>463</v>
       </c>
-      <c r="C12" s="45">
+      <c r="C12" s="37">
         <v>2</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="34" t="s">
         <v>517</v>
       </c>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43" t="s">
+      <c r="E12" s="35"/>
+      <c r="F12" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="G12" s="43"/>
+      <c r="G12" s="35"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="B13" s="98" t="s">
+      <c r="B13" s="89" t="s">
         <v>465</v>
       </c>
-      <c r="C13" s="39">
+      <c r="C13" s="31">
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -5793,126 +6351,126 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="30" customFormat="1">
-      <c r="A14" s="43" t="s">
+    <row r="14" spans="1:7" s="22" customFormat="1">
+      <c r="A14" s="35" t="s">
         <v>485</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="35" t="s">
         <v>464</v>
       </c>
-      <c r="C14" s="45">
+      <c r="C14" s="37">
         <v>2</v>
       </c>
-      <c r="D14" s="43" t="s">
+      <c r="D14" s="35" t="s">
         <v>517</v>
       </c>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="B15" s="98" t="s">
+      <c r="B15" s="89" t="s">
         <v>466</v>
       </c>
-      <c r="C15" s="39">
+      <c r="C15" s="31">
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="30" customFormat="1">
-      <c r="A16" s="43" t="s">
+    <row r="16" spans="1:7" s="22" customFormat="1">
+      <c r="A16" s="35" t="s">
         <v>487</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="35" t="s">
         <v>467</v>
       </c>
-      <c r="C16" s="45">
+      <c r="C16" s="37">
         <v>4</v>
       </c>
-      <c r="D16" s="43" t="s">
+      <c r="D16" s="35" t="s">
         <v>507</v>
       </c>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="B17" s="98" t="s">
+      <c r="B17" s="89" t="s">
         <v>151</v>
       </c>
-      <c r="C17" s="39">
+      <c r="C17" s="31">
         <v>2</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="30" customFormat="1">
-      <c r="A18" s="43" t="s">
+    <row r="18" spans="1:7" s="22" customFormat="1">
+      <c r="A18" s="35" t="s">
         <v>489</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="35" t="s">
         <v>468</v>
       </c>
-      <c r="C18" s="45">
+      <c r="C18" s="37">
         <v>1</v>
       </c>
-      <c r="D18" s="43" t="s">
+      <c r="D18" s="35" t="s">
         <v>517</v>
       </c>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43" t="s">
+      <c r="E18" s="35"/>
+      <c r="F18" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="G18" s="43"/>
+      <c r="G18" s="35"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="B19" s="99" t="s">
+      <c r="B19" s="90" t="s">
         <v>469</v>
       </c>
-      <c r="C19" s="39">
+      <c r="C19" s="31">
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="30" customFormat="1">
-      <c r="A20" s="43" t="s">
+    <row r="20" spans="1:7" s="22" customFormat="1">
+      <c r="A20" s="35" t="s">
         <v>491</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="C20" s="45">
+      <c r="C20" s="37">
         <v>1</v>
       </c>
-      <c r="D20" s="43" t="s">
+      <c r="D20" s="35" t="s">
         <v>517</v>
       </c>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="B21" s="100" t="s">
+      <c r="B21" s="91" t="s">
         <v>470</v>
       </c>
-      <c r="C21" s="39">
+      <c r="C21" s="31">
         <v>2</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -5922,22 +6480,22 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="30" customFormat="1">
-      <c r="A22" s="43" t="s">
+    <row r="22" spans="1:7" s="22" customFormat="1">
+      <c r="A22" s="35" t="s">
         <v>493</v>
       </c>
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="35" t="s">
         <v>471</v>
       </c>
-      <c r="C22" s="45">
+      <c r="C22" s="37">
         <v>1</v>
       </c>
-      <c r="D22" s="43" t="s">
+      <c r="D22" s="35" t="s">
         <v>517</v>
       </c>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2" t="s">
@@ -5946,29 +6504,29 @@
       <c r="B23" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="C23" s="39">
+      <c r="C23" s="31">
         <v>3</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="30" customFormat="1">
-      <c r="A24" s="43" t="s">
+    <row r="24" spans="1:7" s="22" customFormat="1">
+      <c r="A24" s="35" t="s">
         <v>510</v>
       </c>
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="35" t="s">
         <v>509</v>
       </c>
-      <c r="C24" s="45">
+      <c r="C24" s="37">
         <v>1</v>
       </c>
-      <c r="D24" s="43" t="s">
+      <c r="D24" s="35" t="s">
         <v>517</v>
       </c>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2" t="s">
@@ -5977,29 +6535,29 @@
       <c r="B25" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="C25" s="39">
+      <c r="C25" s="31">
         <v>5</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="30" customFormat="1">
-      <c r="A26" s="43" t="s">
+    <row r="26" spans="1:7" s="22" customFormat="1">
+      <c r="A26" s="35" t="s">
         <v>524</v>
       </c>
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="35" t="s">
         <v>525</v>
       </c>
-      <c r="C26" s="45">
+      <c r="C26" s="37">
         <v>5</v>
       </c>
-      <c r="D26" s="43" t="s">
+      <c r="D26" s="35" t="s">
         <v>517</v>
       </c>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2" t="s">
@@ -6008,7 +6566,7 @@
       <c r="B27" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="C27" s="39">
+      <c r="C27" s="31">
         <v>5</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -6018,22 +6576,22 @@
         <v>515</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="30" customFormat="1">
-      <c r="A28" s="43" t="s">
+    <row r="28" spans="1:7" s="22" customFormat="1">
+      <c r="A28" s="35" t="s">
         <v>527</v>
       </c>
-      <c r="B28" s="43" t="s">
+      <c r="B28" s="35" t="s">
         <v>513</v>
       </c>
-      <c r="C28" s="45">
+      <c r="C28" s="37">
         <v>4</v>
       </c>
-      <c r="D28" s="43" t="s">
+      <c r="D28" s="35" t="s">
         <v>517</v>
       </c>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43" t="s">
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35" t="s">
         <v>516</v>
       </c>
     </row>
@@ -6044,29 +6602,29 @@
       <c r="B29" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="C29" s="39">
+      <c r="C29" s="31">
         <v>5</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="30" customFormat="1">
-      <c r="A30" s="43" t="s">
+    <row r="30" spans="1:7" s="22" customFormat="1">
+      <c r="A30" s="35" t="s">
         <v>529</v>
       </c>
-      <c r="B30" s="43" t="s">
+      <c r="B30" s="35" t="s">
         <v>522</v>
       </c>
-      <c r="C30" s="45">
+      <c r="C30" s="37">
         <v>5</v>
       </c>
-      <c r="D30" s="43" t="s">
+      <c r="D30" s="35" t="s">
         <v>517</v>
       </c>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2" t="s">
@@ -6075,31 +6633,31 @@
       <c r="B31" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="C31" s="39">
+      <c r="C31" s="31">
         <v>3</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="30" customFormat="1">
-      <c r="A32" s="43" t="s">
+    <row r="32" spans="1:7" s="22" customFormat="1">
+      <c r="A32" s="35" t="s">
         <v>540</v>
       </c>
-      <c r="B32" s="43" t="s">
+      <c r="B32" s="35" t="s">
         <v>539</v>
       </c>
-      <c r="C32" s="45">
+      <c r="C32" s="37">
         <v>2</v>
       </c>
-      <c r="D32" s="43" t="s">
+      <c r="D32" s="35" t="s">
         <v>517</v>
       </c>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43" t="s">
+      <c r="E32" s="35"/>
+      <c r="F32" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="G32" s="43"/>
+      <c r="G32" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6121,7 +6679,7 @@
   <cols>
     <col min="1" max="1" width="19.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="18.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="31" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" style="2" customWidth="1"/>
@@ -6137,7 +6695,7 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -6153,22 +6711,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="36" customFormat="1">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:7" s="28" customFormat="1">
+      <c r="A2" s="27" t="s">
         <v>356</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="C2" s="80">
+      <c r="C2" s="71">
         <v>4</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
@@ -6177,29 +6735,29 @@
       <c r="B3" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C3" s="39">
+      <c r="C3" s="31">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="36" customFormat="1">
-      <c r="A4" s="37" t="s">
+    <row r="4" spans="1:7" s="28" customFormat="1">
+      <c r="A4" s="29" t="s">
         <v>358</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="C4" s="81">
+      <c r="C4" s="72">
         <v>2</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37" t="s">
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29" t="s">
         <v>177</v>
       </c>
     </row>
@@ -6210,29 +6768,29 @@
       <c r="B5" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C5" s="39">
+      <c r="C5" s="31">
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="36" customFormat="1">
-      <c r="A6" s="37" t="s">
+    <row r="6" spans="1:7" s="28" customFormat="1">
+      <c r="A6" s="29" t="s">
         <v>360</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="C6" s="81">
+      <c r="C6" s="72">
         <v>1</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
@@ -6241,29 +6799,29 @@
       <c r="B7" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7" s="31">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="36" customFormat="1">
-      <c r="A8" s="37" t="s">
+    <row r="8" spans="1:7" s="28" customFormat="1">
+      <c r="A8" s="29" t="s">
         <v>363</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="29" t="s">
         <v>370</v>
       </c>
-      <c r="C8" s="81">
+      <c r="C8" s="72">
         <v>1</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37" t="s">
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29" t="s">
         <v>178</v>
       </c>
     </row>
@@ -6274,7 +6832,7 @@
       <c r="B9" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C9" s="39">
+      <c r="C9" s="31">
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -6284,22 +6842,22 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="36" customFormat="1">
-      <c r="A10" s="37" t="s">
+    <row r="10" spans="1:7" s="28" customFormat="1">
+      <c r="A10" s="29" t="s">
         <v>364</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="C10" s="81">
+      <c r="C10" s="72">
         <v>2</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37" t="s">
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29" t="s">
         <v>180</v>
       </c>
     </row>
@@ -6310,29 +6868,29 @@
       <c r="B11" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C11" s="39">
+      <c r="C11" s="31">
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="36" customFormat="1">
-      <c r="A12" s="37" t="s">
+    <row r="12" spans="1:7" s="28" customFormat="1">
+      <c r="A12" s="29" t="s">
         <v>366</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="C12" s="81">
+      <c r="C12" s="72">
         <v>2</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
@@ -6341,29 +6899,29 @@
       <c r="B13" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C13" s="39">
+      <c r="C13" s="31">
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="36" customFormat="1">
-      <c r="A14" s="37" t="s">
+    <row r="14" spans="1:7" s="28" customFormat="1">
+      <c r="A14" s="29" t="s">
         <v>368</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="29" t="s">
         <v>369</v>
       </c>
-      <c r="C14" s="81">
+      <c r="C14" s="72">
         <v>3</v>
       </c>
-      <c r="D14" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37" t="s">
+      <c r="D14" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29" t="s">
         <v>181</v>
       </c>
     </row>
@@ -6374,7 +6932,7 @@
       <c r="B15" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C15" s="39">
+      <c r="C15" s="31">
         <v>3</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -6384,22 +6942,22 @@
         <v>181</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="36" customFormat="1">
-      <c r="A16" s="37" t="s">
+    <row r="16" spans="1:7" s="28" customFormat="1">
+      <c r="A16" s="29" t="s">
         <v>372</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="C16" s="81">
+      <c r="C16" s="72">
         <v>5</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
@@ -6408,29 +6966,29 @@
       <c r="B17" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C17" s="39">
+      <c r="C17" s="31">
         <v>3</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="36" customFormat="1">
-      <c r="A18" s="37" t="s">
+    <row r="18" spans="1:7" s="28" customFormat="1">
+      <c r="A18" s="29" t="s">
         <v>374</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="C18" s="81">
+      <c r="C18" s="72">
         <v>3</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="29" t="s">
         <v>375</v>
       </c>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37" t="s">
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29" t="s">
         <v>182</v>
       </c>
     </row>
@@ -6454,7 +7012,7 @@
   <cols>
     <col min="1" max="1" width="17.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="22.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="31" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" style="2" customWidth="1"/>
@@ -6470,7 +7028,7 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -6486,22 +7044,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="36" customFormat="1">
-      <c r="A2" s="82" t="s">
+    <row r="2" spans="1:7" s="28" customFormat="1">
+      <c r="A2" s="73" t="s">
         <v>376</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="73" t="s">
         <v>183</v>
       </c>
-      <c r="C2" s="83">
+      <c r="C2" s="74">
         <v>4</v>
       </c>
-      <c r="D2" s="82" t="s">
+      <c r="D2" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
     </row>
     <row r="3" spans="1:7" s="2" customFormat="1">
       <c r="A3" s="2" t="s">
@@ -6510,24 +7068,24 @@
       <c r="B3" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C3" s="39">
+      <c r="C3" s="31">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="37" customFormat="1">
-      <c r="A4" s="37" t="s">
+    <row r="4" spans="1:7" s="29" customFormat="1">
+      <c r="A4" s="29" t="s">
         <v>378</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="C4" s="81">
+      <c r="C4" s="72">
         <v>1</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="29" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6538,24 +7096,24 @@
       <c r="B5" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C5" s="39">
+      <c r="C5" s="31">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="37" customFormat="1">
-      <c r="A6" s="37" t="s">
+    <row r="6" spans="1:7" s="29" customFormat="1">
+      <c r="A6" s="29" t="s">
         <v>380</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="C6" s="81">
+      <c r="C6" s="72">
         <v>2</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="29" t="s">
         <v>81</v>
       </c>
     </row>
@@ -6566,24 +7124,24 @@
       <c r="B7" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7" s="31">
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="37" customFormat="1">
-      <c r="A8" s="37" t="s">
+    <row r="8" spans="1:7" s="29" customFormat="1">
+      <c r="A8" s="29" t="s">
         <v>382</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="C8" s="81">
+      <c r="C8" s="72">
         <v>3</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="29" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6594,24 +7152,24 @@
       <c r="B9" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C9" s="39">
+      <c r="C9" s="31">
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="37" customFormat="1">
-      <c r="A10" s="37" t="s">
+    <row r="10" spans="1:7" s="29" customFormat="1">
+      <c r="A10" s="29" t="s">
         <v>384</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="81">
+      <c r="C10" s="72">
         <v>5</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="29" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6622,24 +7180,24 @@
       <c r="B11" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C11" s="39">
+      <c r="C11" s="31">
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="37" customFormat="1">
-      <c r="A12" s="37" t="s">
+    <row r="12" spans="1:7" s="29" customFormat="1">
+      <c r="A12" s="29" t="s">
         <v>386</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="29" t="s">
         <v>496</v>
       </c>
-      <c r="C12" s="81">
+      <c r="C12" s="72">
         <v>2</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="29" t="s">
         <v>82</v>
       </c>
     </row>
@@ -6650,24 +7208,24 @@
       <c r="B13" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="C13" s="39">
+      <c r="C13" s="31">
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="37" customFormat="1">
-      <c r="A14" s="37" t="s">
+    <row r="14" spans="1:7" s="29" customFormat="1">
+      <c r="A14" s="29" t="s">
         <v>503</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="29" t="s">
         <v>502</v>
       </c>
-      <c r="C14" s="81">
+      <c r="C14" s="72">
         <v>2</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="29" t="s">
         <v>82</v>
       </c>
     </row>
@@ -6678,24 +7236,24 @@
       <c r="B15" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="C15" s="39">
+      <c r="C15" s="31">
         <v>2</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="37" customFormat="1">
-      <c r="A16" s="37" t="s">
+    <row r="16" spans="1:7" s="29" customFormat="1">
+      <c r="A16" s="29" t="s">
         <v>501</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="29" t="s">
         <v>497</v>
       </c>
-      <c r="C16" s="81">
+      <c r="C16" s="72">
         <v>3</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="29" t="s">
         <v>80</v>
       </c>
     </row>
@@ -6706,31 +7264,31 @@
       <c r="B17" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="C17" s="39">
+      <c r="C17" s="31">
         <v>3</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="37" customFormat="1">
-      <c r="A18" s="37" t="s">
+    <row r="18" spans="1:7" s="29" customFormat="1">
+      <c r="A18" s="29" t="s">
         <v>387</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="C18" s="81">
+      <c r="C18" s="72">
         <v>1</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="29" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="46"/>
+      <c r="C19" s="38"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -6754,221 +7312,221 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="68" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="32" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="32" customWidth="1"/>
-    <col min="4" max="4" width="4" style="32" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="69" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="32" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" style="32" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" style="32" customWidth="1"/>
-    <col min="9" max="16" width="9.140625" style="32" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="32" hidden="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="32" hidden="1"/>
+    <col min="1" max="1" width="5.85546875" style="60" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="4" style="24" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="61" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="24" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" style="24" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" style="24" customWidth="1"/>
+    <col min="9" max="16" width="9.140625" style="24" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="24" hidden="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="24" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="123" t="s">
+      <c r="B1" s="123"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="122" t="s">
         <v>193</v>
       </c>
-      <c r="E1" s="124"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="125" t="s">
+      <c r="E1" s="123"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="124" t="s">
         <v>206</v>
       </c>
-      <c r="H1" s="126"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
     </row>
     <row r="2" spans="1:17" customFormat="1">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="90" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="81" t="s">
         <v>202</v>
       </c>
-      <c r="H2" s="91" t="s">
+      <c r="H2" s="82" t="s">
         <v>203</v>
       </c>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
     </row>
     <row r="3" spans="1:17" customFormat="1">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="87" t="s">
+      <c r="C3" s="24"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="78" t="s">
         <v>200</v>
       </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="90" t="s">
+      <c r="F3" s="24"/>
+      <c r="G3" s="81" t="s">
         <v>204</v>
       </c>
-      <c r="H3" s="91" t="s">
+      <c r="H3" s="82" t="s">
         <v>198</v>
       </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
     </row>
     <row r="4" spans="1:17" customFormat="1">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="50" t="s">
+      <c r="C4" s="24"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="42" t="s">
         <v>194</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="90" t="s">
+      <c r="F4" s="24"/>
+      <c r="G4" s="81" t="s">
         <v>201</v>
       </c>
-      <c r="H4" s="91" t="s">
+      <c r="H4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
     </row>
     <row r="5" spans="1:17" customFormat="1">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="52" t="s">
+      <c r="C5" s="24"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="44" t="s">
         <v>195</v>
       </c>
-      <c r="F5" s="32"/>
-      <c r="G5" s="90" t="s">
+      <c r="F5" s="24"/>
+      <c r="G5" s="81" t="s">
         <v>388</v>
       </c>
-      <c r="H5" s="91" t="s">
+      <c r="H5" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
     </row>
     <row r="6" spans="1:17" customFormat="1">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="54" t="s">
+      <c r="C6" s="24"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="46" t="s">
         <v>196</v>
       </c>
-      <c r="F6" s="32"/>
-      <c r="G6" s="90" t="s">
+      <c r="F6" s="24"/>
+      <c r="G6" s="81" t="s">
         <v>389</v>
       </c>
-      <c r="H6" s="91" t="s">
+      <c r="H6" s="82" t="s">
         <v>205</v>
       </c>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="D7" s="55"/>
-      <c r="E7" s="56" t="s">
+      <c r="D7" s="47"/>
+      <c r="E7" s="48" t="s">
         <v>197</v>
       </c>
-      <c r="G7" s="90" t="s">
+      <c r="G7" s="81" t="s">
         <v>207</v>
       </c>
-      <c r="H7" s="91" t="s">
+      <c r="H7" s="82" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="E8" s="32"/>
-      <c r="G8" s="88" t="s">
+      <c r="E8" s="24"/>
+      <c r="G8" s="79" t="s">
         <v>208</v>
       </c>
-      <c r="H8" s="89" t="s">
+      <c r="H8" s="80" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="G9" s="92" t="s">
+      <c r="G9" s="83" t="s">
         <v>210</v>
       </c>
-      <c r="H9" s="93" t="s">
+      <c r="H9" s="84" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="G10" s="94" t="s">
+      <c r="G10" s="85" t="s">
         <v>209</v>
       </c>
-      <c r="H10" s="95" t="s">
+      <c r="H10" s="86" t="s">
         <v>211</v>
       </c>
     </row>

--- a/Planning & Assetlist.xlsx
+++ b/Planning & Assetlist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="8" r:id="rId1"/>
@@ -2275,12 +2275,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
@@ -2443,81 +2437,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2543,15 +2462,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2586,6 +2496,12 @@
     <xf numFmtId="0" fontId="1" fillId="26" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2594,6 +2510,90 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2907,8 +2907,9 @@
   </sheetPr>
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -2923,129 +2924,129 @@
     <col min="10" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="100" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A1" s="113" t="s">
+    <row r="1" spans="1:9" s="98" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A1" s="120" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="95" t="s">
+      <c r="B1" s="121"/>
+      <c r="C1" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="96" t="s">
+      <c r="D1" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="96" t="s">
+      <c r="E1" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="97" t="s">
+      <c r="F1" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="97" t="s">
+      <c r="G1" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="98" t="s">
+      <c r="H1" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="99" t="s">
+      <c r="I1" s="97" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="110" t="s">
+      <c r="C2" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="112"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="139"/>
       <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="107" t="s">
+      <c r="C3" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="109"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="136"/>
     </row>
     <row r="4" spans="1:9" s="18" customFormat="1">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="151" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="152" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="104" t="s">
+      <c r="C4" s="131" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="106"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="132"/>
+      <c r="H4" s="133"/>
       <c r="I4" s="17"/>
     </row>
     <row r="5" spans="1:9" s="11" customFormat="1">
-      <c r="A5" s="141" t="s">
+      <c r="A5" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="149" t="s">
+      <c r="B5" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="150" t="s">
+      <c r="C5" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="151"/>
-      <c r="E5" s="151"/>
-      <c r="F5" s="151"/>
-      <c r="G5" s="151"/>
-      <c r="H5" s="152"/>
-      <c r="I5" s="146" t="s">
+      <c r="D5" s="123"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="123"/>
+      <c r="H5" s="124"/>
+      <c r="I5" s="116" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="11" customFormat="1">
-      <c r="A6" s="141"/>
-      <c r="B6" s="149"/>
-      <c r="C6" s="150" t="s">
+      <c r="A6" s="111"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="122" t="s">
         <v>533</v>
       </c>
-      <c r="D6" s="151"/>
-      <c r="E6" s="151"/>
-      <c r="F6" s="151"/>
-      <c r="G6" s="151"/>
-      <c r="H6" s="152"/>
-      <c r="I6" s="146"/>
-    </row>
-    <row r="7" spans="1:9" s="131" customFormat="1">
-      <c r="A7" s="126" t="s">
+      <c r="D6" s="123"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="123"/>
+      <c r="H6" s="124"/>
+      <c r="I6" s="116"/>
+    </row>
+    <row r="7" spans="1:9" s="104" customFormat="1">
+      <c r="A7" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="127" t="s">
+      <c r="B7" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="128"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="129"/>
-      <c r="H7" s="126"/>
-      <c r="I7" s="130" t="s">
+      <c r="C7" s="101"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="103" t="s">
         <v>534</v>
       </c>
     </row>
@@ -3121,108 +3122,108 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="147" t="s">
+      <c r="A15" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="148" t="s">
+      <c r="B15" s="118" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="133" t="s">
+      <c r="C15" s="106" t="s">
         <v>215</v>
       </c>
-      <c r="D15" s="134" t="s">
+      <c r="D15" s="107" t="s">
         <v>303</v>
       </c>
-      <c r="E15" s="134" t="s">
+      <c r="E15" s="107" t="s">
         <v>418</v>
       </c>
-      <c r="F15" s="138" t="s">
+      <c r="F15" s="108" t="s">
         <v>480</v>
       </c>
-      <c r="G15" s="138" t="s">
+      <c r="G15" s="108" t="s">
         <v>482</v>
       </c>
-      <c r="H15" s="145" t="s">
+      <c r="H15" s="115" t="s">
         <v>473</v>
       </c>
-      <c r="I15" s="132"/>
+      <c r="I15" s="105"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="147"/>
-      <c r="B16" s="148"/>
-      <c r="C16" s="133" t="s">
+      <c r="A16" s="117"/>
+      <c r="B16" s="118"/>
+      <c r="C16" s="106" t="s">
         <v>199</v>
       </c>
-      <c r="D16" s="134" t="s">
+      <c r="D16" s="107" t="s">
         <v>261</v>
       </c>
-      <c r="E16" s="134" t="s">
+      <c r="E16" s="107" t="s">
         <v>420</v>
       </c>
-      <c r="F16" s="138"/>
-      <c r="G16" s="138"/>
-      <c r="H16" s="145" t="s">
+      <c r="F16" s="108"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="115" t="s">
         <v>478</v>
       </c>
-      <c r="I16" s="132"/>
+      <c r="I16" s="105"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="147"/>
-      <c r="B17" s="148"/>
-      <c r="C17" s="133" t="s">
+      <c r="A17" s="117"/>
+      <c r="B17" s="118"/>
+      <c r="C17" s="106" t="s">
         <v>258</v>
       </c>
-      <c r="D17" s="134" t="s">
+      <c r="D17" s="107" t="s">
         <v>393</v>
       </c>
-      <c r="E17" s="134" t="s">
+      <c r="E17" s="107" t="s">
         <v>422</v>
       </c>
-      <c r="F17" s="138"/>
-      <c r="G17" s="138"/>
-      <c r="H17" s="145"/>
-      <c r="I17" s="132"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="108"/>
+      <c r="H17" s="115"/>
+      <c r="I17" s="105"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="147"/>
-      <c r="B18" s="148"/>
-      <c r="C18" s="133"/>
-      <c r="D18" s="134" t="s">
+      <c r="A18" s="117"/>
+      <c r="B18" s="118"/>
+      <c r="C18" s="106"/>
+      <c r="D18" s="107" t="s">
         <v>402</v>
       </c>
-      <c r="E18" s="134" t="s">
+      <c r="E18" s="107" t="s">
         <v>544</v>
       </c>
-      <c r="F18" s="138"/>
-      <c r="G18" s="138"/>
-      <c r="H18" s="145"/>
-      <c r="I18" s="132"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="108"/>
+      <c r="H18" s="115"/>
+      <c r="I18" s="105"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="147"/>
-      <c r="B19" s="148"/>
-      <c r="C19" s="133"/>
-      <c r="D19" s="134"/>
-      <c r="E19" s="134" t="s">
+      <c r="A19" s="117"/>
+      <c r="B19" s="118"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="107" t="s">
         <v>545</v>
       </c>
-      <c r="F19" s="138"/>
-      <c r="G19" s="138"/>
-      <c r="H19" s="145"/>
-      <c r="I19" s="132"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="105"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="147"/>
-      <c r="B20" s="148"/>
-      <c r="C20" s="133"/>
-      <c r="D20" s="134"/>
-      <c r="E20" s="134" t="s">
+      <c r="A20" s="117"/>
+      <c r="B20" s="118"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="107" t="s">
         <v>546</v>
       </c>
-      <c r="F20" s="138"/>
-      <c r="G20" s="138"/>
-      <c r="H20" s="145"/>
-      <c r="I20" s="132"/>
+      <c r="F20" s="108"/>
+      <c r="G20" s="108"/>
+      <c r="H20" s="115"/>
+      <c r="I20" s="105"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="12" t="s">
@@ -3246,7 +3247,7 @@
       <c r="G21" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="H21" s="35" t="s">
+      <c r="H21" s="33" t="s">
         <v>489</v>
       </c>
     </row>
@@ -3295,101 +3296,101 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="147" t="s">
+      <c r="A29" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="148" t="s">
+      <c r="B29" s="118" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="133" t="s">
+      <c r="C29" s="106" t="s">
         <v>390</v>
       </c>
-      <c r="D29" s="134" t="s">
+      <c r="D29" s="107" t="s">
         <v>217</v>
       </c>
-      <c r="E29" s="134" t="s">
+      <c r="E29" s="107" t="s">
         <v>232</v>
       </c>
-      <c r="F29" s="144" t="s">
+      <c r="F29" s="114" t="s">
         <v>483</v>
       </c>
-      <c r="G29" s="138" t="s">
+      <c r="G29" s="108" t="s">
         <v>484</v>
       </c>
-      <c r="H29" s="145" t="s">
+      <c r="H29" s="115" t="s">
         <v>540</v>
       </c>
       <c r="I29" s="14"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="147"/>
-      <c r="B30" s="148"/>
-      <c r="C30" s="133" t="s">
+      <c r="A30" s="117"/>
+      <c r="B30" s="118"/>
+      <c r="C30" s="106" t="s">
         <v>399</v>
       </c>
-      <c r="D30" s="134" t="s">
+      <c r="D30" s="107" t="s">
         <v>302</v>
       </c>
-      <c r="E30" s="134" t="s">
+      <c r="E30" s="107" t="s">
         <v>317</v>
       </c>
-      <c r="F30" s="138"/>
-      <c r="G30" s="138"/>
-      <c r="H30" s="145"/>
+      <c r="F30" s="108"/>
+      <c r="G30" s="108"/>
+      <c r="H30" s="115"/>
       <c r="I30" s="14"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="147"/>
-      <c r="B31" s="148"/>
-      <c r="C31" s="133"/>
-      <c r="D31" s="134" t="s">
+      <c r="A31" s="117"/>
+      <c r="B31" s="118"/>
+      <c r="C31" s="106"/>
+      <c r="D31" s="107" t="s">
         <v>260</v>
       </c>
-      <c r="E31" s="134" t="s">
+      <c r="E31" s="107" t="s">
         <v>275</v>
       </c>
-      <c r="F31" s="138"/>
-      <c r="G31" s="138"/>
-      <c r="H31" s="145"/>
+      <c r="F31" s="108"/>
+      <c r="G31" s="108"/>
+      <c r="H31" s="115"/>
       <c r="I31" s="14"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="147"/>
-      <c r="B32" s="148"/>
-      <c r="C32" s="133"/>
-      <c r="D32" s="134" t="s">
+      <c r="A32" s="117"/>
+      <c r="B32" s="118"/>
+      <c r="C32" s="106"/>
+      <c r="D32" s="107" t="s">
         <v>392</v>
       </c>
-      <c r="E32" s="134" t="s">
+      <c r="E32" s="107" t="s">
         <v>550</v>
       </c>
-      <c r="F32" s="138"/>
-      <c r="G32" s="138"/>
-      <c r="H32" s="145"/>
+      <c r="F32" s="108"/>
+      <c r="G32" s="108"/>
+      <c r="H32" s="115"/>
       <c r="I32" s="14"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="147"/>
-      <c r="B33" s="148"/>
-      <c r="C33" s="133"/>
-      <c r="D33" s="134" t="s">
+      <c r="A33" s="117"/>
+      <c r="B33" s="118"/>
+      <c r="C33" s="106"/>
+      <c r="D33" s="107" t="s">
         <v>401</v>
       </c>
-      <c r="E33" s="134"/>
-      <c r="F33" s="138"/>
-      <c r="G33" s="138"/>
-      <c r="H33" s="145"/>
+      <c r="E33" s="107"/>
+      <c r="F33" s="108"/>
+      <c r="G33" s="108"/>
+      <c r="H33" s="115"/>
       <c r="I33" s="14"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="147"/>
-      <c r="B34" s="148"/>
-      <c r="C34" s="133"/>
-      <c r="D34" s="134"/>
-      <c r="E34" s="134"/>
-      <c r="F34" s="138"/>
-      <c r="G34" s="138"/>
-      <c r="H34" s="145"/>
+      <c r="A34" s="117"/>
+      <c r="B34" s="118"/>
+      <c r="C34" s="106"/>
+      <c r="D34" s="107"/>
+      <c r="E34" s="107"/>
+      <c r="F34" s="108"/>
+      <c r="G34" s="108"/>
+      <c r="H34" s="115"/>
       <c r="I34" s="14"/>
     </row>
     <row r="35" spans="1:9">
@@ -3405,7 +3406,7 @@
       <c r="E35" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="G35" s="35" t="s">
+      <c r="G35" s="33" t="s">
         <v>481</v>
       </c>
       <c r="H35" s="8"/>
@@ -3415,95 +3416,95 @@
         <v>401</v>
       </c>
       <c r="E36" s="6"/>
-      <c r="F36" s="101" t="s">
+      <c r="F36" s="128" t="s">
         <v>541</v>
       </c>
-      <c r="G36" s="102"/>
-      <c r="H36" s="103"/>
+      <c r="G36" s="129"/>
+      <c r="H36" s="130"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="C37" s="136" t="s">
+      <c r="C37" s="125" t="s">
         <v>551</v>
       </c>
-      <c r="D37" s="137"/>
-      <c r="E37" s="135"/>
-      <c r="F37" s="101" t="s">
+      <c r="D37" s="126"/>
+      <c r="E37" s="127"/>
+      <c r="F37" s="128" t="s">
         <v>551</v>
       </c>
-      <c r="G37" s="102"/>
-      <c r="H37" s="103"/>
+      <c r="G37" s="129"/>
+      <c r="H37" s="130"/>
     </row>
     <row r="38" spans="1:9" s="11" customFormat="1">
-      <c r="A38" s="141" t="s">
+      <c r="A38" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="B38" s="149" t="s">
+      <c r="B38" s="119" t="s">
         <v>49</v>
       </c>
-      <c r="C38" s="139"/>
-      <c r="D38" s="140"/>
-      <c r="E38" s="140"/>
-      <c r="F38" s="142"/>
-      <c r="G38" s="142"/>
-      <c r="H38" s="143"/>
-      <c r="I38" s="146" t="s">
+      <c r="C38" s="109"/>
+      <c r="D38" s="110"/>
+      <c r="E38" s="110"/>
+      <c r="F38" s="112"/>
+      <c r="G38" s="112"/>
+      <c r="H38" s="113"/>
+      <c r="I38" s="116" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="11" customFormat="1">
-      <c r="A39" s="141"/>
-      <c r="B39" s="149"/>
-      <c r="C39" s="139"/>
-      <c r="D39" s="140"/>
-      <c r="E39" s="140"/>
-      <c r="F39" s="142"/>
-      <c r="G39" s="142"/>
-      <c r="H39" s="143"/>
-      <c r="I39" s="146"/>
+      <c r="A39" s="111"/>
+      <c r="B39" s="119"/>
+      <c r="C39" s="109"/>
+      <c r="D39" s="110"/>
+      <c r="E39" s="110"/>
+      <c r="F39" s="112"/>
+      <c r="G39" s="112"/>
+      <c r="H39" s="113"/>
+      <c r="I39" s="116"/>
     </row>
     <row r="40" spans="1:9" s="11" customFormat="1">
-      <c r="A40" s="141"/>
-      <c r="B40" s="149"/>
-      <c r="C40" s="139"/>
-      <c r="D40" s="140"/>
-      <c r="E40" s="140"/>
-      <c r="F40" s="142"/>
-      <c r="G40" s="142"/>
-      <c r="H40" s="143"/>
-      <c r="I40" s="146"/>
+      <c r="A40" s="111"/>
+      <c r="B40" s="119"/>
+      <c r="C40" s="109"/>
+      <c r="D40" s="110"/>
+      <c r="E40" s="110"/>
+      <c r="F40" s="112"/>
+      <c r="G40" s="112"/>
+      <c r="H40" s="113"/>
+      <c r="I40" s="116"/>
     </row>
     <row r="41" spans="1:9" s="11" customFormat="1">
-      <c r="A41" s="141"/>
-      <c r="B41" s="149"/>
-      <c r="C41" s="139"/>
-      <c r="D41" s="140"/>
-      <c r="E41" s="140"/>
-      <c r="F41" s="142"/>
-      <c r="G41" s="142"/>
-      <c r="H41" s="143"/>
-      <c r="I41" s="146"/>
+      <c r="A41" s="111"/>
+      <c r="B41" s="119"/>
+      <c r="C41" s="109"/>
+      <c r="D41" s="110"/>
+      <c r="E41" s="110"/>
+      <c r="F41" s="112"/>
+      <c r="G41" s="112"/>
+      <c r="H41" s="113"/>
+      <c r="I41" s="116"/>
     </row>
     <row r="42" spans="1:9" s="11" customFormat="1">
-      <c r="A42" s="141"/>
-      <c r="B42" s="149"/>
-      <c r="C42" s="139"/>
-      <c r="D42" s="140"/>
-      <c r="E42" s="140"/>
-      <c r="F42" s="142"/>
-      <c r="G42" s="142"/>
-      <c r="H42" s="143"/>
-      <c r="I42" s="146"/>
+      <c r="A42" s="111"/>
+      <c r="B42" s="119"/>
+      <c r="C42" s="109"/>
+      <c r="D42" s="110"/>
+      <c r="E42" s="110"/>
+      <c r="F42" s="112"/>
+      <c r="G42" s="112"/>
+      <c r="H42" s="113"/>
+      <c r="I42" s="116"/>
     </row>
     <row r="43" spans="1:9" s="11" customFormat="1">
-      <c r="A43" s="141"/>
-      <c r="B43" s="149"/>
-      <c r="C43" s="139"/>
-      <c r="D43" s="140"/>
-      <c r="E43" s="140"/>
-      <c r="F43" s="142"/>
-      <c r="G43" s="142"/>
-      <c r="H43" s="143"/>
-      <c r="I43" s="146"/>
+      <c r="A43" s="111"/>
+      <c r="B43" s="119"/>
+      <c r="C43" s="109"/>
+      <c r="D43" s="110"/>
+      <c r="E43" s="110"/>
+      <c r="F43" s="112"/>
+      <c r="G43" s="112"/>
+      <c r="H43" s="113"/>
+      <c r="I43" s="116"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="12" t="s">
@@ -3514,51 +3515,51 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="147" t="s">
+      <c r="A45" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="B45" s="148" t="s">
+      <c r="B45" s="118" t="s">
         <v>51</v>
       </c>
-      <c r="C45" s="133"/>
-      <c r="D45" s="134"/>
-      <c r="E45" s="134"/>
-      <c r="F45" s="138"/>
-      <c r="G45" s="138"/>
-      <c r="H45" s="145"/>
-      <c r="I45" s="132"/>
-    </row>
-    <row r="46" spans="1:9" s="131" customFormat="1">
-      <c r="A46" s="126" t="s">
+      <c r="C45" s="106"/>
+      <c r="D45" s="107"/>
+      <c r="E45" s="107"/>
+      <c r="F45" s="108"/>
+      <c r="G45" s="108"/>
+      <c r="H45" s="115"/>
+      <c r="I45" s="105"/>
+    </row>
+    <row r="46" spans="1:9" s="104" customFormat="1">
+      <c r="A46" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="127" t="s">
+      <c r="B46" s="100" t="s">
         <v>55</v>
       </c>
-      <c r="C46" s="128"/>
-      <c r="D46" s="129"/>
-      <c r="E46" s="129"/>
-      <c r="F46" s="129"/>
-      <c r="G46" s="129"/>
-      <c r="H46" s="126"/>
-      <c r="I46" s="130" t="s">
+      <c r="C46" s="101"/>
+      <c r="D46" s="102"/>
+      <c r="E46" s="102"/>
+      <c r="F46" s="102"/>
+      <c r="G46" s="102"/>
+      <c r="H46" s="99"/>
+      <c r="I46" s="103" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="147" t="s">
+      <c r="A47" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="B47" s="148" t="s">
+      <c r="B47" s="118" t="s">
         <v>54</v>
       </c>
-      <c r="C47" s="133"/>
-      <c r="D47" s="134"/>
-      <c r="E47" s="134"/>
-      <c r="F47" s="138"/>
-      <c r="G47" s="138"/>
-      <c r="H47" s="145"/>
-      <c r="I47" s="132"/>
+      <c r="C47" s="106"/>
+      <c r="D47" s="107"/>
+      <c r="E47" s="107"/>
+      <c r="F47" s="108"/>
+      <c r="G47" s="108"/>
+      <c r="H47" s="115"/>
+      <c r="I47" s="105"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="12" t="s">
@@ -3569,19 +3570,19 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="147" t="s">
+      <c r="A49" s="117" t="s">
         <v>24</v>
       </c>
-      <c r="B49" s="148" t="s">
+      <c r="B49" s="118" t="s">
         <v>52</v>
       </c>
-      <c r="C49" s="133"/>
-      <c r="D49" s="134"/>
-      <c r="E49" s="134"/>
-      <c r="F49" s="138"/>
-      <c r="G49" s="138"/>
-      <c r="H49" s="145"/>
-      <c r="I49" s="132"/>
+      <c r="C49" s="106"/>
+      <c r="D49" s="107"/>
+      <c r="E49" s="107"/>
+      <c r="F49" s="108"/>
+      <c r="G49" s="108"/>
+      <c r="H49" s="115"/>
+      <c r="I49" s="105"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="12" t="s">
@@ -3592,19 +3593,19 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="147" t="s">
+      <c r="A51" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="B51" s="148" t="s">
+      <c r="B51" s="118" t="s">
         <v>57</v>
       </c>
-      <c r="C51" s="133"/>
-      <c r="D51" s="134"/>
-      <c r="E51" s="134"/>
-      <c r="F51" s="138"/>
-      <c r="G51" s="138"/>
-      <c r="H51" s="145"/>
-      <c r="I51" s="132"/>
+      <c r="C51" s="106"/>
+      <c r="D51" s="107"/>
+      <c r="E51" s="107"/>
+      <c r="F51" s="108"/>
+      <c r="G51" s="108"/>
+      <c r="H51" s="115"/>
+      <c r="I51" s="105"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="12" t="s">
@@ -3615,34 +3616,34 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="147" t="s">
+      <c r="A53" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="B53" s="148" t="s">
+      <c r="B53" s="118" t="s">
         <v>59</v>
       </c>
-      <c r="C53" s="133"/>
-      <c r="D53" s="134"/>
-      <c r="E53" s="134"/>
-      <c r="F53" s="138"/>
-      <c r="G53" s="138"/>
-      <c r="H53" s="145"/>
-      <c r="I53" s="132"/>
+      <c r="C53" s="106"/>
+      <c r="D53" s="107"/>
+      <c r="E53" s="107"/>
+      <c r="F53" s="108"/>
+      <c r="G53" s="108"/>
+      <c r="H53" s="115"/>
+      <c r="I53" s="105"/>
     </row>
     <row r="54" spans="1:9" s="11" customFormat="1">
-      <c r="A54" s="141" t="s">
+      <c r="A54" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="B54" s="149" t="s">
+      <c r="B54" s="119" t="s">
         <v>60</v>
       </c>
-      <c r="C54" s="139"/>
-      <c r="D54" s="140"/>
-      <c r="E54" s="140"/>
-      <c r="F54" s="142"/>
-      <c r="G54" s="142"/>
-      <c r="H54" s="143"/>
-      <c r="I54" s="146" t="s">
+      <c r="C54" s="109"/>
+      <c r="D54" s="110"/>
+      <c r="E54" s="110"/>
+      <c r="F54" s="112"/>
+      <c r="G54" s="112"/>
+      <c r="H54" s="113"/>
+      <c r="I54" s="116" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3670,8 +3671,9 @@
   </sheetPr>
   <dimension ref="A1:N77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -3682,7 +3684,7 @@
     <col min="4" max="4" width="14.85546875" style="16" customWidth="1"/>
     <col min="5" max="5" width="16.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="14.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" style="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" style="30" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.7109375" style="16" customWidth="1"/>
@@ -3713,7 +3715,7 @@
       <c r="G1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="28" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -3729,185 +3731,185 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="23" customFormat="1">
-      <c r="A2" s="64" t="s">
+    <row r="2" spans="1:12" s="21" customFormat="1">
+      <c r="A2" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="62" t="s">
         <v>390</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="62" t="s">
         <v>399</v>
       </c>
-      <c r="E2" s="65" t="s">
+      <c r="E2" s="63" t="s">
         <v>137</v>
       </c>
-      <c r="F2" s="64" t="s">
+      <c r="F2" s="62" t="s">
         <v>199</v>
       </c>
-      <c r="G2" s="64" t="s">
+      <c r="G2" s="62" t="s">
         <v>258</v>
       </c>
-      <c r="H2" s="66">
+      <c r="H2" s="64">
         <v>1</v>
       </c>
-      <c r="I2" s="65" t="s">
+      <c r="I2" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="J2" s="65"/>
-      <c r="K2" s="68" t="s">
+      <c r="J2" s="63"/>
+      <c r="K2" s="66" t="s">
         <v>200</v>
       </c>
-      <c r="L2" s="115" t="s">
+      <c r="L2" s="140" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="23" customFormat="1">
-      <c r="A3" s="87"/>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="65" t="s">
+    <row r="3" spans="1:12" s="21" customFormat="1">
+      <c r="A3" s="85"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="63" t="s">
         <v>135</v>
       </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="116"/>
-    </row>
-    <row r="4" spans="1:12" s="23" customFormat="1">
-      <c r="A4" s="87"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="65" t="s">
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="141"/>
+    </row>
+    <row r="4" spans="1:12" s="21" customFormat="1">
+      <c r="A4" s="85"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="116"/>
-    </row>
-    <row r="5" spans="1:12" s="23" customFormat="1">
-      <c r="A5" s="87"/>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="62" t="s">
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="141"/>
+    </row>
+    <row r="5" spans="1:12" s="21" customFormat="1">
+      <c r="A5" s="85"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="116"/>
-    </row>
-    <row r="6" spans="1:12" s="23" customFormat="1">
-      <c r="A6" s="87"/>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="62" t="s">
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="141"/>
+    </row>
+    <row r="6" spans="1:12" s="21" customFormat="1">
+      <c r="A6" s="85"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="60" t="s">
         <v>141</v>
       </c>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="116"/>
-    </row>
-    <row r="7" spans="1:12" s="23" customFormat="1">
-      <c r="A7" s="87"/>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="62" t="s">
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="141"/>
+    </row>
+    <row r="7" spans="1:12" s="21" customFormat="1">
+      <c r="A7" s="85"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="87"/>
-      <c r="L7" s="116"/>
-    </row>
-    <row r="8" spans="1:12" s="23" customFormat="1">
-      <c r="A8" s="87"/>
-      <c r="B8" s="87"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="62" t="s">
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="141"/>
+    </row>
+    <row r="8" spans="1:12" s="21" customFormat="1">
+      <c r="A8" s="85"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="60" t="s">
         <v>139</v>
       </c>
-      <c r="F8" s="87"/>
-      <c r="G8" s="87"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="87"/>
-      <c r="J8" s="87"/>
-      <c r="K8" s="87"/>
-      <c r="L8" s="116"/>
-    </row>
-    <row r="9" spans="1:12" s="23" customFormat="1">
-      <c r="A9" s="87"/>
-      <c r="B9" s="87"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="62" t="s">
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="141"/>
+    </row>
+    <row r="9" spans="1:12" s="21" customFormat="1">
+      <c r="A9" s="85"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="87"/>
-      <c r="K9" s="87"/>
-      <c r="L9" s="116"/>
-    </row>
-    <row r="10" spans="1:12" s="23" customFormat="1">
-      <c r="A10" s="87"/>
-      <c r="B10" s="87"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="62" t="s">
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="141"/>
+    </row>
+    <row r="10" spans="1:12" s="21" customFormat="1">
+      <c r="A10" s="85"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="116"/>
-    </row>
-    <row r="11" spans="1:12" s="23" customFormat="1">
-      <c r="A11" s="87"/>
-      <c r="B11" s="87"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="67" t="s">
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="141"/>
+    </row>
+    <row r="11" spans="1:12" s="21" customFormat="1">
+      <c r="A11" s="85"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="117"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="142"/>
     </row>
     <row r="12" spans="1:12" s="2" customFormat="1">
       <c r="A12" s="2" t="s">
@@ -3931,129 +3933,129 @@
       <c r="G12" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="H12" s="32">
+      <c r="H12" s="30">
         <v>2</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>71</v>
       </c>
       <c r="K12" s="16"/>
-      <c r="L12" s="118" t="s">
+      <c r="L12" s="143" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="21" customFormat="1">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
+    <row r="13" spans="1:12" s="19" customFormat="1">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
       <c r="E13" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="119"/>
-    </row>
-    <row r="14" spans="1:12" s="62" customFormat="1">
-      <c r="A14" s="62" t="s">
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="144"/>
+    </row>
+    <row r="14" spans="1:12" s="60" customFormat="1">
+      <c r="A14" s="60" t="s">
         <v>217</v>
       </c>
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="62" t="s">
+      <c r="C14" s="60" t="s">
         <v>392</v>
       </c>
-      <c r="D14" s="62" t="s">
+      <c r="D14" s="60" t="s">
         <v>401</v>
       </c>
-      <c r="E14" s="62" t="s">
+      <c r="E14" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="F14" s="62" t="s">
+      <c r="F14" s="60" t="s">
         <v>302</v>
       </c>
-      <c r="G14" s="62" t="s">
+      <c r="G14" s="60" t="s">
         <v>260</v>
       </c>
-      <c r="H14" s="63">
+      <c r="H14" s="61">
         <v>1</v>
       </c>
-      <c r="I14" s="62" t="s">
+      <c r="I14" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="K14" s="68" t="s">
+      <c r="K14" s="66" t="s">
         <v>200</v>
       </c>
-      <c r="L14" s="120"/>
-    </row>
-    <row r="15" spans="1:12" s="23" customFormat="1">
-      <c r="A15" s="87"/>
-      <c r="B15" s="87"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="65" t="s">
+      <c r="L14" s="145"/>
+    </row>
+    <row r="15" spans="1:12" s="21" customFormat="1">
+      <c r="A15" s="85"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="87"/>
-      <c r="L15" s="116"/>
-    </row>
-    <row r="16" spans="1:12" s="23" customFormat="1">
-      <c r="A16" s="87"/>
-      <c r="B16" s="87"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="62" t="s">
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="141"/>
+    </row>
+    <row r="16" spans="1:12" s="21" customFormat="1">
+      <c r="A16" s="85"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="60" t="s">
         <v>146</v>
       </c>
-      <c r="F16" s="87"/>
-      <c r="G16" s="87"/>
-      <c r="H16" s="87"/>
-      <c r="I16" s="87"/>
-      <c r="J16" s="87"/>
-      <c r="K16" s="87"/>
-      <c r="L16" s="116"/>
-    </row>
-    <row r="17" spans="1:12" s="23" customFormat="1">
-      <c r="A17" s="87"/>
-      <c r="B17" s="87"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="62" t="s">
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="85"/>
+      <c r="J16" s="85"/>
+      <c r="K16" s="85"/>
+      <c r="L16" s="141"/>
+    </row>
+    <row r="17" spans="1:12" s="21" customFormat="1">
+      <c r="A17" s="85"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="116"/>
-    </row>
-    <row r="18" spans="1:12" s="23" customFormat="1">
-      <c r="A18" s="87"/>
-      <c r="B18" s="87"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="67" t="s">
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="85"/>
+      <c r="L17" s="141"/>
+    </row>
+    <row r="18" spans="1:12" s="21" customFormat="1">
+      <c r="A18" s="85"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="87"/>
-      <c r="L18" s="117"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="85"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="85"/>
+      <c r="L18" s="142"/>
     </row>
     <row r="19" spans="1:12" s="2" customFormat="1">
       <c r="A19" s="2" t="s">
@@ -4077,7 +4079,7 @@
       <c r="G19" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="H19" s="32">
+      <c r="H19" s="30">
         <v>2</v>
       </c>
       <c r="I19" s="2" t="s">
@@ -4086,134 +4088,134 @@
       <c r="K19" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="L19" s="118"/>
+      <c r="L19" s="143"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
       <c r="E20" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="119"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="144"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
       <c r="E21" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="119"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="144"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="25" t="s">
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="121"/>
-    </row>
-    <row r="23" spans="1:12" s="62" customFormat="1">
-      <c r="A23" s="62" t="s">
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="146"/>
+    </row>
+    <row r="23" spans="1:12" s="60" customFormat="1">
+      <c r="A23" s="60" t="s">
         <v>219</v>
       </c>
-      <c r="B23" s="62" t="s">
+      <c r="B23" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="62" t="s">
+      <c r="C23" s="60" t="s">
         <v>394</v>
       </c>
-      <c r="D23" s="62" t="s">
+      <c r="D23" s="60" t="s">
         <v>403</v>
       </c>
-      <c r="E23" s="62" t="s">
+      <c r="E23" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="F23" s="62" t="s">
+      <c r="F23" s="60" t="s">
         <v>304</v>
       </c>
-      <c r="G23" s="62" t="s">
+      <c r="G23" s="60" t="s">
         <v>262</v>
       </c>
-      <c r="H23" s="63">
+      <c r="H23" s="61">
         <v>5</v>
       </c>
-      <c r="I23" s="62" t="s">
+      <c r="I23" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="K23" s="68"/>
-      <c r="L23" s="120"/>
-    </row>
-    <row r="24" spans="1:12" s="23" customFormat="1">
-      <c r="A24" s="87"/>
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="65" t="s">
+      <c r="K23" s="66"/>
+      <c r="L23" s="145"/>
+    </row>
+    <row r="24" spans="1:12" s="21" customFormat="1">
+      <c r="A24" s="85"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
-      <c r="K24" s="87"/>
-      <c r="L24" s="116"/>
-    </row>
-    <row r="25" spans="1:12" s="23" customFormat="1">
-      <c r="A25" s="87"/>
-      <c r="B25" s="87"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="62" t="s">
+      <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="85"/>
+      <c r="I24" s="85"/>
+      <c r="J24" s="85"/>
+      <c r="K24" s="85"/>
+      <c r="L24" s="141"/>
+    </row>
+    <row r="25" spans="1:12" s="21" customFormat="1">
+      <c r="A25" s="85"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="F25" s="87"/>
-      <c r="G25" s="87"/>
-      <c r="H25" s="87"/>
-      <c r="I25" s="87"/>
-      <c r="J25" s="87"/>
-      <c r="K25" s="87"/>
-      <c r="L25" s="116"/>
-    </row>
-    <row r="26" spans="1:12" s="23" customFormat="1">
-      <c r="A26" s="87"/>
-      <c r="B26" s="87"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="62" t="s">
+      <c r="F25" s="85"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="85"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="85"/>
+      <c r="L25" s="141"/>
+    </row>
+    <row r="26" spans="1:12" s="21" customFormat="1">
+      <c r="A26" s="85"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="85"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="F26" s="87"/>
-      <c r="G26" s="87"/>
-      <c r="H26" s="87"/>
-      <c r="I26" s="87"/>
-      <c r="J26" s="87"/>
-      <c r="K26" s="87"/>
-      <c r="L26" s="117"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="85"/>
+      <c r="I26" s="85"/>
+      <c r="J26" s="85"/>
+      <c r="K26" s="85"/>
+      <c r="L26" s="142"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="2" t="s">
@@ -4237,46 +4239,46 @@
       <c r="G27" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="H27" s="32">
+      <c r="H27" s="30">
         <v>1</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="23" customFormat="1">
-      <c r="A28" s="62" t="s">
+    <row r="28" spans="1:12" s="21" customFormat="1">
+      <c r="A28" s="60" t="s">
         <v>221</v>
       </c>
-      <c r="B28" s="62" t="s">
+      <c r="B28" s="60" t="s">
         <v>404</v>
       </c>
-      <c r="C28" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="E28" s="62" t="s">
-        <v>68</v>
-      </c>
-      <c r="F28" s="62" t="s">
+      <c r="C28" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" s="60" t="s">
         <v>306</v>
       </c>
-      <c r="G28" s="62" t="s">
+      <c r="G28" s="60" t="s">
         <v>264</v>
       </c>
-      <c r="H28" s="63">
+      <c r="H28" s="61">
         <v>1</v>
       </c>
-      <c r="I28" s="62" t="s">
+      <c r="I28" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="J28" s="62"/>
-      <c r="K28" s="68" t="s">
+      <c r="J28" s="60"/>
+      <c r="K28" s="66" t="s">
         <v>543</v>
       </c>
-      <c r="L28" s="62"/>
+      <c r="L28" s="60"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="2" t="s">
@@ -4300,49 +4302,49 @@
       <c r="G29" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="H29" s="32">
+      <c r="H29" s="30">
         <v>4</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K29" s="92" t="s">
+      <c r="K29" s="90" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="23" customFormat="1">
-      <c r="A30" s="62" t="s">
+    <row r="30" spans="1:12" s="21" customFormat="1">
+      <c r="A30" s="60" t="s">
         <v>406</v>
       </c>
-      <c r="B30" s="62" t="s">
+      <c r="B30" s="60" t="s">
         <v>409</v>
       </c>
-      <c r="C30" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="E30" s="62" t="s">
-        <v>68</v>
-      </c>
-      <c r="F30" s="62" t="s">
+      <c r="C30" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" s="60" t="s">
         <v>410</v>
       </c>
-      <c r="G30" s="62" t="s">
+      <c r="G30" s="60" t="s">
         <v>412</v>
       </c>
-      <c r="H30" s="63">
+      <c r="H30" s="61">
         <v>5</v>
       </c>
-      <c r="I30" s="62" t="s">
+      <c r="I30" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="J30" s="62"/>
-      <c r="K30" s="68" t="s">
+      <c r="J30" s="60"/>
+      <c r="K30" s="66" t="s">
         <v>543</v>
       </c>
-      <c r="L30" s="62"/>
+      <c r="L30" s="60"/>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="2" t="s">
@@ -4366,7 +4368,7 @@
       <c r="G31" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="H31" s="32">
+      <c r="H31" s="30">
         <v>1</v>
       </c>
       <c r="I31" s="2" t="s">
@@ -4376,39 +4378,39 @@
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="23" customFormat="1">
-      <c r="A32" s="62" t="s">
+    <row r="32" spans="1:12" s="21" customFormat="1">
+      <c r="A32" s="60" t="s">
         <v>417</v>
       </c>
-      <c r="B32" s="62" t="s">
+      <c r="B32" s="60" t="s">
         <v>415</v>
       </c>
-      <c r="C32" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="D32" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="E32" s="62" t="s">
-        <v>68</v>
-      </c>
-      <c r="F32" s="62" t="s">
+      <c r="C32" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="F32" s="60" t="s">
         <v>419</v>
       </c>
-      <c r="G32" s="62" t="s">
+      <c r="G32" s="60" t="s">
         <v>421</v>
       </c>
-      <c r="H32" s="63">
+      <c r="H32" s="61">
         <v>2</v>
       </c>
-      <c r="I32" s="62" t="s">
+      <c r="I32" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="J32" s="62"/>
-      <c r="K32" s="68" t="s">
+      <c r="J32" s="60"/>
+      <c r="K32" s="66" t="s">
         <v>200</v>
       </c>
-      <c r="L32" s="62"/>
+      <c r="L32" s="60"/>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="2" t="s">
@@ -4426,13 +4428,13 @@
       <c r="E33" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F33" s="89" t="s">
+      <c r="F33" s="87" t="s">
         <v>420</v>
       </c>
-      <c r="G33" s="89" t="s">
+      <c r="G33" s="87" t="s">
         <v>422</v>
       </c>
-      <c r="H33" s="32">
+      <c r="H33" s="30">
         <v>3</v>
       </c>
       <c r="I33" s="2" t="s">
@@ -4442,39 +4444,39 @@
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="1:12" s="23" customFormat="1">
-      <c r="A34" s="62" t="s">
+    <row r="34" spans="1:12" s="21" customFormat="1">
+      <c r="A34" s="60" t="s">
         <v>544</v>
       </c>
-      <c r="B34" s="68" t="s">
+      <c r="B34" s="66" t="s">
         <v>553</v>
       </c>
-      <c r="C34" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="D34" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="E34" s="62" t="s">
-        <v>68</v>
-      </c>
-      <c r="F34" s="62" t="s">
+      <c r="C34" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="F34" s="60" t="s">
         <v>545</v>
       </c>
-      <c r="G34" s="62" t="s">
+      <c r="G34" s="60" t="s">
         <v>546</v>
       </c>
-      <c r="H34" s="63">
+      <c r="H34" s="61">
         <v>3</v>
       </c>
-      <c r="I34" s="62" t="s">
+      <c r="I34" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="J34" s="62"/>
-      <c r="K34" s="68" t="s">
+      <c r="J34" s="60"/>
+      <c r="K34" s="66" t="s">
         <v>200</v>
       </c>
-      <c r="L34" s="62"/>
+      <c r="L34" s="60"/>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="2" t="s">
@@ -4498,44 +4500,44 @@
       <c r="G35" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="H35" s="32">
+      <c r="H35" s="30">
         <v>1</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:12" s="23" customFormat="1">
-      <c r="A36" s="62" t="s">
+    <row r="36" spans="1:12" s="21" customFormat="1">
+      <c r="A36" s="60" t="s">
         <v>426</v>
       </c>
-      <c r="B36" s="68" t="s">
+      <c r="B36" s="66" t="s">
         <v>424</v>
       </c>
-      <c r="C36" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="D36" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="E36" s="62" t="s">
-        <v>68</v>
-      </c>
-      <c r="F36" s="62" t="s">
+      <c r="C36" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" s="60" t="s">
         <v>428</v>
       </c>
-      <c r="G36" s="62" t="s">
+      <c r="G36" s="60" t="s">
         <v>430</v>
       </c>
-      <c r="H36" s="63">
+      <c r="H36" s="61">
         <v>4</v>
       </c>
-      <c r="I36" s="62" t="s">
+      <c r="I36" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="J36" s="62"/>
-      <c r="K36" s="68"/>
-      <c r="L36" s="62"/>
+      <c r="J36" s="60"/>
+      <c r="K36" s="66"/>
+      <c r="L36" s="60"/>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="2" t="s">
@@ -4559,44 +4561,44 @@
       <c r="G37" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="H37" s="32">
+      <c r="H37" s="30">
         <v>5</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="1:12" s="23" customFormat="1">
-      <c r="A38" s="62" t="s">
+    <row r="38" spans="1:12" s="21" customFormat="1">
+      <c r="A38" s="60" t="s">
         <v>224</v>
       </c>
-      <c r="B38" s="68" t="s">
+      <c r="B38" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="C38" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="D38" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="E38" s="62" t="s">
-        <v>68</v>
-      </c>
-      <c r="F38" s="62" t="s">
+      <c r="C38" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="E38" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="F38" s="60" t="s">
         <v>309</v>
       </c>
-      <c r="G38" s="62" t="s">
+      <c r="G38" s="60" t="s">
         <v>267</v>
       </c>
-      <c r="H38" s="63">
+      <c r="H38" s="61">
         <v>1</v>
       </c>
-      <c r="I38" s="62" t="s">
+      <c r="I38" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="J38" s="62"/>
-      <c r="K38" s="68"/>
-      <c r="L38" s="62" t="s">
+      <c r="J38" s="60"/>
+      <c r="K38" s="66"/>
+      <c r="L38" s="60" t="s">
         <v>413</v>
       </c>
     </row>
@@ -4622,44 +4624,44 @@
       <c r="G39" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="H39" s="32">
+      <c r="H39" s="30">
         <v>3</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:12" s="23" customFormat="1">
-      <c r="A40" s="62" t="s">
+    <row r="40" spans="1:12" s="21" customFormat="1">
+      <c r="A40" s="60" t="s">
         <v>435</v>
       </c>
-      <c r="B40" s="68" t="s">
+      <c r="B40" s="66" t="s">
         <v>433</v>
       </c>
-      <c r="C40" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="D40" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="E40" s="62" t="s">
-        <v>68</v>
-      </c>
-      <c r="F40" s="62" t="s">
+      <c r="C40" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="E40" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="F40" s="60" t="s">
         <v>437</v>
       </c>
-      <c r="G40" s="62" t="s">
+      <c r="G40" s="60" t="s">
         <v>439</v>
       </c>
-      <c r="H40" s="63">
+      <c r="H40" s="61">
         <v>4</v>
       </c>
-      <c r="I40" s="62" t="s">
+      <c r="I40" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="J40" s="62"/>
-      <c r="K40" s="68"/>
-      <c r="L40" s="62"/>
+      <c r="J40" s="60"/>
+      <c r="K40" s="66"/>
+      <c r="L40" s="60"/>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="2" t="s">
@@ -4683,44 +4685,44 @@
       <c r="G41" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="H41" s="32">
+      <c r="H41" s="30">
         <v>4</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:12" s="23" customFormat="1">
-      <c r="A42" s="62" t="s">
+    <row r="42" spans="1:12" s="21" customFormat="1">
+      <c r="A42" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="B42" s="68" t="s">
+      <c r="B42" s="66" t="s">
         <v>441</v>
       </c>
-      <c r="C42" s="68" t="s">
+      <c r="C42" s="66" t="s">
         <v>395</v>
       </c>
-      <c r="D42" s="68" t="s">
+      <c r="D42" s="66" t="s">
         <v>396</v>
       </c>
-      <c r="E42" s="62" t="s">
+      <c r="E42" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="F42" s="62" t="s">
+      <c r="F42" s="60" t="s">
         <v>311</v>
       </c>
-      <c r="G42" s="62" t="s">
+      <c r="G42" s="60" t="s">
         <v>269</v>
       </c>
-      <c r="H42" s="63">
+      <c r="H42" s="61">
         <v>2</v>
       </c>
-      <c r="I42" s="62" t="s">
+      <c r="I42" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="J42" s="62"/>
-      <c r="K42" s="68"/>
-      <c r="L42" s="62"/>
+      <c r="J42" s="60"/>
+      <c r="K42" s="66"/>
+      <c r="L42" s="60"/>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="2" t="s">
@@ -4744,44 +4746,44 @@
       <c r="G43" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="H43" s="32">
+      <c r="H43" s="30">
         <v>5</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:12" s="23" customFormat="1">
-      <c r="A44" s="62" t="s">
+    <row r="44" spans="1:12" s="21" customFormat="1">
+      <c r="A44" s="60" t="s">
         <v>445</v>
       </c>
-      <c r="B44" s="68" t="s">
+      <c r="B44" s="66" t="s">
         <v>443</v>
       </c>
-      <c r="C44" s="68" t="s">
+      <c r="C44" s="66" t="s">
         <v>447</v>
       </c>
-      <c r="D44" s="68" t="s">
+      <c r="D44" s="66" t="s">
         <v>449</v>
       </c>
-      <c r="E44" s="62" t="s">
+      <c r="E44" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="F44" s="62" t="s">
+      <c r="F44" s="60" t="s">
         <v>451</v>
       </c>
-      <c r="G44" s="62" t="s">
+      <c r="G44" s="60" t="s">
         <v>453</v>
       </c>
-      <c r="H44" s="63">
+      <c r="H44" s="61">
         <v>5</v>
       </c>
-      <c r="I44" s="62" t="s">
+      <c r="I44" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="J44" s="62"/>
-      <c r="K44" s="68"/>
-      <c r="L44" s="62"/>
+      <c r="J44" s="60"/>
+      <c r="K44" s="66"/>
+      <c r="L44" s="60"/>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="2" t="s">
@@ -4805,44 +4807,44 @@
       <c r="G45" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="H45" s="32">
+      <c r="H45" s="30">
         <v>1</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:12" s="23" customFormat="1">
-      <c r="A46" s="62" t="s">
+    <row r="46" spans="1:12" s="21" customFormat="1">
+      <c r="A46" s="60" t="s">
         <v>228</v>
       </c>
-      <c r="B46" s="68" t="s">
+      <c r="B46" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="C46" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="D46" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="E46" s="62" t="s">
-        <v>68</v>
-      </c>
-      <c r="F46" s="62" t="s">
+      <c r="C46" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="E46" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="F46" s="60" t="s">
         <v>313</v>
       </c>
-      <c r="G46" s="62" t="s">
+      <c r="G46" s="60" t="s">
         <v>271</v>
       </c>
-      <c r="H46" s="63">
+      <c r="H46" s="61">
         <v>2</v>
       </c>
-      <c r="I46" s="62" t="s">
+      <c r="I46" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="J46" s="62"/>
-      <c r="K46" s="68"/>
-      <c r="L46" s="62"/>
+      <c r="J46" s="60"/>
+      <c r="K46" s="66"/>
+      <c r="L46" s="60"/>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="2" t="s">
@@ -4866,44 +4868,44 @@
       <c r="G47" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="H47" s="32">
+      <c r="H47" s="30">
         <v>4</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="1:12" s="23" customFormat="1">
-      <c r="A48" s="62" t="s">
+    <row r="48" spans="1:12" s="21" customFormat="1">
+      <c r="A48" s="60" t="s">
         <v>230</v>
       </c>
-      <c r="B48" s="68" t="s">
+      <c r="B48" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="C48" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="D48" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="E48" s="62" t="s">
-        <v>68</v>
-      </c>
-      <c r="F48" s="62" t="s">
+      <c r="C48" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="E48" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="F48" s="60" t="s">
         <v>315</v>
       </c>
-      <c r="G48" s="62" t="s">
+      <c r="G48" s="60" t="s">
         <v>273</v>
       </c>
-      <c r="H48" s="63">
+      <c r="H48" s="61">
         <v>5</v>
       </c>
-      <c r="I48" s="62" t="s">
+      <c r="I48" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="J48" s="62"/>
-      <c r="K48" s="68"/>
-      <c r="L48" s="62"/>
+      <c r="J48" s="60"/>
+      <c r="K48" s="66"/>
+      <c r="L48" s="60"/>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="2" t="s">
@@ -4927,7 +4929,7 @@
       <c r="G49" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="H49" s="32">
+      <c r="H49" s="30">
         <v>4</v>
       </c>
       <c r="I49" s="2" t="s">
@@ -4937,39 +4939,39 @@
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="1:12" s="23" customFormat="1">
-      <c r="A50" s="62" t="s">
+    <row r="50" spans="1:12" s="21" customFormat="1">
+      <c r="A50" s="60" t="s">
         <v>547</v>
       </c>
-      <c r="B50" s="62" t="s">
+      <c r="B50" s="60" t="s">
         <v>552</v>
       </c>
-      <c r="C50" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="D50" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="E50" s="62" t="s">
-        <v>68</v>
-      </c>
-      <c r="F50" s="62" t="s">
+      <c r="C50" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="E50" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="F50" s="60" t="s">
         <v>548</v>
       </c>
-      <c r="G50" s="62" t="s">
+      <c r="G50" s="60" t="s">
         <v>549</v>
       </c>
-      <c r="H50" s="63">
+      <c r="H50" s="61">
         <v>4</v>
       </c>
-      <c r="I50" s="62" t="s">
+      <c r="I50" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="J50" s="62"/>
-      <c r="K50" s="68" t="s">
+      <c r="J50" s="60"/>
+      <c r="K50" s="66" t="s">
         <v>200</v>
       </c>
-      <c r="L50" s="62"/>
+      <c r="L50" s="60"/>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="2" t="s">
@@ -4993,7 +4995,7 @@
       <c r="G51" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="H51" s="32">
+      <c r="H51" s="30">
         <v>3</v>
       </c>
       <c r="I51" s="2" t="s">
@@ -5003,37 +5005,37 @@
         <v>200</v>
       </c>
     </row>
-    <row r="52" spans="1:12" s="23" customFormat="1">
-      <c r="A52" s="62" t="s">
+    <row r="52" spans="1:12" s="21" customFormat="1">
+      <c r="A52" s="60" t="s">
         <v>233</v>
       </c>
-      <c r="B52" s="62" t="s">
+      <c r="B52" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="C52" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="D52" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="E52" s="62" t="s">
-        <v>68</v>
-      </c>
-      <c r="F52" s="62" t="s">
+      <c r="C52" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="E52" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="F52" s="60" t="s">
         <v>318</v>
       </c>
-      <c r="G52" s="62" t="s">
+      <c r="G52" s="60" t="s">
         <v>276</v>
       </c>
-      <c r="H52" s="63">
+      <c r="H52" s="61">
         <v>5</v>
       </c>
-      <c r="I52" s="62" t="s">
+      <c r="I52" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="J52" s="62"/>
-      <c r="K52" s="68"/>
-      <c r="L52" s="62"/>
+      <c r="J52" s="60"/>
+      <c r="K52" s="66"/>
+      <c r="L52" s="60"/>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="2" t="s">
@@ -5057,7 +5059,7 @@
       <c r="G53" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="H53" s="32">
+      <c r="H53" s="30">
         <v>3</v>
       </c>
       <c r="I53" s="2" t="s">
@@ -5067,37 +5069,37 @@
         <v>200</v>
       </c>
     </row>
-    <row r="54" spans="1:12" s="23" customFormat="1">
-      <c r="A54" s="62" t="s">
+    <row r="54" spans="1:12" s="21" customFormat="1">
+      <c r="A54" s="60" t="s">
         <v>235</v>
       </c>
-      <c r="B54" s="62" t="s">
+      <c r="B54" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="C54" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="D54" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="E54" s="62" t="s">
-        <v>68</v>
-      </c>
-      <c r="F54" s="62" t="s">
+      <c r="C54" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="E54" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="F54" s="60" t="s">
         <v>320</v>
       </c>
-      <c r="G54" s="62" t="s">
+      <c r="G54" s="60" t="s">
         <v>278</v>
       </c>
-      <c r="H54" s="63">
+      <c r="H54" s="61">
         <v>2</v>
       </c>
-      <c r="I54" s="62" t="s">
+      <c r="I54" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="J54" s="62"/>
-      <c r="K54" s="68"/>
-      <c r="L54" s="62"/>
+      <c r="J54" s="60"/>
+      <c r="K54" s="66"/>
+      <c r="L54" s="60"/>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="2" t="s">
@@ -5121,44 +5123,44 @@
       <c r="G55" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="H55" s="32">
+      <c r="H55" s="30">
         <v>1</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="1:12" s="23" customFormat="1">
-      <c r="A56" s="62" t="s">
+    <row r="56" spans="1:12" s="21" customFormat="1">
+      <c r="A56" s="60" t="s">
         <v>236</v>
       </c>
-      <c r="B56" s="62" t="s">
+      <c r="B56" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="C56" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="D56" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="E56" s="62" t="s">
-        <v>68</v>
-      </c>
-      <c r="F56" s="62" t="s">
+      <c r="C56" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="E56" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="F56" s="60" t="s">
         <v>322</v>
       </c>
-      <c r="G56" s="62" t="s">
+      <c r="G56" s="60" t="s">
         <v>280</v>
       </c>
-      <c r="H56" s="63">
+      <c r="H56" s="61">
         <v>3</v>
       </c>
-      <c r="I56" s="62" t="s">
+      <c r="I56" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="J56" s="62"/>
-      <c r="K56" s="68"/>
-      <c r="L56" s="62"/>
+      <c r="J56" s="60"/>
+      <c r="K56" s="66"/>
+      <c r="L56" s="60"/>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="2" t="s">
@@ -5182,44 +5184,44 @@
       <c r="G57" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="H57" s="32">
+      <c r="H57" s="30">
         <v>5</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="58" spans="1:12" s="23" customFormat="1">
-      <c r="A58" s="62" t="s">
+    <row r="58" spans="1:12" s="21" customFormat="1">
+      <c r="A58" s="60" t="s">
         <v>239</v>
       </c>
-      <c r="B58" s="62" t="s">
+      <c r="B58" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="C58" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="D58" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="E58" s="62" t="s">
-        <v>68</v>
-      </c>
-      <c r="F58" s="62" t="s">
+      <c r="C58" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="E58" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="F58" s="60" t="s">
         <v>324</v>
       </c>
-      <c r="G58" s="62" t="s">
+      <c r="G58" s="60" t="s">
         <v>282</v>
       </c>
-      <c r="H58" s="63">
+      <c r="H58" s="61">
         <v>4</v>
       </c>
-      <c r="I58" s="62" t="s">
+      <c r="I58" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="J58" s="62"/>
-      <c r="K58" s="68"/>
-      <c r="L58" s="62"/>
+      <c r="J58" s="60"/>
+      <c r="K58" s="66"/>
+      <c r="L58" s="60"/>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="2" t="s">
@@ -5243,44 +5245,44 @@
       <c r="G59" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="H59" s="32">
+      <c r="H59" s="30">
         <v>2</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="60" spans="1:12" s="23" customFormat="1">
-      <c r="A60" s="62" t="s">
+    <row r="60" spans="1:12" s="21" customFormat="1">
+      <c r="A60" s="60" t="s">
         <v>241</v>
       </c>
-      <c r="B60" s="62" t="s">
+      <c r="B60" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="C60" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="D60" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="E60" s="62" t="s">
-        <v>68</v>
-      </c>
-      <c r="F60" s="62" t="s">
+      <c r="C60" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="E60" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="F60" s="60" t="s">
         <v>326</v>
       </c>
-      <c r="G60" s="62" t="s">
+      <c r="G60" s="60" t="s">
         <v>284</v>
       </c>
-      <c r="H60" s="63">
+      <c r="H60" s="61">
         <v>3</v>
       </c>
-      <c r="I60" s="62" t="s">
+      <c r="I60" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="J60" s="62"/>
-      <c r="K60" s="68"/>
-      <c r="L60" s="62"/>
+      <c r="J60" s="60"/>
+      <c r="K60" s="66"/>
+      <c r="L60" s="60"/>
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="2" t="s">
@@ -5304,44 +5306,44 @@
       <c r="G61" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="H61" s="32">
+      <c r="H61" s="30">
         <v>1</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="62" spans="1:12" s="23" customFormat="1">
-      <c r="A62" s="62" t="s">
+    <row r="62" spans="1:12" s="21" customFormat="1">
+      <c r="A62" s="60" t="s">
         <v>243</v>
       </c>
-      <c r="B62" s="62" t="s">
+      <c r="B62" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="C62" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="D62" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="E62" s="62" t="s">
-        <v>68</v>
-      </c>
-      <c r="F62" s="62" t="s">
+      <c r="C62" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="E62" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="F62" s="60" t="s">
         <v>328</v>
       </c>
-      <c r="G62" s="62" t="s">
+      <c r="G62" s="60" t="s">
         <v>286</v>
       </c>
-      <c r="H62" s="63">
+      <c r="H62" s="61">
         <v>2</v>
       </c>
-      <c r="I62" s="62" t="s">
+      <c r="I62" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="J62" s="62"/>
-      <c r="K62" s="68"/>
-      <c r="L62" s="62"/>
+      <c r="J62" s="60"/>
+      <c r="K62" s="66"/>
+      <c r="L62" s="60"/>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="2" t="s">
@@ -5365,44 +5367,44 @@
       <c r="G63" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="H63" s="32">
+      <c r="H63" s="30">
         <v>3</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="64" spans="1:12" s="23" customFormat="1">
-      <c r="A64" s="62" t="s">
+    <row r="64" spans="1:12" s="21" customFormat="1">
+      <c r="A64" s="60" t="s">
         <v>245</v>
       </c>
-      <c r="B64" s="62" t="s">
+      <c r="B64" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="C64" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="D64" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="E64" s="62" t="s">
-        <v>68</v>
-      </c>
-      <c r="F64" s="62" t="s">
+      <c r="C64" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="E64" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="F64" s="60" t="s">
         <v>330</v>
       </c>
-      <c r="G64" s="62" t="s">
+      <c r="G64" s="60" t="s">
         <v>288</v>
       </c>
-      <c r="H64" s="63">
+      <c r="H64" s="61">
         <v>3</v>
       </c>
-      <c r="I64" s="62" t="s">
+      <c r="I64" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="J64" s="62"/>
-      <c r="K64" s="68"/>
-      <c r="L64" s="62" t="s">
+      <c r="J64" s="60"/>
+      <c r="K64" s="66"/>
+      <c r="L64" s="60" t="s">
         <v>130</v>
       </c>
     </row>
@@ -5428,44 +5430,44 @@
       <c r="G65" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="H65" s="32">
+      <c r="H65" s="30">
         <v>5</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="66" spans="1:12" s="23" customFormat="1">
-      <c r="A66" s="62" t="s">
+    <row r="66" spans="1:12" s="21" customFormat="1">
+      <c r="A66" s="60" t="s">
         <v>247</v>
       </c>
-      <c r="B66" s="62" t="s">
+      <c r="B66" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="C66" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="D66" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="E66" s="62" t="s">
-        <v>68</v>
-      </c>
-      <c r="F66" s="62" t="s">
+      <c r="C66" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="E66" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="F66" s="60" t="s">
         <v>332</v>
       </c>
-      <c r="G66" s="62" t="s">
+      <c r="G66" s="60" t="s">
         <v>290</v>
       </c>
-      <c r="H66" s="63">
+      <c r="H66" s="61">
         <v>5</v>
       </c>
-      <c r="I66" s="62" t="s">
+      <c r="I66" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="J66" s="62"/>
-      <c r="K66" s="68"/>
-      <c r="L66" s="62"/>
+      <c r="J66" s="60"/>
+      <c r="K66" s="66"/>
+      <c r="L66" s="60"/>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="2" t="s">
@@ -5489,44 +5491,44 @@
       <c r="G67" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="H67" s="32">
+      <c r="H67" s="30">
         <v>3</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="68" spans="1:12" s="23" customFormat="1">
-      <c r="A68" s="62" t="s">
+    <row r="68" spans="1:12" s="21" customFormat="1">
+      <c r="A68" s="60" t="s">
         <v>249</v>
       </c>
-      <c r="B68" s="62" t="s">
+      <c r="B68" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="C68" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="D68" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="E68" s="62" t="s">
-        <v>68</v>
-      </c>
-      <c r="F68" s="62" t="s">
+      <c r="C68" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="E68" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="F68" s="60" t="s">
         <v>334</v>
       </c>
-      <c r="G68" s="62" t="s">
+      <c r="G68" s="60" t="s">
         <v>292</v>
       </c>
-      <c r="H68" s="63">
+      <c r="H68" s="61">
         <v>3</v>
       </c>
-      <c r="I68" s="62" t="s">
+      <c r="I68" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="J68" s="62"/>
-      <c r="K68" s="68"/>
-      <c r="L68" s="62"/>
+      <c r="J68" s="60"/>
+      <c r="K68" s="66"/>
+      <c r="L68" s="60"/>
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="2" t="s">
@@ -5550,44 +5552,44 @@
       <c r="G69" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="H69" s="32">
+      <c r="H69" s="30">
         <v>3</v>
       </c>
       <c r="I69" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="70" spans="1:12" s="23" customFormat="1">
-      <c r="A70" s="62" t="s">
+    <row r="70" spans="1:12" s="21" customFormat="1">
+      <c r="A70" s="60" t="s">
         <v>251</v>
       </c>
-      <c r="B70" s="62" t="s">
+      <c r="B70" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="C70" s="62" t="s">
+      <c r="C70" s="60" t="s">
         <v>397</v>
       </c>
-      <c r="D70" s="62" t="s">
+      <c r="D70" s="60" t="s">
         <v>398</v>
       </c>
-      <c r="E70" s="62" t="s">
+      <c r="E70" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="F70" s="62" t="s">
+      <c r="F70" s="60" t="s">
         <v>336</v>
       </c>
-      <c r="G70" s="62" t="s">
+      <c r="G70" s="60" t="s">
         <v>294</v>
       </c>
-      <c r="H70" s="63">
+      <c r="H70" s="61">
         <v>2</v>
       </c>
-      <c r="I70" s="62" t="s">
+      <c r="I70" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="J70" s="62"/>
-      <c r="K70" s="68"/>
-      <c r="L70" s="62"/>
+      <c r="J70" s="60"/>
+      <c r="K70" s="66"/>
+      <c r="L70" s="60"/>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="2" t="s">
@@ -5611,7 +5613,7 @@
       <c r="G71" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="H71" s="32">
+      <c r="H71" s="30">
         <v>3</v>
       </c>
       <c r="I71" s="2" t="s">
@@ -5621,37 +5623,37 @@
         <v>131</v>
       </c>
     </row>
-    <row r="72" spans="1:12" s="23" customFormat="1">
-      <c r="A72" s="62" t="s">
+    <row r="72" spans="1:12" s="21" customFormat="1">
+      <c r="A72" s="60" t="s">
         <v>253</v>
       </c>
-      <c r="B72" s="62" t="s">
+      <c r="B72" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="C72" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="D72" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="E72" s="62" t="s">
-        <v>68</v>
-      </c>
-      <c r="F72" s="62" t="s">
+      <c r="C72" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="E72" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="F72" s="60" t="s">
         <v>338</v>
       </c>
-      <c r="G72" s="62" t="s">
+      <c r="G72" s="60" t="s">
         <v>296</v>
       </c>
-      <c r="H72" s="63">
+      <c r="H72" s="61">
         <v>3</v>
       </c>
-      <c r="I72" s="62" t="s">
+      <c r="I72" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="J72" s="62"/>
-      <c r="K72" s="68"/>
-      <c r="L72" s="62"/>
+      <c r="J72" s="60"/>
+      <c r="K72" s="66"/>
+      <c r="L72" s="60"/>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="2" t="s">
@@ -5675,44 +5677,44 @@
       <c r="G73" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="H73" s="32">
+      <c r="H73" s="30">
         <v>3</v>
       </c>
       <c r="I73" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="74" spans="1:12" s="23" customFormat="1">
-      <c r="A74" s="62" t="s">
+    <row r="74" spans="1:12" s="21" customFormat="1">
+      <c r="A74" s="60" t="s">
         <v>255</v>
       </c>
-      <c r="B74" s="62" t="s">
+      <c r="B74" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="C74" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="D74" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="E74" s="62" t="s">
-        <v>68</v>
-      </c>
-      <c r="F74" s="62" t="s">
+      <c r="C74" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="E74" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="F74" s="60" t="s">
         <v>340</v>
       </c>
-      <c r="G74" s="62" t="s">
+      <c r="G74" s="60" t="s">
         <v>298</v>
       </c>
-      <c r="H74" s="63">
+      <c r="H74" s="61">
         <v>3</v>
       </c>
-      <c r="I74" s="62" t="s">
+      <c r="I74" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="J74" s="62"/>
-      <c r="K74" s="68"/>
-      <c r="L74" s="62"/>
+      <c r="J74" s="60"/>
+      <c r="K74" s="66"/>
+      <c r="L74" s="60"/>
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="2" t="s">
@@ -5736,76 +5738,76 @@
       <c r="G75" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="H75" s="32">
+      <c r="H75" s="30">
         <v>2</v>
       </c>
       <c r="I75" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="76" spans="1:12" s="23" customFormat="1">
-      <c r="A76" s="62" t="s">
+    <row r="76" spans="1:12" s="21" customFormat="1">
+      <c r="A76" s="60" t="s">
         <v>257</v>
       </c>
-      <c r="B76" s="62" t="s">
+      <c r="B76" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="C76" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="D76" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="E76" s="62" t="s">
-        <v>68</v>
-      </c>
-      <c r="F76" s="62" t="s">
+      <c r="C76" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="E76" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="F76" s="60" t="s">
         <v>341</v>
       </c>
-      <c r="G76" s="62" t="s">
+      <c r="G76" s="60" t="s">
         <v>300</v>
       </c>
-      <c r="H76" s="63">
+      <c r="H76" s="61">
         <v>3</v>
       </c>
-      <c r="I76" s="62" t="s">
+      <c r="I76" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="J76" s="62"/>
-      <c r="K76" s="68"/>
-      <c r="L76" s="62"/>
-    </row>
-    <row r="77" spans="1:12" s="94" customFormat="1">
-      <c r="A77" s="89" t="s">
+      <c r="J76" s="60"/>
+      <c r="K76" s="66"/>
+      <c r="L76" s="60"/>
+    </row>
+    <row r="77" spans="1:12" s="92" customFormat="1">
+      <c r="A77" s="87" t="s">
         <v>530</v>
       </c>
-      <c r="B77" s="89" t="s">
+      <c r="B77" s="87" t="s">
         <v>522</v>
       </c>
-      <c r="C77" s="92" t="s">
-        <v>68</v>
-      </c>
-      <c r="D77" s="92" t="s">
-        <v>68</v>
-      </c>
-      <c r="E77" s="89" t="s">
-        <v>68</v>
-      </c>
-      <c r="F77" s="89" t="s">
+      <c r="C77" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="E77" s="87" t="s">
+        <v>68</v>
+      </c>
+      <c r="F77" s="87" t="s">
         <v>531</v>
       </c>
-      <c r="G77" s="89" t="s">
+      <c r="G77" s="87" t="s">
         <v>532</v>
       </c>
-      <c r="H77" s="93">
+      <c r="H77" s="91">
         <v>5</v>
       </c>
-      <c r="I77" s="89" t="s">
+      <c r="I77" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="J77" s="89"/>
-      <c r="K77" s="92"/>
-      <c r="L77" s="89"/>
+      <c r="J77" s="87"/>
+      <c r="K77" s="90"/>
+      <c r="L77" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5828,14 +5830,15 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="27.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="29" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
@@ -5851,7 +5854,7 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -5867,22 +5870,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="23" customFormat="1">
-      <c r="A2" s="65" t="s">
+    <row r="2" spans="1:7" s="21" customFormat="1">
+      <c r="A2" s="63" t="s">
         <v>343</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="63" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="69">
+      <c r="C2" s="67">
         <v>1</v>
       </c>
-      <c r="D2" s="65" t="s">
+      <c r="D2" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
@@ -5891,29 +5894,29 @@
       <c r="B3" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="29">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="23" customFormat="1">
-      <c r="A4" s="62" t="s">
+    <row r="4" spans="1:7" s="21" customFormat="1">
+      <c r="A4" s="60" t="s">
         <v>345</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="C4" s="70">
+      <c r="C4" s="68">
         <v>1</v>
       </c>
-      <c r="D4" s="62" t="s">
+      <c r="D4" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
@@ -5922,29 +5925,29 @@
       <c r="B5" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="29">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="23" customFormat="1">
-      <c r="A6" s="62" t="s">
+    <row r="6" spans="1:7" s="21" customFormat="1">
+      <c r="A6" s="60" t="s">
         <v>347</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="70">
+      <c r="C6" s="68">
         <v>1</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
@@ -5953,7 +5956,7 @@
       <c r="B7" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="29">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -5963,22 +5966,22 @@
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="23" customFormat="1">
-      <c r="A8" s="62" t="s">
+    <row r="8" spans="1:7" s="21" customFormat="1">
+      <c r="A8" s="60" t="s">
         <v>349</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="60" t="s">
         <v>157</v>
       </c>
-      <c r="C8" s="70">
+      <c r="C8" s="68">
         <v>1</v>
       </c>
-      <c r="D8" s="62" t="s">
+      <c r="D8" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
@@ -5987,29 +5990,29 @@
       <c r="B9" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="29">
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="23" customFormat="1">
-      <c r="A10" s="62" t="s">
+    <row r="10" spans="1:7" s="21" customFormat="1">
+      <c r="A10" s="60" t="s">
         <v>351</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="C10" s="70">
+      <c r="C10" s="68">
         <v>1</v>
       </c>
-      <c r="D10" s="62" t="s">
+      <c r="D10" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
@@ -6018,29 +6021,29 @@
       <c r="B11" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="29">
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="23" customFormat="1">
-      <c r="A12" s="62" t="s">
+    <row r="12" spans="1:7" s="21" customFormat="1">
+      <c r="A12" s="60" t="s">
         <v>353</v>
       </c>
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="C12" s="70">
+      <c r="C12" s="68">
         <v>1</v>
       </c>
-      <c r="D12" s="62" t="s">
+      <c r="D12" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
@@ -6049,29 +6052,29 @@
       <c r="B13" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C13" s="31">
+      <c r="C13" s="29">
         <v>3</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="23" customFormat="1">
-      <c r="A14" s="62" t="s">
+    <row r="14" spans="1:7" s="21" customFormat="1">
+      <c r="A14" s="60" t="s">
         <v>355</v>
       </c>
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="70">
+      <c r="C14" s="68">
         <v>2</v>
       </c>
-      <c r="D14" s="62" t="s">
+      <c r="D14" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6085,15 +6088,16 @@
   </sheetPr>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="24" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="29" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" style="2" customWidth="1"/>
@@ -6109,7 +6113,7 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -6125,24 +6129,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="22" customFormat="1">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="1:7" s="20" customFormat="1">
+      <c r="A2" s="32" t="s">
         <v>473</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="32" t="s">
         <v>456</v>
       </c>
-      <c r="C2" s="36">
+      <c r="C2" s="34">
         <v>1</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="32" t="s">
         <v>517</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34" t="s">
+      <c r="E2" s="32"/>
+      <c r="F2" s="32" t="s">
         <v>200</v>
       </c>
-      <c r="G2" s="34"/>
+      <c r="G2" s="32"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
@@ -6151,7 +6155,7 @@
       <c r="B3" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="29">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -6164,24 +6168,24 @@
         <v>535</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="22" customFormat="1">
-      <c r="A4" s="35" t="s">
+    <row r="4" spans="1:7" s="20" customFormat="1">
+      <c r="A4" s="33" t="s">
         <v>474</v>
       </c>
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="86" t="s">
         <v>455</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="35">
         <v>1</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="32" t="s">
         <v>517</v>
       </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35" t="s">
+      <c r="E4" s="33"/>
+      <c r="F4" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="G4" s="35"/>
+      <c r="G4" s="33"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
@@ -6190,7 +6194,7 @@
       <c r="B5" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="29">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -6200,24 +6204,24 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="22" customFormat="1">
-      <c r="A6" s="35" t="s">
+    <row r="6" spans="1:7" s="20" customFormat="1">
+      <c r="A6" s="33" t="s">
         <v>476</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="20" t="s">
         <v>454</v>
       </c>
-      <c r="C6" s="37">
+      <c r="C6" s="35">
         <v>1</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="32" t="s">
         <v>517</v>
       </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35" t="s">
+      <c r="E6" s="33"/>
+      <c r="F6" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="G6" s="35"/>
+      <c r="G6" s="33"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
@@ -6226,7 +6230,7 @@
       <c r="B7" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="29">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -6236,24 +6240,24 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="22" customFormat="1">
-      <c r="A8" s="35" t="s">
+    <row r="8" spans="1:7" s="20" customFormat="1">
+      <c r="A8" s="33" t="s">
         <v>479</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="33" t="s">
         <v>457</v>
       </c>
-      <c r="C8" s="37">
+      <c r="C8" s="35">
         <v>1</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="32" t="s">
         <v>517</v>
       </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35" t="s">
+      <c r="E8" s="33"/>
+      <c r="F8" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="G8" s="35" t="s">
+      <c r="G8" s="33" t="s">
         <v>458</v>
       </c>
     </row>
@@ -6264,7 +6268,7 @@
       <c r="B9" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="29">
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -6277,24 +6281,24 @@
         <v>508</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="22" customFormat="1">
-      <c r="A10" s="35" t="s">
+    <row r="10" spans="1:7" s="20" customFormat="1">
+      <c r="A10" s="33" t="s">
         <v>481</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="33" t="s">
         <v>460</v>
       </c>
-      <c r="C10" s="37">
+      <c r="C10" s="35">
         <v>1</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="32" t="s">
         <v>517</v>
       </c>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35" t="s">
+      <c r="E10" s="33"/>
+      <c r="F10" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="G10" s="35" t="s">
+      <c r="G10" s="33" t="s">
         <v>514</v>
       </c>
     </row>
@@ -6305,7 +6309,7 @@
       <c r="B11" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="29">
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -6315,33 +6319,33 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="22" customFormat="1">
-      <c r="A12" s="35" t="s">
+    <row r="12" spans="1:7" s="20" customFormat="1">
+      <c r="A12" s="33" t="s">
         <v>483</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="33" t="s">
         <v>463</v>
       </c>
-      <c r="C12" s="37">
+      <c r="C12" s="35">
         <v>2</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="32" t="s">
         <v>517</v>
       </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35" t="s">
+      <c r="E12" s="33"/>
+      <c r="F12" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="G12" s="35"/>
+      <c r="G12" s="33"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="B13" s="89" t="s">
+      <c r="B13" s="87" t="s">
         <v>465</v>
       </c>
-      <c r="C13" s="31">
+      <c r="C13" s="29">
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -6351,126 +6355,126 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="22" customFormat="1">
-      <c r="A14" s="35" t="s">
+    <row r="14" spans="1:7" s="20" customFormat="1">
+      <c r="A14" s="33" t="s">
         <v>485</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="33" t="s">
         <v>464</v>
       </c>
-      <c r="C14" s="37">
+      <c r="C14" s="35">
         <v>2</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="33" t="s">
         <v>517</v>
       </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="B15" s="89" t="s">
+      <c r="B15" s="87" t="s">
         <v>466</v>
       </c>
-      <c r="C15" s="31">
+      <c r="C15" s="29">
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="22" customFormat="1">
-      <c r="A16" s="35" t="s">
+    <row r="16" spans="1:7" s="20" customFormat="1">
+      <c r="A16" s="33" t="s">
         <v>487</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="33" t="s">
         <v>467</v>
       </c>
-      <c r="C16" s="37">
+      <c r="C16" s="35">
         <v>4</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="33" t="s">
         <v>507</v>
       </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="B17" s="89" t="s">
+      <c r="B17" s="87" t="s">
         <v>151</v>
       </c>
-      <c r="C17" s="31">
+      <c r="C17" s="29">
         <v>2</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="22" customFormat="1">
-      <c r="A18" s="35" t="s">
+    <row r="18" spans="1:7" s="20" customFormat="1">
+      <c r="A18" s="33" t="s">
         <v>489</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="33" t="s">
         <v>468</v>
       </c>
-      <c r="C18" s="37">
+      <c r="C18" s="35">
         <v>1</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="33" t="s">
         <v>517</v>
       </c>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35" t="s">
+      <c r="E18" s="33"/>
+      <c r="F18" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="G18" s="35"/>
+      <c r="G18" s="33"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="B19" s="90" t="s">
+      <c r="B19" s="88" t="s">
         <v>469</v>
       </c>
-      <c r="C19" s="31">
+      <c r="C19" s="29">
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="22" customFormat="1">
-      <c r="A20" s="35" t="s">
+    <row r="20" spans="1:7" s="20" customFormat="1">
+      <c r="A20" s="33" t="s">
         <v>491</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="C20" s="37">
+      <c r="C20" s="35">
         <v>1</v>
       </c>
-      <c r="D20" s="35" t="s">
+      <c r="D20" s="33" t="s">
         <v>517</v>
       </c>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="B21" s="91" t="s">
+      <c r="B21" s="89" t="s">
         <v>470</v>
       </c>
-      <c r="C21" s="31">
+      <c r="C21" s="29">
         <v>2</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -6480,22 +6484,22 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="22" customFormat="1">
-      <c r="A22" s="35" t="s">
+    <row r="22" spans="1:7" s="20" customFormat="1">
+      <c r="A22" s="33" t="s">
         <v>493</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="33" t="s">
         <v>471</v>
       </c>
-      <c r="C22" s="37">
+      <c r="C22" s="35">
         <v>1</v>
       </c>
-      <c r="D22" s="35" t="s">
+      <c r="D22" s="33" t="s">
         <v>517</v>
       </c>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2" t="s">
@@ -6504,29 +6508,29 @@
       <c r="B23" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="C23" s="31">
+      <c r="C23" s="29">
         <v>3</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="22" customFormat="1">
-      <c r="A24" s="35" t="s">
+    <row r="24" spans="1:7" s="20" customFormat="1">
+      <c r="A24" s="33" t="s">
         <v>510</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="33" t="s">
         <v>509</v>
       </c>
-      <c r="C24" s="37">
+      <c r="C24" s="35">
         <v>1</v>
       </c>
-      <c r="D24" s="35" t="s">
+      <c r="D24" s="33" t="s">
         <v>517</v>
       </c>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2" t="s">
@@ -6535,29 +6539,29 @@
       <c r="B25" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="C25" s="31">
+      <c r="C25" s="29">
         <v>5</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="22" customFormat="1">
-      <c r="A26" s="35" t="s">
+    <row r="26" spans="1:7" s="20" customFormat="1">
+      <c r="A26" s="33" t="s">
         <v>524</v>
       </c>
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="33" t="s">
         <v>525</v>
       </c>
-      <c r="C26" s="37">
+      <c r="C26" s="35">
         <v>5</v>
       </c>
-      <c r="D26" s="35" t="s">
+      <c r="D26" s="33" t="s">
         <v>517</v>
       </c>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2" t="s">
@@ -6566,7 +6570,7 @@
       <c r="B27" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="C27" s="31">
+      <c r="C27" s="29">
         <v>5</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -6576,22 +6580,22 @@
         <v>515</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="22" customFormat="1">
-      <c r="A28" s="35" t="s">
+    <row r="28" spans="1:7" s="20" customFormat="1">
+      <c r="A28" s="33" t="s">
         <v>527</v>
       </c>
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="33" t="s">
         <v>513</v>
       </c>
-      <c r="C28" s="37">
+      <c r="C28" s="35">
         <v>4</v>
       </c>
-      <c r="D28" s="35" t="s">
+      <c r="D28" s="33" t="s">
         <v>517</v>
       </c>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35" t="s">
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33" t="s">
         <v>516</v>
       </c>
     </row>
@@ -6602,29 +6606,29 @@
       <c r="B29" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="C29" s="31">
+      <c r="C29" s="29">
         <v>5</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="22" customFormat="1">
-      <c r="A30" s="35" t="s">
+    <row r="30" spans="1:7" s="20" customFormat="1">
+      <c r="A30" s="33" t="s">
         <v>529</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="33" t="s">
         <v>522</v>
       </c>
-      <c r="C30" s="37">
+      <c r="C30" s="35">
         <v>5</v>
       </c>
-      <c r="D30" s="35" t="s">
+      <c r="D30" s="33" t="s">
         <v>517</v>
       </c>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2" t="s">
@@ -6633,31 +6637,31 @@
       <c r="B31" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="C31" s="31">
+      <c r="C31" s="29">
         <v>3</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="22" customFormat="1">
-      <c r="A32" s="35" t="s">
+    <row r="32" spans="1:7" s="20" customFormat="1">
+      <c r="A32" s="33" t="s">
         <v>540</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="33" t="s">
         <v>539</v>
       </c>
-      <c r="C32" s="37">
+      <c r="C32" s="35">
         <v>2</v>
       </c>
-      <c r="D32" s="35" t="s">
+      <c r="D32" s="33" t="s">
         <v>517</v>
       </c>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35" t="s">
+      <c r="E32" s="33"/>
+      <c r="F32" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="G32" s="35"/>
+      <c r="G32" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6672,14 +6676,15 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="18.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="29" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" style="2" customWidth="1"/>
@@ -6695,7 +6700,7 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -6711,22 +6716,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="28" customFormat="1">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:7" s="26" customFormat="1">
+      <c r="A2" s="25" t="s">
         <v>356</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="C2" s="71">
+      <c r="C2" s="69">
         <v>4</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
@@ -6735,29 +6740,29 @@
       <c r="B3" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="29">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="28" customFormat="1">
-      <c r="A4" s="29" t="s">
+    <row r="4" spans="1:7" s="26" customFormat="1">
+      <c r="A4" s="27" t="s">
         <v>358</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="C4" s="72">
+      <c r="C4" s="70">
         <v>2</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29" t="s">
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27" t="s">
         <v>177</v>
       </c>
     </row>
@@ -6768,29 +6773,29 @@
       <c r="B5" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="29">
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="28" customFormat="1">
-      <c r="A6" s="29" t="s">
+    <row r="6" spans="1:7" s="26" customFormat="1">
+      <c r="A6" s="27" t="s">
         <v>360</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="C6" s="72">
+      <c r="C6" s="70">
         <v>1</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
@@ -6799,29 +6804,29 @@
       <c r="B7" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="29">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="28" customFormat="1">
-      <c r="A8" s="29" t="s">
+    <row r="8" spans="1:7" s="26" customFormat="1">
+      <c r="A8" s="27" t="s">
         <v>363</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="27" t="s">
         <v>370</v>
       </c>
-      <c r="C8" s="72">
+      <c r="C8" s="70">
         <v>1</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29" t="s">
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27" t="s">
         <v>178</v>
       </c>
     </row>
@@ -6832,7 +6837,7 @@
       <c r="B9" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="29">
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -6842,22 +6847,22 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="28" customFormat="1">
-      <c r="A10" s="29" t="s">
+    <row r="10" spans="1:7" s="26" customFormat="1">
+      <c r="A10" s="27" t="s">
         <v>364</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="C10" s="72">
+      <c r="C10" s="70">
         <v>2</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29" t="s">
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27" t="s">
         <v>180</v>
       </c>
     </row>
@@ -6868,29 +6873,29 @@
       <c r="B11" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="29">
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="28" customFormat="1">
-      <c r="A12" s="29" t="s">
+    <row r="12" spans="1:7" s="26" customFormat="1">
+      <c r="A12" s="27" t="s">
         <v>366</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="C12" s="72">
+      <c r="C12" s="70">
         <v>2</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
@@ -6899,29 +6904,29 @@
       <c r="B13" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C13" s="31">
+      <c r="C13" s="29">
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="28" customFormat="1">
-      <c r="A14" s="29" t="s">
+    <row r="14" spans="1:7" s="26" customFormat="1">
+      <c r="A14" s="27" t="s">
         <v>368</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="27" t="s">
         <v>369</v>
       </c>
-      <c r="C14" s="72">
+      <c r="C14" s="70">
         <v>3</v>
       </c>
-      <c r="D14" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29" t="s">
+      <c r="D14" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27" t="s">
         <v>181</v>
       </c>
     </row>
@@ -6932,7 +6937,7 @@
       <c r="B15" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C15" s="31">
+      <c r="C15" s="29">
         <v>3</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -6942,22 +6947,22 @@
         <v>181</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="28" customFormat="1">
-      <c r="A16" s="29" t="s">
+    <row r="16" spans="1:7" s="26" customFormat="1">
+      <c r="A16" s="27" t="s">
         <v>372</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="C16" s="72">
+      <c r="C16" s="70">
         <v>5</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
@@ -6966,29 +6971,29 @@
       <c r="B17" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C17" s="31">
+      <c r="C17" s="29">
         <v>3</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="28" customFormat="1">
-      <c r="A18" s="29" t="s">
+    <row r="18" spans="1:7" s="26" customFormat="1">
+      <c r="A18" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="C18" s="72">
+      <c r="C18" s="70">
         <v>3</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="27" t="s">
         <v>375</v>
       </c>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29" t="s">
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27" t="s">
         <v>182</v>
       </c>
     </row>
@@ -7005,14 +7010,15 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="22.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="29" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" style="2" customWidth="1"/>
@@ -7028,7 +7034,7 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -7044,22 +7050,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="28" customFormat="1">
-      <c r="A2" s="73" t="s">
+    <row r="2" spans="1:7" s="26" customFormat="1">
+      <c r="A2" s="71" t="s">
         <v>376</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="71" t="s">
         <v>183</v>
       </c>
-      <c r="C2" s="74">
+      <c r="C2" s="72">
         <v>4</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:7" s="2" customFormat="1">
       <c r="A3" s="2" t="s">
@@ -7068,24 +7074,24 @@
       <c r="B3" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="29">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="29" customFormat="1">
-      <c r="A4" s="29" t="s">
+    <row r="4" spans="1:7" s="27" customFormat="1">
+      <c r="A4" s="27" t="s">
         <v>378</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="C4" s="72">
+      <c r="C4" s="70">
         <v>1</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="27" t="s">
         <v>79</v>
       </c>
     </row>
@@ -7096,24 +7102,24 @@
       <c r="B5" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="29">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="29" customFormat="1">
-      <c r="A6" s="29" t="s">
+    <row r="6" spans="1:7" s="27" customFormat="1">
+      <c r="A6" s="27" t="s">
         <v>380</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="C6" s="72">
+      <c r="C6" s="70">
         <v>2</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="27" t="s">
         <v>81</v>
       </c>
     </row>
@@ -7124,24 +7130,24 @@
       <c r="B7" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="29">
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="29" customFormat="1">
-      <c r="A8" s="29" t="s">
+    <row r="8" spans="1:7" s="27" customFormat="1">
+      <c r="A8" s="27" t="s">
         <v>382</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="C8" s="72">
+      <c r="C8" s="70">
         <v>3</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="27" t="s">
         <v>79</v>
       </c>
     </row>
@@ -7152,24 +7158,24 @@
       <c r="B9" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="29">
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="29" customFormat="1">
-      <c r="A10" s="29" t="s">
+    <row r="10" spans="1:7" s="27" customFormat="1">
+      <c r="A10" s="27" t="s">
         <v>384</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="72">
+      <c r="C10" s="70">
         <v>5</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="27" t="s">
         <v>79</v>
       </c>
     </row>
@@ -7180,24 +7186,24 @@
       <c r="B11" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="29">
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="29" customFormat="1">
-      <c r="A12" s="29" t="s">
+    <row r="12" spans="1:7" s="27" customFormat="1">
+      <c r="A12" s="27" t="s">
         <v>386</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="27" t="s">
         <v>496</v>
       </c>
-      <c r="C12" s="72">
+      <c r="C12" s="70">
         <v>2</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="27" t="s">
         <v>82</v>
       </c>
     </row>
@@ -7208,24 +7214,24 @@
       <c r="B13" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="C13" s="31">
+      <c r="C13" s="29">
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="29" customFormat="1">
-      <c r="A14" s="29" t="s">
+    <row r="14" spans="1:7" s="27" customFormat="1">
+      <c r="A14" s="27" t="s">
         <v>503</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="27" t="s">
         <v>502</v>
       </c>
-      <c r="C14" s="72">
+      <c r="C14" s="70">
         <v>2</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="27" t="s">
         <v>82</v>
       </c>
     </row>
@@ -7236,24 +7242,24 @@
       <c r="B15" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="C15" s="31">
+      <c r="C15" s="29">
         <v>2</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="29" customFormat="1">
-      <c r="A16" s="29" t="s">
+    <row r="16" spans="1:7" s="27" customFormat="1">
+      <c r="A16" s="27" t="s">
         <v>501</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="27" t="s">
         <v>497</v>
       </c>
-      <c r="C16" s="72">
+      <c r="C16" s="70">
         <v>3</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="27" t="s">
         <v>80</v>
       </c>
     </row>
@@ -7264,31 +7270,31 @@
       <c r="B17" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="C17" s="31">
+      <c r="C17" s="29">
         <v>3</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="29" customFormat="1">
-      <c r="A18" s="29" t="s">
+    <row r="18" spans="1:7" s="27" customFormat="1">
+      <c r="A18" s="27" t="s">
         <v>387</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="C18" s="72">
+      <c r="C18" s="70">
         <v>1</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="27" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="38"/>
+      <c r="C19" s="36"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -7312,221 +7318,221 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="60" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="24" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="4" style="24" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="61" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="24" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" style="24" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" style="24" customWidth="1"/>
-    <col min="9" max="16" width="9.140625" style="24" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="24" hidden="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="24" hidden="1"/>
+    <col min="1" max="1" width="5.85546875" style="58" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="4" style="22" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="59" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="22" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" style="22" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" style="22" customWidth="1"/>
+    <col min="9" max="16" width="9.140625" style="22" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="22" hidden="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="22" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="147" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="122" t="s">
+      <c r="B1" s="148"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="147" t="s">
         <v>193</v>
       </c>
-      <c r="E1" s="123"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="124" t="s">
+      <c r="E1" s="148"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="149" t="s">
         <v>206</v>
       </c>
-      <c r="H1" s="125"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
+      <c r="H1" s="150"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
     </row>
     <row r="2" spans="1:17" customFormat="1">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="81" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="79" t="s">
         <v>202</v>
       </c>
-      <c r="H2" s="82" t="s">
+      <c r="H2" s="80" t="s">
         <v>203</v>
       </c>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
     </row>
     <row r="3" spans="1:17" customFormat="1">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="78" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="76" t="s">
         <v>200</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="81" t="s">
+      <c r="F3" s="22"/>
+      <c r="G3" s="79" t="s">
         <v>204</v>
       </c>
-      <c r="H3" s="82" t="s">
+      <c r="H3" s="80" t="s">
         <v>198</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
     </row>
     <row r="4" spans="1:17" customFormat="1">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="42" t="s">
+      <c r="C4" s="22"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="81" t="s">
+      <c r="F4" s="22"/>
+      <c r="G4" s="79" t="s">
         <v>201</v>
       </c>
-      <c r="H4" s="82" t="s">
+      <c r="H4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
     </row>
     <row r="5" spans="1:17" customFormat="1">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="44" t="s">
+      <c r="C5" s="22"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="42" t="s">
         <v>195</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="81" t="s">
+      <c r="F5" s="22"/>
+      <c r="G5" s="79" t="s">
         <v>388</v>
       </c>
-      <c r="H5" s="82" t="s">
+      <c r="H5" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
     </row>
     <row r="6" spans="1:17" customFormat="1">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="46" t="s">
+      <c r="C6" s="22"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="44" t="s">
         <v>196</v>
       </c>
-      <c r="F6" s="24"/>
-      <c r="G6" s="81" t="s">
+      <c r="F6" s="22"/>
+      <c r="G6" s="79" t="s">
         <v>389</v>
       </c>
-      <c r="H6" s="82" t="s">
+      <c r="H6" s="80" t="s">
         <v>205</v>
       </c>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="D7" s="47"/>
-      <c r="E7" s="48" t="s">
+      <c r="D7" s="45"/>
+      <c r="E7" s="46" t="s">
         <v>197</v>
       </c>
-      <c r="G7" s="81" t="s">
+      <c r="G7" s="79" t="s">
         <v>207</v>
       </c>
-      <c r="H7" s="82" t="s">
+      <c r="H7" s="80" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="E8" s="24"/>
-      <c r="G8" s="79" t="s">
+      <c r="E8" s="22"/>
+      <c r="G8" s="77" t="s">
         <v>208</v>
       </c>
-      <c r="H8" s="80" t="s">
+      <c r="H8" s="78" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="G9" s="83" t="s">
+      <c r="G9" s="81" t="s">
         <v>210</v>
       </c>
-      <c r="H9" s="84" t="s">
+      <c r="H9" s="82" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="G10" s="85" t="s">
+      <c r="G10" s="83" t="s">
         <v>209</v>
       </c>
-      <c r="H10" s="86" t="s">
+      <c r="H10" s="84" t="s">
         <v>211</v>
       </c>
     </row>

--- a/Planning & Assetlist.xlsx
+++ b/Planning & Assetlist.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="555">
   <si>
     <t>Code Name</t>
   </si>
@@ -1682,6 +1682,9 @@
   </si>
   <si>
     <t>Medium House #4</t>
+  </si>
+  <si>
+    <t>Testing Game</t>
   </si>
 </sst>
 </file>
@@ -2496,6 +2499,12 @@
     <xf numFmtId="0" fontId="1" fillId="26" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2588,12 +2597,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2908,8 +2911,8 @@
   <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:B4"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -2925,10 +2928,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="98" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="122" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="121"/>
+      <c r="B1" s="123"/>
       <c r="C1" s="93" t="s">
         <v>61</v>
       </c>
@@ -2958,14 +2961,14 @@
       <c r="B2" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="137" t="s">
+      <c r="C2" s="139" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="139"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="141"/>
       <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1">
@@ -2975,30 +2978,30 @@
       <c r="B3" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="134" t="s">
+      <c r="C3" s="136" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="136"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="138"/>
     </row>
     <row r="4" spans="1:9" s="18" customFormat="1">
-      <c r="A4" s="151" t="s">
+      <c r="A4" s="120" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="152" t="s">
+      <c r="B4" s="121" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="131" t="s">
+      <c r="C4" s="133" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="132"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="132"/>
-      <c r="H4" s="133"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="134"/>
+      <c r="G4" s="134"/>
+      <c r="H4" s="135"/>
       <c r="I4" s="17"/>
     </row>
     <row r="5" spans="1:9" s="11" customFormat="1">
@@ -3008,14 +3011,14 @@
       <c r="B5" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="122" t="s">
+      <c r="C5" s="124" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="123"/>
-      <c r="E5" s="123"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="123"/>
-      <c r="H5" s="124"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="126"/>
       <c r="I5" s="116" t="s">
         <v>62</v>
       </c>
@@ -3023,14 +3026,14 @@
     <row r="6" spans="1:9" s="11" customFormat="1">
       <c r="A6" s="111"/>
       <c r="B6" s="119"/>
-      <c r="C6" s="122" t="s">
+      <c r="C6" s="124" t="s">
         <v>533</v>
       </c>
-      <c r="D6" s="123"/>
-      <c r="E6" s="123"/>
-      <c r="F6" s="123"/>
-      <c r="G6" s="123"/>
-      <c r="H6" s="124"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="126"/>
       <c r="I6" s="116"/>
     </row>
     <row r="7" spans="1:9" s="104" customFormat="1">
@@ -3409,30 +3412,32 @@
       <c r="G35" s="33" t="s">
         <v>481</v>
       </c>
-      <c r="H35" s="8"/>
+      <c r="H35" s="8" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="36" spans="1:9">
       <c r="D36" s="7" t="s">
         <v>401</v>
       </c>
       <c r="E36" s="6"/>
-      <c r="F36" s="128" t="s">
+      <c r="F36" s="130" t="s">
         <v>541</v>
       </c>
-      <c r="G36" s="129"/>
-      <c r="H36" s="130"/>
+      <c r="G36" s="131"/>
+      <c r="H36" s="132"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="C37" s="125" t="s">
+      <c r="C37" s="127" t="s">
         <v>551</v>
       </c>
-      <c r="D37" s="126"/>
-      <c r="E37" s="127"/>
-      <c r="F37" s="128" t="s">
+      <c r="D37" s="128"/>
+      <c r="E37" s="129"/>
+      <c r="F37" s="130" t="s">
         <v>551</v>
       </c>
-      <c r="G37" s="129"/>
-      <c r="H37" s="130"/>
+      <c r="G37" s="131"/>
+      <c r="H37" s="132"/>
     </row>
     <row r="38" spans="1:9" s="11" customFormat="1">
       <c r="A38" s="111" t="s">
@@ -3672,8 +3677,8 @@
   <dimension ref="A1:N77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -3763,7 +3768,7 @@
       <c r="K2" s="66" t="s">
         <v>200</v>
       </c>
-      <c r="L2" s="140" t="s">
+      <c r="L2" s="142" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3781,7 +3786,7 @@
       <c r="I3" s="85"/>
       <c r="J3" s="85"/>
       <c r="K3" s="85"/>
-      <c r="L3" s="141"/>
+      <c r="L3" s="143"/>
     </row>
     <row r="4" spans="1:12" s="21" customFormat="1">
       <c r="A4" s="85"/>
@@ -3797,7 +3802,7 @@
       <c r="I4" s="85"/>
       <c r="J4" s="85"/>
       <c r="K4" s="85"/>
-      <c r="L4" s="141"/>
+      <c r="L4" s="143"/>
     </row>
     <row r="5" spans="1:12" s="21" customFormat="1">
       <c r="A5" s="85"/>
@@ -3813,7 +3818,7 @@
       <c r="I5" s="85"/>
       <c r="J5" s="85"/>
       <c r="K5" s="85"/>
-      <c r="L5" s="141"/>
+      <c r="L5" s="143"/>
     </row>
     <row r="6" spans="1:12" s="21" customFormat="1">
       <c r="A6" s="85"/>
@@ -3829,7 +3834,7 @@
       <c r="I6" s="85"/>
       <c r="J6" s="85"/>
       <c r="K6" s="85"/>
-      <c r="L6" s="141"/>
+      <c r="L6" s="143"/>
     </row>
     <row r="7" spans="1:12" s="21" customFormat="1">
       <c r="A7" s="85"/>
@@ -3845,7 +3850,7 @@
       <c r="I7" s="85"/>
       <c r="J7" s="85"/>
       <c r="K7" s="85"/>
-      <c r="L7" s="141"/>
+      <c r="L7" s="143"/>
     </row>
     <row r="8" spans="1:12" s="21" customFormat="1">
       <c r="A8" s="85"/>
@@ -3861,7 +3866,7 @@
       <c r="I8" s="85"/>
       <c r="J8" s="85"/>
       <c r="K8" s="85"/>
-      <c r="L8" s="141"/>
+      <c r="L8" s="143"/>
     </row>
     <row r="9" spans="1:12" s="21" customFormat="1">
       <c r="A9" s="85"/>
@@ -3877,7 +3882,7 @@
       <c r="I9" s="85"/>
       <c r="J9" s="85"/>
       <c r="K9" s="85"/>
-      <c r="L9" s="141"/>
+      <c r="L9" s="143"/>
     </row>
     <row r="10" spans="1:12" s="21" customFormat="1">
       <c r="A10" s="85"/>
@@ -3893,7 +3898,7 @@
       <c r="I10" s="85"/>
       <c r="J10" s="85"/>
       <c r="K10" s="85"/>
-      <c r="L10" s="141"/>
+      <c r="L10" s="143"/>
     </row>
     <row r="11" spans="1:12" s="21" customFormat="1">
       <c r="A11" s="85"/>
@@ -3909,7 +3914,7 @@
       <c r="I11" s="85"/>
       <c r="J11" s="85"/>
       <c r="K11" s="85"/>
-      <c r="L11" s="142"/>
+      <c r="L11" s="144"/>
     </row>
     <row r="12" spans="1:12" s="2" customFormat="1">
       <c r="A12" s="2" t="s">
@@ -3940,7 +3945,7 @@
         <v>71</v>
       </c>
       <c r="K12" s="16"/>
-      <c r="L12" s="143" t="s">
+      <c r="L12" s="145" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3958,7 +3963,7 @@
       <c r="I13" s="24"/>
       <c r="J13" s="24"/>
       <c r="K13" s="24"/>
-      <c r="L13" s="144"/>
+      <c r="L13" s="146"/>
     </row>
     <row r="14" spans="1:12" s="60" customFormat="1">
       <c r="A14" s="60" t="s">
@@ -3991,7 +3996,7 @@
       <c r="K14" s="66" t="s">
         <v>200</v>
       </c>
-      <c r="L14" s="145"/>
+      <c r="L14" s="147"/>
     </row>
     <row r="15" spans="1:12" s="21" customFormat="1">
       <c r="A15" s="85"/>
@@ -4007,7 +4012,7 @@
       <c r="I15" s="85"/>
       <c r="J15" s="85"/>
       <c r="K15" s="85"/>
-      <c r="L15" s="141"/>
+      <c r="L15" s="143"/>
     </row>
     <row r="16" spans="1:12" s="21" customFormat="1">
       <c r="A16" s="85"/>
@@ -4023,7 +4028,7 @@
       <c r="I16" s="85"/>
       <c r="J16" s="85"/>
       <c r="K16" s="85"/>
-      <c r="L16" s="141"/>
+      <c r="L16" s="143"/>
     </row>
     <row r="17" spans="1:12" s="21" customFormat="1">
       <c r="A17" s="85"/>
@@ -4039,7 +4044,7 @@
       <c r="I17" s="85"/>
       <c r="J17" s="85"/>
       <c r="K17" s="85"/>
-      <c r="L17" s="141"/>
+      <c r="L17" s="143"/>
     </row>
     <row r="18" spans="1:12" s="21" customFormat="1">
       <c r="A18" s="85"/>
@@ -4055,7 +4060,7 @@
       <c r="I18" s="85"/>
       <c r="J18" s="85"/>
       <c r="K18" s="85"/>
-      <c r="L18" s="142"/>
+      <c r="L18" s="144"/>
     </row>
     <row r="19" spans="1:12" s="2" customFormat="1">
       <c r="A19" s="2" t="s">
@@ -4088,7 +4093,7 @@
       <c r="K19" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="L19" s="143"/>
+      <c r="L19" s="145"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="24"/>
@@ -4104,7 +4109,7 @@
       <c r="I20" s="24"/>
       <c r="J20" s="24"/>
       <c r="K20" s="24"/>
-      <c r="L20" s="144"/>
+      <c r="L20" s="146"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="24"/>
@@ -4120,7 +4125,7 @@
       <c r="I21" s="24"/>
       <c r="J21" s="24"/>
       <c r="K21" s="24"/>
-      <c r="L21" s="144"/>
+      <c r="L21" s="146"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="24"/>
@@ -4136,7 +4141,7 @@
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
-      <c r="L22" s="146"/>
+      <c r="L22" s="148"/>
     </row>
     <row r="23" spans="1:12" s="60" customFormat="1">
       <c r="A23" s="60" t="s">
@@ -4167,7 +4172,7 @@
         <v>74</v>
       </c>
       <c r="K23" s="66"/>
-      <c r="L23" s="145"/>
+      <c r="L23" s="147"/>
     </row>
     <row r="24" spans="1:12" s="21" customFormat="1">
       <c r="A24" s="85"/>
@@ -4183,7 +4188,7 @@
       <c r="I24" s="85"/>
       <c r="J24" s="85"/>
       <c r="K24" s="85"/>
-      <c r="L24" s="141"/>
+      <c r="L24" s="143"/>
     </row>
     <row r="25" spans="1:12" s="21" customFormat="1">
       <c r="A25" s="85"/>
@@ -4199,7 +4204,7 @@
       <c r="I25" s="85"/>
       <c r="J25" s="85"/>
       <c r="K25" s="85"/>
-      <c r="L25" s="141"/>
+      <c r="L25" s="143"/>
     </row>
     <row r="26" spans="1:12" s="21" customFormat="1">
       <c r="A26" s="85"/>
@@ -4215,7 +4220,7 @@
       <c r="I26" s="85"/>
       <c r="J26" s="85"/>
       <c r="K26" s="85"/>
-      <c r="L26" s="142"/>
+      <c r="L26" s="144"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="2" t="s">
@@ -6090,7 +6095,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -7313,7 +7318,7 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
@@ -7332,20 +7337,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="149" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="148"/>
+      <c r="B1" s="150"/>
       <c r="C1" s="22"/>
-      <c r="D1" s="147" t="s">
+      <c r="D1" s="149" t="s">
         <v>193</v>
       </c>
-      <c r="E1" s="148"/>
+      <c r="E1" s="150"/>
       <c r="F1" s="57"/>
-      <c r="G1" s="149" t="s">
+      <c r="G1" s="151" t="s">
         <v>206</v>
       </c>
-      <c r="H1" s="150"/>
+      <c r="H1" s="152"/>
       <c r="I1" s="22"/>
       <c r="J1" s="22"/>
       <c r="K1" s="22"/>

--- a/Planning & Assetlist.xlsx
+++ b/Planning & Assetlist.xlsx
@@ -1651,9 +1651,6 @@
     <t>7S_AMMO_001</t>
   </si>
   <si>
-    <t>scrapped</t>
-  </si>
-  <si>
     <t>3D_MHOU_004</t>
   </si>
   <si>
@@ -1685,6 +1682,9 @@
   </si>
   <si>
     <t>Testing Game</t>
+  </si>
+  <si>
+    <t>In process</t>
   </si>
 </sst>
 </file>
@@ -1721,7 +1721,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="28">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1761,12 +1761,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1884,8 +1878,104 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="lightTrellis">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor theme="7" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightTrellis">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor theme="8" tint="0.39997558519241921"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightTrellis">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor theme="2" tint="-0.249977111117893"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightTrellis">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightTrellis">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor theme="9" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightTrellis">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightTrellis">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightTrellis">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightTrellis">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="65"/>
+        <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="28">
+  <borders count="58">
     <border>
       <left/>
       <right/>
@@ -2032,32 +2122,6 @@
       <right style="thin">
         <color theme="1" tint="0.34998626667073579"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color theme="1" tint="0.34998626667073579"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="1" tint="0.34998626667073579"/>
-      </left>
-      <right/>
       <top style="thin">
         <color theme="1" tint="0.34998626667073579"/>
       </top>
@@ -2080,43 +2144,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color theme="1" tint="0.34998626667073579"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="1" tint="0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color theme="1" tint="0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color theme="1" tint="0.34998626667073579"/>
-      </right>
-      <top style="medium">
-        <color theme="1" tint="0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thick">
         <color theme="1" tint="0.34998626667073579"/>
@@ -2124,17 +2151,6 @@
       <top style="thin">
         <color theme="1" tint="0.34998626667073579"/>
       </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color theme="1" tint="0.34998626667073579"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color theme="1" tint="0.34998626667073579"/>
       </bottom>
@@ -2234,59 +2250,478 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right/>
+      <top style="slantDashDot">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top style="medium">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top style="slantDashDot">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top style="slantDashDot">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right/>
+      <top style="slantDashDot">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top style="slantDashDot">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="slantDashDot">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top style="slantDashDot">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top style="slantDashDot">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top style="slantDashDot">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top style="slantDashDot">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right/>
+      <top style="slantDashDot">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top style="slantDashDot">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top style="slantDashDot">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="slantDashDot">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom style="slantDashDot">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="slantDashDot">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="slantDashDot">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="slantDashDot">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="slantDashDot">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="slantDashDot">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="slantDashDot">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="slantDashDot">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="slantDashDot">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="slantDashDot">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top style="slantDashDot">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="slantDashDot">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top style="slantDashDot">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="slantDashDot">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="slantDashDot">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2296,7 +2731,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2310,46 +2745,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2357,60 +2792,54 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2418,7 +2847,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2440,25 +2869,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2468,119 +2878,25 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2597,6 +2913,566 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="39" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="39" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="39" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2910,750 +3786,883 @@
   </sheetPr>
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="13" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="6" customWidth="1"/>
-    <col min="4" max="5" width="20.7109375" style="7" customWidth="1"/>
-    <col min="6" max="7" width="20.7109375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" style="9" customWidth="1"/>
-    <col min="9" max="9" width="39.5703125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="153" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="164" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="275" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="296" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="7" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" style="8" customWidth="1"/>
+    <col min="9" max="9" width="39.5703125" style="9" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="98" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A1" s="122" t="s">
+    <row r="1" spans="1:9" s="89" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A1" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="93" t="s">
+      <c r="B1" s="106"/>
+      <c r="C1" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="94" t="s">
+      <c r="D1" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="94" t="s">
+      <c r="E1" s="256" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="95" t="s">
+      <c r="F1" s="280" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="95" t="s">
+      <c r="G1" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="96" t="s">
+      <c r="H1" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="97" t="s">
+      <c r="I1" s="88" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="73" t="s">
+    <row r="2" spans="1:9" s="184" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A2" s="191" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="192" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="139" t="s">
+      <c r="C2" s="216" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1">
-      <c r="A3" s="73" t="s">
+      <c r="D2" s="217"/>
+      <c r="E2" s="217"/>
+      <c r="F2" s="217"/>
+      <c r="G2" s="217"/>
+      <c r="H2" s="218"/>
+      <c r="I2" s="219"/>
+    </row>
+    <row r="3" spans="1:9" s="116" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A3" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="154" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="136" t="s">
+      <c r="C3" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="138"/>
-    </row>
-    <row r="4" spans="1:9" s="18" customFormat="1">
-      <c r="A4" s="120" t="s">
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="131"/>
+    </row>
+    <row r="4" spans="1:9" s="215" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A4" s="209" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="121" t="s">
+      <c r="B4" s="210" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="133" t="s">
+      <c r="C4" s="211" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="134"/>
-      <c r="E4" s="134"/>
-      <c r="F4" s="134"/>
-      <c r="G4" s="134"/>
-      <c r="H4" s="135"/>
-      <c r="I4" s="17"/>
-    </row>
-    <row r="5" spans="1:9" s="11" customFormat="1">
-      <c r="A5" s="111" t="s">
+      <c r="D4" s="212"/>
+      <c r="E4" s="212"/>
+      <c r="F4" s="212"/>
+      <c r="G4" s="212"/>
+      <c r="H4" s="213"/>
+      <c r="I4" s="214"/>
+    </row>
+    <row r="5" spans="1:9" s="127" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A5" s="144" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="119" t="s">
+      <c r="B5" s="155" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="124" t="s">
+      <c r="C5" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="126"/>
-      <c r="I5" s="116" t="s">
+      <c r="D5" s="124"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="124"/>
+      <c r="G5" s="124"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="126" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="11" customFormat="1">
-      <c r="A6" s="111"/>
-      <c r="B6" s="119"/>
-      <c r="C6" s="124" t="s">
+    <row r="6" spans="1:9" s="127" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A6" s="145"/>
+      <c r="B6" s="156"/>
+      <c r="C6" s="165" t="s">
         <v>533</v>
       </c>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="126"/>
-      <c r="I6" s="116"/>
-    </row>
-    <row r="7" spans="1:9" s="104" customFormat="1">
-      <c r="A7" s="99" t="s">
+      <c r="D6" s="166"/>
+      <c r="E6" s="166"/>
+      <c r="F6" s="166"/>
+      <c r="G6" s="166"/>
+      <c r="H6" s="167"/>
+      <c r="I6" s="168"/>
+    </row>
+    <row r="7" spans="1:9" s="254" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A7" s="297" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="100" t="s">
+      <c r="B7" s="255" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="101"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="103" t="s">
+      <c r="C7" s="250"/>
+      <c r="D7" s="251"/>
+      <c r="E7" s="252"/>
+      <c r="F7" s="281"/>
+      <c r="G7" s="251"/>
+      <c r="H7" s="252"/>
+      <c r="I7" s="253" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:9" s="116" customFormat="1">
+      <c r="A8" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="155" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="112" t="s">
         <v>215</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="113" t="s">
         <v>218</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="257" t="s">
         <v>222</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="282" t="s">
         <v>480</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="114" t="s">
         <v>474</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="115" t="s">
         <v>476</v>
       </c>
+      <c r="I8" s="117"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="D9" s="7" t="s">
+      <c r="A9" s="146"/>
+      <c r="B9" s="157"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="91" t="s">
         <v>303</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="258" t="s">
         <v>417</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="F9" s="283"/>
+      <c r="G9" s="92" t="s">
         <v>475</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="93" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="D10" s="7" t="s">
+      <c r="A10" s="146"/>
+      <c r="B10" s="157"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="91" t="s">
         <v>261</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="258" t="s">
         <v>307</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="F10" s="283"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="93" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="E11" s="7" t="s">
+      <c r="A11" s="146"/>
+      <c r="B11" s="157"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="258" t="s">
         <v>419</v>
       </c>
+      <c r="F11" s="283"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="93"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="E12" s="7" t="s">
+      <c r="A12" s="146"/>
+      <c r="B12" s="157"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="258" t="s">
         <v>265</v>
       </c>
+      <c r="F12" s="283"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="93"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="E13" s="7" t="s">
+      <c r="A13" s="146"/>
+      <c r="B13" s="157"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="258" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="E14" s="7" t="s">
+      <c r="F13" s="283"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="93"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A14" s="146"/>
+      <c r="B14" s="157"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="109"/>
+      <c r="E14" s="259" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="117" t="s">
+      <c r="F14" s="284"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="111"/>
+      <c r="I14" s="107"/>
+    </row>
+    <row r="15" spans="1:9" s="176" customFormat="1">
+      <c r="A15" s="169" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="118" t="s">
+      <c r="B15" s="170" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="106" t="s">
+      <c r="C15" s="171" t="s">
         <v>215</v>
       </c>
-      <c r="D15" s="107" t="s">
+      <c r="D15" s="172" t="s">
         <v>303</v>
       </c>
-      <c r="E15" s="107" t="s">
+      <c r="E15" s="260" t="s">
         <v>418</v>
       </c>
-      <c r="F15" s="108" t="s">
+      <c r="F15" s="298" t="s">
         <v>480</v>
       </c>
-      <c r="G15" s="108" t="s">
+      <c r="G15" s="173" t="s">
         <v>482</v>
       </c>
-      <c r="H15" s="115" t="s">
+      <c r="H15" s="174" t="s">
         <v>473</v>
       </c>
-      <c r="I15" s="105"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="117"/>
-      <c r="B16" s="118"/>
-      <c r="C16" s="106" t="s">
+      <c r="I15" s="175"/>
+    </row>
+    <row r="16" spans="1:9" s="184" customFormat="1">
+      <c r="A16" s="177"/>
+      <c r="B16" s="178"/>
+      <c r="C16" s="179" t="s">
         <v>199</v>
       </c>
-      <c r="D16" s="107" t="s">
+      <c r="D16" s="180" t="s">
         <v>261</v>
       </c>
-      <c r="E16" s="107" t="s">
+      <c r="E16" s="261" t="s">
         <v>420</v>
       </c>
-      <c r="F16" s="108"/>
-      <c r="G16" s="108"/>
-      <c r="H16" s="115" t="s">
+      <c r="F16" s="286"/>
+      <c r="G16" s="181"/>
+      <c r="H16" s="182" t="s">
         <v>478</v>
       </c>
-      <c r="I16" s="105"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="117"/>
-      <c r="B17" s="118"/>
-      <c r="C17" s="106" t="s">
+      <c r="I16" s="183"/>
+    </row>
+    <row r="17" spans="1:9" s="184" customFormat="1">
+      <c r="A17" s="177"/>
+      <c r="B17" s="178"/>
+      <c r="C17" s="185" t="s">
         <v>258</v>
       </c>
-      <c r="D17" s="107" t="s">
+      <c r="D17" s="180" t="s">
         <v>393</v>
       </c>
-      <c r="E17" s="107" t="s">
+      <c r="E17" s="261" t="s">
         <v>422</v>
       </c>
-      <c r="F17" s="108"/>
-      <c r="G17" s="108"/>
-      <c r="H17" s="115"/>
-      <c r="I17" s="105"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="117"/>
-      <c r="B18" s="118"/>
-      <c r="C18" s="106"/>
-      <c r="D18" s="107" t="s">
+      <c r="F17" s="286"/>
+      <c r="G17" s="181"/>
+      <c r="H17" s="182"/>
+      <c r="I17" s="183"/>
+    </row>
+    <row r="18" spans="1:9" s="184" customFormat="1">
+      <c r="A18" s="177"/>
+      <c r="B18" s="178"/>
+      <c r="C18" s="185"/>
+      <c r="D18" s="180" t="s">
         <v>402</v>
       </c>
-      <c r="E18" s="107" t="s">
+      <c r="E18" s="261" t="s">
+        <v>543</v>
+      </c>
+      <c r="F18" s="286"/>
+      <c r="G18" s="181"/>
+      <c r="H18" s="182"/>
+      <c r="I18" s="183"/>
+    </row>
+    <row r="19" spans="1:9" s="184" customFormat="1">
+      <c r="A19" s="177"/>
+      <c r="B19" s="178"/>
+      <c r="C19" s="185"/>
+      <c r="D19" s="180"/>
+      <c r="E19" s="261" t="s">
         <v>544</v>
       </c>
-      <c r="F18" s="108"/>
-      <c r="G18" s="108"/>
-      <c r="H18" s="115"/>
-      <c r="I18" s="105"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="117"/>
-      <c r="B19" s="118"/>
-      <c r="C19" s="106"/>
-      <c r="D19" s="107"/>
-      <c r="E19" s="107" t="s">
+      <c r="F19" s="286"/>
+      <c r="G19" s="181"/>
+      <c r="H19" s="182"/>
+      <c r="I19" s="183"/>
+    </row>
+    <row r="20" spans="1:9" s="184" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A20" s="194"/>
+      <c r="B20" s="193"/>
+      <c r="C20" s="186"/>
+      <c r="D20" s="187"/>
+      <c r="E20" s="262" t="s">
         <v>545</v>
       </c>
-      <c r="F19" s="108"/>
-      <c r="G19" s="108"/>
-      <c r="H19" s="115"/>
-      <c r="I19" s="105"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="117"/>
-      <c r="B20" s="118"/>
-      <c r="C20" s="106"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="107" t="s">
+      <c r="F20" s="287"/>
+      <c r="G20" s="188"/>
+      <c r="H20" s="189"/>
+      <c r="I20" s="190"/>
+    </row>
+    <row r="21" spans="1:9" s="116" customFormat="1">
+      <c r="A21" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="161" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="112" t="s">
+        <v>199</v>
+      </c>
+      <c r="D21" s="113" t="s">
+        <v>217</v>
+      </c>
+      <c r="E21" s="263" t="s">
+        <v>231</v>
+      </c>
+      <c r="F21" s="288" t="s">
+        <v>492</v>
+      </c>
+      <c r="G21" s="114" t="s">
+        <v>484</v>
+      </c>
+      <c r="H21" s="133" t="s">
+        <v>489</v>
+      </c>
+      <c r="I21" s="117"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="195"/>
+      <c r="B22" s="196"/>
+      <c r="C22" s="90" t="s">
+        <v>258</v>
+      </c>
+      <c r="D22" s="91"/>
+      <c r="E22" s="264" t="s">
         <v>546</v>
       </c>
-      <c r="F20" s="108"/>
-      <c r="G20" s="108"/>
-      <c r="H20" s="115"/>
-      <c r="I20" s="105"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="D21" s="7" t="s">
+      <c r="F22" s="283"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="93"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="195"/>
+      <c r="B23" s="196"/>
+      <c r="C23" s="90" t="s">
+        <v>390</v>
+      </c>
+      <c r="D23" s="91"/>
+      <c r="E23" s="264" t="s">
+        <v>316</v>
+      </c>
+      <c r="F23" s="283"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="93"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="195"/>
+      <c r="B24" s="196"/>
+      <c r="C24" s="90" t="s">
+        <v>399</v>
+      </c>
+      <c r="D24" s="91"/>
+      <c r="E24" s="264" t="s">
+        <v>547</v>
+      </c>
+      <c r="F24" s="283"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="93"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="195"/>
+      <c r="B25" s="196"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="264" t="s">
+        <v>548</v>
+      </c>
+      <c r="F25" s="283"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="93"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="195"/>
+      <c r="B26" s="196"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="264" t="s">
+        <v>234</v>
+      </c>
+      <c r="F26" s="283"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="93"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="195"/>
+      <c r="B27" s="196"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="264" t="s">
+        <v>319</v>
+      </c>
+      <c r="F27" s="283"/>
+      <c r="G27" s="92"/>
+      <c r="H27" s="93"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A28" s="195"/>
+      <c r="B28" s="196"/>
+      <c r="C28" s="108"/>
+      <c r="D28" s="109"/>
+      <c r="E28" s="265" t="s">
+        <v>277</v>
+      </c>
+      <c r="F28" s="284"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="111"/>
+      <c r="I28" s="107"/>
+    </row>
+    <row r="29" spans="1:9" s="176" customFormat="1">
+      <c r="A29" s="197" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="198" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="203" t="s">
+        <v>390</v>
+      </c>
+      <c r="D29" s="172" t="s">
         <v>217</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>492</v>
-      </c>
-      <c r="G21" s="8" t="s">
+      <c r="E29" s="266" t="s">
+        <v>232</v>
+      </c>
+      <c r="F29" s="285" t="s">
+        <v>483</v>
+      </c>
+      <c r="G29" s="173" t="s">
         <v>484</v>
       </c>
-      <c r="H21" s="33" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="C22" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="C23" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="C24" s="6" t="s">
+      <c r="H29" s="206" t="s">
+        <v>540</v>
+      </c>
+      <c r="I29" s="199"/>
+    </row>
+    <row r="30" spans="1:9" s="184" customFormat="1">
+      <c r="A30" s="200"/>
+      <c r="B30" s="201"/>
+      <c r="C30" s="185" t="s">
         <v>399</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="E25" s="7" t="s">
+      <c r="D30" s="180" t="s">
+        <v>302</v>
+      </c>
+      <c r="E30" s="267" t="s">
+        <v>317</v>
+      </c>
+      <c r="F30" s="286"/>
+      <c r="G30" s="181"/>
+      <c r="H30" s="182"/>
+      <c r="I30" s="202"/>
+    </row>
+    <row r="31" spans="1:9" s="184" customFormat="1">
+      <c r="A31" s="200"/>
+      <c r="B31" s="201"/>
+      <c r="C31" s="185"/>
+      <c r="D31" s="180" t="s">
+        <v>260</v>
+      </c>
+      <c r="E31" s="267" t="s">
+        <v>275</v>
+      </c>
+      <c r="F31" s="286"/>
+      <c r="G31" s="181"/>
+      <c r="H31" s="182"/>
+      <c r="I31" s="202"/>
+    </row>
+    <row r="32" spans="1:9" s="184" customFormat="1">
+      <c r="A32" s="200"/>
+      <c r="B32" s="201"/>
+      <c r="C32" s="185"/>
+      <c r="D32" s="180" t="s">
+        <v>392</v>
+      </c>
+      <c r="E32" s="267" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="E26" s="7" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="E27" s="7" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="E28" s="7" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="117" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="118" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="106" t="s">
-        <v>390</v>
-      </c>
-      <c r="D29" s="107" t="s">
-        <v>217</v>
-      </c>
-      <c r="E29" s="107" t="s">
-        <v>232</v>
-      </c>
-      <c r="F29" s="114" t="s">
-        <v>483</v>
-      </c>
-      <c r="G29" s="108" t="s">
-        <v>484</v>
-      </c>
-      <c r="H29" s="115" t="s">
-        <v>540</v>
-      </c>
-      <c r="I29" s="14"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="117"/>
-      <c r="B30" s="118"/>
-      <c r="C30" s="106" t="s">
-        <v>399</v>
-      </c>
-      <c r="D30" s="107" t="s">
-        <v>302</v>
-      </c>
-      <c r="E30" s="107" t="s">
-        <v>317</v>
-      </c>
-      <c r="F30" s="108"/>
-      <c r="G30" s="108"/>
-      <c r="H30" s="115"/>
-      <c r="I30" s="14"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="117"/>
-      <c r="B31" s="118"/>
-      <c r="C31" s="106"/>
-      <c r="D31" s="107" t="s">
-        <v>260</v>
-      </c>
-      <c r="E31" s="107" t="s">
-        <v>275</v>
-      </c>
-      <c r="F31" s="108"/>
-      <c r="G31" s="108"/>
-      <c r="H31" s="115"/>
-      <c r="I31" s="14"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="117"/>
-      <c r="B32" s="118"/>
-      <c r="C32" s="106"/>
-      <c r="D32" s="107" t="s">
+      <c r="F32" s="286"/>
+      <c r="G32" s="181"/>
+      <c r="H32" s="182"/>
+      <c r="I32" s="202"/>
+    </row>
+    <row r="33" spans="1:9" s="184" customFormat="1">
+      <c r="A33" s="200"/>
+      <c r="B33" s="201"/>
+      <c r="C33" s="185"/>
+      <c r="D33" s="180" t="s">
+        <v>401</v>
+      </c>
+      <c r="E33" s="267"/>
+      <c r="F33" s="286"/>
+      <c r="G33" s="181"/>
+      <c r="H33" s="182"/>
+      <c r="I33" s="202"/>
+    </row>
+    <row r="34" spans="1:9" s="184" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A34" s="200"/>
+      <c r="B34" s="201"/>
+      <c r="C34" s="185"/>
+      <c r="D34" s="180"/>
+      <c r="E34" s="267"/>
+      <c r="F34" s="286"/>
+      <c r="G34" s="181"/>
+      <c r="H34" s="182"/>
+      <c r="I34" s="202"/>
+    </row>
+    <row r="35" spans="1:9" s="116" customFormat="1">
+      <c r="A35" s="147" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="158" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="132"/>
+      <c r="D35" s="113" t="s">
         <v>392</v>
       </c>
-      <c r="E32" s="107" t="s">
+      <c r="E35" s="263" t="s">
+        <v>549</v>
+      </c>
+      <c r="F35" s="288"/>
+      <c r="G35" s="133" t="s">
+        <v>481</v>
+      </c>
+      <c r="H35" s="114" t="s">
+        <v>553</v>
+      </c>
+      <c r="I35" s="117"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="148"/>
+      <c r="B36" s="159"/>
+      <c r="C36" s="90"/>
+      <c r="D36" s="91" t="s">
+        <v>401</v>
+      </c>
+      <c r="E36" s="268"/>
+      <c r="F36" s="276" t="s">
+        <v>541</v>
+      </c>
+      <c r="G36" s="207"/>
+      <c r="H36" s="208"/>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A37" s="149"/>
+      <c r="B37" s="160"/>
+      <c r="C37" s="204" t="s">
         <v>550</v>
       </c>
-      <c r="F32" s="108"/>
-      <c r="G32" s="108"/>
-      <c r="H32" s="115"/>
-      <c r="I32" s="14"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="117"/>
-      <c r="B33" s="118"/>
-      <c r="C33" s="106"/>
-      <c r="D33" s="107" t="s">
-        <v>401</v>
-      </c>
-      <c r="E33" s="107"/>
-      <c r="F33" s="108"/>
-      <c r="G33" s="108"/>
-      <c r="H33" s="115"/>
-      <c r="I33" s="14"/>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="117"/>
-      <c r="B34" s="118"/>
-      <c r="C34" s="106"/>
-      <c r="D34" s="107"/>
-      <c r="E34" s="107"/>
-      <c r="F34" s="108"/>
-      <c r="G34" s="108"/>
-      <c r="H34" s="115"/>
-      <c r="I34" s="14"/>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="E35" s="7" t="s">
+      <c r="D37" s="205"/>
+      <c r="E37" s="205"/>
+      <c r="F37" s="277" t="s">
         <v>550</v>
       </c>
-      <c r="G35" s="33" t="s">
-        <v>481</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="D36" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="130" t="s">
-        <v>541</v>
-      </c>
-      <c r="G36" s="131"/>
-      <c r="H36" s="132"/>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="C37" s="127" t="s">
-        <v>551</v>
-      </c>
-      <c r="D37" s="128"/>
-      <c r="E37" s="129"/>
-      <c r="F37" s="130" t="s">
-        <v>551</v>
-      </c>
-      <c r="G37" s="131"/>
-      <c r="H37" s="132"/>
-    </row>
-    <row r="38" spans="1:9" s="11" customFormat="1">
-      <c r="A38" s="111" t="s">
+      <c r="G37" s="278"/>
+      <c r="H37" s="279"/>
+      <c r="I37" s="107"/>
+    </row>
+    <row r="38" spans="1:9" s="234" customFormat="1">
+      <c r="A38" s="227" t="s">
         <v>18</v>
       </c>
-      <c r="B38" s="119" t="s">
+      <c r="B38" s="228" t="s">
         <v>49</v>
       </c>
-      <c r="C38" s="109"/>
-      <c r="D38" s="110"/>
-      <c r="E38" s="110"/>
-      <c r="F38" s="112"/>
-      <c r="G38" s="112"/>
-      <c r="H38" s="113"/>
-      <c r="I38" s="116" t="s">
+      <c r="C38" s="229"/>
+      <c r="D38" s="230"/>
+      <c r="E38" s="269"/>
+      <c r="F38" s="289"/>
+      <c r="G38" s="231"/>
+      <c r="H38" s="232"/>
+      <c r="I38" s="233" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="11" customFormat="1">
-      <c r="A39" s="111"/>
-      <c r="B39" s="119"/>
-      <c r="C39" s="109"/>
-      <c r="D39" s="110"/>
-      <c r="E39" s="110"/>
-      <c r="F39" s="112"/>
-      <c r="G39" s="112"/>
-      <c r="H39" s="113"/>
-      <c r="I39" s="116"/>
-    </row>
-    <row r="40" spans="1:9" s="11" customFormat="1">
-      <c r="A40" s="111"/>
-      <c r="B40" s="119"/>
-      <c r="C40" s="109"/>
-      <c r="D40" s="110"/>
-      <c r="E40" s="110"/>
-      <c r="F40" s="112"/>
-      <c r="G40" s="112"/>
-      <c r="H40" s="113"/>
-      <c r="I40" s="116"/>
-    </row>
-    <row r="41" spans="1:9" s="11" customFormat="1">
-      <c r="A41" s="111"/>
-      <c r="B41" s="119"/>
-      <c r="C41" s="109"/>
-      <c r="D41" s="110"/>
-      <c r="E41" s="110"/>
-      <c r="F41" s="112"/>
-      <c r="G41" s="112"/>
-      <c r="H41" s="113"/>
-      <c r="I41" s="116"/>
-    </row>
-    <row r="42" spans="1:9" s="11" customFormat="1">
-      <c r="A42" s="111"/>
-      <c r="B42" s="119"/>
-      <c r="C42" s="109"/>
-      <c r="D42" s="110"/>
-      <c r="E42" s="110"/>
-      <c r="F42" s="112"/>
-      <c r="G42" s="112"/>
-      <c r="H42" s="113"/>
-      <c r="I42" s="116"/>
-    </row>
-    <row r="43" spans="1:9" s="11" customFormat="1">
-      <c r="A43" s="111"/>
-      <c r="B43" s="119"/>
-      <c r="C43" s="109"/>
-      <c r="D43" s="110"/>
-      <c r="E43" s="110"/>
-      <c r="F43" s="112"/>
-      <c r="G43" s="112"/>
-      <c r="H43" s="113"/>
-      <c r="I43" s="116"/>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="12" t="s">
+    <row r="39" spans="1:9" s="242" customFormat="1">
+      <c r="A39" s="235"/>
+      <c r="B39" s="236"/>
+      <c r="C39" s="237"/>
+      <c r="D39" s="238"/>
+      <c r="E39" s="270"/>
+      <c r="F39" s="290"/>
+      <c r="G39" s="239"/>
+      <c r="H39" s="240"/>
+      <c r="I39" s="241"/>
+    </row>
+    <row r="40" spans="1:9" s="242" customFormat="1">
+      <c r="A40" s="235"/>
+      <c r="B40" s="236"/>
+      <c r="C40" s="237"/>
+      <c r="D40" s="238"/>
+      <c r="E40" s="270"/>
+      <c r="F40" s="290"/>
+      <c r="G40" s="239"/>
+      <c r="H40" s="240"/>
+      <c r="I40" s="241"/>
+    </row>
+    <row r="41" spans="1:9" s="242" customFormat="1">
+      <c r="A41" s="235"/>
+      <c r="B41" s="236"/>
+      <c r="C41" s="237"/>
+      <c r="D41" s="238"/>
+      <c r="E41" s="270"/>
+      <c r="F41" s="290"/>
+      <c r="G41" s="239"/>
+      <c r="H41" s="240"/>
+      <c r="I41" s="241"/>
+    </row>
+    <row r="42" spans="1:9" s="242" customFormat="1">
+      <c r="A42" s="235"/>
+      <c r="B42" s="236"/>
+      <c r="C42" s="237"/>
+      <c r="D42" s="238"/>
+      <c r="E42" s="270"/>
+      <c r="F42" s="290"/>
+      <c r="G42" s="239"/>
+      <c r="H42" s="240"/>
+      <c r="I42" s="241"/>
+    </row>
+    <row r="43" spans="1:9" s="242" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A43" s="243"/>
+      <c r="B43" s="244"/>
+      <c r="C43" s="245"/>
+      <c r="D43" s="246"/>
+      <c r="E43" s="271"/>
+      <c r="F43" s="291"/>
+      <c r="G43" s="247"/>
+      <c r="H43" s="248"/>
+      <c r="I43" s="249"/>
+    </row>
+    <row r="44" spans="1:9" s="116" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A44" s="150" t="s">
         <v>19</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="161" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="117" t="s">
+      <c r="C44" s="139"/>
+      <c r="D44" s="140"/>
+      <c r="E44" s="272"/>
+      <c r="F44" s="292"/>
+      <c r="G44" s="141"/>
+      <c r="H44" s="142"/>
+      <c r="I44" s="131"/>
+    </row>
+    <row r="45" spans="1:9" s="176" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A45" s="220" t="s">
         <v>20</v>
       </c>
-      <c r="B45" s="118" t="s">
+      <c r="B45" s="221" t="s">
         <v>51</v>
       </c>
-      <c r="C45" s="106"/>
-      <c r="D45" s="107"/>
-      <c r="E45" s="107"/>
-      <c r="F45" s="108"/>
-      <c r="G45" s="108"/>
-      <c r="H45" s="115"/>
-      <c r="I45" s="105"/>
-    </row>
-    <row r="46" spans="1:9" s="104" customFormat="1">
-      <c r="A46" s="99" t="s">
+      <c r="C45" s="222"/>
+      <c r="D45" s="223"/>
+      <c r="E45" s="273"/>
+      <c r="F45" s="293"/>
+      <c r="G45" s="224"/>
+      <c r="H45" s="225"/>
+      <c r="I45" s="226"/>
+    </row>
+    <row r="46" spans="1:9" s="122" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A46" s="151" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="100" t="s">
+      <c r="B46" s="162" t="s">
         <v>55</v>
       </c>
-      <c r="C46" s="101"/>
-      <c r="D46" s="102"/>
-      <c r="E46" s="102"/>
-      <c r="F46" s="102"/>
-      <c r="G46" s="102"/>
-      <c r="H46" s="99"/>
-      <c r="I46" s="103" t="s">
+      <c r="C46" s="118"/>
+      <c r="D46" s="119"/>
+      <c r="E46" s="120"/>
+      <c r="F46" s="294"/>
+      <c r="G46" s="119"/>
+      <c r="H46" s="120"/>
+      <c r="I46" s="121" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="117" t="s">
+    <row r="47" spans="1:9" s="176" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A47" s="220" t="s">
         <v>22</v>
       </c>
-      <c r="B47" s="118" t="s">
+      <c r="B47" s="221" t="s">
         <v>54</v>
       </c>
-      <c r="C47" s="106"/>
-      <c r="D47" s="107"/>
-      <c r="E47" s="107"/>
-      <c r="F47" s="108"/>
-      <c r="G47" s="108"/>
-      <c r="H47" s="115"/>
-      <c r="I47" s="105"/>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="12" t="s">
+      <c r="C47" s="222"/>
+      <c r="D47" s="223"/>
+      <c r="E47" s="273"/>
+      <c r="F47" s="293"/>
+      <c r="G47" s="224"/>
+      <c r="H47" s="225"/>
+      <c r="I47" s="226"/>
+    </row>
+    <row r="48" spans="1:9" s="116" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A48" s="150" t="s">
         <v>23</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="161" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="117" t="s">
+      <c r="C48" s="139"/>
+      <c r="D48" s="140"/>
+      <c r="E48" s="272"/>
+      <c r="F48" s="292"/>
+      <c r="G48" s="141"/>
+      <c r="H48" s="142"/>
+      <c r="I48" s="131"/>
+    </row>
+    <row r="49" spans="1:9" s="176" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A49" s="220" t="s">
         <v>24</v>
       </c>
-      <c r="B49" s="118" t="s">
+      <c r="B49" s="221" t="s">
         <v>52</v>
       </c>
-      <c r="C49" s="106"/>
-      <c r="D49" s="107"/>
-      <c r="E49" s="107"/>
-      <c r="F49" s="108"/>
-      <c r="G49" s="108"/>
-      <c r="H49" s="115"/>
-      <c r="I49" s="105"/>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="12" t="s">
+      <c r="C49" s="222"/>
+      <c r="D49" s="223"/>
+      <c r="E49" s="273"/>
+      <c r="F49" s="293"/>
+      <c r="G49" s="224"/>
+      <c r="H49" s="225"/>
+      <c r="I49" s="226"/>
+    </row>
+    <row r="50" spans="1:9" s="116" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A50" s="150" t="s">
         <v>25</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="161" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="117" t="s">
+      <c r="C50" s="139"/>
+      <c r="D50" s="140"/>
+      <c r="E50" s="272"/>
+      <c r="F50" s="292"/>
+      <c r="G50" s="141"/>
+      <c r="H50" s="142"/>
+      <c r="I50" s="131"/>
+    </row>
+    <row r="51" spans="1:9" s="176" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A51" s="220" t="s">
         <v>26</v>
       </c>
-      <c r="B51" s="118" t="s">
+      <c r="B51" s="221" t="s">
         <v>57</v>
       </c>
-      <c r="C51" s="106"/>
-      <c r="D51" s="107"/>
-      <c r="E51" s="107"/>
-      <c r="F51" s="108"/>
-      <c r="G51" s="108"/>
-      <c r="H51" s="115"/>
-      <c r="I51" s="105"/>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="12" t="s">
+      <c r="C51" s="222"/>
+      <c r="D51" s="223"/>
+      <c r="E51" s="273"/>
+      <c r="F51" s="293"/>
+      <c r="G51" s="224"/>
+      <c r="H51" s="225"/>
+      <c r="I51" s="226"/>
+    </row>
+    <row r="52" spans="1:9" s="116" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A52" s="150" t="s">
         <v>27</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="161" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="117" t="s">
+      <c r="C52" s="139"/>
+      <c r="D52" s="140"/>
+      <c r="E52" s="272"/>
+      <c r="F52" s="292"/>
+      <c r="G52" s="141"/>
+      <c r="H52" s="142"/>
+      <c r="I52" s="131"/>
+    </row>
+    <row r="53" spans="1:9" s="176" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A53" s="220" t="s">
         <v>28</v>
       </c>
-      <c r="B53" s="118" t="s">
+      <c r="B53" s="221" t="s">
         <v>59</v>
       </c>
-      <c r="C53" s="106"/>
-      <c r="D53" s="107"/>
-      <c r="E53" s="107"/>
-      <c r="F53" s="108"/>
-      <c r="G53" s="108"/>
-      <c r="H53" s="115"/>
-      <c r="I53" s="105"/>
-    </row>
-    <row r="54" spans="1:9" s="11" customFormat="1">
-      <c r="A54" s="111" t="s">
+      <c r="C53" s="222"/>
+      <c r="D53" s="223"/>
+      <c r="E53" s="273"/>
+      <c r="F53" s="293"/>
+      <c r="G53" s="224"/>
+      <c r="H53" s="225"/>
+      <c r="I53" s="226"/>
+    </row>
+    <row r="54" spans="1:9" s="127" customFormat="1">
+      <c r="A54" s="152" t="s">
         <v>29</v>
       </c>
-      <c r="B54" s="119" t="s">
+      <c r="B54" s="163" t="s">
         <v>60</v>
       </c>
-      <c r="C54" s="109"/>
-      <c r="D54" s="110"/>
-      <c r="E54" s="110"/>
-      <c r="F54" s="112"/>
-      <c r="G54" s="112"/>
-      <c r="H54" s="113"/>
-      <c r="I54" s="116" t="s">
+      <c r="C54" s="134"/>
+      <c r="D54" s="135"/>
+      <c r="E54" s="274"/>
+      <c r="F54" s="295"/>
+      <c r="G54" s="136"/>
+      <c r="H54" s="137"/>
+      <c r="I54" s="138" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="19">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="B38:B43"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="C37:E37"/>
@@ -3663,6 +4672,10 @@
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C3:H3"/>
     <mergeCell ref="C2:H2"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="B8:B14"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B15:B20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3676,23 +4689,23 @@
   </sheetPr>
   <dimension ref="A1:N77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="14" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="11" customWidth="1"/>
     <col min="5" max="5" width="16.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="14.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" style="30" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" style="23" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" style="16" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" style="11" customWidth="1"/>
     <col min="12" max="12" width="33" style="2" customWidth="1"/>
     <col min="13" max="14" width="0" hidden="1" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" hidden="1"/>
@@ -3705,10 +4718,10 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="10" t="s">
         <v>149</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -3720,7 +4733,7 @@
       <c r="G1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="21" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -3729,192 +4742,192 @@
       <c r="J1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="10" t="s">
         <v>193</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="21" customFormat="1">
-      <c r="A2" s="62" t="s">
+    <row r="2" spans="1:12" s="14" customFormat="1">
+      <c r="A2" s="55" t="s">
         <v>215</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="55" t="s">
         <v>390</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="55" t="s">
         <v>399</v>
       </c>
-      <c r="E2" s="63" t="s">
+      <c r="E2" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="F2" s="62" t="s">
+      <c r="F2" s="55" t="s">
         <v>199</v>
       </c>
-      <c r="G2" s="62" t="s">
+      <c r="G2" s="55" t="s">
         <v>258</v>
       </c>
-      <c r="H2" s="64">
+      <c r="H2" s="57">
         <v>1</v>
       </c>
-      <c r="I2" s="63" t="s">
+      <c r="I2" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="J2" s="63"/>
-      <c r="K2" s="66" t="s">
-        <v>200</v>
-      </c>
-      <c r="L2" s="142" t="s">
+      <c r="J2" s="56"/>
+      <c r="K2" s="59" t="s">
+        <v>554</v>
+      </c>
+      <c r="L2" s="94" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="21" customFormat="1">
-      <c r="A3" s="85"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="63" t="s">
+    <row r="3" spans="1:12" s="14" customFormat="1">
+      <c r="A3" s="76"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="143"/>
-    </row>
-    <row r="4" spans="1:12" s="21" customFormat="1">
-      <c r="A4" s="85"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="63" t="s">
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="95"/>
+    </row>
+    <row r="4" spans="1:12" s="14" customFormat="1">
+      <c r="A4" s="76"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="56" t="s">
         <v>136</v>
       </c>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="143"/>
-    </row>
-    <row r="5" spans="1:12" s="21" customFormat="1">
-      <c r="A5" s="85"/>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="60" t="s">
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="95"/>
+    </row>
+    <row r="5" spans="1:12" s="14" customFormat="1">
+      <c r="A5" s="76"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="143"/>
-    </row>
-    <row r="6" spans="1:12" s="21" customFormat="1">
-      <c r="A6" s="85"/>
-      <c r="B6" s="85"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="60" t="s">
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="95"/>
+    </row>
+    <row r="6" spans="1:12" s="14" customFormat="1">
+      <c r="A6" s="76"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="85"/>
-      <c r="L6" s="143"/>
-    </row>
-    <row r="7" spans="1:12" s="21" customFormat="1">
-      <c r="A7" s="85"/>
-      <c r="B7" s="85"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="60" t="s">
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="95"/>
+    </row>
+    <row r="7" spans="1:12" s="14" customFormat="1">
+      <c r="A7" s="76"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="53" t="s">
         <v>140</v>
       </c>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="85"/>
-      <c r="L7" s="143"/>
-    </row>
-    <row r="8" spans="1:12" s="21" customFormat="1">
-      <c r="A8" s="85"/>
-      <c r="B8" s="85"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="60" t="s">
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="95"/>
+    </row>
+    <row r="8" spans="1:12" s="14" customFormat="1">
+      <c r="A8" s="76"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="143"/>
-    </row>
-    <row r="9" spans="1:12" s="21" customFormat="1">
-      <c r="A9" s="85"/>
-      <c r="B9" s="85"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="60" t="s">
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="95"/>
+    </row>
+    <row r="9" spans="1:12" s="14" customFormat="1">
+      <c r="A9" s="76"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="143"/>
-    </row>
-    <row r="10" spans="1:12" s="21" customFormat="1">
-      <c r="A10" s="85"/>
-      <c r="B10" s="85"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="60" t="s">
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="95"/>
+    </row>
+    <row r="10" spans="1:12" s="14" customFormat="1">
+      <c r="A10" s="76"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="85"/>
-      <c r="L10" s="143"/>
-    </row>
-    <row r="11" spans="1:12" s="21" customFormat="1">
-      <c r="A11" s="85"/>
-      <c r="B11" s="85"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="65" t="s">
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="95"/>
+    </row>
+    <row r="11" spans="1:12" s="14" customFormat="1">
+      <c r="A11" s="76"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="144"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
+      <c r="L11" s="96"/>
     </row>
     <row r="12" spans="1:12" s="2" customFormat="1">
       <c r="A12" s="2" t="s">
@@ -3938,129 +4951,129 @@
       <c r="G12" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="H12" s="30">
+      <c r="H12" s="23">
         <v>2</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="K12" s="16"/>
-      <c r="L12" s="145" t="s">
+      <c r="K12" s="11"/>
+      <c r="L12" s="97" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="19" customFormat="1">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
+    <row r="13" spans="1:12" s="12" customFormat="1">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
       <c r="E13" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="146"/>
-    </row>
-    <row r="14" spans="1:12" s="60" customFormat="1">
-      <c r="A14" s="60" t="s">
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="98"/>
+    </row>
+    <row r="14" spans="1:12" s="53" customFormat="1">
+      <c r="A14" s="53" t="s">
         <v>217</v>
       </c>
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="60" t="s">
+      <c r="C14" s="53" t="s">
         <v>392</v>
       </c>
-      <c r="D14" s="60" t="s">
+      <c r="D14" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="E14" s="60" t="s">
+      <c r="E14" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="F14" s="60" t="s">
+      <c r="F14" s="53" t="s">
         <v>302</v>
       </c>
-      <c r="G14" s="60" t="s">
+      <c r="G14" s="53" t="s">
         <v>260</v>
       </c>
-      <c r="H14" s="61">
+      <c r="H14" s="54">
         <v>1</v>
       </c>
-      <c r="I14" s="60" t="s">
+      <c r="I14" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="K14" s="66" t="s">
+      <c r="K14" s="59" t="s">
         <v>200</v>
       </c>
-      <c r="L14" s="147"/>
-    </row>
-    <row r="15" spans="1:12" s="21" customFormat="1">
-      <c r="A15" s="85"/>
-      <c r="B15" s="85"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="63" t="s">
+      <c r="L14" s="99"/>
+    </row>
+    <row r="15" spans="1:12" s="14" customFormat="1">
+      <c r="A15" s="76"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="56" t="s">
         <v>139</v>
       </c>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="85"/>
-      <c r="J15" s="85"/>
-      <c r="K15" s="85"/>
-      <c r="L15" s="143"/>
-    </row>
-    <row r="16" spans="1:12" s="21" customFormat="1">
-      <c r="A16" s="85"/>
-      <c r="B16" s="85"/>
-      <c r="C16" s="85"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="60" t="s">
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="95"/>
+    </row>
+    <row r="16" spans="1:12" s="14" customFormat="1">
+      <c r="A16" s="76"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="85"/>
-      <c r="I16" s="85"/>
-      <c r="J16" s="85"/>
-      <c r="K16" s="85"/>
-      <c r="L16" s="143"/>
-    </row>
-    <row r="17" spans="1:12" s="21" customFormat="1">
-      <c r="A17" s="85"/>
-      <c r="B17" s="85"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="60" t="s">
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="95"/>
+    </row>
+    <row r="17" spans="1:12" s="14" customFormat="1">
+      <c r="A17" s="76"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="85"/>
-      <c r="K17" s="85"/>
-      <c r="L17" s="143"/>
-    </row>
-    <row r="18" spans="1:12" s="21" customFormat="1">
-      <c r="A18" s="85"/>
-      <c r="B18" s="85"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="65" t="s">
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="76"/>
+      <c r="L17" s="95"/>
+    </row>
+    <row r="18" spans="1:12" s="14" customFormat="1">
+      <c r="A18" s="76"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="F18" s="85"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="85"/>
-      <c r="J18" s="85"/>
-      <c r="K18" s="85"/>
-      <c r="L18" s="144"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="96"/>
     </row>
     <row r="19" spans="1:12" s="2" customFormat="1">
       <c r="A19" s="2" t="s">
@@ -4084,143 +5097,143 @@
       <c r="G19" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="H19" s="30">
+      <c r="H19" s="23">
         <v>2</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K19" s="16" t="s">
+      <c r="K19" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="L19" s="145"/>
+      <c r="L19" s="97"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
       <c r="E20" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="146"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="98"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
       <c r="E21" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="146"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="98"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="23" t="s">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="148"/>
-    </row>
-    <row r="23" spans="1:12" s="60" customFormat="1">
-      <c r="A23" s="60" t="s">
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="100"/>
+    </row>
+    <row r="23" spans="1:12" s="53" customFormat="1">
+      <c r="A23" s="53" t="s">
         <v>219</v>
       </c>
-      <c r="B23" s="60" t="s">
+      <c r="B23" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="60" t="s">
+      <c r="C23" s="53" t="s">
         <v>394</v>
       </c>
-      <c r="D23" s="60" t="s">
+      <c r="D23" s="53" t="s">
         <v>403</v>
       </c>
-      <c r="E23" s="60" t="s">
+      <c r="E23" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="F23" s="60" t="s">
+      <c r="F23" s="53" t="s">
         <v>304</v>
       </c>
-      <c r="G23" s="60" t="s">
+      <c r="G23" s="53" t="s">
         <v>262</v>
       </c>
-      <c r="H23" s="61">
+      <c r="H23" s="54">
         <v>5</v>
       </c>
-      <c r="I23" s="60" t="s">
+      <c r="I23" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="K23" s="66"/>
-      <c r="L23" s="147"/>
-    </row>
-    <row r="24" spans="1:12" s="21" customFormat="1">
-      <c r="A24" s="85"/>
-      <c r="B24" s="85"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="63" t="s">
+      <c r="K23" s="59"/>
+      <c r="L23" s="99"/>
+    </row>
+    <row r="24" spans="1:12" s="14" customFormat="1">
+      <c r="A24" s="76"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="56" t="s">
         <v>139</v>
       </c>
-      <c r="F24" s="85"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="85"/>
-      <c r="I24" s="85"/>
-      <c r="J24" s="85"/>
-      <c r="K24" s="85"/>
-      <c r="L24" s="143"/>
-    </row>
-    <row r="25" spans="1:12" s="21" customFormat="1">
-      <c r="A25" s="85"/>
-      <c r="B25" s="85"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="60" t="s">
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="95"/>
+    </row>
+    <row r="25" spans="1:12" s="14" customFormat="1">
+      <c r="A25" s="76"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="F25" s="85"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="85"/>
-      <c r="I25" s="85"/>
-      <c r="J25" s="85"/>
-      <c r="K25" s="85"/>
-      <c r="L25" s="143"/>
-    </row>
-    <row r="26" spans="1:12" s="21" customFormat="1">
-      <c r="A26" s="85"/>
-      <c r="B26" s="85"/>
-      <c r="C26" s="85"/>
-      <c r="D26" s="85"/>
-      <c r="E26" s="60" t="s">
+      <c r="F25" s="76"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="76"/>
+      <c r="K25" s="76"/>
+      <c r="L25" s="95"/>
+    </row>
+    <row r="26" spans="1:12" s="14" customFormat="1">
+      <c r="A26" s="76"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="53" t="s">
         <v>147</v>
       </c>
-      <c r="F26" s="85"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="85"/>
-      <c r="I26" s="85"/>
-      <c r="J26" s="85"/>
-      <c r="K26" s="85"/>
-      <c r="L26" s="144"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="96"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="2" t="s">
@@ -4229,10 +5242,10 @@
       <c r="B27" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C27" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" s="16" t="s">
+      <c r="C27" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="11" t="s">
         <v>68</v>
       </c>
       <c r="E27" s="2" t="s">
@@ -4244,46 +5257,46 @@
       <c r="G27" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="H27" s="30">
+      <c r="H27" s="23">
         <v>1</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="21" customFormat="1">
-      <c r="A28" s="60" t="s">
+    <row r="28" spans="1:12" s="14" customFormat="1">
+      <c r="A28" s="53" t="s">
         <v>221</v>
       </c>
-      <c r="B28" s="60" t="s">
+      <c r="B28" s="53" t="s">
         <v>404</v>
       </c>
-      <c r="C28" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="E28" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="F28" s="60" t="s">
+      <c r="C28" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" s="53" t="s">
         <v>306</v>
       </c>
-      <c r="G28" s="60" t="s">
+      <c r="G28" s="53" t="s">
         <v>264</v>
       </c>
-      <c r="H28" s="61">
+      <c r="H28" s="54">
         <v>1</v>
       </c>
-      <c r="I28" s="60" t="s">
+      <c r="I28" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="J28" s="60"/>
-      <c r="K28" s="66" t="s">
-        <v>543</v>
-      </c>
-      <c r="L28" s="60"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="59" t="s">
+        <v>197</v>
+      </c>
+      <c r="L28" s="53"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="2" t="s">
@@ -4292,10 +5305,10 @@
       <c r="B29" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="C29" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="16" t="s">
+      <c r="C29" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="11" t="s">
         <v>68</v>
       </c>
       <c r="E29" s="2" t="s">
@@ -4307,49 +5320,49 @@
       <c r="G29" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="H29" s="30">
+      <c r="H29" s="23">
         <v>4</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K29" s="90" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" s="21" customFormat="1">
-      <c r="A30" s="60" t="s">
+      <c r="K29" s="81" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="14" customFormat="1">
+      <c r="A30" s="53" t="s">
         <v>406</v>
       </c>
-      <c r="B30" s="60" t="s">
+      <c r="B30" s="53" t="s">
         <v>409</v>
       </c>
-      <c r="C30" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="E30" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="F30" s="60" t="s">
+      <c r="C30" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" s="53" t="s">
         <v>410</v>
       </c>
-      <c r="G30" s="60" t="s">
+      <c r="G30" s="53" t="s">
         <v>412</v>
       </c>
-      <c r="H30" s="61">
+      <c r="H30" s="54">
         <v>5</v>
       </c>
-      <c r="I30" s="60" t="s">
+      <c r="I30" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="J30" s="60"/>
-      <c r="K30" s="66" t="s">
-        <v>543</v>
-      </c>
-      <c r="L30" s="60"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="59" t="s">
+        <v>197</v>
+      </c>
+      <c r="L30" s="53"/>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="2" t="s">
@@ -4358,10 +5371,10 @@
       <c r="B31" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="C31" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31" s="16" t="s">
+      <c r="C31" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="11" t="s">
         <v>68</v>
       </c>
       <c r="E31" s="2" t="s">
@@ -4373,49 +5386,49 @@
       <c r="G31" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="H31" s="30">
+      <c r="H31" s="23">
         <v>1</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="K31" s="16" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" s="21" customFormat="1">
-      <c r="A32" s="60" t="s">
+      <c r="K31" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="14" customFormat="1">
+      <c r="A32" s="53" t="s">
         <v>417</v>
       </c>
-      <c r="B32" s="60" t="s">
+      <c r="B32" s="53" t="s">
         <v>415</v>
       </c>
-      <c r="C32" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="D32" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="E32" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="F32" s="60" t="s">
+      <c r="C32" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="F32" s="53" t="s">
         <v>419</v>
       </c>
-      <c r="G32" s="60" t="s">
+      <c r="G32" s="53" t="s">
         <v>421</v>
       </c>
-      <c r="H32" s="61">
+      <c r="H32" s="54">
         <v>2</v>
       </c>
-      <c r="I32" s="60" t="s">
+      <c r="I32" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="J32" s="60"/>
-      <c r="K32" s="66" t="s">
-        <v>200</v>
-      </c>
-      <c r="L32" s="60"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="59" t="s">
+        <v>195</v>
+      </c>
+      <c r="L32" s="53"/>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="2" t="s">
@@ -4424,64 +5437,64 @@
       <c r="B33" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="C33" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D33" s="16" t="s">
+      <c r="C33" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="11" t="s">
         <v>68</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F33" s="87" t="s">
+      <c r="F33" s="78" t="s">
         <v>420</v>
       </c>
-      <c r="G33" s="87" t="s">
+      <c r="G33" s="78" t="s">
         <v>422</v>
       </c>
-      <c r="H33" s="30">
+      <c r="H33" s="23">
         <v>3</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="K33" s="16" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" s="21" customFormat="1">
-      <c r="A34" s="60" t="s">
+      <c r="K33" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="14" customFormat="1">
+      <c r="A34" s="53" t="s">
+        <v>543</v>
+      </c>
+      <c r="B34" s="59" t="s">
+        <v>552</v>
+      </c>
+      <c r="C34" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="F34" s="53" t="s">
         <v>544</v>
       </c>
-      <c r="B34" s="66" t="s">
-        <v>553</v>
-      </c>
-      <c r="C34" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="D34" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="E34" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="F34" s="60" t="s">
+      <c r="G34" s="53" t="s">
         <v>545</v>
       </c>
-      <c r="G34" s="60" t="s">
-        <v>546</v>
-      </c>
-      <c r="H34" s="61">
+      <c r="H34" s="54">
         <v>3</v>
       </c>
-      <c r="I34" s="60" t="s">
+      <c r="I34" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="J34" s="60"/>
-      <c r="K34" s="66" t="s">
-        <v>200</v>
-      </c>
-      <c r="L34" s="60"/>
+      <c r="J34" s="53"/>
+      <c r="K34" s="59" t="s">
+        <v>554</v>
+      </c>
+      <c r="L34" s="53"/>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="2" t="s">
@@ -4490,10 +5503,10 @@
       <c r="B35" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="C35" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D35" s="16" t="s">
+      <c r="C35" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="11" t="s">
         <v>68</v>
       </c>
       <c r="E35" s="2" t="s">
@@ -4505,44 +5518,44 @@
       <c r="G35" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="H35" s="30">
+      <c r="H35" s="23">
         <v>1</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:12" s="21" customFormat="1">
-      <c r="A36" s="60" t="s">
+    <row r="36" spans="1:12" s="14" customFormat="1">
+      <c r="A36" s="53" t="s">
         <v>426</v>
       </c>
-      <c r="B36" s="66" t="s">
+      <c r="B36" s="59" t="s">
         <v>424</v>
       </c>
-      <c r="C36" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="D36" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="E36" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="F36" s="60" t="s">
+      <c r="C36" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" s="53" t="s">
         <v>428</v>
       </c>
-      <c r="G36" s="60" t="s">
+      <c r="G36" s="53" t="s">
         <v>430</v>
       </c>
-      <c r="H36" s="61">
+      <c r="H36" s="54">
         <v>4</v>
       </c>
-      <c r="I36" s="60" t="s">
+      <c r="I36" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="J36" s="60"/>
-      <c r="K36" s="66"/>
-      <c r="L36" s="60"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="59"/>
+      <c r="L36" s="53"/>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="2" t="s">
@@ -4551,10 +5564,10 @@
       <c r="B37" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="C37" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D37" s="16" t="s">
+      <c r="C37" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="11" t="s">
         <v>68</v>
       </c>
       <c r="E37" s="2" t="s">
@@ -4566,44 +5579,44 @@
       <c r="G37" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="H37" s="30">
+      <c r="H37" s="23">
         <v>5</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="1:12" s="21" customFormat="1">
-      <c r="A38" s="60" t="s">
+    <row r="38" spans="1:12" s="14" customFormat="1">
+      <c r="A38" s="53" t="s">
         <v>224</v>
       </c>
-      <c r="B38" s="66" t="s">
+      <c r="B38" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="C38" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="D38" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="E38" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="F38" s="60" t="s">
+      <c r="C38" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="E38" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="F38" s="53" t="s">
         <v>309</v>
       </c>
-      <c r="G38" s="60" t="s">
+      <c r="G38" s="53" t="s">
         <v>267</v>
       </c>
-      <c r="H38" s="61">
+      <c r="H38" s="54">
         <v>1</v>
       </c>
-      <c r="I38" s="60" t="s">
+      <c r="I38" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="J38" s="60"/>
-      <c r="K38" s="66"/>
-      <c r="L38" s="60" t="s">
+      <c r="J38" s="53"/>
+      <c r="K38" s="59"/>
+      <c r="L38" s="53" t="s">
         <v>413</v>
       </c>
     </row>
@@ -4614,10 +5627,10 @@
       <c r="B39" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="C39" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D39" s="16" t="s">
+      <c r="C39" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" s="11" t="s">
         <v>68</v>
       </c>
       <c r="E39" s="2" t="s">
@@ -4629,44 +5642,44 @@
       <c r="G39" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="H39" s="30">
+      <c r="H39" s="23">
         <v>3</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:12" s="21" customFormat="1">
-      <c r="A40" s="60" t="s">
+    <row r="40" spans="1:12" s="14" customFormat="1">
+      <c r="A40" s="53" t="s">
         <v>435</v>
       </c>
-      <c r="B40" s="66" t="s">
+      <c r="B40" s="59" t="s">
         <v>433</v>
       </c>
-      <c r="C40" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="D40" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="E40" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="F40" s="60" t="s">
+      <c r="C40" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="E40" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="F40" s="53" t="s">
         <v>437</v>
       </c>
-      <c r="G40" s="60" t="s">
+      <c r="G40" s="53" t="s">
         <v>439</v>
       </c>
-      <c r="H40" s="61">
+      <c r="H40" s="54">
         <v>4</v>
       </c>
-      <c r="I40" s="60" t="s">
+      <c r="I40" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="J40" s="60"/>
-      <c r="K40" s="66"/>
-      <c r="L40" s="60"/>
+      <c r="J40" s="53"/>
+      <c r="K40" s="59"/>
+      <c r="L40" s="53"/>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="2" t="s">
@@ -4675,10 +5688,10 @@
       <c r="B41" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="C41" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D41" s="16" t="s">
+      <c r="C41" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" s="11" t="s">
         <v>68</v>
       </c>
       <c r="E41" s="2" t="s">
@@ -4690,44 +5703,44 @@
       <c r="G41" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="H41" s="30">
+      <c r="H41" s="23">
         <v>4</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:12" s="21" customFormat="1">
-      <c r="A42" s="60" t="s">
+    <row r="42" spans="1:12" s="14" customFormat="1">
+      <c r="A42" s="53" t="s">
         <v>226</v>
       </c>
-      <c r="B42" s="66" t="s">
+      <c r="B42" s="59" t="s">
         <v>441</v>
       </c>
-      <c r="C42" s="66" t="s">
+      <c r="C42" s="59" t="s">
         <v>395</v>
       </c>
-      <c r="D42" s="66" t="s">
+      <c r="D42" s="59" t="s">
         <v>396</v>
       </c>
-      <c r="E42" s="60" t="s">
+      <c r="E42" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="F42" s="60" t="s">
+      <c r="F42" s="53" t="s">
         <v>311</v>
       </c>
-      <c r="G42" s="60" t="s">
+      <c r="G42" s="53" t="s">
         <v>269</v>
       </c>
-      <c r="H42" s="61">
+      <c r="H42" s="54">
         <v>2</v>
       </c>
-      <c r="I42" s="60" t="s">
+      <c r="I42" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="J42" s="60"/>
-      <c r="K42" s="66"/>
-      <c r="L42" s="60"/>
+      <c r="J42" s="53"/>
+      <c r="K42" s="59"/>
+      <c r="L42" s="53"/>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="2" t="s">
@@ -4736,10 +5749,10 @@
       <c r="B43" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="11" t="s">
         <v>448</v>
       </c>
       <c r="E43" s="2" t="s">
@@ -4751,44 +5764,44 @@
       <c r="G43" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="H43" s="30">
+      <c r="H43" s="23">
         <v>5</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:12" s="21" customFormat="1">
-      <c r="A44" s="60" t="s">
+    <row r="44" spans="1:12" s="14" customFormat="1">
+      <c r="A44" s="53" t="s">
         <v>445</v>
       </c>
-      <c r="B44" s="66" t="s">
+      <c r="B44" s="59" t="s">
         <v>443</v>
       </c>
-      <c r="C44" s="66" t="s">
+      <c r="C44" s="59" t="s">
         <v>447</v>
       </c>
-      <c r="D44" s="66" t="s">
+      <c r="D44" s="59" t="s">
         <v>449</v>
       </c>
-      <c r="E44" s="60" t="s">
+      <c r="E44" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="F44" s="60" t="s">
+      <c r="F44" s="53" t="s">
         <v>451</v>
       </c>
-      <c r="G44" s="60" t="s">
+      <c r="G44" s="53" t="s">
         <v>453</v>
       </c>
-      <c r="H44" s="61">
+      <c r="H44" s="54">
         <v>5</v>
       </c>
-      <c r="I44" s="60" t="s">
+      <c r="I44" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="J44" s="60"/>
-      <c r="K44" s="66"/>
-      <c r="L44" s="60"/>
+      <c r="J44" s="53"/>
+      <c r="K44" s="59"/>
+      <c r="L44" s="53"/>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="2" t="s">
@@ -4797,10 +5810,10 @@
       <c r="B45" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C45" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D45" s="16" t="s">
+      <c r="C45" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" s="11" t="s">
         <v>68</v>
       </c>
       <c r="E45" s="2" t="s">
@@ -4812,44 +5825,44 @@
       <c r="G45" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="H45" s="30">
+      <c r="H45" s="23">
         <v>1</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:12" s="21" customFormat="1">
-      <c r="A46" s="60" t="s">
+    <row r="46" spans="1:12" s="14" customFormat="1">
+      <c r="A46" s="53" t="s">
         <v>228</v>
       </c>
-      <c r="B46" s="66" t="s">
+      <c r="B46" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="C46" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="D46" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="E46" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="F46" s="60" t="s">
+      <c r="C46" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="E46" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="F46" s="53" t="s">
         <v>313</v>
       </c>
-      <c r="G46" s="60" t="s">
+      <c r="G46" s="53" t="s">
         <v>271</v>
       </c>
-      <c r="H46" s="61">
+      <c r="H46" s="54">
         <v>2</v>
       </c>
-      <c r="I46" s="60" t="s">
+      <c r="I46" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="J46" s="60"/>
-      <c r="K46" s="66"/>
-      <c r="L46" s="60"/>
+      <c r="J46" s="53"/>
+      <c r="K46" s="59"/>
+      <c r="L46" s="53"/>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="2" t="s">
@@ -4858,10 +5871,10 @@
       <c r="B47" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C47" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D47" s="16" t="s">
+      <c r="C47" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" s="11" t="s">
         <v>68</v>
       </c>
       <c r="E47" s="2" t="s">
@@ -4873,44 +5886,44 @@
       <c r="G47" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="H47" s="30">
+      <c r="H47" s="23">
         <v>4</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="1:12" s="21" customFormat="1">
-      <c r="A48" s="60" t="s">
+    <row r="48" spans="1:12" s="14" customFormat="1">
+      <c r="A48" s="53" t="s">
         <v>230</v>
       </c>
-      <c r="B48" s="66" t="s">
+      <c r="B48" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="C48" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="D48" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="E48" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="F48" s="60" t="s">
+      <c r="C48" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="E48" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="F48" s="53" t="s">
         <v>315</v>
       </c>
-      <c r="G48" s="60" t="s">
+      <c r="G48" s="53" t="s">
         <v>273</v>
       </c>
-      <c r="H48" s="61">
+      <c r="H48" s="54">
         <v>5</v>
       </c>
-      <c r="I48" s="60" t="s">
+      <c r="I48" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="J48" s="60"/>
-      <c r="K48" s="66"/>
-      <c r="L48" s="60"/>
+      <c r="J48" s="53"/>
+      <c r="K48" s="59"/>
+      <c r="L48" s="53"/>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="2" t="s">
@@ -4919,10 +5932,10 @@
       <c r="B49" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C49" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D49" s="16" t="s">
+      <c r="C49" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" s="11" t="s">
         <v>68</v>
       </c>
       <c r="E49" s="2" t="s">
@@ -4934,49 +5947,49 @@
       <c r="G49" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="H49" s="30">
+      <c r="H49" s="23">
         <v>4</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="K49" s="16" t="s">
+      <c r="K49" s="11" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="1:12" s="21" customFormat="1">
-      <c r="A50" s="60" t="s">
+    <row r="50" spans="1:12" s="14" customFormat="1">
+      <c r="A50" s="53" t="s">
+        <v>546</v>
+      </c>
+      <c r="B50" s="53" t="s">
+        <v>551</v>
+      </c>
+      <c r="C50" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="E50" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="F50" s="53" t="s">
         <v>547</v>
       </c>
-      <c r="B50" s="60" t="s">
-        <v>552</v>
-      </c>
-      <c r="C50" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="D50" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="E50" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="F50" s="60" t="s">
+      <c r="G50" s="53" t="s">
         <v>548</v>
       </c>
-      <c r="G50" s="60" t="s">
-        <v>549</v>
-      </c>
-      <c r="H50" s="61">
+      <c r="H50" s="54">
         <v>4</v>
       </c>
-      <c r="I50" s="60" t="s">
+      <c r="I50" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="J50" s="60"/>
-      <c r="K50" s="66" t="s">
+      <c r="J50" s="53"/>
+      <c r="K50" s="59" t="s">
         <v>200</v>
       </c>
-      <c r="L50" s="60"/>
+      <c r="L50" s="53"/>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="2" t="s">
@@ -4985,10 +5998,10 @@
       <c r="B51" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C51" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D51" s="16" t="s">
+      <c r="C51" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" s="11" t="s">
         <v>68</v>
       </c>
       <c r="E51" s="2" t="s">
@@ -5000,47 +6013,47 @@
       <c r="G51" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="H51" s="30">
+      <c r="H51" s="23">
         <v>3</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="K51" s="16" t="s">
+      <c r="K51" s="11" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="52" spans="1:12" s="21" customFormat="1">
-      <c r="A52" s="60" t="s">
+    <row r="52" spans="1:12" s="14" customFormat="1">
+      <c r="A52" s="53" t="s">
         <v>233</v>
       </c>
-      <c r="B52" s="60" t="s">
+      <c r="B52" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="C52" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="D52" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="E52" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="F52" s="60" t="s">
+      <c r="C52" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="E52" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="F52" s="53" t="s">
         <v>318</v>
       </c>
-      <c r="G52" s="60" t="s">
+      <c r="G52" s="53" t="s">
         <v>276</v>
       </c>
-      <c r="H52" s="61">
+      <c r="H52" s="54">
         <v>5</v>
       </c>
-      <c r="I52" s="60" t="s">
+      <c r="I52" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="J52" s="60"/>
-      <c r="K52" s="66"/>
-      <c r="L52" s="60"/>
+      <c r="J52" s="53"/>
+      <c r="K52" s="59"/>
+      <c r="L52" s="53"/>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="2" t="s">
@@ -5049,10 +6062,10 @@
       <c r="B53" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C53" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D53" s="16" t="s">
+      <c r="C53" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" s="11" t="s">
         <v>68</v>
       </c>
       <c r="E53" s="2" t="s">
@@ -5064,47 +6077,47 @@
       <c r="G53" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="H53" s="30">
+      <c r="H53" s="23">
         <v>3</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="K53" s="16" t="s">
+      <c r="K53" s="11" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="54" spans="1:12" s="21" customFormat="1">
-      <c r="A54" s="60" t="s">
+    <row r="54" spans="1:12" s="14" customFormat="1">
+      <c r="A54" s="53" t="s">
         <v>235</v>
       </c>
-      <c r="B54" s="60" t="s">
+      <c r="B54" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="C54" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="D54" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="E54" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="F54" s="60" t="s">
+      <c r="C54" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="E54" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="F54" s="53" t="s">
         <v>320</v>
       </c>
-      <c r="G54" s="60" t="s">
+      <c r="G54" s="53" t="s">
         <v>278</v>
       </c>
-      <c r="H54" s="61">
+      <c r="H54" s="54">
         <v>2</v>
       </c>
-      <c r="I54" s="60" t="s">
+      <c r="I54" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="J54" s="60"/>
-      <c r="K54" s="66"/>
-      <c r="L54" s="60"/>
+      <c r="J54" s="53"/>
+      <c r="K54" s="59"/>
+      <c r="L54" s="53"/>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="2" t="s">
@@ -5113,10 +6126,10 @@
       <c r="B55" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C55" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D55" s="16" t="s">
+      <c r="C55" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" s="11" t="s">
         <v>68</v>
       </c>
       <c r="E55" s="2" t="s">
@@ -5128,44 +6141,44 @@
       <c r="G55" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="H55" s="30">
+      <c r="H55" s="23">
         <v>1</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="1:12" s="21" customFormat="1">
-      <c r="A56" s="60" t="s">
+    <row r="56" spans="1:12" s="14" customFormat="1">
+      <c r="A56" s="53" t="s">
         <v>236</v>
       </c>
-      <c r="B56" s="60" t="s">
+      <c r="B56" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="C56" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="D56" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="E56" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="F56" s="60" t="s">
+      <c r="C56" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="E56" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="F56" s="53" t="s">
         <v>322</v>
       </c>
-      <c r="G56" s="60" t="s">
+      <c r="G56" s="53" t="s">
         <v>280</v>
       </c>
-      <c r="H56" s="61">
+      <c r="H56" s="54">
         <v>3</v>
       </c>
-      <c r="I56" s="60" t="s">
+      <c r="I56" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="J56" s="60"/>
-      <c r="K56" s="66"/>
-      <c r="L56" s="60"/>
+      <c r="J56" s="53"/>
+      <c r="K56" s="59"/>
+      <c r="L56" s="53"/>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="2" t="s">
@@ -5174,10 +6187,10 @@
       <c r="B57" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C57" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D57" s="16" t="s">
+      <c r="C57" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" s="11" t="s">
         <v>68</v>
       </c>
       <c r="E57" s="2" t="s">
@@ -5189,44 +6202,44 @@
       <c r="G57" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="H57" s="30">
+      <c r="H57" s="23">
         <v>5</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="58" spans="1:12" s="21" customFormat="1">
-      <c r="A58" s="60" t="s">
+    <row r="58" spans="1:12" s="14" customFormat="1">
+      <c r="A58" s="53" t="s">
         <v>239</v>
       </c>
-      <c r="B58" s="60" t="s">
+      <c r="B58" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="C58" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="D58" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="E58" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="F58" s="60" t="s">
+      <c r="C58" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="E58" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="F58" s="53" t="s">
         <v>324</v>
       </c>
-      <c r="G58" s="60" t="s">
+      <c r="G58" s="53" t="s">
         <v>282</v>
       </c>
-      <c r="H58" s="61">
+      <c r="H58" s="54">
         <v>4</v>
       </c>
-      <c r="I58" s="60" t="s">
+      <c r="I58" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="J58" s="60"/>
-      <c r="K58" s="66"/>
-      <c r="L58" s="60"/>
+      <c r="J58" s="53"/>
+      <c r="K58" s="59"/>
+      <c r="L58" s="53"/>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="2" t="s">
@@ -5235,10 +6248,10 @@
       <c r="B59" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C59" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D59" s="16" t="s">
+      <c r="C59" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" s="11" t="s">
         <v>68</v>
       </c>
       <c r="E59" s="2" t="s">
@@ -5250,44 +6263,44 @@
       <c r="G59" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="H59" s="30">
+      <c r="H59" s="23">
         <v>2</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="60" spans="1:12" s="21" customFormat="1">
-      <c r="A60" s="60" t="s">
+    <row r="60" spans="1:12" s="14" customFormat="1">
+      <c r="A60" s="53" t="s">
         <v>241</v>
       </c>
-      <c r="B60" s="60" t="s">
+      <c r="B60" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="C60" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="D60" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="E60" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="F60" s="60" t="s">
+      <c r="C60" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="E60" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="F60" s="53" t="s">
         <v>326</v>
       </c>
-      <c r="G60" s="60" t="s">
+      <c r="G60" s="53" t="s">
         <v>284</v>
       </c>
-      <c r="H60" s="61">
+      <c r="H60" s="54">
         <v>3</v>
       </c>
-      <c r="I60" s="60" t="s">
+      <c r="I60" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="J60" s="60"/>
-      <c r="K60" s="66"/>
-      <c r="L60" s="60"/>
+      <c r="J60" s="53"/>
+      <c r="K60" s="59"/>
+      <c r="L60" s="53"/>
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="2" t="s">
@@ -5296,10 +6309,10 @@
       <c r="B61" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C61" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D61" s="16" t="s">
+      <c r="C61" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" s="11" t="s">
         <v>68</v>
       </c>
       <c r="E61" s="2" t="s">
@@ -5311,44 +6324,44 @@
       <c r="G61" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="H61" s="30">
+      <c r="H61" s="23">
         <v>1</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="62" spans="1:12" s="21" customFormat="1">
-      <c r="A62" s="60" t="s">
+    <row r="62" spans="1:12" s="14" customFormat="1">
+      <c r="A62" s="53" t="s">
         <v>243</v>
       </c>
-      <c r="B62" s="60" t="s">
+      <c r="B62" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="C62" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="D62" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="E62" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="F62" s="60" t="s">
+      <c r="C62" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="E62" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="F62" s="53" t="s">
         <v>328</v>
       </c>
-      <c r="G62" s="60" t="s">
+      <c r="G62" s="53" t="s">
         <v>286</v>
       </c>
-      <c r="H62" s="61">
+      <c r="H62" s="54">
         <v>2</v>
       </c>
-      <c r="I62" s="60" t="s">
+      <c r="I62" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="J62" s="60"/>
-      <c r="K62" s="66"/>
-      <c r="L62" s="60"/>
+      <c r="J62" s="53"/>
+      <c r="K62" s="59"/>
+      <c r="L62" s="53"/>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="2" t="s">
@@ -5357,10 +6370,10 @@
       <c r="B63" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C63" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D63" s="16" t="s">
+      <c r="C63" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" s="11" t="s">
         <v>68</v>
       </c>
       <c r="E63" s="2" t="s">
@@ -5372,44 +6385,44 @@
       <c r="G63" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="H63" s="30">
+      <c r="H63" s="23">
         <v>3</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="64" spans="1:12" s="21" customFormat="1">
-      <c r="A64" s="60" t="s">
+    <row r="64" spans="1:12" s="14" customFormat="1">
+      <c r="A64" s="53" t="s">
         <v>245</v>
       </c>
-      <c r="B64" s="60" t="s">
+      <c r="B64" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="C64" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="D64" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="E64" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="F64" s="60" t="s">
+      <c r="C64" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="E64" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="F64" s="53" t="s">
         <v>330</v>
       </c>
-      <c r="G64" s="60" t="s">
+      <c r="G64" s="53" t="s">
         <v>288</v>
       </c>
-      <c r="H64" s="61">
+      <c r="H64" s="54">
         <v>3</v>
       </c>
-      <c r="I64" s="60" t="s">
+      <c r="I64" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="J64" s="60"/>
-      <c r="K64" s="66"/>
-      <c r="L64" s="60" t="s">
+      <c r="J64" s="53"/>
+      <c r="K64" s="59"/>
+      <c r="L64" s="53" t="s">
         <v>130</v>
       </c>
     </row>
@@ -5420,10 +6433,10 @@
       <c r="B65" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C65" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D65" s="16" t="s">
+      <c r="C65" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" s="11" t="s">
         <v>68</v>
       </c>
       <c r="E65" s="2" t="s">
@@ -5435,44 +6448,44 @@
       <c r="G65" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="H65" s="30">
+      <c r="H65" s="23">
         <v>5</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="66" spans="1:12" s="21" customFormat="1">
-      <c r="A66" s="60" t="s">
+    <row r="66" spans="1:12" s="14" customFormat="1">
+      <c r="A66" s="53" t="s">
         <v>247</v>
       </c>
-      <c r="B66" s="60" t="s">
+      <c r="B66" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="C66" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="D66" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="E66" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="F66" s="60" t="s">
+      <c r="C66" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="E66" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="F66" s="53" t="s">
         <v>332</v>
       </c>
-      <c r="G66" s="60" t="s">
+      <c r="G66" s="53" t="s">
         <v>290</v>
       </c>
-      <c r="H66" s="61">
+      <c r="H66" s="54">
         <v>5</v>
       </c>
-      <c r="I66" s="60" t="s">
+      <c r="I66" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="J66" s="60"/>
-      <c r="K66" s="66"/>
-      <c r="L66" s="60"/>
+      <c r="J66" s="53"/>
+      <c r="K66" s="59"/>
+      <c r="L66" s="53"/>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="2" t="s">
@@ -5481,10 +6494,10 @@
       <c r="B67" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C67" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D67" s="16" t="s">
+      <c r="C67" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" s="11" t="s">
         <v>68</v>
       </c>
       <c r="E67" s="2" t="s">
@@ -5496,44 +6509,44 @@
       <c r="G67" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="H67" s="30">
+      <c r="H67" s="23">
         <v>3</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="68" spans="1:12" s="21" customFormat="1">
-      <c r="A68" s="60" t="s">
+    <row r="68" spans="1:12" s="14" customFormat="1">
+      <c r="A68" s="53" t="s">
         <v>249</v>
       </c>
-      <c r="B68" s="60" t="s">
+      <c r="B68" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="C68" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="D68" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="E68" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="F68" s="60" t="s">
+      <c r="C68" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="E68" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="F68" s="53" t="s">
         <v>334</v>
       </c>
-      <c r="G68" s="60" t="s">
+      <c r="G68" s="53" t="s">
         <v>292</v>
       </c>
-      <c r="H68" s="61">
+      <c r="H68" s="54">
         <v>3</v>
       </c>
-      <c r="I68" s="60" t="s">
+      <c r="I68" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="J68" s="60"/>
-      <c r="K68" s="66"/>
-      <c r="L68" s="60"/>
+      <c r="J68" s="53"/>
+      <c r="K68" s="59"/>
+      <c r="L68" s="53"/>
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="2" t="s">
@@ -5542,10 +6555,10 @@
       <c r="B69" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C69" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D69" s="16" t="s">
+      <c r="C69" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" s="11" t="s">
         <v>68</v>
       </c>
       <c r="E69" s="2" t="s">
@@ -5557,44 +6570,44 @@
       <c r="G69" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="H69" s="30">
+      <c r="H69" s="23">
         <v>3</v>
       </c>
       <c r="I69" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="70" spans="1:12" s="21" customFormat="1">
-      <c r="A70" s="60" t="s">
+    <row r="70" spans="1:12" s="14" customFormat="1">
+      <c r="A70" s="53" t="s">
         <v>251</v>
       </c>
-      <c r="B70" s="60" t="s">
+      <c r="B70" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="C70" s="60" t="s">
+      <c r="C70" s="53" t="s">
         <v>397</v>
       </c>
-      <c r="D70" s="60" t="s">
+      <c r="D70" s="53" t="s">
         <v>398</v>
       </c>
-      <c r="E70" s="60" t="s">
+      <c r="E70" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="F70" s="60" t="s">
+      <c r="F70" s="53" t="s">
         <v>336</v>
       </c>
-      <c r="G70" s="60" t="s">
+      <c r="G70" s="53" t="s">
         <v>294</v>
       </c>
-      <c r="H70" s="61">
+      <c r="H70" s="54">
         <v>2</v>
       </c>
-      <c r="I70" s="60" t="s">
+      <c r="I70" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="J70" s="60"/>
-      <c r="K70" s="66"/>
-      <c r="L70" s="60"/>
+      <c r="J70" s="53"/>
+      <c r="K70" s="59"/>
+      <c r="L70" s="53"/>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="2" t="s">
@@ -5603,10 +6616,10 @@
       <c r="B71" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C71" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D71" s="16" t="s">
+      <c r="C71" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" s="11" t="s">
         <v>68</v>
       </c>
       <c r="E71" s="2" t="s">
@@ -5618,7 +6631,7 @@
       <c r="G71" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="H71" s="30">
+      <c r="H71" s="23">
         <v>3</v>
       </c>
       <c r="I71" s="2" t="s">
@@ -5628,37 +6641,37 @@
         <v>131</v>
       </c>
     </row>
-    <row r="72" spans="1:12" s="21" customFormat="1">
-      <c r="A72" s="60" t="s">
+    <row r="72" spans="1:12" s="14" customFormat="1">
+      <c r="A72" s="53" t="s">
         <v>253</v>
       </c>
-      <c r="B72" s="60" t="s">
+      <c r="B72" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="C72" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="D72" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="E72" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="F72" s="60" t="s">
+      <c r="C72" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="E72" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="F72" s="53" t="s">
         <v>338</v>
       </c>
-      <c r="G72" s="60" t="s">
+      <c r="G72" s="53" t="s">
         <v>296</v>
       </c>
-      <c r="H72" s="61">
+      <c r="H72" s="54">
         <v>3</v>
       </c>
-      <c r="I72" s="60" t="s">
+      <c r="I72" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="J72" s="60"/>
-      <c r="K72" s="66"/>
-      <c r="L72" s="60"/>
+      <c r="J72" s="53"/>
+      <c r="K72" s="59"/>
+      <c r="L72" s="53"/>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="2" t="s">
@@ -5667,10 +6680,10 @@
       <c r="B73" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C73" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D73" s="16" t="s">
+      <c r="C73" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" s="11" t="s">
         <v>68</v>
       </c>
       <c r="E73" s="2" t="s">
@@ -5682,44 +6695,44 @@
       <c r="G73" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="H73" s="30">
+      <c r="H73" s="23">
         <v>3</v>
       </c>
       <c r="I73" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="74" spans="1:12" s="21" customFormat="1">
-      <c r="A74" s="60" t="s">
+    <row r="74" spans="1:12" s="14" customFormat="1">
+      <c r="A74" s="53" t="s">
         <v>255</v>
       </c>
-      <c r="B74" s="60" t="s">
+      <c r="B74" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="C74" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="D74" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="E74" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="F74" s="60" t="s">
+      <c r="C74" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="E74" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="F74" s="53" t="s">
         <v>340</v>
       </c>
-      <c r="G74" s="60" t="s">
+      <c r="G74" s="53" t="s">
         <v>298</v>
       </c>
-      <c r="H74" s="61">
+      <c r="H74" s="54">
         <v>3</v>
       </c>
-      <c r="I74" s="60" t="s">
+      <c r="I74" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="J74" s="60"/>
-      <c r="K74" s="66"/>
-      <c r="L74" s="60"/>
+      <c r="J74" s="53"/>
+      <c r="K74" s="59"/>
+      <c r="L74" s="53"/>
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="2" t="s">
@@ -5728,10 +6741,10 @@
       <c r="B75" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C75" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D75" s="16" t="s">
+      <c r="C75" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" s="11" t="s">
         <v>68</v>
       </c>
       <c r="E75" s="2" t="s">
@@ -5743,76 +6756,76 @@
       <c r="G75" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="H75" s="30">
+      <c r="H75" s="23">
         <v>2</v>
       </c>
       <c r="I75" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="76" spans="1:12" s="21" customFormat="1">
-      <c r="A76" s="60" t="s">
+    <row r="76" spans="1:12" s="14" customFormat="1">
+      <c r="A76" s="53" t="s">
         <v>257</v>
       </c>
-      <c r="B76" s="60" t="s">
+      <c r="B76" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="C76" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="D76" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="E76" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="F76" s="60" t="s">
+      <c r="C76" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="E76" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="F76" s="53" t="s">
         <v>341</v>
       </c>
-      <c r="G76" s="60" t="s">
+      <c r="G76" s="53" t="s">
         <v>300</v>
       </c>
-      <c r="H76" s="61">
+      <c r="H76" s="54">
         <v>3</v>
       </c>
-      <c r="I76" s="60" t="s">
+      <c r="I76" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="J76" s="60"/>
-      <c r="K76" s="66"/>
-      <c r="L76" s="60"/>
-    </row>
-    <row r="77" spans="1:12" s="92" customFormat="1">
-      <c r="A77" s="87" t="s">
+      <c r="J76" s="53"/>
+      <c r="K76" s="59"/>
+      <c r="L76" s="53"/>
+    </row>
+    <row r="77" spans="1:12" s="83" customFormat="1">
+      <c r="A77" s="78" t="s">
         <v>530</v>
       </c>
-      <c r="B77" s="87" t="s">
+      <c r="B77" s="78" t="s">
         <v>522</v>
       </c>
-      <c r="C77" s="90" t="s">
-        <v>68</v>
-      </c>
-      <c r="D77" s="90" t="s">
-        <v>68</v>
-      </c>
-      <c r="E77" s="87" t="s">
-        <v>68</v>
-      </c>
-      <c r="F77" s="87" t="s">
+      <c r="C77" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="E77" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="F77" s="78" t="s">
         <v>531</v>
       </c>
-      <c r="G77" s="87" t="s">
+      <c r="G77" s="78" t="s">
         <v>532</v>
       </c>
-      <c r="H77" s="91">
+      <c r="H77" s="82">
         <v>5</v>
       </c>
-      <c r="I77" s="87" t="s">
+      <c r="I77" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="J77" s="87"/>
-      <c r="K77" s="90"/>
-      <c r="L77" s="87"/>
+      <c r="J77" s="78"/>
+      <c r="K77" s="81"/>
+      <c r="L77" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5843,7 +6856,7 @@
   <cols>
     <col min="1" max="1" width="13.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="27.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
@@ -5859,7 +6872,7 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -5875,22 +6888,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="21" customFormat="1">
-      <c r="A2" s="63" t="s">
+    <row r="2" spans="1:7" s="14" customFormat="1">
+      <c r="A2" s="56" t="s">
         <v>343</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="56" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="67">
+      <c r="C2" s="60">
         <v>1</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
@@ -5899,29 +6912,29 @@
       <c r="B3" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="22">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="21" customFormat="1">
-      <c r="A4" s="60" t="s">
+    <row r="4" spans="1:7" s="14" customFormat="1">
+      <c r="A4" s="53" t="s">
         <v>345</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="53" t="s">
         <v>151</v>
       </c>
-      <c r="C4" s="68">
+      <c r="C4" s="61">
         <v>1</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
@@ -5930,29 +6943,29 @@
       <c r="B5" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="22">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="21" customFormat="1">
-      <c r="A6" s="60" t="s">
+    <row r="6" spans="1:7" s="14" customFormat="1">
+      <c r="A6" s="53" t="s">
         <v>347</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="68">
+      <c r="C6" s="61">
         <v>1</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
@@ -5961,7 +6974,7 @@
       <c r="B7" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="22">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -5971,22 +6984,22 @@
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="21" customFormat="1">
-      <c r="A8" s="60" t="s">
+    <row r="8" spans="1:7" s="14" customFormat="1">
+      <c r="A8" s="53" t="s">
         <v>349</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="C8" s="68">
+      <c r="C8" s="61">
         <v>1</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
@@ -5995,29 +7008,29 @@
       <c r="B9" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="22">
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="21" customFormat="1">
-      <c r="A10" s="60" t="s">
+    <row r="10" spans="1:7" s="14" customFormat="1">
+      <c r="A10" s="53" t="s">
         <v>351</v>
       </c>
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="C10" s="68">
+      <c r="C10" s="61">
         <v>1</v>
       </c>
-      <c r="D10" s="60" t="s">
+      <c r="D10" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
@@ -6026,29 +7039,29 @@
       <c r="B11" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="22">
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="21" customFormat="1">
-      <c r="A12" s="60" t="s">
+    <row r="12" spans="1:7" s="14" customFormat="1">
+      <c r="A12" s="53" t="s">
         <v>353</v>
       </c>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="53" t="s">
         <v>161</v>
       </c>
-      <c r="C12" s="68">
+      <c r="C12" s="61">
         <v>1</v>
       </c>
-      <c r="D12" s="60" t="s">
+      <c r="D12" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
@@ -6057,29 +7070,29 @@
       <c r="B13" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="22">
         <v>3</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="21" customFormat="1">
-      <c r="A14" s="60" t="s">
+    <row r="14" spans="1:7" s="14" customFormat="1">
+      <c r="A14" s="53" t="s">
         <v>355</v>
       </c>
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="68">
+      <c r="C14" s="61">
         <v>2</v>
       </c>
-      <c r="D14" s="60" t="s">
+      <c r="D14" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6095,14 +7108,14 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="24" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" style="2" customWidth="1"/>
@@ -6118,7 +7131,7 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -6134,24 +7147,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="20" customFormat="1">
-      <c r="A2" s="32" t="s">
+    <row r="2" spans="1:7" s="13" customFormat="1">
+      <c r="A2" s="25" t="s">
         <v>473</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="25" t="s">
         <v>456</v>
       </c>
-      <c r="C2" s="34">
+      <c r="C2" s="27">
         <v>1</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="25" t="s">
         <v>517</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32" t="s">
+      <c r="E2" s="25"/>
+      <c r="F2" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="G2" s="32"/>
+      <c r="G2" s="25"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
@@ -6160,7 +7173,7 @@
       <c r="B3" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="22">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -6173,24 +7186,24 @@
         <v>535</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="20" customFormat="1">
-      <c r="A4" s="33" t="s">
+    <row r="4" spans="1:7" s="13" customFormat="1">
+      <c r="A4" s="26" t="s">
         <v>474</v>
       </c>
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="77" t="s">
         <v>455</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="28">
         <v>1</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="25" t="s">
         <v>517</v>
       </c>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33" t="s">
+      <c r="E4" s="26"/>
+      <c r="F4" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="G4" s="33"/>
+      <c r="G4" s="26"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
@@ -6199,7 +7212,7 @@
       <c r="B5" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="22">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -6209,24 +7222,24 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="20" customFormat="1">
-      <c r="A6" s="33" t="s">
+    <row r="6" spans="1:7" s="13" customFormat="1">
+      <c r="A6" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="13" t="s">
         <v>454</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="28">
         <v>1</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="25" t="s">
         <v>517</v>
       </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33" t="s">
+      <c r="E6" s="26"/>
+      <c r="F6" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="G6" s="33"/>
+      <c r="G6" s="26"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
@@ -6235,7 +7248,7 @@
       <c r="B7" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="22">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -6245,24 +7258,24 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="20" customFormat="1">
-      <c r="A8" s="33" t="s">
+    <row r="8" spans="1:7" s="13" customFormat="1">
+      <c r="A8" s="26" t="s">
         <v>479</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="26" t="s">
         <v>457</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="28">
         <v>1</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="25" t="s">
         <v>517</v>
       </c>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33" t="s">
+      <c r="E8" s="26"/>
+      <c r="F8" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="26" t="s">
         <v>458</v>
       </c>
     </row>
@@ -6273,37 +7286,37 @@
       <c r="B9" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="22">
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>520</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="20" customFormat="1">
-      <c r="A10" s="33" t="s">
+    <row r="10" spans="1:7" s="13" customFormat="1">
+      <c r="A10" s="26" t="s">
         <v>481</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="26" t="s">
         <v>460</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C10" s="28">
         <v>1</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="25" t="s">
         <v>517</v>
       </c>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33" t="s">
+      <c r="E10" s="26"/>
+      <c r="F10" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="G10" s="33" t="s">
+      <c r="G10" s="26" t="s">
         <v>514</v>
       </c>
     </row>
@@ -6314,7 +7327,7 @@
       <c r="B11" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="22">
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -6324,33 +7337,33 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="20" customFormat="1">
-      <c r="A12" s="33" t="s">
+    <row r="12" spans="1:7" s="13" customFormat="1">
+      <c r="A12" s="26" t="s">
         <v>483</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="26" t="s">
         <v>463</v>
       </c>
-      <c r="C12" s="35">
+      <c r="C12" s="28">
         <v>2</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="25" t="s">
         <v>517</v>
       </c>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33" t="s">
+      <c r="E12" s="26"/>
+      <c r="F12" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="G12" s="33"/>
+      <c r="G12" s="26"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="B13" s="87" t="s">
+      <c r="B13" s="78" t="s">
         <v>465</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="22">
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -6360,126 +7373,126 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="20" customFormat="1">
-      <c r="A14" s="33" t="s">
+    <row r="14" spans="1:7" s="13" customFormat="1">
+      <c r="A14" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="26" t="s">
         <v>464</v>
       </c>
-      <c r="C14" s="35">
+      <c r="C14" s="28">
         <v>2</v>
       </c>
-      <c r="D14" s="33" t="s">
+      <c r="D14" s="26" t="s">
         <v>517</v>
       </c>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="B15" s="87" t="s">
+      <c r="B15" s="78" t="s">
         <v>466</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C15" s="22">
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="20" customFormat="1">
-      <c r="A16" s="33" t="s">
+    <row r="16" spans="1:7" s="13" customFormat="1">
+      <c r="A16" s="26" t="s">
         <v>487</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="26" t="s">
         <v>467</v>
       </c>
-      <c r="C16" s="35">
+      <c r="C16" s="28">
         <v>4</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="26" t="s">
         <v>507</v>
       </c>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="B17" s="87" t="s">
+      <c r="B17" s="78" t="s">
         <v>151</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="22">
         <v>2</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="20" customFormat="1">
-      <c r="A18" s="33" t="s">
+    <row r="18" spans="1:7" s="13" customFormat="1">
+      <c r="A18" s="26" t="s">
         <v>489</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="26" t="s">
         <v>468</v>
       </c>
-      <c r="C18" s="35">
+      <c r="C18" s="28">
         <v>1</v>
       </c>
-      <c r="D18" s="33" t="s">
+      <c r="D18" s="26" t="s">
         <v>517</v>
       </c>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33" t="s">
+      <c r="E18" s="26"/>
+      <c r="F18" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="G18" s="33"/>
+      <c r="G18" s="26"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="B19" s="88" t="s">
+      <c r="B19" s="79" t="s">
         <v>469</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C19" s="22">
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="20" customFormat="1">
-      <c r="A20" s="33" t="s">
+    <row r="20" spans="1:7" s="13" customFormat="1">
+      <c r="A20" s="26" t="s">
         <v>491</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="C20" s="35">
+      <c r="C20" s="28">
         <v>1</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="26" t="s">
         <v>517</v>
       </c>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="B21" s="89" t="s">
+      <c r="B21" s="80" t="s">
         <v>470</v>
       </c>
-      <c r="C21" s="29">
+      <c r="C21" s="22">
         <v>2</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -6489,22 +7502,22 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="20" customFormat="1">
-      <c r="A22" s="33" t="s">
+    <row r="22" spans="1:7" s="13" customFormat="1">
+      <c r="A22" s="26" t="s">
         <v>493</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="26" t="s">
         <v>471</v>
       </c>
-      <c r="C22" s="35">
+      <c r="C22" s="28">
         <v>1</v>
       </c>
-      <c r="D22" s="33" t="s">
+      <c r="D22" s="26" t="s">
         <v>517</v>
       </c>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2" t="s">
@@ -6513,29 +7526,29 @@
       <c r="B23" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="C23" s="29">
+      <c r="C23" s="22">
         <v>3</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="20" customFormat="1">
-      <c r="A24" s="33" t="s">
+    <row r="24" spans="1:7" s="13" customFormat="1">
+      <c r="A24" s="26" t="s">
         <v>510</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="26" t="s">
         <v>509</v>
       </c>
-      <c r="C24" s="35">
+      <c r="C24" s="28">
         <v>1</v>
       </c>
-      <c r="D24" s="33" t="s">
+      <c r="D24" s="26" t="s">
         <v>517</v>
       </c>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2" t="s">
@@ -6544,29 +7557,29 @@
       <c r="B25" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="C25" s="29">
+      <c r="C25" s="22">
         <v>5</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="20" customFormat="1">
-      <c r="A26" s="33" t="s">
+    <row r="26" spans="1:7" s="13" customFormat="1">
+      <c r="A26" s="26" t="s">
         <v>524</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="26" t="s">
         <v>525</v>
       </c>
-      <c r="C26" s="35">
+      <c r="C26" s="28">
         <v>5</v>
       </c>
-      <c r="D26" s="33" t="s">
+      <c r="D26" s="26" t="s">
         <v>517</v>
       </c>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2" t="s">
@@ -6575,7 +7588,7 @@
       <c r="B27" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="C27" s="29">
+      <c r="C27" s="22">
         <v>5</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -6585,22 +7598,22 @@
         <v>515</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="20" customFormat="1">
-      <c r="A28" s="33" t="s">
+    <row r="28" spans="1:7" s="13" customFormat="1">
+      <c r="A28" s="26" t="s">
         <v>527</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="26" t="s">
         <v>513</v>
       </c>
-      <c r="C28" s="35">
+      <c r="C28" s="28">
         <v>4</v>
       </c>
-      <c r="D28" s="33" t="s">
+      <c r="D28" s="26" t="s">
         <v>517</v>
       </c>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33" t="s">
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26" t="s">
         <v>516</v>
       </c>
     </row>
@@ -6611,29 +7624,29 @@
       <c r="B29" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="C29" s="29">
+      <c r="C29" s="22">
         <v>5</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="20" customFormat="1">
-      <c r="A30" s="33" t="s">
+    <row r="30" spans="1:7" s="13" customFormat="1">
+      <c r="A30" s="26" t="s">
         <v>529</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="26" t="s">
         <v>522</v>
       </c>
-      <c r="C30" s="35">
+      <c r="C30" s="28">
         <v>5</v>
       </c>
-      <c r="D30" s="33" t="s">
+      <c r="D30" s="26" t="s">
         <v>517</v>
       </c>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2" t="s">
@@ -6642,31 +7655,31 @@
       <c r="B31" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="C31" s="29">
+      <c r="C31" s="22">
         <v>3</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="20" customFormat="1">
-      <c r="A32" s="33" t="s">
+    <row r="32" spans="1:7" s="13" customFormat="1">
+      <c r="A32" s="26" t="s">
         <v>540</v>
       </c>
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="26" t="s">
         <v>539</v>
       </c>
-      <c r="C32" s="35">
+      <c r="C32" s="28">
         <v>2</v>
       </c>
-      <c r="D32" s="33" t="s">
+      <c r="D32" s="26" t="s">
         <v>517</v>
       </c>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33" t="s">
+      <c r="E32" s="26"/>
+      <c r="F32" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="G32" s="33"/>
+      <c r="G32" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6689,7 +7702,7 @@
   <cols>
     <col min="1" max="1" width="19.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="18.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" style="2" customWidth="1"/>
@@ -6705,7 +7718,7 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -6721,22 +7734,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="26" customFormat="1">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:7" s="19" customFormat="1">
+      <c r="A2" s="18" t="s">
         <v>356</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="C2" s="69">
+      <c r="C2" s="62">
         <v>4</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
@@ -6745,29 +7758,29 @@
       <c r="B3" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="22">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="26" customFormat="1">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:7" s="19" customFormat="1">
+      <c r="A4" s="20" t="s">
         <v>358</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="C4" s="70">
+      <c r="C4" s="63">
         <v>2</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27" t="s">
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20" t="s">
         <v>177</v>
       </c>
     </row>
@@ -6778,29 +7791,29 @@
       <c r="B5" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="22">
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="26" customFormat="1">
-      <c r="A6" s="27" t="s">
+    <row r="6" spans="1:7" s="19" customFormat="1">
+      <c r="A6" s="20" t="s">
         <v>360</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="C6" s="70">
+      <c r="C6" s="63">
         <v>1</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
@@ -6809,29 +7822,29 @@
       <c r="B7" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="22">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="26" customFormat="1">
-      <c r="A8" s="27" t="s">
+    <row r="8" spans="1:7" s="19" customFormat="1">
+      <c r="A8" s="20" t="s">
         <v>363</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="C8" s="70">
+      <c r="C8" s="63">
         <v>1</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27" t="s">
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20" t="s">
         <v>178</v>
       </c>
     </row>
@@ -6842,7 +7855,7 @@
       <c r="B9" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="22">
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -6852,22 +7865,22 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="26" customFormat="1">
-      <c r="A10" s="27" t="s">
+    <row r="10" spans="1:7" s="19" customFormat="1">
+      <c r="A10" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="C10" s="70">
+      <c r="C10" s="63">
         <v>2</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27" t="s">
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20" t="s">
         <v>180</v>
       </c>
     </row>
@@ -6878,29 +7891,29 @@
       <c r="B11" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="22">
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="26" customFormat="1">
-      <c r="A12" s="27" t="s">
+    <row r="12" spans="1:7" s="19" customFormat="1">
+      <c r="A12" s="20" t="s">
         <v>366</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="C12" s="70">
+      <c r="C12" s="63">
         <v>2</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
@@ -6909,29 +7922,29 @@
       <c r="B13" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="22">
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="26" customFormat="1">
-      <c r="A14" s="27" t="s">
+    <row r="14" spans="1:7" s="19" customFormat="1">
+      <c r="A14" s="20" t="s">
         <v>368</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="20" t="s">
         <v>369</v>
       </c>
-      <c r="C14" s="70">
+      <c r="C14" s="63">
         <v>3</v>
       </c>
-      <c r="D14" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27" t="s">
+      <c r="D14" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20" t="s">
         <v>181</v>
       </c>
     </row>
@@ -6942,7 +7955,7 @@
       <c r="B15" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C15" s="22">
         <v>3</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -6952,22 +7965,22 @@
         <v>181</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="26" customFormat="1">
-      <c r="A16" s="27" t="s">
+    <row r="16" spans="1:7" s="19" customFormat="1">
+      <c r="A16" s="20" t="s">
         <v>372</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="C16" s="70">
+      <c r="C16" s="63">
         <v>5</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
@@ -6976,29 +7989,29 @@
       <c r="B17" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="22">
         <v>3</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="26" customFormat="1">
-      <c r="A18" s="27" t="s">
+    <row r="18" spans="1:7" s="19" customFormat="1">
+      <c r="A18" s="20" t="s">
         <v>374</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="C18" s="70">
+      <c r="C18" s="63">
         <v>3</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="20" t="s">
         <v>375</v>
       </c>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27" t="s">
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20" t="s">
         <v>182</v>
       </c>
     </row>
@@ -7023,7 +8036,7 @@
   <cols>
     <col min="1" max="1" width="17.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="22.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" style="2" customWidth="1"/>
@@ -7039,7 +8052,7 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -7055,22 +8068,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="26" customFormat="1">
-      <c r="A2" s="71" t="s">
+    <row r="2" spans="1:7" s="19" customFormat="1">
+      <c r="A2" s="64" t="s">
         <v>376</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="64" t="s">
         <v>183</v>
       </c>
-      <c r="C2" s="72">
+      <c r="C2" s="65">
         <v>4</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="D2" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
     </row>
     <row r="3" spans="1:7" s="2" customFormat="1">
       <c r="A3" s="2" t="s">
@@ -7079,24 +8092,24 @@
       <c r="B3" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="22">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="27" customFormat="1">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:7" s="20" customFormat="1">
+      <c r="A4" s="20" t="s">
         <v>378</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="C4" s="70">
+      <c r="C4" s="63">
         <v>1</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="20" t="s">
         <v>79</v>
       </c>
     </row>
@@ -7107,24 +8120,24 @@
       <c r="B5" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="22">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="27" customFormat="1">
-      <c r="A6" s="27" t="s">
+    <row r="6" spans="1:7" s="20" customFormat="1">
+      <c r="A6" s="20" t="s">
         <v>380</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="C6" s="70">
+      <c r="C6" s="63">
         <v>2</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="20" t="s">
         <v>81</v>
       </c>
     </row>
@@ -7135,24 +8148,24 @@
       <c r="B7" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="22">
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="27" customFormat="1">
-      <c r="A8" s="27" t="s">
+    <row r="8" spans="1:7" s="20" customFormat="1">
+      <c r="A8" s="20" t="s">
         <v>382</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="C8" s="70">
+      <c r="C8" s="63">
         <v>3</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="20" t="s">
         <v>79</v>
       </c>
     </row>
@@ -7163,24 +8176,24 @@
       <c r="B9" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="22">
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="27" customFormat="1">
-      <c r="A10" s="27" t="s">
+    <row r="10" spans="1:7" s="20" customFormat="1">
+      <c r="A10" s="20" t="s">
         <v>384</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="70">
+      <c r="C10" s="63">
         <v>5</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="20" t="s">
         <v>79</v>
       </c>
     </row>
@@ -7191,24 +8204,24 @@
       <c r="B11" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="22">
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="27" customFormat="1">
-      <c r="A12" s="27" t="s">
+    <row r="12" spans="1:7" s="20" customFormat="1">
+      <c r="A12" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="20" t="s">
         <v>496</v>
       </c>
-      <c r="C12" s="70">
+      <c r="C12" s="63">
         <v>2</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="20" t="s">
         <v>82</v>
       </c>
     </row>
@@ -7219,24 +8232,24 @@
       <c r="B13" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="22">
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="27" customFormat="1">
-      <c r="A14" s="27" t="s">
+    <row r="14" spans="1:7" s="20" customFormat="1">
+      <c r="A14" s="20" t="s">
         <v>503</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="20" t="s">
         <v>502</v>
       </c>
-      <c r="C14" s="70">
+      <c r="C14" s="63">
         <v>2</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="20" t="s">
         <v>82</v>
       </c>
     </row>
@@ -7247,24 +8260,24 @@
       <c r="B15" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C15" s="22">
         <v>2</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="27" customFormat="1">
-      <c r="A16" s="27" t="s">
+    <row r="16" spans="1:7" s="20" customFormat="1">
+      <c r="A16" s="20" t="s">
         <v>501</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="20" t="s">
         <v>497</v>
       </c>
-      <c r="C16" s="70">
+      <c r="C16" s="63">
         <v>3</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="20" t="s">
         <v>80</v>
       </c>
     </row>
@@ -7275,31 +8288,31 @@
       <c r="B17" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="22">
         <v>3</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="27" customFormat="1">
-      <c r="A18" s="27" t="s">
+    <row r="18" spans="1:7" s="20" customFormat="1">
+      <c r="A18" s="20" t="s">
         <v>387</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="C18" s="70">
+      <c r="C18" s="63">
         <v>1</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="20" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="36"/>
+      <c r="C19" s="29"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -7318,226 +8331,226 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="58" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="22" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="4" style="22" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="59" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="22" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" style="22" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" style="22" customWidth="1"/>
-    <col min="9" max="16" width="9.140625" style="22" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="22" hidden="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="22" hidden="1"/>
+    <col min="1" max="1" width="5.85546875" style="51" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="4" style="15" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="52" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" style="15" customWidth="1"/>
+    <col min="9" max="16" width="9.140625" style="15" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="15" hidden="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="15" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="149" t="s">
+      <c r="B1" s="102"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="101" t="s">
         <v>193</v>
       </c>
-      <c r="E1" s="150"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="151" t="s">
+      <c r="E1" s="102"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="103" t="s">
         <v>206</v>
       </c>
-      <c r="H1" s="152"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
     </row>
     <row r="2" spans="1:17" customFormat="1">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="79" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="H2" s="80" t="s">
+      <c r="H2" s="71" t="s">
         <v>203</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
     </row>
     <row r="3" spans="1:17" customFormat="1">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="76" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="67" t="s">
         <v>200</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="79" t="s">
+      <c r="F3" s="15"/>
+      <c r="G3" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="H3" s="80" t="s">
+      <c r="H3" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
     </row>
     <row r="4" spans="1:17" customFormat="1">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="40" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="79" t="s">
+      <c r="F4" s="15"/>
+      <c r="G4" s="70" t="s">
         <v>201</v>
       </c>
-      <c r="H4" s="80" t="s">
+      <c r="H4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
     </row>
     <row r="5" spans="1:17" customFormat="1">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="42" t="s">
+      <c r="C5" s="15"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="79" t="s">
+      <c r="F5" s="15"/>
+      <c r="G5" s="70" t="s">
         <v>388</v>
       </c>
-      <c r="H5" s="80" t="s">
+      <c r="H5" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
     </row>
     <row r="6" spans="1:17" customFormat="1">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="44" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="79" t="s">
+      <c r="F6" s="15"/>
+      <c r="G6" s="70" t="s">
         <v>389</v>
       </c>
-      <c r="H6" s="80" t="s">
+      <c r="H6" s="71" t="s">
         <v>205</v>
       </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="D7" s="45"/>
-      <c r="E7" s="46" t="s">
+      <c r="D7" s="38"/>
+      <c r="E7" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="G7" s="79" t="s">
+      <c r="G7" s="70" t="s">
         <v>207</v>
       </c>
-      <c r="H7" s="80" t="s">
+      <c r="H7" s="71" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="E8" s="22"/>
-      <c r="G8" s="77" t="s">
+      <c r="E8" s="15"/>
+      <c r="G8" s="68" t="s">
         <v>208</v>
       </c>
-      <c r="H8" s="78" t="s">
+      <c r="H8" s="69" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="G9" s="81" t="s">
+      <c r="G9" s="72" t="s">
         <v>210</v>
       </c>
-      <c r="H9" s="82" t="s">
+      <c r="H9" s="73" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="G10" s="83" t="s">
+      <c r="G10" s="74" t="s">
         <v>209</v>
       </c>
-      <c r="H10" s="84" t="s">
+      <c r="H10" s="75" t="s">
         <v>211</v>
       </c>
     </row>

--- a/Planning & Assetlist.xlsx
+++ b/Planning & Assetlist.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="558">
   <si>
     <t>Code Name</t>
   </si>
@@ -1685,6 +1685,15 @@
   </si>
   <si>
     <t>In process</t>
+  </si>
+  <si>
+    <t>&lt;no classes on Friday&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Chantal sick, work delayed&gt;</t>
+  </si>
+  <si>
+    <t>&lt;no classes on Monday till Wednesday&gt;</t>
   </si>
 </sst>
 </file>
@@ -1721,7 +1730,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1873,12 +1882,6 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="lightTrellis">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor theme="7" tint="0.59999389629810485"/>
@@ -1894,12 +1897,6 @@
       <patternFill patternType="lightTrellis">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor theme="2" tint="-0.249977111117893"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="lightTrellis">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor theme="4" tint="0.59999389629810485"/>
       </patternFill>
     </fill>
     <fill>
@@ -1946,12 +1943,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor theme="0" tint="-4.9989318521683403E-2"/>
       </patternFill>
@@ -1974,6 +1965,30 @@
         <bgColor theme="0" tint="-4.9989318521683403E-2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightTrellis">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor theme="3" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightTrellis">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor rgb="FFFFC000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="58">
     <border>
@@ -2690,7 +2705,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="309">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2875,11 +2890,568 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="42" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="42" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="42" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="42" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="42" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="42" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="42" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="42" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="42" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2914,564 +3486,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="38" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="38" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="39" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="40" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="38" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="38" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="39" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="38" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="38" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="39" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="38" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="38" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="38" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3786,19 +3831,19 @@
   </sheetPr>
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H8:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="153" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="164" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="117" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="122" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" style="5" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" style="275" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="296" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="190" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="195" customWidth="1"/>
     <col min="7" max="7" width="20.7109375" style="7" customWidth="1"/>
     <col min="8" max="8" width="20.7109375" style="8" customWidth="1"/>
     <col min="9" max="9" width="39.5703125" style="9" customWidth="1"/>
@@ -3806,20 +3851,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="89" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="238" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="106"/>
+      <c r="B1" s="239"/>
       <c r="C1" s="84" t="s">
         <v>61</v>
       </c>
       <c r="D1" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="256" t="s">
+      <c r="E1" s="171" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="280" t="s">
+      <c r="F1" s="191" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="86" t="s">
@@ -3832,834 +3877,837 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="184" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A2" s="191" t="s">
+    <row r="2" spans="1:9" s="131" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A2" s="136" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="192" t="s">
+      <c r="B2" s="137" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="216" t="s">
+      <c r="C2" s="260" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="217"/>
-      <c r="E2" s="217"/>
-      <c r="F2" s="217"/>
-      <c r="G2" s="217"/>
-      <c r="H2" s="218"/>
-      <c r="I2" s="219"/>
-    </row>
-    <row r="3" spans="1:9" s="116" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="143" t="s">
+      <c r="D2" s="261"/>
+      <c r="E2" s="261"/>
+      <c r="F2" s="261"/>
+      <c r="G2" s="261"/>
+      <c r="H2" s="262"/>
+      <c r="I2" s="148"/>
+    </row>
+    <row r="3" spans="1:9" s="97" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A3" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="154" t="s">
+      <c r="B3" s="118" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="128" t="s">
+      <c r="C3" s="257" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="131"/>
-    </row>
-    <row r="4" spans="1:9" s="215" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A4" s="209" t="s">
+      <c r="D3" s="258"/>
+      <c r="E3" s="258"/>
+      <c r="F3" s="258"/>
+      <c r="G3" s="258"/>
+      <c r="H3" s="259"/>
+      <c r="I3" s="106"/>
+    </row>
+    <row r="4" spans="1:9" s="147" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A4" s="144" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="210" t="s">
+      <c r="B4" s="145" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="211" t="s">
+      <c r="C4" s="254" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="212"/>
-      <c r="E4" s="212"/>
-      <c r="F4" s="212"/>
-      <c r="G4" s="212"/>
-      <c r="H4" s="213"/>
-      <c r="I4" s="214"/>
-    </row>
-    <row r="5" spans="1:9" s="127" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A5" s="144" t="s">
+      <c r="D4" s="255"/>
+      <c r="E4" s="255"/>
+      <c r="F4" s="255"/>
+      <c r="G4" s="255"/>
+      <c r="H4" s="256"/>
+      <c r="I4" s="146"/>
+    </row>
+    <row r="5" spans="1:9" s="105" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A5" s="263" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="155" t="s">
+      <c r="B5" s="265" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="123" t="s">
+      <c r="C5" s="240" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="124"/>
-      <c r="E5" s="124"/>
-      <c r="F5" s="124"/>
-      <c r="G5" s="124"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="126" t="s">
+      <c r="D5" s="241"/>
+      <c r="E5" s="241"/>
+      <c r="F5" s="241"/>
+      <c r="G5" s="241"/>
+      <c r="H5" s="242"/>
+      <c r="I5" s="104" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="127" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A6" s="145"/>
-      <c r="B6" s="156"/>
-      <c r="C6" s="165" t="s">
+    <row r="6" spans="1:9" s="105" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A6" s="273"/>
+      <c r="B6" s="274"/>
+      <c r="C6" s="248" t="s">
         <v>533</v>
       </c>
-      <c r="D6" s="166"/>
-      <c r="E6" s="166"/>
-      <c r="F6" s="166"/>
-      <c r="G6" s="166"/>
-      <c r="H6" s="167"/>
-      <c r="I6" s="168"/>
-    </row>
-    <row r="7" spans="1:9" s="254" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A7" s="297" t="s">
+      <c r="D6" s="249"/>
+      <c r="E6" s="249"/>
+      <c r="F6" s="249"/>
+      <c r="G6" s="249"/>
+      <c r="H6" s="250"/>
+      <c r="I6" s="123"/>
+    </row>
+    <row r="7" spans="1:9" s="169" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A7" s="196" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="255" t="s">
+      <c r="B7" s="170" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="250"/>
-      <c r="D7" s="251"/>
-      <c r="E7" s="252"/>
-      <c r="F7" s="281"/>
-      <c r="G7" s="251"/>
-      <c r="H7" s="252"/>
-      <c r="I7" s="253" t="s">
+      <c r="C7" s="165"/>
+      <c r="D7" s="166"/>
+      <c r="E7" s="167"/>
+      <c r="F7" s="192"/>
+      <c r="G7" s="166"/>
+      <c r="H7" s="167"/>
+      <c r="I7" s="168" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="116" customFormat="1">
-      <c r="A8" s="144" t="s">
+    <row r="8" spans="1:9" s="97" customFormat="1">
+      <c r="A8" s="263" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="155" t="s">
+      <c r="B8" s="265" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="112" t="s">
+      <c r="C8" s="95" t="s">
         <v>215</v>
       </c>
-      <c r="D8" s="113" t="s">
+      <c r="D8" s="298" t="s">
         <v>218</v>
       </c>
-      <c r="E8" s="257" t="s">
+      <c r="E8" s="172" t="s">
         <v>222</v>
       </c>
-      <c r="F8" s="282" t="s">
+      <c r="F8" s="193" t="s">
         <v>480</v>
       </c>
-      <c r="G8" s="114" t="s">
+      <c r="G8" s="304" t="s">
         <v>474</v>
       </c>
-      <c r="H8" s="115" t="s">
+      <c r="H8" s="302" t="s">
         <v>476</v>
       </c>
-      <c r="I8" s="117"/>
+      <c r="I8" s="98" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="146"/>
-      <c r="B9" s="157"/>
+      <c r="A9" s="264"/>
+      <c r="B9" s="266"/>
       <c r="C9" s="90"/>
-      <c r="D9" s="91" t="s">
+      <c r="D9" s="299" t="s">
         <v>303</v>
       </c>
-      <c r="E9" s="258" t="s">
+      <c r="E9" s="173" t="s">
         <v>417</v>
       </c>
-      <c r="F9" s="283"/>
-      <c r="G9" s="92" t="s">
+      <c r="F9" s="229"/>
+      <c r="G9" s="305" t="s">
         <v>475</v>
       </c>
-      <c r="H9" s="93" t="s">
+      <c r="H9" s="303" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="146"/>
-      <c r="B10" s="157"/>
+      <c r="A10" s="264"/>
+      <c r="B10" s="266"/>
       <c r="C10" s="90"/>
-      <c r="D10" s="91" t="s">
+      <c r="D10" s="299" t="s">
         <v>261</v>
       </c>
-      <c r="E10" s="258" t="s">
+      <c r="E10" s="173" t="s">
         <v>307</v>
       </c>
-      <c r="F10" s="283"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="93" t="s">
+      <c r="F10" s="229"/>
+      <c r="G10" s="199"/>
+      <c r="H10" s="303" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="146"/>
-      <c r="B11" s="157"/>
+      <c r="A11" s="264"/>
+      <c r="B11" s="266"/>
       <c r="C11" s="90"/>
       <c r="D11" s="91"/>
-      <c r="E11" s="258" t="s">
+      <c r="E11" s="173" t="s">
         <v>419</v>
       </c>
-      <c r="F11" s="283"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="93"/>
+      <c r="F11" s="229"/>
+      <c r="G11" s="199"/>
+      <c r="H11" s="230"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="146"/>
-      <c r="B12" s="157"/>
+      <c r="A12" s="264"/>
+      <c r="B12" s="266"/>
       <c r="C12" s="90"/>
       <c r="D12" s="91"/>
-      <c r="E12" s="258" t="s">
+      <c r="E12" s="173" t="s">
         <v>265</v>
       </c>
-      <c r="F12" s="283"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="93"/>
+      <c r="F12" s="229"/>
+      <c r="G12" s="199"/>
+      <c r="H12" s="230"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="146"/>
-      <c r="B13" s="157"/>
+      <c r="A13" s="264"/>
+      <c r="B13" s="266"/>
       <c r="C13" s="90"/>
       <c r="D13" s="91"/>
-      <c r="E13" s="258" t="s">
+      <c r="E13" s="173" t="s">
         <v>421</v>
       </c>
-      <c r="F13" s="283"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="93"/>
+      <c r="F13" s="229"/>
+      <c r="G13" s="199"/>
+      <c r="H13" s="230"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A14" s="146"/>
-      <c r="B14" s="157"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="109"/>
-      <c r="E14" s="259" t="s">
+      <c r="A14" s="264"/>
+      <c r="B14" s="266"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="174" t="s">
         <v>418</v>
       </c>
-      <c r="F14" s="284"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="111"/>
-      <c r="I14" s="107"/>
-    </row>
-    <row r="15" spans="1:9" s="176" customFormat="1">
-      <c r="A15" s="169" t="s">
+      <c r="F14" s="231"/>
+      <c r="G14" s="200"/>
+      <c r="H14" s="232"/>
+      <c r="I14" s="92"/>
+    </row>
+    <row r="15" spans="1:9" s="127" customFormat="1">
+      <c r="A15" s="267" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="170" t="s">
+      <c r="B15" s="270" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="171" t="s">
+      <c r="C15" s="124" t="s">
         <v>215</v>
       </c>
-      <c r="D15" s="172" t="s">
+      <c r="D15" s="300" t="s">
         <v>303</v>
       </c>
-      <c r="E15" s="260" t="s">
+      <c r="E15" s="175" t="s">
         <v>418</v>
       </c>
-      <c r="F15" s="298" t="s">
+      <c r="F15" s="197" t="s">
         <v>480</v>
       </c>
-      <c r="G15" s="173" t="s">
+      <c r="G15" s="201" t="s">
         <v>482</v>
       </c>
-      <c r="H15" s="174" t="s">
+      <c r="H15" s="175" t="s">
         <v>473</v>
       </c>
-      <c r="I15" s="175"/>
-    </row>
-    <row r="16" spans="1:9" s="184" customFormat="1">
-      <c r="A16" s="177"/>
-      <c r="B16" s="178"/>
-      <c r="C16" s="179" t="s">
+      <c r="I15" s="126"/>
+    </row>
+    <row r="16" spans="1:9" s="131" customFormat="1">
+      <c r="A16" s="268"/>
+      <c r="B16" s="271"/>
+      <c r="C16" s="128" t="s">
         <v>199</v>
       </c>
-      <c r="D16" s="180" t="s">
+      <c r="D16" s="301" t="s">
         <v>261</v>
       </c>
-      <c r="E16" s="261" t="s">
+      <c r="E16" s="176" t="s">
         <v>420</v>
       </c>
-      <c r="F16" s="286"/>
-      <c r="G16" s="181"/>
-      <c r="H16" s="182" t="s">
+      <c r="F16" s="212"/>
+      <c r="G16" s="202"/>
+      <c r="H16" s="176" t="s">
         <v>478</v>
       </c>
-      <c r="I16" s="183"/>
-    </row>
-    <row r="17" spans="1:9" s="184" customFormat="1">
-      <c r="A17" s="177"/>
-      <c r="B17" s="178"/>
-      <c r="C17" s="185" t="s">
+      <c r="I16" s="130"/>
+    </row>
+    <row r="17" spans="1:9" s="131" customFormat="1">
+      <c r="A17" s="268"/>
+      <c r="B17" s="271"/>
+      <c r="C17" s="128" t="s">
         <v>258</v>
       </c>
-      <c r="D17" s="180" t="s">
+      <c r="D17" s="301" t="s">
         <v>393</v>
       </c>
-      <c r="E17" s="261" t="s">
+      <c r="E17" s="176" t="s">
         <v>422</v>
       </c>
-      <c r="F17" s="286"/>
-      <c r="G17" s="181"/>
-      <c r="H17" s="182"/>
-      <c r="I17" s="183"/>
-    </row>
-    <row r="18" spans="1:9" s="184" customFormat="1">
-      <c r="A18" s="177"/>
-      <c r="B18" s="178"/>
-      <c r="C18" s="185"/>
-      <c r="D18" s="180" t="s">
+      <c r="F17" s="212"/>
+      <c r="G17" s="202"/>
+      <c r="H17" s="213"/>
+      <c r="I17" s="130"/>
+    </row>
+    <row r="18" spans="1:9" s="131" customFormat="1">
+      <c r="A18" s="268"/>
+      <c r="B18" s="271"/>
+      <c r="C18" s="132"/>
+      <c r="D18" s="301" t="s">
         <v>402</v>
       </c>
-      <c r="E18" s="261" t="s">
+      <c r="E18" s="176" t="s">
         <v>543</v>
       </c>
-      <c r="F18" s="286"/>
-      <c r="G18" s="181"/>
-      <c r="H18" s="182"/>
-      <c r="I18" s="183"/>
-    </row>
-    <row r="19" spans="1:9" s="184" customFormat="1">
-      <c r="A19" s="177"/>
-      <c r="B19" s="178"/>
-      <c r="C19" s="185"/>
-      <c r="D19" s="180"/>
-      <c r="E19" s="261" t="s">
+      <c r="F18" s="212"/>
+      <c r="G18" s="202"/>
+      <c r="H18" s="213"/>
+      <c r="I18" s="130"/>
+    </row>
+    <row r="19" spans="1:9" s="131" customFormat="1">
+      <c r="A19" s="268"/>
+      <c r="B19" s="271"/>
+      <c r="C19" s="132"/>
+      <c r="D19" s="129"/>
+      <c r="E19" s="176" t="s">
         <v>544</v>
       </c>
-      <c r="F19" s="286"/>
-      <c r="G19" s="181"/>
-      <c r="H19" s="182"/>
-      <c r="I19" s="183"/>
-    </row>
-    <row r="20" spans="1:9" s="184" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A20" s="194"/>
-      <c r="B20" s="193"/>
-      <c r="C20" s="186"/>
-      <c r="D20" s="187"/>
-      <c r="E20" s="262" t="s">
+      <c r="F19" s="212"/>
+      <c r="G19" s="202"/>
+      <c r="H19" s="213"/>
+      <c r="I19" s="130"/>
+    </row>
+    <row r="20" spans="1:9" s="131" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A20" s="269"/>
+      <c r="B20" s="272"/>
+      <c r="C20" s="133"/>
+      <c r="D20" s="134"/>
+      <c r="E20" s="177" t="s">
         <v>545</v>
       </c>
-      <c r="F20" s="287"/>
-      <c r="G20" s="188"/>
-      <c r="H20" s="189"/>
-      <c r="I20" s="190"/>
-    </row>
-    <row r="21" spans="1:9" s="116" customFormat="1">
-      <c r="A21" s="150" t="s">
+      <c r="F20" s="226"/>
+      <c r="G20" s="227"/>
+      <c r="H20" s="228"/>
+      <c r="I20" s="135"/>
+    </row>
+    <row r="21" spans="1:9" s="97" customFormat="1">
+      <c r="A21" s="234" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="161" t="s">
+      <c r="B21" s="235" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="112" t="s">
+      <c r="C21" s="95" t="s">
         <v>199</v>
       </c>
-      <c r="D21" s="113" t="s">
+      <c r="D21" s="96" t="s">
         <v>217</v>
       </c>
-      <c r="E21" s="263" t="s">
+      <c r="E21" s="172" t="s">
         <v>231</v>
       </c>
-      <c r="F21" s="288" t="s">
+      <c r="F21" s="193" t="s">
         <v>492</v>
       </c>
-      <c r="G21" s="114" t="s">
+      <c r="G21" s="216" t="s">
         <v>484</v>
       </c>
-      <c r="H21" s="133" t="s">
+      <c r="H21" s="215" t="s">
         <v>489</v>
       </c>
-      <c r="I21" s="117"/>
+      <c r="I21" s="98" t="s">
+        <v>555</v>
+      </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="195"/>
-      <c r="B22" s="196"/>
-      <c r="C22" s="90" t="s">
+      <c r="A22" s="236"/>
+      <c r="B22" s="237"/>
+      <c r="C22" s="198" t="s">
         <v>258</v>
       </c>
       <c r="D22" s="91"/>
-      <c r="E22" s="264" t="s">
+      <c r="E22" s="173" t="s">
         <v>546</v>
       </c>
-      <c r="F22" s="283"/>
-      <c r="G22" s="92"/>
-      <c r="H22" s="93"/>
+      <c r="F22" s="229"/>
+      <c r="G22" s="199"/>
+      <c r="H22" s="230"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="195"/>
-      <c r="B23" s="196"/>
-      <c r="C23" s="90" t="s">
+      <c r="A23" s="236"/>
+      <c r="B23" s="237"/>
+      <c r="C23" s="198" t="s">
         <v>390</v>
       </c>
       <c r="D23" s="91"/>
-      <c r="E23" s="264" t="s">
+      <c r="E23" s="173" t="s">
         <v>316</v>
       </c>
-      <c r="F23" s="283"/>
-      <c r="G23" s="92"/>
-      <c r="H23" s="93"/>
+      <c r="F23" s="229"/>
+      <c r="G23" s="199"/>
+      <c r="H23" s="230"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="195"/>
-      <c r="B24" s="196"/>
-      <c r="C24" s="90" t="s">
+      <c r="A24" s="236"/>
+      <c r="B24" s="237"/>
+      <c r="C24" s="308" t="s">
         <v>399</v>
       </c>
       <c r="D24" s="91"/>
-      <c r="E24" s="264" t="s">
+      <c r="E24" s="173" t="s">
         <v>547</v>
       </c>
-      <c r="F24" s="283"/>
-      <c r="G24" s="92"/>
-      <c r="H24" s="93"/>
+      <c r="F24" s="229"/>
+      <c r="G24" s="199"/>
+      <c r="H24" s="230"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="195"/>
-      <c r="B25" s="196"/>
+      <c r="A25" s="236"/>
+      <c r="B25" s="237"/>
       <c r="C25" s="90"/>
       <c r="D25" s="91"/>
-      <c r="E25" s="264" t="s">
+      <c r="E25" s="173" t="s">
         <v>548</v>
       </c>
-      <c r="F25" s="283"/>
-      <c r="G25" s="92"/>
-      <c r="H25" s="93"/>
+      <c r="F25" s="229"/>
+      <c r="G25" s="199"/>
+      <c r="H25" s="230"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="195"/>
-      <c r="B26" s="196"/>
+      <c r="A26" s="236"/>
+      <c r="B26" s="237"/>
       <c r="C26" s="90"/>
       <c r="D26" s="91"/>
-      <c r="E26" s="264" t="s">
+      <c r="E26" s="303" t="s">
         <v>234</v>
       </c>
-      <c r="F26" s="283"/>
-      <c r="G26" s="92"/>
-      <c r="H26" s="93"/>
+      <c r="F26" s="229"/>
+      <c r="G26" s="199"/>
+      <c r="H26" s="230"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="195"/>
-      <c r="B27" s="196"/>
+      <c r="A27" s="236"/>
+      <c r="B27" s="237"/>
       <c r="C27" s="90"/>
       <c r="D27" s="91"/>
-      <c r="E27" s="264" t="s">
+      <c r="E27" s="179" t="s">
         <v>319</v>
       </c>
-      <c r="F27" s="283"/>
-      <c r="G27" s="92"/>
-      <c r="H27" s="93"/>
+      <c r="F27" s="229"/>
+      <c r="G27" s="199"/>
+      <c r="H27" s="230"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A28" s="195"/>
-      <c r="B28" s="196"/>
-      <c r="C28" s="108"/>
-      <c r="D28" s="109"/>
-      <c r="E28" s="265" t="s">
+      <c r="A28" s="236"/>
+      <c r="B28" s="237"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="180" t="s">
         <v>277</v>
       </c>
-      <c r="F28" s="284"/>
-      <c r="G28" s="110"/>
-      <c r="H28" s="111"/>
-      <c r="I28" s="107"/>
-    </row>
-    <row r="29" spans="1:9" s="176" customFormat="1">
-      <c r="A29" s="197" t="s">
+      <c r="F28" s="231"/>
+      <c r="G28" s="200"/>
+      <c r="H28" s="232"/>
+      <c r="I28" s="92"/>
+    </row>
+    <row r="29" spans="1:9" s="127" customFormat="1">
+      <c r="A29" s="138" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="198" t="s">
+      <c r="B29" s="139" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="203" t="s">
+      <c r="C29" s="124" t="s">
         <v>390</v>
       </c>
-      <c r="D29" s="172" t="s">
+      <c r="D29" s="125" t="s">
         <v>217</v>
       </c>
-      <c r="E29" s="266" t="s">
+      <c r="E29" s="181" t="s">
         <v>232</v>
       </c>
-      <c r="F29" s="285" t="s">
+      <c r="F29" s="306" t="s">
         <v>483</v>
       </c>
-      <c r="G29" s="173" t="s">
+      <c r="G29" s="201" t="s">
         <v>484</v>
       </c>
-      <c r="H29" s="206" t="s">
+      <c r="H29" s="233" t="s">
         <v>540</v>
       </c>
-      <c r="I29" s="199"/>
-    </row>
-    <row r="30" spans="1:9" s="184" customFormat="1">
-      <c r="A30" s="200"/>
-      <c r="B30" s="201"/>
-      <c r="C30" s="185" t="s">
+      <c r="I29" s="140" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="131" customFormat="1">
+      <c r="A30" s="141"/>
+      <c r="B30" s="142"/>
+      <c r="C30" s="307" t="s">
         <v>399</v>
       </c>
-      <c r="D30" s="180" t="s">
+      <c r="D30" s="129" t="s">
         <v>302</v>
       </c>
-      <c r="E30" s="267" t="s">
+      <c r="E30" s="182" t="s">
         <v>317</v>
       </c>
-      <c r="F30" s="286"/>
-      <c r="G30" s="181"/>
-      <c r="H30" s="182"/>
-      <c r="I30" s="202"/>
-    </row>
-    <row r="31" spans="1:9" s="184" customFormat="1">
-      <c r="A31" s="200"/>
-      <c r="B31" s="201"/>
-      <c r="C31" s="185"/>
-      <c r="D31" s="180" t="s">
+      <c r="F30" s="212"/>
+      <c r="G30" s="202"/>
+      <c r="H30" s="213"/>
+      <c r="I30" s="143"/>
+    </row>
+    <row r="31" spans="1:9" s="131" customFormat="1">
+      <c r="A31" s="141"/>
+      <c r="B31" s="142"/>
+      <c r="C31" s="132"/>
+      <c r="D31" s="129" t="s">
         <v>260</v>
       </c>
-      <c r="E31" s="267" t="s">
+      <c r="E31" s="182" t="s">
         <v>275</v>
       </c>
-      <c r="F31" s="286"/>
-      <c r="G31" s="181"/>
-      <c r="H31" s="182"/>
-      <c r="I31" s="202"/>
-    </row>
-    <row r="32" spans="1:9" s="184" customFormat="1">
-      <c r="A32" s="200"/>
-      <c r="B32" s="201"/>
-      <c r="C32" s="185"/>
-      <c r="D32" s="180" t="s">
+      <c r="F31" s="212"/>
+      <c r="G31" s="202"/>
+      <c r="H31" s="213"/>
+      <c r="I31" s="143"/>
+    </row>
+    <row r="32" spans="1:9" s="131" customFormat="1">
+      <c r="A32" s="141"/>
+      <c r="B32" s="142"/>
+      <c r="C32" s="132"/>
+      <c r="D32" s="129" t="s">
         <v>392</v>
       </c>
-      <c r="E32" s="267" t="s">
+      <c r="E32" s="182" t="s">
         <v>549</v>
       </c>
-      <c r="F32" s="286"/>
-      <c r="G32" s="181"/>
-      <c r="H32" s="182"/>
-      <c r="I32" s="202"/>
-    </row>
-    <row r="33" spans="1:9" s="184" customFormat="1">
-      <c r="A33" s="200"/>
-      <c r="B33" s="201"/>
-      <c r="C33" s="185"/>
-      <c r="D33" s="180" t="s">
+      <c r="F32" s="212"/>
+      <c r="G32" s="202"/>
+      <c r="H32" s="213"/>
+      <c r="I32" s="143"/>
+    </row>
+    <row r="33" spans="1:9" s="131" customFormat="1">
+      <c r="A33" s="141"/>
+      <c r="B33" s="142"/>
+      <c r="C33" s="132"/>
+      <c r="D33" s="129" t="s">
         <v>401</v>
       </c>
-      <c r="E33" s="267"/>
-      <c r="F33" s="286"/>
-      <c r="G33" s="181"/>
-      <c r="H33" s="182"/>
-      <c r="I33" s="202"/>
-    </row>
-    <row r="34" spans="1:9" s="184" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A34" s="200"/>
-      <c r="B34" s="201"/>
-      <c r="C34" s="185"/>
-      <c r="D34" s="180"/>
-      <c r="E34" s="267"/>
-      <c r="F34" s="286"/>
-      <c r="G34" s="181"/>
-      <c r="H34" s="182"/>
-      <c r="I34" s="202"/>
-    </row>
-    <row r="35" spans="1:9" s="116" customFormat="1">
-      <c r="A35" s="147" t="s">
+      <c r="E33" s="182"/>
+      <c r="F33" s="212"/>
+      <c r="G33" s="202"/>
+      <c r="H33" s="213"/>
+      <c r="I33" s="143"/>
+    </row>
+    <row r="34" spans="1:9" s="131" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A34" s="141"/>
+      <c r="B34" s="142"/>
+      <c r="C34" s="132"/>
+      <c r="D34" s="129"/>
+      <c r="E34" s="182"/>
+      <c r="F34" s="212"/>
+      <c r="G34" s="202"/>
+      <c r="H34" s="213"/>
+      <c r="I34" s="143"/>
+    </row>
+    <row r="35" spans="1:9" s="97" customFormat="1">
+      <c r="A35" s="275" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="158" t="s">
+      <c r="B35" s="278" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="132"/>
-      <c r="D35" s="113" t="s">
+      <c r="C35" s="107"/>
+      <c r="D35" s="96" t="s">
         <v>392</v>
       </c>
-      <c r="E35" s="263" t="s">
+      <c r="E35" s="178" t="s">
         <v>549</v>
       </c>
-      <c r="F35" s="288"/>
-      <c r="G35" s="133" t="s">
+      <c r="F35" s="214"/>
+      <c r="G35" s="215" t="s">
         <v>481</v>
       </c>
-      <c r="H35" s="114" t="s">
+      <c r="H35" s="216" t="s">
         <v>553</v>
       </c>
-      <c r="I35" s="117"/>
+      <c r="I35" s="98"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="148"/>
-      <c r="B36" s="159"/>
+      <c r="A36" s="276"/>
+      <c r="B36" s="279"/>
       <c r="C36" s="90"/>
       <c r="D36" s="91" t="s">
         <v>401</v>
       </c>
-      <c r="E36" s="268"/>
-      <c r="F36" s="276" t="s">
+      <c r="E36" s="183"/>
+      <c r="F36" s="251" t="s">
         <v>541</v>
       </c>
-      <c r="G36" s="207"/>
-      <c r="H36" s="208"/>
+      <c r="G36" s="252"/>
+      <c r="H36" s="253"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A37" s="149"/>
-      <c r="B37" s="160"/>
-      <c r="C37" s="204" t="s">
+      <c r="A37" s="277"/>
+      <c r="B37" s="280"/>
+      <c r="C37" s="243" t="s">
         <v>550</v>
       </c>
-      <c r="D37" s="205"/>
-      <c r="E37" s="205"/>
-      <c r="F37" s="277" t="s">
+      <c r="D37" s="244"/>
+      <c r="E37" s="244"/>
+      <c r="F37" s="245" t="s">
         <v>550</v>
       </c>
-      <c r="G37" s="278"/>
-      <c r="H37" s="279"/>
-      <c r="I37" s="107"/>
-    </row>
-    <row r="38" spans="1:9" s="234" customFormat="1">
-      <c r="A38" s="227" t="s">
+      <c r="G37" s="246"/>
+      <c r="H37" s="247"/>
+      <c r="I37" s="92"/>
+    </row>
+    <row r="38" spans="1:9" s="157" customFormat="1">
+      <c r="A38" s="281" t="s">
         <v>18</v>
       </c>
-      <c r="B38" s="228" t="s">
+      <c r="B38" s="284" t="s">
         <v>49</v>
       </c>
-      <c r="C38" s="229"/>
-      <c r="D38" s="230"/>
-      <c r="E38" s="269"/>
-      <c r="F38" s="289"/>
-      <c r="G38" s="231"/>
-      <c r="H38" s="232"/>
-      <c r="I38" s="233" t="s">
+      <c r="C38" s="154"/>
+      <c r="D38" s="155"/>
+      <c r="E38" s="184"/>
+      <c r="F38" s="217"/>
+      <c r="G38" s="218"/>
+      <c r="H38" s="219"/>
+      <c r="I38" s="156" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="242" customFormat="1">
-      <c r="A39" s="235"/>
-      <c r="B39" s="236"/>
-      <c r="C39" s="237"/>
-      <c r="D39" s="238"/>
-      <c r="E39" s="270"/>
-      <c r="F39" s="290"/>
-      <c r="G39" s="239"/>
-      <c r="H39" s="240"/>
-      <c r="I39" s="241"/>
-    </row>
-    <row r="40" spans="1:9" s="242" customFormat="1">
-      <c r="A40" s="235"/>
-      <c r="B40" s="236"/>
-      <c r="C40" s="237"/>
-      <c r="D40" s="238"/>
-      <c r="E40" s="270"/>
-      <c r="F40" s="290"/>
-      <c r="G40" s="239"/>
-      <c r="H40" s="240"/>
-      <c r="I40" s="241"/>
-    </row>
-    <row r="41" spans="1:9" s="242" customFormat="1">
-      <c r="A41" s="235"/>
-      <c r="B41" s="236"/>
-      <c r="C41" s="237"/>
-      <c r="D41" s="238"/>
-      <c r="E41" s="270"/>
-      <c r="F41" s="290"/>
-      <c r="G41" s="239"/>
-      <c r="H41" s="240"/>
-      <c r="I41" s="241"/>
-    </row>
-    <row r="42" spans="1:9" s="242" customFormat="1">
-      <c r="A42" s="235"/>
-      <c r="B42" s="236"/>
-      <c r="C42" s="237"/>
-      <c r="D42" s="238"/>
-      <c r="E42" s="270"/>
-      <c r="F42" s="290"/>
-      <c r="G42" s="239"/>
-      <c r="H42" s="240"/>
-      <c r="I42" s="241"/>
-    </row>
-    <row r="43" spans="1:9" s="242" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A43" s="243"/>
-      <c r="B43" s="244"/>
-      <c r="C43" s="245"/>
-      <c r="D43" s="246"/>
-      <c r="E43" s="271"/>
-      <c r="F43" s="291"/>
-      <c r="G43" s="247"/>
-      <c r="H43" s="248"/>
-      <c r="I43" s="249"/>
-    </row>
-    <row r="44" spans="1:9" s="116" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A44" s="150" t="s">
+    <row r="39" spans="1:9" s="161" customFormat="1">
+      <c r="A39" s="282"/>
+      <c r="B39" s="285"/>
+      <c r="C39" s="158"/>
+      <c r="D39" s="159"/>
+      <c r="E39" s="185"/>
+      <c r="F39" s="220"/>
+      <c r="G39" s="221"/>
+      <c r="H39" s="222"/>
+      <c r="I39" s="160"/>
+    </row>
+    <row r="40" spans="1:9" s="161" customFormat="1">
+      <c r="A40" s="282"/>
+      <c r="B40" s="285"/>
+      <c r="C40" s="158"/>
+      <c r="D40" s="159"/>
+      <c r="E40" s="185"/>
+      <c r="F40" s="220"/>
+      <c r="G40" s="221"/>
+      <c r="H40" s="222"/>
+      <c r="I40" s="160"/>
+    </row>
+    <row r="41" spans="1:9" s="161" customFormat="1">
+      <c r="A41" s="282"/>
+      <c r="B41" s="285"/>
+      <c r="C41" s="158"/>
+      <c r="D41" s="159"/>
+      <c r="E41" s="185"/>
+      <c r="F41" s="220"/>
+      <c r="G41" s="221"/>
+      <c r="H41" s="222"/>
+      <c r="I41" s="160"/>
+    </row>
+    <row r="42" spans="1:9" s="161" customFormat="1">
+      <c r="A42" s="282"/>
+      <c r="B42" s="285"/>
+      <c r="C42" s="158"/>
+      <c r="D42" s="159"/>
+      <c r="E42" s="185"/>
+      <c r="F42" s="220"/>
+      <c r="G42" s="221"/>
+      <c r="H42" s="222"/>
+      <c r="I42" s="160"/>
+    </row>
+    <row r="43" spans="1:9" s="161" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A43" s="283"/>
+      <c r="B43" s="286"/>
+      <c r="C43" s="162"/>
+      <c r="D43" s="163"/>
+      <c r="E43" s="186"/>
+      <c r="F43" s="223"/>
+      <c r="G43" s="224"/>
+      <c r="H43" s="225"/>
+      <c r="I43" s="164"/>
+    </row>
+    <row r="44" spans="1:9" s="97" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A44" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="B44" s="161" t="s">
+      <c r="B44" s="119" t="s">
         <v>50</v>
       </c>
-      <c r="C44" s="139"/>
-      <c r="D44" s="140"/>
-      <c r="E44" s="272"/>
-      <c r="F44" s="292"/>
-      <c r="G44" s="141"/>
-      <c r="H44" s="142"/>
-      <c r="I44" s="131"/>
-    </row>
-    <row r="45" spans="1:9" s="176" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A45" s="220" t="s">
+      <c r="C44" s="111"/>
+      <c r="D44" s="112"/>
+      <c r="E44" s="187"/>
+      <c r="F44" s="206"/>
+      <c r="G44" s="207"/>
+      <c r="H44" s="208"/>
+      <c r="I44" s="106"/>
+    </row>
+    <row r="45" spans="1:9" s="127" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A45" s="149" t="s">
         <v>20</v>
       </c>
-      <c r="B45" s="221" t="s">
+      <c r="B45" s="150" t="s">
         <v>51</v>
       </c>
-      <c r="C45" s="222"/>
-      <c r="D45" s="223"/>
-      <c r="E45" s="273"/>
-      <c r="F45" s="293"/>
-      <c r="G45" s="224"/>
-      <c r="H45" s="225"/>
-      <c r="I45" s="226"/>
-    </row>
-    <row r="46" spans="1:9" s="122" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A46" s="151" t="s">
+      <c r="C45" s="151"/>
+      <c r="D45" s="152"/>
+      <c r="E45" s="188"/>
+      <c r="F45" s="203"/>
+      <c r="G45" s="204"/>
+      <c r="H45" s="205"/>
+      <c r="I45" s="153"/>
+    </row>
+    <row r="46" spans="1:9" s="103" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A46" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="162" t="s">
+      <c r="B46" s="120" t="s">
         <v>55</v>
       </c>
-      <c r="C46" s="118"/>
-      <c r="D46" s="119"/>
-      <c r="E46" s="120"/>
-      <c r="F46" s="294"/>
-      <c r="G46" s="119"/>
-      <c r="H46" s="120"/>
-      <c r="I46" s="121" t="s">
+      <c r="C46" s="99"/>
+      <c r="D46" s="100"/>
+      <c r="E46" s="101"/>
+      <c r="F46" s="194"/>
+      <c r="G46" s="100"/>
+      <c r="H46" s="101"/>
+      <c r="I46" s="102" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="176" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A47" s="220" t="s">
+    <row r="47" spans="1:9" s="127" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A47" s="149" t="s">
         <v>22</v>
       </c>
-      <c r="B47" s="221" t="s">
+      <c r="B47" s="150" t="s">
         <v>54</v>
       </c>
-      <c r="C47" s="222"/>
-      <c r="D47" s="223"/>
-      <c r="E47" s="273"/>
-      <c r="F47" s="293"/>
-      <c r="G47" s="224"/>
-      <c r="H47" s="225"/>
-      <c r="I47" s="226"/>
-    </row>
-    <row r="48" spans="1:9" s="116" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A48" s="150" t="s">
+      <c r="C47" s="151"/>
+      <c r="D47" s="152"/>
+      <c r="E47" s="188"/>
+      <c r="F47" s="203"/>
+      <c r="G47" s="204"/>
+      <c r="H47" s="205"/>
+      <c r="I47" s="153"/>
+    </row>
+    <row r="48" spans="1:9" s="97" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A48" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="B48" s="161" t="s">
+      <c r="B48" s="119" t="s">
         <v>53</v>
       </c>
-      <c r="C48" s="139"/>
-      <c r="D48" s="140"/>
-      <c r="E48" s="272"/>
-      <c r="F48" s="292"/>
-      <c r="G48" s="141"/>
-      <c r="H48" s="142"/>
-      <c r="I48" s="131"/>
-    </row>
-    <row r="49" spans="1:9" s="176" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A49" s="220" t="s">
+      <c r="C48" s="111"/>
+      <c r="D48" s="112"/>
+      <c r="E48" s="187"/>
+      <c r="F48" s="206"/>
+      <c r="G48" s="207"/>
+      <c r="H48" s="208"/>
+      <c r="I48" s="106"/>
+    </row>
+    <row r="49" spans="1:9" s="127" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A49" s="149" t="s">
         <v>24</v>
       </c>
-      <c r="B49" s="221" t="s">
+      <c r="B49" s="150" t="s">
         <v>52</v>
       </c>
-      <c r="C49" s="222"/>
-      <c r="D49" s="223"/>
-      <c r="E49" s="273"/>
-      <c r="F49" s="293"/>
-      <c r="G49" s="224"/>
-      <c r="H49" s="225"/>
-      <c r="I49" s="226"/>
-    </row>
-    <row r="50" spans="1:9" s="116" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A50" s="150" t="s">
+      <c r="C49" s="151"/>
+      <c r="D49" s="152"/>
+      <c r="E49" s="188"/>
+      <c r="F49" s="203"/>
+      <c r="G49" s="204"/>
+      <c r="H49" s="205"/>
+      <c r="I49" s="153"/>
+    </row>
+    <row r="50" spans="1:9" s="97" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A50" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="B50" s="161" t="s">
+      <c r="B50" s="119" t="s">
         <v>56</v>
       </c>
-      <c r="C50" s="139"/>
-      <c r="D50" s="140"/>
-      <c r="E50" s="272"/>
-      <c r="F50" s="292"/>
-      <c r="G50" s="141"/>
-      <c r="H50" s="142"/>
-      <c r="I50" s="131"/>
-    </row>
-    <row r="51" spans="1:9" s="176" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A51" s="220" t="s">
+      <c r="C50" s="111"/>
+      <c r="D50" s="112"/>
+      <c r="E50" s="187"/>
+      <c r="F50" s="206"/>
+      <c r="G50" s="207"/>
+      <c r="H50" s="208"/>
+      <c r="I50" s="106"/>
+    </row>
+    <row r="51" spans="1:9" s="127" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A51" s="149" t="s">
         <v>26</v>
       </c>
-      <c r="B51" s="221" t="s">
+      <c r="B51" s="150" t="s">
         <v>57</v>
       </c>
-      <c r="C51" s="222"/>
-      <c r="D51" s="223"/>
-      <c r="E51" s="273"/>
-      <c r="F51" s="293"/>
-      <c r="G51" s="224"/>
-      <c r="H51" s="225"/>
-      <c r="I51" s="226"/>
-    </row>
-    <row r="52" spans="1:9" s="116" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A52" s="150" t="s">
+      <c r="C51" s="151"/>
+      <c r="D51" s="152"/>
+      <c r="E51" s="188"/>
+      <c r="F51" s="203"/>
+      <c r="G51" s="204"/>
+      <c r="H51" s="205"/>
+      <c r="I51" s="153"/>
+    </row>
+    <row r="52" spans="1:9" s="97" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A52" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="B52" s="161" t="s">
+      <c r="B52" s="119" t="s">
         <v>58</v>
       </c>
-      <c r="C52" s="139"/>
-      <c r="D52" s="140"/>
-      <c r="E52" s="272"/>
-      <c r="F52" s="292"/>
-      <c r="G52" s="141"/>
-      <c r="H52" s="142"/>
-      <c r="I52" s="131"/>
-    </row>
-    <row r="53" spans="1:9" s="176" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A53" s="220" t="s">
+      <c r="C52" s="111"/>
+      <c r="D52" s="112"/>
+      <c r="E52" s="187"/>
+      <c r="F52" s="206"/>
+      <c r="G52" s="207"/>
+      <c r="H52" s="208"/>
+      <c r="I52" s="106"/>
+    </row>
+    <row r="53" spans="1:9" s="127" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A53" s="149" t="s">
         <v>28</v>
       </c>
-      <c r="B53" s="221" t="s">
+      <c r="B53" s="150" t="s">
         <v>59</v>
       </c>
-      <c r="C53" s="222"/>
-      <c r="D53" s="223"/>
-      <c r="E53" s="273"/>
-      <c r="F53" s="293"/>
-      <c r="G53" s="224"/>
-      <c r="H53" s="225"/>
-      <c r="I53" s="226"/>
-    </row>
-    <row r="54" spans="1:9" s="127" customFormat="1">
-      <c r="A54" s="152" t="s">
+      <c r="C53" s="151"/>
+      <c r="D53" s="152"/>
+      <c r="E53" s="188"/>
+      <c r="F53" s="203"/>
+      <c r="G53" s="204"/>
+      <c r="H53" s="205"/>
+      <c r="I53" s="153"/>
+    </row>
+    <row r="54" spans="1:9" s="105" customFormat="1">
+      <c r="A54" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="B54" s="163" t="s">
+      <c r="B54" s="121" t="s">
         <v>60</v>
       </c>
-      <c r="C54" s="134"/>
-      <c r="D54" s="135"/>
-      <c r="E54" s="274"/>
-      <c r="F54" s="295"/>
-      <c r="G54" s="136"/>
-      <c r="H54" s="137"/>
-      <c r="I54" s="138" t="s">
+      <c r="C54" s="108"/>
+      <c r="D54" s="109"/>
+      <c r="E54" s="189"/>
+      <c r="F54" s="209"/>
+      <c r="G54" s="210"/>
+      <c r="H54" s="211"/>
+      <c r="I54" s="110" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A35:A37"/>
     <mergeCell ref="B35:B37"/>
     <mergeCell ref="A38:A43"/>
     <mergeCell ref="B38:B43"/>
@@ -4676,6 +4724,9 @@
     <mergeCell ref="B8:B14"/>
     <mergeCell ref="A15:A20"/>
     <mergeCell ref="B15:B20"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A35:A37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4781,7 +4832,7 @@
       <c r="K2" s="59" t="s">
         <v>554</v>
       </c>
-      <c r="L2" s="94" t="s">
+      <c r="L2" s="287" t="s">
         <v>134</v>
       </c>
     </row>
@@ -4799,7 +4850,7 @@
       <c r="I3" s="76"/>
       <c r="J3" s="76"/>
       <c r="K3" s="76"/>
-      <c r="L3" s="95"/>
+      <c r="L3" s="288"/>
     </row>
     <row r="4" spans="1:12" s="14" customFormat="1">
       <c r="A4" s="76"/>
@@ -4815,7 +4866,7 @@
       <c r="I4" s="76"/>
       <c r="J4" s="76"/>
       <c r="K4" s="76"/>
-      <c r="L4" s="95"/>
+      <c r="L4" s="288"/>
     </row>
     <row r="5" spans="1:12" s="14" customFormat="1">
       <c r="A5" s="76"/>
@@ -4831,7 +4882,7 @@
       <c r="I5" s="76"/>
       <c r="J5" s="76"/>
       <c r="K5" s="76"/>
-      <c r="L5" s="95"/>
+      <c r="L5" s="288"/>
     </row>
     <row r="6" spans="1:12" s="14" customFormat="1">
       <c r="A6" s="76"/>
@@ -4847,7 +4898,7 @@
       <c r="I6" s="76"/>
       <c r="J6" s="76"/>
       <c r="K6" s="76"/>
-      <c r="L6" s="95"/>
+      <c r="L6" s="288"/>
     </row>
     <row r="7" spans="1:12" s="14" customFormat="1">
       <c r="A7" s="76"/>
@@ -4863,7 +4914,7 @@
       <c r="I7" s="76"/>
       <c r="J7" s="76"/>
       <c r="K7" s="76"/>
-      <c r="L7" s="95"/>
+      <c r="L7" s="288"/>
     </row>
     <row r="8" spans="1:12" s="14" customFormat="1">
       <c r="A8" s="76"/>
@@ -4879,7 +4930,7 @@
       <c r="I8" s="76"/>
       <c r="J8" s="76"/>
       <c r="K8" s="76"/>
-      <c r="L8" s="95"/>
+      <c r="L8" s="288"/>
     </row>
     <row r="9" spans="1:12" s="14" customFormat="1">
       <c r="A9" s="76"/>
@@ -4895,7 +4946,7 @@
       <c r="I9" s="76"/>
       <c r="J9" s="76"/>
       <c r="K9" s="76"/>
-      <c r="L9" s="95"/>
+      <c r="L9" s="288"/>
     </row>
     <row r="10" spans="1:12" s="14" customFormat="1">
       <c r="A10" s="76"/>
@@ -4911,7 +4962,7 @@
       <c r="I10" s="76"/>
       <c r="J10" s="76"/>
       <c r="K10" s="76"/>
-      <c r="L10" s="95"/>
+      <c r="L10" s="288"/>
     </row>
     <row r="11" spans="1:12" s="14" customFormat="1">
       <c r="A11" s="76"/>
@@ -4927,7 +4978,7 @@
       <c r="I11" s="76"/>
       <c r="J11" s="76"/>
       <c r="K11" s="76"/>
-      <c r="L11" s="96"/>
+      <c r="L11" s="289"/>
     </row>
     <row r="12" spans="1:12" s="2" customFormat="1">
       <c r="A12" s="2" t="s">
@@ -4958,7 +5009,7 @@
         <v>71</v>
       </c>
       <c r="K12" s="11"/>
-      <c r="L12" s="97" t="s">
+      <c r="L12" s="290" t="s">
         <v>133</v>
       </c>
     </row>
@@ -4976,7 +5027,7 @@
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
       <c r="K13" s="17"/>
-      <c r="L13" s="98"/>
+      <c r="L13" s="291"/>
     </row>
     <row r="14" spans="1:12" s="53" customFormat="1">
       <c r="A14" s="53" t="s">
@@ -5009,7 +5060,7 @@
       <c r="K14" s="59" t="s">
         <v>200</v>
       </c>
-      <c r="L14" s="99"/>
+      <c r="L14" s="292"/>
     </row>
     <row r="15" spans="1:12" s="14" customFormat="1">
       <c r="A15" s="76"/>
@@ -5025,7 +5076,7 @@
       <c r="I15" s="76"/>
       <c r="J15" s="76"/>
       <c r="K15" s="76"/>
-      <c r="L15" s="95"/>
+      <c r="L15" s="288"/>
     </row>
     <row r="16" spans="1:12" s="14" customFormat="1">
       <c r="A16" s="76"/>
@@ -5041,7 +5092,7 @@
       <c r="I16" s="76"/>
       <c r="J16" s="76"/>
       <c r="K16" s="76"/>
-      <c r="L16" s="95"/>
+      <c r="L16" s="288"/>
     </row>
     <row r="17" spans="1:12" s="14" customFormat="1">
       <c r="A17" s="76"/>
@@ -5057,7 +5108,7 @@
       <c r="I17" s="76"/>
       <c r="J17" s="76"/>
       <c r="K17" s="76"/>
-      <c r="L17" s="95"/>
+      <c r="L17" s="288"/>
     </row>
     <row r="18" spans="1:12" s="14" customFormat="1">
       <c r="A18" s="76"/>
@@ -5073,7 +5124,7 @@
       <c r="I18" s="76"/>
       <c r="J18" s="76"/>
       <c r="K18" s="76"/>
-      <c r="L18" s="96"/>
+      <c r="L18" s="289"/>
     </row>
     <row r="19" spans="1:12" s="2" customFormat="1">
       <c r="A19" s="2" t="s">
@@ -5106,7 +5157,7 @@
       <c r="K19" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="L19" s="97"/>
+      <c r="L19" s="290"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="17"/>
@@ -5122,7 +5173,7 @@
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
       <c r="K20" s="17"/>
-      <c r="L20" s="98"/>
+      <c r="L20" s="291"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="17"/>
@@ -5138,7 +5189,7 @@
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
       <c r="K21" s="17"/>
-      <c r="L21" s="98"/>
+      <c r="L21" s="291"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="17"/>
@@ -5154,7 +5205,7 @@
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
       <c r="K22" s="17"/>
-      <c r="L22" s="100"/>
+      <c r="L22" s="293"/>
     </row>
     <row r="23" spans="1:12" s="53" customFormat="1">
       <c r="A23" s="53" t="s">
@@ -5185,7 +5236,7 @@
         <v>74</v>
       </c>
       <c r="K23" s="59"/>
-      <c r="L23" s="99"/>
+      <c r="L23" s="292"/>
     </row>
     <row r="24" spans="1:12" s="14" customFormat="1">
       <c r="A24" s="76"/>
@@ -5201,7 +5252,7 @@
       <c r="I24" s="76"/>
       <c r="J24" s="76"/>
       <c r="K24" s="76"/>
-      <c r="L24" s="95"/>
+      <c r="L24" s="288"/>
     </row>
     <row r="25" spans="1:12" s="14" customFormat="1">
       <c r="A25" s="76"/>
@@ -5217,7 +5268,7 @@
       <c r="I25" s="76"/>
       <c r="J25" s="76"/>
       <c r="K25" s="76"/>
-      <c r="L25" s="95"/>
+      <c r="L25" s="288"/>
     </row>
     <row r="26" spans="1:12" s="14" customFormat="1">
       <c r="A26" s="76"/>
@@ -5233,7 +5284,7 @@
       <c r="I26" s="76"/>
       <c r="J26" s="76"/>
       <c r="K26" s="76"/>
-      <c r="L26" s="96"/>
+      <c r="L26" s="289"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="2" t="s">
@@ -7108,7 +7159,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -7162,7 +7213,7 @@
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="25" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G2" s="25"/>
     </row>
@@ -7180,7 +7231,7 @@
         <v>536</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>535</v>
@@ -8331,7 +8382,7 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
@@ -8350,20 +8401,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="294" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="102"/>
+      <c r="B1" s="295"/>
       <c r="C1" s="15"/>
-      <c r="D1" s="101" t="s">
+      <c r="D1" s="294" t="s">
         <v>193</v>
       </c>
-      <c r="E1" s="102"/>
+      <c r="E1" s="295"/>
       <c r="F1" s="50"/>
-      <c r="G1" s="103" t="s">
+      <c r="G1" s="296" t="s">
         <v>206</v>
       </c>
-      <c r="H1" s="104"/>
+      <c r="H1" s="297"/>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>

--- a/Planning & Assetlist.xlsx
+++ b/Planning & Assetlist.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="562">
   <si>
     <t>Code Name</t>
   </si>
@@ -1694,6 +1694,18 @@
   </si>
   <si>
     <t>&lt;no classes on Monday till Wednesday&gt;</t>
+  </si>
+  <si>
+    <t>Prepare Presetation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">moved ENWO to dev fase 2, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">moved MBOX &amp; FENC from Jesse to Anthony, </t>
+  </si>
+  <si>
+    <t>Reason: Saving time for Jesse for Inplementation.</t>
   </si>
 </sst>
 </file>
@@ -1709,13 +1721,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1725,6 +1730,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1990,7 +2002,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="58">
+  <borders count="68">
     <border>
       <left/>
       <right/>
@@ -2701,16 +2713,144 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="slantDashDot">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="slantDashDot">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="slantDashDot">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="slantDashDot">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="slantDashDot">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="slantDashDot">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="slantDashDot">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="slantDashDot">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="309">
+  <cellXfs count="332">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2726,7 +2866,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2737,7 +2877,7 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2800,7 +2940,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2868,19 +3008,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
@@ -2922,23 +3062,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2956,9 +3080,6 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2971,15 +3092,9 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3033,19 +3148,16 @@
     <xf numFmtId="0" fontId="0" fillId="31" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3062,35 +3174,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3109,7 +3192,7 @@
     <xf numFmtId="0" fontId="0" fillId="39" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3127,9 +3210,6 @@
     <xf numFmtId="0" fontId="0" fillId="27" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3145,31 +3225,16 @@
     <xf numFmtId="0" fontId="0" fillId="28" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3223,15 +3288,6 @@
     <xf numFmtId="0" fontId="0" fillId="40" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="40" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="40" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="40" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3243,33 +3299,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="42" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="42" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="42" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="42" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="42" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="42" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="42" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="42" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="42" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3306,20 +3335,47 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3336,15 +3392,6 @@
     <xf numFmtId="0" fontId="0" fillId="40" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3354,13 +3401,13 @@
     <xf numFmtId="0" fontId="0" fillId="40" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3411,12 +3458,6 @@
     <xf numFmtId="0" fontId="0" fillId="26" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3426,33 +3467,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3474,49 +3488,238 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="64" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3829,42 +4032,43 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:XFD64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H8:H12"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="117" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="122" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="110" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="114" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" style="5" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" style="190" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="195" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="163" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="168" customWidth="1"/>
     <col min="7" max="7" width="20.7109375" style="7" customWidth="1"/>
     <col min="8" max="8" width="20.7109375" style="8" customWidth="1"/>
-    <col min="9" max="9" width="39.5703125" style="9" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" hidden="1"/>
+    <col min="9" max="9" width="44.7109375" style="9" customWidth="1"/>
+    <col min="10" max="16383" width="9.140625" hidden="1"/>
+    <col min="16384" max="16384" width="5.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="89" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A1" s="238" t="s">
+      <c r="A1" s="211" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="239"/>
+      <c r="B1" s="212"/>
       <c r="C1" s="84" t="s">
         <v>61</v>
       </c>
       <c r="D1" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="171" t="s">
+      <c r="E1" s="150" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="191" t="s">
+      <c r="F1" s="164" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="86" t="s">
@@ -3877,129 +4081,129 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="131" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A2" s="136" t="s">
+    <row r="2" spans="1:9" s="122" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A2" s="127" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="137" t="s">
+      <c r="B2" s="128" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="260" t="s">
+      <c r="C2" s="227" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="261"/>
-      <c r="E2" s="261"/>
-      <c r="F2" s="261"/>
-      <c r="G2" s="261"/>
-      <c r="H2" s="262"/>
-      <c r="I2" s="148"/>
+      <c r="D2" s="228"/>
+      <c r="E2" s="228"/>
+      <c r="F2" s="228"/>
+      <c r="G2" s="228"/>
+      <c r="H2" s="229"/>
+      <c r="I2" s="138"/>
     </row>
     <row r="3" spans="1:9" s="97" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="113" t="s">
+      <c r="A3" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="118" t="s">
+      <c r="B3" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="257" t="s">
+      <c r="C3" s="224" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="258"/>
-      <c r="E3" s="258"/>
-      <c r="F3" s="258"/>
-      <c r="G3" s="258"/>
-      <c r="H3" s="259"/>
-      <c r="I3" s="106"/>
-    </row>
-    <row r="4" spans="1:9" s="147" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A4" s="144" t="s">
+      <c r="D3" s="225"/>
+      <c r="E3" s="225"/>
+      <c r="F3" s="225"/>
+      <c r="G3" s="225"/>
+      <c r="H3" s="226"/>
+      <c r="I3" s="104"/>
+    </row>
+    <row r="4" spans="1:9" s="137" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A4" s="134" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="145" t="s">
+      <c r="B4" s="135" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="254" t="s">
+      <c r="C4" s="221" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="255"/>
-      <c r="E4" s="255"/>
-      <c r="F4" s="255"/>
-      <c r="G4" s="255"/>
-      <c r="H4" s="256"/>
-      <c r="I4" s="146"/>
-    </row>
-    <row r="5" spans="1:9" s="105" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A5" s="263" t="s">
+      <c r="D4" s="222"/>
+      <c r="E4" s="222"/>
+      <c r="F4" s="222"/>
+      <c r="G4" s="222"/>
+      <c r="H4" s="223"/>
+      <c r="I4" s="136"/>
+    </row>
+    <row r="5" spans="1:9" s="319" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A5" s="317" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="265" t="s">
+      <c r="B5" s="318" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="240" t="s">
+      <c r="C5" s="309" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="241"/>
-      <c r="E5" s="241"/>
-      <c r="F5" s="241"/>
-      <c r="G5" s="241"/>
-      <c r="H5" s="242"/>
-      <c r="I5" s="104" t="s">
+      <c r="D5" s="310"/>
+      <c r="E5" s="310"/>
+      <c r="F5" s="310"/>
+      <c r="G5" s="310"/>
+      <c r="H5" s="311"/>
+      <c r="I5" s="312" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="105" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A6" s="273"/>
-      <c r="B6" s="274"/>
-      <c r="C6" s="248" t="s">
+    <row r="6" spans="1:9" s="319" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A6" s="320"/>
+      <c r="B6" s="321"/>
+      <c r="C6" s="313" t="s">
         <v>533</v>
       </c>
-      <c r="D6" s="249"/>
-      <c r="E6" s="249"/>
-      <c r="F6" s="249"/>
-      <c r="G6" s="249"/>
-      <c r="H6" s="250"/>
-      <c r="I6" s="123"/>
-    </row>
-    <row r="7" spans="1:9" s="169" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A7" s="196" t="s">
+      <c r="D6" s="314"/>
+      <c r="E6" s="314"/>
+      <c r="F6" s="314"/>
+      <c r="G6" s="314"/>
+      <c r="H6" s="315"/>
+      <c r="I6" s="316"/>
+    </row>
+    <row r="7" spans="1:9" s="148" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A7" s="169" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="170" t="s">
+      <c r="B7" s="149" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="165"/>
-      <c r="D7" s="166"/>
-      <c r="E7" s="167"/>
-      <c r="F7" s="192"/>
-      <c r="G7" s="166"/>
-      <c r="H7" s="167"/>
-      <c r="I7" s="168" t="s">
+      <c r="C7" s="144"/>
+      <c r="D7" s="145"/>
+      <c r="E7" s="146"/>
+      <c r="F7" s="165"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="146"/>
+      <c r="I7" s="147" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="97" customFormat="1">
-      <c r="A8" s="263" t="s">
+      <c r="A8" s="230" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="265" t="s">
+      <c r="B8" s="232" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="95" t="s">
         <v>215</v>
       </c>
-      <c r="D8" s="298" t="s">
+      <c r="D8" s="199" t="s">
         <v>218</v>
       </c>
-      <c r="E8" s="172" t="s">
+      <c r="E8" s="151" t="s">
         <v>222</v>
       </c>
-      <c r="F8" s="193" t="s">
+      <c r="F8" s="166" t="s">
         <v>480</v>
       </c>
-      <c r="G8" s="304" t="s">
+      <c r="G8" s="199" t="s">
         <v>474</v>
       </c>
-      <c r="H8" s="302" t="s">
+      <c r="H8" s="203" t="s">
         <v>476</v>
       </c>
       <c r="I8" s="98" t="s">
@@ -4007,197 +4211,197 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="264"/>
-      <c r="B9" s="266"/>
+      <c r="A9" s="231"/>
+      <c r="B9" s="233"/>
       <c r="C9" s="90"/>
-      <c r="D9" s="299" t="s">
+      <c r="D9" s="200" t="s">
         <v>303</v>
       </c>
-      <c r="E9" s="173" t="s">
+      <c r="E9" s="152" t="s">
         <v>417</v>
       </c>
-      <c r="F9" s="229"/>
-      <c r="G9" s="305" t="s">
+      <c r="F9" s="190"/>
+      <c r="G9" s="200" t="s">
         <v>475</v>
       </c>
-      <c r="H9" s="303" t="s">
+      <c r="H9" s="204" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="264"/>
-      <c r="B10" s="266"/>
+      <c r="A10" s="231"/>
+      <c r="B10" s="233"/>
       <c r="C10" s="90"/>
-      <c r="D10" s="299" t="s">
+      <c r="D10" s="200" t="s">
         <v>261</v>
       </c>
-      <c r="E10" s="173" t="s">
+      <c r="E10" s="152" t="s">
         <v>307</v>
       </c>
-      <c r="F10" s="229"/>
-      <c r="G10" s="199"/>
-      <c r="H10" s="303" t="s">
+      <c r="F10" s="190"/>
+      <c r="G10" s="172"/>
+      <c r="H10" s="204" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="264"/>
-      <c r="B11" s="266"/>
+      <c r="A11" s="231"/>
+      <c r="B11" s="233"/>
       <c r="C11" s="90"/>
       <c r="D11" s="91"/>
-      <c r="E11" s="173" t="s">
+      <c r="E11" s="152" t="s">
         <v>419</v>
       </c>
-      <c r="F11" s="229"/>
-      <c r="G11" s="199"/>
-      <c r="H11" s="230"/>
+      <c r="F11" s="190"/>
+      <c r="G11" s="172"/>
+      <c r="H11" s="191"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="264"/>
-      <c r="B12" s="266"/>
+      <c r="A12" s="231"/>
+      <c r="B12" s="233"/>
       <c r="C12" s="90"/>
       <c r="D12" s="91"/>
-      <c r="E12" s="173" t="s">
+      <c r="E12" s="152" t="s">
         <v>265</v>
       </c>
-      <c r="F12" s="229"/>
-      <c r="G12" s="199"/>
-      <c r="H12" s="230"/>
+      <c r="F12" s="190"/>
+      <c r="G12" s="172"/>
+      <c r="H12" s="191"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="264"/>
-      <c r="B13" s="266"/>
+      <c r="A13" s="231"/>
+      <c r="B13" s="233"/>
       <c r="C13" s="90"/>
       <c r="D13" s="91"/>
-      <c r="E13" s="173" t="s">
+      <c r="E13" s="152" t="s">
         <v>421</v>
       </c>
-      <c r="F13" s="229"/>
-      <c r="G13" s="199"/>
-      <c r="H13" s="230"/>
+      <c r="F13" s="190"/>
+      <c r="G13" s="172"/>
+      <c r="H13" s="191"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A14" s="264"/>
-      <c r="B14" s="266"/>
+      <c r="A14" s="231"/>
+      <c r="B14" s="233"/>
       <c r="C14" s="93"/>
       <c r="D14" s="94"/>
-      <c r="E14" s="174" t="s">
+      <c r="E14" s="153" t="s">
         <v>418</v>
       </c>
-      <c r="F14" s="231"/>
-      <c r="G14" s="200"/>
-      <c r="H14" s="232"/>
+      <c r="F14" s="192"/>
+      <c r="G14" s="173"/>
+      <c r="H14" s="193"/>
       <c r="I14" s="92"/>
     </row>
-    <row r="15" spans="1:9" s="127" customFormat="1">
-      <c r="A15" s="267" t="s">
+    <row r="15" spans="1:9" s="118" customFormat="1">
+      <c r="A15" s="234" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="270" t="s">
+      <c r="B15" s="237" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="124" t="s">
+      <c r="C15" s="115" t="s">
         <v>215</v>
       </c>
-      <c r="D15" s="300" t="s">
+      <c r="D15" s="201" t="s">
         <v>303</v>
       </c>
-      <c r="E15" s="175" t="s">
+      <c r="E15" s="154" t="s">
         <v>418</v>
       </c>
-      <c r="F15" s="197" t="s">
+      <c r="F15" s="170" t="s">
         <v>480</v>
       </c>
-      <c r="G15" s="201" t="s">
+      <c r="G15" s="174" t="s">
         <v>482</v>
       </c>
-      <c r="H15" s="175" t="s">
+      <c r="H15" s="154" t="s">
         <v>473</v>
       </c>
-      <c r="I15" s="126"/>
-    </row>
-    <row r="16" spans="1:9" s="131" customFormat="1">
-      <c r="A16" s="268"/>
-      <c r="B16" s="271"/>
-      <c r="C16" s="128" t="s">
+      <c r="I15" s="117"/>
+    </row>
+    <row r="16" spans="1:9" s="122" customFormat="1">
+      <c r="A16" s="235"/>
+      <c r="B16" s="238"/>
+      <c r="C16" s="119" t="s">
         <v>199</v>
       </c>
-      <c r="D16" s="301" t="s">
+      <c r="D16" s="202" t="s">
         <v>261</v>
       </c>
-      <c r="E16" s="176" t="s">
+      <c r="E16" s="155" t="s">
         <v>420</v>
       </c>
-      <c r="F16" s="212"/>
-      <c r="G16" s="202"/>
-      <c r="H16" s="176" t="s">
+      <c r="F16" s="182"/>
+      <c r="G16" s="175"/>
+      <c r="H16" s="155" t="s">
         <v>478</v>
       </c>
-      <c r="I16" s="130"/>
-    </row>
-    <row r="17" spans="1:9" s="131" customFormat="1">
-      <c r="A17" s="268"/>
-      <c r="B17" s="271"/>
-      <c r="C17" s="128" t="s">
+      <c r="I16" s="121"/>
+    </row>
+    <row r="17" spans="1:9" s="122" customFormat="1">
+      <c r="A17" s="235"/>
+      <c r="B17" s="238"/>
+      <c r="C17" s="119" t="s">
         <v>258</v>
       </c>
-      <c r="D17" s="301" t="s">
+      <c r="D17" s="202" t="s">
         <v>393</v>
       </c>
-      <c r="E17" s="176" t="s">
+      <c r="E17" s="155" t="s">
         <v>422</v>
       </c>
-      <c r="F17" s="212"/>
-      <c r="G17" s="202"/>
-      <c r="H17" s="213"/>
-      <c r="I17" s="130"/>
-    </row>
-    <row r="18" spans="1:9" s="131" customFormat="1">
-      <c r="A18" s="268"/>
-      <c r="B18" s="271"/>
-      <c r="C18" s="132"/>
-      <c r="D18" s="301" t="s">
+      <c r="F17" s="182"/>
+      <c r="G17" s="175"/>
+      <c r="H17" s="183"/>
+      <c r="I17" s="121"/>
+    </row>
+    <row r="18" spans="1:9" s="122" customFormat="1">
+      <c r="A18" s="235"/>
+      <c r="B18" s="238"/>
+      <c r="C18" s="123"/>
+      <c r="D18" s="202" t="s">
         <v>402</v>
       </c>
-      <c r="E18" s="176" t="s">
+      <c r="E18" s="155" t="s">
         <v>543</v>
       </c>
-      <c r="F18" s="212"/>
-      <c r="G18" s="202"/>
-      <c r="H18" s="213"/>
-      <c r="I18" s="130"/>
-    </row>
-    <row r="19" spans="1:9" s="131" customFormat="1">
-      <c r="A19" s="268"/>
-      <c r="B19" s="271"/>
-      <c r="C19" s="132"/>
-      <c r="D19" s="129"/>
-      <c r="E19" s="176" t="s">
+      <c r="F18" s="182"/>
+      <c r="G18" s="175"/>
+      <c r="H18" s="183"/>
+      <c r="I18" s="121"/>
+    </row>
+    <row r="19" spans="1:9" s="122" customFormat="1">
+      <c r="A19" s="235"/>
+      <c r="B19" s="238"/>
+      <c r="C19" s="123"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="155" t="s">
         <v>544</v>
       </c>
-      <c r="F19" s="212"/>
-      <c r="G19" s="202"/>
-      <c r="H19" s="213"/>
-      <c r="I19" s="130"/>
-    </row>
-    <row r="20" spans="1:9" s="131" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A20" s="269"/>
-      <c r="B20" s="272"/>
-      <c r="C20" s="133"/>
-      <c r="D20" s="134"/>
-      <c r="E20" s="177" t="s">
+      <c r="F19" s="182"/>
+      <c r="G19" s="175"/>
+      <c r="H19" s="183"/>
+      <c r="I19" s="121"/>
+    </row>
+    <row r="20" spans="1:9" s="122" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A20" s="236"/>
+      <c r="B20" s="239"/>
+      <c r="C20" s="124"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="331" t="s">
         <v>545</v>
       </c>
-      <c r="F20" s="226"/>
-      <c r="G20" s="227"/>
-      <c r="H20" s="228"/>
-      <c r="I20" s="135"/>
+      <c r="F20" s="187"/>
+      <c r="G20" s="188"/>
+      <c r="H20" s="189"/>
+      <c r="I20" s="126"/>
     </row>
     <row r="21" spans="1:9" s="97" customFormat="1">
-      <c r="A21" s="234" t="s">
+      <c r="A21" s="195" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="235" t="s">
+      <c r="B21" s="196" t="s">
         <v>46</v>
       </c>
       <c r="C21" s="95" t="s">
@@ -4206,16 +4410,16 @@
       <c r="D21" s="96" t="s">
         <v>217</v>
       </c>
-      <c r="E21" s="172" t="s">
+      <c r="E21" s="151" t="s">
         <v>231</v>
       </c>
-      <c r="F21" s="193" t="s">
+      <c r="F21" s="166" t="s">
         <v>492</v>
       </c>
-      <c r="G21" s="216" t="s">
+      <c r="G21" s="186" t="s">
         <v>484</v>
       </c>
-      <c r="H21" s="215" t="s">
+      <c r="H21" s="185" t="s">
         <v>489</v>
       </c>
       <c r="I21" s="98" t="s">
@@ -4223,500 +4427,642 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="236"/>
-      <c r="B22" s="237"/>
-      <c r="C22" s="198" t="s">
+      <c r="A22" s="197"/>
+      <c r="B22" s="198"/>
+      <c r="C22" s="171" t="s">
         <v>258</v>
       </c>
       <c r="D22" s="91"/>
-      <c r="E22" s="173" t="s">
+      <c r="E22" s="152" t="s">
         <v>546</v>
       </c>
-      <c r="F22" s="229"/>
-      <c r="G22" s="199"/>
-      <c r="H22" s="230"/>
+      <c r="F22" s="190"/>
+      <c r="G22" s="172"/>
+      <c r="H22" s="191"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="236"/>
-      <c r="B23" s="237"/>
-      <c r="C23" s="198" t="s">
+      <c r="A23" s="197"/>
+      <c r="B23" s="198"/>
+      <c r="C23" s="171" t="s">
         <v>390</v>
       </c>
       <c r="D23" s="91"/>
-      <c r="E23" s="173" t="s">
+      <c r="E23" s="152" t="s">
         <v>316</v>
       </c>
-      <c r="F23" s="229"/>
-      <c r="G23" s="199"/>
-      <c r="H23" s="230"/>
+      <c r="F23" s="190"/>
+      <c r="G23" s="172"/>
+      <c r="H23" s="191"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="236"/>
-      <c r="B24" s="237"/>
-      <c r="C24" s="308" t="s">
+      <c r="A24" s="197"/>
+      <c r="B24" s="198"/>
+      <c r="C24" s="207" t="s">
         <v>399</v>
       </c>
       <c r="D24" s="91"/>
-      <c r="E24" s="173" t="s">
+      <c r="E24" s="152" t="s">
         <v>547</v>
       </c>
-      <c r="F24" s="229"/>
-      <c r="G24" s="199"/>
-      <c r="H24" s="230"/>
+      <c r="F24" s="190"/>
+      <c r="G24" s="172"/>
+      <c r="H24" s="191"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="236"/>
-      <c r="B25" s="237"/>
+      <c r="A25" s="197"/>
+      <c r="B25" s="198"/>
       <c r="C25" s="90"/>
       <c r="D25" s="91"/>
-      <c r="E25" s="173" t="s">
+      <c r="E25" s="152" t="s">
         <v>548</v>
       </c>
-      <c r="F25" s="229"/>
-      <c r="G25" s="199"/>
-      <c r="H25" s="230"/>
+      <c r="F25" s="190"/>
+      <c r="G25" s="172"/>
+      <c r="H25" s="191"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="236"/>
-      <c r="B26" s="237"/>
+      <c r="A26" s="197"/>
+      <c r="B26" s="198"/>
       <c r="C26" s="90"/>
       <c r="D26" s="91"/>
-      <c r="E26" s="303" t="s">
+      <c r="E26" s="157" t="s">
         <v>234</v>
       </c>
-      <c r="F26" s="229"/>
-      <c r="G26" s="199"/>
-      <c r="H26" s="230"/>
+      <c r="F26" s="190"/>
+      <c r="G26" s="172"/>
+      <c r="H26" s="191"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="236"/>
-      <c r="B27" s="237"/>
+      <c r="A27" s="197"/>
+      <c r="B27" s="198"/>
       <c r="C27" s="90"/>
       <c r="D27" s="91"/>
-      <c r="E27" s="179" t="s">
+      <c r="E27" s="157" t="s">
         <v>319</v>
       </c>
-      <c r="F27" s="229"/>
-      <c r="G27" s="199"/>
-      <c r="H27" s="230"/>
+      <c r="F27" s="190"/>
+      <c r="G27" s="172"/>
+      <c r="H27" s="191"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A28" s="236"/>
-      <c r="B28" s="237"/>
+      <c r="A28" s="197"/>
+      <c r="B28" s="198"/>
       <c r="C28" s="93"/>
       <c r="D28" s="94"/>
-      <c r="E28" s="180" t="s">
+      <c r="E28" s="158" t="s">
         <v>277</v>
       </c>
-      <c r="F28" s="231"/>
-      <c r="G28" s="200"/>
-      <c r="H28" s="232"/>
+      <c r="F28" s="192"/>
+      <c r="G28" s="173"/>
+      <c r="H28" s="193"/>
       <c r="I28" s="92"/>
     </row>
-    <row r="29" spans="1:9" s="127" customFormat="1">
-      <c r="A29" s="138" t="s">
+    <row r="29" spans="1:9" s="118" customFormat="1">
+      <c r="A29" s="129" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="139" t="s">
+      <c r="B29" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="124" t="s">
+      <c r="C29" s="115" t="s">
         <v>390</v>
       </c>
-      <c r="D29" s="125" t="s">
+      <c r="D29" s="116" t="s">
+        <v>234</v>
+      </c>
+      <c r="E29" s="159" t="s">
+        <v>549</v>
+      </c>
+      <c r="F29" s="205" t="s">
+        <v>483</v>
+      </c>
+      <c r="G29" s="174" t="s">
+        <v>484</v>
+      </c>
+      <c r="H29" s="194" t="s">
+        <v>540</v>
+      </c>
+      <c r="I29" s="131" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="122" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A30" s="132"/>
+      <c r="B30" s="133"/>
+      <c r="C30" s="206" t="s">
+        <v>399</v>
+      </c>
+      <c r="D30" s="120" t="s">
+        <v>319</v>
+      </c>
+      <c r="E30" s="160"/>
+      <c r="F30" s="182"/>
+      <c r="G30" s="175"/>
+      <c r="H30" s="183"/>
+      <c r="I30" s="268" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="122" customFormat="1">
+      <c r="A31" s="132"/>
+      <c r="B31" s="133"/>
+      <c r="C31" s="123"/>
+      <c r="D31" s="120" t="s">
+        <v>277</v>
+      </c>
+      <c r="E31" s="160"/>
+      <c r="F31" s="182"/>
+      <c r="G31" s="175"/>
+      <c r="H31" s="183"/>
+      <c r="I31" s="268" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="122" customFormat="1">
+      <c r="A32" s="132"/>
+      <c r="B32" s="133"/>
+      <c r="C32" s="123"/>
+      <c r="D32" s="120"/>
+      <c r="E32" s="160"/>
+      <c r="F32" s="182"/>
+      <c r="G32" s="175"/>
+      <c r="H32" s="183"/>
+      <c r="I32" s="268" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="122" customFormat="1">
+      <c r="A33" s="132"/>
+      <c r="B33" s="133"/>
+      <c r="C33" s="123"/>
+      <c r="D33" s="120"/>
+      <c r="E33" s="160"/>
+      <c r="F33" s="182"/>
+      <c r="G33" s="175"/>
+      <c r="H33" s="183"/>
+      <c r="I33" s="268"/>
+    </row>
+    <row r="34" spans="1:9" s="122" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A34" s="132"/>
+      <c r="B34" s="133"/>
+      <c r="C34" s="123"/>
+      <c r="D34" s="120"/>
+      <c r="E34" s="160"/>
+      <c r="F34" s="182"/>
+      <c r="G34" s="175"/>
+      <c r="H34" s="183"/>
+      <c r="I34" s="269"/>
+    </row>
+    <row r="35" spans="1:9" s="97" customFormat="1">
+      <c r="A35" s="240" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="208" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="115" t="s">
+        <v>390</v>
+      </c>
+      <c r="D35" s="96" t="s">
+        <v>234</v>
+      </c>
+      <c r="E35" s="156" t="s">
+        <v>549</v>
+      </c>
+      <c r="F35" s="184"/>
+      <c r="G35" s="185" t="s">
+        <v>481</v>
+      </c>
+      <c r="H35" s="186" t="s">
+        <v>553</v>
+      </c>
+      <c r="I35" s="98"/>
+    </row>
+    <row r="36" spans="1:9" s="12" customFormat="1">
+      <c r="A36" s="241"/>
+      <c r="B36" s="209"/>
+      <c r="C36" s="206" t="s">
+        <v>399</v>
+      </c>
+      <c r="D36" s="266" t="s">
+        <v>319</v>
+      </c>
+      <c r="E36" s="270"/>
+      <c r="F36" s="218" t="s">
+        <v>541</v>
+      </c>
+      <c r="G36" s="219"/>
+      <c r="H36" s="220"/>
+      <c r="I36" s="267"/>
+    </row>
+    <row r="37" spans="1:9" s="12" customFormat="1">
+      <c r="A37" s="241"/>
+      <c r="B37" s="209"/>
+      <c r="C37" s="265"/>
+      <c r="D37" s="266" t="s">
+        <v>277</v>
+      </c>
+      <c r="E37" s="270"/>
+      <c r="F37" s="271"/>
+      <c r="G37" s="272"/>
+      <c r="H37" s="273"/>
+      <c r="I37" s="267"/>
+    </row>
+    <row r="38" spans="1:9" s="12" customFormat="1">
+      <c r="A38" s="241"/>
+      <c r="B38" s="209"/>
+      <c r="C38" s="265"/>
+      <c r="D38" s="266" t="s">
+        <v>232</v>
+      </c>
+      <c r="E38" s="270"/>
+      <c r="F38" s="271"/>
+      <c r="G38" s="272"/>
+      <c r="H38" s="273"/>
+      <c r="I38" s="267"/>
+    </row>
+    <row r="39" spans="1:9" s="12" customFormat="1">
+      <c r="A39" s="241"/>
+      <c r="B39" s="209"/>
+      <c r="C39" s="265"/>
+      <c r="D39" s="266" t="s">
+        <v>317</v>
+      </c>
+      <c r="E39" s="270"/>
+      <c r="F39" s="271"/>
+      <c r="G39" s="272"/>
+      <c r="H39" s="273"/>
+      <c r="I39" s="267"/>
+    </row>
+    <row r="40" spans="1:9" s="12" customFormat="1">
+      <c r="A40" s="241"/>
+      <c r="B40" s="209"/>
+      <c r="C40" s="265"/>
+      <c r="D40" s="266" t="s">
+        <v>275</v>
+      </c>
+      <c r="E40" s="270"/>
+      <c r="F40" s="271"/>
+      <c r="G40" s="272"/>
+      <c r="H40" s="273"/>
+      <c r="I40" s="267"/>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A41" s="242"/>
+      <c r="B41" s="210"/>
+      <c r="C41" s="213" t="s">
+        <v>550</v>
+      </c>
+      <c r="D41" s="214"/>
+      <c r="E41" s="214"/>
+      <c r="F41" s="215" t="s">
+        <v>550</v>
+      </c>
+      <c r="G41" s="216"/>
+      <c r="H41" s="217"/>
+      <c r="I41" s="92"/>
+    </row>
+    <row r="42" spans="1:9" s="283" customFormat="1">
+      <c r="A42" s="274" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" s="275" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="276"/>
+      <c r="D42" s="277"/>
+      <c r="E42" s="278" t="s">
+        <v>549</v>
+      </c>
+      <c r="F42" s="279"/>
+      <c r="G42" s="280"/>
+      <c r="H42" s="281" t="s">
+        <v>553</v>
+      </c>
+      <c r="I42" s="282" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="293" customFormat="1">
+      <c r="A43" s="284"/>
+      <c r="B43" s="285"/>
+      <c r="C43" s="286" t="s">
+        <v>558</v>
+      </c>
+      <c r="D43" s="287"/>
+      <c r="E43" s="288"/>
+      <c r="F43" s="289" t="s">
+        <v>558</v>
+      </c>
+      <c r="G43" s="290"/>
+      <c r="H43" s="291"/>
+      <c r="I43" s="292"/>
+    </row>
+    <row r="44" spans="1:9" s="293" customFormat="1">
+      <c r="A44" s="284"/>
+      <c r="B44" s="285"/>
+      <c r="C44" s="294"/>
+      <c r="D44" s="295"/>
+      <c r="E44" s="296"/>
+      <c r="F44" s="297"/>
+      <c r="G44" s="298"/>
+      <c r="H44" s="299"/>
+      <c r="I44" s="292"/>
+    </row>
+    <row r="45" spans="1:9" s="293" customFormat="1">
+      <c r="A45" s="284"/>
+      <c r="B45" s="285"/>
+      <c r="C45" s="294"/>
+      <c r="D45" s="295"/>
+      <c r="E45" s="296"/>
+      <c r="F45" s="297"/>
+      <c r="G45" s="298"/>
+      <c r="H45" s="299"/>
+      <c r="I45" s="292"/>
+    </row>
+    <row r="46" spans="1:9" s="293" customFormat="1">
+      <c r="A46" s="284"/>
+      <c r="B46" s="285"/>
+      <c r="C46" s="294"/>
+      <c r="D46" s="295"/>
+      <c r="E46" s="296"/>
+      <c r="F46" s="297"/>
+      <c r="G46" s="298"/>
+      <c r="H46" s="299"/>
+      <c r="I46" s="292"/>
+    </row>
+    <row r="47" spans="1:9" s="293" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A47" s="300"/>
+      <c r="B47" s="301"/>
+      <c r="C47" s="302"/>
+      <c r="D47" s="303"/>
+      <c r="E47" s="304"/>
+      <c r="F47" s="305"/>
+      <c r="G47" s="306"/>
+      <c r="H47" s="307"/>
+      <c r="I47" s="308"/>
+    </row>
+    <row r="48" spans="1:9" s="97" customFormat="1">
+      <c r="A48" s="108" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48" s="112" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="105"/>
+      <c r="D48" s="106" t="s">
         <v>217</v>
       </c>
-      <c r="E29" s="181" t="s">
-        <v>232</v>
-      </c>
-      <c r="F29" s="306" t="s">
-        <v>483</v>
-      </c>
-      <c r="G29" s="201" t="s">
-        <v>484</v>
-      </c>
-      <c r="H29" s="233" t="s">
-        <v>540</v>
-      </c>
-      <c r="I29" s="140" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" s="131" customFormat="1">
-      <c r="A30" s="141"/>
-      <c r="B30" s="142"/>
-      <c r="C30" s="307" t="s">
-        <v>399</v>
-      </c>
-      <c r="D30" s="129" t="s">
+      <c r="E48" s="161"/>
+      <c r="F48" s="179"/>
+      <c r="G48" s="180"/>
+      <c r="H48" s="181"/>
+      <c r="I48" s="104"/>
+    </row>
+    <row r="49" spans="1:9" s="264" customFormat="1">
+      <c r="A49" s="110"/>
+      <c r="B49" s="114"/>
+      <c r="C49" s="90"/>
+      <c r="D49" s="91" t="s">
         <v>302</v>
       </c>
-      <c r="E30" s="182" t="s">
-        <v>317</v>
-      </c>
-      <c r="F30" s="212"/>
-      <c r="G30" s="202"/>
-      <c r="H30" s="213"/>
-      <c r="I30" s="143"/>
-    </row>
-    <row r="31" spans="1:9" s="131" customFormat="1">
-      <c r="A31" s="141"/>
-      <c r="B31" s="142"/>
-      <c r="C31" s="132"/>
-      <c r="D31" s="129" t="s">
+      <c r="E49" s="157"/>
+      <c r="F49" s="190"/>
+      <c r="G49" s="172"/>
+      <c r="H49" s="191"/>
+      <c r="I49" s="9"/>
+    </row>
+    <row r="50" spans="1:9" s="264" customFormat="1">
+      <c r="A50" s="110"/>
+      <c r="B50" s="114"/>
+      <c r="C50" s="90"/>
+      <c r="D50" s="91" t="s">
         <v>260</v>
       </c>
-      <c r="E31" s="182" t="s">
-        <v>275</v>
-      </c>
-      <c r="F31" s="212"/>
-      <c r="G31" s="202"/>
-      <c r="H31" s="213"/>
-      <c r="I31" s="143"/>
-    </row>
-    <row r="32" spans="1:9" s="131" customFormat="1">
-      <c r="A32" s="141"/>
-      <c r="B32" s="142"/>
-      <c r="C32" s="132"/>
-      <c r="D32" s="129" t="s">
+      <c r="E50" s="157"/>
+      <c r="F50" s="190"/>
+      <c r="G50" s="172"/>
+      <c r="H50" s="191"/>
+      <c r="I50" s="9"/>
+    </row>
+    <row r="51" spans="1:9" s="264" customFormat="1">
+      <c r="A51" s="110"/>
+      <c r="B51" s="114"/>
+      <c r="C51" s="90"/>
+      <c r="D51" s="91" t="s">
         <v>392</v>
       </c>
-      <c r="E32" s="182" t="s">
-        <v>549</v>
-      </c>
-      <c r="F32" s="212"/>
-      <c r="G32" s="202"/>
-      <c r="H32" s="213"/>
-      <c r="I32" s="143"/>
-    </row>
-    <row r="33" spans="1:9" s="131" customFormat="1">
-      <c r="A33" s="141"/>
-      <c r="B33" s="142"/>
-      <c r="C33" s="132"/>
-      <c r="D33" s="129" t="s">
+      <c r="E51" s="157"/>
+      <c r="F51" s="190"/>
+      <c r="G51" s="172"/>
+      <c r="H51" s="191"/>
+      <c r="I51" s="9"/>
+    </row>
+    <row r="52" spans="1:9" s="264" customFormat="1">
+      <c r="A52" s="110"/>
+      <c r="B52" s="114"/>
+      <c r="C52" s="90"/>
+      <c r="D52" s="91" t="s">
         <v>401</v>
       </c>
-      <c r="E33" s="182"/>
-      <c r="F33" s="212"/>
-      <c r="G33" s="202"/>
-      <c r="H33" s="213"/>
-      <c r="I33" s="143"/>
-    </row>
-    <row r="34" spans="1:9" s="131" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A34" s="141"/>
-      <c r="B34" s="142"/>
-      <c r="C34" s="132"/>
-      <c r="D34" s="129"/>
-      <c r="E34" s="182"/>
-      <c r="F34" s="212"/>
-      <c r="G34" s="202"/>
-      <c r="H34" s="213"/>
-      <c r="I34" s="143"/>
-    </row>
-    <row r="35" spans="1:9" s="97" customFormat="1">
-      <c r="A35" s="275" t="s">
-        <v>17</v>
-      </c>
-      <c r="B35" s="278" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="107"/>
-      <c r="D35" s="96" t="s">
-        <v>392</v>
-      </c>
-      <c r="E35" s="178" t="s">
-        <v>549</v>
-      </c>
-      <c r="F35" s="214"/>
-      <c r="G35" s="215" t="s">
-        <v>481</v>
-      </c>
-      <c r="H35" s="216" t="s">
-        <v>553</v>
-      </c>
-      <c r="I35" s="98"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="276"/>
-      <c r="B36" s="279"/>
-      <c r="C36" s="90"/>
-      <c r="D36" s="91" t="s">
-        <v>401</v>
-      </c>
-      <c r="E36" s="183"/>
-      <c r="F36" s="251" t="s">
-        <v>541</v>
-      </c>
-      <c r="G36" s="252"/>
-      <c r="H36" s="253"/>
-    </row>
-    <row r="37" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A37" s="277"/>
-      <c r="B37" s="280"/>
-      <c r="C37" s="243" t="s">
-        <v>550</v>
-      </c>
-      <c r="D37" s="244"/>
-      <c r="E37" s="244"/>
-      <c r="F37" s="245" t="s">
-        <v>550</v>
-      </c>
-      <c r="G37" s="246"/>
-      <c r="H37" s="247"/>
-      <c r="I37" s="92"/>
-    </row>
-    <row r="38" spans="1:9" s="157" customFormat="1">
-      <c r="A38" s="281" t="s">
-        <v>18</v>
-      </c>
-      <c r="B38" s="284" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="154"/>
-      <c r="D38" s="155"/>
-      <c r="E38" s="184"/>
-      <c r="F38" s="217"/>
-      <c r="G38" s="218"/>
-      <c r="H38" s="219"/>
-      <c r="I38" s="156" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" s="161" customFormat="1">
-      <c r="A39" s="282"/>
-      <c r="B39" s="285"/>
-      <c r="C39" s="158"/>
-      <c r="D39" s="159"/>
-      <c r="E39" s="185"/>
-      <c r="F39" s="220"/>
-      <c r="G39" s="221"/>
-      <c r="H39" s="222"/>
-      <c r="I39" s="160"/>
-    </row>
-    <row r="40" spans="1:9" s="161" customFormat="1">
-      <c r="A40" s="282"/>
-      <c r="B40" s="285"/>
-      <c r="C40" s="158"/>
-      <c r="D40" s="159"/>
-      <c r="E40" s="185"/>
-      <c r="F40" s="220"/>
-      <c r="G40" s="221"/>
-      <c r="H40" s="222"/>
-      <c r="I40" s="160"/>
-    </row>
-    <row r="41" spans="1:9" s="161" customFormat="1">
-      <c r="A41" s="282"/>
-      <c r="B41" s="285"/>
-      <c r="C41" s="158"/>
-      <c r="D41" s="159"/>
-      <c r="E41" s="185"/>
-      <c r="F41" s="220"/>
-      <c r="G41" s="221"/>
-      <c r="H41" s="222"/>
-      <c r="I41" s="160"/>
-    </row>
-    <row r="42" spans="1:9" s="161" customFormat="1">
-      <c r="A42" s="282"/>
-      <c r="B42" s="285"/>
-      <c r="C42" s="158"/>
-      <c r="D42" s="159"/>
-      <c r="E42" s="185"/>
-      <c r="F42" s="220"/>
-      <c r="G42" s="221"/>
-      <c r="H42" s="222"/>
-      <c r="I42" s="160"/>
-    </row>
-    <row r="43" spans="1:9" s="161" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A43" s="283"/>
-      <c r="B43" s="286"/>
-      <c r="C43" s="162"/>
-      <c r="D43" s="163"/>
-      <c r="E43" s="186"/>
-      <c r="F43" s="223"/>
-      <c r="G43" s="224"/>
-      <c r="H43" s="225"/>
-      <c r="I43" s="164"/>
-    </row>
-    <row r="44" spans="1:9" s="97" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A44" s="114" t="s">
-        <v>19</v>
-      </c>
-      <c r="B44" s="119" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44" s="111"/>
-      <c r="D44" s="112"/>
-      <c r="E44" s="187"/>
-      <c r="F44" s="206"/>
-      <c r="G44" s="207"/>
-      <c r="H44" s="208"/>
-      <c r="I44" s="106"/>
-    </row>
-    <row r="45" spans="1:9" s="127" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A45" s="149" t="s">
+      <c r="E52" s="157"/>
+      <c r="F52" s="190"/>
+      <c r="G52" s="172"/>
+      <c r="H52" s="191"/>
+      <c r="I52" s="9"/>
+    </row>
+    <row r="53" spans="1:9" s="264" customFormat="1">
+      <c r="A53" s="110"/>
+      <c r="B53" s="114"/>
+      <c r="C53" s="90"/>
+      <c r="D53" s="91"/>
+      <c r="E53" s="157"/>
+      <c r="F53" s="190"/>
+      <c r="G53" s="172"/>
+      <c r="H53" s="191"/>
+      <c r="I53" s="9"/>
+    </row>
+    <row r="54" spans="1:9" s="263" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A54" s="254"/>
+      <c r="B54" s="255"/>
+      <c r="C54" s="256"/>
+      <c r="D54" s="257"/>
+      <c r="E54" s="258"/>
+      <c r="F54" s="259"/>
+      <c r="G54" s="260"/>
+      <c r="H54" s="261"/>
+      <c r="I54" s="262"/>
+    </row>
+    <row r="55" spans="1:9" s="118" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A55" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="B45" s="150" t="s">
+      <c r="B55" s="140" t="s">
         <v>51</v>
       </c>
-      <c r="C45" s="151"/>
-      <c r="D45" s="152"/>
-      <c r="E45" s="188"/>
-      <c r="F45" s="203"/>
-      <c r="G45" s="204"/>
-      <c r="H45" s="205"/>
-      <c r="I45" s="153"/>
-    </row>
-    <row r="46" spans="1:9" s="103" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A46" s="115" t="s">
+      <c r="C55" s="141"/>
+      <c r="D55" s="142"/>
+      <c r="E55" s="162"/>
+      <c r="F55" s="176"/>
+      <c r="G55" s="177"/>
+      <c r="H55" s="178"/>
+      <c r="I55" s="143"/>
+    </row>
+    <row r="56" spans="1:9" s="103" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A56" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="120" t="s">
+      <c r="B56" s="113" t="s">
         <v>55</v>
       </c>
-      <c r="C46" s="99"/>
-      <c r="D46" s="100"/>
-      <c r="E46" s="101"/>
-      <c r="F46" s="194"/>
-      <c r="G46" s="100"/>
-      <c r="H46" s="101"/>
-      <c r="I46" s="102" t="s">
+      <c r="C56" s="99"/>
+      <c r="D56" s="100"/>
+      <c r="E56" s="101"/>
+      <c r="F56" s="167"/>
+      <c r="G56" s="100"/>
+      <c r="H56" s="101"/>
+      <c r="I56" s="102" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="127" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A47" s="149" t="s">
+    <row r="57" spans="1:9" s="118" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A57" s="139" t="s">
         <v>22</v>
       </c>
-      <c r="B47" s="150" t="s">
+      <c r="B57" s="140" t="s">
         <v>54</v>
       </c>
-      <c r="C47" s="151"/>
-      <c r="D47" s="152"/>
-      <c r="E47" s="188"/>
-      <c r="F47" s="203"/>
-      <c r="G47" s="204"/>
-      <c r="H47" s="205"/>
-      <c r="I47" s="153"/>
-    </row>
-    <row r="48" spans="1:9" s="97" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A48" s="114" t="s">
+      <c r="C57" s="141"/>
+      <c r="D57" s="142"/>
+      <c r="E57" s="162"/>
+      <c r="F57" s="176"/>
+      <c r="G57" s="177"/>
+      <c r="H57" s="178"/>
+      <c r="I57" s="143"/>
+    </row>
+    <row r="58" spans="1:9" s="97" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A58" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="B48" s="119" t="s">
+      <c r="B58" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="C48" s="111"/>
-      <c r="D48" s="112"/>
-      <c r="E48" s="187"/>
-      <c r="F48" s="206"/>
-      <c r="G48" s="207"/>
-      <c r="H48" s="208"/>
-      <c r="I48" s="106"/>
-    </row>
-    <row r="49" spans="1:9" s="127" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A49" s="149" t="s">
+      <c r="C58" s="105"/>
+      <c r="D58" s="106"/>
+      <c r="E58" s="161"/>
+      <c r="F58" s="179"/>
+      <c r="G58" s="180"/>
+      <c r="H58" s="181"/>
+      <c r="I58" s="104"/>
+    </row>
+    <row r="59" spans="1:9" s="118" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A59" s="139" t="s">
         <v>24</v>
       </c>
-      <c r="B49" s="150" t="s">
+      <c r="B59" s="140" t="s">
         <v>52</v>
       </c>
-      <c r="C49" s="151"/>
-      <c r="D49" s="152"/>
-      <c r="E49" s="188"/>
-      <c r="F49" s="203"/>
-      <c r="G49" s="204"/>
-      <c r="H49" s="205"/>
-      <c r="I49" s="153"/>
-    </row>
-    <row r="50" spans="1:9" s="97" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A50" s="114" t="s">
+      <c r="C59" s="141"/>
+      <c r="D59" s="142"/>
+      <c r="E59" s="162"/>
+      <c r="F59" s="176"/>
+      <c r="G59" s="177"/>
+      <c r="H59" s="178"/>
+      <c r="I59" s="143"/>
+    </row>
+    <row r="60" spans="1:9" s="97" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A60" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="B50" s="119" t="s">
+      <c r="B60" s="112" t="s">
         <v>56</v>
       </c>
-      <c r="C50" s="111"/>
-      <c r="D50" s="112"/>
-      <c r="E50" s="187"/>
-      <c r="F50" s="206"/>
-      <c r="G50" s="207"/>
-      <c r="H50" s="208"/>
-      <c r="I50" s="106"/>
-    </row>
-    <row r="51" spans="1:9" s="127" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A51" s="149" t="s">
+      <c r="C60" s="105"/>
+      <c r="D60" s="106"/>
+      <c r="E60" s="161"/>
+      <c r="F60" s="179"/>
+      <c r="G60" s="180"/>
+      <c r="H60" s="181"/>
+      <c r="I60" s="104"/>
+    </row>
+    <row r="61" spans="1:9" s="118" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A61" s="139" t="s">
         <v>26</v>
       </c>
-      <c r="B51" s="150" t="s">
+      <c r="B61" s="140" t="s">
         <v>57</v>
       </c>
-      <c r="C51" s="151"/>
-      <c r="D51" s="152"/>
-      <c r="E51" s="188"/>
-      <c r="F51" s="203"/>
-      <c r="G51" s="204"/>
-      <c r="H51" s="205"/>
-      <c r="I51" s="153"/>
-    </row>
-    <row r="52" spans="1:9" s="97" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A52" s="114" t="s">
+      <c r="C61" s="141"/>
+      <c r="D61" s="142"/>
+      <c r="E61" s="162"/>
+      <c r="F61" s="176"/>
+      <c r="G61" s="177"/>
+      <c r="H61" s="178"/>
+      <c r="I61" s="143"/>
+    </row>
+    <row r="62" spans="1:9" s="97" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A62" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="B52" s="119" t="s">
+      <c r="B62" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="C52" s="111"/>
-      <c r="D52" s="112"/>
-      <c r="E52" s="187"/>
-      <c r="F52" s="206"/>
-      <c r="G52" s="207"/>
-      <c r="H52" s="208"/>
-      <c r="I52" s="106"/>
-    </row>
-    <row r="53" spans="1:9" s="127" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A53" s="149" t="s">
+      <c r="C62" s="105"/>
+      <c r="D62" s="106"/>
+      <c r="E62" s="161"/>
+      <c r="F62" s="179"/>
+      <c r="G62" s="180"/>
+      <c r="H62" s="181"/>
+      <c r="I62" s="104"/>
+    </row>
+    <row r="63" spans="1:9" s="118" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A63" s="139" t="s">
         <v>28</v>
       </c>
-      <c r="B53" s="150" t="s">
+      <c r="B63" s="140" t="s">
         <v>59</v>
       </c>
-      <c r="C53" s="151"/>
-      <c r="D53" s="152"/>
-      <c r="E53" s="188"/>
-      <c r="F53" s="203"/>
-      <c r="G53" s="204"/>
-      <c r="H53" s="205"/>
-      <c r="I53" s="153"/>
-    </row>
-    <row r="54" spans="1:9" s="105" customFormat="1">
-      <c r="A54" s="116" t="s">
+      <c r="C63" s="141"/>
+      <c r="D63" s="142"/>
+      <c r="E63" s="162"/>
+      <c r="F63" s="176"/>
+      <c r="G63" s="177"/>
+      <c r="H63" s="178"/>
+      <c r="I63" s="143"/>
+    </row>
+    <row r="64" spans="1:9" s="319" customFormat="1">
+      <c r="A64" s="322" t="s">
         <v>29</v>
       </c>
-      <c r="B54" s="121" t="s">
+      <c r="B64" s="323" t="s">
         <v>60</v>
       </c>
-      <c r="C54" s="108"/>
-      <c r="D54" s="109"/>
-      <c r="E54" s="189"/>
-      <c r="F54" s="209"/>
-      <c r="G54" s="210"/>
-      <c r="H54" s="211"/>
-      <c r="I54" s="110" t="s">
+      <c r="C64" s="324"/>
+      <c r="D64" s="325"/>
+      <c r="E64" s="326"/>
+      <c r="F64" s="327"/>
+      <c r="G64" s="328"/>
+      <c r="H64" s="329"/>
+      <c r="I64" s="330" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="A38:A43"/>
-    <mergeCell ref="B38:B43"/>
+  <mergeCells count="21">
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A35:A41"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="B35:B41"/>
+    <mergeCell ref="A42:A47"/>
+    <mergeCell ref="B42:B47"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:H41"/>
     <mergeCell ref="C6:H6"/>
-    <mergeCell ref="F36:H36"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C3:H3"/>
     <mergeCell ref="C2:H2"/>
@@ -4724,9 +5070,6 @@
     <mergeCell ref="B8:B14"/>
     <mergeCell ref="A15:A20"/>
     <mergeCell ref="B15:B20"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A35:A37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4741,7 +5084,7 @@
   <dimension ref="A1:N77"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
@@ -4832,7 +5175,7 @@
       <c r="K2" s="59" t="s">
         <v>554</v>
       </c>
-      <c r="L2" s="287" t="s">
+      <c r="L2" s="243" t="s">
         <v>134</v>
       </c>
     </row>
@@ -4850,7 +5193,7 @@
       <c r="I3" s="76"/>
       <c r="J3" s="76"/>
       <c r="K3" s="76"/>
-      <c r="L3" s="288"/>
+      <c r="L3" s="244"/>
     </row>
     <row r="4" spans="1:12" s="14" customFormat="1">
       <c r="A4" s="76"/>
@@ -4866,7 +5209,7 @@
       <c r="I4" s="76"/>
       <c r="J4" s="76"/>
       <c r="K4" s="76"/>
-      <c r="L4" s="288"/>
+      <c r="L4" s="244"/>
     </row>
     <row r="5" spans="1:12" s="14" customFormat="1">
       <c r="A5" s="76"/>
@@ -4882,7 +5225,7 @@
       <c r="I5" s="76"/>
       <c r="J5" s="76"/>
       <c r="K5" s="76"/>
-      <c r="L5" s="288"/>
+      <c r="L5" s="244"/>
     </row>
     <row r="6" spans="1:12" s="14" customFormat="1">
       <c r="A6" s="76"/>
@@ -4898,7 +5241,7 @@
       <c r="I6" s="76"/>
       <c r="J6" s="76"/>
       <c r="K6" s="76"/>
-      <c r="L6" s="288"/>
+      <c r="L6" s="244"/>
     </row>
     <row r="7" spans="1:12" s="14" customFormat="1">
       <c r="A7" s="76"/>
@@ -4914,7 +5257,7 @@
       <c r="I7" s="76"/>
       <c r="J7" s="76"/>
       <c r="K7" s="76"/>
-      <c r="L7" s="288"/>
+      <c r="L7" s="244"/>
     </row>
     <row r="8" spans="1:12" s="14" customFormat="1">
       <c r="A8" s="76"/>
@@ -4930,7 +5273,7 @@
       <c r="I8" s="76"/>
       <c r="J8" s="76"/>
       <c r="K8" s="76"/>
-      <c r="L8" s="288"/>
+      <c r="L8" s="244"/>
     </row>
     <row r="9" spans="1:12" s="14" customFormat="1">
       <c r="A9" s="76"/>
@@ -4946,7 +5289,7 @@
       <c r="I9" s="76"/>
       <c r="J9" s="76"/>
       <c r="K9" s="76"/>
-      <c r="L9" s="288"/>
+      <c r="L9" s="244"/>
     </row>
     <row r="10" spans="1:12" s="14" customFormat="1">
       <c r="A10" s="76"/>
@@ -4962,7 +5305,7 @@
       <c r="I10" s="76"/>
       <c r="J10" s="76"/>
       <c r="K10" s="76"/>
-      <c r="L10" s="288"/>
+      <c r="L10" s="244"/>
     </row>
     <row r="11" spans="1:12" s="14" customFormat="1">
       <c r="A11" s="76"/>
@@ -4978,7 +5321,7 @@
       <c r="I11" s="76"/>
       <c r="J11" s="76"/>
       <c r="K11" s="76"/>
-      <c r="L11" s="289"/>
+      <c r="L11" s="245"/>
     </row>
     <row r="12" spans="1:12" s="2" customFormat="1">
       <c r="A12" s="2" t="s">
@@ -5009,7 +5352,7 @@
         <v>71</v>
       </c>
       <c r="K12" s="11"/>
-      <c r="L12" s="290" t="s">
+      <c r="L12" s="246" t="s">
         <v>133</v>
       </c>
     </row>
@@ -5027,7 +5370,7 @@
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
       <c r="K13" s="17"/>
-      <c r="L13" s="291"/>
+      <c r="L13" s="247"/>
     </row>
     <row r="14" spans="1:12" s="53" customFormat="1">
       <c r="A14" s="53" t="s">
@@ -5060,7 +5403,7 @@
       <c r="K14" s="59" t="s">
         <v>200</v>
       </c>
-      <c r="L14" s="292"/>
+      <c r="L14" s="248"/>
     </row>
     <row r="15" spans="1:12" s="14" customFormat="1">
       <c r="A15" s="76"/>
@@ -5076,7 +5419,7 @@
       <c r="I15" s="76"/>
       <c r="J15" s="76"/>
       <c r="K15" s="76"/>
-      <c r="L15" s="288"/>
+      <c r="L15" s="244"/>
     </row>
     <row r="16" spans="1:12" s="14" customFormat="1">
       <c r="A16" s="76"/>
@@ -5092,7 +5435,7 @@
       <c r="I16" s="76"/>
       <c r="J16" s="76"/>
       <c r="K16" s="76"/>
-      <c r="L16" s="288"/>
+      <c r="L16" s="244"/>
     </row>
     <row r="17" spans="1:12" s="14" customFormat="1">
       <c r="A17" s="76"/>
@@ -5108,7 +5451,7 @@
       <c r="I17" s="76"/>
       <c r="J17" s="76"/>
       <c r="K17" s="76"/>
-      <c r="L17" s="288"/>
+      <c r="L17" s="244"/>
     </row>
     <row r="18" spans="1:12" s="14" customFormat="1">
       <c r="A18" s="76"/>
@@ -5124,7 +5467,7 @@
       <c r="I18" s="76"/>
       <c r="J18" s="76"/>
       <c r="K18" s="76"/>
-      <c r="L18" s="289"/>
+      <c r="L18" s="245"/>
     </row>
     <row r="19" spans="1:12" s="2" customFormat="1">
       <c r="A19" s="2" t="s">
@@ -5157,7 +5500,7 @@
       <c r="K19" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="L19" s="290"/>
+      <c r="L19" s="246"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="17"/>
@@ -5173,7 +5516,7 @@
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
       <c r="K20" s="17"/>
-      <c r="L20" s="291"/>
+      <c r="L20" s="247"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="17"/>
@@ -5189,7 +5532,7 @@
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
       <c r="K21" s="17"/>
-      <c r="L21" s="291"/>
+      <c r="L21" s="247"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="17"/>
@@ -5205,7 +5548,7 @@
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
       <c r="K22" s="17"/>
-      <c r="L22" s="293"/>
+      <c r="L22" s="249"/>
     </row>
     <row r="23" spans="1:12" s="53" customFormat="1">
       <c r="A23" s="53" t="s">
@@ -5236,7 +5579,7 @@
         <v>74</v>
       </c>
       <c r="K23" s="59"/>
-      <c r="L23" s="292"/>
+      <c r="L23" s="248"/>
     </row>
     <row r="24" spans="1:12" s="14" customFormat="1">
       <c r="A24" s="76"/>
@@ -5252,7 +5595,7 @@
       <c r="I24" s="76"/>
       <c r="J24" s="76"/>
       <c r="K24" s="76"/>
-      <c r="L24" s="288"/>
+      <c r="L24" s="244"/>
     </row>
     <row r="25" spans="1:12" s="14" customFormat="1">
       <c r="A25" s="76"/>
@@ -5268,7 +5611,7 @@
       <c r="I25" s="76"/>
       <c r="J25" s="76"/>
       <c r="K25" s="76"/>
-      <c r="L25" s="288"/>
+      <c r="L25" s="244"/>
     </row>
     <row r="26" spans="1:12" s="14" customFormat="1">
       <c r="A26" s="76"/>
@@ -5284,7 +5627,7 @@
       <c r="I26" s="76"/>
       <c r="J26" s="76"/>
       <c r="K26" s="76"/>
-      <c r="L26" s="289"/>
+      <c r="L26" s="245"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="2" t="s">
@@ -7158,7 +7501,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -8401,20 +8744,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A1" s="294" t="s">
+      <c r="A1" s="250" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="295"/>
+      <c r="B1" s="251"/>
       <c r="C1" s="15"/>
-      <c r="D1" s="294" t="s">
+      <c r="D1" s="250" t="s">
         <v>193</v>
       </c>
-      <c r="E1" s="295"/>
+      <c r="E1" s="251"/>
       <c r="F1" s="50"/>
-      <c r="G1" s="296" t="s">
+      <c r="G1" s="252" t="s">
         <v>206</v>
       </c>
-      <c r="H1" s="297"/>
+      <c r="H1" s="253"/>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>

--- a/Planning & Assetlist.xlsx
+++ b/Planning & Assetlist.xlsx
@@ -2845,7 +2845,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="332">
+  <cellXfs count="333">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -3098,9 +3098,6 @@
     <xf numFmtId="0" fontId="0" fillId="27" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3133,20 +3130,8 @@
     <xf numFmtId="0" fontId="0" fillId="26" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3210,16 +3195,10 @@
     <xf numFmtId="0" fontId="0" fillId="27" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3322,7 +3301,6 @@
     <xf numFmtId="0" fontId="0" fillId="40" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3362,143 +3340,17 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3554,106 +3406,188 @@
     <xf numFmtId="0" fontId="0" fillId="40" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="34" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="34" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="34" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="34" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3664,8 +3598,20 @@
     <xf numFmtId="0" fontId="3" fillId="25" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3676,50 +3622,105 @@
     <xf numFmtId="0" fontId="3" fillId="25" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4032,11 +4033,11 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:XFD64"/>
+  <dimension ref="A1:XFC64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -4045,8 +4046,8 @@
     <col min="2" max="2" width="14.7109375" style="114" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" style="5" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" style="163" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="168" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="156" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="161" customWidth="1"/>
     <col min="7" max="7" width="20.7109375" style="7" customWidth="1"/>
     <col min="8" max="8" width="20.7109375" style="8" customWidth="1"/>
     <col min="9" max="9" width="44.7109375" style="9" customWidth="1"/>
@@ -4055,20 +4056,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="89" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="285" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="212"/>
+      <c r="B1" s="286"/>
       <c r="C1" s="84" t="s">
         <v>61</v>
       </c>
       <c r="D1" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="150" t="s">
+      <c r="E1" s="145" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="164" t="s">
+      <c r="F1" s="157" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="86" t="s">
@@ -4081,22 +4082,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="122" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A2" s="127" t="s">
+    <row r="2" spans="1:9" s="121" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A2" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="127" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="227" t="s">
+      <c r="C2" s="304" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="228"/>
-      <c r="E2" s="228"/>
-      <c r="F2" s="228"/>
-      <c r="G2" s="228"/>
-      <c r="H2" s="229"/>
-      <c r="I2" s="138"/>
+      <c r="D2" s="305"/>
+      <c r="E2" s="305"/>
+      <c r="F2" s="305"/>
+      <c r="G2" s="305"/>
+      <c r="H2" s="306"/>
+      <c r="I2" s="133"/>
     </row>
     <row r="3" spans="1:9" s="97" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A3" s="107" t="s">
@@ -4105,105 +4106,105 @@
       <c r="B3" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="224" t="s">
+      <c r="C3" s="301" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="225"/>
-      <c r="E3" s="225"/>
-      <c r="F3" s="225"/>
-      <c r="G3" s="225"/>
-      <c r="H3" s="226"/>
+      <c r="D3" s="302"/>
+      <c r="E3" s="302"/>
+      <c r="F3" s="302"/>
+      <c r="G3" s="302"/>
+      <c r="H3" s="303"/>
       <c r="I3" s="104"/>
     </row>
-    <row r="4" spans="1:9" s="137" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A4" s="134" t="s">
+    <row r="4" spans="1:9" s="132" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A4" s="129" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="135" t="s">
+      <c r="B4" s="130" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="221" t="s">
+      <c r="C4" s="298" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="222"/>
-      <c r="E4" s="222"/>
-      <c r="F4" s="222"/>
-      <c r="G4" s="222"/>
-      <c r="H4" s="223"/>
-      <c r="I4" s="136"/>
-    </row>
-    <row r="5" spans="1:9" s="319" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A5" s="317" t="s">
+      <c r="D4" s="299"/>
+      <c r="E4" s="299"/>
+      <c r="F4" s="299"/>
+      <c r="G4" s="299"/>
+      <c r="H4" s="300"/>
+      <c r="I4" s="131"/>
+    </row>
+    <row r="5" spans="1:9" s="249" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A5" s="266" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="318" t="s">
+      <c r="B5" s="268" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="309" t="s">
+      <c r="C5" s="287" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="310"/>
-      <c r="E5" s="310"/>
-      <c r="F5" s="310"/>
-      <c r="G5" s="310"/>
-      <c r="H5" s="311"/>
-      <c r="I5" s="312" t="s">
+      <c r="D5" s="288"/>
+      <c r="E5" s="288"/>
+      <c r="F5" s="288"/>
+      <c r="G5" s="288"/>
+      <c r="H5" s="289"/>
+      <c r="I5" s="247" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="319" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A6" s="320"/>
-      <c r="B6" s="321"/>
-      <c r="C6" s="313" t="s">
+    <row r="6" spans="1:9" s="249" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A6" s="267"/>
+      <c r="B6" s="269"/>
+      <c r="C6" s="295" t="s">
         <v>533</v>
       </c>
-      <c r="D6" s="314"/>
-      <c r="E6" s="314"/>
-      <c r="F6" s="314"/>
-      <c r="G6" s="314"/>
-      <c r="H6" s="315"/>
-      <c r="I6" s="316"/>
-    </row>
-    <row r="7" spans="1:9" s="148" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A7" s="169" t="s">
+      <c r="D6" s="296"/>
+      <c r="E6" s="296"/>
+      <c r="F6" s="296"/>
+      <c r="G6" s="296"/>
+      <c r="H6" s="297"/>
+      <c r="I6" s="248"/>
+    </row>
+    <row r="7" spans="1:9" s="143" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A7" s="162" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="149" t="s">
+      <c r="B7" s="144" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="144"/>
-      <c r="D7" s="145"/>
-      <c r="E7" s="146"/>
-      <c r="F7" s="165"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="146"/>
-      <c r="I7" s="147" t="s">
+      <c r="C7" s="139"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="158"/>
+      <c r="G7" s="140"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="142" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="97" customFormat="1">
-      <c r="A8" s="230" t="s">
+      <c r="A8" s="307" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="232" t="s">
+      <c r="B8" s="309" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="95" t="s">
         <v>215</v>
       </c>
-      <c r="D8" s="199" t="s">
+      <c r="D8" s="191" t="s">
         <v>218</v>
       </c>
-      <c r="E8" s="151" t="s">
+      <c r="E8" s="146" t="s">
         <v>222</v>
       </c>
-      <c r="F8" s="166" t="s">
+      <c r="F8" s="159" t="s">
         <v>480</v>
       </c>
-      <c r="G8" s="199" t="s">
+      <c r="G8" s="191" t="s">
         <v>474</v>
       </c>
-      <c r="H8" s="203" t="s">
+      <c r="H8" s="195" t="s">
         <v>476</v>
       </c>
       <c r="I8" s="98" t="s">
@@ -4211,197 +4212,197 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="231"/>
-      <c r="B9" s="233"/>
+      <c r="A9" s="308"/>
+      <c r="B9" s="310"/>
       <c r="C9" s="90"/>
-      <c r="D9" s="200" t="s">
+      <c r="D9" s="192" t="s">
         <v>303</v>
       </c>
-      <c r="E9" s="152" t="s">
+      <c r="E9" s="147" t="s">
         <v>417</v>
       </c>
-      <c r="F9" s="190"/>
-      <c r="G9" s="200" t="s">
+      <c r="F9" s="183"/>
+      <c r="G9" s="192" t="s">
         <v>475</v>
       </c>
-      <c r="H9" s="204" t="s">
+      <c r="H9" s="196" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="231"/>
-      <c r="B10" s="233"/>
+      <c r="A10" s="308"/>
+      <c r="B10" s="310"/>
       <c r="C10" s="90"/>
-      <c r="D10" s="200" t="s">
+      <c r="D10" s="192" t="s">
         <v>261</v>
       </c>
-      <c r="E10" s="152" t="s">
+      <c r="E10" s="147" t="s">
         <v>307</v>
       </c>
-      <c r="F10" s="190"/>
-      <c r="G10" s="172"/>
-      <c r="H10" s="204" t="s">
+      <c r="F10" s="183"/>
+      <c r="G10" s="165"/>
+      <c r="H10" s="196" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="231"/>
-      <c r="B11" s="233"/>
+      <c r="A11" s="308"/>
+      <c r="B11" s="310"/>
       <c r="C11" s="90"/>
       <c r="D11" s="91"/>
-      <c r="E11" s="152" t="s">
+      <c r="E11" s="147" t="s">
         <v>419</v>
       </c>
-      <c r="F11" s="190"/>
-      <c r="G11" s="172"/>
-      <c r="H11" s="191"/>
+      <c r="F11" s="183"/>
+      <c r="G11" s="165"/>
+      <c r="H11" s="184"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="231"/>
-      <c r="B12" s="233"/>
+      <c r="A12" s="308"/>
+      <c r="B12" s="310"/>
       <c r="C12" s="90"/>
       <c r="D12" s="91"/>
-      <c r="E12" s="152" t="s">
+      <c r="E12" s="147" t="s">
         <v>265</v>
       </c>
-      <c r="F12" s="190"/>
-      <c r="G12" s="172"/>
-      <c r="H12" s="191"/>
+      <c r="F12" s="183"/>
+      <c r="G12" s="165"/>
+      <c r="H12" s="184"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="231"/>
-      <c r="B13" s="233"/>
+      <c r="A13" s="308"/>
+      <c r="B13" s="310"/>
       <c r="C13" s="90"/>
       <c r="D13" s="91"/>
-      <c r="E13" s="152" t="s">
+      <c r="E13" s="147" t="s">
         <v>421</v>
       </c>
-      <c r="F13" s="190"/>
-      <c r="G13" s="172"/>
-      <c r="H13" s="191"/>
+      <c r="F13" s="183"/>
+      <c r="G13" s="165"/>
+      <c r="H13" s="184"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A14" s="231"/>
-      <c r="B14" s="233"/>
+      <c r="A14" s="308"/>
+      <c r="B14" s="310"/>
       <c r="C14" s="93"/>
       <c r="D14" s="94"/>
-      <c r="E14" s="153" t="s">
+      <c r="E14" s="148" t="s">
         <v>418</v>
       </c>
-      <c r="F14" s="192"/>
-      <c r="G14" s="173"/>
-      <c r="H14" s="193"/>
+      <c r="F14" s="185"/>
+      <c r="G14" s="166"/>
+      <c r="H14" s="186"/>
       <c r="I14" s="92"/>
     </row>
-    <row r="15" spans="1:9" s="118" customFormat="1">
-      <c r="A15" s="234" t="s">
+    <row r="15" spans="1:9" s="117" customFormat="1">
+      <c r="A15" s="311" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="237" t="s">
+      <c r="B15" s="314" t="s">
         <v>45</v>
       </c>
       <c r="C15" s="115" t="s">
         <v>215</v>
       </c>
-      <c r="D15" s="201" t="s">
+      <c r="D15" s="193" t="s">
         <v>303</v>
       </c>
-      <c r="E15" s="154" t="s">
+      <c r="E15" s="149" t="s">
         <v>418</v>
       </c>
-      <c r="F15" s="170" t="s">
+      <c r="F15" s="163" t="s">
         <v>480</v>
       </c>
-      <c r="G15" s="174" t="s">
+      <c r="G15" s="167" t="s">
         <v>482</v>
       </c>
-      <c r="H15" s="154" t="s">
+      <c r="H15" s="149" t="s">
         <v>473</v>
       </c>
-      <c r="I15" s="117"/>
-    </row>
-    <row r="16" spans="1:9" s="122" customFormat="1">
-      <c r="A16" s="235"/>
-      <c r="B16" s="238"/>
-      <c r="C16" s="119" t="s">
+      <c r="I15" s="116"/>
+    </row>
+    <row r="16" spans="1:9" s="121" customFormat="1">
+      <c r="A16" s="312"/>
+      <c r="B16" s="315"/>
+      <c r="C16" s="118" t="s">
         <v>199</v>
       </c>
-      <c r="D16" s="202" t="s">
+      <c r="D16" s="194" t="s">
         <v>261</v>
       </c>
-      <c r="E16" s="155" t="s">
+      <c r="E16" s="150" t="s">
         <v>420</v>
       </c>
-      <c r="F16" s="182"/>
-      <c r="G16" s="175"/>
-      <c r="H16" s="155" t="s">
+      <c r="F16" s="175"/>
+      <c r="G16" s="168"/>
+      <c r="H16" s="150" t="s">
         <v>478</v>
       </c>
-      <c r="I16" s="121"/>
-    </row>
-    <row r="17" spans="1:9" s="122" customFormat="1">
-      <c r="A17" s="235"/>
-      <c r="B17" s="238"/>
-      <c r="C17" s="119" t="s">
+      <c r="I16" s="120"/>
+    </row>
+    <row r="17" spans="1:9" s="121" customFormat="1">
+      <c r="A17" s="312"/>
+      <c r="B17" s="315"/>
+      <c r="C17" s="118" t="s">
         <v>258</v>
       </c>
-      <c r="D17" s="202" t="s">
+      <c r="D17" s="194" t="s">
         <v>393</v>
       </c>
-      <c r="E17" s="155" t="s">
+      <c r="E17" s="150" t="s">
         <v>422</v>
       </c>
-      <c r="F17" s="182"/>
-      <c r="G17" s="175"/>
-      <c r="H17" s="183"/>
-      <c r="I17" s="121"/>
-    </row>
-    <row r="18" spans="1:9" s="122" customFormat="1">
-      <c r="A18" s="235"/>
-      <c r="B18" s="238"/>
-      <c r="C18" s="123"/>
-      <c r="D18" s="202" t="s">
+      <c r="F17" s="175"/>
+      <c r="G17" s="168"/>
+      <c r="H17" s="176"/>
+      <c r="I17" s="120"/>
+    </row>
+    <row r="18" spans="1:9" s="121" customFormat="1">
+      <c r="A18" s="312"/>
+      <c r="B18" s="315"/>
+      <c r="C18" s="122"/>
+      <c r="D18" s="194" t="s">
         <v>402</v>
       </c>
-      <c r="E18" s="155" t="s">
+      <c r="E18" s="150" t="s">
         <v>543</v>
       </c>
-      <c r="F18" s="182"/>
-      <c r="G18" s="175"/>
-      <c r="H18" s="183"/>
-      <c r="I18" s="121"/>
-    </row>
-    <row r="19" spans="1:9" s="122" customFormat="1">
-      <c r="A19" s="235"/>
-      <c r="B19" s="238"/>
-      <c r="C19" s="123"/>
-      <c r="D19" s="120"/>
-      <c r="E19" s="155" t="s">
+      <c r="F18" s="175"/>
+      <c r="G18" s="168"/>
+      <c r="H18" s="176"/>
+      <c r="I18" s="120"/>
+    </row>
+    <row r="19" spans="1:9" s="121" customFormat="1">
+      <c r="A19" s="312"/>
+      <c r="B19" s="315"/>
+      <c r="C19" s="122"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="150" t="s">
         <v>544</v>
       </c>
-      <c r="F19" s="182"/>
-      <c r="G19" s="175"/>
-      <c r="H19" s="183"/>
-      <c r="I19" s="121"/>
-    </row>
-    <row r="20" spans="1:9" s="122" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A20" s="236"/>
-      <c r="B20" s="239"/>
-      <c r="C20" s="124"/>
-      <c r="D20" s="125"/>
-      <c r="E20" s="331" t="s">
+      <c r="F19" s="175"/>
+      <c r="G19" s="168"/>
+      <c r="H19" s="176"/>
+      <c r="I19" s="120"/>
+    </row>
+    <row r="20" spans="1:9" s="121" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A20" s="313"/>
+      <c r="B20" s="316"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="124"/>
+      <c r="E20" s="259" t="s">
         <v>545</v>
       </c>
-      <c r="F20" s="187"/>
-      <c r="G20" s="188"/>
-      <c r="H20" s="189"/>
-      <c r="I20" s="126"/>
+      <c r="F20" s="180"/>
+      <c r="G20" s="181"/>
+      <c r="H20" s="182"/>
+      <c r="I20" s="125"/>
     </row>
     <row r="21" spans="1:9" s="97" customFormat="1">
-      <c r="A21" s="195" t="s">
+      <c r="A21" s="187" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="196" t="s">
+      <c r="B21" s="188" t="s">
         <v>46</v>
       </c>
       <c r="C21" s="95" t="s">
@@ -4410,16 +4411,16 @@
       <c r="D21" s="96" t="s">
         <v>217</v>
       </c>
-      <c r="E21" s="151" t="s">
+      <c r="E21" s="146" t="s">
         <v>231</v>
       </c>
-      <c r="F21" s="166" t="s">
+      <c r="F21" s="159" t="s">
         <v>492</v>
       </c>
-      <c r="G21" s="186" t="s">
+      <c r="G21" s="179" t="s">
         <v>484</v>
       </c>
-      <c r="H21" s="185" t="s">
+      <c r="H21" s="331" t="s">
         <v>489</v>
       </c>
       <c r="I21" s="98" t="s">
@@ -4427,380 +4428,380 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="197"/>
-      <c r="B22" s="198"/>
-      <c r="C22" s="171" t="s">
+      <c r="A22" s="189"/>
+      <c r="B22" s="190"/>
+      <c r="C22" s="164" t="s">
         <v>258</v>
       </c>
       <c r="D22" s="91"/>
-      <c r="E22" s="152" t="s">
+      <c r="E22" s="147" t="s">
         <v>546</v>
       </c>
-      <c r="F22" s="190"/>
-      <c r="G22" s="172"/>
-      <c r="H22" s="191"/>
+      <c r="F22" s="183"/>
+      <c r="G22" s="165"/>
+      <c r="H22" s="184"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="197"/>
-      <c r="B23" s="198"/>
-      <c r="C23" s="171" t="s">
+      <c r="A23" s="189"/>
+      <c r="B23" s="190"/>
+      <c r="C23" s="164" t="s">
         <v>390</v>
       </c>
       <c r="D23" s="91"/>
-      <c r="E23" s="152" t="s">
+      <c r="E23" s="147" t="s">
         <v>316</v>
       </c>
-      <c r="F23" s="190"/>
-      <c r="G23" s="172"/>
-      <c r="H23" s="191"/>
+      <c r="F23" s="183"/>
+      <c r="G23" s="165"/>
+      <c r="H23" s="184"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="197"/>
-      <c r="B24" s="198"/>
-      <c r="C24" s="207" t="s">
+      <c r="A24" s="189"/>
+      <c r="B24" s="190"/>
+      <c r="C24" s="199" t="s">
         <v>399</v>
       </c>
       <c r="D24" s="91"/>
-      <c r="E24" s="152" t="s">
+      <c r="E24" s="147" t="s">
         <v>547</v>
       </c>
-      <c r="F24" s="190"/>
-      <c r="G24" s="172"/>
-      <c r="H24" s="191"/>
+      <c r="F24" s="183"/>
+      <c r="G24" s="165"/>
+      <c r="H24" s="184"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="197"/>
-      <c r="B25" s="198"/>
+      <c r="A25" s="189"/>
+      <c r="B25" s="190"/>
       <c r="C25" s="90"/>
       <c r="D25" s="91"/>
-      <c r="E25" s="152" t="s">
+      <c r="E25" s="147" t="s">
         <v>548</v>
       </c>
-      <c r="F25" s="190"/>
-      <c r="G25" s="172"/>
-      <c r="H25" s="191"/>
+      <c r="F25" s="183"/>
+      <c r="G25" s="165"/>
+      <c r="H25" s="184"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="197"/>
-      <c r="B26" s="198"/>
+      <c r="A26" s="189"/>
+      <c r="B26" s="190"/>
       <c r="C26" s="90"/>
       <c r="D26" s="91"/>
-      <c r="E26" s="157" t="s">
+      <c r="E26" s="151" t="s">
         <v>234</v>
       </c>
-      <c r="F26" s="190"/>
-      <c r="G26" s="172"/>
-      <c r="H26" s="191"/>
+      <c r="F26" s="183"/>
+      <c r="G26" s="165"/>
+      <c r="H26" s="184"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="197"/>
-      <c r="B27" s="198"/>
+      <c r="A27" s="189"/>
+      <c r="B27" s="190"/>
       <c r="C27" s="90"/>
       <c r="D27" s="91"/>
-      <c r="E27" s="157" t="s">
+      <c r="E27" s="151" t="s">
         <v>319</v>
       </c>
-      <c r="F27" s="190"/>
-      <c r="G27" s="172"/>
-      <c r="H27" s="191"/>
+      <c r="F27" s="183"/>
+      <c r="G27" s="165"/>
+      <c r="H27" s="184"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A28" s="197"/>
-      <c r="B28" s="198"/>
+      <c r="A28" s="189"/>
+      <c r="B28" s="190"/>
       <c r="C28" s="93"/>
       <c r="D28" s="94"/>
-      <c r="E28" s="158" t="s">
+      <c r="E28" s="152" t="s">
         <v>277</v>
       </c>
-      <c r="F28" s="192"/>
-      <c r="G28" s="173"/>
-      <c r="H28" s="193"/>
+      <c r="F28" s="185"/>
+      <c r="G28" s="166"/>
+      <c r="H28" s="186"/>
       <c r="I28" s="92"/>
     </row>
-    <row r="29" spans="1:9" s="118" customFormat="1">
-      <c r="A29" s="129" t="s">
+    <row r="29" spans="1:9" s="117" customFormat="1">
+      <c r="A29" s="200" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="130" t="s">
+      <c r="B29" s="202" t="s">
         <v>47</v>
       </c>
       <c r="C29" s="115" t="s">
         <v>390</v>
       </c>
-      <c r="D29" s="116" t="s">
+      <c r="D29" s="328" t="s">
         <v>234</v>
       </c>
-      <c r="E29" s="159" t="s">
+      <c r="E29" s="332" t="s">
         <v>549</v>
       </c>
-      <c r="F29" s="205" t="s">
+      <c r="F29" s="197" t="s">
         <v>483</v>
       </c>
-      <c r="G29" s="174" t="s">
+      <c r="G29" s="167" t="s">
         <v>484</v>
       </c>
-      <c r="H29" s="194" t="s">
+      <c r="H29" s="330" t="s">
         <v>540</v>
       </c>
-      <c r="I29" s="131" t="s">
+      <c r="I29" s="128" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="122" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A30" s="132"/>
-      <c r="B30" s="133"/>
-      <c r="C30" s="206" t="s">
+    <row r="30" spans="1:9" s="121" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A30" s="201"/>
+      <c r="B30" s="203"/>
+      <c r="C30" s="198" t="s">
         <v>399</v>
       </c>
-      <c r="D30" s="120" t="s">
+      <c r="D30" s="119" t="s">
         <v>319</v>
       </c>
-      <c r="E30" s="160"/>
-      <c r="F30" s="182"/>
-      <c r="G30" s="175"/>
-      <c r="H30" s="183"/>
-      <c r="I30" s="268" t="s">
+      <c r="E30" s="153"/>
+      <c r="F30" s="175"/>
+      <c r="G30" s="168"/>
+      <c r="H30" s="176"/>
+      <c r="I30" s="218" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="122" customFormat="1">
-      <c r="A31" s="132"/>
-      <c r="B31" s="133"/>
-      <c r="C31" s="123"/>
-      <c r="D31" s="120" t="s">
+    <row r="31" spans="1:9" s="121" customFormat="1">
+      <c r="A31" s="201"/>
+      <c r="B31" s="203"/>
+      <c r="C31" s="122"/>
+      <c r="D31" s="119" t="s">
         <v>277</v>
       </c>
-      <c r="E31" s="160"/>
-      <c r="F31" s="182"/>
-      <c r="G31" s="175"/>
-      <c r="H31" s="183"/>
-      <c r="I31" s="268" t="s">
+      <c r="E31" s="153"/>
+      <c r="F31" s="175"/>
+      <c r="G31" s="168"/>
+      <c r="H31" s="176"/>
+      <c r="I31" s="218" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="122" customFormat="1">
-      <c r="A32" s="132"/>
-      <c r="B32" s="133"/>
-      <c r="C32" s="123"/>
-      <c r="D32" s="120"/>
-      <c r="E32" s="160"/>
-      <c r="F32" s="182"/>
-      <c r="G32" s="175"/>
-      <c r="H32" s="183"/>
-      <c r="I32" s="268" t="s">
+    <row r="32" spans="1:9" s="121" customFormat="1">
+      <c r="A32" s="201"/>
+      <c r="B32" s="203"/>
+      <c r="C32" s="122"/>
+      <c r="D32" s="119"/>
+      <c r="E32" s="153"/>
+      <c r="F32" s="175"/>
+      <c r="G32" s="168"/>
+      <c r="H32" s="176"/>
+      <c r="I32" s="218" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="122" customFormat="1">
-      <c r="A33" s="132"/>
-      <c r="B33" s="133"/>
-      <c r="C33" s="123"/>
-      <c r="D33" s="120"/>
-      <c r="E33" s="160"/>
-      <c r="F33" s="182"/>
-      <c r="G33" s="175"/>
-      <c r="H33" s="183"/>
-      <c r="I33" s="268"/>
-    </row>
-    <row r="34" spans="1:9" s="122" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A34" s="132"/>
-      <c r="B34" s="133"/>
-      <c r="C34" s="123"/>
-      <c r="D34" s="120"/>
-      <c r="E34" s="160"/>
-      <c r="F34" s="182"/>
-      <c r="G34" s="175"/>
-      <c r="H34" s="183"/>
-      <c r="I34" s="269"/>
+    <row r="33" spans="1:9" s="121" customFormat="1">
+      <c r="A33" s="201"/>
+      <c r="B33" s="203"/>
+      <c r="C33" s="122"/>
+      <c r="D33" s="119"/>
+      <c r="E33" s="153"/>
+      <c r="F33" s="175"/>
+      <c r="G33" s="168"/>
+      <c r="H33" s="176"/>
+      <c r="I33" s="218"/>
+    </row>
+    <row r="34" spans="1:9" s="121" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A34" s="201"/>
+      <c r="B34" s="203"/>
+      <c r="C34" s="122"/>
+      <c r="D34" s="119"/>
+      <c r="E34" s="153"/>
+      <c r="F34" s="175"/>
+      <c r="G34" s="168"/>
+      <c r="H34" s="176"/>
+      <c r="I34" s="219"/>
     </row>
     <row r="35" spans="1:9" s="97" customFormat="1">
-      <c r="A35" s="240" t="s">
+      <c r="A35" s="270" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="208" t="s">
+      <c r="B35" s="276" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="115" t="s">
+      <c r="C35" s="164" t="s">
         <v>390</v>
       </c>
-      <c r="D35" s="96" t="s">
+      <c r="D35" s="329" t="s">
         <v>234</v>
       </c>
-      <c r="E35" s="156" t="s">
+      <c r="E35" s="195" t="s">
         <v>549</v>
       </c>
-      <c r="F35" s="184"/>
-      <c r="G35" s="185" t="s">
+      <c r="F35" s="177"/>
+      <c r="G35" s="178" t="s">
         <v>481</v>
       </c>
-      <c r="H35" s="186" t="s">
+      <c r="H35" s="179" t="s">
         <v>553</v>
       </c>
       <c r="I35" s="98"/>
     </row>
     <row r="36" spans="1:9" s="12" customFormat="1">
-      <c r="A36" s="241"/>
-      <c r="B36" s="209"/>
-      <c r="C36" s="206" t="s">
+      <c r="A36" s="271"/>
+      <c r="B36" s="277"/>
+      <c r="C36" s="199" t="s">
         <v>399</v>
       </c>
-      <c r="D36" s="266" t="s">
+      <c r="D36" s="216" t="s">
         <v>319</v>
       </c>
-      <c r="E36" s="270"/>
-      <c r="F36" s="218" t="s">
+      <c r="E36" s="220"/>
+      <c r="F36" s="273" t="s">
         <v>541</v>
       </c>
-      <c r="G36" s="219"/>
-      <c r="H36" s="220"/>
-      <c r="I36" s="267"/>
+      <c r="G36" s="274"/>
+      <c r="H36" s="275"/>
+      <c r="I36" s="217"/>
     </row>
     <row r="37" spans="1:9" s="12" customFormat="1">
-      <c r="A37" s="241"/>
-      <c r="B37" s="209"/>
-      <c r="C37" s="265"/>
-      <c r="D37" s="266" t="s">
+      <c r="A37" s="271"/>
+      <c r="B37" s="277"/>
+      <c r="C37" s="215"/>
+      <c r="D37" s="216" t="s">
         <v>277</v>
       </c>
-      <c r="E37" s="270"/>
-      <c r="F37" s="271"/>
-      <c r="G37" s="272"/>
-      <c r="H37" s="273"/>
-      <c r="I37" s="267"/>
+      <c r="E37" s="220"/>
+      <c r="F37" s="221"/>
+      <c r="G37" s="222"/>
+      <c r="H37" s="223"/>
+      <c r="I37" s="217"/>
     </row>
     <row r="38" spans="1:9" s="12" customFormat="1">
-      <c r="A38" s="241"/>
-      <c r="B38" s="209"/>
-      <c r="C38" s="265"/>
-      <c r="D38" s="266" t="s">
+      <c r="A38" s="271"/>
+      <c r="B38" s="277"/>
+      <c r="C38" s="215"/>
+      <c r="D38" s="216" t="s">
         <v>232</v>
       </c>
-      <c r="E38" s="270"/>
-      <c r="F38" s="271"/>
-      <c r="G38" s="272"/>
-      <c r="H38" s="273"/>
-      <c r="I38" s="267"/>
+      <c r="E38" s="220"/>
+      <c r="F38" s="221"/>
+      <c r="G38" s="222"/>
+      <c r="H38" s="223"/>
+      <c r="I38" s="217"/>
     </row>
     <row r="39" spans="1:9" s="12" customFormat="1">
-      <c r="A39" s="241"/>
-      <c r="B39" s="209"/>
-      <c r="C39" s="265"/>
-      <c r="D39" s="266" t="s">
+      <c r="A39" s="271"/>
+      <c r="B39" s="277"/>
+      <c r="C39" s="215"/>
+      <c r="D39" s="216" t="s">
         <v>317</v>
       </c>
-      <c r="E39" s="270"/>
-      <c r="F39" s="271"/>
-      <c r="G39" s="272"/>
-      <c r="H39" s="273"/>
-      <c r="I39" s="267"/>
+      <c r="E39" s="220"/>
+      <c r="F39" s="221"/>
+      <c r="G39" s="222"/>
+      <c r="H39" s="223"/>
+      <c r="I39" s="217"/>
     </row>
     <row r="40" spans="1:9" s="12" customFormat="1">
-      <c r="A40" s="241"/>
-      <c r="B40" s="209"/>
-      <c r="C40" s="265"/>
-      <c r="D40" s="266" t="s">
+      <c r="A40" s="271"/>
+      <c r="B40" s="277"/>
+      <c r="C40" s="215"/>
+      <c r="D40" s="216" t="s">
         <v>275</v>
       </c>
-      <c r="E40" s="270"/>
-      <c r="F40" s="271"/>
-      <c r="G40" s="272"/>
-      <c r="H40" s="273"/>
-      <c r="I40" s="267"/>
+      <c r="E40" s="220"/>
+      <c r="F40" s="221"/>
+      <c r="G40" s="222"/>
+      <c r="H40" s="223"/>
+      <c r="I40" s="217"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A41" s="242"/>
-      <c r="B41" s="210"/>
-      <c r="C41" s="213" t="s">
+      <c r="A41" s="272"/>
+      <c r="B41" s="278"/>
+      <c r="C41" s="290" t="s">
         <v>550</v>
       </c>
-      <c r="D41" s="214"/>
-      <c r="E41" s="214"/>
-      <c r="F41" s="215" t="s">
+      <c r="D41" s="291"/>
+      <c r="E41" s="291"/>
+      <c r="F41" s="292" t="s">
         <v>550</v>
       </c>
-      <c r="G41" s="216"/>
-      <c r="H41" s="217"/>
+      <c r="G41" s="293"/>
+      <c r="H41" s="294"/>
       <c r="I41" s="92"/>
     </row>
-    <row r="42" spans="1:9" s="283" customFormat="1">
-      <c r="A42" s="274" t="s">
+    <row r="42" spans="1:9" s="231" customFormat="1">
+      <c r="A42" s="279" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="275" t="s">
+      <c r="B42" s="282" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="276"/>
-      <c r="D42" s="277"/>
-      <c r="E42" s="278" t="s">
+      <c r="C42" s="224"/>
+      <c r="D42" s="225"/>
+      <c r="E42" s="226" t="s">
         <v>549</v>
       </c>
-      <c r="F42" s="279"/>
-      <c r="G42" s="280"/>
-      <c r="H42" s="281" t="s">
+      <c r="F42" s="227"/>
+      <c r="G42" s="228"/>
+      <c r="H42" s="229" t="s">
         <v>553</v>
       </c>
-      <c r="I42" s="282" t="s">
+      <c r="I42" s="230" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="293" customFormat="1">
-      <c r="A43" s="284"/>
-      <c r="B43" s="285"/>
-      <c r="C43" s="286" t="s">
+    <row r="43" spans="1:9" s="233" customFormat="1">
+      <c r="A43" s="280"/>
+      <c r="B43" s="283"/>
+      <c r="C43" s="263" t="s">
         <v>558</v>
       </c>
-      <c r="D43" s="287"/>
-      <c r="E43" s="288"/>
-      <c r="F43" s="289" t="s">
+      <c r="D43" s="264"/>
+      <c r="E43" s="265"/>
+      <c r="F43" s="260" t="s">
         <v>558</v>
       </c>
-      <c r="G43" s="290"/>
-      <c r="H43" s="291"/>
-      <c r="I43" s="292"/>
-    </row>
-    <row r="44" spans="1:9" s="293" customFormat="1">
-      <c r="A44" s="284"/>
-      <c r="B44" s="285"/>
-      <c r="C44" s="294"/>
-      <c r="D44" s="295"/>
-      <c r="E44" s="296"/>
-      <c r="F44" s="297"/>
-      <c r="G44" s="298"/>
-      <c r="H44" s="299"/>
-      <c r="I44" s="292"/>
-    </row>
-    <row r="45" spans="1:9" s="293" customFormat="1">
-      <c r="A45" s="284"/>
-      <c r="B45" s="285"/>
-      <c r="C45" s="294"/>
-      <c r="D45" s="295"/>
-      <c r="E45" s="296"/>
-      <c r="F45" s="297"/>
-      <c r="G45" s="298"/>
-      <c r="H45" s="299"/>
-      <c r="I45" s="292"/>
-    </row>
-    <row r="46" spans="1:9" s="293" customFormat="1">
-      <c r="A46" s="284"/>
-      <c r="B46" s="285"/>
-      <c r="C46" s="294"/>
-      <c r="D46" s="295"/>
-      <c r="E46" s="296"/>
-      <c r="F46" s="297"/>
-      <c r="G46" s="298"/>
-      <c r="H46" s="299"/>
-      <c r="I46" s="292"/>
-    </row>
-    <row r="47" spans="1:9" s="293" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A47" s="300"/>
-      <c r="B47" s="301"/>
-      <c r="C47" s="302"/>
-      <c r="D47" s="303"/>
-      <c r="E47" s="304"/>
-      <c r="F47" s="305"/>
-      <c r="G47" s="306"/>
-      <c r="H47" s="307"/>
-      <c r="I47" s="308"/>
+      <c r="G43" s="261"/>
+      <c r="H43" s="262"/>
+      <c r="I43" s="232"/>
+    </row>
+    <row r="44" spans="1:9" s="233" customFormat="1">
+      <c r="A44" s="280"/>
+      <c r="B44" s="283"/>
+      <c r="C44" s="234"/>
+      <c r="D44" s="235"/>
+      <c r="E44" s="236"/>
+      <c r="F44" s="237"/>
+      <c r="G44" s="238"/>
+      <c r="H44" s="239"/>
+      <c r="I44" s="232"/>
+    </row>
+    <row r="45" spans="1:9" s="233" customFormat="1">
+      <c r="A45" s="280"/>
+      <c r="B45" s="283"/>
+      <c r="C45" s="234"/>
+      <c r="D45" s="235"/>
+      <c r="E45" s="236"/>
+      <c r="F45" s="237"/>
+      <c r="G45" s="238"/>
+      <c r="H45" s="239"/>
+      <c r="I45" s="232"/>
+    </row>
+    <row r="46" spans="1:9" s="233" customFormat="1">
+      <c r="A46" s="280"/>
+      <c r="B46" s="283"/>
+      <c r="C46" s="234"/>
+      <c r="D46" s="235"/>
+      <c r="E46" s="236"/>
+      <c r="F46" s="237"/>
+      <c r="G46" s="238"/>
+      <c r="H46" s="239"/>
+      <c r="I46" s="232"/>
+    </row>
+    <row r="47" spans="1:9" s="233" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A47" s="281"/>
+      <c r="B47" s="284"/>
+      <c r="C47" s="240"/>
+      <c r="D47" s="241"/>
+      <c r="E47" s="242"/>
+      <c r="F47" s="243"/>
+      <c r="G47" s="244"/>
+      <c r="H47" s="245"/>
+      <c r="I47" s="246"/>
     </row>
     <row r="48" spans="1:9" s="97" customFormat="1">
       <c r="A48" s="108" t="s">
@@ -4813,100 +4814,100 @@
       <c r="D48" s="106" t="s">
         <v>217</v>
       </c>
-      <c r="E48" s="161"/>
-      <c r="F48" s="179"/>
-      <c r="G48" s="180"/>
-      <c r="H48" s="181"/>
+      <c r="E48" s="154"/>
+      <c r="F48" s="172"/>
+      <c r="G48" s="173"/>
+      <c r="H48" s="174"/>
       <c r="I48" s="104"/>
     </row>
-    <row r="49" spans="1:9" s="264" customFormat="1">
+    <row r="49" spans="1:9" s="214" customFormat="1">
       <c r="A49" s="110"/>
       <c r="B49" s="114"/>
       <c r="C49" s="90"/>
       <c r="D49" s="91" t="s">
         <v>302</v>
       </c>
-      <c r="E49" s="157"/>
-      <c r="F49" s="190"/>
-      <c r="G49" s="172"/>
-      <c r="H49" s="191"/>
+      <c r="E49" s="151"/>
+      <c r="F49" s="183"/>
+      <c r="G49" s="165"/>
+      <c r="H49" s="184"/>
       <c r="I49" s="9"/>
     </row>
-    <row r="50" spans="1:9" s="264" customFormat="1">
+    <row r="50" spans="1:9" s="214" customFormat="1">
       <c r="A50" s="110"/>
       <c r="B50" s="114"/>
       <c r="C50" s="90"/>
       <c r="D50" s="91" t="s">
         <v>260</v>
       </c>
-      <c r="E50" s="157"/>
-      <c r="F50" s="190"/>
-      <c r="G50" s="172"/>
-      <c r="H50" s="191"/>
+      <c r="E50" s="151"/>
+      <c r="F50" s="183"/>
+      <c r="G50" s="165"/>
+      <c r="H50" s="184"/>
       <c r="I50" s="9"/>
     </row>
-    <row r="51" spans="1:9" s="264" customFormat="1">
+    <row r="51" spans="1:9" s="214" customFormat="1">
       <c r="A51" s="110"/>
       <c r="B51" s="114"/>
       <c r="C51" s="90"/>
       <c r="D51" s="91" t="s">
         <v>392</v>
       </c>
-      <c r="E51" s="157"/>
-      <c r="F51" s="190"/>
-      <c r="G51" s="172"/>
-      <c r="H51" s="191"/>
+      <c r="E51" s="151"/>
+      <c r="F51" s="183"/>
+      <c r="G51" s="165"/>
+      <c r="H51" s="184"/>
       <c r="I51" s="9"/>
     </row>
-    <row r="52" spans="1:9" s="264" customFormat="1">
+    <row r="52" spans="1:9" s="214" customFormat="1">
       <c r="A52" s="110"/>
       <c r="B52" s="114"/>
       <c r="C52" s="90"/>
       <c r="D52" s="91" t="s">
         <v>401</v>
       </c>
-      <c r="E52" s="157"/>
-      <c r="F52" s="190"/>
-      <c r="G52" s="172"/>
-      <c r="H52" s="191"/>
+      <c r="E52" s="151"/>
+      <c r="F52" s="183"/>
+      <c r="G52" s="165"/>
+      <c r="H52" s="184"/>
       <c r="I52" s="9"/>
     </row>
-    <row r="53" spans="1:9" s="264" customFormat="1">
+    <row r="53" spans="1:9" s="214" customFormat="1">
       <c r="A53" s="110"/>
       <c r="B53" s="114"/>
       <c r="C53" s="90"/>
       <c r="D53" s="91"/>
-      <c r="E53" s="157"/>
-      <c r="F53" s="190"/>
-      <c r="G53" s="172"/>
-      <c r="H53" s="191"/>
+      <c r="E53" s="151"/>
+      <c r="F53" s="183"/>
+      <c r="G53" s="165"/>
+      <c r="H53" s="184"/>
       <c r="I53" s="9"/>
     </row>
-    <row r="54" spans="1:9" s="263" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A54" s="254"/>
-      <c r="B54" s="255"/>
-      <c r="C54" s="256"/>
-      <c r="D54" s="257"/>
-      <c r="E54" s="258"/>
-      <c r="F54" s="259"/>
-      <c r="G54" s="260"/>
-      <c r="H54" s="261"/>
-      <c r="I54" s="262"/>
-    </row>
-    <row r="55" spans="1:9" s="118" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A55" s="139" t="s">
+    <row r="54" spans="1:9" s="213" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A54" s="204"/>
+      <c r="B54" s="205"/>
+      <c r="C54" s="206"/>
+      <c r="D54" s="207"/>
+      <c r="E54" s="208"/>
+      <c r="F54" s="209"/>
+      <c r="G54" s="210"/>
+      <c r="H54" s="211"/>
+      <c r="I54" s="212"/>
+    </row>
+    <row r="55" spans="1:9" s="117" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A55" s="134" t="s">
         <v>20</v>
       </c>
-      <c r="B55" s="140" t="s">
+      <c r="B55" s="135" t="s">
         <v>51</v>
       </c>
-      <c r="C55" s="141"/>
-      <c r="D55" s="142"/>
-      <c r="E55" s="162"/>
-      <c r="F55" s="176"/>
-      <c r="G55" s="177"/>
-      <c r="H55" s="178"/>
-      <c r="I55" s="143"/>
+      <c r="C55" s="136"/>
+      <c r="D55" s="137"/>
+      <c r="E55" s="155"/>
+      <c r="F55" s="169"/>
+      <c r="G55" s="170"/>
+      <c r="H55" s="171"/>
+      <c r="I55" s="138"/>
     </row>
     <row r="56" spans="1:9" s="103" customFormat="1" ht="15.75" thickBot="1">
       <c r="A56" s="109" t="s">
@@ -4918,27 +4919,27 @@
       <c r="C56" s="99"/>
       <c r="D56" s="100"/>
       <c r="E56" s="101"/>
-      <c r="F56" s="167"/>
+      <c r="F56" s="160"/>
       <c r="G56" s="100"/>
       <c r="H56" s="101"/>
       <c r="I56" s="102" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="118" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A57" s="139" t="s">
+    <row r="57" spans="1:9" s="117" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A57" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="B57" s="140" t="s">
+      <c r="B57" s="135" t="s">
         <v>54</v>
       </c>
-      <c r="C57" s="141"/>
-      <c r="D57" s="142"/>
-      <c r="E57" s="162"/>
-      <c r="F57" s="176"/>
-      <c r="G57" s="177"/>
-      <c r="H57" s="178"/>
-      <c r="I57" s="143"/>
+      <c r="C57" s="136"/>
+      <c r="D57" s="137"/>
+      <c r="E57" s="155"/>
+      <c r="F57" s="169"/>
+      <c r="G57" s="170"/>
+      <c r="H57" s="171"/>
+      <c r="I57" s="138"/>
     </row>
     <row r="58" spans="1:9" s="97" customFormat="1" ht="15.75" thickBot="1">
       <c r="A58" s="108" t="s">
@@ -4949,26 +4950,26 @@
       </c>
       <c r="C58" s="105"/>
       <c r="D58" s="106"/>
-      <c r="E58" s="161"/>
-      <c r="F58" s="179"/>
-      <c r="G58" s="180"/>
-      <c r="H58" s="181"/>
+      <c r="E58" s="154"/>
+      <c r="F58" s="172"/>
+      <c r="G58" s="173"/>
+      <c r="H58" s="174"/>
       <c r="I58" s="104"/>
     </row>
-    <row r="59" spans="1:9" s="118" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A59" s="139" t="s">
+    <row r="59" spans="1:9" s="117" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A59" s="134" t="s">
         <v>24</v>
       </c>
-      <c r="B59" s="140" t="s">
+      <c r="B59" s="135" t="s">
         <v>52</v>
       </c>
-      <c r="C59" s="141"/>
-      <c r="D59" s="142"/>
-      <c r="E59" s="162"/>
-      <c r="F59" s="176"/>
-      <c r="G59" s="177"/>
-      <c r="H59" s="178"/>
-      <c r="I59" s="143"/>
+      <c r="C59" s="136"/>
+      <c r="D59" s="137"/>
+      <c r="E59" s="155"/>
+      <c r="F59" s="169"/>
+      <c r="G59" s="170"/>
+      <c r="H59" s="171"/>
+      <c r="I59" s="138"/>
     </row>
     <row r="60" spans="1:9" s="97" customFormat="1" ht="15.75" thickBot="1">
       <c r="A60" s="108" t="s">
@@ -4979,26 +4980,26 @@
       </c>
       <c r="C60" s="105"/>
       <c r="D60" s="106"/>
-      <c r="E60" s="161"/>
-      <c r="F60" s="179"/>
-      <c r="G60" s="180"/>
-      <c r="H60" s="181"/>
+      <c r="E60" s="154"/>
+      <c r="F60" s="172"/>
+      <c r="G60" s="173"/>
+      <c r="H60" s="174"/>
       <c r="I60" s="104"/>
     </row>
-    <row r="61" spans="1:9" s="118" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A61" s="139" t="s">
+    <row r="61" spans="1:9" s="117" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A61" s="134" t="s">
         <v>26</v>
       </c>
-      <c r="B61" s="140" t="s">
+      <c r="B61" s="135" t="s">
         <v>57</v>
       </c>
-      <c r="C61" s="141"/>
-      <c r="D61" s="142"/>
-      <c r="E61" s="162"/>
-      <c r="F61" s="176"/>
-      <c r="G61" s="177"/>
-      <c r="H61" s="178"/>
-      <c r="I61" s="143"/>
+      <c r="C61" s="136"/>
+      <c r="D61" s="137"/>
+      <c r="E61" s="155"/>
+      <c r="F61" s="169"/>
+      <c r="G61" s="170"/>
+      <c r="H61" s="171"/>
+      <c r="I61" s="138"/>
     </row>
     <row r="62" spans="1:9" s="97" customFormat="1" ht="15.75" thickBot="1">
       <c r="A62" s="108" t="s">
@@ -5009,55 +5010,46 @@
       </c>
       <c r="C62" s="105"/>
       <c r="D62" s="106"/>
-      <c r="E62" s="161"/>
-      <c r="F62" s="179"/>
-      <c r="G62" s="180"/>
-      <c r="H62" s="181"/>
+      <c r="E62" s="154"/>
+      <c r="F62" s="172"/>
+      <c r="G62" s="173"/>
+      <c r="H62" s="174"/>
       <c r="I62" s="104"/>
     </row>
-    <row r="63" spans="1:9" s="118" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A63" s="139" t="s">
+    <row r="63" spans="1:9" s="117" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A63" s="134" t="s">
         <v>28</v>
       </c>
-      <c r="B63" s="140" t="s">
+      <c r="B63" s="135" t="s">
         <v>59</v>
       </c>
-      <c r="C63" s="141"/>
-      <c r="D63" s="142"/>
-      <c r="E63" s="162"/>
-      <c r="F63" s="176"/>
-      <c r="G63" s="177"/>
-      <c r="H63" s="178"/>
-      <c r="I63" s="143"/>
-    </row>
-    <row r="64" spans="1:9" s="319" customFormat="1">
-      <c r="A64" s="322" t="s">
+      <c r="C63" s="136"/>
+      <c r="D63" s="137"/>
+      <c r="E63" s="155"/>
+      <c r="F63" s="169"/>
+      <c r="G63" s="170"/>
+      <c r="H63" s="171"/>
+      <c r="I63" s="138"/>
+    </row>
+    <row r="64" spans="1:9" s="249" customFormat="1">
+      <c r="A64" s="250" t="s">
         <v>29</v>
       </c>
-      <c r="B64" s="323" t="s">
+      <c r="B64" s="251" t="s">
         <v>60</v>
       </c>
-      <c r="C64" s="324"/>
-      <c r="D64" s="325"/>
-      <c r="E64" s="326"/>
-      <c r="F64" s="327"/>
-      <c r="G64" s="328"/>
-      <c r="H64" s="329"/>
-      <c r="I64" s="330" t="s">
+      <c r="C64" s="252"/>
+      <c r="D64" s="253"/>
+      <c r="E64" s="254"/>
+      <c r="F64" s="255"/>
+      <c r="G64" s="256"/>
+      <c r="H64" s="257"/>
+      <c r="I64" s="258" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A35:A41"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="B35:B41"/>
-    <mergeCell ref="A42:A47"/>
-    <mergeCell ref="B42:B47"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="C41:E41"/>
@@ -5070,6 +5062,15 @@
     <mergeCell ref="B8:B14"/>
     <mergeCell ref="A15:A20"/>
     <mergeCell ref="B15:B20"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A35:A41"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="B35:B41"/>
+    <mergeCell ref="A42:A47"/>
+    <mergeCell ref="B42:B47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5175,7 +5176,7 @@
       <c r="K2" s="59" t="s">
         <v>554</v>
       </c>
-      <c r="L2" s="243" t="s">
+      <c r="L2" s="317" t="s">
         <v>134</v>
       </c>
     </row>
@@ -5193,7 +5194,7 @@
       <c r="I3" s="76"/>
       <c r="J3" s="76"/>
       <c r="K3" s="76"/>
-      <c r="L3" s="244"/>
+      <c r="L3" s="318"/>
     </row>
     <row r="4" spans="1:12" s="14" customFormat="1">
       <c r="A4" s="76"/>
@@ -5209,7 +5210,7 @@
       <c r="I4" s="76"/>
       <c r="J4" s="76"/>
       <c r="K4" s="76"/>
-      <c r="L4" s="244"/>
+      <c r="L4" s="318"/>
     </row>
     <row r="5" spans="1:12" s="14" customFormat="1">
       <c r="A5" s="76"/>
@@ -5225,7 +5226,7 @@
       <c r="I5" s="76"/>
       <c r="J5" s="76"/>
       <c r="K5" s="76"/>
-      <c r="L5" s="244"/>
+      <c r="L5" s="318"/>
     </row>
     <row r="6" spans="1:12" s="14" customFormat="1">
       <c r="A6" s="76"/>
@@ -5241,7 +5242,7 @@
       <c r="I6" s="76"/>
       <c r="J6" s="76"/>
       <c r="K6" s="76"/>
-      <c r="L6" s="244"/>
+      <c r="L6" s="318"/>
     </row>
     <row r="7" spans="1:12" s="14" customFormat="1">
       <c r="A7" s="76"/>
@@ -5257,7 +5258,7 @@
       <c r="I7" s="76"/>
       <c r="J7" s="76"/>
       <c r="K7" s="76"/>
-      <c r="L7" s="244"/>
+      <c r="L7" s="318"/>
     </row>
     <row r="8" spans="1:12" s="14" customFormat="1">
       <c r="A8" s="76"/>
@@ -5273,7 +5274,7 @@
       <c r="I8" s="76"/>
       <c r="J8" s="76"/>
       <c r="K8" s="76"/>
-      <c r="L8" s="244"/>
+      <c r="L8" s="318"/>
     </row>
     <row r="9" spans="1:12" s="14" customFormat="1">
       <c r="A9" s="76"/>
@@ -5289,7 +5290,7 @@
       <c r="I9" s="76"/>
       <c r="J9" s="76"/>
       <c r="K9" s="76"/>
-      <c r="L9" s="244"/>
+      <c r="L9" s="318"/>
     </row>
     <row r="10" spans="1:12" s="14" customFormat="1">
       <c r="A10" s="76"/>
@@ -5305,7 +5306,7 @@
       <c r="I10" s="76"/>
       <c r="J10" s="76"/>
       <c r="K10" s="76"/>
-      <c r="L10" s="244"/>
+      <c r="L10" s="318"/>
     </row>
     <row r="11" spans="1:12" s="14" customFormat="1">
       <c r="A11" s="76"/>
@@ -5321,7 +5322,7 @@
       <c r="I11" s="76"/>
       <c r="J11" s="76"/>
       <c r="K11" s="76"/>
-      <c r="L11" s="245"/>
+      <c r="L11" s="319"/>
     </row>
     <row r="12" spans="1:12" s="2" customFormat="1">
       <c r="A12" s="2" t="s">
@@ -5352,7 +5353,7 @@
         <v>71</v>
       </c>
       <c r="K12" s="11"/>
-      <c r="L12" s="246" t="s">
+      <c r="L12" s="320" t="s">
         <v>133</v>
       </c>
     </row>
@@ -5370,7 +5371,7 @@
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
       <c r="K13" s="17"/>
-      <c r="L13" s="247"/>
+      <c r="L13" s="321"/>
     </row>
     <row r="14" spans="1:12" s="53" customFormat="1">
       <c r="A14" s="53" t="s">
@@ -5403,7 +5404,7 @@
       <c r="K14" s="59" t="s">
         <v>200</v>
       </c>
-      <c r="L14" s="248"/>
+      <c r="L14" s="322"/>
     </row>
     <row r="15" spans="1:12" s="14" customFormat="1">
       <c r="A15" s="76"/>
@@ -5419,7 +5420,7 @@
       <c r="I15" s="76"/>
       <c r="J15" s="76"/>
       <c r="K15" s="76"/>
-      <c r="L15" s="244"/>
+      <c r="L15" s="318"/>
     </row>
     <row r="16" spans="1:12" s="14" customFormat="1">
       <c r="A16" s="76"/>
@@ -5435,7 +5436,7 @@
       <c r="I16" s="76"/>
       <c r="J16" s="76"/>
       <c r="K16" s="76"/>
-      <c r="L16" s="244"/>
+      <c r="L16" s="318"/>
     </row>
     <row r="17" spans="1:12" s="14" customFormat="1">
       <c r="A17" s="76"/>
@@ -5451,7 +5452,7 @@
       <c r="I17" s="76"/>
       <c r="J17" s="76"/>
       <c r="K17" s="76"/>
-      <c r="L17" s="244"/>
+      <c r="L17" s="318"/>
     </row>
     <row r="18" spans="1:12" s="14" customFormat="1">
       <c r="A18" s="76"/>
@@ -5467,7 +5468,7 @@
       <c r="I18" s="76"/>
       <c r="J18" s="76"/>
       <c r="K18" s="76"/>
-      <c r="L18" s="245"/>
+      <c r="L18" s="319"/>
     </row>
     <row r="19" spans="1:12" s="2" customFormat="1">
       <c r="A19" s="2" t="s">
@@ -5500,7 +5501,7 @@
       <c r="K19" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="L19" s="246"/>
+      <c r="L19" s="320"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="17"/>
@@ -5516,7 +5517,7 @@
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
       <c r="K20" s="17"/>
-      <c r="L20" s="247"/>
+      <c r="L20" s="321"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="17"/>
@@ -5532,7 +5533,7 @@
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
       <c r="K21" s="17"/>
-      <c r="L21" s="247"/>
+      <c r="L21" s="321"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="17"/>
@@ -5548,7 +5549,7 @@
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
       <c r="K22" s="17"/>
-      <c r="L22" s="249"/>
+      <c r="L22" s="323"/>
     </row>
     <row r="23" spans="1:12" s="53" customFormat="1">
       <c r="A23" s="53" t="s">
@@ -5579,7 +5580,7 @@
         <v>74</v>
       </c>
       <c r="K23" s="59"/>
-      <c r="L23" s="248"/>
+      <c r="L23" s="322"/>
     </row>
     <row r="24" spans="1:12" s="14" customFormat="1">
       <c r="A24" s="76"/>
@@ -5595,7 +5596,7 @@
       <c r="I24" s="76"/>
       <c r="J24" s="76"/>
       <c r="K24" s="76"/>
-      <c r="L24" s="244"/>
+      <c r="L24" s="318"/>
     </row>
     <row r="25" spans="1:12" s="14" customFormat="1">
       <c r="A25" s="76"/>
@@ -5611,7 +5612,7 @@
       <c r="I25" s="76"/>
       <c r="J25" s="76"/>
       <c r="K25" s="76"/>
-      <c r="L25" s="244"/>
+      <c r="L25" s="318"/>
     </row>
     <row r="26" spans="1:12" s="14" customFormat="1">
       <c r="A26" s="76"/>
@@ -5627,7 +5628,7 @@
       <c r="I26" s="76"/>
       <c r="J26" s="76"/>
       <c r="K26" s="76"/>
-      <c r="L26" s="245"/>
+      <c r="L26" s="319"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="2" t="s">
@@ -8744,20 +8745,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A1" s="250" t="s">
+      <c r="A1" s="324" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="251"/>
+      <c r="B1" s="325"/>
       <c r="C1" s="15"/>
-      <c r="D1" s="250" t="s">
+      <c r="D1" s="324" t="s">
         <v>193</v>
       </c>
-      <c r="E1" s="251"/>
+      <c r="E1" s="325"/>
       <c r="F1" s="50"/>
-      <c r="G1" s="252" t="s">
+      <c r="G1" s="326" t="s">
         <v>206</v>
       </c>
-      <c r="H1" s="253"/>
+      <c r="H1" s="327"/>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>

--- a/Planning & Assetlist.xlsx
+++ b/Planning & Assetlist.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="574">
   <si>
     <t>Code Name</t>
   </si>
@@ -1706,13 +1706,49 @@
   </si>
   <si>
     <t>Reason: Saving time for Jesse for Inplementation.</t>
+  </si>
+  <si>
+    <t>Planning Status</t>
+  </si>
+  <si>
+    <t>In Process</t>
+  </si>
+  <si>
+    <t>Moved</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Past weeks</t>
+  </si>
+  <si>
+    <t>Presetation week</t>
+  </si>
+  <si>
+    <t>Week Status</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>moved AIHP from Faf to Chantal,</t>
+  </si>
+  <si>
+    <t>Reason: More time for Faf to focus on CPBH &amp;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Chantal cant test game yet + other scripts done.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1741,8 +1777,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="44">
+  <fills count="47">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1978,31 +2021,49 @@
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="lightTrellis">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor rgb="FFFFC000"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="lightTrellis">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="lightTrellis">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor rgb="FFFFC000"/>
+        <bgColor theme="5" tint="0.39997558519241921"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="68">
+  <borders count="75">
     <border>
       <left/>
       <right/>
@@ -2841,11 +2902,90 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="slantDashDot">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="slantDashDot">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="333">
+  <cellXfs count="381">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -3014,12 +3154,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3198,9 +3332,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3211,9 +3342,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3237,70 +3365,6 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3331,10 +3395,10 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3365,15 +3429,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3399,13 +3454,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="64" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3413,15 +3461,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="36" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3441,15 +3480,6 @@
     <xf numFmtId="0" fontId="3" fillId="35" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="35" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3457,15 +3487,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="36" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3493,28 +3514,252 @@
     <xf numFmtId="0" fontId="3" fillId="23" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="64" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="42" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="42" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="42" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="44" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="44" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="44" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="44" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="44" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="44" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="44" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="44" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="44" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="42" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="42" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="42" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="72" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="44" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="44" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="44" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="35" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3547,13 +3792,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3604,13 +3849,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3712,15 +3957,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3731,15 +3987,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFFFCC66"/>
-      <color rgb="FFFCFF93"/>
-      <color rgb="FFFFE1FF"/>
-      <color rgb="FFFFCCFF"/>
-      <color rgb="FFFFFF99"/>
-      <color rgb="FFEBFFDD"/>
-      <color rgb="FFF3FFF3"/>
-      <color rgb="FFDDFFDD"/>
-      <color rgb="FFFF4343"/>
+      <color rgb="FF666633"/>
+      <color rgb="FF99CC00"/>
+      <color rgb="FF669900"/>
+      <color rgb="FFCCFF33"/>
+      <color rgb="FF808000"/>
+      <color rgb="FF336600"/>
+      <color rgb="FF339933"/>
+      <color rgb="FF008080"/>
+      <color rgb="FF339966"/>
+      <color rgb="FF00CC66"/>
     </mruColors>
   </colors>
 </styleSheet>
@@ -4033,21 +4290,21 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:XFC64"/>
+  <dimension ref="A1:XFC139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
+      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="110" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="114" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="108" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="112" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" style="5" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" style="156" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="161" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="153" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="157" customWidth="1"/>
     <col min="7" max="7" width="20.7109375" style="7" customWidth="1"/>
     <col min="8" max="8" width="20.7109375" style="8" customWidth="1"/>
     <col min="9" max="9" width="44.7109375" style="9" customWidth="1"/>
@@ -4055,999 +4312,1632 @@
     <col min="16384" max="16384" width="5.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="89" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A1" s="285" t="s">
+    <row r="1" spans="1:9" s="87" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A1" s="330" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="286"/>
+      <c r="B1" s="331"/>
       <c r="C1" s="84" t="s">
         <v>61</v>
       </c>
       <c r="D1" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="145" t="s">
+      <c r="E1" s="143" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="157" t="s">
+      <c r="F1" s="291" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="86" t="s">
+      <c r="G1" s="292" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="87" t="s">
+      <c r="H1" s="293" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="88" t="s">
+      <c r="I1" s="86" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="121" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A2" s="126" t="s">
+    <row r="2" spans="1:9" s="119" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A2" s="124" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="127" t="s">
+      <c r="B2" s="125" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="304" t="s">
+      <c r="C2" s="349" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="305"/>
-      <c r="E2" s="305"/>
-      <c r="F2" s="305"/>
-      <c r="G2" s="305"/>
-      <c r="H2" s="306"/>
-      <c r="I2" s="133"/>
-    </row>
-    <row r="3" spans="1:9" s="97" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="107" t="s">
+      <c r="D2" s="350"/>
+      <c r="E2" s="350"/>
+      <c r="F2" s="350"/>
+      <c r="G2" s="350"/>
+      <c r="H2" s="351"/>
+      <c r="I2" s="131"/>
+    </row>
+    <row r="3" spans="1:9" s="95" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A3" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="301" t="s">
+      <c r="C3" s="346" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="302"/>
-      <c r="E3" s="302"/>
-      <c r="F3" s="302"/>
-      <c r="G3" s="302"/>
-      <c r="H3" s="303"/>
-      <c r="I3" s="104"/>
-    </row>
-    <row r="4" spans="1:9" s="132" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A4" s="129" t="s">
+      <c r="D3" s="347"/>
+      <c r="E3" s="347"/>
+      <c r="F3" s="347"/>
+      <c r="G3" s="347"/>
+      <c r="H3" s="348"/>
+      <c r="I3" s="102"/>
+    </row>
+    <row r="4" spans="1:9" s="130" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A4" s="127" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="130" t="s">
+      <c r="B4" s="128" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="298" t="s">
+      <c r="C4" s="343" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="299"/>
-      <c r="E4" s="299"/>
-      <c r="F4" s="299"/>
-      <c r="G4" s="299"/>
-      <c r="H4" s="300"/>
-      <c r="I4" s="131"/>
-    </row>
-    <row r="5" spans="1:9" s="249" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A5" s="266" t="s">
+      <c r="D4" s="344"/>
+      <c r="E4" s="344"/>
+      <c r="F4" s="344"/>
+      <c r="G4" s="344"/>
+      <c r="H4" s="345"/>
+      <c r="I4" s="129"/>
+    </row>
+    <row r="5" spans="1:9" s="208" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A5" s="311" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="268" t="s">
+      <c r="B5" s="313" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="287" t="s">
+      <c r="C5" s="332" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="288"/>
-      <c r="E5" s="288"/>
-      <c r="F5" s="288"/>
-      <c r="G5" s="288"/>
-      <c r="H5" s="289"/>
-      <c r="I5" s="247" t="s">
+      <c r="D5" s="333"/>
+      <c r="E5" s="333"/>
+      <c r="F5" s="333"/>
+      <c r="G5" s="333"/>
+      <c r="H5" s="334"/>
+      <c r="I5" s="206" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="249" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A6" s="267"/>
-      <c r="B6" s="269"/>
-      <c r="C6" s="295" t="s">
+    <row r="6" spans="1:9" s="208" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A6" s="312"/>
+      <c r="B6" s="314"/>
+      <c r="C6" s="340" t="s">
         <v>533</v>
       </c>
-      <c r="D6" s="296"/>
-      <c r="E6" s="296"/>
-      <c r="F6" s="296"/>
-      <c r="G6" s="296"/>
-      <c r="H6" s="297"/>
-      <c r="I6" s="248"/>
-    </row>
-    <row r="7" spans="1:9" s="143" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A7" s="162" t="s">
+      <c r="D6" s="341"/>
+      <c r="E6" s="341"/>
+      <c r="F6" s="341"/>
+      <c r="G6" s="341"/>
+      <c r="H6" s="342"/>
+      <c r="I6" s="207"/>
+    </row>
+    <row r="7" spans="1:9" s="141" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A7" s="158" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="144" t="s">
+      <c r="B7" s="142" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="139"/>
-      <c r="D7" s="140"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="158"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="142" t="s">
+      <c r="C7" s="137"/>
+      <c r="D7" s="138"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="154"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="139"/>
+      <c r="I7" s="140" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="97" customFormat="1">
-      <c r="A8" s="307" t="s">
+    <row r="8" spans="1:9" s="95" customFormat="1">
+      <c r="A8" s="352" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="309" t="s">
+      <c r="B8" s="354" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="95" t="s">
+      <c r="C8" s="93" t="s">
         <v>215</v>
       </c>
-      <c r="D8" s="191" t="s">
+      <c r="D8" s="165" t="s">
         <v>218</v>
       </c>
-      <c r="E8" s="146" t="s">
+      <c r="E8" s="144" t="s">
         <v>222</v>
       </c>
-      <c r="F8" s="159" t="s">
+      <c r="F8" s="155" t="s">
         <v>480</v>
       </c>
-      <c r="G8" s="191" t="s">
+      <c r="G8" s="165" t="s">
         <v>474</v>
       </c>
-      <c r="H8" s="195" t="s">
+      <c r="H8" s="169" t="s">
         <v>476</v>
       </c>
-      <c r="I8" s="98" t="s">
+      <c r="I8" s="96" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="308"/>
-      <c r="B9" s="310"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="192" t="s">
+      <c r="A9" s="353"/>
+      <c r="B9" s="355"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="166" t="s">
         <v>303</v>
       </c>
-      <c r="E9" s="147" t="s">
+      <c r="E9" s="145" t="s">
         <v>417</v>
       </c>
-      <c r="F9" s="183"/>
-      <c r="G9" s="192" t="s">
+      <c r="F9" s="231"/>
+      <c r="G9" s="166" t="s">
         <v>475</v>
       </c>
-      <c r="H9" s="196" t="s">
+      <c r="H9" s="170" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="308"/>
-      <c r="B10" s="310"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="192" t="s">
+      <c r="A10" s="353"/>
+      <c r="B10" s="355"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="166" t="s">
         <v>261</v>
       </c>
-      <c r="E10" s="147" t="s">
+      <c r="E10" s="145" t="s">
         <v>307</v>
       </c>
-      <c r="F10" s="183"/>
-      <c r="G10" s="165"/>
-      <c r="H10" s="196" t="s">
+      <c r="F10" s="231"/>
+      <c r="G10" s="225"/>
+      <c r="H10" s="145" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="308"/>
-      <c r="B11" s="310"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="147" t="s">
+      <c r="A11" s="353"/>
+      <c r="B11" s="355"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="145" t="s">
         <v>419</v>
       </c>
-      <c r="F11" s="183"/>
-      <c r="G11" s="165"/>
-      <c r="H11" s="184"/>
+      <c r="F11" s="231"/>
+      <c r="G11" s="225"/>
+      <c r="H11" s="227"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="308"/>
-      <c r="B12" s="310"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="147" t="s">
+      <c r="A12" s="353"/>
+      <c r="B12" s="355"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="145" t="s">
         <v>265</v>
       </c>
-      <c r="F12" s="183"/>
-      <c r="G12" s="165"/>
-      <c r="H12" s="184"/>
+      <c r="F12" s="231"/>
+      <c r="G12" s="225"/>
+      <c r="H12" s="227"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="308"/>
-      <c r="B13" s="310"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="147" t="s">
+      <c r="A13" s="353"/>
+      <c r="B13" s="355"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="145" t="s">
         <v>421</v>
       </c>
-      <c r="F13" s="183"/>
-      <c r="G13" s="165"/>
-      <c r="H13" s="184"/>
+      <c r="F13" s="231"/>
+      <c r="G13" s="225"/>
+      <c r="H13" s="227"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A14" s="308"/>
-      <c r="B14" s="310"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="148" t="s">
+      <c r="A14" s="353"/>
+      <c r="B14" s="355"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="146" t="s">
         <v>418</v>
       </c>
-      <c r="F14" s="185"/>
-      <c r="G14" s="166"/>
-      <c r="H14" s="186"/>
-      <c r="I14" s="92"/>
-    </row>
-    <row r="15" spans="1:9" s="117" customFormat="1">
-      <c r="A15" s="311" t="s">
+      <c r="F14" s="232"/>
+      <c r="G14" s="233"/>
+      <c r="H14" s="228"/>
+      <c r="I14" s="90"/>
+    </row>
+    <row r="15" spans="1:9" s="115" customFormat="1">
+      <c r="A15" s="356" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="314" t="s">
+      <c r="B15" s="359" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="115" t="s">
+      <c r="C15" s="113" t="s">
         <v>215</v>
       </c>
-      <c r="D15" s="193" t="s">
+      <c r="D15" s="167" t="s">
         <v>303</v>
       </c>
-      <c r="E15" s="149" t="s">
+      <c r="E15" s="147" t="s">
         <v>418</v>
       </c>
-      <c r="F15" s="163" t="s">
+      <c r="F15" s="159" t="s">
         <v>480</v>
       </c>
-      <c r="G15" s="167" t="s">
+      <c r="G15" s="378" t="s">
         <v>482</v>
       </c>
-      <c r="H15" s="149" t="s">
+      <c r="H15" s="147" t="s">
         <v>473</v>
       </c>
-      <c r="I15" s="116"/>
-    </row>
-    <row r="16" spans="1:9" s="121" customFormat="1">
-      <c r="A16" s="312"/>
-      <c r="B16" s="315"/>
-      <c r="C16" s="118" t="s">
+      <c r="I15" s="114"/>
+    </row>
+    <row r="16" spans="1:9" s="119" customFormat="1">
+      <c r="A16" s="357"/>
+      <c r="B16" s="360"/>
+      <c r="C16" s="116" t="s">
         <v>199</v>
       </c>
-      <c r="D16" s="194" t="s">
+      <c r="D16" s="168" t="s">
         <v>261</v>
       </c>
-      <c r="E16" s="150" t="s">
+      <c r="E16" s="148" t="s">
         <v>420</v>
       </c>
-      <c r="F16" s="175"/>
-      <c r="G16" s="168"/>
-      <c r="H16" s="150" t="s">
+      <c r="F16" s="234"/>
+      <c r="G16" s="230"/>
+      <c r="H16" s="148" t="s">
         <v>478</v>
       </c>
-      <c r="I16" s="120"/>
-    </row>
-    <row r="17" spans="1:9" s="121" customFormat="1">
-      <c r="A17" s="312"/>
-      <c r="B17" s="315"/>
-      <c r="C17" s="118" t="s">
+      <c r="I16" s="118"/>
+    </row>
+    <row r="17" spans="1:9" s="119" customFormat="1">
+      <c r="A17" s="357"/>
+      <c r="B17" s="360"/>
+      <c r="C17" s="116" t="s">
         <v>258</v>
       </c>
-      <c r="D17" s="194" t="s">
+      <c r="D17" s="168" t="s">
         <v>393</v>
       </c>
-      <c r="E17" s="150" t="s">
+      <c r="E17" s="148" t="s">
         <v>422</v>
       </c>
-      <c r="F17" s="175"/>
-      <c r="G17" s="168"/>
-      <c r="H17" s="176"/>
-      <c r="I17" s="120"/>
-    </row>
-    <row r="18" spans="1:9" s="121" customFormat="1">
-      <c r="A18" s="312"/>
-      <c r="B18" s="315"/>
-      <c r="C18" s="122"/>
-      <c r="D18" s="194" t="s">
+      <c r="F17" s="234"/>
+      <c r="G17" s="230"/>
+      <c r="H17" s="222"/>
+      <c r="I17" s="118"/>
+    </row>
+    <row r="18" spans="1:9" s="119" customFormat="1">
+      <c r="A18" s="357"/>
+      <c r="B18" s="360"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="168" t="s">
         <v>402</v>
       </c>
-      <c r="E18" s="150" t="s">
+      <c r="E18" s="148" t="s">
         <v>543</v>
       </c>
-      <c r="F18" s="175"/>
-      <c r="G18" s="168"/>
-      <c r="H18" s="176"/>
-      <c r="I18" s="120"/>
-    </row>
-    <row r="19" spans="1:9" s="121" customFormat="1">
-      <c r="A19" s="312"/>
-      <c r="B19" s="315"/>
-      <c r="C19" s="122"/>
-      <c r="D19" s="119"/>
-      <c r="E19" s="150" t="s">
+      <c r="F18" s="234"/>
+      <c r="G18" s="230"/>
+      <c r="H18" s="222"/>
+      <c r="I18" s="118"/>
+    </row>
+    <row r="19" spans="1:9" s="119" customFormat="1">
+      <c r="A19" s="357"/>
+      <c r="B19" s="360"/>
+      <c r="C19" s="120"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="148" t="s">
         <v>544</v>
       </c>
-      <c r="F19" s="175"/>
-      <c r="G19" s="168"/>
-      <c r="H19" s="176"/>
-      <c r="I19" s="120"/>
-    </row>
-    <row r="20" spans="1:9" s="121" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A20" s="313"/>
-      <c r="B20" s="316"/>
-      <c r="C20" s="123"/>
-      <c r="D20" s="124"/>
-      <c r="E20" s="259" t="s">
+      <c r="F19" s="234"/>
+      <c r="G19" s="230"/>
+      <c r="H19" s="222"/>
+      <c r="I19" s="118"/>
+    </row>
+    <row r="20" spans="1:9" s="119" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A20" s="358"/>
+      <c r="B20" s="361"/>
+      <c r="C20" s="121"/>
+      <c r="D20" s="122"/>
+      <c r="E20" s="215" t="s">
         <v>545</v>
       </c>
-      <c r="F20" s="180"/>
-      <c r="G20" s="181"/>
-      <c r="H20" s="182"/>
-      <c r="I20" s="125"/>
-    </row>
-    <row r="21" spans="1:9" s="97" customFormat="1">
-      <c r="A21" s="187" t="s">
+      <c r="F20" s="235"/>
+      <c r="G20" s="236"/>
+      <c r="H20" s="229"/>
+      <c r="I20" s="123"/>
+    </row>
+    <row r="21" spans="1:9" s="95" customFormat="1">
+      <c r="A21" s="161" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="188" t="s">
+      <c r="B21" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="95" t="s">
+      <c r="C21" s="93" t="s">
         <v>199</v>
       </c>
-      <c r="D21" s="96" t="s">
+      <c r="D21" s="94" t="s">
         <v>217</v>
       </c>
-      <c r="E21" s="146" t="s">
+      <c r="E21" s="144" t="s">
         <v>231</v>
       </c>
-      <c r="F21" s="159" t="s">
+      <c r="F21" s="155" t="s">
         <v>492</v>
       </c>
-      <c r="G21" s="179" t="s">
+      <c r="G21" s="219" t="s">
         <v>484</v>
       </c>
-      <c r="H21" s="331" t="s">
+      <c r="H21" s="221" t="s">
         <v>489</v>
       </c>
-      <c r="I21" s="98" t="s">
+      <c r="I21" s="96" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="189"/>
-      <c r="B22" s="190"/>
-      <c r="C22" s="164" t="s">
+      <c r="A22" s="163"/>
+      <c r="B22" s="164"/>
+      <c r="C22" s="160" t="s">
         <v>258</v>
       </c>
-      <c r="D22" s="91"/>
-      <c r="E22" s="147" t="s">
+      <c r="D22" s="89"/>
+      <c r="E22" s="145" t="s">
         <v>546</v>
       </c>
-      <c r="F22" s="183"/>
-      <c r="G22" s="165"/>
-      <c r="H22" s="184"/>
+      <c r="F22" s="231"/>
+      <c r="G22" s="225"/>
+      <c r="H22" s="227"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="189"/>
-      <c r="B23" s="190"/>
-      <c r="C23" s="164" t="s">
+      <c r="A23" s="163"/>
+      <c r="B23" s="164"/>
+      <c r="C23" s="160" t="s">
         <v>390</v>
       </c>
-      <c r="D23" s="91"/>
-      <c r="E23" s="147" t="s">
+      <c r="D23" s="89"/>
+      <c r="E23" s="145" t="s">
         <v>316</v>
       </c>
-      <c r="F23" s="183"/>
-      <c r="G23" s="165"/>
-      <c r="H23" s="184"/>
+      <c r="F23" s="231"/>
+      <c r="G23" s="225"/>
+      <c r="H23" s="227"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="189"/>
-      <c r="B24" s="190"/>
-      <c r="C24" s="199" t="s">
+      <c r="A24" s="163"/>
+      <c r="B24" s="164"/>
+      <c r="C24" s="173" t="s">
         <v>399</v>
       </c>
-      <c r="D24" s="91"/>
-      <c r="E24" s="147" t="s">
+      <c r="D24" s="89"/>
+      <c r="E24" s="145" t="s">
         <v>547</v>
       </c>
-      <c r="F24" s="183"/>
-      <c r="G24" s="165"/>
-      <c r="H24" s="184"/>
+      <c r="F24" s="231"/>
+      <c r="G24" s="225"/>
+      <c r="H24" s="227"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="189"/>
-      <c r="B25" s="190"/>
-      <c r="C25" s="90"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="147" t="s">
+      <c r="A25" s="163"/>
+      <c r="B25" s="164"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="145" t="s">
         <v>548</v>
       </c>
-      <c r="F25" s="183"/>
-      <c r="G25" s="165"/>
-      <c r="H25" s="184"/>
+      <c r="F25" s="231"/>
+      <c r="G25" s="225"/>
+      <c r="H25" s="227"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="189"/>
-      <c r="B26" s="190"/>
-      <c r="C26" s="90"/>
-      <c r="D26" s="91"/>
-      <c r="E26" s="151" t="s">
+      <c r="A26" s="163"/>
+      <c r="B26" s="164"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="379" t="s">
         <v>234</v>
       </c>
-      <c r="F26" s="183"/>
-      <c r="G26" s="165"/>
-      <c r="H26" s="184"/>
+      <c r="F26" s="231"/>
+      <c r="G26" s="225"/>
+      <c r="H26" s="227"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="189"/>
-      <c r="B27" s="190"/>
-      <c r="C27" s="90"/>
-      <c r="D27" s="91"/>
-      <c r="E27" s="151" t="s">
+      <c r="A27" s="163"/>
+      <c r="B27" s="164"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="379" t="s">
         <v>319</v>
       </c>
-      <c r="F27" s="183"/>
-      <c r="G27" s="165"/>
-      <c r="H27" s="184"/>
+      <c r="F27" s="231"/>
+      <c r="G27" s="225"/>
+      <c r="H27" s="227"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A28" s="189"/>
-      <c r="B28" s="190"/>
-      <c r="C28" s="93"/>
-      <c r="D28" s="94"/>
-      <c r="E28" s="152" t="s">
+      <c r="A28" s="163"/>
+      <c r="B28" s="164"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="380" t="s">
         <v>277</v>
       </c>
-      <c r="F28" s="185"/>
-      <c r="G28" s="166"/>
-      <c r="H28" s="186"/>
-      <c r="I28" s="92"/>
-    </row>
-    <row r="29" spans="1:9" s="117" customFormat="1">
-      <c r="A29" s="200" t="s">
+      <c r="F28" s="232"/>
+      <c r="G28" s="233"/>
+      <c r="H28" s="228"/>
+      <c r="I28" s="90"/>
+    </row>
+    <row r="29" spans="1:9" s="115" customFormat="1">
+      <c r="A29" s="174" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="202" t="s">
+      <c r="B29" s="176" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="115" t="s">
+      <c r="C29" s="113" t="s">
         <v>390</v>
       </c>
-      <c r="D29" s="328" t="s">
+      <c r="D29" s="218" t="s">
         <v>234</v>
       </c>
-      <c r="E29" s="332" t="s">
+      <c r="E29" s="220" t="s">
         <v>549</v>
       </c>
-      <c r="F29" s="197" t="s">
+      <c r="F29" s="171" t="s">
         <v>483</v>
       </c>
-      <c r="G29" s="167" t="s">
+      <c r="G29" s="218" t="s">
         <v>484</v>
       </c>
-      <c r="H29" s="330" t="s">
+      <c r="H29" s="376" t="s">
         <v>540</v>
       </c>
-      <c r="I29" s="128" t="s">
+      <c r="I29" s="126" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="121" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A30" s="201"/>
-      <c r="B30" s="203"/>
-      <c r="C30" s="198" t="s">
+    <row r="30" spans="1:9" s="119" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A30" s="175"/>
+      <c r="B30" s="177"/>
+      <c r="C30" s="172" t="s">
         <v>399</v>
       </c>
-      <c r="D30" s="119" t="s">
+      <c r="D30" s="117" t="s">
         <v>319</v>
       </c>
-      <c r="E30" s="153"/>
-      <c r="F30" s="175"/>
-      <c r="G30" s="168"/>
-      <c r="H30" s="176"/>
-      <c r="I30" s="218" t="s">
+      <c r="E30" s="150"/>
+      <c r="F30" s="234"/>
+      <c r="G30" s="230"/>
+      <c r="H30" s="377" t="s">
+        <v>482</v>
+      </c>
+      <c r="I30" s="189" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="121" customFormat="1">
-      <c r="A31" s="201"/>
-      <c r="B31" s="203"/>
-      <c r="C31" s="122"/>
-      <c r="D31" s="119" t="s">
+    <row r="31" spans="1:9" s="119" customFormat="1">
+      <c r="A31" s="175"/>
+      <c r="B31" s="177"/>
+      <c r="C31" s="120"/>
+      <c r="D31" s="117" t="s">
         <v>277</v>
       </c>
-      <c r="E31" s="153"/>
-      <c r="F31" s="175"/>
-      <c r="G31" s="168"/>
-      <c r="H31" s="176"/>
-      <c r="I31" s="218" t="s">
+      <c r="E31" s="150"/>
+      <c r="F31" s="234"/>
+      <c r="G31" s="230"/>
+      <c r="H31" s="222"/>
+      <c r="I31" s="189" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="121" customFormat="1">
-      <c r="A32" s="201"/>
-      <c r="B32" s="203"/>
-      <c r="C32" s="122"/>
-      <c r="D32" s="119"/>
-      <c r="E32" s="153"/>
-      <c r="F32" s="175"/>
-      <c r="G32" s="168"/>
-      <c r="H32" s="176"/>
-      <c r="I32" s="218" t="s">
+    <row r="32" spans="1:9" s="119" customFormat="1">
+      <c r="A32" s="175"/>
+      <c r="B32" s="177"/>
+      <c r="C32" s="120"/>
+      <c r="D32" s="117"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="234"/>
+      <c r="G32" s="230"/>
+      <c r="H32" s="222"/>
+      <c r="I32" s="189" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="121" customFormat="1">
-      <c r="A33" s="201"/>
-      <c r="B33" s="203"/>
-      <c r="C33" s="122"/>
-      <c r="D33" s="119"/>
-      <c r="E33" s="153"/>
-      <c r="F33" s="175"/>
-      <c r="G33" s="168"/>
-      <c r="H33" s="176"/>
-      <c r="I33" s="218"/>
-    </row>
-    <row r="34" spans="1:9" s="121" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A34" s="201"/>
-      <c r="B34" s="203"/>
-      <c r="C34" s="122"/>
-      <c r="D34" s="119"/>
-      <c r="E34" s="153"/>
-      <c r="F34" s="175"/>
-      <c r="G34" s="168"/>
-      <c r="H34" s="176"/>
-      <c r="I34" s="219"/>
-    </row>
-    <row r="35" spans="1:9" s="97" customFormat="1">
-      <c r="A35" s="270" t="s">
+    <row r="33" spans="1:9" s="119" customFormat="1">
+      <c r="A33" s="175"/>
+      <c r="B33" s="177"/>
+      <c r="C33" s="120"/>
+      <c r="D33" s="117"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="234"/>
+      <c r="G33" s="230"/>
+      <c r="H33" s="222"/>
+      <c r="I33" s="189"/>
+    </row>
+    <row r="34" spans="1:9" s="119" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A34" s="175"/>
+      <c r="B34" s="177"/>
+      <c r="C34" s="120"/>
+      <c r="D34" s="117"/>
+      <c r="E34" s="150"/>
+      <c r="F34" s="234"/>
+      <c r="G34" s="230"/>
+      <c r="H34" s="222"/>
+      <c r="I34" s="190"/>
+    </row>
+    <row r="35" spans="1:9" s="95" customFormat="1">
+      <c r="A35" s="315" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="276" t="s">
+      <c r="B35" s="321" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="164" t="s">
+      <c r="C35" s="160" t="s">
         <v>390</v>
       </c>
-      <c r="D35" s="329" t="s">
+      <c r="D35" s="219" t="s">
         <v>234</v>
       </c>
-      <c r="E35" s="195" t="s">
+      <c r="E35" s="169" t="s">
         <v>549</v>
       </c>
-      <c r="F35" s="177"/>
-      <c r="G35" s="178" t="s">
+      <c r="F35" s="226"/>
+      <c r="G35" s="223"/>
+      <c r="H35" s="224" t="s">
+        <v>553</v>
+      </c>
+      <c r="I35" s="96" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="12" customFormat="1">
+      <c r="A36" s="316"/>
+      <c r="B36" s="322"/>
+      <c r="C36" s="173" t="s">
+        <v>399</v>
+      </c>
+      <c r="D36" s="187" t="s">
+        <v>319</v>
+      </c>
+      <c r="E36" s="191"/>
+      <c r="F36" s="318" t="s">
+        <v>541</v>
+      </c>
+      <c r="G36" s="319"/>
+      <c r="H36" s="320"/>
+      <c r="I36" s="188" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="12" customFormat="1">
+      <c r="A37" s="316"/>
+      <c r="B37" s="322"/>
+      <c r="C37" s="186"/>
+      <c r="D37" s="187" t="s">
+        <v>277</v>
+      </c>
+      <c r="E37" s="191"/>
+      <c r="F37" s="237"/>
+      <c r="G37" s="238"/>
+      <c r="H37" s="239" t="s">
+        <v>572</v>
+      </c>
+      <c r="I37" s="188" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="12" customFormat="1">
+      <c r="A38" s="316"/>
+      <c r="B38" s="322"/>
+      <c r="C38" s="186"/>
+      <c r="D38" s="187" t="s">
+        <v>232</v>
+      </c>
+      <c r="E38" s="191"/>
+      <c r="F38" s="237"/>
+      <c r="G38" s="238"/>
+      <c r="H38" s="239"/>
+      <c r="I38" s="188"/>
+    </row>
+    <row r="39" spans="1:9" s="12" customFormat="1">
+      <c r="A39" s="316"/>
+      <c r="B39" s="322"/>
+      <c r="C39" s="186"/>
+      <c r="D39" s="187" t="s">
+        <v>317</v>
+      </c>
+      <c r="E39" s="191"/>
+      <c r="F39" s="237"/>
+      <c r="G39" s="238"/>
+      <c r="H39" s="239"/>
+      <c r="I39" s="188"/>
+    </row>
+    <row r="40" spans="1:9" s="12" customFormat="1">
+      <c r="A40" s="316"/>
+      <c r="B40" s="322"/>
+      <c r="C40" s="186"/>
+      <c r="D40" s="187" t="s">
+        <v>275</v>
+      </c>
+      <c r="E40" s="191"/>
+      <c r="F40" s="237"/>
+      <c r="G40" s="238"/>
+      <c r="H40" s="239"/>
+      <c r="I40" s="188"/>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A41" s="317"/>
+      <c r="B41" s="323"/>
+      <c r="C41" s="335" t="s">
+        <v>550</v>
+      </c>
+      <c r="D41" s="336"/>
+      <c r="E41" s="336"/>
+      <c r="F41" s="337" t="s">
+        <v>550</v>
+      </c>
+      <c r="G41" s="338"/>
+      <c r="H41" s="339"/>
+      <c r="I41" s="90"/>
+    </row>
+    <row r="42" spans="1:9" s="196" customFormat="1">
+      <c r="A42" s="324" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" s="327" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="192"/>
+      <c r="D42" s="193"/>
+      <c r="E42" s="194" t="s">
+        <v>549</v>
+      </c>
+      <c r="F42" s="252"/>
+      <c r="G42" s="253"/>
+      <c r="H42" s="254" t="s">
+        <v>553</v>
+      </c>
+      <c r="I42" s="195" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="198" customFormat="1">
+      <c r="A43" s="325"/>
+      <c r="B43" s="328"/>
+      <c r="C43" s="308" t="s">
+        <v>558</v>
+      </c>
+      <c r="D43" s="309"/>
+      <c r="E43" s="310"/>
+      <c r="F43" s="305" t="s">
+        <v>558</v>
+      </c>
+      <c r="G43" s="306"/>
+      <c r="H43" s="307"/>
+      <c r="I43" s="197"/>
+    </row>
+    <row r="44" spans="1:9" s="198" customFormat="1">
+      <c r="A44" s="325"/>
+      <c r="B44" s="328"/>
+      <c r="C44" s="199"/>
+      <c r="D44" s="200"/>
+      <c r="E44" s="201"/>
+      <c r="F44" s="255"/>
+      <c r="G44" s="256"/>
+      <c r="H44" s="257"/>
+      <c r="I44" s="197"/>
+    </row>
+    <row r="45" spans="1:9" s="198" customFormat="1">
+      <c r="A45" s="325"/>
+      <c r="B45" s="328"/>
+      <c r="C45" s="199"/>
+      <c r="D45" s="200"/>
+      <c r="E45" s="201"/>
+      <c r="F45" s="255"/>
+      <c r="G45" s="256"/>
+      <c r="H45" s="257"/>
+      <c r="I45" s="197"/>
+    </row>
+    <row r="46" spans="1:9" s="198" customFormat="1">
+      <c r="A46" s="325"/>
+      <c r="B46" s="328"/>
+      <c r="C46" s="199"/>
+      <c r="D46" s="200"/>
+      <c r="E46" s="201"/>
+      <c r="F46" s="255"/>
+      <c r="G46" s="256"/>
+      <c r="H46" s="257"/>
+      <c r="I46" s="197"/>
+    </row>
+    <row r="47" spans="1:9" s="198" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A47" s="326"/>
+      <c r="B47" s="329"/>
+      <c r="C47" s="202"/>
+      <c r="D47" s="203"/>
+      <c r="E47" s="204"/>
+      <c r="F47" s="258"/>
+      <c r="G47" s="259"/>
+      <c r="H47" s="260"/>
+      <c r="I47" s="205"/>
+    </row>
+    <row r="48" spans="1:9" s="95" customFormat="1">
+      <c r="A48" s="106" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48" s="110" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="103"/>
+      <c r="D48" s="104" t="s">
+        <v>217</v>
+      </c>
+      <c r="E48" s="151"/>
+      <c r="F48" s="240"/>
+      <c r="G48" s="241" t="s">
         <v>481</v>
       </c>
-      <c r="H35" s="179" t="s">
-        <v>553</v>
-      </c>
-      <c r="I35" s="98"/>
-    </row>
-    <row r="36" spans="1:9" s="12" customFormat="1">
-      <c r="A36" s="271"/>
-      <c r="B36" s="277"/>
-      <c r="C36" s="199" t="s">
-        <v>399</v>
-      </c>
-      <c r="D36" s="216" t="s">
-        <v>319</v>
-      </c>
-      <c r="E36" s="220"/>
-      <c r="F36" s="273" t="s">
-        <v>541</v>
-      </c>
-      <c r="G36" s="274"/>
-      <c r="H36" s="275"/>
-      <c r="I36" s="217"/>
-    </row>
-    <row r="37" spans="1:9" s="12" customFormat="1">
-      <c r="A37" s="271"/>
-      <c r="B37" s="277"/>
-      <c r="C37" s="215"/>
-      <c r="D37" s="216" t="s">
-        <v>277</v>
-      </c>
-      <c r="E37" s="220"/>
-      <c r="F37" s="221"/>
-      <c r="G37" s="222"/>
-      <c r="H37" s="223"/>
-      <c r="I37" s="217"/>
-    </row>
-    <row r="38" spans="1:9" s="12" customFormat="1">
-      <c r="A38" s="271"/>
-      <c r="B38" s="277"/>
-      <c r="C38" s="215"/>
-      <c r="D38" s="216" t="s">
-        <v>232</v>
-      </c>
-      <c r="E38" s="220"/>
-      <c r="F38" s="221"/>
-      <c r="G38" s="222"/>
-      <c r="H38" s="223"/>
-      <c r="I38" s="217"/>
-    </row>
-    <row r="39" spans="1:9" s="12" customFormat="1">
-      <c r="A39" s="271"/>
-      <c r="B39" s="277"/>
-      <c r="C39" s="215"/>
-      <c r="D39" s="216" t="s">
-        <v>317</v>
-      </c>
-      <c r="E39" s="220"/>
-      <c r="F39" s="221"/>
-      <c r="G39" s="222"/>
-      <c r="H39" s="223"/>
-      <c r="I39" s="217"/>
-    </row>
-    <row r="40" spans="1:9" s="12" customFormat="1">
-      <c r="A40" s="271"/>
-      <c r="B40" s="277"/>
-      <c r="C40" s="215"/>
-      <c r="D40" s="216" t="s">
-        <v>275</v>
-      </c>
-      <c r="E40" s="220"/>
-      <c r="F40" s="221"/>
-      <c r="G40" s="222"/>
-      <c r="H40" s="223"/>
-      <c r="I40" s="217"/>
-    </row>
-    <row r="41" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A41" s="272"/>
-      <c r="B41" s="278"/>
-      <c r="C41" s="290" t="s">
-        <v>550</v>
-      </c>
-      <c r="D41" s="291"/>
-      <c r="E41" s="291"/>
-      <c r="F41" s="292" t="s">
-        <v>550</v>
-      </c>
-      <c r="G41" s="293"/>
-      <c r="H41" s="294"/>
-      <c r="I41" s="92"/>
-    </row>
-    <row r="42" spans="1:9" s="231" customFormat="1">
-      <c r="A42" s="279" t="s">
-        <v>18</v>
-      </c>
-      <c r="B42" s="282" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" s="224"/>
-      <c r="D42" s="225"/>
-      <c r="E42" s="226" t="s">
-        <v>549</v>
-      </c>
-      <c r="F42" s="227"/>
-      <c r="G42" s="228"/>
-      <c r="H42" s="229" t="s">
-        <v>553</v>
-      </c>
-      <c r="I42" s="230" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" s="233" customFormat="1">
-      <c r="A43" s="280"/>
-      <c r="B43" s="283"/>
-      <c r="C43" s="263" t="s">
-        <v>558</v>
-      </c>
-      <c r="D43" s="264"/>
-      <c r="E43" s="265"/>
-      <c r="F43" s="260" t="s">
-        <v>558</v>
-      </c>
-      <c r="G43" s="261"/>
-      <c r="H43" s="262"/>
-      <c r="I43" s="232"/>
-    </row>
-    <row r="44" spans="1:9" s="233" customFormat="1">
-      <c r="A44" s="280"/>
-      <c r="B44" s="283"/>
-      <c r="C44" s="234"/>
-      <c r="D44" s="235"/>
-      <c r="E44" s="236"/>
-      <c r="F44" s="237"/>
-      <c r="G44" s="238"/>
-      <c r="H44" s="239"/>
-      <c r="I44" s="232"/>
-    </row>
-    <row r="45" spans="1:9" s="233" customFormat="1">
-      <c r="A45" s="280"/>
-      <c r="B45" s="283"/>
-      <c r="C45" s="234"/>
-      <c r="D45" s="235"/>
-      <c r="E45" s="236"/>
-      <c r="F45" s="237"/>
-      <c r="G45" s="238"/>
-      <c r="H45" s="239"/>
-      <c r="I45" s="232"/>
-    </row>
-    <row r="46" spans="1:9" s="233" customFormat="1">
-      <c r="A46" s="280"/>
-      <c r="B46" s="283"/>
-      <c r="C46" s="234"/>
-      <c r="D46" s="235"/>
-      <c r="E46" s="236"/>
-      <c r="F46" s="237"/>
-      <c r="G46" s="238"/>
-      <c r="H46" s="239"/>
-      <c r="I46" s="232"/>
-    </row>
-    <row r="47" spans="1:9" s="233" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A47" s="281"/>
-      <c r="B47" s="284"/>
-      <c r="C47" s="240"/>
-      <c r="D47" s="241"/>
-      <c r="E47" s="242"/>
-      <c r="F47" s="243"/>
-      <c r="G47" s="244"/>
-      <c r="H47" s="245"/>
-      <c r="I47" s="246"/>
-    </row>
-    <row r="48" spans="1:9" s="97" customFormat="1">
-      <c r="A48" s="108" t="s">
-        <v>19</v>
-      </c>
-      <c r="B48" s="112" t="s">
-        <v>50</v>
-      </c>
-      <c r="C48" s="105"/>
-      <c r="D48" s="106" t="s">
-        <v>217</v>
-      </c>
-      <c r="E48" s="154"/>
-      <c r="F48" s="172"/>
-      <c r="G48" s="173"/>
-      <c r="H48" s="174"/>
-      <c r="I48" s="104"/>
-    </row>
-    <row r="49" spans="1:9" s="214" customFormat="1">
-      <c r="A49" s="110"/>
-      <c r="B49" s="114"/>
-      <c r="C49" s="90"/>
-      <c r="D49" s="91" t="s">
+      <c r="H48" s="242"/>
+      <c r="I48" s="102"/>
+    </row>
+    <row r="49" spans="1:9" s="185" customFormat="1">
+      <c r="A49" s="108"/>
+      <c r="B49" s="112"/>
+      <c r="C49" s="88"/>
+      <c r="D49" s="89" t="s">
         <v>302</v>
       </c>
-      <c r="E49" s="151"/>
-      <c r="F49" s="183"/>
-      <c r="G49" s="165"/>
-      <c r="H49" s="184"/>
+      <c r="E49" s="149"/>
+      <c r="F49" s="231"/>
+      <c r="G49" s="225"/>
+      <c r="H49" s="227"/>
       <c r="I49" s="9"/>
     </row>
-    <row r="50" spans="1:9" s="214" customFormat="1">
-      <c r="A50" s="110"/>
-      <c r="B50" s="114"/>
-      <c r="C50" s="90"/>
-      <c r="D50" s="91" t="s">
+    <row r="50" spans="1:9" s="185" customFormat="1">
+      <c r="A50" s="108"/>
+      <c r="B50" s="112"/>
+      <c r="C50" s="88"/>
+      <c r="D50" s="89" t="s">
         <v>260</v>
       </c>
-      <c r="E50" s="151"/>
-      <c r="F50" s="183"/>
-      <c r="G50" s="165"/>
-      <c r="H50" s="184"/>
+      <c r="E50" s="149"/>
+      <c r="F50" s="231"/>
+      <c r="G50" s="225"/>
+      <c r="H50" s="227"/>
       <c r="I50" s="9"/>
     </row>
-    <row r="51" spans="1:9" s="214" customFormat="1">
-      <c r="A51" s="110"/>
-      <c r="B51" s="114"/>
-      <c r="C51" s="90"/>
-      <c r="D51" s="91" t="s">
+    <row r="51" spans="1:9" s="185" customFormat="1">
+      <c r="A51" s="108"/>
+      <c r="B51" s="112"/>
+      <c r="C51" s="88"/>
+      <c r="D51" s="89" t="s">
         <v>392</v>
       </c>
-      <c r="E51" s="151"/>
-      <c r="F51" s="183"/>
-      <c r="G51" s="165"/>
-      <c r="H51" s="184"/>
+      <c r="E51" s="149"/>
+      <c r="F51" s="231"/>
+      <c r="G51" s="225"/>
+      <c r="H51" s="227"/>
       <c r="I51" s="9"/>
     </row>
-    <row r="52" spans="1:9" s="214" customFormat="1">
-      <c r="A52" s="110"/>
-      <c r="B52" s="114"/>
-      <c r="C52" s="90"/>
-      <c r="D52" s="91" t="s">
+    <row r="52" spans="1:9" s="185" customFormat="1">
+      <c r="A52" s="108"/>
+      <c r="B52" s="112"/>
+      <c r="C52" s="88"/>
+      <c r="D52" s="89" t="s">
         <v>401</v>
       </c>
-      <c r="E52" s="151"/>
-      <c r="F52" s="183"/>
-      <c r="G52" s="165"/>
-      <c r="H52" s="184"/>
+      <c r="E52" s="149"/>
+      <c r="F52" s="231"/>
+      <c r="G52" s="225"/>
+      <c r="H52" s="227"/>
       <c r="I52" s="9"/>
     </row>
-    <row r="53" spans="1:9" s="214" customFormat="1">
-      <c r="A53" s="110"/>
-      <c r="B53" s="114"/>
-      <c r="C53" s="90"/>
-      <c r="D53" s="91"/>
-      <c r="E53" s="151"/>
-      <c r="F53" s="183"/>
-      <c r="G53" s="165"/>
-      <c r="H53" s="184"/>
+    <row r="53" spans="1:9" s="185" customFormat="1">
+      <c r="A53" s="108"/>
+      <c r="B53" s="112"/>
+      <c r="C53" s="88"/>
+      <c r="D53" s="89"/>
+      <c r="E53" s="149"/>
+      <c r="F53" s="231"/>
+      <c r="G53" s="225"/>
+      <c r="H53" s="227"/>
       <c r="I53" s="9"/>
     </row>
-    <row r="54" spans="1:9" s="213" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A54" s="204"/>
-      <c r="B54" s="205"/>
-      <c r="C54" s="206"/>
-      <c r="D54" s="207"/>
-      <c r="E54" s="208"/>
-      <c r="F54" s="209"/>
-      <c r="G54" s="210"/>
-      <c r="H54" s="211"/>
-      <c r="I54" s="212"/>
-    </row>
-    <row r="55" spans="1:9" s="117" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A55" s="134" t="s">
+    <row r="54" spans="1:9" s="184" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A54" s="178"/>
+      <c r="B54" s="179"/>
+      <c r="C54" s="180"/>
+      <c r="D54" s="181"/>
+      <c r="E54" s="182"/>
+      <c r="F54" s="243"/>
+      <c r="G54" s="244"/>
+      <c r="H54" s="245"/>
+      <c r="I54" s="183"/>
+    </row>
+    <row r="55" spans="1:9" s="115" customFormat="1">
+      <c r="A55" s="132" t="s">
         <v>20</v>
       </c>
-      <c r="B55" s="135" t="s">
+      <c r="B55" s="133" t="s">
         <v>51</v>
       </c>
-      <c r="C55" s="136"/>
-      <c r="D55" s="137"/>
-      <c r="E55" s="155"/>
-      <c r="F55" s="169"/>
-      <c r="G55" s="170"/>
-      <c r="H55" s="171"/>
-      <c r="I55" s="138"/>
-    </row>
-    <row r="56" spans="1:9" s="103" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A56" s="109" t="s">
+      <c r="C55" s="134"/>
+      <c r="D55" s="135"/>
+      <c r="E55" s="152"/>
+      <c r="F55" s="246"/>
+      <c r="G55" s="247"/>
+      <c r="H55" s="248"/>
+      <c r="I55" s="136"/>
+    </row>
+    <row r="56" spans="1:9" s="290" customFormat="1">
+      <c r="A56" s="288"/>
+      <c r="B56" s="289"/>
+      <c r="C56" s="120"/>
+      <c r="D56" s="117"/>
+      <c r="E56" s="150"/>
+      <c r="F56" s="234"/>
+      <c r="G56" s="230"/>
+      <c r="H56" s="222"/>
+      <c r="I56" s="118"/>
+    </row>
+    <row r="57" spans="1:9" s="290" customFormat="1">
+      <c r="A57" s="288"/>
+      <c r="B57" s="289"/>
+      <c r="C57" s="120"/>
+      <c r="D57" s="117"/>
+      <c r="E57" s="150"/>
+      <c r="F57" s="234"/>
+      <c r="G57" s="230"/>
+      <c r="H57" s="222"/>
+      <c r="I57" s="118"/>
+    </row>
+    <row r="58" spans="1:9" s="290" customFormat="1">
+      <c r="A58" s="288"/>
+      <c r="B58" s="289"/>
+      <c r="C58" s="120"/>
+      <c r="D58" s="117"/>
+      <c r="E58" s="150"/>
+      <c r="F58" s="234"/>
+      <c r="G58" s="230"/>
+      <c r="H58" s="222"/>
+      <c r="I58" s="118"/>
+    </row>
+    <row r="59" spans="1:9" s="290" customFormat="1">
+      <c r="A59" s="288"/>
+      <c r="B59" s="289"/>
+      <c r="C59" s="120"/>
+      <c r="D59" s="117"/>
+      <c r="E59" s="150"/>
+      <c r="F59" s="234"/>
+      <c r="G59" s="230"/>
+      <c r="H59" s="222"/>
+      <c r="I59" s="118"/>
+    </row>
+    <row r="60" spans="1:9" s="287" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A60" s="278"/>
+      <c r="B60" s="279"/>
+      <c r="C60" s="280"/>
+      <c r="D60" s="281"/>
+      <c r="E60" s="282"/>
+      <c r="F60" s="283"/>
+      <c r="G60" s="284"/>
+      <c r="H60" s="285"/>
+      <c r="I60" s="286"/>
+    </row>
+    <row r="61" spans="1:9" s="101" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A61" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="B56" s="113" t="s">
+      <c r="B61" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="C56" s="99"/>
-      <c r="D56" s="100"/>
-      <c r="E56" s="101"/>
-      <c r="F56" s="160"/>
-      <c r="G56" s="100"/>
-      <c r="H56" s="101"/>
-      <c r="I56" s="102" t="s">
+      <c r="C61" s="97"/>
+      <c r="D61" s="98"/>
+      <c r="E61" s="99"/>
+      <c r="F61" s="156"/>
+      <c r="G61" s="98"/>
+      <c r="H61" s="99"/>
+      <c r="I61" s="100" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="117" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A57" s="134" t="s">
+    <row r="62" spans="1:9" s="115" customFormat="1">
+      <c r="A62" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="B57" s="135" t="s">
+      <c r="B62" s="133" t="s">
         <v>54</v>
       </c>
-      <c r="C57" s="136"/>
-      <c r="D57" s="137"/>
-      <c r="E57" s="155"/>
-      <c r="F57" s="169"/>
-      <c r="G57" s="170"/>
-      <c r="H57" s="171"/>
-      <c r="I57" s="138"/>
-    </row>
-    <row r="58" spans="1:9" s="97" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A58" s="108" t="s">
+      <c r="C62" s="134"/>
+      <c r="D62" s="135"/>
+      <c r="E62" s="152"/>
+      <c r="F62" s="246"/>
+      <c r="G62" s="247"/>
+      <c r="H62" s="248"/>
+      <c r="I62" s="136"/>
+    </row>
+    <row r="63" spans="1:9" s="290" customFormat="1">
+      <c r="A63" s="288"/>
+      <c r="B63" s="289"/>
+      <c r="C63" s="120"/>
+      <c r="D63" s="117"/>
+      <c r="E63" s="150"/>
+      <c r="F63" s="234"/>
+      <c r="G63" s="230"/>
+      <c r="H63" s="222"/>
+      <c r="I63" s="118"/>
+    </row>
+    <row r="64" spans="1:9" s="290" customFormat="1">
+      <c r="A64" s="288"/>
+      <c r="B64" s="289"/>
+      <c r="C64" s="120"/>
+      <c r="D64" s="117"/>
+      <c r="E64" s="150"/>
+      <c r="F64" s="234"/>
+      <c r="G64" s="230"/>
+      <c r="H64" s="222"/>
+      <c r="I64" s="118"/>
+    </row>
+    <row r="65" spans="1:9" s="290" customFormat="1">
+      <c r="A65" s="288"/>
+      <c r="B65" s="289"/>
+      <c r="C65" s="120"/>
+      <c r="D65" s="117"/>
+      <c r="E65" s="150"/>
+      <c r="F65" s="234"/>
+      <c r="G65" s="230"/>
+      <c r="H65" s="222"/>
+      <c r="I65" s="118"/>
+    </row>
+    <row r="66" spans="1:9" s="290" customFormat="1">
+      <c r="A66" s="288"/>
+      <c r="B66" s="289"/>
+      <c r="C66" s="120"/>
+      <c r="D66" s="117"/>
+      <c r="E66" s="150"/>
+      <c r="F66" s="234"/>
+      <c r="G66" s="230"/>
+      <c r="H66" s="222"/>
+      <c r="I66" s="118"/>
+    </row>
+    <row r="67" spans="1:9" s="287" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A67" s="278"/>
+      <c r="B67" s="279"/>
+      <c r="C67" s="280"/>
+      <c r="D67" s="281"/>
+      <c r="E67" s="282"/>
+      <c r="F67" s="283"/>
+      <c r="G67" s="284"/>
+      <c r="H67" s="285"/>
+      <c r="I67" s="286"/>
+    </row>
+    <row r="68" spans="1:9" s="95" customFormat="1">
+      <c r="A68" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="B58" s="112" t="s">
+      <c r="B68" s="110" t="s">
         <v>53</v>
       </c>
-      <c r="C58" s="105"/>
-      <c r="D58" s="106"/>
-      <c r="E58" s="154"/>
-      <c r="F58" s="172"/>
-      <c r="G58" s="173"/>
-      <c r="H58" s="174"/>
-      <c r="I58" s="104"/>
-    </row>
-    <row r="59" spans="1:9" s="117" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A59" s="134" t="s">
+      <c r="C68" s="103"/>
+      <c r="D68" s="104"/>
+      <c r="E68" s="151"/>
+      <c r="F68" s="240"/>
+      <c r="G68" s="241"/>
+      <c r="H68" s="242"/>
+      <c r="I68" s="102"/>
+    </row>
+    <row r="69" spans="1:9" s="185" customFormat="1">
+      <c r="A69" s="108"/>
+      <c r="B69" s="112"/>
+      <c r="C69" s="88"/>
+      <c r="D69" s="89"/>
+      <c r="E69" s="149"/>
+      <c r="F69" s="231"/>
+      <c r="G69" s="225"/>
+      <c r="H69" s="227"/>
+      <c r="I69" s="9"/>
+    </row>
+    <row r="70" spans="1:9" s="185" customFormat="1">
+      <c r="A70" s="108"/>
+      <c r="B70" s="112"/>
+      <c r="C70" s="88"/>
+      <c r="D70" s="89"/>
+      <c r="E70" s="149"/>
+      <c r="F70" s="231"/>
+      <c r="G70" s="225"/>
+      <c r="H70" s="227"/>
+      <c r="I70" s="9"/>
+    </row>
+    <row r="71" spans="1:9" s="185" customFormat="1">
+      <c r="A71" s="108"/>
+      <c r="B71" s="112"/>
+      <c r="C71" s="88"/>
+      <c r="D71" s="89"/>
+      <c r="E71" s="149"/>
+      <c r="F71" s="231"/>
+      <c r="G71" s="225"/>
+      <c r="H71" s="227"/>
+      <c r="I71" s="9"/>
+    </row>
+    <row r="72" spans="1:9" s="185" customFormat="1">
+      <c r="A72" s="108"/>
+      <c r="B72" s="112"/>
+      <c r="C72" s="88"/>
+      <c r="D72" s="89"/>
+      <c r="E72" s="149"/>
+      <c r="F72" s="231"/>
+      <c r="G72" s="225"/>
+      <c r="H72" s="227"/>
+      <c r="I72" s="9"/>
+    </row>
+    <row r="73" spans="1:9" s="12" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A73" s="216"/>
+      <c r="B73" s="217"/>
+      <c r="C73" s="261"/>
+      <c r="D73" s="262"/>
+      <c r="E73" s="263"/>
+      <c r="F73" s="264"/>
+      <c r="G73" s="265"/>
+      <c r="H73" s="266"/>
+      <c r="I73" s="267"/>
+    </row>
+    <row r="74" spans="1:9" s="115" customFormat="1">
+      <c r="A74" s="132" t="s">
         <v>24</v>
       </c>
-      <c r="B59" s="135" t="s">
+      <c r="B74" s="133" t="s">
         <v>52</v>
       </c>
-      <c r="C59" s="136"/>
-      <c r="D59" s="137"/>
-      <c r="E59" s="155"/>
-      <c r="F59" s="169"/>
-      <c r="G59" s="170"/>
-      <c r="H59" s="171"/>
-      <c r="I59" s="138"/>
-    </row>
-    <row r="60" spans="1:9" s="97" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A60" s="108" t="s">
+      <c r="C74" s="134"/>
+      <c r="D74" s="135"/>
+      <c r="E74" s="152"/>
+      <c r="F74" s="246"/>
+      <c r="G74" s="247"/>
+      <c r="H74" s="248"/>
+      <c r="I74" s="136"/>
+    </row>
+    <row r="75" spans="1:9" s="290" customFormat="1">
+      <c r="A75" s="288"/>
+      <c r="B75" s="289"/>
+      <c r="C75" s="120"/>
+      <c r="D75" s="117"/>
+      <c r="E75" s="150"/>
+      <c r="F75" s="234"/>
+      <c r="G75" s="230"/>
+      <c r="H75" s="222"/>
+      <c r="I75" s="118"/>
+    </row>
+    <row r="76" spans="1:9" s="290" customFormat="1">
+      <c r="A76" s="288"/>
+      <c r="B76" s="289"/>
+      <c r="C76" s="120"/>
+      <c r="D76" s="117"/>
+      <c r="E76" s="150"/>
+      <c r="F76" s="234"/>
+      <c r="G76" s="230"/>
+      <c r="H76" s="222"/>
+      <c r="I76" s="118"/>
+    </row>
+    <row r="77" spans="1:9" s="290" customFormat="1">
+      <c r="A77" s="288"/>
+      <c r="B77" s="289"/>
+      <c r="C77" s="120"/>
+      <c r="D77" s="117"/>
+      <c r="E77" s="150"/>
+      <c r="F77" s="234"/>
+      <c r="G77" s="230"/>
+      <c r="H77" s="222"/>
+      <c r="I77" s="118"/>
+    </row>
+    <row r="78" spans="1:9" s="290" customFormat="1">
+      <c r="A78" s="288"/>
+      <c r="B78" s="289"/>
+      <c r="C78" s="120"/>
+      <c r="D78" s="117"/>
+      <c r="E78" s="150"/>
+      <c r="F78" s="234"/>
+      <c r="G78" s="230"/>
+      <c r="H78" s="222"/>
+      <c r="I78" s="118"/>
+    </row>
+    <row r="79" spans="1:9" s="287" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A79" s="278"/>
+      <c r="B79" s="279"/>
+      <c r="C79" s="280"/>
+      <c r="D79" s="281"/>
+      <c r="E79" s="282"/>
+      <c r="F79" s="283"/>
+      <c r="G79" s="284"/>
+      <c r="H79" s="285"/>
+      <c r="I79" s="286"/>
+    </row>
+    <row r="80" spans="1:9" s="95" customFormat="1">
+      <c r="A80" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="B60" s="112" t="s">
+      <c r="B80" s="110" t="s">
         <v>56</v>
       </c>
-      <c r="C60" s="105"/>
-      <c r="D60" s="106"/>
-      <c r="E60" s="154"/>
-      <c r="F60" s="172"/>
-      <c r="G60" s="173"/>
-      <c r="H60" s="174"/>
-      <c r="I60" s="104"/>
-    </row>
-    <row r="61" spans="1:9" s="117" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A61" s="134" t="s">
+      <c r="C80" s="103"/>
+      <c r="D80" s="104"/>
+      <c r="E80" s="151"/>
+      <c r="F80" s="240"/>
+      <c r="G80" s="241"/>
+      <c r="H80" s="242"/>
+      <c r="I80" s="102"/>
+    </row>
+    <row r="81" spans="1:9" s="185" customFormat="1">
+      <c r="A81" s="108"/>
+      <c r="B81" s="112"/>
+      <c r="C81" s="88"/>
+      <c r="D81" s="89"/>
+      <c r="E81" s="149"/>
+      <c r="F81" s="231"/>
+      <c r="G81" s="225"/>
+      <c r="H81" s="227"/>
+      <c r="I81" s="9"/>
+    </row>
+    <row r="82" spans="1:9" s="185" customFormat="1">
+      <c r="A82" s="108"/>
+      <c r="B82" s="112"/>
+      <c r="C82" s="88"/>
+      <c r="D82" s="89"/>
+      <c r="E82" s="149"/>
+      <c r="F82" s="231"/>
+      <c r="G82" s="225"/>
+      <c r="H82" s="227"/>
+      <c r="I82" s="9"/>
+    </row>
+    <row r="83" spans="1:9" s="185" customFormat="1">
+      <c r="A83" s="108"/>
+      <c r="B83" s="112"/>
+      <c r="C83" s="88"/>
+      <c r="D83" s="89"/>
+      <c r="E83" s="149"/>
+      <c r="F83" s="231"/>
+      <c r="G83" s="225"/>
+      <c r="H83" s="227"/>
+      <c r="I83" s="9"/>
+    </row>
+    <row r="84" spans="1:9" s="185" customFormat="1">
+      <c r="A84" s="108"/>
+      <c r="B84" s="112"/>
+      <c r="C84" s="88"/>
+      <c r="D84" s="89"/>
+      <c r="E84" s="149"/>
+      <c r="F84" s="231"/>
+      <c r="G84" s="225"/>
+      <c r="H84" s="227"/>
+      <c r="I84" s="9"/>
+    </row>
+    <row r="85" spans="1:9" s="12" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A85" s="216"/>
+      <c r="B85" s="217"/>
+      <c r="C85" s="261"/>
+      <c r="D85" s="262"/>
+      <c r="E85" s="263"/>
+      <c r="F85" s="264"/>
+      <c r="G85" s="265"/>
+      <c r="H85" s="266"/>
+      <c r="I85" s="267"/>
+    </row>
+    <row r="86" spans="1:9" s="115" customFormat="1">
+      <c r="A86" s="132" t="s">
         <v>26</v>
       </c>
-      <c r="B61" s="135" t="s">
+      <c r="B86" s="133" t="s">
         <v>57</v>
       </c>
-      <c r="C61" s="136"/>
-      <c r="D61" s="137"/>
-      <c r="E61" s="155"/>
-      <c r="F61" s="169"/>
-      <c r="G61" s="170"/>
-      <c r="H61" s="171"/>
-      <c r="I61" s="138"/>
-    </row>
-    <row r="62" spans="1:9" s="97" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A62" s="108" t="s">
+      <c r="C86" s="134"/>
+      <c r="D86" s="135"/>
+      <c r="E86" s="152"/>
+      <c r="F86" s="246"/>
+      <c r="G86" s="247"/>
+      <c r="H86" s="248"/>
+      <c r="I86" s="136"/>
+    </row>
+    <row r="87" spans="1:9" s="290" customFormat="1">
+      <c r="A87" s="288"/>
+      <c r="B87" s="289"/>
+      <c r="C87" s="120"/>
+      <c r="D87" s="117"/>
+      <c r="E87" s="150"/>
+      <c r="F87" s="234"/>
+      <c r="G87" s="230"/>
+      <c r="H87" s="222"/>
+      <c r="I87" s="118"/>
+    </row>
+    <row r="88" spans="1:9" s="290" customFormat="1">
+      <c r="A88" s="288"/>
+      <c r="B88" s="289"/>
+      <c r="C88" s="120"/>
+      <c r="D88" s="117"/>
+      <c r="E88" s="150"/>
+      <c r="F88" s="234"/>
+      <c r="G88" s="230"/>
+      <c r="H88" s="222"/>
+      <c r="I88" s="118"/>
+    </row>
+    <row r="89" spans="1:9" s="290" customFormat="1">
+      <c r="A89" s="288"/>
+      <c r="B89" s="289"/>
+      <c r="C89" s="120"/>
+      <c r="D89" s="117"/>
+      <c r="E89" s="150"/>
+      <c r="F89" s="234"/>
+      <c r="G89" s="230"/>
+      <c r="H89" s="222"/>
+      <c r="I89" s="118"/>
+    </row>
+    <row r="90" spans="1:9" s="290" customFormat="1">
+      <c r="A90" s="288"/>
+      <c r="B90" s="289"/>
+      <c r="C90" s="120"/>
+      <c r="D90" s="117"/>
+      <c r="E90" s="150"/>
+      <c r="F90" s="234"/>
+      <c r="G90" s="230"/>
+      <c r="H90" s="222"/>
+      <c r="I90" s="118"/>
+    </row>
+    <row r="91" spans="1:9" s="287" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A91" s="278"/>
+      <c r="B91" s="279"/>
+      <c r="C91" s="280"/>
+      <c r="D91" s="281"/>
+      <c r="E91" s="282"/>
+      <c r="F91" s="283"/>
+      <c r="G91" s="284"/>
+      <c r="H91" s="285"/>
+      <c r="I91" s="286"/>
+    </row>
+    <row r="92" spans="1:9" s="95" customFormat="1">
+      <c r="A92" s="106" t="s">
         <v>27</v>
       </c>
-      <c r="B62" s="112" t="s">
+      <c r="B92" s="110" t="s">
         <v>58</v>
       </c>
-      <c r="C62" s="105"/>
-      <c r="D62" s="106"/>
-      <c r="E62" s="154"/>
-      <c r="F62" s="172"/>
-      <c r="G62" s="173"/>
-      <c r="H62" s="174"/>
-      <c r="I62" s="104"/>
-    </row>
-    <row r="63" spans="1:9" s="117" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A63" s="134" t="s">
+      <c r="C92" s="103"/>
+      <c r="D92" s="104"/>
+      <c r="E92" s="151"/>
+      <c r="F92" s="240"/>
+      <c r="G92" s="241"/>
+      <c r="H92" s="242"/>
+      <c r="I92" s="102"/>
+    </row>
+    <row r="93" spans="1:9" s="185" customFormat="1">
+      <c r="A93" s="108"/>
+      <c r="B93" s="112"/>
+      <c r="C93" s="88"/>
+      <c r="D93" s="89"/>
+      <c r="E93" s="149"/>
+      <c r="F93" s="231"/>
+      <c r="G93" s="225"/>
+      <c r="H93" s="227"/>
+      <c r="I93" s="9"/>
+    </row>
+    <row r="94" spans="1:9" s="185" customFormat="1">
+      <c r="A94" s="108"/>
+      <c r="B94" s="112"/>
+      <c r="C94" s="88"/>
+      <c r="D94" s="89"/>
+      <c r="E94" s="149"/>
+      <c r="F94" s="231"/>
+      <c r="G94" s="225"/>
+      <c r="H94" s="227"/>
+      <c r="I94" s="9"/>
+    </row>
+    <row r="95" spans="1:9" s="185" customFormat="1">
+      <c r="A95" s="108"/>
+      <c r="B95" s="112"/>
+      <c r="C95" s="88"/>
+      <c r="D95" s="89"/>
+      <c r="E95" s="149"/>
+      <c r="F95" s="231"/>
+      <c r="G95" s="225"/>
+      <c r="H95" s="227"/>
+      <c r="I95" s="9"/>
+    </row>
+    <row r="96" spans="1:9" s="185" customFormat="1">
+      <c r="A96" s="108"/>
+      <c r="B96" s="112"/>
+      <c r="C96" s="88"/>
+      <c r="D96" s="89"/>
+      <c r="E96" s="149"/>
+      <c r="F96" s="231"/>
+      <c r="G96" s="225"/>
+      <c r="H96" s="227"/>
+      <c r="I96" s="9"/>
+    </row>
+    <row r="97" spans="1:9" s="12" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A97" s="216"/>
+      <c r="B97" s="217"/>
+      <c r="C97" s="261"/>
+      <c r="D97" s="262"/>
+      <c r="E97" s="263"/>
+      <c r="F97" s="264"/>
+      <c r="G97" s="265"/>
+      <c r="H97" s="266"/>
+      <c r="I97" s="267"/>
+    </row>
+    <row r="98" spans="1:9" s="115" customFormat="1">
+      <c r="A98" s="132" t="s">
         <v>28</v>
       </c>
-      <c r="B63" s="135" t="s">
+      <c r="B98" s="133" t="s">
         <v>59</v>
       </c>
-      <c r="C63" s="136"/>
-      <c r="D63" s="137"/>
-      <c r="E63" s="155"/>
-      <c r="F63" s="169"/>
-      <c r="G63" s="170"/>
-      <c r="H63" s="171"/>
-      <c r="I63" s="138"/>
-    </row>
-    <row r="64" spans="1:9" s="249" customFormat="1">
-      <c r="A64" s="250" t="s">
+      <c r="C98" s="134"/>
+      <c r="D98" s="135"/>
+      <c r="E98" s="152"/>
+      <c r="F98" s="246"/>
+      <c r="G98" s="247"/>
+      <c r="H98" s="248"/>
+      <c r="I98" s="136"/>
+    </row>
+    <row r="99" spans="1:9" s="290" customFormat="1">
+      <c r="A99" s="288"/>
+      <c r="B99" s="289"/>
+      <c r="C99" s="120"/>
+      <c r="D99" s="117"/>
+      <c r="E99" s="150"/>
+      <c r="F99" s="234"/>
+      <c r="G99" s="230"/>
+      <c r="H99" s="222"/>
+      <c r="I99" s="118"/>
+    </row>
+    <row r="100" spans="1:9" s="290" customFormat="1">
+      <c r="A100" s="288"/>
+      <c r="B100" s="289"/>
+      <c r="C100" s="120"/>
+      <c r="D100" s="117"/>
+      <c r="E100" s="150"/>
+      <c r="F100" s="234"/>
+      <c r="G100" s="230"/>
+      <c r="H100" s="222"/>
+      <c r="I100" s="118"/>
+    </row>
+    <row r="101" spans="1:9" s="290" customFormat="1">
+      <c r="A101" s="288"/>
+      <c r="B101" s="289"/>
+      <c r="C101" s="120"/>
+      <c r="D101" s="117"/>
+      <c r="E101" s="150"/>
+      <c r="F101" s="234"/>
+      <c r="G101" s="230"/>
+      <c r="H101" s="222"/>
+      <c r="I101" s="118"/>
+    </row>
+    <row r="102" spans="1:9" s="290" customFormat="1">
+      <c r="A102" s="288"/>
+      <c r="B102" s="289"/>
+      <c r="C102" s="120"/>
+      <c r="D102" s="117"/>
+      <c r="E102" s="150"/>
+      <c r="F102" s="234"/>
+      <c r="G102" s="230"/>
+      <c r="H102" s="222"/>
+      <c r="I102" s="118"/>
+    </row>
+    <row r="103" spans="1:9" s="287" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A103" s="278"/>
+      <c r="B103" s="279"/>
+      <c r="C103" s="280"/>
+      <c r="D103" s="281"/>
+      <c r="E103" s="282"/>
+      <c r="F103" s="283"/>
+      <c r="G103" s="284"/>
+      <c r="H103" s="285"/>
+      <c r="I103" s="286"/>
+    </row>
+    <row r="104" spans="1:9" s="208" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A104" s="209" t="s">
         <v>29</v>
       </c>
-      <c r="B64" s="251" t="s">
+      <c r="B104" s="210" t="s">
         <v>60</v>
       </c>
-      <c r="C64" s="252"/>
-      <c r="D64" s="253"/>
-      <c r="E64" s="254"/>
-      <c r="F64" s="255"/>
-      <c r="G64" s="256"/>
-      <c r="H64" s="257"/>
-      <c r="I64" s="258" t="s">
+      <c r="C104" s="211"/>
+      <c r="D104" s="212"/>
+      <c r="E104" s="213"/>
+      <c r="F104" s="249"/>
+      <c r="G104" s="250"/>
+      <c r="H104" s="251"/>
+      <c r="I104" s="214" t="s">
         <v>33</v>
       </c>
     </row>
+    <row r="105" spans="1:9" s="277" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A105" s="268"/>
+      <c r="B105" s="269"/>
+      <c r="C105" s="270"/>
+      <c r="D105" s="271"/>
+      <c r="E105" s="272"/>
+      <c r="F105" s="273"/>
+      <c r="G105" s="274"/>
+      <c r="H105" s="275"/>
+      <c r="I105" s="276"/>
+    </row>
+    <row r="106" spans="1:9" s="277" customFormat="1">
+      <c r="A106" s="268"/>
+      <c r="B106" s="269"/>
+      <c r="C106" s="270"/>
+      <c r="D106" s="271"/>
+      <c r="E106" s="272"/>
+      <c r="F106" s="273"/>
+      <c r="G106" s="274"/>
+      <c r="H106" s="275"/>
+      <c r="I106" s="276"/>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="F107" s="231"/>
+      <c r="G107" s="225"/>
+      <c r="H107" s="227"/>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="F108" s="231"/>
+      <c r="G108" s="225"/>
+      <c r="H108" s="227"/>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="F109" s="231"/>
+      <c r="G109" s="225"/>
+      <c r="H109" s="227"/>
+    </row>
+    <row r="110" spans="1:9" hidden="1">
+      <c r="F110" s="231"/>
+      <c r="G110" s="225"/>
+      <c r="H110" s="227"/>
+    </row>
+    <row r="111" spans="1:9" hidden="1">
+      <c r="F111" s="231"/>
+      <c r="G111" s="225"/>
+      <c r="H111" s="227"/>
+    </row>
+    <row r="112" spans="1:9" hidden="1">
+      <c r="F112" s="231"/>
+      <c r="G112" s="225"/>
+      <c r="H112" s="227"/>
+    </row>
+    <row r="113" spans="6:8" hidden="1">
+      <c r="F113" s="231"/>
+      <c r="G113" s="225"/>
+      <c r="H113" s="227"/>
+    </row>
+    <row r="114" spans="6:8" hidden="1">
+      <c r="F114" s="231"/>
+      <c r="G114" s="225"/>
+      <c r="H114" s="227"/>
+    </row>
+    <row r="115" spans="6:8" hidden="1">
+      <c r="F115" s="231"/>
+      <c r="G115" s="225"/>
+      <c r="H115" s="227"/>
+    </row>
+    <row r="116" spans="6:8" hidden="1">
+      <c r="F116" s="231"/>
+      <c r="G116" s="225"/>
+      <c r="H116" s="227"/>
+    </row>
+    <row r="117" spans="6:8" hidden="1">
+      <c r="F117" s="231"/>
+      <c r="G117" s="225"/>
+      <c r="H117" s="227"/>
+    </row>
+    <row r="118" spans="6:8" hidden="1">
+      <c r="F118" s="231"/>
+      <c r="G118" s="225"/>
+      <c r="H118" s="227"/>
+    </row>
+    <row r="119" spans="6:8" hidden="1">
+      <c r="F119" s="231"/>
+      <c r="G119" s="225"/>
+      <c r="H119" s="227"/>
+    </row>
+    <row r="120" spans="6:8" hidden="1">
+      <c r="F120" s="231"/>
+      <c r="G120" s="225"/>
+      <c r="H120" s="227"/>
+    </row>
+    <row r="121" spans="6:8" hidden="1">
+      <c r="F121" s="231"/>
+      <c r="G121" s="225"/>
+      <c r="H121" s="227"/>
+    </row>
+    <row r="122" spans="6:8" hidden="1">
+      <c r="F122" s="231"/>
+      <c r="G122" s="225"/>
+      <c r="H122" s="227"/>
+    </row>
+    <row r="123" spans="6:8" hidden="1">
+      <c r="F123" s="231"/>
+      <c r="G123" s="225"/>
+      <c r="H123" s="227"/>
+    </row>
+    <row r="124" spans="6:8" hidden="1">
+      <c r="F124" s="231"/>
+      <c r="G124" s="225"/>
+      <c r="H124" s="227"/>
+    </row>
+    <row r="125" spans="6:8" hidden="1">
+      <c r="F125" s="231"/>
+      <c r="G125" s="225"/>
+      <c r="H125" s="227"/>
+    </row>
+    <row r="126" spans="6:8" hidden="1">
+      <c r="F126" s="231"/>
+      <c r="G126" s="225"/>
+      <c r="H126" s="227"/>
+    </row>
+    <row r="127" spans="6:8" hidden="1">
+      <c r="F127" s="231"/>
+      <c r="G127" s="225"/>
+      <c r="H127" s="227"/>
+    </row>
+    <row r="128" spans="6:8" hidden="1">
+      <c r="F128" s="231"/>
+      <c r="G128" s="225"/>
+      <c r="H128" s="227"/>
+    </row>
+    <row r="129" spans="6:8" hidden="1">
+      <c r="F129" s="231"/>
+      <c r="G129" s="225"/>
+      <c r="H129" s="227"/>
+    </row>
+    <row r="130" spans="6:8" hidden="1">
+      <c r="F130" s="231"/>
+      <c r="G130" s="225"/>
+      <c r="H130" s="227"/>
+    </row>
+    <row r="131" spans="6:8" hidden="1">
+      <c r="F131" s="231"/>
+      <c r="G131" s="225"/>
+      <c r="H131" s="227"/>
+    </row>
+    <row r="132" spans="6:8" hidden="1">
+      <c r="F132" s="231"/>
+      <c r="G132" s="225"/>
+      <c r="H132" s="227"/>
+    </row>
+    <row r="133" spans="6:8" hidden="1">
+      <c r="F133" s="231"/>
+      <c r="G133" s="225"/>
+      <c r="H133" s="227"/>
+    </row>
+    <row r="134" spans="6:8" hidden="1">
+      <c r="F134" s="231"/>
+      <c r="G134" s="225"/>
+      <c r="H134" s="227"/>
+    </row>
+    <row r="135" spans="6:8" hidden="1">
+      <c r="F135" s="231"/>
+      <c r="G135" s="225"/>
+      <c r="H135" s="227"/>
+    </row>
+    <row r="136" spans="6:8" hidden="1">
+      <c r="F136" s="231"/>
+      <c r="G136" s="225"/>
+      <c r="H136" s="227"/>
+    </row>
+    <row r="137" spans="6:8" hidden="1">
+      <c r="F137" s="231"/>
+      <c r="G137" s="225"/>
+      <c r="H137" s="227"/>
+    </row>
+    <row r="138" spans="6:8" hidden="1">
+      <c r="F138" s="231"/>
+      <c r="G138" s="225"/>
+      <c r="H138" s="227"/>
+    </row>
+    <row r="139" spans="6:8" hidden="1"/>
   </sheetData>
   <mergeCells count="21">
     <mergeCell ref="A1:B1"/>
@@ -5085,8 +5975,8 @@
   <dimension ref="A1:N77"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -5176,7 +6066,7 @@
       <c r="K2" s="59" t="s">
         <v>554</v>
       </c>
-      <c r="L2" s="317" t="s">
+      <c r="L2" s="362" t="s">
         <v>134</v>
       </c>
     </row>
@@ -5194,7 +6084,7 @@
       <c r="I3" s="76"/>
       <c r="J3" s="76"/>
       <c r="K3" s="76"/>
-      <c r="L3" s="318"/>
+      <c r="L3" s="363"/>
     </row>
     <row r="4" spans="1:12" s="14" customFormat="1">
       <c r="A4" s="76"/>
@@ -5210,7 +6100,7 @@
       <c r="I4" s="76"/>
       <c r="J4" s="76"/>
       <c r="K4" s="76"/>
-      <c r="L4" s="318"/>
+      <c r="L4" s="363"/>
     </row>
     <row r="5" spans="1:12" s="14" customFormat="1">
       <c r="A5" s="76"/>
@@ -5226,7 +6116,7 @@
       <c r="I5" s="76"/>
       <c r="J5" s="76"/>
       <c r="K5" s="76"/>
-      <c r="L5" s="318"/>
+      <c r="L5" s="363"/>
     </row>
     <row r="6" spans="1:12" s="14" customFormat="1">
       <c r="A6" s="76"/>
@@ -5242,7 +6132,7 @@
       <c r="I6" s="76"/>
       <c r="J6" s="76"/>
       <c r="K6" s="76"/>
-      <c r="L6" s="318"/>
+      <c r="L6" s="363"/>
     </row>
     <row r="7" spans="1:12" s="14" customFormat="1">
       <c r="A7" s="76"/>
@@ -5258,7 +6148,7 @@
       <c r="I7" s="76"/>
       <c r="J7" s="76"/>
       <c r="K7" s="76"/>
-      <c r="L7" s="318"/>
+      <c r="L7" s="363"/>
     </row>
     <row r="8" spans="1:12" s="14" customFormat="1">
       <c r="A8" s="76"/>
@@ -5274,7 +6164,7 @@
       <c r="I8" s="76"/>
       <c r="J8" s="76"/>
       <c r="K8" s="76"/>
-      <c r="L8" s="318"/>
+      <c r="L8" s="363"/>
     </row>
     <row r="9" spans="1:12" s="14" customFormat="1">
       <c r="A9" s="76"/>
@@ -5290,7 +6180,7 @@
       <c r="I9" s="76"/>
       <c r="J9" s="76"/>
       <c r="K9" s="76"/>
-      <c r="L9" s="318"/>
+      <c r="L9" s="363"/>
     </row>
     <row r="10" spans="1:12" s="14" customFormat="1">
       <c r="A10" s="76"/>
@@ -5306,7 +6196,7 @@
       <c r="I10" s="76"/>
       <c r="J10" s="76"/>
       <c r="K10" s="76"/>
-      <c r="L10" s="318"/>
+      <c r="L10" s="363"/>
     </row>
     <row r="11" spans="1:12" s="14" customFormat="1">
       <c r="A11" s="76"/>
@@ -5322,7 +6212,7 @@
       <c r="I11" s="76"/>
       <c r="J11" s="76"/>
       <c r="K11" s="76"/>
-      <c r="L11" s="319"/>
+      <c r="L11" s="364"/>
     </row>
     <row r="12" spans="1:12" s="2" customFormat="1">
       <c r="A12" s="2" t="s">
@@ -5353,7 +6243,7 @@
         <v>71</v>
       </c>
       <c r="K12" s="11"/>
-      <c r="L12" s="320" t="s">
+      <c r="L12" s="365" t="s">
         <v>133</v>
       </c>
     </row>
@@ -5371,7 +6261,7 @@
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
       <c r="K13" s="17"/>
-      <c r="L13" s="321"/>
+      <c r="L13" s="366"/>
     </row>
     <row r="14" spans="1:12" s="53" customFormat="1">
       <c r="A14" s="53" t="s">
@@ -5404,7 +6294,7 @@
       <c r="K14" s="59" t="s">
         <v>200</v>
       </c>
-      <c r="L14" s="322"/>
+      <c r="L14" s="367"/>
     </row>
     <row r="15" spans="1:12" s="14" customFormat="1">
       <c r="A15" s="76"/>
@@ -5420,7 +6310,7 @@
       <c r="I15" s="76"/>
       <c r="J15" s="76"/>
       <c r="K15" s="76"/>
-      <c r="L15" s="318"/>
+      <c r="L15" s="363"/>
     </row>
     <row r="16" spans="1:12" s="14" customFormat="1">
       <c r="A16" s="76"/>
@@ -5436,7 +6326,7 @@
       <c r="I16" s="76"/>
       <c r="J16" s="76"/>
       <c r="K16" s="76"/>
-      <c r="L16" s="318"/>
+      <c r="L16" s="363"/>
     </row>
     <row r="17" spans="1:12" s="14" customFormat="1">
       <c r="A17" s="76"/>
@@ -5452,7 +6342,7 @@
       <c r="I17" s="76"/>
       <c r="J17" s="76"/>
       <c r="K17" s="76"/>
-      <c r="L17" s="318"/>
+      <c r="L17" s="363"/>
     </row>
     <row r="18" spans="1:12" s="14" customFormat="1">
       <c r="A18" s="76"/>
@@ -5468,7 +6358,7 @@
       <c r="I18" s="76"/>
       <c r="J18" s="76"/>
       <c r="K18" s="76"/>
-      <c r="L18" s="319"/>
+      <c r="L18" s="364"/>
     </row>
     <row r="19" spans="1:12" s="2" customFormat="1">
       <c r="A19" s="2" t="s">
@@ -5499,9 +6389,9 @@
         <v>73</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="L19" s="320"/>
+        <v>195</v>
+      </c>
+      <c r="L19" s="365"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="17"/>
@@ -5517,7 +6407,7 @@
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
       <c r="K20" s="17"/>
-      <c r="L20" s="321"/>
+      <c r="L20" s="366"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="17"/>
@@ -5533,7 +6423,7 @@
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
       <c r="K21" s="17"/>
-      <c r="L21" s="321"/>
+      <c r="L21" s="366"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="17"/>
@@ -5549,7 +6439,7 @@
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
       <c r="K22" s="17"/>
-      <c r="L22" s="323"/>
+      <c r="L22" s="368"/>
     </row>
     <row r="23" spans="1:12" s="53" customFormat="1">
       <c r="A23" s="53" t="s">
@@ -5580,7 +6470,7 @@
         <v>74</v>
       </c>
       <c r="K23" s="59"/>
-      <c r="L23" s="322"/>
+      <c r="L23" s="367"/>
     </row>
     <row r="24" spans="1:12" s="14" customFormat="1">
       <c r="A24" s="76"/>
@@ -5596,7 +6486,7 @@
       <c r="I24" s="76"/>
       <c r="J24" s="76"/>
       <c r="K24" s="76"/>
-      <c r="L24" s="318"/>
+      <c r="L24" s="363"/>
     </row>
     <row r="25" spans="1:12" s="14" customFormat="1">
       <c r="A25" s="76"/>
@@ -5612,7 +6502,7 @@
       <c r="I25" s="76"/>
       <c r="J25" s="76"/>
       <c r="K25" s="76"/>
-      <c r="L25" s="318"/>
+      <c r="L25" s="363"/>
     </row>
     <row r="26" spans="1:12" s="14" customFormat="1">
       <c r="A26" s="76"/>
@@ -5628,7 +6518,7 @@
       <c r="I26" s="76"/>
       <c r="J26" s="76"/>
       <c r="K26" s="76"/>
-      <c r="L26" s="319"/>
+      <c r="L26" s="364"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="2" t="s">
@@ -5887,7 +6777,7 @@
       </c>
       <c r="J34" s="53"/>
       <c r="K34" s="59" t="s">
-        <v>554</v>
+        <v>195</v>
       </c>
       <c r="L34" s="53"/>
     </row>
@@ -6349,7 +7239,7 @@
         <v>78</v>
       </c>
       <c r="K49" s="11" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="50" spans="1:12" s="14" customFormat="1">
@@ -6382,7 +7272,7 @@
       </c>
       <c r="J50" s="53"/>
       <c r="K50" s="59" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L50" s="53"/>
     </row>
@@ -6479,7 +7369,7 @@
         <v>79</v>
       </c>
       <c r="K53" s="11" t="s">
-        <v>200</v>
+        <v>563</v>
       </c>
     </row>
     <row r="54" spans="1:12" s="14" customFormat="1">
@@ -7502,8 +8392,8 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -7596,7 +8486,7 @@
       </c>
       <c r="E4" s="26"/>
       <c r="F4" s="26" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G4" s="26"/>
     </row>
@@ -7614,7 +8504,7 @@
         <v>517</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="13" customFormat="1">
@@ -7632,7 +8522,7 @@
       </c>
       <c r="E6" s="26"/>
       <c r="F6" s="26" t="s">
-        <v>200</v>
+        <v>563</v>
       </c>
       <c r="G6" s="26"/>
     </row>
@@ -7650,7 +8540,7 @@
         <v>517</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>200</v>
+        <v>563</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="13" customFormat="1">
@@ -7668,7 +8558,7 @@
       </c>
       <c r="E8" s="26"/>
       <c r="F8" s="26" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G8" s="26" t="s">
         <v>458</v>
@@ -7747,7 +8637,7 @@
       </c>
       <c r="E12" s="26"/>
       <c r="F12" s="26" t="s">
-        <v>200</v>
+        <v>563</v>
       </c>
       <c r="G12" s="26"/>
     </row>
@@ -7845,7 +8735,7 @@
       </c>
       <c r="E18" s="26"/>
       <c r="F18" s="26" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G18" s="26"/>
     </row>
@@ -7894,7 +8784,7 @@
         <v>517</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="13" customFormat="1">
@@ -8072,7 +8962,7 @@
       </c>
       <c r="E32" s="26"/>
       <c r="F32" s="26" t="s">
-        <v>200</v>
+        <v>563</v>
       </c>
       <c r="G32" s="26"/>
     </row>
@@ -8723,10 +9613,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
@@ -8739,37 +9629,49 @@
     <col min="6" max="6" width="9.140625" style="15" customWidth="1"/>
     <col min="7" max="7" width="6.5703125" style="15" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" style="15" customWidth="1"/>
-    <col min="9" max="16" width="9.140625" style="15" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="15" hidden="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="15" hidden="1"/>
+    <col min="9" max="9" width="9.140625" style="15" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="298" customWidth="1"/>
+    <col min="11" max="11" width="3.7109375" style="15" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" style="15" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="15" customWidth="1"/>
+    <col min="14" max="14" width="3.5703125" style="15" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.140625" style="15" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" style="15" hidden="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="15" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A1" s="324" t="s">
+    <row r="1" spans="1:18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A1" s="369" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="325"/>
+      <c r="B1" s="370"/>
       <c r="C1" s="15"/>
-      <c r="D1" s="324" t="s">
+      <c r="D1" s="369" t="s">
         <v>193</v>
       </c>
-      <c r="E1" s="325"/>
+      <c r="E1" s="370"/>
       <c r="F1" s="50"/>
-      <c r="G1" s="326" t="s">
+      <c r="G1" s="371" t="s">
         <v>206</v>
       </c>
-      <c r="H1" s="327"/>
+      <c r="H1" s="372"/>
       <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
+      <c r="J1" s="298"/>
+      <c r="K1" s="373" t="s">
+        <v>562</v>
+      </c>
+      <c r="L1" s="373"/>
       <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
+      <c r="N1" s="374" t="s">
+        <v>568</v>
+      </c>
+      <c r="O1" s="375"/>
       <c r="P1" s="15"/>
       <c r="Q1" s="15"/>
-    </row>
-    <row r="2" spans="1:17" customFormat="1">
+      <c r="R1" s="15"/>
+    </row>
+    <row r="2" spans="1:18" customFormat="1">
       <c r="A2" s="40" t="s">
         <v>89</v>
       </c>
@@ -8787,16 +9689,21 @@
         <v>203</v>
       </c>
       <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
+      <c r="J2" s="298"/>
+      <c r="K2" s="294"/>
+      <c r="L2" s="43" t="s">
+        <v>563</v>
+      </c>
       <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
+      <c r="N2" s="299"/>
+      <c r="O2" s="300" t="s">
+        <v>566</v>
+      </c>
       <c r="P2" s="15"/>
       <c r="Q2" s="15"/>
-    </row>
-    <row r="3" spans="1:17" customFormat="1">
+      <c r="R2" s="15"/>
+    </row>
+    <row r="3" spans="1:18" customFormat="1">
       <c r="A3" s="42" t="s">
         <v>90</v>
       </c>
@@ -8816,16 +9723,21 @@
         <v>198</v>
       </c>
       <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
+      <c r="J3" s="298"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="295" t="s">
+        <v>195</v>
+      </c>
       <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
+      <c r="N3" s="301"/>
+      <c r="O3" s="302" t="s">
+        <v>567</v>
+      </c>
       <c r="P3" s="15"/>
       <c r="Q3" s="15"/>
-    </row>
-    <row r="4" spans="1:17" customFormat="1">
+      <c r="R3" s="15"/>
+    </row>
+    <row r="4" spans="1:18" customFormat="1">
       <c r="A4" s="44" t="s">
         <v>91</v>
       </c>
@@ -8845,16 +9757,21 @@
         <v>7</v>
       </c>
       <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
+      <c r="J4" s="298"/>
+      <c r="K4" s="301"/>
+      <c r="L4" s="302" t="s">
+        <v>564</v>
+      </c>
       <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
+      <c r="N4" s="303"/>
+      <c r="O4" s="304" t="s">
+        <v>569</v>
+      </c>
       <c r="P4" s="15"/>
       <c r="Q4" s="15"/>
-    </row>
-    <row r="5" spans="1:17" customFormat="1">
+      <c r="R4" s="15"/>
+    </row>
+    <row r="5" spans="1:18" customFormat="1">
       <c r="A5" s="46" t="s">
         <v>92</v>
       </c>
@@ -8874,16 +9791,19 @@
         <v>5</v>
       </c>
       <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
+      <c r="J5" s="298"/>
+      <c r="K5" s="296"/>
+      <c r="L5" s="297" t="s">
+        <v>565</v>
+      </c>
       <c r="M5" s="15"/>
       <c r="N5" s="15"/>
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
       <c r="Q5" s="15"/>
-    </row>
-    <row r="6" spans="1:17" customFormat="1">
+      <c r="R5" s="15"/>
+    </row>
+    <row r="6" spans="1:18" customFormat="1">
       <c r="A6" s="48" t="s">
         <v>93</v>
       </c>
@@ -8903,7 +9823,7 @@
         <v>205</v>
       </c>
       <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
+      <c r="J6" s="298"/>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
@@ -8911,8 +9831,9 @@
       <c r="O6" s="15"/>
       <c r="P6" s="15"/>
       <c r="Q6" s="15"/>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6" s="15"/>
+    </row>
+    <row r="7" spans="1:18">
       <c r="D7" s="38"/>
       <c r="E7" s="39" t="s">
         <v>197</v>
@@ -8924,7 +9845,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:18">
       <c r="E8" s="15"/>
       <c r="G8" s="68" t="s">
         <v>208</v>
@@ -8933,7 +9854,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:18">
       <c r="G9" s="72" t="s">
         <v>210</v>
       </c>
@@ -8941,7 +9862,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:18">
       <c r="G10" s="74" t="s">
         <v>209</v>
       </c>
@@ -8949,12 +9870,12 @@
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="1:17"/>
-    <row r="12" spans="1:17"/>
-    <row r="13" spans="1:17"/>
-    <row r="14" spans="1:17"/>
-    <row r="15" spans="1:17"/>
-    <row r="16" spans="1:17"/>
+    <row r="11" spans="1:18"/>
+    <row r="12" spans="1:18"/>
+    <row r="13" spans="1:18"/>
+    <row r="14" spans="1:18"/>
+    <row r="15" spans="1:18"/>
+    <row r="16" spans="1:18"/>
     <row r="17"/>
     <row r="18"/>
     <row r="19"/>
@@ -8965,10 +9886,12 @@
     <row r="24" hidden="1"/>
     <row r="25" hidden="1"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:H1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Planning & Assetlist.xlsx
+++ b/Planning & Assetlist.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="580">
   <si>
     <t>Code Name</t>
   </si>
@@ -1735,18 +1735,12 @@
     <t>&lt;Mon, May16: no classes&gt;</t>
   </si>
   <si>
-    <t>Road (Straight)</t>
-  </si>
-  <si>
     <t>3D_ROAD_001</t>
   </si>
   <si>
     <t>3D_ROAD_002</t>
   </si>
   <si>
-    <t>3D_ROAD_003</t>
-  </si>
-  <si>
     <t>2D_ROAD_001</t>
   </si>
   <si>
@@ -1759,19 +1753,13 @@
     <t>2D_ROAD_002</t>
   </si>
   <si>
-    <t>4U_ROAD_003</t>
-  </si>
-  <si>
-    <t>2D_ROAD_003</t>
-  </si>
-  <si>
-    <t>Road (Curve)</t>
-  </si>
-  <si>
-    <t>Road (Corner)</t>
-  </si>
-  <si>
     <t>Holiday</t>
+  </si>
+  <si>
+    <t>Road (Main)</t>
+  </si>
+  <si>
+    <t>Road (Small)</t>
   </si>
 </sst>
 </file>
@@ -3746,6 +3734,117 @@
     <xf numFmtId="0" fontId="0" fillId="43" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3816,117 +3915,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4276,8 +4264,8 @@
   <dimension ref="A1:XFC139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
@@ -4296,10 +4284,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="67" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A1" s="332" t="s">
+      <c r="A1" s="323" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="333"/>
+      <c r="B1" s="324"/>
       <c r="C1" s="64" t="s">
         <v>60</v>
       </c>
@@ -4329,14 +4317,14 @@
       <c r="B2" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="356" t="s">
+      <c r="C2" s="310" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="357"/>
-      <c r="E2" s="357"/>
-      <c r="F2" s="357"/>
-      <c r="G2" s="357"/>
-      <c r="H2" s="358"/>
+      <c r="D2" s="311"/>
+      <c r="E2" s="311"/>
+      <c r="F2" s="311"/>
+      <c r="G2" s="311"/>
+      <c r="H2" s="312"/>
       <c r="I2" s="110"/>
     </row>
     <row r="3" spans="1:9" s="74" customFormat="1" ht="15" customHeight="1" thickBot="1">
@@ -4346,14 +4334,14 @@
       <c r="B3" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="353" t="s">
+      <c r="C3" s="307" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="354"/>
-      <c r="E3" s="354"/>
-      <c r="F3" s="354"/>
-      <c r="G3" s="354"/>
-      <c r="H3" s="355"/>
+      <c r="D3" s="308"/>
+      <c r="E3" s="308"/>
+      <c r="F3" s="308"/>
+      <c r="G3" s="308"/>
+      <c r="H3" s="309"/>
       <c r="I3" s="81"/>
     </row>
     <row r="4" spans="1:9" s="109" customFormat="1" ht="15.75" thickBot="1">
@@ -4363,46 +4351,46 @@
       <c r="B4" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="350" t="s">
+      <c r="C4" s="304" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="351"/>
-      <c r="E4" s="351"/>
-      <c r="F4" s="351"/>
-      <c r="G4" s="351"/>
-      <c r="H4" s="352"/>
+      <c r="D4" s="305"/>
+      <c r="E4" s="305"/>
+      <c r="F4" s="305"/>
+      <c r="G4" s="305"/>
+      <c r="H4" s="306"/>
       <c r="I4" s="108"/>
     </row>
     <row r="5" spans="1:9" s="183" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A5" s="322" t="s">
+      <c r="A5" s="313" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="324" t="s">
+      <c r="B5" s="315" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="344" t="s">
+      <c r="C5" s="298" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="345"/>
-      <c r="E5" s="345"/>
-      <c r="F5" s="345"/>
-      <c r="G5" s="345"/>
-      <c r="H5" s="346"/>
+      <c r="D5" s="299"/>
+      <c r="E5" s="299"/>
+      <c r="F5" s="299"/>
+      <c r="G5" s="299"/>
+      <c r="H5" s="300"/>
       <c r="I5" s="181" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="183" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A6" s="323"/>
-      <c r="B6" s="325"/>
-      <c r="C6" s="347" t="s">
+      <c r="A6" s="314"/>
+      <c r="B6" s="316"/>
+      <c r="C6" s="301" t="s">
         <v>528</v>
       </c>
-      <c r="D6" s="348"/>
-      <c r="E6" s="348"/>
-      <c r="F6" s="348"/>
-      <c r="G6" s="348"/>
-      <c r="H6" s="349"/>
+      <c r="D6" s="302"/>
+      <c r="E6" s="302"/>
+      <c r="F6" s="302"/>
+      <c r="G6" s="302"/>
+      <c r="H6" s="303"/>
       <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:9" s="120" customFormat="1" ht="15.75" thickBot="1">
@@ -4423,10 +4411,10 @@
       </c>
     </row>
     <row r="8" spans="1:9" s="74" customFormat="1">
-      <c r="A8" s="334" t="s">
+      <c r="A8" s="325" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="336" t="s">
+      <c r="B8" s="327" t="s">
         <v>43</v>
       </c>
       <c r="C8" s="73" t="s">
@@ -4452,8 +4440,8 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="335"/>
-      <c r="B9" s="337"/>
+      <c r="A9" s="326"/>
+      <c r="B9" s="328"/>
       <c r="C9" s="68"/>
       <c r="D9" s="145" t="s">
         <v>298</v>
@@ -4470,8 +4458,8 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="335"/>
-      <c r="B10" s="337"/>
+      <c r="A10" s="326"/>
+      <c r="B10" s="328"/>
       <c r="C10" s="68"/>
       <c r="D10" s="145" t="s">
         <v>256</v>
@@ -4486,8 +4474,8 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="335"/>
-      <c r="B11" s="337"/>
+      <c r="A11" s="326"/>
+      <c r="B11" s="328"/>
       <c r="C11" s="68"/>
       <c r="D11" s="69"/>
       <c r="E11" s="124" t="s">
@@ -4498,8 +4486,8 @@
       <c r="H11" s="199"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="335"/>
-      <c r="B12" s="337"/>
+      <c r="A12" s="326"/>
+      <c r="B12" s="328"/>
       <c r="C12" s="68"/>
       <c r="D12" s="69"/>
       <c r="E12" s="124" t="s">
@@ -4510,8 +4498,8 @@
       <c r="H12" s="199"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="335"/>
-      <c r="B13" s="337"/>
+      <c r="A13" s="326"/>
+      <c r="B13" s="328"/>
       <c r="C13" s="68"/>
       <c r="D13" s="69"/>
       <c r="E13" s="124" t="s">
@@ -4522,8 +4510,8 @@
       <c r="H13" s="199"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A14" s="335"/>
-      <c r="B14" s="337"/>
+      <c r="A14" s="326"/>
+      <c r="B14" s="328"/>
       <c r="C14" s="71"/>
       <c r="D14" s="72"/>
       <c r="E14" s="125" t="s">
@@ -4535,10 +4523,10 @@
       <c r="I14" s="70"/>
     </row>
     <row r="15" spans="1:9" s="94" customFormat="1">
-      <c r="A15" s="338" t="s">
+      <c r="A15" s="329" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="341" t="s">
+      <c r="B15" s="332" t="s">
         <v>44</v>
       </c>
       <c r="C15" s="92" t="s">
@@ -4562,8 +4550,8 @@
       <c r="I15" s="93"/>
     </row>
     <row r="16" spans="1:9" s="98" customFormat="1">
-      <c r="A16" s="339"/>
-      <c r="B16" s="342"/>
+      <c r="A16" s="330"/>
+      <c r="B16" s="333"/>
       <c r="C16" s="95" t="s">
         <v>194</v>
       </c>
@@ -4581,8 +4569,8 @@
       <c r="I16" s="97"/>
     </row>
     <row r="17" spans="1:9" s="98" customFormat="1">
-      <c r="A17" s="339"/>
-      <c r="B17" s="342"/>
+      <c r="A17" s="330"/>
+      <c r="B17" s="333"/>
       <c r="C17" s="95" t="s">
         <v>253</v>
       </c>
@@ -4598,8 +4586,8 @@
       <c r="I17" s="97"/>
     </row>
     <row r="18" spans="1:9" s="98" customFormat="1">
-      <c r="A18" s="339"/>
-      <c r="B18" s="342"/>
+      <c r="A18" s="330"/>
+      <c r="B18" s="333"/>
       <c r="C18" s="99"/>
       <c r="D18" s="147" t="s">
         <v>397</v>
@@ -4613,8 +4601,8 @@
       <c r="I18" s="97"/>
     </row>
     <row r="19" spans="1:9" s="98" customFormat="1">
-      <c r="A19" s="339"/>
-      <c r="B19" s="342"/>
+      <c r="A19" s="330"/>
+      <c r="B19" s="333"/>
       <c r="C19" s="99"/>
       <c r="D19" s="96"/>
       <c r="E19" s="127" t="s">
@@ -4626,8 +4614,8 @@
       <c r="I19" s="97"/>
     </row>
     <row r="20" spans="1:9" s="98" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A20" s="340"/>
-      <c r="B20" s="343"/>
+      <c r="A20" s="331"/>
+      <c r="B20" s="334"/>
       <c r="C20" s="100"/>
       <c r="D20" s="101"/>
       <c r="E20" s="190" t="s">
@@ -4855,10 +4843,10 @@
       <c r="I34" s="165"/>
     </row>
     <row r="35" spans="1:9" s="74" customFormat="1">
-      <c r="A35" s="326" t="s">
+      <c r="A35" s="317" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="329" t="s">
+      <c r="B35" s="320" t="s">
         <v>47</v>
       </c>
       <c r="C35" s="139" t="s">
@@ -4882,8 +4870,8 @@
       </c>
     </row>
     <row r="36" spans="1:9" s="12" customFormat="1" ht="15" customHeight="1">
-      <c r="A36" s="327"/>
-      <c r="B36" s="330"/>
+      <c r="A36" s="318"/>
+      <c r="B36" s="321"/>
       <c r="C36" s="152" t="s">
         <v>394</v>
       </c>
@@ -4891,7 +4879,7 @@
         <v>314</v>
       </c>
       <c r="E36" s="270" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F36" s="271"/>
       <c r="G36" s="198"/>
@@ -4903,14 +4891,14 @@
       </c>
     </row>
     <row r="37" spans="1:9" s="12" customFormat="1">
-      <c r="A37" s="327"/>
-      <c r="B37" s="330"/>
+      <c r="A37" s="318"/>
+      <c r="B37" s="321"/>
       <c r="C37" s="162"/>
       <c r="D37" s="278" t="s">
         <v>272</v>
       </c>
       <c r="E37" s="166" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="F37" s="209"/>
       <c r="G37" s="274"/>
@@ -4920,14 +4908,14 @@
       </c>
     </row>
     <row r="38" spans="1:9" s="12" customFormat="1">
-      <c r="A38" s="327"/>
-      <c r="B38" s="330"/>
+      <c r="A38" s="318"/>
+      <c r="B38" s="321"/>
       <c r="C38" s="162"/>
       <c r="D38" s="278" t="s">
         <v>227</v>
       </c>
       <c r="E38" s="166" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F38" s="209"/>
       <c r="G38" s="274"/>
@@ -4935,8 +4923,8 @@
       <c r="I38" s="163"/>
     </row>
     <row r="39" spans="1:9" s="12" customFormat="1">
-      <c r="A39" s="327"/>
-      <c r="B39" s="330"/>
+      <c r="A39" s="318"/>
+      <c r="B39" s="321"/>
       <c r="C39" s="162"/>
       <c r="D39" s="278" t="s">
         <v>312</v>
@@ -4948,8 +4936,8 @@
       <c r="I39" s="163"/>
     </row>
     <row r="40" spans="1:9" s="12" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A40" s="327"/>
-      <c r="B40" s="330"/>
+      <c r="A40" s="318"/>
+      <c r="B40" s="321"/>
       <c r="C40" s="162"/>
       <c r="D40" s="278" t="s">
         <v>270</v>
@@ -4961,8 +4949,8 @@
       <c r="I40" s="163"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A41" s="328"/>
-      <c r="B41" s="331"/>
+      <c r="A41" s="319"/>
+      <c r="B41" s="322"/>
       <c r="C41" s="275"/>
       <c r="D41" s="83" t="s">
         <v>212</v>
@@ -4985,7 +4973,7 @@
         <v>212</v>
       </c>
       <c r="E42" s="131" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F42" s="215"/>
       <c r="G42" s="216"/>
@@ -5004,7 +4992,7 @@
         <v>297</v>
       </c>
       <c r="E43" s="129" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F43" s="206"/>
       <c r="G43" s="202"/>
@@ -5019,7 +5007,7 @@
         <v>255</v>
       </c>
       <c r="E44" s="129" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="F44" s="206"/>
       <c r="G44" s="202"/>
@@ -5031,9 +5019,7 @@
       <c r="B45" s="258"/>
       <c r="C45" s="99"/>
       <c r="D45" s="96"/>
-      <c r="E45" s="129" t="s">
-        <v>574</v>
-      </c>
+      <c r="E45" s="129"/>
       <c r="F45" s="206"/>
       <c r="G45" s="202"/>
       <c r="H45" s="197"/>
@@ -5044,9 +5030,7 @@
       <c r="B46" s="258"/>
       <c r="C46" s="99"/>
       <c r="D46" s="96"/>
-      <c r="E46" s="129" t="s">
-        <v>579</v>
-      </c>
+      <c r="E46" s="129"/>
       <c r="F46" s="206"/>
       <c r="G46" s="202"/>
       <c r="H46" s="197"/>
@@ -5057,14 +5041,12 @@
       <c r="B47" s="248"/>
       <c r="C47" s="249"/>
       <c r="D47" s="250"/>
-      <c r="E47" s="251" t="s">
-        <v>580</v>
-      </c>
-      <c r="F47" s="301" t="s">
+      <c r="E47" s="251"/>
+      <c r="F47" s="338" t="s">
         <v>536</v>
       </c>
-      <c r="G47" s="302"/>
-      <c r="H47" s="303"/>
+      <c r="G47" s="339"/>
+      <c r="H47" s="340"/>
       <c r="I47" s="255"/>
     </row>
     <row r="48" spans="1:9" s="74" customFormat="1">
@@ -5146,33 +5128,33 @@
       <c r="C53" s="68"/>
       <c r="D53" s="69"/>
       <c r="E53" s="128"/>
-      <c r="F53" s="298" t="s">
+      <c r="F53" s="335" t="s">
         <v>536</v>
       </c>
-      <c r="G53" s="299"/>
-      <c r="H53" s="300"/>
+      <c r="G53" s="336"/>
+      <c r="H53" s="337"/>
       <c r="I53" s="9"/>
     </row>
     <row r="54" spans="1:9" s="160" customFormat="1" ht="15.75" thickBot="1">
       <c r="A54" s="157"/>
       <c r="B54" s="158"/>
-      <c r="C54" s="316" t="s">
+      <c r="C54" s="353" t="s">
         <v>545</v>
       </c>
-      <c r="D54" s="317"/>
-      <c r="E54" s="318"/>
-      <c r="F54" s="319" t="s">
+      <c r="D54" s="354"/>
+      <c r="E54" s="355"/>
+      <c r="F54" s="356" t="s">
         <v>545</v>
       </c>
-      <c r="G54" s="320"/>
-      <c r="H54" s="321"/>
+      <c r="G54" s="357"/>
+      <c r="H54" s="358"/>
       <c r="I54" s="159"/>
     </row>
     <row r="55" spans="1:9" s="171" customFormat="1">
-      <c r="A55" s="304" t="s">
+      <c r="A55" s="341" t="s">
         <v>20</v>
       </c>
-      <c r="B55" s="307" t="s">
+      <c r="B55" s="344" t="s">
         <v>50</v>
       </c>
       <c r="C55" s="167"/>
@@ -5186,25 +5168,25 @@
       </c>
     </row>
     <row r="56" spans="1:9" s="173" customFormat="1">
-      <c r="A56" s="305"/>
-      <c r="B56" s="308"/>
-      <c r="C56" s="310" t="s">
+      <c r="A56" s="342"/>
+      <c r="B56" s="345"/>
+      <c r="C56" s="347" t="s">
         <v>551</v>
       </c>
-      <c r="D56" s="311"/>
-      <c r="E56" s="312"/>
-      <c r="F56" s="313" t="s">
+      <c r="D56" s="348"/>
+      <c r="E56" s="349"/>
+      <c r="F56" s="350" t="s">
         <v>551</v>
       </c>
-      <c r="G56" s="314"/>
-      <c r="H56" s="315"/>
+      <c r="G56" s="351"/>
+      <c r="H56" s="352"/>
       <c r="I56" s="172" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="57" spans="1:9" s="173" customFormat="1">
-      <c r="A57" s="305"/>
-      <c r="B57" s="308"/>
+      <c r="A57" s="342"/>
+      <c r="B57" s="345"/>
       <c r="C57" s="174"/>
       <c r="D57" s="175"/>
       <c r="E57" s="176"/>
@@ -5214,8 +5196,8 @@
       <c r="I57" s="172"/>
     </row>
     <row r="58" spans="1:9" s="173" customFormat="1">
-      <c r="A58" s="305"/>
-      <c r="B58" s="308"/>
+      <c r="A58" s="342"/>
+      <c r="B58" s="345"/>
       <c r="C58" s="174"/>
       <c r="D58" s="175"/>
       <c r="E58" s="176"/>
@@ -5225,8 +5207,8 @@
       <c r="I58" s="172"/>
     </row>
     <row r="59" spans="1:9" s="173" customFormat="1">
-      <c r="A59" s="305"/>
-      <c r="B59" s="308"/>
+      <c r="A59" s="342"/>
+      <c r="B59" s="345"/>
       <c r="C59" s="174"/>
       <c r="D59" s="175"/>
       <c r="E59" s="176"/>
@@ -5236,8 +5218,8 @@
       <c r="I59" s="172"/>
     </row>
     <row r="60" spans="1:9" s="173" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A60" s="306"/>
-      <c r="B60" s="309"/>
+      <c r="A60" s="343"/>
+      <c r="B60" s="346"/>
       <c r="C60" s="177"/>
       <c r="D60" s="178"/>
       <c r="E60" s="179"/>
@@ -5957,11 +5939,14 @@
     <row r="139" spans="6:8" hidden="1"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="A55:A60"/>
+    <mergeCell ref="B55:B60"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:H54"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="A35:A41"/>
@@ -5971,14 +5956,11 @@
     <mergeCell ref="B8:B14"/>
     <mergeCell ref="A15:A20"/>
     <mergeCell ref="B15:B20"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="A55:A60"/>
-    <mergeCell ref="B55:B60"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5990,11 +5972,11 @@
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:N80"/>
+  <dimension ref="A1:N79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K81" sqref="K81"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -8132,10 +8114,10 @@
     </row>
     <row r="78" spans="1:12" s="14" customFormat="1">
       <c r="A78" s="35" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B78" s="35" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="C78" s="41" t="s">
         <v>67</v>
@@ -8147,10 +8129,10 @@
         <v>67</v>
       </c>
       <c r="F78" s="35" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G78" s="35" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="H78" s="36">
         <v>1</v>
@@ -8164,10 +8146,10 @@
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C79" s="11" t="s">
         <v>67</v>
@@ -8179,10 +8161,10 @@
         <v>67</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="H79" s="23">
         <v>1</v>
@@ -8190,38 +8172,6 @@
       <c r="K79" s="11" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" s="14" customFormat="1">
-      <c r="A80" s="35" t="s">
-        <v>574</v>
-      </c>
-      <c r="B80" s="35" t="s">
-        <v>582</v>
-      </c>
-      <c r="C80" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="D80" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="E80" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="F80" s="35" t="s">
-        <v>579</v>
-      </c>
-      <c r="G80" s="35" t="s">
-        <v>580</v>
-      </c>
-      <c r="H80" s="36">
-        <v>1</v>
-      </c>
-      <c r="I80" s="35"/>
-      <c r="J80" s="35"/>
-      <c r="K80" s="41" t="s">
-        <v>195</v>
-      </c>
-      <c r="L80" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -9861,7 +9811,7 @@
       </c>
       <c r="K4" s="15"/>
       <c r="L4" s="297" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="M4" s="15"/>
       <c r="N4" s="15"/>

--- a/Planning & Assetlist.xlsx
+++ b/Planning & Assetlist.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="586">
   <si>
     <t>Code Name</t>
   </si>
@@ -1760,6 +1760,24 @@
   </si>
   <si>
     <t>Road (Small)</t>
+  </si>
+  <si>
+    <t>3D_ROAD_003</t>
+  </si>
+  <si>
+    <t>4U_ROAD_003</t>
+  </si>
+  <si>
+    <t>2D_ROAD_003</t>
+  </si>
+  <si>
+    <t>Scale Fix</t>
+  </si>
+  <si>
+    <t>Road (Main to Small)</t>
+  </si>
+  <si>
+    <t>7S_CROS_001</t>
   </si>
 </sst>
 </file>
@@ -2075,7 +2093,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="71">
+  <borders count="68">
     <border>
       <left/>
       <right/>
@@ -2583,19 +2601,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thick">
-        <color theme="1" tint="0.34998626667073579"/>
-      </right>
-      <top style="slantDashDot">
-        <color theme="1" tint="0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="1" tint="0.34998626667073579"/>
       </left>
@@ -2764,32 +2769,6 @@
         <color theme="1" tint="0.34998626667073579"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </top>
-      <bottom style="slantDashDot">
-        <color theme="1" tint="0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color theme="1" tint="0.34998626667073579"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </top>
-      <bottom style="slantDashDot">
-        <color theme="1" tint="0.34998626667073579"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2953,7 +2932,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="370">
+  <cellXfs count="371">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -3130,30 +3109,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3183,21 +3144,12 @@
     <xf numFmtId="0" fontId="0" fillId="27" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3208,9 +3160,6 @@
     <xf numFmtId="0" fontId="0" fillId="31" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3233,9 +3182,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3269,39 +3215,27 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3320,51 +3254,30 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3408,16 +3321,10 @@
     <xf numFmtId="0" fontId="3" fillId="22" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3432,12 +3339,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3467,99 +3368,99 @@
     <xf numFmtId="0" fontId="0" fillId="41" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3569,12 +3470,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3584,7 +3479,7 @@
     <xf numFmtId="0" fontId="3" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="40" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3593,16 +3488,13 @@
     <xf numFmtId="0" fontId="4" fillId="40" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3612,7 +3504,7 @@
     <xf numFmtId="0" fontId="0" fillId="26" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3625,14 +3517,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3641,7 +3527,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="68" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="65" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="44" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3652,29 +3538,23 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3687,10 +3567,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3734,6 +3614,126 @@
     <xf numFmtId="0" fontId="0" fillId="43" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3743,15 +3743,15 @@
     <xf numFmtId="0" fontId="3" fillId="23" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3782,32 +3782,32 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3815,108 +3815,78 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3949,6 +3919,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4261,21 +4243,21 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:XFC139"/>
+  <dimension ref="A1:XFC140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="87" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="91" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="85" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="276" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" style="5" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" style="132" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="136" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="121" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="125" customWidth="1"/>
     <col min="7" max="7" width="20.7109375" style="7" customWidth="1"/>
     <col min="8" max="8" width="20.7109375" style="8" customWidth="1"/>
     <col min="9" max="9" width="44.7109375" style="9" customWidth="1"/>
@@ -4284,134 +4266,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="67" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A1" s="323" t="s">
+      <c r="A1" s="330" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="324"/>
+      <c r="B1" s="331"/>
       <c r="C1" s="64" t="s">
         <v>60</v>
       </c>
       <c r="D1" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="122" t="s">
+      <c r="E1" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="260" t="s">
+      <c r="F1" s="229" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="261" t="s">
+      <c r="G1" s="230" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="262" t="s">
+      <c r="H1" s="231" t="s">
         <v>10</v>
       </c>
       <c r="I1" s="66" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="98" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A2" s="103" t="s">
+    <row r="2" spans="1:9" s="92" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A2" s="266" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="267" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="310" t="s">
+      <c r="C2" s="317" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="311"/>
-      <c r="E2" s="311"/>
-      <c r="F2" s="311"/>
-      <c r="G2" s="311"/>
-      <c r="H2" s="312"/>
-      <c r="I2" s="110"/>
+      <c r="D2" s="318"/>
+      <c r="E2" s="318"/>
+      <c r="F2" s="318"/>
+      <c r="G2" s="318"/>
+      <c r="H2" s="319"/>
+      <c r="I2" s="101"/>
     </row>
     <row r="3" spans="1:9" s="74" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="265" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="268" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="307" t="s">
+      <c r="C3" s="314" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="308"/>
-      <c r="E3" s="308"/>
-      <c r="F3" s="308"/>
-      <c r="G3" s="308"/>
-      <c r="H3" s="309"/>
+      <c r="D3" s="315"/>
+      <c r="E3" s="315"/>
+      <c r="F3" s="315"/>
+      <c r="G3" s="315"/>
+      <c r="H3" s="316"/>
       <c r="I3" s="81"/>
     </row>
-    <row r="4" spans="1:9" s="109" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A4" s="106" t="s">
+    <row r="4" spans="1:9" s="100" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A4" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="269" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="304" t="s">
+      <c r="C4" s="311" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="305"/>
-      <c r="E4" s="305"/>
-      <c r="F4" s="305"/>
-      <c r="G4" s="305"/>
-      <c r="H4" s="306"/>
-      <c r="I4" s="108"/>
-    </row>
-    <row r="5" spans="1:9" s="183" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A5" s="313" t="s">
+      <c r="D4" s="312"/>
+      <c r="E4" s="312"/>
+      <c r="F4" s="312"/>
+      <c r="G4" s="312"/>
+      <c r="H4" s="313"/>
+      <c r="I4" s="99"/>
+    </row>
+    <row r="5" spans="1:9" s="161" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A5" s="320" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="315" t="s">
+      <c r="B5" s="322" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="298" t="s">
+      <c r="C5" s="305" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="299"/>
-      <c r="E5" s="299"/>
-      <c r="F5" s="299"/>
-      <c r="G5" s="299"/>
-      <c r="H5" s="300"/>
-      <c r="I5" s="181" t="s">
+      <c r="D5" s="306"/>
+      <c r="E5" s="306"/>
+      <c r="F5" s="306"/>
+      <c r="G5" s="306"/>
+      <c r="H5" s="307"/>
+      <c r="I5" s="159" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="183" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A6" s="314"/>
-      <c r="B6" s="316"/>
-      <c r="C6" s="301" t="s">
+    <row r="6" spans="1:9" s="161" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A6" s="321"/>
+      <c r="B6" s="323"/>
+      <c r="C6" s="308" t="s">
         <v>528</v>
       </c>
-      <c r="D6" s="302"/>
-      <c r="E6" s="302"/>
-      <c r="F6" s="302"/>
-      <c r="G6" s="302"/>
-      <c r="H6" s="303"/>
-      <c r="I6" s="182"/>
-    </row>
-    <row r="7" spans="1:9" s="120" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A7" s="137" t="s">
+      <c r="D6" s="309"/>
+      <c r="E6" s="309"/>
+      <c r="F6" s="309"/>
+      <c r="G6" s="309"/>
+      <c r="H6" s="310"/>
+      <c r="I6" s="160"/>
+    </row>
+    <row r="7" spans="1:9" s="110" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A7" s="126" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="121" t="s">
+      <c r="B7" s="270" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="116"/>
-      <c r="D7" s="117"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="133"/>
-      <c r="G7" s="117"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="119" t="s">
+      <c r="C7" s="106"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="109" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="74" customFormat="1">
-      <c r="A8" s="325" t="s">
+      <c r="A8" s="324" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="327" t="s">
@@ -4420,19 +4402,19 @@
       <c r="C8" s="73" t="s">
         <v>210</v>
       </c>
-      <c r="D8" s="144" t="s">
+      <c r="D8" s="129" t="s">
         <v>213</v>
       </c>
-      <c r="E8" s="123" t="s">
+      <c r="E8" s="112" t="s">
         <v>217</v>
       </c>
-      <c r="F8" s="134" t="s">
+      <c r="F8" s="123" t="s">
         <v>475</v>
       </c>
-      <c r="G8" s="144" t="s">
+      <c r="G8" s="129" t="s">
         <v>469</v>
       </c>
-      <c r="H8" s="148" t="s">
+      <c r="H8" s="112" t="s">
         <v>471</v>
       </c>
       <c r="I8" s="75" t="s">
@@ -4440,215 +4422,215 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="326"/>
+      <c r="A9" s="325"/>
       <c r="B9" s="328"/>
       <c r="C9" s="68"/>
-      <c r="D9" s="145" t="s">
+      <c r="D9" s="130" t="s">
         <v>298</v>
       </c>
-      <c r="E9" s="124" t="s">
+      <c r="E9" s="113" t="s">
         <v>412</v>
       </c>
-      <c r="F9" s="203"/>
-      <c r="G9" s="145" t="s">
+      <c r="F9" s="177"/>
+      <c r="G9" s="130" t="s">
         <v>470</v>
       </c>
-      <c r="H9" s="149" t="s">
+      <c r="H9" s="134" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="326"/>
+      <c r="A10" s="325"/>
       <c r="B10" s="328"/>
       <c r="C10" s="68"/>
-      <c r="D10" s="145" t="s">
+      <c r="D10" s="130" t="s">
         <v>256</v>
       </c>
-      <c r="E10" s="124" t="s">
+      <c r="E10" s="113" t="s">
         <v>302</v>
       </c>
-      <c r="F10" s="203"/>
-      <c r="G10" s="198"/>
-      <c r="H10" s="124" t="s">
+      <c r="F10" s="177"/>
+      <c r="G10" s="172"/>
+      <c r="H10" s="113" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="326"/>
+      <c r="A11" s="325"/>
       <c r="B11" s="328"/>
       <c r="C11" s="68"/>
       <c r="D11" s="69"/>
-      <c r="E11" s="124" t="s">
+      <c r="E11" s="113" t="s">
         <v>414</v>
       </c>
-      <c r="F11" s="203"/>
-      <c r="G11" s="198"/>
-      <c r="H11" s="199"/>
+      <c r="F11" s="177"/>
+      <c r="G11" s="172"/>
+      <c r="H11" s="173"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="326"/>
+      <c r="A12" s="325"/>
       <c r="B12" s="328"/>
       <c r="C12" s="68"/>
       <c r="D12" s="69"/>
-      <c r="E12" s="124" t="s">
+      <c r="E12" s="113" t="s">
         <v>260</v>
       </c>
-      <c r="F12" s="203"/>
-      <c r="G12" s="198"/>
-      <c r="H12" s="199"/>
+      <c r="F12" s="177"/>
+      <c r="G12" s="172"/>
+      <c r="H12" s="173"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="326"/>
+      <c r="A13" s="325"/>
       <c r="B13" s="328"/>
       <c r="C13" s="68"/>
       <c r="D13" s="69"/>
-      <c r="E13" s="124" t="s">
+      <c r="E13" s="113" t="s">
         <v>416</v>
       </c>
-      <c r="F13" s="203"/>
-      <c r="G13" s="198"/>
-      <c r="H13" s="199"/>
+      <c r="F13" s="177"/>
+      <c r="G13" s="172"/>
+      <c r="H13" s="173"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A14" s="326"/>
+      <c r="A14" s="325"/>
       <c r="B14" s="328"/>
       <c r="C14" s="71"/>
       <c r="D14" s="72"/>
-      <c r="E14" s="125" t="s">
+      <c r="E14" s="114" t="s">
         <v>413</v>
       </c>
-      <c r="F14" s="204"/>
-      <c r="G14" s="205"/>
-      <c r="H14" s="200"/>
+      <c r="F14" s="178"/>
+      <c r="G14" s="179"/>
+      <c r="H14" s="174"/>
       <c r="I14" s="70"/>
     </row>
-    <row r="15" spans="1:9" s="94" customFormat="1">
-      <c r="A15" s="329" t="s">
+    <row r="15" spans="1:9" s="88" customFormat="1">
+      <c r="A15" s="293" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="332" t="s">
+      <c r="B15" s="296" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="92" t="s">
+      <c r="C15" s="86" t="s">
         <v>210</v>
       </c>
-      <c r="D15" s="146" t="s">
+      <c r="D15" s="131" t="s">
         <v>298</v>
       </c>
-      <c r="E15" s="126" t="s">
+      <c r="E15" s="115" t="s">
         <v>413</v>
       </c>
-      <c r="F15" s="138" t="s">
+      <c r="F15" s="127" t="s">
         <v>475</v>
       </c>
-      <c r="G15" s="265" t="s">
+      <c r="G15" s="234" t="s">
         <v>477</v>
       </c>
-      <c r="H15" s="126" t="s">
+      <c r="H15" s="115" t="s">
         <v>468</v>
       </c>
-      <c r="I15" s="93"/>
-    </row>
-    <row r="16" spans="1:9" s="98" customFormat="1">
-      <c r="A16" s="330"/>
-      <c r="B16" s="333"/>
-      <c r="C16" s="95" t="s">
+      <c r="I15" s="87"/>
+    </row>
+    <row r="16" spans="1:9" s="92" customFormat="1">
+      <c r="A16" s="294"/>
+      <c r="B16" s="297"/>
+      <c r="C16" s="89" t="s">
         <v>194</v>
       </c>
-      <c r="D16" s="147" t="s">
+      <c r="D16" s="132" t="s">
         <v>256</v>
       </c>
-      <c r="E16" s="127" t="s">
+      <c r="E16" s="116" t="s">
         <v>415</v>
       </c>
-      <c r="F16" s="206"/>
-      <c r="G16" s="202"/>
-      <c r="H16" s="127" t="s">
+      <c r="F16" s="180"/>
+      <c r="G16" s="176"/>
+      <c r="H16" s="116" t="s">
         <v>473</v>
       </c>
-      <c r="I16" s="97"/>
-    </row>
-    <row r="17" spans="1:9" s="98" customFormat="1">
-      <c r="A17" s="330"/>
-      <c r="B17" s="333"/>
-      <c r="C17" s="95" t="s">
+      <c r="I16" s="91"/>
+    </row>
+    <row r="17" spans="1:9" s="92" customFormat="1">
+      <c r="A17" s="294"/>
+      <c r="B17" s="297"/>
+      <c r="C17" s="89" t="s">
         <v>253</v>
       </c>
-      <c r="D17" s="147" t="s">
+      <c r="D17" s="132" t="s">
         <v>388</v>
       </c>
-      <c r="E17" s="127" t="s">
+      <c r="E17" s="116" t="s">
         <v>417</v>
       </c>
-      <c r="F17" s="206"/>
-      <c r="G17" s="202"/>
-      <c r="H17" s="197"/>
-      <c r="I17" s="97"/>
-    </row>
-    <row r="18" spans="1:9" s="98" customFormat="1">
-      <c r="A18" s="330"/>
-      <c r="B18" s="333"/>
-      <c r="C18" s="99"/>
-      <c r="D18" s="147" t="s">
+      <c r="F17" s="180"/>
+      <c r="G17" s="176"/>
+      <c r="H17" s="171"/>
+      <c r="I17" s="91"/>
+    </row>
+    <row r="18" spans="1:9" s="92" customFormat="1">
+      <c r="A18" s="294"/>
+      <c r="B18" s="297"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="132" t="s">
         <v>397</v>
       </c>
-      <c r="E18" s="127" t="s">
+      <c r="E18" s="116" t="s">
         <v>538</v>
       </c>
-      <c r="F18" s="206"/>
-      <c r="G18" s="202"/>
-      <c r="H18" s="197"/>
-      <c r="I18" s="97"/>
-    </row>
-    <row r="19" spans="1:9" s="98" customFormat="1">
-      <c r="A19" s="330"/>
-      <c r="B19" s="333"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="127" t="s">
+      <c r="F18" s="180"/>
+      <c r="G18" s="176"/>
+      <c r="H18" s="171"/>
+      <c r="I18" s="91"/>
+    </row>
+    <row r="19" spans="1:9" s="92" customFormat="1">
+      <c r="A19" s="294"/>
+      <c r="B19" s="297"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="116" t="s">
         <v>539</v>
       </c>
-      <c r="F19" s="206"/>
-      <c r="G19" s="202"/>
-      <c r="H19" s="197"/>
-      <c r="I19" s="97"/>
-    </row>
-    <row r="20" spans="1:9" s="98" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A20" s="331"/>
-      <c r="B20" s="334"/>
-      <c r="C20" s="100"/>
-      <c r="D20" s="101"/>
-      <c r="E20" s="190" t="s">
+      <c r="F19" s="180"/>
+      <c r="G19" s="176"/>
+      <c r="H19" s="171"/>
+      <c r="I19" s="91"/>
+    </row>
+    <row r="20" spans="1:9" s="92" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A20" s="295"/>
+      <c r="B20" s="298"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="166" t="s">
         <v>540</v>
       </c>
-      <c r="F20" s="207"/>
-      <c r="G20" s="208"/>
-      <c r="H20" s="201"/>
-      <c r="I20" s="102"/>
+      <c r="F20" s="181"/>
+      <c r="G20" s="182"/>
+      <c r="H20" s="175"/>
+      <c r="I20" s="96"/>
     </row>
     <row r="21" spans="1:9" s="74" customFormat="1">
-      <c r="A21" s="140" t="s">
+      <c r="A21" s="324" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="141" t="s">
+      <c r="B21" s="268" t="s">
         <v>45</v>
       </c>
       <c r="C21" s="73" t="s">
         <v>194</v>
       </c>
-      <c r="D21" s="279" t="s">
+      <c r="D21" s="246" t="s">
         <v>212</v>
       </c>
-      <c r="E21" s="123" t="s">
+      <c r="E21" s="112" t="s">
         <v>226</v>
       </c>
-      <c r="F21" s="134" t="s">
+      <c r="F21" s="123" t="s">
         <v>487</v>
       </c>
-      <c r="G21" s="194" t="s">
+      <c r="G21" s="168" t="s">
         <v>479</v>
       </c>
-      <c r="H21" s="196" t="s">
+      <c r="H21" s="170" t="s">
         <v>484</v>
       </c>
       <c r="I21" s="75" t="s">
@@ -4656,213 +4638,215 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="142"/>
-      <c r="B22" s="143"/>
-      <c r="C22" s="139" t="s">
+      <c r="A22" s="325"/>
+      <c r="B22" s="271"/>
+      <c r="C22" s="128" t="s">
         <v>253</v>
       </c>
       <c r="D22" s="69"/>
-      <c r="E22" s="124" t="s">
+      <c r="E22" s="113" t="s">
         <v>541</v>
       </c>
-      <c r="F22" s="203"/>
-      <c r="G22" s="198"/>
-      <c r="H22" s="199"/>
+      <c r="F22" s="177"/>
+      <c r="G22" s="172"/>
+      <c r="H22" s="173"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="142"/>
-      <c r="B23" s="143"/>
-      <c r="C23" s="139" t="s">
+      <c r="A23" s="325"/>
+      <c r="B23" s="271"/>
+      <c r="C23" s="128" t="s">
         <v>385</v>
       </c>
       <c r="D23" s="69"/>
-      <c r="E23" s="124" t="s">
+      <c r="E23" s="113" t="s">
         <v>311</v>
       </c>
-      <c r="F23" s="203"/>
-      <c r="G23" s="198"/>
-      <c r="H23" s="199"/>
+      <c r="F23" s="177"/>
+      <c r="G23" s="172"/>
+      <c r="H23" s="173"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="142"/>
-      <c r="B24" s="143"/>
-      <c r="C24" s="152" t="s">
+      <c r="A24" s="325"/>
+      <c r="B24" s="271"/>
+      <c r="C24" s="136" t="s">
         <v>394</v>
       </c>
       <c r="D24" s="69"/>
-      <c r="E24" s="124" t="s">
+      <c r="E24" s="113" t="s">
         <v>542</v>
       </c>
-      <c r="F24" s="203"/>
-      <c r="G24" s="198"/>
-      <c r="H24" s="199"/>
+      <c r="F24" s="177"/>
+      <c r="G24" s="172"/>
+      <c r="H24" s="173"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="142"/>
-      <c r="B25" s="143"/>
+      <c r="A25" s="325"/>
+      <c r="B25" s="271"/>
       <c r="C25" s="68"/>
       <c r="D25" s="69"/>
-      <c r="E25" s="124" t="s">
+      <c r="E25" s="113" t="s">
         <v>543</v>
       </c>
-      <c r="F25" s="203"/>
-      <c r="G25" s="198"/>
-      <c r="H25" s="199"/>
+      <c r="F25" s="177"/>
+      <c r="G25" s="172"/>
+      <c r="H25" s="173"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="142"/>
-      <c r="B26" s="143"/>
+      <c r="A26" s="325"/>
+      <c r="B26" s="271"/>
       <c r="C26" s="68"/>
       <c r="D26" s="69"/>
-      <c r="E26" s="266" t="s">
+      <c r="E26" s="235" t="s">
         <v>229</v>
       </c>
-      <c r="F26" s="203"/>
-      <c r="G26" s="198"/>
-      <c r="H26" s="199"/>
+      <c r="F26" s="177"/>
+      <c r="G26" s="172"/>
+      <c r="H26" s="173"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="142"/>
-      <c r="B27" s="143"/>
+      <c r="A27" s="325"/>
+      <c r="B27" s="271"/>
       <c r="C27" s="68"/>
       <c r="D27" s="69"/>
-      <c r="E27" s="266" t="s">
+      <c r="E27" s="235" t="s">
         <v>314</v>
       </c>
-      <c r="F27" s="203"/>
-      <c r="G27" s="198"/>
-      <c r="H27" s="199"/>
+      <c r="F27" s="177"/>
+      <c r="G27" s="172"/>
+      <c r="H27" s="173"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A28" s="142"/>
-      <c r="B28" s="143"/>
+      <c r="A28" s="326"/>
+      <c r="B28" s="278"/>
       <c r="C28" s="71"/>
       <c r="D28" s="72"/>
-      <c r="E28" s="267" t="s">
+      <c r="E28" s="236" t="s">
         <v>272</v>
       </c>
-      <c r="F28" s="204"/>
-      <c r="G28" s="205"/>
-      <c r="H28" s="200"/>
+      <c r="F28" s="178"/>
+      <c r="G28" s="179"/>
+      <c r="H28" s="174"/>
       <c r="I28" s="70"/>
     </row>
-    <row r="29" spans="1:9" s="94" customFormat="1">
-      <c r="A29" s="153" t="s">
+    <row r="29" spans="1:9" s="88" customFormat="1">
+      <c r="A29" s="293" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="155" t="s">
+      <c r="B29" s="296" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="92" t="s">
+      <c r="C29" s="86" t="s">
         <v>385</v>
       </c>
-      <c r="D29" s="146" t="s">
+      <c r="D29" s="131" t="s">
         <v>229</v>
       </c>
-      <c r="E29" s="195" t="s">
+      <c r="E29" s="169" t="s">
         <v>544</v>
       </c>
-      <c r="F29" s="150" t="s">
+      <c r="F29" s="127" t="s">
         <v>478</v>
       </c>
-      <c r="G29" s="193" t="s">
+      <c r="G29" s="167" t="s">
         <v>479</v>
       </c>
-      <c r="H29" s="264" t="s">
+      <c r="H29" s="233" t="s">
         <v>535</v>
       </c>
-      <c r="I29" s="105" t="s">
+      <c r="I29" s="97" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="98" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A30" s="154"/>
-      <c r="B30" s="156"/>
-      <c r="C30" s="151" t="s">
+    <row r="30" spans="1:9" s="92" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A30" s="294"/>
+      <c r="B30" s="297"/>
+      <c r="C30" s="135" t="s">
         <v>394</v>
       </c>
-      <c r="D30" s="147" t="s">
+      <c r="D30" s="132" t="s">
         <v>314</v>
       </c>
-      <c r="E30" s="129"/>
-      <c r="F30" s="206"/>
-      <c r="G30" s="202"/>
-      <c r="H30" s="197"/>
-      <c r="I30" s="164" t="s">
+      <c r="E30" s="118"/>
+      <c r="F30" s="180"/>
+      <c r="G30" s="176"/>
+      <c r="H30" s="171"/>
+      <c r="I30" s="142" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="98" customFormat="1">
-      <c r="A31" s="154"/>
-      <c r="B31" s="156"/>
-      <c r="C31" s="99"/>
-      <c r="D31" s="147" t="s">
+    <row r="31" spans="1:9" s="92" customFormat="1">
+      <c r="A31" s="294"/>
+      <c r="B31" s="297"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="132" t="s">
         <v>272</v>
       </c>
-      <c r="E31" s="129"/>
-      <c r="F31" s="206"/>
-      <c r="G31" s="202"/>
-      <c r="H31" s="197"/>
-      <c r="I31" s="164" t="s">
+      <c r="E31" s="118"/>
+      <c r="F31" s="180"/>
+      <c r="G31" s="176"/>
+      <c r="H31" s="171"/>
+      <c r="I31" s="142" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="98" customFormat="1">
-      <c r="A32" s="154"/>
-      <c r="B32" s="156"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="96"/>
-      <c r="E32" s="129"/>
-      <c r="F32" s="206"/>
-      <c r="G32" s="202"/>
-      <c r="H32" s="197"/>
-      <c r="I32" s="164" t="s">
+    <row r="32" spans="1:9" s="92" customFormat="1">
+      <c r="A32" s="294"/>
+      <c r="B32" s="297"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="90"/>
+      <c r="E32" s="118"/>
+      <c r="F32" s="180"/>
+      <c r="G32" s="176"/>
+      <c r="H32" s="171"/>
+      <c r="I32" s="142" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="98" customFormat="1">
-      <c r="A33" s="154"/>
-      <c r="B33" s="156"/>
-      <c r="C33" s="99"/>
-      <c r="D33" s="96"/>
-      <c r="E33" s="129"/>
-      <c r="F33" s="206"/>
-      <c r="G33" s="202"/>
-      <c r="H33" s="197"/>
-      <c r="I33" s="164"/>
-    </row>
-    <row r="34" spans="1:9" s="98" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A34" s="154"/>
-      <c r="B34" s="156"/>
-      <c r="C34" s="99"/>
-      <c r="D34" s="96"/>
-      <c r="E34" s="129"/>
-      <c r="F34" s="206"/>
-      <c r="G34" s="202"/>
-      <c r="H34" s="197"/>
-      <c r="I34" s="165"/>
+    <row r="33" spans="1:9" s="92" customFormat="1">
+      <c r="A33" s="294"/>
+      <c r="B33" s="297"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="90"/>
+      <c r="E33" s="118"/>
+      <c r="F33" s="180"/>
+      <c r="G33" s="176"/>
+      <c r="H33" s="171"/>
+      <c r="I33" s="142"/>
+    </row>
+    <row r="34" spans="1:9" s="92" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A34" s="295"/>
+      <c r="B34" s="298"/>
+      <c r="C34" s="93"/>
+      <c r="D34" s="90"/>
+      <c r="E34" s="118"/>
+      <c r="F34" s="180"/>
+      <c r="G34" s="176"/>
+      <c r="H34" s="171"/>
+      <c r="I34" s="143"/>
     </row>
     <row r="35" spans="1:9" s="74" customFormat="1">
-      <c r="A35" s="317" t="s">
+      <c r="A35" s="324" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="320" t="s">
+      <c r="B35" s="327" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="139" t="s">
+      <c r="C35" s="128" t="s">
         <v>385</v>
       </c>
-      <c r="D35" s="144" t="s">
+      <c r="D35" s="129" t="s">
         <v>229</v>
       </c>
-      <c r="E35" s="148" t="s">
+      <c r="E35" s="133" t="s">
         <v>544</v>
       </c>
-      <c r="F35" s="272"/>
-      <c r="G35" s="277" t="s">
+      <c r="F35" s="368" t="s">
+        <v>478</v>
+      </c>
+      <c r="G35" s="244" t="s">
         <v>479</v>
       </c>
-      <c r="H35" s="273" t="s">
+      <c r="H35" s="279" t="s">
         <v>548</v>
       </c>
       <c r="I35" s="75" t="s">
@@ -4870,1097 +4854,1143 @@
       </c>
     </row>
     <row r="36" spans="1:9" s="12" customFormat="1" ht="15" customHeight="1">
-      <c r="A36" s="318"/>
-      <c r="B36" s="321"/>
-      <c r="C36" s="152" t="s">
+      <c r="A36" s="325"/>
+      <c r="B36" s="328"/>
+      <c r="C36" s="136" t="s">
         <v>394</v>
       </c>
-      <c r="D36" s="278" t="s">
+      <c r="D36" s="245" t="s">
         <v>314</v>
       </c>
-      <c r="E36" s="270" t="s">
+      <c r="E36" s="239" t="s">
         <v>571</v>
       </c>
-      <c r="F36" s="271"/>
-      <c r="G36" s="198"/>
-      <c r="H36" s="270" t="s">
+      <c r="F36" s="240"/>
+      <c r="G36" s="172"/>
+      <c r="H36" s="367" t="s">
         <v>477</v>
       </c>
-      <c r="I36" s="163" t="s">
+      <c r="I36" s="141" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="12" customFormat="1">
-      <c r="A37" s="318"/>
-      <c r="B37" s="321"/>
-      <c r="C37" s="162"/>
-      <c r="D37" s="278" t="s">
+      <c r="A37" s="325"/>
+      <c r="B37" s="328"/>
+      <c r="C37" s="140"/>
+      <c r="D37" s="245" t="s">
         <v>272</v>
       </c>
-      <c r="E37" s="166" t="s">
+      <c r="E37" s="144" t="s">
         <v>574</v>
       </c>
-      <c r="F37" s="209"/>
-      <c r="G37" s="274"/>
-      <c r="H37" s="210"/>
-      <c r="I37" s="163" t="s">
+      <c r="F37" s="183"/>
+      <c r="G37" s="241"/>
+      <c r="H37" s="184"/>
+      <c r="I37" s="141" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="12" customFormat="1">
-      <c r="A38" s="318"/>
-      <c r="B38" s="321"/>
-      <c r="C38" s="162"/>
-      <c r="D38" s="278" t="s">
+      <c r="A38" s="325"/>
+      <c r="B38" s="328"/>
+      <c r="C38" s="140"/>
+      <c r="D38" s="245" t="s">
         <v>227</v>
       </c>
-      <c r="E38" s="166" t="s">
+      <c r="E38" s="144" t="s">
         <v>573</v>
       </c>
-      <c r="F38" s="209"/>
-      <c r="G38" s="274"/>
-      <c r="H38" s="210"/>
-      <c r="I38" s="163"/>
+      <c r="F38" s="183"/>
+      <c r="G38" s="241"/>
+      <c r="H38" s="184"/>
+      <c r="I38" s="141"/>
     </row>
     <row r="39" spans="1:9" s="12" customFormat="1">
-      <c r="A39" s="318"/>
-      <c r="B39" s="321"/>
-      <c r="C39" s="162"/>
-      <c r="D39" s="278" t="s">
+      <c r="A39" s="325"/>
+      <c r="B39" s="328"/>
+      <c r="C39" s="140"/>
+      <c r="D39" s="245" t="s">
         <v>312</v>
       </c>
-      <c r="E39" s="166"/>
-      <c r="F39" s="209"/>
-      <c r="G39" s="274"/>
-      <c r="H39" s="210"/>
-      <c r="I39" s="163"/>
-    </row>
-    <row r="40" spans="1:9" s="12" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A40" s="318"/>
-      <c r="B40" s="321"/>
-      <c r="C40" s="162"/>
-      <c r="D40" s="278" t="s">
+      <c r="E39" s="144"/>
+      <c r="F39" s="183"/>
+      <c r="G39" s="241"/>
+      <c r="H39" s="184"/>
+      <c r="I39" s="141"/>
+    </row>
+    <row r="40" spans="1:9" s="12" customFormat="1">
+      <c r="A40" s="325"/>
+      <c r="B40" s="328"/>
+      <c r="C40" s="140"/>
+      <c r="D40" s="245" t="s">
         <v>270</v>
       </c>
-      <c r="E40" s="166"/>
-      <c r="F40" s="209"/>
-      <c r="G40" s="274"/>
-      <c r="H40" s="210"/>
-      <c r="I40" s="163"/>
+      <c r="E40" s="144"/>
+      <c r="F40" s="183"/>
+      <c r="G40" s="241"/>
+      <c r="H40" s="184"/>
+      <c r="I40" s="141"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A41" s="319"/>
-      <c r="B41" s="322"/>
-      <c r="C41" s="275"/>
-      <c r="D41" s="83" t="s">
+      <c r="A41" s="326"/>
+      <c r="B41" s="329"/>
+      <c r="C41" s="242"/>
+      <c r="D41" s="205" t="s">
         <v>212</v>
       </c>
-      <c r="E41" s="276"/>
-      <c r="F41" s="268"/>
-      <c r="G41" s="214"/>
-      <c r="H41" s="269"/>
+      <c r="E41" s="243"/>
+      <c r="F41" s="237"/>
+      <c r="G41" s="188"/>
+      <c r="H41" s="238"/>
       <c r="I41" s="70"/>
     </row>
-    <row r="42" spans="1:9" s="94" customFormat="1">
-      <c r="A42" s="111" t="s">
+    <row r="42" spans="1:9" s="88" customFormat="1">
+      <c r="A42" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="112" t="s">
+      <c r="B42" s="284" t="s">
         <v>48</v>
       </c>
-      <c r="C42" s="113"/>
-      <c r="D42" s="114" t="s">
+      <c r="C42" s="280" t="s">
+        <v>394</v>
+      </c>
+      <c r="D42" s="104" t="s">
         <v>212</v>
       </c>
-      <c r="E42" s="131" t="s">
+      <c r="E42" s="369" t="s">
+        <v>583</v>
+      </c>
+      <c r="F42" s="189"/>
+      <c r="G42" s="190"/>
+      <c r="H42" s="191" t="s">
+        <v>548</v>
+      </c>
+      <c r="I42" s="105" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="228" customFormat="1">
+      <c r="A43" s="219"/>
+      <c r="B43" s="285"/>
+      <c r="C43" s="93"/>
+      <c r="D43" s="90" t="s">
+        <v>297</v>
+      </c>
+      <c r="E43" s="118" t="s">
         <v>572</v>
       </c>
-      <c r="F42" s="215"/>
-      <c r="G42" s="216"/>
-      <c r="H42" s="217" t="s">
+      <c r="F43" s="180"/>
+      <c r="G43" s="176"/>
+      <c r="H43" s="116" t="s">
+        <v>477</v>
+      </c>
+      <c r="I43" s="91"/>
+    </row>
+    <row r="44" spans="1:9" s="228" customFormat="1">
+      <c r="A44" s="219"/>
+      <c r="B44" s="285"/>
+      <c r="C44" s="93"/>
+      <c r="D44" s="90" t="s">
+        <v>255</v>
+      </c>
+      <c r="E44" s="118" t="s">
+        <v>575</v>
+      </c>
+      <c r="F44" s="180"/>
+      <c r="G44" s="176"/>
+      <c r="H44" s="116" t="s">
+        <v>585</v>
+      </c>
+      <c r="I44" s="91"/>
+    </row>
+    <row r="45" spans="1:9" s="228" customFormat="1">
+      <c r="A45" s="219"/>
+      <c r="B45" s="285"/>
+      <c r="C45" s="93"/>
+      <c r="D45" s="90"/>
+      <c r="E45" s="222" t="s">
+        <v>576</v>
+      </c>
+      <c r="F45" s="180"/>
+      <c r="G45" s="176"/>
+      <c r="H45" s="171"/>
+      <c r="I45" s="91"/>
+    </row>
+    <row r="46" spans="1:9" s="228" customFormat="1">
+      <c r="A46" s="219"/>
+      <c r="B46" s="285"/>
+      <c r="C46" s="93"/>
+      <c r="D46" s="90"/>
+      <c r="E46" s="118" t="s">
+        <v>580</v>
+      </c>
+      <c r="F46" s="180"/>
+      <c r="G46" s="176"/>
+      <c r="H46" s="171"/>
+      <c r="I46" s="91"/>
+    </row>
+    <row r="47" spans="1:9" s="228" customFormat="1">
+      <c r="A47" s="219"/>
+      <c r="B47" s="285"/>
+      <c r="C47" s="93"/>
+      <c r="D47" s="90"/>
+      <c r="E47" s="118" t="s">
+        <v>581</v>
+      </c>
+      <c r="F47" s="180"/>
+      <c r="G47" s="176"/>
+      <c r="H47" s="171"/>
+      <c r="I47" s="91"/>
+    </row>
+    <row r="48" spans="1:9" s="227" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A48" s="277"/>
+      <c r="B48" s="286"/>
+      <c r="C48" s="220"/>
+      <c r="D48" s="221"/>
+      <c r="E48" s="118" t="s">
+        <v>582</v>
+      </c>
+      <c r="F48" s="335" t="s">
+        <v>536</v>
+      </c>
+      <c r="G48" s="336"/>
+      <c r="H48" s="337"/>
+      <c r="I48" s="226"/>
+    </row>
+    <row r="49" spans="1:9" s="74" customFormat="1">
+      <c r="A49" s="299" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49" s="302" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" s="82"/>
+      <c r="D49" s="83" t="s">
+        <v>297</v>
+      </c>
+      <c r="E49" s="370" t="s">
+        <v>544</v>
+      </c>
+      <c r="F49" s="185"/>
+      <c r="G49" s="186" t="s">
+        <v>476</v>
+      </c>
+      <c r="H49" s="187" t="s">
         <v>548</v>
       </c>
-      <c r="I42" s="115" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" s="259" customFormat="1">
-      <c r="A43" s="257"/>
-      <c r="B43" s="258"/>
-      <c r="C43" s="99"/>
-      <c r="D43" s="96" t="s">
-        <v>297</v>
-      </c>
-      <c r="E43" s="129" t="s">
-        <v>575</v>
-      </c>
-      <c r="F43" s="206"/>
-      <c r="G43" s="202"/>
-      <c r="H43" s="197"/>
-      <c r="I43" s="97"/>
-    </row>
-    <row r="44" spans="1:9" s="259" customFormat="1">
-      <c r="A44" s="257"/>
-      <c r="B44" s="258"/>
-      <c r="C44" s="99"/>
-      <c r="D44" s="96" t="s">
-        <v>255</v>
-      </c>
-      <c r="E44" s="129" t="s">
-        <v>576</v>
-      </c>
-      <c r="F44" s="206"/>
-      <c r="G44" s="202"/>
-      <c r="H44" s="197"/>
-      <c r="I44" s="97"/>
-    </row>
-    <row r="45" spans="1:9" s="259" customFormat="1">
-      <c r="A45" s="257"/>
-      <c r="B45" s="258"/>
-      <c r="C45" s="99"/>
-      <c r="D45" s="96"/>
-      <c r="E45" s="129"/>
-      <c r="F45" s="206"/>
-      <c r="G45" s="202"/>
-      <c r="H45" s="197"/>
-      <c r="I45" s="97"/>
-    </row>
-    <row r="46" spans="1:9" s="259" customFormat="1">
-      <c r="A46" s="257"/>
-      <c r="B46" s="258"/>
-      <c r="C46" s="99"/>
-      <c r="D46" s="96"/>
-      <c r="E46" s="129"/>
-      <c r="F46" s="206"/>
-      <c r="G46" s="202"/>
-      <c r="H46" s="197"/>
-      <c r="I46" s="97"/>
-    </row>
-    <row r="47" spans="1:9" s="256" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A47" s="247"/>
-      <c r="B47" s="248"/>
-      <c r="C47" s="249"/>
-      <c r="D47" s="250"/>
-      <c r="E47" s="251"/>
-      <c r="F47" s="338" t="s">
-        <v>536</v>
-      </c>
-      <c r="G47" s="339"/>
-      <c r="H47" s="340"/>
-      <c r="I47" s="255"/>
-    </row>
-    <row r="48" spans="1:9" s="74" customFormat="1">
-      <c r="A48" s="85" t="s">
-        <v>19</v>
-      </c>
-      <c r="B48" s="89" t="s">
-        <v>49</v>
-      </c>
-      <c r="C48" s="82"/>
-      <c r="D48" s="69" t="s">
-        <v>297</v>
-      </c>
-      <c r="E48" s="130" t="s">
-        <v>544</v>
-      </c>
-      <c r="F48" s="211"/>
-      <c r="G48" s="212" t="s">
-        <v>476</v>
-      </c>
-      <c r="H48" s="213" t="s">
-        <v>548</v>
-      </c>
-      <c r="I48" s="81"/>
-    </row>
-    <row r="49" spans="1:9" s="161" customFormat="1">
-      <c r="A49" s="87"/>
-      <c r="B49" s="91"/>
-      <c r="C49" s="68"/>
-      <c r="D49" s="69" t="s">
-        <v>255</v>
-      </c>
-      <c r="E49" s="128"/>
-      <c r="F49" s="203"/>
-      <c r="G49" s="198"/>
-      <c r="H49" s="199"/>
-      <c r="I49" s="9"/>
-    </row>
-    <row r="50" spans="1:9" s="161" customFormat="1">
-      <c r="A50" s="87"/>
-      <c r="B50" s="91"/>
+      <c r="I49" s="81"/>
+    </row>
+    <row r="50" spans="1:9" s="139" customFormat="1">
+      <c r="A50" s="300"/>
+      <c r="B50" s="303"/>
       <c r="C50" s="68"/>
       <c r="D50" s="69" t="s">
-        <v>387</v>
-      </c>
-      <c r="E50" s="128"/>
-      <c r="F50" s="203"/>
-      <c r="G50" s="198"/>
-      <c r="H50" s="199"/>
+        <v>255</v>
+      </c>
+      <c r="E50" s="117"/>
+      <c r="F50" s="177"/>
+      <c r="G50" s="172"/>
+      <c r="H50" s="173"/>
       <c r="I50" s="9"/>
     </row>
-    <row r="51" spans="1:9" s="161" customFormat="1">
-      <c r="A51" s="87"/>
-      <c r="B51" s="91"/>
+    <row r="51" spans="1:9" s="139" customFormat="1">
+      <c r="A51" s="300"/>
+      <c r="B51" s="303"/>
       <c r="C51" s="68"/>
       <c r="D51" s="69" t="s">
+        <v>387</v>
+      </c>
+      <c r="E51" s="117"/>
+      <c r="F51" s="177"/>
+      <c r="G51" s="172"/>
+      <c r="H51" s="173"/>
+      <c r="I51" s="9"/>
+    </row>
+    <row r="52" spans="1:9" s="139" customFormat="1">
+      <c r="A52" s="300"/>
+      <c r="B52" s="303"/>
+      <c r="C52" s="68"/>
+      <c r="D52" s="69" t="s">
         <v>396</v>
       </c>
-      <c r="E51" s="128"/>
-      <c r="F51" s="203"/>
-      <c r="G51" s="198"/>
-      <c r="H51" s="199"/>
-      <c r="I51" s="9"/>
-    </row>
-    <row r="52" spans="1:9" s="161" customFormat="1">
-      <c r="A52" s="87"/>
-      <c r="B52" s="91"/>
-      <c r="C52" s="68"/>
-      <c r="D52" s="69"/>
-      <c r="E52" s="128"/>
-      <c r="F52" s="203"/>
-      <c r="G52" s="198"/>
-      <c r="H52" s="199"/>
+      <c r="E52" s="117"/>
+      <c r="F52" s="177"/>
+      <c r="G52" s="172"/>
+      <c r="H52" s="173"/>
       <c r="I52" s="9"/>
     </row>
-    <row r="53" spans="1:9" s="161" customFormat="1">
-      <c r="A53" s="87"/>
-      <c r="B53" s="91"/>
+    <row r="53" spans="1:9" s="139" customFormat="1">
+      <c r="A53" s="300"/>
+      <c r="B53" s="303"/>
       <c r="C53" s="68"/>
       <c r="D53" s="69"/>
-      <c r="E53" s="128"/>
-      <c r="F53" s="335" t="s">
+      <c r="E53" s="117"/>
+      <c r="F53" s="177"/>
+      <c r="G53" s="172"/>
+      <c r="H53" s="173"/>
+      <c r="I53" s="9"/>
+    </row>
+    <row r="54" spans="1:9" s="139" customFormat="1">
+      <c r="A54" s="300"/>
+      <c r="B54" s="303"/>
+      <c r="C54" s="68"/>
+      <c r="D54" s="69"/>
+      <c r="E54" s="117"/>
+      <c r="F54" s="332" t="s">
         <v>536</v>
       </c>
-      <c r="G53" s="336"/>
-      <c r="H53" s="337"/>
-      <c r="I53" s="9"/>
-    </row>
-    <row r="54" spans="1:9" s="160" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A54" s="157"/>
-      <c r="B54" s="158"/>
-      <c r="C54" s="353" t="s">
+      <c r="G54" s="333"/>
+      <c r="H54" s="334"/>
+      <c r="I54" s="9"/>
+    </row>
+    <row r="55" spans="1:9" s="138" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A55" s="301"/>
+      <c r="B55" s="304"/>
+      <c r="C55" s="350" t="s">
         <v>545</v>
       </c>
-      <c r="D54" s="354"/>
-      <c r="E54" s="355"/>
-      <c r="F54" s="356" t="s">
+      <c r="D55" s="351"/>
+      <c r="E55" s="352"/>
+      <c r="F55" s="353" t="s">
         <v>545</v>
       </c>
-      <c r="G54" s="357"/>
-      <c r="H54" s="358"/>
-      <c r="I54" s="159"/>
-    </row>
-    <row r="55" spans="1:9" s="171" customFormat="1">
-      <c r="A55" s="341" t="s">
+      <c r="G55" s="354"/>
+      <c r="H55" s="355"/>
+      <c r="I55" s="137"/>
+    </row>
+    <row r="56" spans="1:9" s="149" customFormat="1">
+      <c r="A56" s="338" t="s">
         <v>20</v>
       </c>
-      <c r="B55" s="344" t="s">
+      <c r="B56" s="341" t="s">
         <v>50</v>
       </c>
-      <c r="C55" s="167"/>
-      <c r="D55" s="168"/>
-      <c r="E55" s="169"/>
-      <c r="F55" s="221"/>
-      <c r="G55" s="222"/>
-      <c r="H55" s="223"/>
-      <c r="I55" s="170" t="s">
+      <c r="C56" s="145"/>
+      <c r="D56" s="146"/>
+      <c r="E56" s="147"/>
+      <c r="F56" s="195"/>
+      <c r="G56" s="196"/>
+      <c r="H56" s="197"/>
+      <c r="I56" s="148" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="173" customFormat="1">
-      <c r="A56" s="342"/>
-      <c r="B56" s="345"/>
-      <c r="C56" s="347" t="s">
+    <row r="57" spans="1:9" s="151" customFormat="1">
+      <c r="A57" s="339"/>
+      <c r="B57" s="342"/>
+      <c r="C57" s="344" t="s">
         <v>551</v>
       </c>
-      <c r="D56" s="348"/>
-      <c r="E56" s="349"/>
-      <c r="F56" s="350" t="s">
+      <c r="D57" s="345"/>
+      <c r="E57" s="346"/>
+      <c r="F57" s="347" t="s">
         <v>551</v>
       </c>
-      <c r="G56" s="351"/>
-      <c r="H56" s="352"/>
-      <c r="I56" s="172" t="s">
+      <c r="G57" s="348"/>
+      <c r="H57" s="349"/>
+      <c r="I57" s="150" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="173" customFormat="1">
-      <c r="A57" s="342"/>
-      <c r="B57" s="345"/>
-      <c r="C57" s="174"/>
-      <c r="D57" s="175"/>
-      <c r="E57" s="176"/>
-      <c r="F57" s="224"/>
-      <c r="G57" s="225"/>
-      <c r="H57" s="226"/>
-      <c r="I57" s="172"/>
-    </row>
-    <row r="58" spans="1:9" s="173" customFormat="1">
-      <c r="A58" s="342"/>
-      <c r="B58" s="345"/>
-      <c r="C58" s="174"/>
-      <c r="D58" s="175"/>
-      <c r="E58" s="176"/>
-      <c r="F58" s="224"/>
-      <c r="G58" s="225"/>
-      <c r="H58" s="226"/>
-      <c r="I58" s="172"/>
-    </row>
-    <row r="59" spans="1:9" s="173" customFormat="1">
-      <c r="A59" s="342"/>
-      <c r="B59" s="345"/>
-      <c r="C59" s="174"/>
-      <c r="D59" s="175"/>
-      <c r="E59" s="176"/>
-      <c r="F59" s="224"/>
-      <c r="G59" s="225"/>
-      <c r="H59" s="226"/>
-      <c r="I59" s="172"/>
-    </row>
-    <row r="60" spans="1:9" s="173" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A60" s="343"/>
-      <c r="B60" s="346"/>
-      <c r="C60" s="177"/>
-      <c r="D60" s="178"/>
-      <c r="E60" s="179"/>
-      <c r="F60" s="227"/>
-      <c r="G60" s="228"/>
-      <c r="H60" s="229"/>
-      <c r="I60" s="180"/>
-    </row>
-    <row r="61" spans="1:9" s="80" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A61" s="86" t="s">
+    <row r="58" spans="1:9" s="151" customFormat="1">
+      <c r="A58" s="339"/>
+      <c r="B58" s="342"/>
+      <c r="C58" s="152"/>
+      <c r="D58" s="153"/>
+      <c r="E58" s="154"/>
+      <c r="F58" s="198"/>
+      <c r="G58" s="199"/>
+      <c r="H58" s="200"/>
+      <c r="I58" s="150"/>
+    </row>
+    <row r="59" spans="1:9" s="151" customFormat="1">
+      <c r="A59" s="339"/>
+      <c r="B59" s="342"/>
+      <c r="C59" s="152"/>
+      <c r="D59" s="153"/>
+      <c r="E59" s="154"/>
+      <c r="F59" s="198"/>
+      <c r="G59" s="199"/>
+      <c r="H59" s="200"/>
+      <c r="I59" s="150"/>
+    </row>
+    <row r="60" spans="1:9" s="151" customFormat="1">
+      <c r="A60" s="339"/>
+      <c r="B60" s="342"/>
+      <c r="C60" s="152"/>
+      <c r="D60" s="153"/>
+      <c r="E60" s="154"/>
+      <c r="F60" s="198"/>
+      <c r="G60" s="199"/>
+      <c r="H60" s="200"/>
+      <c r="I60" s="150"/>
+    </row>
+    <row r="61" spans="1:9" s="151" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A61" s="340"/>
+      <c r="B61" s="343"/>
+      <c r="C61" s="155"/>
+      <c r="D61" s="156"/>
+      <c r="E61" s="157"/>
+      <c r="F61" s="201"/>
+      <c r="G61" s="202"/>
+      <c r="H61" s="203"/>
+      <c r="I61" s="158"/>
+    </row>
+    <row r="62" spans="1:9" s="80" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A62" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="B61" s="90" t="s">
+      <c r="B62" s="272" t="s">
         <v>54</v>
       </c>
-      <c r="C61" s="76"/>
-      <c r="D61" s="77"/>
-      <c r="E61" s="78"/>
-      <c r="F61" s="135"/>
-      <c r="G61" s="77"/>
-      <c r="H61" s="78"/>
-      <c r="I61" s="79" t="s">
+      <c r="C62" s="76"/>
+      <c r="D62" s="77"/>
+      <c r="E62" s="78"/>
+      <c r="F62" s="124"/>
+      <c r="G62" s="77"/>
+      <c r="H62" s="78"/>
+      <c r="I62" s="79" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="62" spans="1:9" s="94" customFormat="1">
-      <c r="A62" s="111" t="s">
+    <row r="63" spans="1:9" s="88" customFormat="1">
+      <c r="A63" s="281" t="s">
         <v>22</v>
       </c>
-      <c r="B62" s="112" t="s">
+      <c r="B63" s="284" t="s">
         <v>53</v>
       </c>
-      <c r="C62" s="113"/>
-      <c r="D62" s="114"/>
-      <c r="E62" s="131"/>
-      <c r="F62" s="215"/>
-      <c r="G62" s="216"/>
-      <c r="H62" s="217"/>
-      <c r="I62" s="115"/>
-    </row>
-    <row r="63" spans="1:9" s="259" customFormat="1">
-      <c r="A63" s="257"/>
-      <c r="B63" s="258"/>
-      <c r="C63" s="99"/>
-      <c r="D63" s="96"/>
-      <c r="E63" s="129"/>
-      <c r="F63" s="206"/>
-      <c r="G63" s="202"/>
-      <c r="H63" s="197"/>
-      <c r="I63" s="97"/>
-    </row>
-    <row r="64" spans="1:9" s="259" customFormat="1">
-      <c r="A64" s="257"/>
-      <c r="B64" s="258"/>
-      <c r="C64" s="99"/>
-      <c r="D64" s="96"/>
-      <c r="E64" s="129"/>
-      <c r="F64" s="206"/>
-      <c r="G64" s="202"/>
-      <c r="H64" s="197"/>
-      <c r="I64" s="97"/>
-    </row>
-    <row r="65" spans="1:9" s="259" customFormat="1">
-      <c r="A65" s="257"/>
-      <c r="B65" s="258"/>
-      <c r="C65" s="99"/>
-      <c r="D65" s="96"/>
-      <c r="E65" s="129"/>
-      <c r="F65" s="206"/>
-      <c r="G65" s="202"/>
-      <c r="H65" s="197"/>
-      <c r="I65" s="97"/>
-    </row>
-    <row r="66" spans="1:9" s="259" customFormat="1">
-      <c r="A66" s="257"/>
-      <c r="B66" s="258"/>
-      <c r="C66" s="99"/>
-      <c r="D66" s="96"/>
-      <c r="E66" s="129"/>
-      <c r="F66" s="206"/>
-      <c r="G66" s="202"/>
-      <c r="H66" s="197"/>
-      <c r="I66" s="97"/>
-    </row>
-    <row r="67" spans="1:9" s="256" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A67" s="247"/>
-      <c r="B67" s="248"/>
-      <c r="C67" s="249"/>
-      <c r="D67" s="250"/>
-      <c r="E67" s="251"/>
-      <c r="F67" s="252"/>
-      <c r="G67" s="253"/>
-      <c r="H67" s="254"/>
-      <c r="I67" s="255"/>
-    </row>
-    <row r="68" spans="1:9" s="74" customFormat="1">
-      <c r="A68" s="85" t="s">
+      <c r="C63" s="103"/>
+      <c r="D63" s="104"/>
+      <c r="E63" s="120"/>
+      <c r="F63" s="189"/>
+      <c r="G63" s="190"/>
+      <c r="H63" s="191"/>
+      <c r="I63" s="105"/>
+    </row>
+    <row r="64" spans="1:9" s="228" customFormat="1">
+      <c r="A64" s="282"/>
+      <c r="B64" s="285"/>
+      <c r="C64" s="93"/>
+      <c r="D64" s="90"/>
+      <c r="E64" s="118"/>
+      <c r="F64" s="180"/>
+      <c r="G64" s="176"/>
+      <c r="H64" s="171"/>
+      <c r="I64" s="91"/>
+    </row>
+    <row r="65" spans="1:9" s="228" customFormat="1">
+      <c r="A65" s="282"/>
+      <c r="B65" s="285"/>
+      <c r="C65" s="93"/>
+      <c r="D65" s="90"/>
+      <c r="E65" s="118"/>
+      <c r="F65" s="180"/>
+      <c r="G65" s="176"/>
+      <c r="H65" s="171"/>
+      <c r="I65" s="91"/>
+    </row>
+    <row r="66" spans="1:9" s="228" customFormat="1">
+      <c r="A66" s="282"/>
+      <c r="B66" s="285"/>
+      <c r="C66" s="93"/>
+      <c r="D66" s="90"/>
+      <c r="E66" s="118"/>
+      <c r="F66" s="180"/>
+      <c r="G66" s="176"/>
+      <c r="H66" s="171"/>
+      <c r="I66" s="91"/>
+    </row>
+    <row r="67" spans="1:9" s="228" customFormat="1">
+      <c r="A67" s="282"/>
+      <c r="B67" s="285"/>
+      <c r="C67" s="93"/>
+      <c r="D67" s="90"/>
+      <c r="E67" s="118"/>
+      <c r="F67" s="180"/>
+      <c r="G67" s="176"/>
+      <c r="H67" s="171"/>
+      <c r="I67" s="91"/>
+    </row>
+    <row r="68" spans="1:9" s="227" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A68" s="283"/>
+      <c r="B68" s="286"/>
+      <c r="C68" s="220"/>
+      <c r="D68" s="221"/>
+      <c r="E68" s="222"/>
+      <c r="F68" s="223"/>
+      <c r="G68" s="224"/>
+      <c r="H68" s="225"/>
+      <c r="I68" s="226"/>
+    </row>
+    <row r="69" spans="1:9" s="74" customFormat="1">
+      <c r="A69" s="299" t="s">
         <v>23</v>
       </c>
-      <c r="B68" s="89" t="s">
+      <c r="B69" s="302" t="s">
         <v>52</v>
       </c>
-      <c r="C68" s="82"/>
-      <c r="D68" s="83"/>
-      <c r="E68" s="130"/>
-      <c r="F68" s="211"/>
-      <c r="G68" s="212"/>
-      <c r="H68" s="213"/>
-      <c r="I68" s="81" t="s">
+      <c r="C69" s="82"/>
+      <c r="D69" s="83"/>
+      <c r="E69" s="119"/>
+      <c r="F69" s="185"/>
+      <c r="G69" s="186"/>
+      <c r="H69" s="187"/>
+      <c r="I69" s="81" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="69" spans="1:9" s="161" customFormat="1">
-      <c r="A69" s="87"/>
-      <c r="B69" s="91"/>
-      <c r="C69" s="68"/>
-      <c r="D69" s="69"/>
-      <c r="E69" s="128"/>
-      <c r="F69" s="203"/>
-      <c r="G69" s="198"/>
-      <c r="H69" s="199"/>
-      <c r="I69" s="9"/>
-    </row>
-    <row r="70" spans="1:9" s="161" customFormat="1">
-      <c r="A70" s="87"/>
-      <c r="B70" s="91"/>
+    <row r="70" spans="1:9" s="139" customFormat="1">
+      <c r="A70" s="300"/>
+      <c r="B70" s="303"/>
       <c r="C70" s="68"/>
       <c r="D70" s="69"/>
-      <c r="E70" s="128"/>
-      <c r="F70" s="203"/>
-      <c r="G70" s="198"/>
-      <c r="H70" s="199"/>
+      <c r="E70" s="117"/>
+      <c r="F70" s="177"/>
+      <c r="G70" s="172"/>
+      <c r="H70" s="173"/>
       <c r="I70" s="9"/>
     </row>
-    <row r="71" spans="1:9" s="161" customFormat="1">
-      <c r="A71" s="87"/>
-      <c r="B71" s="91"/>
+    <row r="71" spans="1:9" s="139" customFormat="1">
+      <c r="A71" s="300"/>
+      <c r="B71" s="303"/>
       <c r="C71" s="68"/>
       <c r="D71" s="69"/>
-      <c r="E71" s="128"/>
-      <c r="F71" s="203"/>
-      <c r="G71" s="198"/>
-      <c r="H71" s="199"/>
+      <c r="E71" s="117"/>
+      <c r="F71" s="177"/>
+      <c r="G71" s="172"/>
+      <c r="H71" s="173"/>
       <c r="I71" s="9"/>
     </row>
-    <row r="72" spans="1:9" s="161" customFormat="1">
-      <c r="A72" s="87"/>
-      <c r="B72" s="91"/>
+    <row r="72" spans="1:9" s="139" customFormat="1">
+      <c r="A72" s="300"/>
+      <c r="B72" s="303"/>
       <c r="C72" s="68"/>
       <c r="D72" s="69"/>
-      <c r="E72" s="128"/>
-      <c r="F72" s="203"/>
-      <c r="G72" s="198"/>
-      <c r="H72" s="199"/>
+      <c r="E72" s="117"/>
+      <c r="F72" s="177"/>
+      <c r="G72" s="172"/>
+      <c r="H72" s="173"/>
       <c r="I72" s="9"/>
     </row>
-    <row r="73" spans="1:9" s="12" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A73" s="191"/>
-      <c r="B73" s="192"/>
-      <c r="C73" s="230"/>
-      <c r="D73" s="231"/>
-      <c r="E73" s="232"/>
-      <c r="F73" s="233"/>
-      <c r="G73" s="234"/>
-      <c r="H73" s="235"/>
-      <c r="I73" s="236"/>
-    </row>
-    <row r="74" spans="1:9" s="94" customFormat="1">
-      <c r="A74" s="111" t="s">
+    <row r="73" spans="1:9" s="139" customFormat="1">
+      <c r="A73" s="300"/>
+      <c r="B73" s="303"/>
+      <c r="C73" s="68"/>
+      <c r="D73" s="69"/>
+      <c r="E73" s="117"/>
+      <c r="F73" s="177"/>
+      <c r="G73" s="172"/>
+      <c r="H73" s="173"/>
+      <c r="I73" s="9"/>
+    </row>
+    <row r="74" spans="1:9" s="12" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A74" s="301"/>
+      <c r="B74" s="304"/>
+      <c r="C74" s="204"/>
+      <c r="D74" s="205"/>
+      <c r="E74" s="206"/>
+      <c r="F74" s="207"/>
+      <c r="G74" s="208"/>
+      <c r="H74" s="209"/>
+      <c r="I74" s="210"/>
+    </row>
+    <row r="75" spans="1:9" s="88" customFormat="1">
+      <c r="A75" s="281" t="s">
         <v>24</v>
       </c>
-      <c r="B74" s="112" t="s">
+      <c r="B75" s="284" t="s">
         <v>51</v>
       </c>
-      <c r="C74" s="113"/>
-      <c r="D74" s="114"/>
-      <c r="E74" s="131"/>
-      <c r="F74" s="215"/>
-      <c r="G74" s="216"/>
-      <c r="H74" s="217"/>
-      <c r="I74" s="115"/>
-    </row>
-    <row r="75" spans="1:9" s="259" customFormat="1">
-      <c r="A75" s="257"/>
-      <c r="B75" s="258"/>
-      <c r="C75" s="99"/>
-      <c r="D75" s="96"/>
-      <c r="E75" s="129"/>
-      <c r="F75" s="206"/>
-      <c r="G75" s="202"/>
-      <c r="H75" s="197"/>
-      <c r="I75" s="97"/>
-    </row>
-    <row r="76" spans="1:9" s="259" customFormat="1">
-      <c r="A76" s="257"/>
-      <c r="B76" s="258"/>
-      <c r="C76" s="99"/>
-      <c r="D76" s="96"/>
-      <c r="E76" s="129"/>
-      <c r="F76" s="206"/>
-      <c r="G76" s="202"/>
-      <c r="H76" s="197"/>
-      <c r="I76" s="97"/>
-    </row>
-    <row r="77" spans="1:9" s="259" customFormat="1">
-      <c r="A77" s="257"/>
-      <c r="B77" s="258"/>
-      <c r="C77" s="99"/>
-      <c r="D77" s="96"/>
-      <c r="E77" s="129"/>
-      <c r="F77" s="206"/>
-      <c r="G77" s="202"/>
-      <c r="H77" s="197"/>
-      <c r="I77" s="97"/>
-    </row>
-    <row r="78" spans="1:9" s="259" customFormat="1">
-      <c r="A78" s="257"/>
-      <c r="B78" s="258"/>
-      <c r="C78" s="99"/>
-      <c r="D78" s="96"/>
-      <c r="E78" s="129"/>
-      <c r="F78" s="206"/>
-      <c r="G78" s="202"/>
-      <c r="H78" s="197"/>
-      <c r="I78" s="97"/>
-    </row>
-    <row r="79" spans="1:9" s="256" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A79" s="247"/>
-      <c r="B79" s="248"/>
-      <c r="C79" s="249"/>
-      <c r="D79" s="250"/>
-      <c r="E79" s="251"/>
-      <c r="F79" s="252"/>
-      <c r="G79" s="253"/>
-      <c r="H79" s="254"/>
-      <c r="I79" s="255"/>
-    </row>
-    <row r="80" spans="1:9" s="74" customFormat="1">
-      <c r="A80" s="85" t="s">
+      <c r="C75" s="103"/>
+      <c r="D75" s="104"/>
+      <c r="E75" s="120"/>
+      <c r="F75" s="189"/>
+      <c r="G75" s="190"/>
+      <c r="H75" s="191"/>
+      <c r="I75" s="105"/>
+    </row>
+    <row r="76" spans="1:9" s="228" customFormat="1">
+      <c r="A76" s="282"/>
+      <c r="B76" s="285"/>
+      <c r="C76" s="93"/>
+      <c r="D76" s="90"/>
+      <c r="E76" s="118"/>
+      <c r="F76" s="180"/>
+      <c r="G76" s="176"/>
+      <c r="H76" s="171"/>
+      <c r="I76" s="91"/>
+    </row>
+    <row r="77" spans="1:9" s="228" customFormat="1">
+      <c r="A77" s="282"/>
+      <c r="B77" s="285"/>
+      <c r="C77" s="93"/>
+      <c r="D77" s="90"/>
+      <c r="E77" s="118"/>
+      <c r="F77" s="180"/>
+      <c r="G77" s="176"/>
+      <c r="H77" s="171"/>
+      <c r="I77" s="91"/>
+    </row>
+    <row r="78" spans="1:9" s="228" customFormat="1">
+      <c r="A78" s="282"/>
+      <c r="B78" s="285"/>
+      <c r="C78" s="93"/>
+      <c r="D78" s="90"/>
+      <c r="E78" s="118"/>
+      <c r="F78" s="180"/>
+      <c r="G78" s="176"/>
+      <c r="H78" s="171"/>
+      <c r="I78" s="91"/>
+    </row>
+    <row r="79" spans="1:9" s="228" customFormat="1">
+      <c r="A79" s="282"/>
+      <c r="B79" s="285"/>
+      <c r="C79" s="93"/>
+      <c r="D79" s="90"/>
+      <c r="E79" s="118"/>
+      <c r="F79" s="180"/>
+      <c r="G79" s="176"/>
+      <c r="H79" s="171"/>
+      <c r="I79" s="91"/>
+    </row>
+    <row r="80" spans="1:9" s="227" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A80" s="283"/>
+      <c r="B80" s="286"/>
+      <c r="C80" s="220"/>
+      <c r="D80" s="221"/>
+      <c r="E80" s="222"/>
+      <c r="F80" s="223"/>
+      <c r="G80" s="224"/>
+      <c r="H80" s="225"/>
+      <c r="I80" s="226"/>
+    </row>
+    <row r="81" spans="1:9" s="74" customFormat="1">
+      <c r="A81" s="299" t="s">
         <v>25</v>
       </c>
-      <c r="B80" s="89" t="s">
+      <c r="B81" s="273" t="s">
         <v>55</v>
       </c>
-      <c r="C80" s="82"/>
-      <c r="D80" s="83"/>
-      <c r="E80" s="130"/>
-      <c r="F80" s="211"/>
-      <c r="G80" s="212"/>
-      <c r="H80" s="213"/>
-      <c r="I80" s="81"/>
-    </row>
-    <row r="81" spans="1:9" s="161" customFormat="1">
-      <c r="A81" s="87"/>
-      <c r="B81" s="91"/>
-      <c r="C81" s="68"/>
-      <c r="D81" s="69"/>
-      <c r="E81" s="128"/>
-      <c r="F81" s="203"/>
-      <c r="G81" s="198"/>
-      <c r="H81" s="199"/>
-      <c r="I81" s="9"/>
-    </row>
-    <row r="82" spans="1:9" s="161" customFormat="1">
-      <c r="A82" s="87"/>
-      <c r="B82" s="91"/>
+      <c r="C81" s="82"/>
+      <c r="D81" s="83"/>
+      <c r="E81" s="119"/>
+      <c r="F81" s="185"/>
+      <c r="G81" s="186"/>
+      <c r="H81" s="187"/>
+      <c r="I81" s="81"/>
+    </row>
+    <row r="82" spans="1:9" s="139" customFormat="1">
+      <c r="A82" s="300"/>
+      <c r="B82" s="274"/>
       <c r="C82" s="68"/>
       <c r="D82" s="69"/>
-      <c r="E82" s="128"/>
-      <c r="F82" s="203"/>
-      <c r="G82" s="198"/>
-      <c r="H82" s="199"/>
+      <c r="E82" s="117"/>
+      <c r="F82" s="177"/>
+      <c r="G82" s="172"/>
+      <c r="H82" s="173"/>
       <c r="I82" s="9"/>
     </row>
-    <row r="83" spans="1:9" s="161" customFormat="1">
-      <c r="A83" s="87"/>
-      <c r="B83" s="91"/>
+    <row r="83" spans="1:9" s="139" customFormat="1">
+      <c r="A83" s="300"/>
+      <c r="B83" s="274"/>
       <c r="C83" s="68"/>
       <c r="D83" s="69"/>
-      <c r="E83" s="128"/>
-      <c r="F83" s="203"/>
-      <c r="G83" s="198"/>
-      <c r="H83" s="199"/>
+      <c r="E83" s="117"/>
+      <c r="F83" s="177"/>
+      <c r="G83" s="172"/>
+      <c r="H83" s="173"/>
       <c r="I83" s="9"/>
     </row>
-    <row r="84" spans="1:9" s="161" customFormat="1">
-      <c r="A84" s="87"/>
-      <c r="B84" s="91"/>
+    <row r="84" spans="1:9" s="139" customFormat="1">
+      <c r="A84" s="300"/>
+      <c r="B84" s="274"/>
       <c r="C84" s="68"/>
       <c r="D84" s="69"/>
-      <c r="E84" s="128"/>
-      <c r="F84" s="203"/>
-      <c r="G84" s="198"/>
-      <c r="H84" s="199"/>
+      <c r="E84" s="117"/>
+      <c r="F84" s="177"/>
+      <c r="G84" s="172"/>
+      <c r="H84" s="173"/>
       <c r="I84" s="9"/>
     </row>
-    <row r="85" spans="1:9" s="12" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A85" s="191"/>
-      <c r="B85" s="192"/>
-      <c r="C85" s="230"/>
-      <c r="D85" s="231"/>
-      <c r="E85" s="232"/>
-      <c r="F85" s="233"/>
-      <c r="G85" s="234"/>
-      <c r="H85" s="235"/>
-      <c r="I85" s="236"/>
-    </row>
-    <row r="86" spans="1:9" s="94" customFormat="1">
-      <c r="A86" s="111" t="s">
+    <row r="85" spans="1:9" s="139" customFormat="1">
+      <c r="A85" s="300"/>
+      <c r="B85" s="274"/>
+      <c r="C85" s="68"/>
+      <c r="D85" s="69"/>
+      <c r="E85" s="117"/>
+      <c r="F85" s="177"/>
+      <c r="G85" s="172"/>
+      <c r="H85" s="173"/>
+      <c r="I85" s="9"/>
+    </row>
+    <row r="86" spans="1:9" s="12" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A86" s="301"/>
+      <c r="B86" s="275"/>
+      <c r="C86" s="204"/>
+      <c r="D86" s="205"/>
+      <c r="E86" s="206"/>
+      <c r="F86" s="207"/>
+      <c r="G86" s="208"/>
+      <c r="H86" s="209"/>
+      <c r="I86" s="210"/>
+    </row>
+    <row r="87" spans="1:9" s="88" customFormat="1">
+      <c r="A87" s="281" t="s">
         <v>26</v>
       </c>
-      <c r="B86" s="112" t="s">
+      <c r="B87" s="284" t="s">
         <v>56</v>
       </c>
-      <c r="C86" s="113"/>
-      <c r="D86" s="114"/>
-      <c r="E86" s="131"/>
-      <c r="F86" s="215"/>
-      <c r="G86" s="216"/>
-      <c r="H86" s="217"/>
-      <c r="I86" s="115"/>
-    </row>
-    <row r="87" spans="1:9" s="259" customFormat="1">
-      <c r="A87" s="257"/>
-      <c r="B87" s="258"/>
-      <c r="C87" s="99"/>
-      <c r="D87" s="96"/>
-      <c r="E87" s="129"/>
-      <c r="F87" s="206"/>
-      <c r="G87" s="202"/>
-      <c r="H87" s="197"/>
-      <c r="I87" s="97"/>
-    </row>
-    <row r="88" spans="1:9" s="259" customFormat="1">
-      <c r="A88" s="257"/>
-      <c r="B88" s="258"/>
-      <c r="C88" s="99"/>
-      <c r="D88" s="96"/>
-      <c r="E88" s="129"/>
-      <c r="F88" s="206"/>
-      <c r="G88" s="202"/>
-      <c r="H88" s="197"/>
-      <c r="I88" s="97"/>
-    </row>
-    <row r="89" spans="1:9" s="259" customFormat="1">
-      <c r="A89" s="257"/>
-      <c r="B89" s="258"/>
-      <c r="C89" s="99"/>
-      <c r="D89" s="96"/>
-      <c r="E89" s="129"/>
-      <c r="F89" s="206"/>
-      <c r="G89" s="202"/>
-      <c r="H89" s="197"/>
-      <c r="I89" s="97"/>
-    </row>
-    <row r="90" spans="1:9" s="259" customFormat="1">
-      <c r="A90" s="257"/>
-      <c r="B90" s="258"/>
-      <c r="C90" s="99"/>
-      <c r="D90" s="96"/>
-      <c r="E90" s="129"/>
-      <c r="F90" s="206"/>
-      <c r="G90" s="202"/>
-      <c r="H90" s="197"/>
-      <c r="I90" s="97"/>
-    </row>
-    <row r="91" spans="1:9" s="256" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A91" s="247"/>
-      <c r="B91" s="248"/>
-      <c r="C91" s="249"/>
-      <c r="D91" s="250"/>
-      <c r="E91" s="251"/>
-      <c r="F91" s="252"/>
-      <c r="G91" s="253"/>
-      <c r="H91" s="254"/>
-      <c r="I91" s="255"/>
-    </row>
-    <row r="92" spans="1:9" s="74" customFormat="1">
-      <c r="A92" s="85" t="s">
+      <c r="C87" s="103"/>
+      <c r="D87" s="104"/>
+      <c r="E87" s="120"/>
+      <c r="F87" s="189"/>
+      <c r="G87" s="190"/>
+      <c r="H87" s="191"/>
+      <c r="I87" s="105"/>
+    </row>
+    <row r="88" spans="1:9" s="228" customFormat="1">
+      <c r="A88" s="282"/>
+      <c r="B88" s="285"/>
+      <c r="C88" s="93"/>
+      <c r="D88" s="90"/>
+      <c r="E88" s="118"/>
+      <c r="F88" s="180"/>
+      <c r="G88" s="176"/>
+      <c r="H88" s="171"/>
+      <c r="I88" s="91"/>
+    </row>
+    <row r="89" spans="1:9" s="228" customFormat="1">
+      <c r="A89" s="282"/>
+      <c r="B89" s="285"/>
+      <c r="C89" s="93"/>
+      <c r="D89" s="90"/>
+      <c r="E89" s="118"/>
+      <c r="F89" s="180"/>
+      <c r="G89" s="176"/>
+      <c r="H89" s="171"/>
+      <c r="I89" s="91"/>
+    </row>
+    <row r="90" spans="1:9" s="228" customFormat="1">
+      <c r="A90" s="282"/>
+      <c r="B90" s="285"/>
+      <c r="C90" s="93"/>
+      <c r="D90" s="90"/>
+      <c r="E90" s="118"/>
+      <c r="F90" s="180"/>
+      <c r="G90" s="176"/>
+      <c r="H90" s="171"/>
+      <c r="I90" s="91"/>
+    </row>
+    <row r="91" spans="1:9" s="228" customFormat="1">
+      <c r="A91" s="282"/>
+      <c r="B91" s="285"/>
+      <c r="C91" s="93"/>
+      <c r="D91" s="90"/>
+      <c r="E91" s="118"/>
+      <c r="F91" s="180"/>
+      <c r="G91" s="176"/>
+      <c r="H91" s="171"/>
+      <c r="I91" s="91"/>
+    </row>
+    <row r="92" spans="1:9" s="227" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A92" s="283"/>
+      <c r="B92" s="286"/>
+      <c r="C92" s="220"/>
+      <c r="D92" s="221"/>
+      <c r="E92" s="222"/>
+      <c r="F92" s="223"/>
+      <c r="G92" s="224"/>
+      <c r="H92" s="225"/>
+      <c r="I92" s="226"/>
+    </row>
+    <row r="93" spans="1:9" s="74" customFormat="1">
+      <c r="A93" s="299" t="s">
         <v>27</v>
       </c>
-      <c r="B92" s="89" t="s">
+      <c r="B93" s="302" t="s">
         <v>57</v>
       </c>
-      <c r="C92" s="82"/>
-      <c r="D92" s="83"/>
-      <c r="E92" s="130"/>
-      <c r="F92" s="211"/>
-      <c r="G92" s="212"/>
-      <c r="H92" s="213"/>
-      <c r="I92" s="81"/>
-    </row>
-    <row r="93" spans="1:9" s="161" customFormat="1">
-      <c r="A93" s="87"/>
-      <c r="B93" s="91"/>
-      <c r="C93" s="68"/>
-      <c r="D93" s="69"/>
-      <c r="E93" s="128"/>
-      <c r="F93" s="203"/>
-      <c r="G93" s="198"/>
-      <c r="H93" s="199"/>
-      <c r="I93" s="9"/>
-    </row>
-    <row r="94" spans="1:9" s="161" customFormat="1">
-      <c r="A94" s="87"/>
-      <c r="B94" s="91"/>
+      <c r="C93" s="82"/>
+      <c r="D93" s="83"/>
+      <c r="E93" s="119"/>
+      <c r="F93" s="185"/>
+      <c r="G93" s="186"/>
+      <c r="H93" s="187"/>
+      <c r="I93" s="81"/>
+    </row>
+    <row r="94" spans="1:9" s="139" customFormat="1">
+      <c r="A94" s="300"/>
+      <c r="B94" s="303"/>
       <c r="C94" s="68"/>
       <c r="D94" s="69"/>
-      <c r="E94" s="128"/>
-      <c r="F94" s="203"/>
-      <c r="G94" s="198"/>
-      <c r="H94" s="199"/>
+      <c r="E94" s="117"/>
+      <c r="F94" s="177"/>
+      <c r="G94" s="172"/>
+      <c r="H94" s="173"/>
       <c r="I94" s="9"/>
     </row>
-    <row r="95" spans="1:9" s="161" customFormat="1">
-      <c r="A95" s="87"/>
-      <c r="B95" s="91"/>
+    <row r="95" spans="1:9" s="139" customFormat="1">
+      <c r="A95" s="300"/>
+      <c r="B95" s="303"/>
       <c r="C95" s="68"/>
       <c r="D95" s="69"/>
-      <c r="E95" s="128"/>
-      <c r="F95" s="203"/>
-      <c r="G95" s="198"/>
-      <c r="H95" s="199"/>
+      <c r="E95" s="117"/>
+      <c r="F95" s="177"/>
+      <c r="G95" s="172"/>
+      <c r="H95" s="173"/>
       <c r="I95" s="9"/>
     </row>
-    <row r="96" spans="1:9" s="161" customFormat="1">
-      <c r="A96" s="87"/>
-      <c r="B96" s="91"/>
+    <row r="96" spans="1:9" s="139" customFormat="1">
+      <c r="A96" s="300"/>
+      <c r="B96" s="303"/>
       <c r="C96" s="68"/>
       <c r="D96" s="69"/>
-      <c r="E96" s="128"/>
-      <c r="F96" s="203"/>
-      <c r="G96" s="198"/>
-      <c r="H96" s="199"/>
+      <c r="E96" s="117"/>
+      <c r="F96" s="177"/>
+      <c r="G96" s="172"/>
+      <c r="H96" s="173"/>
       <c r="I96" s="9"/>
     </row>
-    <row r="97" spans="1:9" s="12" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A97" s="191"/>
-      <c r="B97" s="192"/>
-      <c r="C97" s="230"/>
-      <c r="D97" s="231"/>
-      <c r="E97" s="232"/>
-      <c r="F97" s="233"/>
-      <c r="G97" s="234"/>
-      <c r="H97" s="235"/>
-      <c r="I97" s="236"/>
-    </row>
-    <row r="98" spans="1:9" s="94" customFormat="1">
-      <c r="A98" s="111" t="s">
+    <row r="97" spans="1:9" s="139" customFormat="1">
+      <c r="A97" s="300"/>
+      <c r="B97" s="303"/>
+      <c r="C97" s="68"/>
+      <c r="D97" s="69"/>
+      <c r="E97" s="117"/>
+      <c r="F97" s="177"/>
+      <c r="G97" s="172"/>
+      <c r="H97" s="173"/>
+      <c r="I97" s="9"/>
+    </row>
+    <row r="98" spans="1:9" s="12" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A98" s="301"/>
+      <c r="B98" s="304"/>
+      <c r="C98" s="204"/>
+      <c r="D98" s="205"/>
+      <c r="E98" s="206"/>
+      <c r="F98" s="207"/>
+      <c r="G98" s="208"/>
+      <c r="H98" s="209"/>
+      <c r="I98" s="210"/>
+    </row>
+    <row r="99" spans="1:9" s="88" customFormat="1">
+      <c r="A99" s="281" t="s">
         <v>28</v>
       </c>
-      <c r="B98" s="112" t="s">
+      <c r="B99" s="284" t="s">
         <v>58</v>
       </c>
-      <c r="C98" s="113"/>
-      <c r="D98" s="114"/>
-      <c r="E98" s="131"/>
-      <c r="F98" s="215"/>
-      <c r="G98" s="216"/>
-      <c r="H98" s="217"/>
-      <c r="I98" s="115"/>
-    </row>
-    <row r="99" spans="1:9" s="259" customFormat="1">
-      <c r="A99" s="257"/>
-      <c r="B99" s="258"/>
-      <c r="C99" s="99"/>
-      <c r="D99" s="96"/>
-      <c r="E99" s="129"/>
-      <c r="F99" s="206"/>
-      <c r="G99" s="202"/>
-      <c r="H99" s="197"/>
-      <c r="I99" s="97"/>
-    </row>
-    <row r="100" spans="1:9" s="259" customFormat="1">
-      <c r="A100" s="257"/>
-      <c r="B100" s="258"/>
-      <c r="C100" s="99"/>
-      <c r="D100" s="96"/>
-      <c r="E100" s="129"/>
-      <c r="F100" s="206"/>
-      <c r="G100" s="202"/>
-      <c r="H100" s="197"/>
-      <c r="I100" s="97"/>
-    </row>
-    <row r="101" spans="1:9" s="259" customFormat="1">
-      <c r="A101" s="257"/>
-      <c r="B101" s="258"/>
-      <c r="C101" s="99"/>
-      <c r="D101" s="96"/>
-      <c r="E101" s="129"/>
-      <c r="F101" s="206"/>
-      <c r="G101" s="202"/>
-      <c r="H101" s="197"/>
-      <c r="I101" s="97"/>
-    </row>
-    <row r="102" spans="1:9" s="259" customFormat="1">
-      <c r="A102" s="257"/>
-      <c r="B102" s="258"/>
-      <c r="C102" s="99"/>
-      <c r="D102" s="96"/>
-      <c r="E102" s="129"/>
-      <c r="F102" s="206"/>
-      <c r="G102" s="202"/>
-      <c r="H102" s="197"/>
-      <c r="I102" s="97"/>
-    </row>
-    <row r="103" spans="1:9" s="256" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A103" s="247"/>
-      <c r="B103" s="248"/>
-      <c r="C103" s="249"/>
-      <c r="D103" s="250"/>
-      <c r="E103" s="251"/>
-      <c r="F103" s="252"/>
-      <c r="G103" s="253"/>
-      <c r="H103" s="254"/>
-      <c r="I103" s="255"/>
-    </row>
-    <row r="104" spans="1:9" s="183" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A104" s="184" t="s">
+      <c r="C99" s="103"/>
+      <c r="D99" s="104"/>
+      <c r="E99" s="120"/>
+      <c r="F99" s="189"/>
+      <c r="G99" s="190"/>
+      <c r="H99" s="191"/>
+      <c r="I99" s="105"/>
+    </row>
+    <row r="100" spans="1:9" s="228" customFormat="1">
+      <c r="A100" s="282"/>
+      <c r="B100" s="285"/>
+      <c r="C100" s="93"/>
+      <c r="D100" s="90"/>
+      <c r="E100" s="118"/>
+      <c r="F100" s="180"/>
+      <c r="G100" s="176"/>
+      <c r="H100" s="171"/>
+      <c r="I100" s="91"/>
+    </row>
+    <row r="101" spans="1:9" s="228" customFormat="1">
+      <c r="A101" s="282"/>
+      <c r="B101" s="285"/>
+      <c r="C101" s="93"/>
+      <c r="D101" s="90"/>
+      <c r="E101" s="118"/>
+      <c r="F101" s="180"/>
+      <c r="G101" s="176"/>
+      <c r="H101" s="171"/>
+      <c r="I101" s="91"/>
+    </row>
+    <row r="102" spans="1:9" s="228" customFormat="1">
+      <c r="A102" s="282"/>
+      <c r="B102" s="285"/>
+      <c r="C102" s="93"/>
+      <c r="D102" s="90"/>
+      <c r="E102" s="118"/>
+      <c r="F102" s="180"/>
+      <c r="G102" s="176"/>
+      <c r="H102" s="171"/>
+      <c r="I102" s="91"/>
+    </row>
+    <row r="103" spans="1:9" s="228" customFormat="1">
+      <c r="A103" s="282"/>
+      <c r="B103" s="285"/>
+      <c r="C103" s="93"/>
+      <c r="D103" s="90"/>
+      <c r="E103" s="118"/>
+      <c r="F103" s="180"/>
+      <c r="G103" s="176"/>
+      <c r="H103" s="171"/>
+      <c r="I103" s="91"/>
+    </row>
+    <row r="104" spans="1:9" s="227" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A104" s="283"/>
+      <c r="B104" s="286"/>
+      <c r="C104" s="220"/>
+      <c r="D104" s="221"/>
+      <c r="E104" s="222"/>
+      <c r="F104" s="223"/>
+      <c r="G104" s="224"/>
+      <c r="H104" s="225"/>
+      <c r="I104" s="226"/>
+    </row>
+    <row r="105" spans="1:9" s="161" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A105" s="287" t="s">
         <v>29</v>
       </c>
-      <c r="B104" s="185" t="s">
+      <c r="B105" s="290" t="s">
         <v>59</v>
       </c>
-      <c r="C104" s="186"/>
-      <c r="D104" s="187"/>
-      <c r="E104" s="188"/>
-      <c r="F104" s="218"/>
-      <c r="G104" s="219"/>
-      <c r="H104" s="220"/>
-      <c r="I104" s="189" t="s">
+      <c r="C105" s="162"/>
+      <c r="D105" s="163"/>
+      <c r="E105" s="164"/>
+      <c r="F105" s="192"/>
+      <c r="G105" s="193"/>
+      <c r="H105" s="194"/>
+      <c r="I105" s="165" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="105" spans="1:9" s="246" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A105" s="237"/>
-      <c r="B105" s="238"/>
-      <c r="C105" s="239"/>
-      <c r="D105" s="240"/>
-      <c r="E105" s="241"/>
-      <c r="F105" s="242"/>
-      <c r="G105" s="243"/>
-      <c r="H105" s="244"/>
-      <c r="I105" s="245"/>
-    </row>
-    <row r="106" spans="1:9" s="246" customFormat="1">
-      <c r="A106" s="237"/>
-      <c r="B106" s="238"/>
-      <c r="C106" s="239"/>
-      <c r="D106" s="240"/>
-      <c r="E106" s="241"/>
-      <c r="F106" s="242"/>
-      <c r="G106" s="243"/>
-      <c r="H106" s="244"/>
-      <c r="I106" s="245"/>
-    </row>
-    <row r="107" spans="1:9">
-      <c r="F107" s="203"/>
-      <c r="G107" s="198"/>
-      <c r="H107" s="199"/>
+    <row r="106" spans="1:9" s="218" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A106" s="288"/>
+      <c r="B106" s="291"/>
+      <c r="C106" s="211"/>
+      <c r="D106" s="212"/>
+      <c r="E106" s="213"/>
+      <c r="F106" s="214"/>
+      <c r="G106" s="215"/>
+      <c r="H106" s="216"/>
+      <c r="I106" s="217"/>
+    </row>
+    <row r="107" spans="1:9" s="218" customFormat="1">
+      <c r="A107" s="289"/>
+      <c r="B107" s="292"/>
+      <c r="C107" s="211"/>
+      <c r="D107" s="212"/>
+      <c r="E107" s="213"/>
+      <c r="F107" s="214"/>
+      <c r="G107" s="215"/>
+      <c r="H107" s="216"/>
+      <c r="I107" s="217"/>
     </row>
     <row r="108" spans="1:9">
-      <c r="F108" s="203"/>
-      <c r="G108" s="198"/>
-      <c r="H108" s="199"/>
+      <c r="F108" s="177"/>
+      <c r="G108" s="172"/>
+      <c r="H108" s="173"/>
     </row>
     <row r="109" spans="1:9">
-      <c r="F109" s="203"/>
-      <c r="G109" s="198"/>
-      <c r="H109" s="199"/>
-    </row>
-    <row r="110" spans="1:9" hidden="1">
-      <c r="F110" s="203"/>
-      <c r="G110" s="198"/>
-      <c r="H110" s="199"/>
+      <c r="F109" s="177"/>
+      <c r="G109" s="172"/>
+      <c r="H109" s="173"/>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="F110" s="177"/>
+      <c r="G110" s="172"/>
+      <c r="H110" s="173"/>
     </row>
     <row r="111" spans="1:9" hidden="1">
-      <c r="F111" s="203"/>
-      <c r="G111" s="198"/>
-      <c r="H111" s="199"/>
+      <c r="F111" s="177"/>
+      <c r="G111" s="172"/>
+      <c r="H111" s="173"/>
     </row>
     <row r="112" spans="1:9" hidden="1">
-      <c r="F112" s="203"/>
-      <c r="G112" s="198"/>
-      <c r="H112" s="199"/>
+      <c r="F112" s="177"/>
+      <c r="G112" s="172"/>
+      <c r="H112" s="173"/>
     </row>
     <row r="113" spans="6:8" hidden="1">
-      <c r="F113" s="203"/>
-      <c r="G113" s="198"/>
-      <c r="H113" s="199"/>
+      <c r="F113" s="177"/>
+      <c r="G113" s="172"/>
+      <c r="H113" s="173"/>
     </row>
     <row r="114" spans="6:8" hidden="1">
-      <c r="F114" s="203"/>
-      <c r="G114" s="198"/>
-      <c r="H114" s="199"/>
+      <c r="F114" s="177"/>
+      <c r="G114" s="172"/>
+      <c r="H114" s="173"/>
     </row>
     <row r="115" spans="6:8" hidden="1">
-      <c r="F115" s="203"/>
-      <c r="G115" s="198"/>
-      <c r="H115" s="199"/>
+      <c r="F115" s="177"/>
+      <c r="G115" s="172"/>
+      <c r="H115" s="173"/>
     </row>
     <row r="116" spans="6:8" hidden="1">
-      <c r="F116" s="203"/>
-      <c r="G116" s="198"/>
-      <c r="H116" s="199"/>
+      <c r="F116" s="177"/>
+      <c r="G116" s="172"/>
+      <c r="H116" s="173"/>
     </row>
     <row r="117" spans="6:8" hidden="1">
-      <c r="F117" s="203"/>
-      <c r="G117" s="198"/>
-      <c r="H117" s="199"/>
+      <c r="F117" s="177"/>
+      <c r="G117" s="172"/>
+      <c r="H117" s="173"/>
     </row>
     <row r="118" spans="6:8" hidden="1">
-      <c r="F118" s="203"/>
-      <c r="G118" s="198"/>
-      <c r="H118" s="199"/>
+      <c r="F118" s="177"/>
+      <c r="G118" s="172"/>
+      <c r="H118" s="173"/>
     </row>
     <row r="119" spans="6:8" hidden="1">
-      <c r="F119" s="203"/>
-      <c r="G119" s="198"/>
-      <c r="H119" s="199"/>
+      <c r="F119" s="177"/>
+      <c r="G119" s="172"/>
+      <c r="H119" s="173"/>
     </row>
     <row r="120" spans="6:8" hidden="1">
-      <c r="F120" s="203"/>
-      <c r="G120" s="198"/>
-      <c r="H120" s="199"/>
+      <c r="F120" s="177"/>
+      <c r="G120" s="172"/>
+      <c r="H120" s="173"/>
     </row>
     <row r="121" spans="6:8" hidden="1">
-      <c r="F121" s="203"/>
-      <c r="G121" s="198"/>
-      <c r="H121" s="199"/>
+      <c r="F121" s="177"/>
+      <c r="G121" s="172"/>
+      <c r="H121" s="173"/>
     </row>
     <row r="122" spans="6:8" hidden="1">
-      <c r="F122" s="203"/>
-      <c r="G122" s="198"/>
-      <c r="H122" s="199"/>
+      <c r="F122" s="177"/>
+      <c r="G122" s="172"/>
+      <c r="H122" s="173"/>
     </row>
     <row r="123" spans="6:8" hidden="1">
-      <c r="F123" s="203"/>
-      <c r="G123" s="198"/>
-      <c r="H123" s="199"/>
+      <c r="F123" s="177"/>
+      <c r="G123" s="172"/>
+      <c r="H123" s="173"/>
     </row>
     <row r="124" spans="6:8" hidden="1">
-      <c r="F124" s="203"/>
-      <c r="G124" s="198"/>
-      <c r="H124" s="199"/>
+      <c r="F124" s="177"/>
+      <c r="G124" s="172"/>
+      <c r="H124" s="173"/>
     </row>
     <row r="125" spans="6:8" hidden="1">
-      <c r="F125" s="203"/>
-      <c r="G125" s="198"/>
-      <c r="H125" s="199"/>
+      <c r="F125" s="177"/>
+      <c r="G125" s="172"/>
+      <c r="H125" s="173"/>
     </row>
     <row r="126" spans="6:8" hidden="1">
-      <c r="F126" s="203"/>
-      <c r="G126" s="198"/>
-      <c r="H126" s="199"/>
+      <c r="F126" s="177"/>
+      <c r="G126" s="172"/>
+      <c r="H126" s="173"/>
     </row>
     <row r="127" spans="6:8" hidden="1">
-      <c r="F127" s="203"/>
-      <c r="G127" s="198"/>
-      <c r="H127" s="199"/>
+      <c r="F127" s="177"/>
+      <c r="G127" s="172"/>
+      <c r="H127" s="173"/>
     </row>
     <row r="128" spans="6:8" hidden="1">
-      <c r="F128" s="203"/>
-      <c r="G128" s="198"/>
-      <c r="H128" s="199"/>
+      <c r="F128" s="177"/>
+      <c r="G128" s="172"/>
+      <c r="H128" s="173"/>
     </row>
     <row r="129" spans="6:8" hidden="1">
-      <c r="F129" s="203"/>
-      <c r="G129" s="198"/>
-      <c r="H129" s="199"/>
+      <c r="F129" s="177"/>
+      <c r="G129" s="172"/>
+      <c r="H129" s="173"/>
     </row>
     <row r="130" spans="6:8" hidden="1">
-      <c r="F130" s="203"/>
-      <c r="G130" s="198"/>
-      <c r="H130" s="199"/>
+      <c r="F130" s="177"/>
+      <c r="G130" s="172"/>
+      <c r="H130" s="173"/>
     </row>
     <row r="131" spans="6:8" hidden="1">
-      <c r="F131" s="203"/>
-      <c r="G131" s="198"/>
-      <c r="H131" s="199"/>
+      <c r="F131" s="177"/>
+      <c r="G131" s="172"/>
+      <c r="H131" s="173"/>
     </row>
     <row r="132" spans="6:8" hidden="1">
-      <c r="F132" s="203"/>
-      <c r="G132" s="198"/>
-      <c r="H132" s="199"/>
+      <c r="F132" s="177"/>
+      <c r="G132" s="172"/>
+      <c r="H132" s="173"/>
     </row>
     <row r="133" spans="6:8" hidden="1">
-      <c r="F133" s="203"/>
-      <c r="G133" s="198"/>
-      <c r="H133" s="199"/>
+      <c r="F133" s="177"/>
+      <c r="G133" s="172"/>
+      <c r="H133" s="173"/>
     </row>
     <row r="134" spans="6:8" hidden="1">
-      <c r="F134" s="203"/>
-      <c r="G134" s="198"/>
-      <c r="H134" s="199"/>
+      <c r="F134" s="177"/>
+      <c r="G134" s="172"/>
+      <c r="H134" s="173"/>
     </row>
     <row r="135" spans="6:8" hidden="1">
-      <c r="F135" s="203"/>
-      <c r="G135" s="198"/>
-      <c r="H135" s="199"/>
+      <c r="F135" s="177"/>
+      <c r="G135" s="172"/>
+      <c r="H135" s="173"/>
     </row>
     <row r="136" spans="6:8" hidden="1">
-      <c r="F136" s="203"/>
-      <c r="G136" s="198"/>
-      <c r="H136" s="199"/>
+      <c r="F136" s="177"/>
+      <c r="G136" s="172"/>
+      <c r="H136" s="173"/>
     </row>
     <row r="137" spans="6:8" hidden="1">
-      <c r="F137" s="203"/>
-      <c r="G137" s="198"/>
-      <c r="H137" s="199"/>
+      <c r="F137" s="177"/>
+      <c r="G137" s="172"/>
+      <c r="H137" s="173"/>
     </row>
     <row r="138" spans="6:8" hidden="1">
-      <c r="F138" s="203"/>
-      <c r="G138" s="198"/>
-      <c r="H138" s="199"/>
-    </row>
-    <row r="139" spans="6:8" hidden="1"/>
+      <c r="F138" s="177"/>
+      <c r="G138" s="172"/>
+      <c r="H138" s="173"/>
+    </row>
+    <row r="139" spans="6:8" hidden="1">
+      <c r="F139" s="177"/>
+      <c r="G139" s="172"/>
+      <c r="H139" s="173"/>
+    </row>
+    <row r="140" spans="6:8" hidden="1"/>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="A55:A60"/>
-    <mergeCell ref="B55:B60"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A35:A41"/>
-    <mergeCell ref="B35:B41"/>
+  <mergeCells count="43">
+    <mergeCell ref="A56:A61"/>
+    <mergeCell ref="B56:B61"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="A49:A55"/>
+    <mergeCell ref="B49:B55"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A8:A14"/>
     <mergeCell ref="B8:B14"/>
     <mergeCell ref="A15:A20"/>
     <mergeCell ref="B15:B20"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A35:A41"/>
+    <mergeCell ref="B35:B41"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="B75:B80"/>
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="C6:H6"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="B42:B48"/>
+    <mergeCell ref="A99:A104"/>
+    <mergeCell ref="B99:B104"/>
+    <mergeCell ref="A105:A107"/>
+    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="B29:B34"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="A87:A92"/>
+    <mergeCell ref="B87:B92"/>
+    <mergeCell ref="A93:A98"/>
+    <mergeCell ref="B93:B98"/>
+    <mergeCell ref="A63:A68"/>
+    <mergeCell ref="B63:B68"/>
+    <mergeCell ref="A69:A74"/>
+    <mergeCell ref="B69:B74"/>
+    <mergeCell ref="A75:A80"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5972,11 +6002,11 @@
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:N79"/>
+  <dimension ref="A1:N80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -6066,7 +6096,7 @@
       <c r="K2" s="41" t="s">
         <v>549</v>
       </c>
-      <c r="L2" s="359" t="s">
+      <c r="L2" s="356" t="s">
         <v>129</v>
       </c>
     </row>
@@ -6084,7 +6114,7 @@
       <c r="I3" s="56"/>
       <c r="J3" s="56"/>
       <c r="K3" s="56"/>
-      <c r="L3" s="360"/>
+      <c r="L3" s="357"/>
     </row>
     <row r="4" spans="1:12" s="14" customFormat="1">
       <c r="A4" s="56"/>
@@ -6100,7 +6130,7 @@
       <c r="I4" s="56"/>
       <c r="J4" s="56"/>
       <c r="K4" s="56"/>
-      <c r="L4" s="360"/>
+      <c r="L4" s="357"/>
     </row>
     <row r="5" spans="1:12" s="14" customFormat="1">
       <c r="A5" s="56"/>
@@ -6116,7 +6146,7 @@
       <c r="I5" s="56"/>
       <c r="J5" s="56"/>
       <c r="K5" s="56"/>
-      <c r="L5" s="360"/>
+      <c r="L5" s="357"/>
     </row>
     <row r="6" spans="1:12" s="14" customFormat="1">
       <c r="A6" s="56"/>
@@ -6132,7 +6162,7 @@
       <c r="I6" s="56"/>
       <c r="J6" s="56"/>
       <c r="K6" s="56"/>
-      <c r="L6" s="360"/>
+      <c r="L6" s="357"/>
     </row>
     <row r="7" spans="1:12" s="14" customFormat="1">
       <c r="A7" s="56"/>
@@ -6148,7 +6178,7 @@
       <c r="I7" s="56"/>
       <c r="J7" s="56"/>
       <c r="K7" s="56"/>
-      <c r="L7" s="360"/>
+      <c r="L7" s="357"/>
     </row>
     <row r="8" spans="1:12" s="14" customFormat="1">
       <c r="A8" s="56"/>
@@ -6164,7 +6194,7 @@
       <c r="I8" s="56"/>
       <c r="J8" s="56"/>
       <c r="K8" s="56"/>
-      <c r="L8" s="360"/>
+      <c r="L8" s="357"/>
     </row>
     <row r="9" spans="1:12" s="14" customFormat="1">
       <c r="A9" s="56"/>
@@ -6180,7 +6210,7 @@
       <c r="I9" s="56"/>
       <c r="J9" s="56"/>
       <c r="K9" s="56"/>
-      <c r="L9" s="360"/>
+      <c r="L9" s="357"/>
     </row>
     <row r="10" spans="1:12" s="14" customFormat="1">
       <c r="A10" s="56"/>
@@ -6196,7 +6226,7 @@
       <c r="I10" s="56"/>
       <c r="J10" s="56"/>
       <c r="K10" s="56"/>
-      <c r="L10" s="360"/>
+      <c r="L10" s="357"/>
     </row>
     <row r="11" spans="1:12" s="14" customFormat="1">
       <c r="A11" s="56"/>
@@ -6212,7 +6242,7 @@
       <c r="I11" s="56"/>
       <c r="J11" s="56"/>
       <c r="K11" s="56"/>
-      <c r="L11" s="361"/>
+      <c r="L11" s="358"/>
     </row>
     <row r="12" spans="1:12" s="2" customFormat="1">
       <c r="A12" s="2" t="s">
@@ -6243,7 +6273,7 @@
         <v>70</v>
       </c>
       <c r="K12" s="11"/>
-      <c r="L12" s="362" t="s">
+      <c r="L12" s="359" t="s">
         <v>128</v>
       </c>
     </row>
@@ -6261,7 +6291,7 @@
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
       <c r="K13" s="17"/>
-      <c r="L13" s="363"/>
+      <c r="L13" s="360"/>
     </row>
     <row r="14" spans="1:12" s="35" customFormat="1">
       <c r="A14" s="35" t="s">
@@ -6294,7 +6324,7 @@
       <c r="K14" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="L14" s="364"/>
+      <c r="L14" s="361"/>
     </row>
     <row r="15" spans="1:12" s="14" customFormat="1">
       <c r="A15" s="56"/>
@@ -6310,7 +6340,7 @@
       <c r="I15" s="56"/>
       <c r="J15" s="56"/>
       <c r="K15" s="56"/>
-      <c r="L15" s="360"/>
+      <c r="L15" s="357"/>
     </row>
     <row r="16" spans="1:12" s="14" customFormat="1">
       <c r="A16" s="56"/>
@@ -6326,7 +6356,7 @@
       <c r="I16" s="56"/>
       <c r="J16" s="56"/>
       <c r="K16" s="56"/>
-      <c r="L16" s="360"/>
+      <c r="L16" s="357"/>
     </row>
     <row r="17" spans="1:12" s="14" customFormat="1">
       <c r="A17" s="56"/>
@@ -6342,7 +6372,7 @@
       <c r="I17" s="56"/>
       <c r="J17" s="56"/>
       <c r="K17" s="56"/>
-      <c r="L17" s="360"/>
+      <c r="L17" s="357"/>
     </row>
     <row r="18" spans="1:12" s="14" customFormat="1">
       <c r="A18" s="56"/>
@@ -6358,7 +6388,7 @@
       <c r="I18" s="56"/>
       <c r="J18" s="56"/>
       <c r="K18" s="56"/>
-      <c r="L18" s="361"/>
+      <c r="L18" s="358"/>
     </row>
     <row r="19" spans="1:12" s="2" customFormat="1">
       <c r="A19" s="2" t="s">
@@ -6391,7 +6421,7 @@
       <c r="K19" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="L19" s="362"/>
+      <c r="L19" s="359"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="17"/>
@@ -6407,7 +6437,7 @@
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
       <c r="K20" s="17"/>
-      <c r="L20" s="363"/>
+      <c r="L20" s="360"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="17"/>
@@ -6423,7 +6453,7 @@
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
       <c r="K21" s="17"/>
-      <c r="L21" s="363"/>
+      <c r="L21" s="360"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="17"/>
@@ -6439,7 +6469,7 @@
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
       <c r="K22" s="17"/>
-      <c r="L22" s="365"/>
+      <c r="L22" s="362"/>
     </row>
     <row r="23" spans="1:12" s="35" customFormat="1">
       <c r="A23" s="35" t="s">
@@ -6470,7 +6500,7 @@
         <v>73</v>
       </c>
       <c r="K23" s="41"/>
-      <c r="L23" s="364"/>
+      <c r="L23" s="361"/>
     </row>
     <row r="24" spans="1:12" s="14" customFormat="1">
       <c r="A24" s="56"/>
@@ -6486,7 +6516,7 @@
       <c r="I24" s="56"/>
       <c r="J24" s="56"/>
       <c r="K24" s="56"/>
-      <c r="L24" s="360"/>
+      <c r="L24" s="357"/>
     </row>
     <row r="25" spans="1:12" s="14" customFormat="1">
       <c r="A25" s="56"/>
@@ -6502,7 +6532,7 @@
       <c r="I25" s="56"/>
       <c r="J25" s="56"/>
       <c r="K25" s="56"/>
-      <c r="L25" s="360"/>
+      <c r="L25" s="357"/>
     </row>
     <row r="26" spans="1:12" s="14" customFormat="1">
       <c r="A26" s="56"/>
@@ -6518,7 +6548,7 @@
       <c r="I26" s="56"/>
       <c r="J26" s="56"/>
       <c r="K26" s="56"/>
-      <c r="L26" s="361"/>
+      <c r="L26" s="358"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="2" t="s">
@@ -8172,6 +8202,38 @@
       <c r="K79" s="11" t="s">
         <v>195</v>
       </c>
+    </row>
+    <row r="80" spans="1:12" s="14" customFormat="1">
+      <c r="A80" s="35" t="s">
+        <v>580</v>
+      </c>
+      <c r="B80" s="35" t="s">
+        <v>584</v>
+      </c>
+      <c r="C80" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="D80" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="E80" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="F80" s="35" t="s">
+        <v>581</v>
+      </c>
+      <c r="G80" s="35" t="s">
+        <v>582</v>
+      </c>
+      <c r="H80" s="36">
+        <v>1</v>
+      </c>
+      <c r="I80" s="35"/>
+      <c r="J80" s="35"/>
+      <c r="K80" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="L80" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -8195,7 +8257,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -8450,11 +8512,11 @@
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -8583,7 +8645,7 @@
       </c>
       <c r="E6" s="26"/>
       <c r="F6" s="26" t="s">
-        <v>556</v>
+        <v>190</v>
       </c>
       <c r="G6" s="26"/>
     </row>
@@ -8680,7 +8742,7 @@
         <v>512</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>556</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="13" customFormat="1">
@@ -8698,7 +8760,7 @@
       </c>
       <c r="E12" s="26"/>
       <c r="F12" s="26" t="s">
-        <v>556</v>
+        <v>190</v>
       </c>
       <c r="G12" s="26"/>
     </row>
@@ -9023,9 +9085,26 @@
       </c>
       <c r="E32" s="26"/>
       <c r="F32" s="26" t="s">
-        <v>556</v>
+        <v>190</v>
       </c>
       <c r="G32" s="26"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C33" s="22">
+        <v>3</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>190</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9690,7 +9769,7 @@
     <col min="6" max="6" width="6.5703125" style="15" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" style="15" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="15" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="263" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="232" customWidth="1"/>
     <col min="10" max="10" width="15.7109375" style="15" customWidth="1"/>
     <col min="11" max="11" width="9.140625" style="15" customWidth="1"/>
     <col min="12" max="12" width="19.140625" style="15" customWidth="1"/>
@@ -9700,26 +9779,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A1" s="366" t="s">
+      <c r="A1" s="363" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="367"/>
+      <c r="B1" s="364"/>
       <c r="C1" s="15"/>
-      <c r="D1" s="280" t="s">
+      <c r="D1" s="247" t="s">
         <v>188</v>
       </c>
       <c r="E1" s="32"/>
-      <c r="F1" s="368" t="s">
+      <c r="F1" s="365" t="s">
         <v>201</v>
       </c>
-      <c r="G1" s="369"/>
+      <c r="G1" s="366"/>
       <c r="H1" s="15"/>
-      <c r="I1" s="263"/>
-      <c r="J1" s="281" t="s">
+      <c r="I1" s="232"/>
+      <c r="J1" s="248" t="s">
         <v>555</v>
       </c>
       <c r="K1" s="15"/>
-      <c r="L1" s="282" t="s">
+      <c r="L1" s="249" t="s">
         <v>561</v>
       </c>
       <c r="M1" s="15"/>
@@ -9727,14 +9806,14 @@
       <c r="O1" s="15"/>
     </row>
     <row r="2" spans="1:15" customFormat="1">
-      <c r="A2" s="285" t="s">
+      <c r="A2" s="252" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="286" t="s">
+      <c r="B2" s="253" t="s">
         <v>83</v>
       </c>
       <c r="C2" s="15"/>
-      <c r="D2" s="287"/>
+      <c r="D2" s="254"/>
       <c r="E2" s="15"/>
       <c r="F2" s="50" t="s">
         <v>197</v>
@@ -9743,12 +9822,12 @@
         <v>198</v>
       </c>
       <c r="H2" s="15"/>
-      <c r="I2" s="263"/>
-      <c r="J2" s="293" t="s">
+      <c r="I2" s="232"/>
+      <c r="J2" s="260" t="s">
         <v>556</v>
       </c>
       <c r="K2" s="15"/>
-      <c r="L2" s="296" t="s">
+      <c r="L2" s="263" t="s">
         <v>559</v>
       </c>
       <c r="M2" s="15"/>
@@ -9763,7 +9842,7 @@
         <v>85</v>
       </c>
       <c r="C3" s="15"/>
-      <c r="D3" s="288" t="s">
+      <c r="D3" s="255" t="s">
         <v>195</v>
       </c>
       <c r="E3" s="15"/>
@@ -9774,12 +9853,12 @@
         <v>193</v>
       </c>
       <c r="H3" s="15"/>
-      <c r="I3" s="263"/>
-      <c r="J3" s="290" t="s">
+      <c r="I3" s="232"/>
+      <c r="J3" s="257" t="s">
         <v>190</v>
       </c>
       <c r="K3" s="15"/>
-      <c r="L3" s="294" t="s">
+      <c r="L3" s="261" t="s">
         <v>560</v>
       </c>
       <c r="M3" s="15"/>
@@ -9787,14 +9866,14 @@
       <c r="O3" s="15"/>
     </row>
     <row r="4" spans="1:15" customFormat="1">
-      <c r="A4" s="283" t="s">
+      <c r="A4" s="250" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="284" t="s">
+      <c r="B4" s="251" t="s">
         <v>84</v>
       </c>
       <c r="C4" s="15"/>
-      <c r="D4" s="289" t="s">
+      <c r="D4" s="256" t="s">
         <v>189</v>
       </c>
       <c r="E4" s="15"/>
@@ -9805,12 +9884,12 @@
         <v>7</v>
       </c>
       <c r="H4" s="15"/>
-      <c r="I4" s="263"/>
-      <c r="J4" s="294" t="s">
+      <c r="I4" s="232"/>
+      <c r="J4" s="261" t="s">
         <v>557</v>
       </c>
       <c r="K4" s="15"/>
-      <c r="L4" s="297" t="s">
+      <c r="L4" s="264" t="s">
         <v>577</v>
       </c>
       <c r="M4" s="15"/>
@@ -9821,7 +9900,7 @@
       <c r="A5" s="33"/>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
-      <c r="D5" s="290" t="s">
+      <c r="D5" s="257" t="s">
         <v>190</v>
       </c>
       <c r="E5" s="15"/>
@@ -9832,8 +9911,8 @@
         <v>5</v>
       </c>
       <c r="H5" s="15"/>
-      <c r="I5" s="263"/>
-      <c r="J5" s="295" t="s">
+      <c r="I5" s="232"/>
+      <c r="J5" s="262" t="s">
         <v>558</v>
       </c>
       <c r="K5" s="15"/>
@@ -9846,7 +9925,7 @@
       <c r="A6" s="33"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
-      <c r="D6" s="291" t="s">
+      <c r="D6" s="258" t="s">
         <v>191</v>
       </c>
       <c r="E6" s="15"/>
@@ -9857,7 +9936,7 @@
         <v>200</v>
       </c>
       <c r="H6" s="15"/>
-      <c r="I6" s="263"/>
+      <c r="I6" s="232"/>
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
@@ -9866,7 +9945,7 @@
       <c r="O6" s="15"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="D7" s="292" t="s">
+      <c r="D7" s="259" t="s">
         <v>192</v>
       </c>
       <c r="F7" s="50" t="s">

--- a/Planning & Assetlist.xlsx
+++ b/Planning & Assetlist.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="597">
   <si>
     <t>Code Name</t>
   </si>
@@ -34,9 +34,6 @@
     <t>Time Needed</t>
   </si>
   <si>
-    <t>Time Used</t>
-  </si>
-  <si>
     <t>Rig</t>
   </si>
   <si>
@@ -712,9 +709,6 @@
     <t>3D_MBOX_001</t>
   </si>
   <si>
-    <t>3D_BUCH_001</t>
-  </si>
-  <si>
     <t>3D_WALL_001</t>
   </si>
   <si>
@@ -841,9 +835,6 @@
     <t>2D_MBOX_001</t>
   </si>
   <si>
-    <t>2D_BUCH_001</t>
-  </si>
-  <si>
     <t>2D_CSTR_001</t>
   </si>
   <si>
@@ -967,9 +958,6 @@
     <t>4U_MBOX_001</t>
   </si>
   <si>
-    <t>4U_BUCH_001</t>
-  </si>
-  <si>
     <t>4U_CSTR_001</t>
   </si>
   <si>
@@ -1778,6 +1766,51 @@
   </si>
   <si>
     <t>7S_CROS_001</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>f+c</t>
+  </si>
+  <si>
+    <t>Who</t>
+  </si>
+  <si>
+    <t>Create planning fase2</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>3D_BUSH_001</t>
+  </si>
+  <si>
+    <t>4U_BUSH_001</t>
+  </si>
+  <si>
+    <t>2D_BUSH_001</t>
+  </si>
+  <si>
+    <t>Prezi</t>
+  </si>
+  <si>
+    <t>Inplementate Scripts &amp; Last Fixes</t>
+  </si>
+  <si>
+    <t>Inplement new assets</t>
   </si>
 </sst>
 </file>
@@ -2063,12 +2096,6 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="lightTrellis">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor theme="4" tint="0.59999389629810485"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor theme="0" tint="-4.9989318521683403E-2"/>
@@ -2092,6 +2119,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="lightTrellis">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor theme="3" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="68">
     <border>
@@ -2932,7 +2965,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="371">
+  <cellXfs count="386">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -3157,9 +3190,6 @@
     <xf numFmtId="0" fontId="0" fillId="30" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3350,9 +3380,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3362,12 +3389,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3377,15 +3398,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3404,15 +3416,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="40" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3422,31 +3425,31 @@
     <xf numFmtId="0" fontId="4" fillId="40" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3492,9 +3495,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3502,15 +3502,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3529,7 +3520,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="65" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3542,9 +3533,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3577,10 +3565,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -3611,7 +3599,7 @@
     <xf numFmtId="0" fontId="0" fillId="39" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3638,6 +3626,166 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3647,39 +3795,141 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3698,195 +3948,6 @@
     <xf numFmtId="0" fontId="3" fillId="23" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3920,17 +3981,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4243,1711 +4315,2028 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:XFC140"/>
+  <dimension ref="A1:XFC153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="1"/>
   <cols>
     <col min="1" max="1" width="5.42578125" style="85" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="276" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="258" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" style="5" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" style="121" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="125" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="120" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="124" customWidth="1"/>
     <col min="7" max="7" width="20.7109375" style="7" customWidth="1"/>
     <col min="8" max="8" width="20.7109375" style="8" customWidth="1"/>
     <col min="9" max="9" width="44.7109375" style="9" customWidth="1"/>
-    <col min="10" max="16383" width="9.140625" hidden="1"/>
+    <col min="10" max="16383" width="0" hidden="1" customWidth="1"/>
     <col min="16384" max="16384" width="5.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="67" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A1" s="330" t="s">
+      <c r="A1" s="315" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="316"/>
+      <c r="C1" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="110" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="215" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="216" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="217" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="92" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A2" s="251" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="331"/>
-      <c r="C1" s="64" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="65" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" s="111" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" s="229" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="230" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="231" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="66" t="s">
+      <c r="B2" s="252" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="327" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="328"/>
+      <c r="E2" s="328"/>
+      <c r="F2" s="328"/>
+      <c r="G2" s="328"/>
+      <c r="H2" s="329"/>
+      <c r="I2" s="101"/>
+    </row>
+    <row r="3" spans="1:9" s="74" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A3" s="250" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" s="92" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A2" s="266" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="267" t="s">
+      <c r="B3" s="253" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="317" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="318"/>
-      <c r="E2" s="318"/>
-      <c r="F2" s="318"/>
-      <c r="G2" s="318"/>
-      <c r="H2" s="319"/>
-      <c r="I2" s="101"/>
-    </row>
-    <row r="3" spans="1:9" s="74" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="265" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="268" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="314" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="315"/>
-      <c r="E3" s="315"/>
-      <c r="F3" s="315"/>
-      <c r="G3" s="315"/>
-      <c r="H3" s="316"/>
+      <c r="C3" s="348" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="349"/>
+      <c r="E3" s="349"/>
+      <c r="F3" s="349"/>
+      <c r="G3" s="349"/>
+      <c r="H3" s="350"/>
       <c r="I3" s="81"/>
     </row>
     <row r="4" spans="1:9" s="100" customFormat="1" ht="15.75" thickBot="1">
       <c r="A4" s="98" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="254" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="269" t="s">
+      <c r="C4" s="345" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="346"/>
+      <c r="E4" s="346"/>
+      <c r="F4" s="346"/>
+      <c r="G4" s="346"/>
+      <c r="H4" s="347"/>
+      <c r="I4" s="99"/>
+    </row>
+    <row r="5" spans="1:9" s="160" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A5" s="330" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="311" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="312"/>
-      <c r="E4" s="312"/>
-      <c r="F4" s="312"/>
-      <c r="G4" s="312"/>
-      <c r="H4" s="313"/>
-      <c r="I4" s="99"/>
-    </row>
-    <row r="5" spans="1:9" s="161" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A5" s="320" t="s">
+      <c r="B5" s="332" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="322" t="s">
+      <c r="C5" s="339" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="340"/>
+      <c r="E5" s="340"/>
+      <c r="F5" s="340"/>
+      <c r="G5" s="340"/>
+      <c r="H5" s="341"/>
+      <c r="I5" s="158" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="160" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A6" s="331"/>
+      <c r="B6" s="333"/>
+      <c r="C6" s="342" t="s">
+        <v>524</v>
+      </c>
+      <c r="D6" s="343"/>
+      <c r="E6" s="343"/>
+      <c r="F6" s="343"/>
+      <c r="G6" s="343"/>
+      <c r="H6" s="344"/>
+      <c r="I6" s="159"/>
+    </row>
+    <row r="7" spans="1:9" s="109" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A7" s="125" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="305" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="306"/>
-      <c r="E5" s="306"/>
-      <c r="F5" s="306"/>
-      <c r="G5" s="306"/>
-      <c r="H5" s="307"/>
-      <c r="I5" s="159" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="161" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A6" s="321"/>
-      <c r="B6" s="323"/>
-      <c r="C6" s="308" t="s">
-        <v>528</v>
-      </c>
-      <c r="D6" s="309"/>
-      <c r="E6" s="309"/>
-      <c r="F6" s="309"/>
-      <c r="G6" s="309"/>
-      <c r="H6" s="310"/>
-      <c r="I6" s="160"/>
-    </row>
-    <row r="7" spans="1:9" s="110" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A7" s="126" t="s">
+      <c r="B7" s="255" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="270" t="s">
+      <c r="C7" s="105"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="108" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="74" customFormat="1">
+      <c r="A8" s="317" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="319" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="106"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="109" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="74" customFormat="1">
-      <c r="A8" s="324" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="327" t="s">
-        <v>43</v>
-      </c>
       <c r="C8" s="73" t="s">
-        <v>210</v>
-      </c>
-      <c r="D8" s="129" t="s">
-        <v>213</v>
-      </c>
-      <c r="E8" s="112" t="s">
-        <v>217</v>
-      </c>
-      <c r="F8" s="123" t="s">
-        <v>475</v>
-      </c>
-      <c r="G8" s="129" t="s">
-        <v>469</v>
-      </c>
-      <c r="H8" s="112" t="s">
+        <v>209</v>
+      </c>
+      <c r="D8" s="128" t="s">
+        <v>212</v>
+      </c>
+      <c r="E8" s="111" t="s">
+        <v>216</v>
+      </c>
+      <c r="F8" s="122" t="s">
         <v>471</v>
       </c>
+      <c r="G8" s="128" t="s">
+        <v>465</v>
+      </c>
+      <c r="H8" s="111" t="s">
+        <v>467</v>
+      </c>
       <c r="I8" s="75" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="325"/>
-      <c r="B9" s="328"/>
+      <c r="A9" s="318"/>
+      <c r="B9" s="320"/>
       <c r="C9" s="68"/>
-      <c r="D9" s="130" t="s">
-        <v>298</v>
-      </c>
-      <c r="E9" s="113" t="s">
-        <v>412</v>
-      </c>
-      <c r="F9" s="177"/>
-      <c r="G9" s="130" t="s">
+      <c r="D9" s="129" t="s">
+        <v>295</v>
+      </c>
+      <c r="E9" s="112" t="s">
+        <v>408</v>
+      </c>
+      <c r="F9" s="173"/>
+      <c r="G9" s="129" t="s">
+        <v>466</v>
+      </c>
+      <c r="H9" s="133" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="318"/>
+      <c r="B10" s="320"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="129" t="s">
+        <v>254</v>
+      </c>
+      <c r="E10" s="112" t="s">
+        <v>299</v>
+      </c>
+      <c r="F10" s="173"/>
+      <c r="G10" s="170"/>
+      <c r="H10" s="112" t="s">
         <v>470</v>
       </c>
-      <c r="H9" s="134" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="325"/>
-      <c r="B10" s="328"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="130" t="s">
-        <v>256</v>
-      </c>
-      <c r="E10" s="113" t="s">
-        <v>302</v>
-      </c>
-      <c r="F10" s="177"/>
-      <c r="G10" s="172"/>
-      <c r="H10" s="113" t="s">
-        <v>474</v>
-      </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="325"/>
-      <c r="B11" s="328"/>
+      <c r="A11" s="318"/>
+      <c r="B11" s="320"/>
       <c r="C11" s="68"/>
       <c r="D11" s="69"/>
-      <c r="E11" s="113" t="s">
-        <v>414</v>
-      </c>
-      <c r="F11" s="177"/>
-      <c r="G11" s="172"/>
-      <c r="H11" s="173"/>
+      <c r="E11" s="112" t="s">
+        <v>410</v>
+      </c>
+      <c r="F11" s="173"/>
+      <c r="G11" s="170"/>
+      <c r="H11" s="171"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="325"/>
-      <c r="B12" s="328"/>
+      <c r="A12" s="318"/>
+      <c r="B12" s="320"/>
       <c r="C12" s="68"/>
       <c r="D12" s="69"/>
-      <c r="E12" s="113" t="s">
-        <v>260</v>
-      </c>
-      <c r="F12" s="177"/>
-      <c r="G12" s="172"/>
-      <c r="H12" s="173"/>
+      <c r="E12" s="112" t="s">
+        <v>258</v>
+      </c>
+      <c r="F12" s="173"/>
+      <c r="G12" s="170"/>
+      <c r="H12" s="171"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="325"/>
-      <c r="B13" s="328"/>
+      <c r="A13" s="318"/>
+      <c r="B13" s="320"/>
       <c r="C13" s="68"/>
       <c r="D13" s="69"/>
-      <c r="E13" s="113" t="s">
-        <v>416</v>
-      </c>
-      <c r="F13" s="177"/>
-      <c r="G13" s="172"/>
-      <c r="H13" s="173"/>
+      <c r="E13" s="112" t="s">
+        <v>412</v>
+      </c>
+      <c r="F13" s="173"/>
+      <c r="G13" s="170"/>
+      <c r="H13" s="171"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A14" s="325"/>
-      <c r="B14" s="328"/>
+      <c r="A14" s="318"/>
+      <c r="B14" s="320"/>
       <c r="C14" s="71"/>
       <c r="D14" s="72"/>
-      <c r="E14" s="114" t="s">
+      <c r="E14" s="113" t="s">
+        <v>409</v>
+      </c>
+      <c r="F14" s="174"/>
+      <c r="G14" s="175"/>
+      <c r="H14" s="172"/>
+      <c r="I14" s="70"/>
+    </row>
+    <row r="15" spans="1:9" s="88" customFormat="1">
+      <c r="A15" s="321" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="324" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="86" t="s">
+        <v>209</v>
+      </c>
+      <c r="D15" s="130" t="s">
+        <v>295</v>
+      </c>
+      <c r="E15" s="114" t="s">
+        <v>409</v>
+      </c>
+      <c r="F15" s="126" t="s">
+        <v>471</v>
+      </c>
+      <c r="G15" s="220" t="s">
+        <v>473</v>
+      </c>
+      <c r="H15" s="114" t="s">
+        <v>464</v>
+      </c>
+      <c r="I15" s="87"/>
+    </row>
+    <row r="16" spans="1:9" s="92" customFormat="1">
+      <c r="A16" s="322"/>
+      <c r="B16" s="325"/>
+      <c r="C16" s="89" t="s">
+        <v>193</v>
+      </c>
+      <c r="D16" s="131" t="s">
+        <v>254</v>
+      </c>
+      <c r="E16" s="115" t="s">
+        <v>411</v>
+      </c>
+      <c r="F16" s="273"/>
+      <c r="G16" s="274"/>
+      <c r="H16" s="115" t="s">
+        <v>469</v>
+      </c>
+      <c r="I16" s="91"/>
+    </row>
+    <row r="17" spans="1:9" s="92" customFormat="1">
+      <c r="A17" s="322"/>
+      <c r="B17" s="325"/>
+      <c r="C17" s="89" t="s">
+        <v>251</v>
+      </c>
+      <c r="D17" s="131" t="s">
+        <v>384</v>
+      </c>
+      <c r="E17" s="115" t="s">
         <v>413</v>
       </c>
-      <c r="F14" s="178"/>
-      <c r="G14" s="179"/>
-      <c r="H14" s="174"/>
-      <c r="I14" s="70"/>
-    </row>
-    <row r="15" spans="1:9" s="88" customFormat="1">
-      <c r="A15" s="293" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="296" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="86" t="s">
-        <v>210</v>
-      </c>
-      <c r="D15" s="131" t="s">
-        <v>298</v>
-      </c>
-      <c r="E15" s="115" t="s">
-        <v>413</v>
-      </c>
-      <c r="F15" s="127" t="s">
-        <v>475</v>
-      </c>
-      <c r="G15" s="234" t="s">
-        <v>477</v>
-      </c>
-      <c r="H15" s="115" t="s">
-        <v>468</v>
-      </c>
-      <c r="I15" s="87"/>
-    </row>
-    <row r="16" spans="1:9" s="92" customFormat="1">
-      <c r="A16" s="294"/>
-      <c r="B16" s="297"/>
-      <c r="C16" s="89" t="s">
-        <v>194</v>
-      </c>
-      <c r="D16" s="132" t="s">
-        <v>256</v>
-      </c>
-      <c r="E16" s="116" t="s">
-        <v>415</v>
-      </c>
-      <c r="F16" s="180"/>
-      <c r="G16" s="176"/>
-      <c r="H16" s="116" t="s">
-        <v>473</v>
-      </c>
-      <c r="I16" s="91"/>
-    </row>
-    <row r="17" spans="1:9" s="92" customFormat="1">
-      <c r="A17" s="294"/>
-      <c r="B17" s="297"/>
-      <c r="C17" s="89" t="s">
-        <v>253</v>
-      </c>
-      <c r="D17" s="132" t="s">
-        <v>388</v>
-      </c>
-      <c r="E17" s="116" t="s">
-        <v>417</v>
-      </c>
-      <c r="F17" s="180"/>
-      <c r="G17" s="176"/>
-      <c r="H17" s="171"/>
+      <c r="F17" s="273"/>
+      <c r="G17" s="274"/>
+      <c r="H17" s="277"/>
       <c r="I17" s="91"/>
     </row>
     <row r="18" spans="1:9" s="92" customFormat="1">
-      <c r="A18" s="294"/>
-      <c r="B18" s="297"/>
+      <c r="A18" s="322"/>
+      <c r="B18" s="325"/>
       <c r="C18" s="93"/>
-      <c r="D18" s="132" t="s">
-        <v>397</v>
-      </c>
-      <c r="E18" s="116" t="s">
-        <v>538</v>
-      </c>
-      <c r="F18" s="180"/>
-      <c r="G18" s="176"/>
-      <c r="H18" s="171"/>
+      <c r="D18" s="131" t="s">
+        <v>393</v>
+      </c>
+      <c r="E18" s="115" t="s">
+        <v>534</v>
+      </c>
+      <c r="F18" s="273"/>
+      <c r="G18" s="274"/>
+      <c r="H18" s="277"/>
       <c r="I18" s="91"/>
     </row>
     <row r="19" spans="1:9" s="92" customFormat="1">
-      <c r="A19" s="294"/>
-      <c r="B19" s="297"/>
+      <c r="A19" s="322"/>
+      <c r="B19" s="325"/>
       <c r="C19" s="93"/>
       <c r="D19" s="90"/>
-      <c r="E19" s="116" t="s">
-        <v>539</v>
-      </c>
-      <c r="F19" s="180"/>
-      <c r="G19" s="176"/>
-      <c r="H19" s="171"/>
+      <c r="E19" s="115" t="s">
+        <v>535</v>
+      </c>
+      <c r="F19" s="273"/>
+      <c r="G19" s="274"/>
+      <c r="H19" s="277"/>
       <c r="I19" s="91"/>
     </row>
     <row r="20" spans="1:9" s="92" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A20" s="295"/>
-      <c r="B20" s="298"/>
+      <c r="A20" s="323"/>
+      <c r="B20" s="326"/>
       <c r="C20" s="94"/>
       <c r="D20" s="95"/>
-      <c r="E20" s="166" t="s">
-        <v>540</v>
-      </c>
-      <c r="F20" s="181"/>
-      <c r="G20" s="182"/>
-      <c r="H20" s="175"/>
+      <c r="E20" s="165" t="s">
+        <v>536</v>
+      </c>
+      <c r="F20" s="275"/>
+      <c r="G20" s="276"/>
+      <c r="H20" s="278"/>
       <c r="I20" s="96"/>
     </row>
     <row r="21" spans="1:9" s="74" customFormat="1">
-      <c r="A21" s="324" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="268" t="s">
-        <v>45</v>
+      <c r="A21" s="317" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="253" t="s">
+        <v>44</v>
       </c>
       <c r="C21" s="73" t="s">
-        <v>194</v>
-      </c>
-      <c r="D21" s="246" t="s">
-        <v>212</v>
-      </c>
-      <c r="E21" s="112" t="s">
-        <v>226</v>
-      </c>
-      <c r="F21" s="123" t="s">
-        <v>487</v>
-      </c>
-      <c r="G21" s="168" t="s">
-        <v>479</v>
-      </c>
-      <c r="H21" s="170" t="s">
-        <v>484</v>
+        <v>193</v>
+      </c>
+      <c r="D21" s="231" t="s">
+        <v>211</v>
+      </c>
+      <c r="E21" s="111" t="s">
+        <v>225</v>
+      </c>
+      <c r="F21" s="122" t="s">
+        <v>483</v>
+      </c>
+      <c r="G21" s="167" t="s">
+        <v>475</v>
+      </c>
+      <c r="H21" s="169" t="s">
+        <v>480</v>
       </c>
       <c r="I21" s="75" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="325"/>
-      <c r="B22" s="271"/>
-      <c r="C22" s="128" t="s">
-        <v>253</v>
+      <c r="A22" s="318"/>
+      <c r="B22" s="256"/>
+      <c r="C22" s="127" t="s">
+        <v>251</v>
       </c>
       <c r="D22" s="69"/>
-      <c r="E22" s="113" t="s">
-        <v>541</v>
-      </c>
-      <c r="F22" s="177"/>
-      <c r="G22" s="172"/>
-      <c r="H22" s="173"/>
+      <c r="E22" s="112" t="s">
+        <v>537</v>
+      </c>
+      <c r="F22" s="173"/>
+      <c r="G22" s="170"/>
+      <c r="H22" s="171"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="325"/>
-      <c r="B23" s="271"/>
-      <c r="C23" s="128" t="s">
-        <v>385</v>
+      <c r="A23" s="318"/>
+      <c r="B23" s="256"/>
+      <c r="C23" s="127" t="s">
+        <v>381</v>
       </c>
       <c r="D23" s="69"/>
-      <c r="E23" s="113" t="s">
-        <v>311</v>
-      </c>
-      <c r="F23" s="177"/>
-      <c r="G23" s="172"/>
-      <c r="H23" s="173"/>
+      <c r="E23" s="112" t="s">
+        <v>308</v>
+      </c>
+      <c r="F23" s="173"/>
+      <c r="G23" s="170"/>
+      <c r="H23" s="171"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="325"/>
-      <c r="B24" s="271"/>
-      <c r="C24" s="136" t="s">
-        <v>394</v>
+      <c r="A24" s="318"/>
+      <c r="B24" s="256"/>
+      <c r="C24" s="135" t="s">
+        <v>390</v>
       </c>
       <c r="D24" s="69"/>
-      <c r="E24" s="113" t="s">
-        <v>542</v>
-      </c>
-      <c r="F24" s="177"/>
-      <c r="G24" s="172"/>
-      <c r="H24" s="173"/>
+      <c r="E24" s="112" t="s">
+        <v>538</v>
+      </c>
+      <c r="F24" s="173"/>
+      <c r="G24" s="170"/>
+      <c r="H24" s="171"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="325"/>
-      <c r="B25" s="271"/>
+      <c r="A25" s="318"/>
+      <c r="B25" s="256"/>
       <c r="C25" s="68"/>
       <c r="D25" s="69"/>
-      <c r="E25" s="113" t="s">
-        <v>543</v>
-      </c>
-      <c r="F25" s="177"/>
-      <c r="G25" s="172"/>
-      <c r="H25" s="173"/>
+      <c r="E25" s="112" t="s">
+        <v>539</v>
+      </c>
+      <c r="F25" s="173"/>
+      <c r="G25" s="170"/>
+      <c r="H25" s="171"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="325"/>
-      <c r="B26" s="271"/>
+      <c r="A26" s="318"/>
+      <c r="B26" s="256"/>
       <c r="C26" s="68"/>
       <c r="D26" s="69"/>
-      <c r="E26" s="235" t="s">
-        <v>229</v>
-      </c>
-      <c r="F26" s="177"/>
-      <c r="G26" s="172"/>
-      <c r="H26" s="173"/>
+      <c r="E26" s="221" t="s">
+        <v>228</v>
+      </c>
+      <c r="F26" s="173"/>
+      <c r="G26" s="170"/>
+      <c r="H26" s="171"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="325"/>
-      <c r="B27" s="271"/>
+      <c r="A27" s="318"/>
+      <c r="B27" s="256"/>
       <c r="C27" s="68"/>
       <c r="D27" s="69"/>
-      <c r="E27" s="235" t="s">
-        <v>314</v>
-      </c>
-      <c r="F27" s="177"/>
-      <c r="G27" s="172"/>
-      <c r="H27" s="173"/>
+      <c r="E27" s="221" t="s">
+        <v>311</v>
+      </c>
+      <c r="F27" s="173"/>
+      <c r="G27" s="170"/>
+      <c r="H27" s="171"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A28" s="326"/>
-      <c r="B28" s="278"/>
+      <c r="A28" s="334"/>
+      <c r="B28" s="259"/>
       <c r="C28" s="71"/>
       <c r="D28" s="72"/>
-      <c r="E28" s="236" t="s">
-        <v>272</v>
-      </c>
-      <c r="F28" s="178"/>
-      <c r="G28" s="179"/>
-      <c r="H28" s="174"/>
+      <c r="E28" s="222" t="s">
+        <v>270</v>
+      </c>
+      <c r="F28" s="174"/>
+      <c r="G28" s="175"/>
+      <c r="H28" s="172"/>
       <c r="I28" s="70"/>
     </row>
     <row r="29" spans="1:9" s="88" customFormat="1">
-      <c r="A29" s="293" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="296" t="s">
-        <v>46</v>
+      <c r="A29" s="321" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="324" t="s">
+        <v>45</v>
       </c>
       <c r="C29" s="86" t="s">
-        <v>385</v>
-      </c>
-      <c r="D29" s="131" t="s">
-        <v>229</v>
-      </c>
-      <c r="E29" s="169" t="s">
-        <v>544</v>
-      </c>
-      <c r="F29" s="127" t="s">
-        <v>478</v>
-      </c>
-      <c r="G29" s="167" t="s">
-        <v>479</v>
-      </c>
-      <c r="H29" s="233" t="s">
-        <v>535</v>
+        <v>381</v>
+      </c>
+      <c r="D29" s="130" t="s">
+        <v>228</v>
+      </c>
+      <c r="E29" s="168" t="s">
+        <v>540</v>
+      </c>
+      <c r="F29" s="126" t="s">
+        <v>474</v>
+      </c>
+      <c r="G29" s="166" t="s">
+        <v>475</v>
+      </c>
+      <c r="H29" s="219" t="s">
+        <v>531</v>
       </c>
       <c r="I29" s="97" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="92" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A30" s="294"/>
-      <c r="B30" s="297"/>
-      <c r="C30" s="135" t="s">
-        <v>394</v>
-      </c>
-      <c r="D30" s="132" t="s">
-        <v>314</v>
-      </c>
-      <c r="E30" s="118"/>
-      <c r="F30" s="180"/>
-      <c r="G30" s="176"/>
-      <c r="H30" s="171"/>
-      <c r="I30" s="142" t="s">
-        <v>552</v>
+      <c r="A30" s="322"/>
+      <c r="B30" s="325"/>
+      <c r="C30" s="134" t="s">
+        <v>390</v>
+      </c>
+      <c r="D30" s="131" t="s">
+        <v>311</v>
+      </c>
+      <c r="E30" s="117"/>
+      <c r="F30" s="273"/>
+      <c r="G30" s="274"/>
+      <c r="H30" s="277"/>
+      <c r="I30" s="141" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="92" customFormat="1">
-      <c r="A31" s="294"/>
-      <c r="B31" s="297"/>
+      <c r="A31" s="322"/>
+      <c r="B31" s="325"/>
       <c r="C31" s="93"/>
-      <c r="D31" s="132" t="s">
-        <v>272</v>
-      </c>
-      <c r="E31" s="118"/>
-      <c r="F31" s="180"/>
-      <c r="G31" s="176"/>
-      <c r="H31" s="171"/>
-      <c r="I31" s="142" t="s">
-        <v>553</v>
+      <c r="D31" s="131" t="s">
+        <v>270</v>
+      </c>
+      <c r="E31" s="117"/>
+      <c r="F31" s="273"/>
+      <c r="G31" s="274"/>
+      <c r="H31" s="277"/>
+      <c r="I31" s="141" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="92" customFormat="1">
-      <c r="A32" s="294"/>
-      <c r="B32" s="297"/>
+      <c r="A32" s="322"/>
+      <c r="B32" s="325"/>
       <c r="C32" s="93"/>
       <c r="D32" s="90"/>
-      <c r="E32" s="118"/>
-      <c r="F32" s="180"/>
-      <c r="G32" s="176"/>
-      <c r="H32" s="171"/>
-      <c r="I32" s="142" t="s">
-        <v>554</v>
+      <c r="E32" s="117"/>
+      <c r="F32" s="273"/>
+      <c r="G32" s="274"/>
+      <c r="H32" s="277"/>
+      <c r="I32" s="141" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="92" customFormat="1">
-      <c r="A33" s="294"/>
-      <c r="B33" s="297"/>
+      <c r="A33" s="322"/>
+      <c r="B33" s="325"/>
       <c r="C33" s="93"/>
       <c r="D33" s="90"/>
-      <c r="E33" s="118"/>
-      <c r="F33" s="180"/>
-      <c r="G33" s="176"/>
-      <c r="H33" s="171"/>
-      <c r="I33" s="142"/>
+      <c r="E33" s="117"/>
+      <c r="F33" s="273"/>
+      <c r="G33" s="274"/>
+      <c r="H33" s="277"/>
+      <c r="I33" s="141"/>
     </row>
     <row r="34" spans="1:9" s="92" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A34" s="295"/>
-      <c r="B34" s="298"/>
+      <c r="A34" s="323"/>
+      <c r="B34" s="326"/>
       <c r="C34" s="93"/>
       <c r="D34" s="90"/>
-      <c r="E34" s="118"/>
-      <c r="F34" s="180"/>
-      <c r="G34" s="176"/>
-      <c r="H34" s="171"/>
-      <c r="I34" s="143"/>
+      <c r="E34" s="117"/>
+      <c r="F34" s="273"/>
+      <c r="G34" s="274"/>
+      <c r="H34" s="277"/>
+      <c r="I34" s="142"/>
     </row>
     <row r="35" spans="1:9" s="74" customFormat="1">
-      <c r="A35" s="324" t="s">
+      <c r="A35" s="317" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="319" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="127" t="s">
+        <v>381</v>
+      </c>
+      <c r="D35" s="128" t="s">
+        <v>228</v>
+      </c>
+      <c r="E35" s="132" t="s">
+        <v>540</v>
+      </c>
+      <c r="F35" s="262" t="s">
+        <v>474</v>
+      </c>
+      <c r="G35" s="229" t="s">
+        <v>475</v>
+      </c>
+      <c r="H35" s="260" t="s">
+        <v>544</v>
+      </c>
+      <c r="I35" s="75" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="12" customFormat="1" ht="15" customHeight="1">
+      <c r="A36" s="318"/>
+      <c r="B36" s="320"/>
+      <c r="C36" s="127" t="s">
+        <v>390</v>
+      </c>
+      <c r="D36" s="230" t="s">
+        <v>311</v>
+      </c>
+      <c r="E36" s="261" t="s">
+        <v>567</v>
+      </c>
+      <c r="F36" s="225"/>
+      <c r="G36" s="170"/>
+      <c r="H36" s="261" t="s">
+        <v>473</v>
+      </c>
+      <c r="I36" s="140" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="12" customFormat="1">
+      <c r="A37" s="318"/>
+      <c r="B37" s="320"/>
+      <c r="C37" s="139"/>
+      <c r="D37" s="230" t="s">
+        <v>270</v>
+      </c>
+      <c r="E37" s="261" t="s">
+        <v>570</v>
+      </c>
+      <c r="F37" s="176"/>
+      <c r="G37" s="226"/>
+      <c r="H37" s="177"/>
+      <c r="I37" s="140" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="12" customFormat="1">
+      <c r="A38" s="318"/>
+      <c r="B38" s="320"/>
+      <c r="C38" s="139"/>
+      <c r="D38" s="230" t="s">
+        <v>226</v>
+      </c>
+      <c r="E38" s="261" t="s">
+        <v>569</v>
+      </c>
+      <c r="F38" s="176"/>
+      <c r="G38" s="226"/>
+      <c r="H38" s="177"/>
+      <c r="I38" s="140"/>
+    </row>
+    <row r="39" spans="1:9" s="12" customFormat="1">
+      <c r="A39" s="318"/>
+      <c r="B39" s="320"/>
+      <c r="C39" s="139"/>
+      <c r="D39" s="230" t="s">
+        <v>309</v>
+      </c>
+      <c r="E39" s="261" t="s">
+        <v>579</v>
+      </c>
+      <c r="F39" s="176"/>
+      <c r="G39" s="226"/>
+      <c r="H39" s="177"/>
+      <c r="I39" s="140"/>
+    </row>
+    <row r="40" spans="1:9" s="12" customFormat="1">
+      <c r="A40" s="318"/>
+      <c r="B40" s="320"/>
+      <c r="C40" s="139"/>
+      <c r="D40" s="230" t="s">
+        <v>268</v>
+      </c>
+      <c r="E40" s="143"/>
+      <c r="F40" s="176"/>
+      <c r="G40" s="226"/>
+      <c r="H40" s="177"/>
+      <c r="I40" s="140"/>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A41" s="334"/>
+      <c r="B41" s="335"/>
+      <c r="C41" s="227"/>
+      <c r="D41" s="290" t="s">
+        <v>211</v>
+      </c>
+      <c r="E41" s="228"/>
+      <c r="F41" s="223"/>
+      <c r="G41" s="181"/>
+      <c r="H41" s="224"/>
+      <c r="I41" s="70"/>
+    </row>
+    <row r="42" spans="1:9" s="88" customFormat="1">
+      <c r="A42" s="264" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="327" t="s">
+      <c r="B42" s="324" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="128" t="s">
-        <v>385</v>
-      </c>
-      <c r="D35" s="129" t="s">
-        <v>229</v>
-      </c>
-      <c r="E35" s="133" t="s">
+      <c r="C42" s="267" t="s">
+        <v>390</v>
+      </c>
+      <c r="D42" s="271" t="s">
+        <v>211</v>
+      </c>
+      <c r="E42" s="270" t="s">
+        <v>579</v>
+      </c>
+      <c r="F42" s="272"/>
+      <c r="G42" s="271" t="s">
+        <v>475</v>
+      </c>
+      <c r="H42" s="269" t="s">
         <v>544</v>
       </c>
-      <c r="F35" s="368" t="s">
-        <v>478</v>
-      </c>
-      <c r="G35" s="244" t="s">
-        <v>479</v>
-      </c>
-      <c r="H35" s="279" t="s">
-        <v>548</v>
-      </c>
-      <c r="I35" s="75" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" s="12" customFormat="1" ht="15" customHeight="1">
-      <c r="A36" s="325"/>
-      <c r="B36" s="328"/>
-      <c r="C36" s="136" t="s">
-        <v>394</v>
-      </c>
-      <c r="D36" s="245" t="s">
-        <v>314</v>
-      </c>
-      <c r="E36" s="239" t="s">
-        <v>571</v>
-      </c>
-      <c r="F36" s="240"/>
-      <c r="G36" s="172"/>
-      <c r="H36" s="367" t="s">
-        <v>477</v>
-      </c>
-      <c r="I36" s="141" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" s="12" customFormat="1">
-      <c r="A37" s="325"/>
-      <c r="B37" s="328"/>
-      <c r="C37" s="140"/>
-      <c r="D37" s="245" t="s">
-        <v>272</v>
-      </c>
-      <c r="E37" s="144" t="s">
-        <v>574</v>
-      </c>
-      <c r="F37" s="183"/>
-      <c r="G37" s="241"/>
-      <c r="H37" s="184"/>
-      <c r="I37" s="141" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" s="12" customFormat="1">
-      <c r="A38" s="325"/>
-      <c r="B38" s="328"/>
-      <c r="C38" s="140"/>
-      <c r="D38" s="245" t="s">
-        <v>227</v>
-      </c>
-      <c r="E38" s="144" t="s">
-        <v>573</v>
-      </c>
-      <c r="F38" s="183"/>
-      <c r="G38" s="241"/>
-      <c r="H38" s="184"/>
-      <c r="I38" s="141"/>
-    </row>
-    <row r="39" spans="1:9" s="12" customFormat="1">
-      <c r="A39" s="325"/>
-      <c r="B39" s="328"/>
-      <c r="C39" s="140"/>
-      <c r="D39" s="245" t="s">
-        <v>312</v>
-      </c>
-      <c r="E39" s="144"/>
-      <c r="F39" s="183"/>
-      <c r="G39" s="241"/>
-      <c r="H39" s="184"/>
-      <c r="I39" s="141"/>
-    </row>
-    <row r="40" spans="1:9" s="12" customFormat="1">
-      <c r="A40" s="325"/>
-      <c r="B40" s="328"/>
-      <c r="C40" s="140"/>
-      <c r="D40" s="245" t="s">
-        <v>270</v>
-      </c>
-      <c r="E40" s="144"/>
-      <c r="F40" s="183"/>
-      <c r="G40" s="241"/>
-      <c r="H40" s="184"/>
-      <c r="I40" s="141"/>
-    </row>
-    <row r="41" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A41" s="326"/>
-      <c r="B41" s="329"/>
-      <c r="C41" s="242"/>
-      <c r="D41" s="205" t="s">
-        <v>212</v>
-      </c>
-      <c r="E41" s="243"/>
-      <c r="F41" s="237"/>
-      <c r="G41" s="188"/>
-      <c r="H41" s="238"/>
-      <c r="I41" s="70"/>
-    </row>
-    <row r="42" spans="1:9" s="88" customFormat="1">
-      <c r="A42" s="102" t="s">
-        <v>18</v>
-      </c>
-      <c r="B42" s="284" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" s="280" t="s">
-        <v>394</v>
-      </c>
-      <c r="D42" s="104" t="s">
-        <v>212</v>
-      </c>
-      <c r="E42" s="369" t="s">
-        <v>583</v>
-      </c>
-      <c r="F42" s="189"/>
-      <c r="G42" s="190"/>
-      <c r="H42" s="191" t="s">
-        <v>548</v>
-      </c>
-      <c r="I42" s="105" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" s="228" customFormat="1">
-      <c r="A43" s="219"/>
-      <c r="B43" s="285"/>
-      <c r="C43" s="93"/>
+      <c r="I42" s="104" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="214" customFormat="1">
+      <c r="A43" s="265"/>
+      <c r="B43" s="325"/>
+      <c r="C43" s="93" t="s">
+        <v>351</v>
+      </c>
       <c r="D43" s="90" t="s">
-        <v>297</v>
-      </c>
-      <c r="E43" s="118" t="s">
-        <v>572</v>
-      </c>
-      <c r="F43" s="180"/>
-      <c r="G43" s="176"/>
-      <c r="H43" s="116" t="s">
-        <v>477</v>
+        <v>294</v>
+      </c>
+      <c r="E43" s="115" t="s">
+        <v>568</v>
+      </c>
+      <c r="F43" s="273"/>
+      <c r="G43" s="274"/>
+      <c r="H43" s="115" t="s">
+        <v>473</v>
       </c>
       <c r="I43" s="91"/>
     </row>
-    <row r="44" spans="1:9" s="228" customFormat="1">
-      <c r="A44" s="219"/>
-      <c r="B44" s="285"/>
+    <row r="44" spans="1:9" s="214" customFormat="1">
+      <c r="A44" s="265"/>
+      <c r="B44" s="325"/>
       <c r="C44" s="93"/>
       <c r="D44" s="90" t="s">
-        <v>255</v>
-      </c>
-      <c r="E44" s="118" t="s">
-        <v>575</v>
-      </c>
-      <c r="F44" s="180"/>
-      <c r="G44" s="176"/>
-      <c r="H44" s="116" t="s">
-        <v>585</v>
+        <v>253</v>
+      </c>
+      <c r="E44" s="115" t="s">
+        <v>571</v>
+      </c>
+      <c r="F44" s="273"/>
+      <c r="G44" s="274"/>
+      <c r="H44" s="115" t="s">
+        <v>581</v>
       </c>
       <c r="I44" s="91"/>
     </row>
-    <row r="45" spans="1:9" s="228" customFormat="1">
-      <c r="A45" s="219"/>
-      <c r="B45" s="285"/>
+    <row r="45" spans="1:9" s="214" customFormat="1">
+      <c r="A45" s="265"/>
+      <c r="B45" s="325"/>
       <c r="C45" s="93"/>
       <c r="D45" s="90"/>
-      <c r="E45" s="222" t="s">
-        <v>576</v>
-      </c>
-      <c r="F45" s="180"/>
-      <c r="G45" s="176"/>
-      <c r="H45" s="171"/>
+      <c r="E45" s="377" t="s">
+        <v>572</v>
+      </c>
+      <c r="F45" s="273"/>
+      <c r="G45" s="274"/>
+      <c r="H45" s="268" t="s">
+        <v>587</v>
+      </c>
       <c r="I45" s="91"/>
     </row>
-    <row r="46" spans="1:9" s="228" customFormat="1">
-      <c r="A46" s="219"/>
-      <c r="B46" s="285"/>
+    <row r="46" spans="1:9" s="214" customFormat="1">
+      <c r="A46" s="265"/>
+      <c r="B46" s="325"/>
       <c r="C46" s="93"/>
       <c r="D46" s="90"/>
-      <c r="E46" s="118" t="s">
-        <v>580</v>
-      </c>
-      <c r="F46" s="180"/>
-      <c r="G46" s="176"/>
-      <c r="H46" s="171"/>
+      <c r="E46" s="117" t="s">
+        <v>576</v>
+      </c>
+      <c r="F46" s="273"/>
+      <c r="G46" s="274"/>
+      <c r="H46" s="277"/>
       <c r="I46" s="91"/>
     </row>
-    <row r="47" spans="1:9" s="228" customFormat="1">
-      <c r="A47" s="219"/>
-      <c r="B47" s="285"/>
+    <row r="47" spans="1:9" s="214" customFormat="1">
+      <c r="A47" s="265"/>
+      <c r="B47" s="325"/>
       <c r="C47" s="93"/>
       <c r="D47" s="90"/>
-      <c r="E47" s="118" t="s">
-        <v>581</v>
-      </c>
-      <c r="F47" s="180"/>
-      <c r="G47" s="176"/>
-      <c r="H47" s="171"/>
+      <c r="E47" s="117" t="s">
+        <v>577</v>
+      </c>
+      <c r="F47" s="273"/>
+      <c r="G47" s="274"/>
+      <c r="H47" s="277"/>
       <c r="I47" s="91"/>
     </row>
-    <row r="48" spans="1:9" s="227" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A48" s="277"/>
-      <c r="B48" s="286"/>
-      <c r="C48" s="220"/>
-      <c r="D48" s="221"/>
-      <c r="E48" s="118" t="s">
-        <v>582</v>
-      </c>
-      <c r="F48" s="335" t="s">
-        <v>536</v>
-      </c>
-      <c r="G48" s="336"/>
-      <c r="H48" s="337"/>
-      <c r="I48" s="226"/>
+    <row r="48" spans="1:9" s="213" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A48" s="266"/>
+      <c r="B48" s="326"/>
+      <c r="C48" s="209"/>
+      <c r="D48" s="210"/>
+      <c r="E48" s="117" t="s">
+        <v>578</v>
+      </c>
+      <c r="F48" s="354" t="s">
+        <v>532</v>
+      </c>
+      <c r="G48" s="355"/>
+      <c r="H48" s="356"/>
+      <c r="I48" s="212"/>
     </row>
     <row r="49" spans="1:9" s="74" customFormat="1">
-      <c r="A49" s="299" t="s">
-        <v>19</v>
-      </c>
-      <c r="B49" s="302" t="s">
-        <v>49</v>
-      </c>
-      <c r="C49" s="82"/>
+      <c r="A49" s="309" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" s="312" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" s="82" t="s">
+        <v>351</v>
+      </c>
       <c r="D49" s="83" t="s">
-        <v>297</v>
-      </c>
-      <c r="E49" s="370" t="s">
+        <v>294</v>
+      </c>
+      <c r="E49" s="263" t="s">
+        <v>540</v>
+      </c>
+      <c r="F49" s="178" t="s">
+        <v>594</v>
+      </c>
+      <c r="G49" s="229" t="s">
+        <v>475</v>
+      </c>
+      <c r="H49" s="180" t="s">
         <v>544</v>
       </c>
-      <c r="F49" s="185"/>
-      <c r="G49" s="186" t="s">
-        <v>476</v>
-      </c>
-      <c r="H49" s="187" t="s">
-        <v>548</v>
-      </c>
       <c r="I49" s="81"/>
     </row>
-    <row r="50" spans="1:9" s="139" customFormat="1">
-      <c r="A50" s="300"/>
-      <c r="B50" s="303"/>
-      <c r="C50" s="68"/>
+    <row r="50" spans="1:9" s="138" customFormat="1">
+      <c r="A50" s="310"/>
+      <c r="B50" s="313"/>
+      <c r="C50" s="68" t="s">
+        <v>354</v>
+      </c>
       <c r="D50" s="69" t="s">
-        <v>255</v>
-      </c>
-      <c r="E50" s="117"/>
-      <c r="F50" s="177"/>
-      <c r="G50" s="172"/>
-      <c r="H50" s="173"/>
+        <v>253</v>
+      </c>
+      <c r="E50" s="133" t="s">
+        <v>572</v>
+      </c>
+      <c r="F50" s="173"/>
+      <c r="G50" s="170"/>
+      <c r="H50" s="171"/>
       <c r="I50" s="9"/>
     </row>
-    <row r="51" spans="1:9" s="139" customFormat="1">
-      <c r="A51" s="300"/>
-      <c r="B51" s="303"/>
+    <row r="51" spans="1:9" s="138" customFormat="1">
+      <c r="A51" s="310"/>
+      <c r="B51" s="313"/>
       <c r="C51" s="68"/>
       <c r="D51" s="69" t="s">
-        <v>387</v>
-      </c>
-      <c r="E51" s="117"/>
-      <c r="F51" s="177"/>
-      <c r="G51" s="172"/>
-      <c r="H51" s="173"/>
+        <v>383</v>
+      </c>
+      <c r="E51" s="116" t="s">
+        <v>576</v>
+      </c>
+      <c r="F51" s="173"/>
+      <c r="G51" s="170"/>
+      <c r="H51" s="171"/>
       <c r="I51" s="9"/>
     </row>
-    <row r="52" spans="1:9" s="139" customFormat="1">
-      <c r="A52" s="300"/>
-      <c r="B52" s="303"/>
+    <row r="52" spans="1:9" s="138" customFormat="1">
+      <c r="A52" s="310"/>
+      <c r="B52" s="313"/>
       <c r="C52" s="68"/>
       <c r="D52" s="69" t="s">
-        <v>396</v>
-      </c>
-      <c r="E52" s="117"/>
-      <c r="F52" s="177"/>
-      <c r="G52" s="172"/>
-      <c r="H52" s="173"/>
+        <v>392</v>
+      </c>
+      <c r="E52" s="116" t="s">
+        <v>577</v>
+      </c>
+      <c r="F52" s="173"/>
+      <c r="G52" s="170"/>
+      <c r="H52" s="171"/>
       <c r="I52" s="9"/>
     </row>
-    <row r="53" spans="1:9" s="139" customFormat="1">
-      <c r="A53" s="300"/>
-      <c r="B53" s="303"/>
+    <row r="53" spans="1:9" s="138" customFormat="1">
+      <c r="A53" s="310"/>
+      <c r="B53" s="313"/>
       <c r="C53" s="68"/>
       <c r="D53" s="69"/>
-      <c r="E53" s="117"/>
-      <c r="F53" s="177"/>
-      <c r="G53" s="172"/>
-      <c r="H53" s="173"/>
+      <c r="E53" s="116" t="s">
+        <v>578</v>
+      </c>
+      <c r="F53" s="173"/>
+      <c r="G53" s="170"/>
+      <c r="H53" s="171"/>
       <c r="I53" s="9"/>
     </row>
-    <row r="54" spans="1:9" s="139" customFormat="1">
-      <c r="A54" s="300"/>
-      <c r="B54" s="303"/>
+    <row r="54" spans="1:9" s="138" customFormat="1">
+      <c r="A54" s="310"/>
+      <c r="B54" s="313"/>
       <c r="C54" s="68"/>
       <c r="D54" s="69"/>
-      <c r="E54" s="117"/>
-      <c r="F54" s="332" t="s">
-        <v>536</v>
-      </c>
-      <c r="G54" s="333"/>
-      <c r="H54" s="334"/>
+      <c r="E54" s="116"/>
+      <c r="F54" s="351" t="s">
+        <v>532</v>
+      </c>
+      <c r="G54" s="352"/>
+      <c r="H54" s="353"/>
       <c r="I54" s="9"/>
     </row>
-    <row r="55" spans="1:9" s="138" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A55" s="301"/>
-      <c r="B55" s="304"/>
-      <c r="C55" s="350" t="s">
-        <v>545</v>
-      </c>
-      <c r="D55" s="351"/>
-      <c r="E55" s="352"/>
-      <c r="F55" s="353" t="s">
-        <v>545</v>
-      </c>
-      <c r="G55" s="354"/>
-      <c r="H55" s="355"/>
-      <c r="I55" s="137"/>
-    </row>
-    <row r="56" spans="1:9" s="149" customFormat="1">
-      <c r="A56" s="338" t="s">
-        <v>20</v>
-      </c>
-      <c r="B56" s="341" t="s">
-        <v>50</v>
-      </c>
-      <c r="C56" s="145"/>
-      <c r="D56" s="146"/>
-      <c r="E56" s="147"/>
-      <c r="F56" s="195"/>
-      <c r="G56" s="196"/>
-      <c r="H56" s="197"/>
-      <c r="I56" s="148" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" s="151" customFormat="1">
-      <c r="A57" s="339"/>
-      <c r="B57" s="342"/>
-      <c r="C57" s="344" t="s">
-        <v>551</v>
-      </c>
-      <c r="D57" s="345"/>
-      <c r="E57" s="346"/>
-      <c r="F57" s="347" t="s">
-        <v>551</v>
-      </c>
-      <c r="G57" s="348"/>
-      <c r="H57" s="349"/>
-      <c r="I57" s="150" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" s="151" customFormat="1">
-      <c r="A58" s="339"/>
-      <c r="B58" s="342"/>
-      <c r="C58" s="152"/>
-      <c r="D58" s="153"/>
-      <c r="E58" s="154"/>
-      <c r="F58" s="198"/>
-      <c r="G58" s="199"/>
-      <c r="H58" s="200"/>
-      <c r="I58" s="150"/>
-    </row>
-    <row r="59" spans="1:9" s="151" customFormat="1">
-      <c r="A59" s="339"/>
-      <c r="B59" s="342"/>
-      <c r="C59" s="152"/>
-      <c r="D59" s="153"/>
-      <c r="E59" s="154"/>
-      <c r="F59" s="198"/>
-      <c r="G59" s="199"/>
-      <c r="H59" s="200"/>
-      <c r="I59" s="150"/>
-    </row>
-    <row r="60" spans="1:9" s="151" customFormat="1">
-      <c r="A60" s="339"/>
-      <c r="B60" s="342"/>
-      <c r="C60" s="152"/>
-      <c r="D60" s="153"/>
-      <c r="E60" s="154"/>
-      <c r="F60" s="198"/>
-      <c r="G60" s="199"/>
-      <c r="H60" s="200"/>
-      <c r="I60" s="150"/>
-    </row>
-    <row r="61" spans="1:9" s="151" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A61" s="340"/>
-      <c r="B61" s="343"/>
-      <c r="C61" s="155"/>
-      <c r="D61" s="156"/>
-      <c r="E61" s="157"/>
-      <c r="F61" s="201"/>
-      <c r="G61" s="202"/>
-      <c r="H61" s="203"/>
-      <c r="I61" s="158"/>
+    <row r="55" spans="1:9" s="137" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A55" s="311"/>
+      <c r="B55" s="314"/>
+      <c r="C55" s="303" t="s">
+        <v>541</v>
+      </c>
+      <c r="D55" s="304"/>
+      <c r="E55" s="305"/>
+      <c r="F55" s="306" t="s">
+        <v>541</v>
+      </c>
+      <c r="G55" s="307"/>
+      <c r="H55" s="308"/>
+      <c r="I55" s="136"/>
+    </row>
+    <row r="56" spans="1:9" s="148" customFormat="1">
+      <c r="A56" s="291" t="s">
+        <v>19</v>
+      </c>
+      <c r="B56" s="294" t="s">
+        <v>49</v>
+      </c>
+      <c r="C56" s="144"/>
+      <c r="D56" s="145"/>
+      <c r="E56" s="146"/>
+      <c r="F56" s="185"/>
+      <c r="G56" s="186"/>
+      <c r="H56" s="187"/>
+      <c r="I56" s="147" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="150" customFormat="1">
+      <c r="A57" s="292"/>
+      <c r="B57" s="295"/>
+      <c r="C57" s="297" t="s">
+        <v>547</v>
+      </c>
+      <c r="D57" s="298"/>
+      <c r="E57" s="299"/>
+      <c r="F57" s="300" t="s">
+        <v>547</v>
+      </c>
+      <c r="G57" s="301"/>
+      <c r="H57" s="302"/>
+      <c r="I57" s="149" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" s="150" customFormat="1">
+      <c r="A58" s="292"/>
+      <c r="B58" s="295"/>
+      <c r="C58" s="151"/>
+      <c r="D58" s="152"/>
+      <c r="E58" s="153"/>
+      <c r="F58" s="188"/>
+      <c r="G58" s="189"/>
+      <c r="H58" s="190"/>
+      <c r="I58" s="149"/>
+    </row>
+    <row r="59" spans="1:9" s="150" customFormat="1">
+      <c r="A59" s="292"/>
+      <c r="B59" s="295"/>
+      <c r="C59" s="151"/>
+      <c r="D59" s="152"/>
+      <c r="E59" s="153"/>
+      <c r="F59" s="188"/>
+      <c r="G59" s="189"/>
+      <c r="H59" s="190"/>
+      <c r="I59" s="149"/>
+    </row>
+    <row r="60" spans="1:9" s="150" customFormat="1">
+      <c r="A60" s="292"/>
+      <c r="B60" s="295"/>
+      <c r="C60" s="151"/>
+      <c r="D60" s="152"/>
+      <c r="E60" s="153"/>
+      <c r="F60" s="188"/>
+      <c r="G60" s="189"/>
+      <c r="H60" s="190"/>
+      <c r="I60" s="149"/>
+    </row>
+    <row r="61" spans="1:9" s="150" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A61" s="293"/>
+      <c r="B61" s="296"/>
+      <c r="C61" s="154"/>
+      <c r="D61" s="155"/>
+      <c r="E61" s="156"/>
+      <c r="F61" s="191"/>
+      <c r="G61" s="192"/>
+      <c r="H61" s="193"/>
+      <c r="I61" s="157"/>
     </row>
     <row r="62" spans="1:9" s="80" customFormat="1" ht="15.75" thickBot="1">
       <c r="A62" s="84" t="s">
-        <v>21</v>
-      </c>
-      <c r="B62" s="272" t="s">
-        <v>54</v>
+        <v>20</v>
+      </c>
+      <c r="B62" s="257" t="s">
+        <v>53</v>
       </c>
       <c r="C62" s="76"/>
       <c r="D62" s="77"/>
       <c r="E62" s="78"/>
-      <c r="F62" s="124"/>
+      <c r="F62" s="123"/>
       <c r="G62" s="77"/>
       <c r="H62" s="78"/>
       <c r="I62" s="79" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="63" spans="1:9" s="88" customFormat="1">
-      <c r="A63" s="281" t="s">
+      <c r="A63" s="357" t="s">
+        <v>21</v>
+      </c>
+      <c r="B63" s="336" t="s">
+        <v>52</v>
+      </c>
+      <c r="C63" s="102" t="s">
+        <v>236</v>
+      </c>
+      <c r="D63" s="103"/>
+      <c r="E63" s="119" t="s">
+        <v>210</v>
+      </c>
+      <c r="F63" s="272" t="s">
+        <v>472</v>
+      </c>
+      <c r="G63" s="279" t="s">
+        <v>481</v>
+      </c>
+      <c r="H63" s="280" t="s">
+        <v>479</v>
+      </c>
+      <c r="I63" s="104"/>
+    </row>
+    <row r="64" spans="1:9" s="214" customFormat="1">
+      <c r="A64" s="358"/>
+      <c r="B64" s="337"/>
+      <c r="C64" s="93" t="s">
+        <v>319</v>
+      </c>
+      <c r="D64" s="90"/>
+      <c r="E64" s="117" t="s">
+        <v>293</v>
+      </c>
+      <c r="F64" s="273"/>
+      <c r="G64" s="274"/>
+      <c r="H64" s="277"/>
+      <c r="I64" s="91"/>
+    </row>
+    <row r="65" spans="1:9" s="214" customFormat="1">
+      <c r="A65" s="358"/>
+      <c r="B65" s="337"/>
+      <c r="C65" s="93" t="s">
+        <v>278</v>
+      </c>
+      <c r="D65" s="90"/>
+      <c r="E65" s="117" t="s">
+        <v>252</v>
+      </c>
+      <c r="F65" s="273"/>
+      <c r="G65" s="274"/>
+      <c r="H65" s="277"/>
+      <c r="I65" s="91"/>
+    </row>
+    <row r="66" spans="1:9" s="214" customFormat="1">
+      <c r="A66" s="358"/>
+      <c r="B66" s="337"/>
+      <c r="C66" s="93" t="s">
+        <v>222</v>
+      </c>
+      <c r="D66" s="90"/>
+      <c r="E66" s="117" t="s">
+        <v>382</v>
+      </c>
+      <c r="F66" s="273"/>
+      <c r="G66" s="274"/>
+      <c r="H66" s="277"/>
+      <c r="I66" s="91"/>
+    </row>
+    <row r="67" spans="1:9" s="214" customFormat="1">
+      <c r="A67" s="358"/>
+      <c r="B67" s="337"/>
+      <c r="C67" s="93" t="s">
+        <v>305</v>
+      </c>
+      <c r="D67" s="90"/>
+      <c r="E67" s="117" t="s">
+        <v>391</v>
+      </c>
+      <c r="F67" s="273"/>
+      <c r="G67" s="274"/>
+      <c r="H67" s="277"/>
+      <c r="I67" s="91"/>
+    </row>
+    <row r="68" spans="1:9" s="214" customFormat="1">
+      <c r="A68" s="358"/>
+      <c r="B68" s="337"/>
+      <c r="C68" s="93" t="s">
+        <v>264</v>
+      </c>
+      <c r="D68" s="90"/>
+      <c r="E68" s="117"/>
+      <c r="F68" s="273"/>
+      <c r="G68" s="274"/>
+      <c r="H68" s="277"/>
+      <c r="I68" s="91"/>
+    </row>
+    <row r="69" spans="1:9" s="214" customFormat="1">
+      <c r="A69" s="358"/>
+      <c r="B69" s="337"/>
+      <c r="C69" s="93" t="s">
+        <v>219</v>
+      </c>
+      <c r="D69" s="90"/>
+      <c r="E69" s="117"/>
+      <c r="F69" s="273"/>
+      <c r="G69" s="274"/>
+      <c r="H69" s="277"/>
+      <c r="I69" s="91"/>
+    </row>
+    <row r="70" spans="1:9" s="214" customFormat="1">
+      <c r="A70" s="358"/>
+      <c r="B70" s="337"/>
+      <c r="C70" s="93" t="s">
+        <v>302</v>
+      </c>
+      <c r="D70" s="90"/>
+      <c r="E70" s="117"/>
+      <c r="F70" s="273"/>
+      <c r="G70" s="274"/>
+      <c r="H70" s="277"/>
+      <c r="I70" s="91"/>
+    </row>
+    <row r="71" spans="1:9" s="213" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A71" s="359"/>
+      <c r="B71" s="338"/>
+      <c r="C71" s="209" t="s">
+        <v>261</v>
+      </c>
+      <c r="D71" s="210"/>
+      <c r="E71" s="211"/>
+      <c r="F71" s="281"/>
+      <c r="G71" s="282"/>
+      <c r="H71" s="283"/>
+      <c r="I71" s="212"/>
+    </row>
+    <row r="72" spans="1:9" s="74" customFormat="1">
+      <c r="A72" s="309" t="s">
         <v>22</v>
       </c>
-      <c r="B63" s="284" t="s">
-        <v>53</v>
-      </c>
-      <c r="C63" s="103"/>
-      <c r="D63" s="104"/>
-      <c r="E63" s="120"/>
-      <c r="F63" s="189"/>
-      <c r="G63" s="190"/>
-      <c r="H63" s="191"/>
-      <c r="I63" s="105"/>
-    </row>
-    <row r="64" spans="1:9" s="228" customFormat="1">
-      <c r="A64" s="282"/>
-      <c r="B64" s="285"/>
-      <c r="C64" s="93"/>
-      <c r="D64" s="90"/>
-      <c r="E64" s="118"/>
-      <c r="F64" s="180"/>
-      <c r="G64" s="176"/>
-      <c r="H64" s="171"/>
-      <c r="I64" s="91"/>
-    </row>
-    <row r="65" spans="1:9" s="228" customFormat="1">
-      <c r="A65" s="282"/>
-      <c r="B65" s="285"/>
-      <c r="C65" s="93"/>
-      <c r="D65" s="90"/>
-      <c r="E65" s="118"/>
-      <c r="F65" s="180"/>
-      <c r="G65" s="176"/>
-      <c r="H65" s="171"/>
-      <c r="I65" s="91"/>
-    </row>
-    <row r="66" spans="1:9" s="228" customFormat="1">
-      <c r="A66" s="282"/>
-      <c r="B66" s="285"/>
-      <c r="C66" s="93"/>
-      <c r="D66" s="90"/>
-      <c r="E66" s="118"/>
-      <c r="F66" s="180"/>
-      <c r="G66" s="176"/>
-      <c r="H66" s="171"/>
-      <c r="I66" s="91"/>
-    </row>
-    <row r="67" spans="1:9" s="228" customFormat="1">
-      <c r="A67" s="282"/>
-      <c r="B67" s="285"/>
-      <c r="C67" s="93"/>
-      <c r="D67" s="90"/>
-      <c r="E67" s="118"/>
-      <c r="F67" s="180"/>
-      <c r="G67" s="176"/>
-      <c r="H67" s="171"/>
-      <c r="I67" s="91"/>
-    </row>
-    <row r="68" spans="1:9" s="227" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A68" s="283"/>
-      <c r="B68" s="286"/>
-      <c r="C68" s="220"/>
-      <c r="D68" s="221"/>
-      <c r="E68" s="222"/>
-      <c r="F68" s="223"/>
-      <c r="G68" s="224"/>
-      <c r="H68" s="225"/>
-      <c r="I68" s="226"/>
-    </row>
-    <row r="69" spans="1:9" s="74" customFormat="1">
-      <c r="A69" s="299" t="s">
+      <c r="B72" s="312" t="s">
+        <v>51</v>
+      </c>
+      <c r="C72" s="82" t="s">
+        <v>235</v>
+      </c>
+      <c r="D72" s="83"/>
+      <c r="E72" s="118" t="s">
+        <v>218</v>
+      </c>
+      <c r="F72" s="178" t="s">
+        <v>484</v>
+      </c>
+      <c r="G72" s="179" t="s">
+        <v>482</v>
+      </c>
+      <c r="H72" s="180" t="s">
+        <v>479</v>
+      </c>
+      <c r="I72" s="81" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" s="138" customFormat="1">
+      <c r="A73" s="310"/>
+      <c r="B73" s="313"/>
+      <c r="C73" s="68" t="s">
+        <v>318</v>
+      </c>
+      <c r="D73" s="69"/>
+      <c r="E73" s="116" t="s">
+        <v>301</v>
+      </c>
+      <c r="F73" s="173"/>
+      <c r="G73" s="170"/>
+      <c r="H73" s="171"/>
+      <c r="I73" s="9"/>
+    </row>
+    <row r="74" spans="1:9" s="138" customFormat="1">
+      <c r="A74" s="310"/>
+      <c r="B74" s="313"/>
+      <c r="C74" s="194" t="s">
+        <v>277</v>
+      </c>
+      <c r="D74" s="69"/>
+      <c r="E74" s="116" t="s">
+        <v>260</v>
+      </c>
+      <c r="F74" s="173"/>
+      <c r="G74" s="170"/>
+      <c r="H74" s="171"/>
+      <c r="I74" s="9"/>
+    </row>
+    <row r="75" spans="1:9" s="138" customFormat="1">
+      <c r="A75" s="310"/>
+      <c r="B75" s="313"/>
+      <c r="C75" s="68" t="s">
+        <v>244</v>
+      </c>
+      <c r="D75" s="69"/>
+      <c r="E75" s="116"/>
+      <c r="F75" s="173"/>
+      <c r="G75" s="170"/>
+      <c r="H75" s="171"/>
+      <c r="I75" s="9"/>
+    </row>
+    <row r="76" spans="1:9" s="138" customFormat="1">
+      <c r="A76" s="310"/>
+      <c r="B76" s="313"/>
+      <c r="C76" s="68" t="s">
+        <v>327</v>
+      </c>
+      <c r="D76" s="69"/>
+      <c r="E76" s="116"/>
+      <c r="F76" s="173"/>
+      <c r="G76" s="170"/>
+      <c r="H76" s="171"/>
+      <c r="I76" s="9"/>
+    </row>
+    <row r="77" spans="1:9" s="12" customFormat="1">
+      <c r="A77" s="310"/>
+      <c r="B77" s="313"/>
+      <c r="C77" s="68" t="s">
+        <v>286</v>
+      </c>
+      <c r="D77" s="69"/>
+      <c r="E77" s="116"/>
+      <c r="F77" s="173"/>
+      <c r="G77" s="170"/>
+      <c r="H77" s="171"/>
+      <c r="I77" s="9"/>
+    </row>
+    <row r="78" spans="1:9" s="12" customFormat="1">
+      <c r="A78" s="310"/>
+      <c r="B78" s="313"/>
+      <c r="C78" s="68" t="s">
+        <v>389</v>
+      </c>
+      <c r="D78" s="69"/>
+      <c r="E78" s="116"/>
+      <c r="F78" s="173"/>
+      <c r="G78" s="170"/>
+      <c r="H78" s="171"/>
+      <c r="I78" s="9"/>
+    </row>
+    <row r="79" spans="1:9" s="12" customFormat="1">
+      <c r="A79" s="310"/>
+      <c r="B79" s="313"/>
+      <c r="C79" s="68" t="s">
+        <v>246</v>
+      </c>
+      <c r="D79" s="69"/>
+      <c r="E79" s="116"/>
+      <c r="F79" s="173"/>
+      <c r="G79" s="170"/>
+      <c r="H79" s="171"/>
+      <c r="I79" s="9"/>
+    </row>
+    <row r="80" spans="1:9" s="12" customFormat="1">
+      <c r="A80" s="310"/>
+      <c r="B80" s="313"/>
+      <c r="C80" s="68" t="s">
+        <v>329</v>
+      </c>
+      <c r="D80" s="69"/>
+      <c r="E80" s="116"/>
+      <c r="F80" s="173"/>
+      <c r="G80" s="170"/>
+      <c r="H80" s="171"/>
+      <c r="I80" s="9"/>
+    </row>
+    <row r="81" spans="1:11" s="12" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A81" s="311"/>
+      <c r="B81" s="314"/>
+      <c r="C81" s="68" t="s">
+        <v>288</v>
+      </c>
+      <c r="D81" s="69"/>
+      <c r="E81" s="116"/>
+      <c r="F81" s="173"/>
+      <c r="G81" s="170"/>
+      <c r="H81" s="171"/>
+      <c r="I81" s="9"/>
+    </row>
+    <row r="82" spans="1:11" s="88" customFormat="1">
+      <c r="A82" s="357" t="s">
         <v>23</v>
       </c>
-      <c r="B69" s="302" t="s">
-        <v>52</v>
-      </c>
-      <c r="C69" s="82"/>
-      <c r="D69" s="83"/>
-      <c r="E69" s="119"/>
-      <c r="F69" s="185"/>
-      <c r="G69" s="186"/>
-      <c r="H69" s="187"/>
-      <c r="I69" s="81" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" s="139" customFormat="1">
-      <c r="A70" s="300"/>
-      <c r="B70" s="303"/>
-      <c r="C70" s="68"/>
-      <c r="D70" s="69"/>
-      <c r="E70" s="117"/>
-      <c r="F70" s="177"/>
-      <c r="G70" s="172"/>
-      <c r="H70" s="173"/>
-      <c r="I70" s="9"/>
-    </row>
-    <row r="71" spans="1:9" s="139" customFormat="1">
-      <c r="A71" s="300"/>
-      <c r="B71" s="303"/>
-      <c r="C71" s="68"/>
-      <c r="D71" s="69"/>
-      <c r="E71" s="117"/>
-      <c r="F71" s="177"/>
-      <c r="G71" s="172"/>
-      <c r="H71" s="173"/>
-      <c r="I71" s="9"/>
-    </row>
-    <row r="72" spans="1:9" s="139" customFormat="1">
-      <c r="A72" s="300"/>
-      <c r="B72" s="303"/>
-      <c r="C72" s="68"/>
-      <c r="D72" s="69"/>
-      <c r="E72" s="117"/>
-      <c r="F72" s="177"/>
-      <c r="G72" s="172"/>
-      <c r="H72" s="173"/>
-      <c r="I72" s="9"/>
-    </row>
-    <row r="73" spans="1:9" s="139" customFormat="1">
-      <c r="A73" s="300"/>
-      <c r="B73" s="303"/>
-      <c r="C73" s="68"/>
-      <c r="D73" s="69"/>
-      <c r="E73" s="117"/>
-      <c r="F73" s="177"/>
-      <c r="G73" s="172"/>
-      <c r="H73" s="173"/>
-      <c r="I73" s="9"/>
-    </row>
-    <row r="74" spans="1:9" s="12" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A74" s="301"/>
-      <c r="B74" s="304"/>
-      <c r="C74" s="204"/>
-      <c r="D74" s="205"/>
-      <c r="E74" s="206"/>
-      <c r="F74" s="207"/>
-      <c r="G74" s="208"/>
-      <c r="H74" s="209"/>
-      <c r="I74" s="210"/>
-    </row>
-    <row r="75" spans="1:9" s="88" customFormat="1">
-      <c r="A75" s="281" t="s">
+      <c r="B82" s="336" t="s">
+        <v>50</v>
+      </c>
+      <c r="C82" s="102" t="s">
+        <v>521</v>
+      </c>
+      <c r="D82" s="103"/>
+      <c r="E82" s="119" t="s">
+        <v>218</v>
+      </c>
+      <c r="F82" s="272" t="s">
+        <v>518</v>
+      </c>
+      <c r="G82" s="279" t="s">
+        <v>476</v>
+      </c>
+      <c r="H82" s="280" t="s">
+        <v>477</v>
+      </c>
+      <c r="I82" s="104"/>
+    </row>
+    <row r="83" spans="1:11" s="214" customFormat="1">
+      <c r="A83" s="358"/>
+      <c r="B83" s="337"/>
+      <c r="C83" s="93" t="s">
+        <v>522</v>
+      </c>
+      <c r="D83" s="90"/>
+      <c r="E83" s="117" t="s">
+        <v>301</v>
+      </c>
+      <c r="F83" s="273"/>
+      <c r="G83" s="274"/>
+      <c r="H83" s="277"/>
+      <c r="I83" s="91"/>
+    </row>
+    <row r="84" spans="1:11" s="214" customFormat="1">
+      <c r="A84" s="358"/>
+      <c r="B84" s="337"/>
+      <c r="C84" s="93" t="s">
+        <v>523</v>
+      </c>
+      <c r="D84" s="90"/>
+      <c r="E84" s="117" t="s">
+        <v>260</v>
+      </c>
+      <c r="F84" s="273"/>
+      <c r="G84" s="274"/>
+      <c r="H84" s="277"/>
+      <c r="I84" s="91"/>
+    </row>
+    <row r="85" spans="1:11" s="214" customFormat="1">
+      <c r="A85" s="358"/>
+      <c r="B85" s="337"/>
+      <c r="C85" s="93"/>
+      <c r="D85" s="90"/>
+      <c r="E85" s="117" t="s">
+        <v>249</v>
+      </c>
+      <c r="F85" s="273"/>
+      <c r="G85" s="274"/>
+      <c r="H85" s="277"/>
+      <c r="I85" s="91"/>
+    </row>
+    <row r="86" spans="1:11" s="214" customFormat="1">
+      <c r="A86" s="358"/>
+      <c r="B86" s="337"/>
+      <c r="C86" s="93"/>
+      <c r="D86" s="90"/>
+      <c r="E86" s="117" t="s">
+        <v>333</v>
+      </c>
+      <c r="F86" s="273"/>
+      <c r="G86" s="274"/>
+      <c r="H86" s="277"/>
+      <c r="I86" s="91"/>
+    </row>
+    <row r="87" spans="1:11" s="213" customFormat="1">
+      <c r="A87" s="358"/>
+      <c r="B87" s="337"/>
+      <c r="C87" s="93"/>
+      <c r="D87" s="90"/>
+      <c r="E87" s="117" t="s">
+        <v>291</v>
+      </c>
+      <c r="F87" s="273"/>
+      <c r="G87" s="274"/>
+      <c r="H87" s="277"/>
+      <c r="I87" s="91"/>
+      <c r="J87" s="214"/>
+      <c r="K87" s="93"/>
+    </row>
+    <row r="88" spans="1:11" s="213" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A88" s="359"/>
+      <c r="B88" s="338"/>
+      <c r="C88" s="209"/>
+      <c r="D88" s="210"/>
+      <c r="E88" s="211" t="s">
+        <v>596</v>
+      </c>
+      <c r="F88" s="281"/>
+      <c r="G88" s="282"/>
+      <c r="H88" s="283"/>
+      <c r="I88" s="212"/>
+    </row>
+    <row r="89" spans="1:11" s="74" customFormat="1">
+      <c r="A89" s="309" t="s">
         <v>24</v>
       </c>
-      <c r="B75" s="284" t="s">
-        <v>51</v>
-      </c>
-      <c r="C75" s="103"/>
-      <c r="D75" s="104"/>
-      <c r="E75" s="120"/>
-      <c r="F75" s="189"/>
-      <c r="G75" s="190"/>
-      <c r="H75" s="191"/>
-      <c r="I75" s="105"/>
-    </row>
-    <row r="76" spans="1:9" s="228" customFormat="1">
-      <c r="A76" s="282"/>
-      <c r="B76" s="285"/>
-      <c r="C76" s="93"/>
-      <c r="D76" s="90"/>
-      <c r="E76" s="118"/>
-      <c r="F76" s="180"/>
-      <c r="G76" s="176"/>
-      <c r="H76" s="171"/>
-      <c r="I76" s="91"/>
-    </row>
-    <row r="77" spans="1:9" s="228" customFormat="1">
-      <c r="A77" s="282"/>
-      <c r="B77" s="285"/>
-      <c r="C77" s="93"/>
-      <c r="D77" s="90"/>
-      <c r="E77" s="118"/>
-      <c r="F77" s="180"/>
-      <c r="G77" s="176"/>
-      <c r="H77" s="171"/>
-      <c r="I77" s="91"/>
-    </row>
-    <row r="78" spans="1:9" s="228" customFormat="1">
-      <c r="A78" s="282"/>
-      <c r="B78" s="285"/>
-      <c r="C78" s="93"/>
-      <c r="D78" s="90"/>
-      <c r="E78" s="118"/>
-      <c r="F78" s="180"/>
-      <c r="G78" s="176"/>
-      <c r="H78" s="171"/>
-      <c r="I78" s="91"/>
-    </row>
-    <row r="79" spans="1:9" s="228" customFormat="1">
-      <c r="A79" s="282"/>
-      <c r="B79" s="285"/>
-      <c r="C79" s="93"/>
-      <c r="D79" s="90"/>
-      <c r="E79" s="118"/>
-      <c r="F79" s="180"/>
-      <c r="G79" s="176"/>
-      <c r="H79" s="171"/>
-      <c r="I79" s="91"/>
-    </row>
-    <row r="80" spans="1:9" s="227" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A80" s="283"/>
-      <c r="B80" s="286"/>
-      <c r="C80" s="220"/>
-      <c r="D80" s="221"/>
-      <c r="E80" s="222"/>
-      <c r="F80" s="223"/>
-      <c r="G80" s="224"/>
-      <c r="H80" s="225"/>
-      <c r="I80" s="226"/>
-    </row>
-    <row r="81" spans="1:9" s="74" customFormat="1">
-      <c r="A81" s="299" t="s">
-        <v>25</v>
-      </c>
-      <c r="B81" s="273" t="s">
-        <v>55</v>
-      </c>
-      <c r="C81" s="82"/>
-      <c r="D81" s="83"/>
-      <c r="E81" s="119"/>
-      <c r="F81" s="185"/>
-      <c r="G81" s="186"/>
-      <c r="H81" s="187"/>
-      <c r="I81" s="81"/>
-    </row>
-    <row r="82" spans="1:9" s="139" customFormat="1">
-      <c r="A82" s="300"/>
-      <c r="B82" s="274"/>
-      <c r="C82" s="68"/>
-      <c r="D82" s="69"/>
-      <c r="E82" s="117"/>
-      <c r="F82" s="177"/>
-      <c r="G82" s="172"/>
-      <c r="H82" s="173"/>
-      <c r="I82" s="9"/>
-    </row>
-    <row r="83" spans="1:9" s="139" customFormat="1">
-      <c r="A83" s="300"/>
-      <c r="B83" s="274"/>
-      <c r="C83" s="68"/>
-      <c r="D83" s="69"/>
-      <c r="E83" s="117"/>
-      <c r="F83" s="177"/>
-      <c r="G83" s="172"/>
-      <c r="H83" s="173"/>
-      <c r="I83" s="9"/>
-    </row>
-    <row r="84" spans="1:9" s="139" customFormat="1">
-      <c r="A84" s="300"/>
-      <c r="B84" s="274"/>
-      <c r="C84" s="68"/>
-      <c r="D84" s="69"/>
-      <c r="E84" s="117"/>
-      <c r="F84" s="177"/>
-      <c r="G84" s="172"/>
-      <c r="H84" s="173"/>
-      <c r="I84" s="9"/>
-    </row>
-    <row r="85" spans="1:9" s="139" customFormat="1">
-      <c r="A85" s="300"/>
-      <c r="B85" s="274"/>
-      <c r="C85" s="68"/>
-      <c r="D85" s="69"/>
-      <c r="E85" s="117"/>
-      <c r="F85" s="177"/>
-      <c r="G85" s="172"/>
-      <c r="H85" s="173"/>
-      <c r="I85" s="9"/>
-    </row>
-    <row r="86" spans="1:9" s="12" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A86" s="301"/>
-      <c r="B86" s="275"/>
-      <c r="C86" s="204"/>
-      <c r="D86" s="205"/>
-      <c r="E86" s="206"/>
-      <c r="F86" s="207"/>
-      <c r="G86" s="208"/>
-      <c r="H86" s="209"/>
-      <c r="I86" s="210"/>
-    </row>
-    <row r="87" spans="1:9" s="88" customFormat="1">
-      <c r="A87" s="281" t="s">
-        <v>26</v>
-      </c>
-      <c r="B87" s="284" t="s">
-        <v>56</v>
-      </c>
-      <c r="C87" s="103"/>
-      <c r="D87" s="104"/>
-      <c r="E87" s="120"/>
-      <c r="F87" s="189"/>
-      <c r="G87" s="190"/>
-      <c r="H87" s="191"/>
-      <c r="I87" s="105"/>
-    </row>
-    <row r="88" spans="1:9" s="228" customFormat="1">
-      <c r="A88" s="282"/>
-      <c r="B88" s="285"/>
-      <c r="C88" s="93"/>
-      <c r="D88" s="90"/>
-      <c r="E88" s="118"/>
-      <c r="F88" s="180"/>
-      <c r="G88" s="176"/>
-      <c r="H88" s="171"/>
-      <c r="I88" s="91"/>
-    </row>
-    <row r="89" spans="1:9" s="228" customFormat="1">
-      <c r="A89" s="282"/>
-      <c r="B89" s="285"/>
-      <c r="C89" s="93"/>
-      <c r="D89" s="90"/>
-      <c r="E89" s="118"/>
-      <c r="F89" s="180"/>
-      <c r="G89" s="176"/>
-      <c r="H89" s="171"/>
-      <c r="I89" s="91"/>
-    </row>
-    <row r="90" spans="1:9" s="228" customFormat="1">
-      <c r="A90" s="282"/>
-      <c r="B90" s="285"/>
-      <c r="C90" s="93"/>
-      <c r="D90" s="90"/>
-      <c r="E90" s="118"/>
-      <c r="F90" s="180"/>
-      <c r="G90" s="176"/>
+      <c r="B89" s="383" t="s">
+        <v>54</v>
+      </c>
+      <c r="C89" s="82"/>
+      <c r="D89" s="83"/>
+      <c r="E89" s="118" t="s">
+        <v>248</v>
+      </c>
+      <c r="F89" s="178" t="s">
+        <v>517</v>
+      </c>
+      <c r="G89" s="179" t="s">
+        <v>476</v>
+      </c>
+      <c r="H89" s="180" t="s">
+        <v>501</v>
+      </c>
+      <c r="I89" s="81"/>
+    </row>
+    <row r="90" spans="1:11" s="138" customFormat="1">
+      <c r="A90" s="310"/>
+      <c r="B90" s="384"/>
+      <c r="C90" s="68"/>
+      <c r="D90" s="69"/>
+      <c r="E90" s="116" t="s">
+        <v>331</v>
+      </c>
+      <c r="F90" s="173"/>
+      <c r="G90" s="170"/>
       <c r="H90" s="171"/>
-      <c r="I90" s="91"/>
-    </row>
-    <row r="91" spans="1:9" s="228" customFormat="1">
-      <c r="A91" s="282"/>
-      <c r="B91" s="285"/>
-      <c r="C91" s="93"/>
-      <c r="D91" s="90"/>
-      <c r="E91" s="118"/>
-      <c r="F91" s="180"/>
-      <c r="G91" s="176"/>
+      <c r="I90" s="9"/>
+    </row>
+    <row r="91" spans="1:11" s="138" customFormat="1">
+      <c r="A91" s="310"/>
+      <c r="B91" s="384"/>
+      <c r="C91" s="68"/>
+      <c r="D91" s="69"/>
+      <c r="E91" s="116" t="s">
+        <v>290</v>
+      </c>
+      <c r="F91" s="173"/>
+      <c r="G91" s="170"/>
       <c r="H91" s="171"/>
-      <c r="I91" s="91"/>
-    </row>
-    <row r="92" spans="1:9" s="227" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A92" s="283"/>
-      <c r="B92" s="286"/>
-      <c r="C92" s="220"/>
-      <c r="D92" s="221"/>
-      <c r="E92" s="222"/>
-      <c r="F92" s="223"/>
-      <c r="G92" s="224"/>
-      <c r="H92" s="225"/>
-      <c r="I92" s="226"/>
-    </row>
-    <row r="93" spans="1:9" s="74" customFormat="1">
-      <c r="A93" s="299" t="s">
-        <v>27</v>
-      </c>
-      <c r="B93" s="302" t="s">
-        <v>57</v>
-      </c>
-      <c r="C93" s="82"/>
-      <c r="D93" s="83"/>
-      <c r="E93" s="119"/>
-      <c r="F93" s="185"/>
-      <c r="G93" s="186"/>
-      <c r="H93" s="187"/>
-      <c r="I93" s="81"/>
-    </row>
-    <row r="94" spans="1:9" s="139" customFormat="1">
-      <c r="A94" s="300"/>
-      <c r="B94" s="303"/>
+      <c r="I91" s="9"/>
+    </row>
+    <row r="92" spans="1:11" s="138" customFormat="1">
+      <c r="A92" s="310"/>
+      <c r="B92" s="384"/>
+      <c r="C92" s="68"/>
+      <c r="D92" s="69"/>
+      <c r="E92" s="116" t="s">
+        <v>247</v>
+      </c>
+      <c r="F92" s="173"/>
+      <c r="G92" s="170"/>
+      <c r="H92" s="171"/>
+      <c r="I92" s="9"/>
+    </row>
+    <row r="93" spans="1:11" s="138" customFormat="1">
+      <c r="A93" s="310"/>
+      <c r="B93" s="384"/>
+      <c r="C93" s="68"/>
+      <c r="D93" s="69"/>
+      <c r="E93" s="116" t="s">
+        <v>330</v>
+      </c>
+      <c r="F93" s="173"/>
+      <c r="G93" s="170"/>
+      <c r="H93" s="171"/>
+      <c r="I93" s="9"/>
+    </row>
+    <row r="94" spans="1:11" s="12" customFormat="1">
+      <c r="A94" s="310"/>
+      <c r="B94" s="384"/>
       <c r="C94" s="68"/>
       <c r="D94" s="69"/>
-      <c r="E94" s="117"/>
-      <c r="F94" s="177"/>
-      <c r="G94" s="172"/>
-      <c r="H94" s="173"/>
+      <c r="E94" s="116" t="s">
+        <v>289</v>
+      </c>
+      <c r="F94" s="173"/>
+      <c r="G94" s="170"/>
+      <c r="H94" s="171"/>
       <c r="I94" s="9"/>
     </row>
-    <row r="95" spans="1:9" s="139" customFormat="1">
-      <c r="A95" s="300"/>
-      <c r="B95" s="303"/>
+    <row r="95" spans="1:11" s="12" customFormat="1">
+      <c r="A95" s="310"/>
+      <c r="B95" s="384"/>
       <c r="C95" s="68"/>
       <c r="D95" s="69"/>
-      <c r="E95" s="117"/>
-      <c r="F95" s="177"/>
-      <c r="G95" s="172"/>
-      <c r="H95" s="173"/>
+      <c r="E95" s="116" t="s">
+        <v>426</v>
+      </c>
+      <c r="F95" s="173"/>
+      <c r="G95" s="170"/>
+      <c r="H95" s="171"/>
       <c r="I95" s="9"/>
     </row>
-    <row r="96" spans="1:9" s="139" customFormat="1">
-      <c r="A96" s="300"/>
-      <c r="B96" s="303"/>
+    <row r="96" spans="1:11" s="12" customFormat="1">
+      <c r="A96" s="310"/>
+      <c r="B96" s="384"/>
       <c r="C96" s="68"/>
       <c r="D96" s="69"/>
-      <c r="E96" s="117"/>
-      <c r="F96" s="177"/>
-      <c r="G96" s="172"/>
-      <c r="H96" s="173"/>
+      <c r="E96" s="116" t="s">
+        <v>428</v>
+      </c>
+      <c r="F96" s="173"/>
+      <c r="G96" s="170"/>
+      <c r="H96" s="171"/>
       <c r="I96" s="9"/>
     </row>
-    <row r="97" spans="1:9" s="139" customFormat="1">
-      <c r="A97" s="300"/>
-      <c r="B97" s="303"/>
-      <c r="C97" s="68"/>
-      <c r="D97" s="69"/>
-      <c r="E97" s="117"/>
-      <c r="F97" s="177"/>
-      <c r="G97" s="172"/>
-      <c r="H97" s="173"/>
-      <c r="I97" s="9"/>
-    </row>
-    <row r="98" spans="1:9" s="12" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A98" s="301"/>
-      <c r="B98" s="304"/>
-      <c r="C98" s="204"/>
-      <c r="D98" s="205"/>
-      <c r="E98" s="206"/>
-      <c r="F98" s="207"/>
-      <c r="G98" s="208"/>
-      <c r="H98" s="209"/>
-      <c r="I98" s="210"/>
-    </row>
-    <row r="99" spans="1:9" s="88" customFormat="1">
-      <c r="A99" s="281" t="s">
-        <v>28</v>
-      </c>
-      <c r="B99" s="284" t="s">
-        <v>58</v>
-      </c>
-      <c r="C99" s="103"/>
-      <c r="D99" s="104"/>
-      <c r="E99" s="120"/>
-      <c r="F99" s="189"/>
-      <c r="G99" s="190"/>
-      <c r="H99" s="191"/>
-      <c r="I99" s="105"/>
-    </row>
-    <row r="100" spans="1:9" s="228" customFormat="1">
-      <c r="A100" s="282"/>
-      <c r="B100" s="285"/>
+    <row r="97" spans="1:9" s="12" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A97" s="311"/>
+      <c r="B97" s="385"/>
+      <c r="C97" s="194"/>
+      <c r="D97" s="195"/>
+      <c r="E97" s="196" t="s">
+        <v>430</v>
+      </c>
+      <c r="F97" s="197"/>
+      <c r="G97" s="198"/>
+      <c r="H97" s="199"/>
+      <c r="I97" s="200"/>
+    </row>
+    <row r="98" spans="1:9" s="88" customFormat="1">
+      <c r="A98" s="357" t="s">
+        <v>25</v>
+      </c>
+      <c r="B98" s="336" t="s">
+        <v>55</v>
+      </c>
+      <c r="C98" s="102"/>
+      <c r="D98" s="103"/>
+      <c r="E98" s="119"/>
+      <c r="F98" s="272" t="s">
+        <v>517</v>
+      </c>
+      <c r="G98" s="279" t="s">
+        <v>520</v>
+      </c>
+      <c r="H98" s="280" t="s">
+        <v>515</v>
+      </c>
+      <c r="I98" s="104"/>
+    </row>
+    <row r="99" spans="1:9" s="214" customFormat="1">
+      <c r="A99" s="358"/>
+      <c r="B99" s="337"/>
+      <c r="C99" s="93"/>
+      <c r="D99" s="90"/>
+      <c r="E99" s="117"/>
+      <c r="F99" s="273"/>
+      <c r="G99" s="274"/>
+      <c r="H99" s="277"/>
+      <c r="I99" s="91"/>
+    </row>
+    <row r="100" spans="1:9" s="214" customFormat="1">
+      <c r="A100" s="358"/>
+      <c r="B100" s="337"/>
       <c r="C100" s="93"/>
       <c r="D100" s="90"/>
-      <c r="E100" s="118"/>
-      <c r="F100" s="180"/>
-      <c r="G100" s="176"/>
-      <c r="H100" s="171"/>
+      <c r="E100" s="117"/>
+      <c r="F100" s="273"/>
+      <c r="G100" s="274"/>
+      <c r="H100" s="277"/>
       <c r="I100" s="91"/>
     </row>
-    <row r="101" spans="1:9" s="228" customFormat="1">
-      <c r="A101" s="282"/>
-      <c r="B101" s="285"/>
+    <row r="101" spans="1:9" s="214" customFormat="1">
+      <c r="A101" s="358"/>
+      <c r="B101" s="337"/>
       <c r="C101" s="93"/>
       <c r="D101" s="90"/>
-      <c r="E101" s="118"/>
-      <c r="F101" s="180"/>
-      <c r="G101" s="176"/>
-      <c r="H101" s="171"/>
+      <c r="E101" s="117"/>
+      <c r="F101" s="273"/>
+      <c r="G101" s="274"/>
+      <c r="H101" s="277"/>
       <c r="I101" s="91"/>
     </row>
-    <row r="102" spans="1:9" s="228" customFormat="1">
-      <c r="A102" s="282"/>
-      <c r="B102" s="285"/>
+    <row r="102" spans="1:9" s="214" customFormat="1">
+      <c r="A102" s="358"/>
+      <c r="B102" s="337"/>
       <c r="C102" s="93"/>
       <c r="D102" s="90"/>
-      <c r="E102" s="118"/>
-      <c r="F102" s="180"/>
-      <c r="G102" s="176"/>
-      <c r="H102" s="171"/>
+      <c r="E102" s="117"/>
+      <c r="F102" s="273"/>
+      <c r="G102" s="274"/>
+      <c r="H102" s="277"/>
       <c r="I102" s="91"/>
     </row>
-    <row r="103" spans="1:9" s="228" customFormat="1">
-      <c r="A103" s="282"/>
-      <c r="B103" s="285"/>
-      <c r="C103" s="93"/>
-      <c r="D103" s="90"/>
-      <c r="E103" s="118"/>
-      <c r="F103" s="180"/>
-      <c r="G103" s="176"/>
-      <c r="H103" s="171"/>
-      <c r="I103" s="91"/>
-    </row>
-    <row r="104" spans="1:9" s="227" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A104" s="283"/>
-      <c r="B104" s="286"/>
-      <c r="C104" s="220"/>
-      <c r="D104" s="221"/>
-      <c r="E104" s="222"/>
-      <c r="F104" s="223"/>
-      <c r="G104" s="224"/>
-      <c r="H104" s="225"/>
-      <c r="I104" s="226"/>
-    </row>
-    <row r="105" spans="1:9" s="161" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A105" s="287" t="s">
-        <v>29</v>
-      </c>
-      <c r="B105" s="290" t="s">
-        <v>59</v>
-      </c>
-      <c r="C105" s="162"/>
-      <c r="D105" s="163"/>
-      <c r="E105" s="164"/>
-      <c r="F105" s="192"/>
-      <c r="G105" s="193"/>
-      <c r="H105" s="194"/>
-      <c r="I105" s="165" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" s="218" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A106" s="288"/>
-      <c r="B106" s="291"/>
-      <c r="C106" s="211"/>
-      <c r="D106" s="212"/>
-      <c r="E106" s="213"/>
-      <c r="F106" s="214"/>
-      <c r="G106" s="215"/>
-      <c r="H106" s="216"/>
-      <c r="I106" s="217"/>
-    </row>
-    <row r="107" spans="1:9" s="218" customFormat="1">
-      <c r="A107" s="289"/>
-      <c r="B107" s="292"/>
-      <c r="C107" s="211"/>
-      <c r="D107" s="212"/>
-      <c r="E107" s="213"/>
-      <c r="F107" s="214"/>
-      <c r="G107" s="215"/>
-      <c r="H107" s="216"/>
-      <c r="I107" s="217"/>
-    </row>
-    <row r="108" spans="1:9">
-      <c r="F108" s="177"/>
-      <c r="G108" s="172"/>
-      <c r="H108" s="173"/>
-    </row>
-    <row r="109" spans="1:9">
-      <c r="F109" s="177"/>
-      <c r="G109" s="172"/>
-      <c r="H109" s="173"/>
-    </row>
-    <row r="110" spans="1:9">
-      <c r="F110" s="177"/>
-      <c r="G110" s="172"/>
-      <c r="H110" s="173"/>
-    </row>
-    <row r="111" spans="1:9" hidden="1">
-      <c r="F111" s="177"/>
-      <c r="G111" s="172"/>
-      <c r="H111" s="173"/>
-    </row>
-    <row r="112" spans="1:9" hidden="1">
-      <c r="F112" s="177"/>
-      <c r="G112" s="172"/>
-      <c r="H112" s="173"/>
-    </row>
-    <row r="113" spans="6:8" hidden="1">
-      <c r="F113" s="177"/>
-      <c r="G113" s="172"/>
-      <c r="H113" s="173"/>
-    </row>
-    <row r="114" spans="6:8" hidden="1">
-      <c r="F114" s="177"/>
-      <c r="G114" s="172"/>
-      <c r="H114" s="173"/>
-    </row>
-    <row r="115" spans="6:8" hidden="1">
-      <c r="F115" s="177"/>
-      <c r="G115" s="172"/>
-      <c r="H115" s="173"/>
-    </row>
-    <row r="116" spans="6:8" hidden="1">
-      <c r="F116" s="177"/>
-      <c r="G116" s="172"/>
-      <c r="H116" s="173"/>
-    </row>
-    <row r="117" spans="6:8" hidden="1">
-      <c r="F117" s="177"/>
-      <c r="G117" s="172"/>
-      <c r="H117" s="173"/>
-    </row>
-    <row r="118" spans="6:8" hidden="1">
-      <c r="F118" s="177"/>
-      <c r="G118" s="172"/>
-      <c r="H118" s="173"/>
-    </row>
-    <row r="119" spans="6:8" hidden="1">
-      <c r="F119" s="177"/>
-      <c r="G119" s="172"/>
-      <c r="H119" s="173"/>
-    </row>
-    <row r="120" spans="6:8" hidden="1">
-      <c r="F120" s="177"/>
-      <c r="G120" s="172"/>
-      <c r="H120" s="173"/>
-    </row>
-    <row r="121" spans="6:8" hidden="1">
-      <c r="F121" s="177"/>
-      <c r="G121" s="172"/>
-      <c r="H121" s="173"/>
-    </row>
-    <row r="122" spans="6:8" hidden="1">
-      <c r="F122" s="177"/>
-      <c r="G122" s="172"/>
-      <c r="H122" s="173"/>
-    </row>
-    <row r="123" spans="6:8" hidden="1">
-      <c r="F123" s="177"/>
-      <c r="G123" s="172"/>
-      <c r="H123" s="173"/>
-    </row>
-    <row r="124" spans="6:8" hidden="1">
-      <c r="F124" s="177"/>
-      <c r="G124" s="172"/>
-      <c r="H124" s="173"/>
-    </row>
-    <row r="125" spans="6:8" hidden="1">
-      <c r="F125" s="177"/>
-      <c r="G125" s="172"/>
-      <c r="H125" s="173"/>
-    </row>
-    <row r="126" spans="6:8" hidden="1">
-      <c r="F126" s="177"/>
-      <c r="G126" s="172"/>
-      <c r="H126" s="173"/>
-    </row>
-    <row r="127" spans="6:8" hidden="1">
-      <c r="F127" s="177"/>
-      <c r="G127" s="172"/>
-      <c r="H127" s="173"/>
-    </row>
-    <row r="128" spans="6:8" hidden="1">
-      <c r="F128" s="177"/>
-      <c r="G128" s="172"/>
-      <c r="H128" s="173"/>
+    <row r="103" spans="1:9" s="213" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A103" s="359"/>
+      <c r="B103" s="338"/>
+      <c r="C103" s="209"/>
+      <c r="D103" s="210"/>
+      <c r="E103" s="211"/>
+      <c r="F103" s="281"/>
+      <c r="G103" s="282"/>
+      <c r="H103" s="283"/>
+      <c r="I103" s="212"/>
+    </row>
+    <row r="104" spans="1:9" s="74" customFormat="1">
+      <c r="A104" s="309" t="s">
+        <v>26</v>
+      </c>
+      <c r="B104" s="312" t="s">
+        <v>56</v>
+      </c>
+      <c r="C104" s="82"/>
+      <c r="D104" s="83"/>
+      <c r="E104" s="118"/>
+      <c r="F104" s="178" t="s">
+        <v>478</v>
+      </c>
+      <c r="G104" s="179" t="s">
+        <v>519</v>
+      </c>
+      <c r="H104" s="180" t="s">
+        <v>514</v>
+      </c>
+      <c r="I104" s="81"/>
+    </row>
+    <row r="105" spans="1:9" s="138" customFormat="1">
+      <c r="A105" s="310"/>
+      <c r="B105" s="313"/>
+      <c r="C105" s="68"/>
+      <c r="D105" s="69"/>
+      <c r="E105" s="116"/>
+      <c r="F105" s="173"/>
+      <c r="G105" s="170"/>
+      <c r="H105" s="171"/>
+      <c r="I105" s="9"/>
+    </row>
+    <row r="106" spans="1:9" s="138" customFormat="1">
+      <c r="A106" s="310"/>
+      <c r="B106" s="313"/>
+      <c r="C106" s="68"/>
+      <c r="D106" s="69"/>
+      <c r="E106" s="116"/>
+      <c r="F106" s="173"/>
+      <c r="G106" s="170"/>
+      <c r="H106" s="171"/>
+      <c r="I106" s="9"/>
+    </row>
+    <row r="107" spans="1:9" s="138" customFormat="1">
+      <c r="A107" s="310"/>
+      <c r="B107" s="313"/>
+      <c r="C107" s="68"/>
+      <c r="D107" s="69"/>
+      <c r="E107" s="116"/>
+      <c r="F107" s="173"/>
+      <c r="G107" s="170"/>
+      <c r="H107" s="171"/>
+      <c r="I107" s="9"/>
+    </row>
+    <row r="108" spans="1:9" s="138" customFormat="1">
+      <c r="A108" s="310"/>
+      <c r="B108" s="313"/>
+      <c r="C108" s="68"/>
+      <c r="D108" s="69"/>
+      <c r="E108" s="116"/>
+      <c r="F108" s="173"/>
+      <c r="G108" s="170"/>
+      <c r="H108" s="171"/>
+      <c r="I108" s="9"/>
+    </row>
+    <row r="109" spans="1:9" s="12" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A109" s="311"/>
+      <c r="B109" s="314"/>
+      <c r="C109" s="194"/>
+      <c r="D109" s="195"/>
+      <c r="E109" s="196"/>
+      <c r="F109" s="197"/>
+      <c r="G109" s="198"/>
+      <c r="H109" s="199"/>
+      <c r="I109" s="200"/>
+    </row>
+    <row r="110" spans="1:9" s="88" customFormat="1">
+      <c r="A110" s="357" t="s">
+        <v>27</v>
+      </c>
+      <c r="B110" s="336" t="s">
+        <v>57</v>
+      </c>
+      <c r="C110" s="102"/>
+      <c r="D110" s="103"/>
+      <c r="E110" s="119"/>
+      <c r="F110" s="272"/>
+      <c r="G110" s="279"/>
+      <c r="H110" s="280"/>
+      <c r="I110" s="104"/>
+    </row>
+    <row r="111" spans="1:9" s="214" customFormat="1">
+      <c r="A111" s="358"/>
+      <c r="B111" s="337"/>
+      <c r="C111" s="93"/>
+      <c r="D111" s="90"/>
+      <c r="E111" s="117"/>
+      <c r="F111" s="273"/>
+      <c r="G111" s="274"/>
+      <c r="H111" s="277"/>
+      <c r="I111" s="91"/>
+    </row>
+    <row r="112" spans="1:9" s="214" customFormat="1">
+      <c r="A112" s="358"/>
+      <c r="B112" s="337"/>
+      <c r="C112" s="93"/>
+      <c r="D112" s="90"/>
+      <c r="E112" s="117"/>
+      <c r="F112" s="273"/>
+      <c r="G112" s="274"/>
+      <c r="H112" s="277"/>
+      <c r="I112" s="91"/>
+    </row>
+    <row r="113" spans="1:9" s="214" customFormat="1">
+      <c r="A113" s="358"/>
+      <c r="B113" s="337"/>
+      <c r="C113" s="93"/>
+      <c r="D113" s="90"/>
+      <c r="E113" s="117"/>
+      <c r="F113" s="273"/>
+      <c r="G113" s="274"/>
+      <c r="H113" s="277"/>
+      <c r="I113" s="91"/>
+    </row>
+    <row r="114" spans="1:9" s="214" customFormat="1">
+      <c r="A114" s="358"/>
+      <c r="B114" s="337"/>
+      <c r="C114" s="93"/>
+      <c r="D114" s="90"/>
+      <c r="E114" s="117"/>
+      <c r="F114" s="378" t="s">
+        <v>595</v>
+      </c>
+      <c r="G114" s="379"/>
+      <c r="H114" s="380"/>
+      <c r="I114" s="91"/>
+    </row>
+    <row r="115" spans="1:9" s="213" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A115" s="359"/>
+      <c r="B115" s="338"/>
+      <c r="C115" s="209"/>
+      <c r="D115" s="210"/>
+      <c r="E115" s="211"/>
+      <c r="F115" s="354" t="s">
+        <v>541</v>
+      </c>
+      <c r="G115" s="355"/>
+      <c r="H115" s="356"/>
+      <c r="I115" s="212"/>
+    </row>
+    <row r="116" spans="1:9" s="160" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A116" s="360" t="s">
+        <v>28</v>
+      </c>
+      <c r="B116" s="363" t="s">
+        <v>58</v>
+      </c>
+      <c r="C116" s="161"/>
+      <c r="D116" s="162"/>
+      <c r="E116" s="163"/>
+      <c r="F116" s="182"/>
+      <c r="G116" s="183"/>
+      <c r="H116" s="184"/>
+      <c r="I116" s="164" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" s="208" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A117" s="361"/>
+      <c r="B117" s="364"/>
+      <c r="C117" s="201"/>
+      <c r="D117" s="202"/>
+      <c r="E117" s="203"/>
+      <c r="F117" s="204"/>
+      <c r="G117" s="205"/>
+      <c r="H117" s="206"/>
+      <c r="I117" s="207"/>
+    </row>
+    <row r="118" spans="1:9" s="208" customFormat="1">
+      <c r="A118" s="362"/>
+      <c r="B118" s="365"/>
+      <c r="C118" s="201"/>
+      <c r="D118" s="202"/>
+      <c r="E118" s="203"/>
+      <c r="F118" s="204"/>
+      <c r="G118" s="205"/>
+      <c r="H118" s="206"/>
+      <c r="I118" s="207"/>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="F119" s="173"/>
+      <c r="G119" s="170"/>
+      <c r="H119" s="171"/>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="F120" s="173"/>
+      <c r="G120" s="170"/>
+      <c r="H120" s="171"/>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="F121" s="173"/>
+      <c r="G121" s="170"/>
+      <c r="H121" s="171"/>
+    </row>
+    <row r="122" spans="1:9" hidden="1">
+      <c r="F122" s="173"/>
+      <c r="G122" s="170"/>
+      <c r="H122" s="171"/>
+    </row>
+    <row r="123" spans="1:9" hidden="1">
+      <c r="F123" s="173"/>
+      <c r="G123" s="170"/>
+      <c r="H123" s="171"/>
+    </row>
+    <row r="124" spans="1:9" hidden="1">
+      <c r="F124" s="173"/>
+      <c r="G124" s="170"/>
+      <c r="H124" s="171"/>
+    </row>
+    <row r="125" spans="1:9" hidden="1">
+      <c r="F125" s="173"/>
+      <c r="G125" s="170"/>
+      <c r="H125" s="171"/>
+    </row>
+    <row r="126" spans="1:9" hidden="1">
+      <c r="F126" s="173"/>
+      <c r="G126" s="170"/>
+      <c r="H126" s="171"/>
+    </row>
+    <row r="127" spans="1:9" hidden="1">
+      <c r="F127" s="173"/>
+      <c r="G127" s="170"/>
+      <c r="H127" s="171"/>
+    </row>
+    <row r="128" spans="1:9" hidden="1">
+      <c r="F128" s="173"/>
+      <c r="G128" s="170"/>
+      <c r="H128" s="171"/>
     </row>
     <row r="129" spans="6:8" hidden="1">
-      <c r="F129" s="177"/>
-      <c r="G129" s="172"/>
-      <c r="H129" s="173"/>
+      <c r="F129" s="173"/>
+      <c r="G129" s="170"/>
+      <c r="H129" s="171"/>
     </row>
     <row r="130" spans="6:8" hidden="1">
-      <c r="F130" s="177"/>
-      <c r="G130" s="172"/>
-      <c r="H130" s="173"/>
+      <c r="F130" s="173"/>
+      <c r="G130" s="170"/>
+      <c r="H130" s="171"/>
     </row>
     <row r="131" spans="6:8" hidden="1">
-      <c r="F131" s="177"/>
-      <c r="G131" s="172"/>
-      <c r="H131" s="173"/>
+      <c r="F131" s="173"/>
+      <c r="G131" s="170"/>
+      <c r="H131" s="171"/>
     </row>
     <row r="132" spans="6:8" hidden="1">
-      <c r="F132" s="177"/>
-      <c r="G132" s="172"/>
-      <c r="H132" s="173"/>
+      <c r="F132" s="173"/>
+      <c r="G132" s="170"/>
+      <c r="H132" s="171"/>
     </row>
     <row r="133" spans="6:8" hidden="1">
-      <c r="F133" s="177"/>
-      <c r="G133" s="172"/>
-      <c r="H133" s="173"/>
+      <c r="F133" s="173"/>
+      <c r="G133" s="170"/>
+      <c r="H133" s="171"/>
     </row>
     <row r="134" spans="6:8" hidden="1">
-      <c r="F134" s="177"/>
-      <c r="G134" s="172"/>
-      <c r="H134" s="173"/>
+      <c r="F134" s="173"/>
+      <c r="G134" s="170"/>
+      <c r="H134" s="171"/>
     </row>
     <row r="135" spans="6:8" hidden="1">
-      <c r="F135" s="177"/>
-      <c r="G135" s="172"/>
-      <c r="H135" s="173"/>
+      <c r="F135" s="173"/>
+      <c r="G135" s="170"/>
+      <c r="H135" s="171"/>
     </row>
     <row r="136" spans="6:8" hidden="1">
-      <c r="F136" s="177"/>
-      <c r="G136" s="172"/>
-      <c r="H136" s="173"/>
+      <c r="F136" s="173"/>
+      <c r="G136" s="170"/>
+      <c r="H136" s="171"/>
     </row>
     <row r="137" spans="6:8" hidden="1">
-      <c r="F137" s="177"/>
-      <c r="G137" s="172"/>
-      <c r="H137" s="173"/>
+      <c r="F137" s="173"/>
+      <c r="G137" s="170"/>
+      <c r="H137" s="171"/>
     </row>
     <row r="138" spans="6:8" hidden="1">
-      <c r="F138" s="177"/>
-      <c r="G138" s="172"/>
-      <c r="H138" s="173"/>
+      <c r="F138" s="173"/>
+      <c r="G138" s="170"/>
+      <c r="H138" s="171"/>
     </row>
     <row r="139" spans="6:8" hidden="1">
-      <c r="F139" s="177"/>
-      <c r="G139" s="172"/>
-      <c r="H139" s="173"/>
-    </row>
-    <row r="140" spans="6:8" hidden="1"/>
+      <c r="F139" s="173"/>
+      <c r="G139" s="170"/>
+      <c r="H139" s="171"/>
+    </row>
+    <row r="140" spans="6:8" hidden="1">
+      <c r="F140" s="173"/>
+      <c r="G140" s="170"/>
+      <c r="H140" s="171"/>
+    </row>
+    <row r="141" spans="6:8" hidden="1">
+      <c r="F141" s="173"/>
+      <c r="G141" s="170"/>
+      <c r="H141" s="171"/>
+    </row>
+    <row r="142" spans="6:8" hidden="1">
+      <c r="F142" s="173"/>
+      <c r="G142" s="170"/>
+      <c r="H142" s="171"/>
+    </row>
+    <row r="143" spans="6:8" hidden="1">
+      <c r="F143" s="173"/>
+      <c r="G143" s="170"/>
+      <c r="H143" s="171"/>
+    </row>
+    <row r="144" spans="6:8" hidden="1">
+      <c r="F144" s="173"/>
+      <c r="G144" s="170"/>
+      <c r="H144" s="171"/>
+    </row>
+    <row r="145" spans="6:8" hidden="1">
+      <c r="F145" s="173"/>
+      <c r="G145" s="170"/>
+      <c r="H145" s="171"/>
+    </row>
+    <row r="146" spans="6:8" hidden="1">
+      <c r="F146" s="173"/>
+      <c r="G146" s="170"/>
+      <c r="H146" s="171"/>
+    </row>
+    <row r="147" spans="6:8" hidden="1">
+      <c r="F147" s="173"/>
+      <c r="G147" s="170"/>
+      <c r="H147" s="171"/>
+    </row>
+    <row r="148" spans="6:8" hidden="1">
+      <c r="F148" s="173"/>
+      <c r="G148" s="170"/>
+      <c r="H148" s="171"/>
+    </row>
+    <row r="149" spans="6:8" hidden="1">
+      <c r="F149" s="173"/>
+      <c r="G149" s="170"/>
+      <c r="H149" s="171"/>
+    </row>
+    <row r="150" spans="6:8" hidden="1">
+      <c r="F150" s="173"/>
+      <c r="G150" s="170"/>
+      <c r="H150" s="171"/>
+    </row>
+    <row r="151" spans="6:8" hidden="1"/>
+    <row r="152" spans="6:8"/>
+    <row r="153" spans="6:8"/>
   </sheetData>
-  <mergeCells count="43">
+  <mergeCells count="46">
+    <mergeCell ref="F115:H115"/>
+    <mergeCell ref="F114:H114"/>
+    <mergeCell ref="B89:B97"/>
+    <mergeCell ref="A110:A115"/>
+    <mergeCell ref="B110:B115"/>
+    <mergeCell ref="A116:A118"/>
+    <mergeCell ref="B116:B118"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="B29:B34"/>
+    <mergeCell ref="A89:A97"/>
+    <mergeCell ref="A98:A103"/>
+    <mergeCell ref="B98:B103"/>
+    <mergeCell ref="A104:A109"/>
+    <mergeCell ref="B104:B109"/>
+    <mergeCell ref="A63:A71"/>
+    <mergeCell ref="B63:B71"/>
+    <mergeCell ref="A72:A81"/>
+    <mergeCell ref="B72:B81"/>
+    <mergeCell ref="A82:A88"/>
+    <mergeCell ref="B82:B88"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="B42:B48"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A35:A41"/>
+    <mergeCell ref="B35:B41"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="B8:B14"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B15:B20"/>
     <mergeCell ref="A56:A61"/>
     <mergeCell ref="B56:B61"/>
     <mergeCell ref="C57:E57"/>
@@ -5956,41 +6345,6 @@
     <mergeCell ref="F55:H55"/>
     <mergeCell ref="A49:A55"/>
     <mergeCell ref="B49:B55"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="B8:B14"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A35:A41"/>
-    <mergeCell ref="B35:B41"/>
-    <mergeCell ref="A21:A28"/>
-    <mergeCell ref="B75:B80"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="B42:B48"/>
-    <mergeCell ref="A99:A104"/>
-    <mergeCell ref="B99:B104"/>
-    <mergeCell ref="A105:A107"/>
-    <mergeCell ref="B105:B107"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="B29:B34"/>
-    <mergeCell ref="A81:A86"/>
-    <mergeCell ref="A87:A92"/>
-    <mergeCell ref="B87:B92"/>
-    <mergeCell ref="A93:A98"/>
-    <mergeCell ref="B93:B98"/>
-    <mergeCell ref="A63:A68"/>
-    <mergeCell ref="B63:B68"/>
-    <mergeCell ref="A69:A74"/>
-    <mergeCell ref="B69:B74"/>
-    <mergeCell ref="A75:A80"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6002,11 +6356,11 @@
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:N80"/>
+  <dimension ref="A1:O80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B85" sqref="B85"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K66" sqref="K66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -6019,11 +6373,11 @@
     <col min="6" max="7" width="14.140625" style="2" customWidth="1"/>
     <col min="8" max="8" width="7.5703125" style="23" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" style="11" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" style="11" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" style="287" customWidth="1"/>
     <col min="12" max="12" width="33" style="2" customWidth="1"/>
-    <col min="13" max="14" width="0" hidden="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" hidden="1"/>
+    <col min="13" max="15" width="0" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="15.75" thickBot="1">
@@ -6034,19 +6388,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="H1" s="21" t="s">
         <v>2</v>
@@ -6054,50 +6408,52 @@
       <c r="I1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>188</v>
+      <c r="J1" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="K1" s="284" t="s">
+        <v>586</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="14" customFormat="1">
       <c r="A2" s="37" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G2" s="37" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H2" s="39">
         <v>1</v>
       </c>
       <c r="I2" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="J2" s="38"/>
-      <c r="K2" s="41" t="s">
-        <v>549</v>
-      </c>
-      <c r="L2" s="356" t="s">
-        <v>129</v>
+        <v>81</v>
+      </c>
+      <c r="J2" s="41" t="s">
+        <v>545</v>
+      </c>
+      <c r="K2" s="285" t="s">
+        <v>588</v>
+      </c>
+      <c r="L2" s="366" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="14" customFormat="1">
@@ -6106,15 +6462,15 @@
       <c r="C3" s="56"/>
       <c r="D3" s="56"/>
       <c r="E3" s="38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F3" s="56"/>
       <c r="G3" s="56"/>
       <c r="H3" s="56"/>
       <c r="I3" s="56"/>
       <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="357"/>
+      <c r="K3" s="286"/>
+      <c r="L3" s="367"/>
     </row>
     <row r="4" spans="1:12" s="14" customFormat="1">
       <c r="A4" s="56"/>
@@ -6122,15 +6478,15 @@
       <c r="C4" s="56"/>
       <c r="D4" s="56"/>
       <c r="E4" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F4" s="56"/>
       <c r="G4" s="56"/>
       <c r="H4" s="56"/>
       <c r="I4" s="56"/>
       <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="357"/>
+      <c r="K4" s="286"/>
+      <c r="L4" s="367"/>
     </row>
     <row r="5" spans="1:12" s="14" customFormat="1">
       <c r="A5" s="56"/>
@@ -6138,15 +6494,15 @@
       <c r="C5" s="56"/>
       <c r="D5" s="56"/>
       <c r="E5" s="35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F5" s="56"/>
       <c r="G5" s="56"/>
       <c r="H5" s="56"/>
       <c r="I5" s="56"/>
       <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="357"/>
+      <c r="K5" s="286"/>
+      <c r="L5" s="367"/>
     </row>
     <row r="6" spans="1:12" s="14" customFormat="1">
       <c r="A6" s="56"/>
@@ -6154,15 +6510,15 @@
       <c r="C6" s="56"/>
       <c r="D6" s="56"/>
       <c r="E6" s="35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F6" s="56"/>
       <c r="G6" s="56"/>
       <c r="H6" s="56"/>
       <c r="I6" s="56"/>
       <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="357"/>
+      <c r="K6" s="286"/>
+      <c r="L6" s="367"/>
     </row>
     <row r="7" spans="1:12" s="14" customFormat="1">
       <c r="A7" s="56"/>
@@ -6170,15 +6526,15 @@
       <c r="C7" s="56"/>
       <c r="D7" s="56"/>
       <c r="E7" s="35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F7" s="56"/>
       <c r="G7" s="56"/>
       <c r="H7" s="56"/>
       <c r="I7" s="56"/>
       <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="357"/>
+      <c r="K7" s="286"/>
+      <c r="L7" s="367"/>
     </row>
     <row r="8" spans="1:12" s="14" customFormat="1">
       <c r="A8" s="56"/>
@@ -6186,15 +6542,15 @@
       <c r="C8" s="56"/>
       <c r="D8" s="56"/>
       <c r="E8" s="35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F8" s="56"/>
       <c r="G8" s="56"/>
       <c r="H8" s="56"/>
       <c r="I8" s="56"/>
       <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="357"/>
+      <c r="K8" s="286"/>
+      <c r="L8" s="367"/>
     </row>
     <row r="9" spans="1:12" s="14" customFormat="1">
       <c r="A9" s="56"/>
@@ -6202,15 +6558,15 @@
       <c r="C9" s="56"/>
       <c r="D9" s="56"/>
       <c r="E9" s="35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F9" s="56"/>
       <c r="G9" s="56"/>
       <c r="H9" s="56"/>
       <c r="I9" s="56"/>
       <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="357"/>
+      <c r="K9" s="286"/>
+      <c r="L9" s="367"/>
     </row>
     <row r="10" spans="1:12" s="14" customFormat="1">
       <c r="A10" s="56"/>
@@ -6218,15 +6574,15 @@
       <c r="C10" s="56"/>
       <c r="D10" s="56"/>
       <c r="E10" s="35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F10" s="56"/>
       <c r="G10" s="56"/>
       <c r="H10" s="56"/>
       <c r="I10" s="56"/>
       <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="357"/>
+      <c r="K10" s="286"/>
+      <c r="L10" s="367"/>
     </row>
     <row r="11" spans="1:12" s="14" customFormat="1">
       <c r="A11" s="56"/>
@@ -6234,47 +6590,50 @@
       <c r="C11" s="56"/>
       <c r="D11" s="56"/>
       <c r="E11" s="40" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F11" s="56"/>
       <c r="G11" s="56"/>
       <c r="H11" s="56"/>
       <c r="I11" s="56"/>
       <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="358"/>
+      <c r="K11" s="286"/>
+      <c r="L11" s="368"/>
     </row>
     <row r="12" spans="1:12" s="2" customFormat="1">
       <c r="A12" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>395</v>
+        <v>89</v>
+      </c>
+      <c r="C12" s="382" t="s">
+        <v>382</v>
+      </c>
+      <c r="D12" s="382" t="s">
+        <v>391</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>254</v>
+        <v>139</v>
+      </c>
+      <c r="F12" s="382" t="s">
+        <v>293</v>
+      </c>
+      <c r="G12" s="382" t="s">
+        <v>252</v>
       </c>
       <c r="H12" s="23">
         <v>2</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K12" s="11"/>
-      <c r="L12" s="359" t="s">
-        <v>128</v>
+        <v>69</v>
+      </c>
+      <c r="J12" s="11"/>
+      <c r="K12" s="287" t="s">
+        <v>589</v>
+      </c>
+      <c r="L12" s="369" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="12" customFormat="1">
@@ -6283,48 +6642,51 @@
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
       <c r="E13" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="360"/>
+      <c r="K13" s="288"/>
+      <c r="L13" s="370"/>
     </row>
     <row r="14" spans="1:12" s="35" customFormat="1">
       <c r="A14" s="35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F14" s="35" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G14" s="35" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H14" s="36">
         <v>1</v>
       </c>
       <c r="I14" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="K14" s="41" t="s">
-        <v>195</v>
-      </c>
-      <c r="L14" s="361"/>
+        <v>70</v>
+      </c>
+      <c r="J14" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="K14" s="285" t="s">
+        <v>590</v>
+      </c>
+      <c r="L14" s="371"/>
     </row>
     <row r="15" spans="1:12" s="14" customFormat="1">
       <c r="A15" s="56"/>
@@ -6332,15 +6694,15 @@
       <c r="C15" s="56"/>
       <c r="D15" s="56"/>
       <c r="E15" s="38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F15" s="56"/>
       <c r="G15" s="56"/>
       <c r="H15" s="56"/>
       <c r="I15" s="56"/>
       <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="357"/>
+      <c r="K15" s="286"/>
+      <c r="L15" s="367"/>
     </row>
     <row r="16" spans="1:12" s="14" customFormat="1">
       <c r="A16" s="56"/>
@@ -6348,15 +6710,15 @@
       <c r="C16" s="56"/>
       <c r="D16" s="56"/>
       <c r="E16" s="35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F16" s="56"/>
       <c r="G16" s="56"/>
       <c r="H16" s="56"/>
       <c r="I16" s="56"/>
       <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="357"/>
+      <c r="K16" s="286"/>
+      <c r="L16" s="367"/>
     </row>
     <row r="17" spans="1:12" s="14" customFormat="1">
       <c r="A17" s="56"/>
@@ -6364,15 +6726,15 @@
       <c r="C17" s="56"/>
       <c r="D17" s="56"/>
       <c r="E17" s="35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F17" s="56"/>
       <c r="G17" s="56"/>
       <c r="H17" s="56"/>
       <c r="I17" s="56"/>
       <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="357"/>
+      <c r="K17" s="286"/>
+      <c r="L17" s="367"/>
     </row>
     <row r="18" spans="1:12" s="14" customFormat="1">
       <c r="A18" s="56"/>
@@ -6380,48 +6742,51 @@
       <c r="C18" s="56"/>
       <c r="D18" s="56"/>
       <c r="E18" s="40" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F18" s="56"/>
       <c r="G18" s="56"/>
       <c r="H18" s="56"/>
       <c r="I18" s="56"/>
       <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="358"/>
+      <c r="K18" s="286"/>
+      <c r="L18" s="368"/>
     </row>
     <row r="19" spans="1:12" s="2" customFormat="1">
       <c r="A19" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H19" s="23">
         <v>1</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="K19" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="L19" s="359"/>
+        <v>71</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="K19" s="287" t="s">
+        <v>590</v>
+      </c>
+      <c r="L19" s="369"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="17"/>
@@ -6429,15 +6794,15 @@
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
       <c r="E20" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
       <c r="H20" s="24"/>
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="360"/>
+      <c r="K20" s="288"/>
+      <c r="L20" s="370"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="17"/>
@@ -6445,15 +6810,15 @@
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
       <c r="E21" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
       <c r="H21" s="24"/>
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="360"/>
+      <c r="K21" s="288"/>
+      <c r="L21" s="370"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="17"/>
@@ -6461,46 +6826,47 @@
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
       <c r="H22" s="24"/>
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="362"/>
+      <c r="K22" s="288"/>
+      <c r="L22" s="372"/>
     </row>
     <row r="23" spans="1:12" s="35" customFormat="1">
       <c r="A23" s="35" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F23" s="35" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G23" s="35" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H23" s="36">
         <v>3</v>
       </c>
       <c r="I23" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="K23" s="41"/>
-      <c r="L23" s="361"/>
+        <v>72</v>
+      </c>
+      <c r="J23" s="41"/>
+      <c r="K23" s="285"/>
+      <c r="L23" s="371"/>
     </row>
     <row r="24" spans="1:12" s="14" customFormat="1">
       <c r="A24" s="56"/>
@@ -6508,15 +6874,15 @@
       <c r="C24" s="56"/>
       <c r="D24" s="56"/>
       <c r="E24" s="38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F24" s="56"/>
       <c r="G24" s="56"/>
       <c r="H24" s="56"/>
       <c r="I24" s="56"/>
       <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="357"/>
+      <c r="K24" s="286"/>
+      <c r="L24" s="367"/>
     </row>
     <row r="25" spans="1:12" s="14" customFormat="1">
       <c r="A25" s="56"/>
@@ -6524,15 +6890,15 @@
       <c r="C25" s="56"/>
       <c r="D25" s="56"/>
       <c r="E25" s="35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F25" s="56"/>
       <c r="G25" s="56"/>
       <c r="H25" s="56"/>
       <c r="I25" s="56"/>
       <c r="J25" s="56"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="357"/>
+      <c r="K25" s="286"/>
+      <c r="L25" s="367"/>
     </row>
     <row r="26" spans="1:12" s="14" customFormat="1">
       <c r="A26" s="56"/>
@@ -6540,1698 +6906,1770 @@
       <c r="C26" s="56"/>
       <c r="D26" s="56"/>
       <c r="E26" s="35" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F26" s="56"/>
       <c r="G26" s="56"/>
       <c r="H26" s="56"/>
       <c r="I26" s="56"/>
       <c r="J26" s="56"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="358"/>
+      <c r="K26" s="286"/>
+      <c r="L26" s="368"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H27" s="23">
         <v>1</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="K27" s="287" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="28" spans="1:12" s="14" customFormat="1">
       <c r="A28" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B28" s="35" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C28" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D28" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E28" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F28" s="35" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G28" s="35" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H28" s="36">
         <v>3</v>
       </c>
       <c r="I28" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="J28" s="35"/>
-      <c r="K28" s="41" t="s">
-        <v>192</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="J28" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="K28" s="285"/>
       <c r="L28" s="35"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="2" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F29" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>402</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>406</v>
       </c>
       <c r="H29" s="23">
         <v>3</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K29" s="61" t="s">
-        <v>192</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="J29" s="61" t="s">
+        <v>191</v>
+      </c>
+      <c r="K29" s="289"/>
     </row>
     <row r="30" spans="1:12" s="14" customFormat="1">
       <c r="A30" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="B30" s="35" t="s">
+        <v>400</v>
+      </c>
+      <c r="C30" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" s="35" t="s">
         <v>401</v>
       </c>
-      <c r="B30" s="35" t="s">
-        <v>404</v>
-      </c>
-      <c r="C30" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="E30" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="F30" s="35" t="s">
-        <v>405</v>
-      </c>
       <c r="G30" s="35" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="H30" s="36">
         <v>3</v>
       </c>
       <c r="I30" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="J30" s="35"/>
-      <c r="K30" s="41" t="s">
-        <v>192</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="J30" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="K30" s="285"/>
       <c r="L30" s="35"/>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H31" s="23">
         <v>1</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="K31" s="11" t="s">
-        <v>190</v>
+        <v>74</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="K31" s="287" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="32" spans="1:12" s="14" customFormat="1">
       <c r="A32" s="35" t="s">
+        <v>408</v>
+      </c>
+      <c r="B32" s="35" t="s">
+        <v>406</v>
+      </c>
+      <c r="C32" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" s="35" t="s">
+        <v>410</v>
+      </c>
+      <c r="G32" s="35" t="s">
         <v>412</v>
-      </c>
-      <c r="B32" s="35" t="s">
-        <v>410</v>
-      </c>
-      <c r="C32" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="D32" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="E32" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="F32" s="35" t="s">
-        <v>414</v>
-      </c>
-      <c r="G32" s="35" t="s">
-        <v>416</v>
       </c>
       <c r="H32" s="36">
         <v>3</v>
       </c>
       <c r="I32" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="J32" s="35"/>
-      <c r="K32" s="41" t="s">
-        <v>190</v>
+        <v>74</v>
+      </c>
+      <c r="J32" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="K32" s="285" t="s">
+        <v>588</v>
       </c>
       <c r="L32" s="35"/>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" s="58" t="s">
+        <v>411</v>
+      </c>
+      <c r="G33" s="58" t="s">
         <v>413</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F33" s="58" t="s">
-        <v>415</v>
-      </c>
-      <c r="G33" s="58" t="s">
-        <v>417</v>
       </c>
       <c r="H33" s="23">
         <v>3</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="K33" s="11" t="s">
-        <v>190</v>
+        <v>74</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="K33" s="287" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="34" spans="1:12" s="14" customFormat="1">
       <c r="A34" s="35" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B34" s="41" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C34" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D34" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E34" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F34" s="35" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G34" s="35" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="H34" s="36">
         <v>3</v>
       </c>
       <c r="I34" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="J34" s="35"/>
-      <c r="K34" s="41" t="s">
-        <v>190</v>
+        <v>74</v>
+      </c>
+      <c r="J34" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="K34" s="285" t="s">
+        <v>589</v>
       </c>
       <c r="L34" s="35"/>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H35" s="23">
         <v>1</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:12" s="14" customFormat="1">
       <c r="A36" s="35" t="s">
+        <v>417</v>
+      </c>
+      <c r="B36" s="41" t="s">
+        <v>415</v>
+      </c>
+      <c r="C36" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" s="35" t="s">
+        <v>419</v>
+      </c>
+      <c r="G36" s="35" t="s">
         <v>421</v>
-      </c>
-      <c r="B36" s="41" t="s">
-        <v>419</v>
-      </c>
-      <c r="C36" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="D36" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="E36" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="F36" s="35" t="s">
-        <v>423</v>
-      </c>
-      <c r="G36" s="35" t="s">
-        <v>425</v>
       </c>
       <c r="H36" s="36">
         <v>3</v>
       </c>
       <c r="I36" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="J36" s="35"/>
-      <c r="K36" s="41"/>
+        <v>75</v>
+      </c>
+      <c r="J36" s="41"/>
+      <c r="K36" s="285"/>
       <c r="L36" s="35"/>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>422</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>426</v>
       </c>
       <c r="H37" s="23">
         <v>3</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:12" s="14" customFormat="1">
       <c r="A38" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B38" s="41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C38" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D38" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E38" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="F38" s="35" t="s">
-        <v>304</v>
-      </c>
-      <c r="G38" s="35" t="s">
-        <v>262</v>
+        <v>66</v>
+      </c>
+      <c r="F38" s="381" t="s">
+        <v>301</v>
+      </c>
+      <c r="G38" s="381" t="s">
+        <v>260</v>
       </c>
       <c r="H38" s="36">
         <v>1</v>
       </c>
       <c r="I38" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="J38" s="35"/>
-      <c r="K38" s="41"/>
+        <v>70</v>
+      </c>
+      <c r="J38" s="41"/>
+      <c r="K38" s="285" t="s">
+        <v>589</v>
+      </c>
       <c r="L38" s="35" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H39" s="23">
         <v>2</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="K39" s="287" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="40" spans="1:12" s="14" customFormat="1">
       <c r="A40" s="35" t="s">
+        <v>426</v>
+      </c>
+      <c r="B40" s="41" t="s">
+        <v>424</v>
+      </c>
+      <c r="C40" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="D40" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F40" s="35" t="s">
+        <v>428</v>
+      </c>
+      <c r="G40" s="35" t="s">
         <v>430</v>
-      </c>
-      <c r="B40" s="41" t="s">
-        <v>428</v>
-      </c>
-      <c r="C40" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="D40" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="E40" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="F40" s="35" t="s">
-        <v>432</v>
-      </c>
-      <c r="G40" s="35" t="s">
-        <v>434</v>
       </c>
       <c r="H40" s="36">
         <v>3</v>
       </c>
       <c r="I40" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="J40" s="35"/>
-      <c r="K40" s="41"/>
+        <v>73</v>
+      </c>
+      <c r="J40" s="41"/>
+      <c r="K40" s="285" t="s">
+        <v>589</v>
+      </c>
       <c r="L40" s="35"/>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>431</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>435</v>
       </c>
       <c r="H41" s="23">
         <v>3</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:12" s="14" customFormat="1">
       <c r="A42" s="35" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B42" s="41" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C42" s="41" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D42" s="41" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E42" s="35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F42" s="35" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G42" s="35" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H42" s="36">
         <v>2</v>
       </c>
       <c r="I42" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="J42" s="35"/>
-      <c r="K42" s="41"/>
+        <v>73</v>
+      </c>
+      <c r="J42" s="41"/>
+      <c r="K42" s="285"/>
       <c r="L42" s="35"/>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="D43" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="C43" s="11" t="s">
+      <c r="E43" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="G43" s="2" t="s">
         <v>443</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>447</v>
       </c>
       <c r="H43" s="23">
         <v>3</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:12" s="14" customFormat="1">
       <c r="A44" s="35" t="s">
+        <v>436</v>
+      </c>
+      <c r="B44" s="41" t="s">
+        <v>434</v>
+      </c>
+      <c r="C44" s="41" t="s">
+        <v>438</v>
+      </c>
+      <c r="D44" s="41" t="s">
         <v>440</v>
       </c>
-      <c r="B44" s="41" t="s">
-        <v>438</v>
-      </c>
-      <c r="C44" s="41" t="s">
+      <c r="E44" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="F44" s="35" t="s">
         <v>442</v>
       </c>
-      <c r="D44" s="41" t="s">
+      <c r="G44" s="35" t="s">
         <v>444</v>
-      </c>
-      <c r="E44" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="F44" s="35" t="s">
-        <v>446</v>
-      </c>
-      <c r="G44" s="35" t="s">
-        <v>448</v>
       </c>
       <c r="H44" s="36">
         <v>3</v>
       </c>
       <c r="I44" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="J44" s="35"/>
-      <c r="K44" s="41"/>
+        <v>73</v>
+      </c>
+      <c r="J44" s="41"/>
+      <c r="K44" s="285"/>
       <c r="L44" s="35"/>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H45" s="23">
         <v>1</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="K45" s="287" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="46" spans="1:12" s="14" customFormat="1">
       <c r="A46" s="35" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B46" s="41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C46" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D46" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E46" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F46" s="35" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G46" s="35" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H46" s="36">
         <v>1</v>
       </c>
       <c r="I46" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="J46" s="35"/>
-      <c r="K46" s="41"/>
+        <v>77</v>
+      </c>
+      <c r="J46" s="41"/>
+      <c r="K46" s="285" t="s">
+        <v>588</v>
+      </c>
       <c r="L46" s="35"/>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H47" s="23">
         <v>3</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:12" s="14" customFormat="1">
       <c r="A48" s="35" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B48" s="41" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C48" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D48" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E48" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F48" s="35" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G48" s="35" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H48" s="36">
         <v>2</v>
       </c>
       <c r="I48" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="J48" s="35"/>
-      <c r="K48" s="41"/>
+        <v>78</v>
+      </c>
+      <c r="J48" s="41"/>
+      <c r="K48" s="285" t="s">
+        <v>590</v>
+      </c>
       <c r="L48" s="35"/>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H49" s="23">
         <v>2</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K49" s="11" t="s">
-        <v>190</v>
+        <v>76</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="K49" s="287" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="50" spans="1:12" s="14" customFormat="1">
       <c r="A50" s="35" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B50" s="35" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C50" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D50" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E50" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F50" s="35" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G50" s="35" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="H50" s="36">
         <v>3</v>
       </c>
       <c r="I50" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="J50" s="35"/>
-      <c r="K50" s="41" t="s">
-        <v>190</v>
+        <v>76</v>
+      </c>
+      <c r="J50" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="K50" s="285" t="s">
+        <v>589</v>
       </c>
       <c r="L50" s="35"/>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H51" s="23">
         <v>2</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="K51" s="11" t="s">
-        <v>190</v>
+        <v>77</v>
+      </c>
+      <c r="J51" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="K51" s="287" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="52" spans="1:12" s="14" customFormat="1">
       <c r="A52" s="35" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B52" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C52" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D52" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E52" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F52" s="35" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G52" s="35" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H52" s="36">
         <v>2</v>
       </c>
       <c r="I52" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="J52" s="35"/>
-      <c r="K52" s="41"/>
+        <v>77</v>
+      </c>
+      <c r="J52" s="41"/>
+      <c r="K52" s="285"/>
       <c r="L52" s="35"/>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H53" s="23">
         <v>2</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="K53" s="11" t="s">
-        <v>190</v>
+        <v>77</v>
+      </c>
+      <c r="J53" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="K53" s="287" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="54" spans="1:12" s="14" customFormat="1">
       <c r="A54" s="35" t="s">
-        <v>230</v>
+        <v>591</v>
       </c>
       <c r="B54" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C54" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D54" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E54" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F54" s="35" t="s">
-        <v>315</v>
+        <v>592</v>
       </c>
       <c r="G54" s="35" t="s">
-        <v>273</v>
+        <v>593</v>
       </c>
       <c r="H54" s="36">
         <v>2</v>
       </c>
       <c r="I54" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="J54" s="35"/>
-      <c r="K54" s="41"/>
+        <v>77</v>
+      </c>
+      <c r="J54" s="41"/>
+      <c r="K54" s="285"/>
       <c r="L54" s="35"/>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H55" s="23">
         <v>1</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56" spans="1:12" s="14" customFormat="1">
       <c r="A56" s="35" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B56" s="35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C56" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D56" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E56" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F56" s="35" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G56" s="35" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H56" s="36">
         <v>2</v>
       </c>
       <c r="I56" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="J56" s="35"/>
-      <c r="K56" s="41"/>
+        <v>76</v>
+      </c>
+      <c r="J56" s="41"/>
+      <c r="K56" s="285"/>
       <c r="L56" s="35"/>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H57" s="23">
         <v>3</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" spans="1:12" s="14" customFormat="1">
       <c r="A58" s="35" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B58" s="35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C58" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D58" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E58" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F58" s="35" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="G58" s="35" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H58" s="36">
         <v>3</v>
       </c>
       <c r="I58" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="J58" s="35"/>
-      <c r="K58" s="41"/>
+        <v>79</v>
+      </c>
+      <c r="J58" s="41"/>
+      <c r="K58" s="285"/>
       <c r="L58" s="35"/>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H59" s="23">
         <v>2</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:12" s="14" customFormat="1">
       <c r="A60" s="35" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B60" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C60" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D60" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E60" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F60" s="35" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G60" s="35" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H60" s="36">
         <v>3</v>
       </c>
       <c r="I60" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="J60" s="35"/>
-      <c r="K60" s="41"/>
+        <v>73</v>
+      </c>
+      <c r="J60" s="41"/>
+      <c r="K60" s="285"/>
       <c r="L60" s="35"/>
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H61" s="23">
         <v>1</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:12" s="14" customFormat="1">
       <c r="A62" s="35" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B62" s="35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C62" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D62" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E62" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F62" s="35" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G62" s="35" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H62" s="36">
         <v>2</v>
       </c>
       <c r="I62" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="J62" s="35"/>
-      <c r="K62" s="41"/>
+        <v>80</v>
+      </c>
+      <c r="J62" s="41"/>
+      <c r="K62" s="285" t="s">
+        <v>588</v>
+      </c>
       <c r="L62" s="35"/>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H63" s="23">
         <v>2</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:12" s="14" customFormat="1">
       <c r="A64" s="35" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B64" s="35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C64" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D64" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E64" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F64" s="35" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G64" s="35" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H64" s="36">
         <v>2</v>
       </c>
       <c r="I64" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="J64" s="35"/>
-      <c r="K64" s="41"/>
+        <v>77</v>
+      </c>
+      <c r="J64" s="41"/>
+      <c r="K64" s="285"/>
       <c r="L64" s="35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="H65" s="23">
         <v>2</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:12" s="14" customFormat="1">
       <c r="A66" s="35" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B66" s="35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C66" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D66" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E66" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F66" s="35" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="G66" s="35" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H66" s="36">
         <v>3</v>
       </c>
       <c r="I66" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="J66" s="35"/>
-      <c r="K66" s="41"/>
+        <v>81</v>
+      </c>
+      <c r="J66" s="41"/>
+      <c r="K66" s="285"/>
       <c r="L66" s="35"/>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H67" s="23">
         <v>2</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:12" s="14" customFormat="1">
       <c r="A68" s="35" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B68" s="35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C68" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D68" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E68" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F68" s="35" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G68" s="35" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H68" s="36">
         <v>2</v>
       </c>
       <c r="I68" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="J68" s="35"/>
-      <c r="K68" s="41"/>
+        <v>79</v>
+      </c>
+      <c r="J68" s="41"/>
+      <c r="K68" s="285"/>
       <c r="L68" s="35"/>
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H69" s="23">
         <v>2</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="70" spans="1:12" s="14" customFormat="1">
       <c r="A70" s="35" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B70" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="C70" s="35" t="s">
+        <v>388</v>
+      </c>
+      <c r="D70" s="35" t="s">
+        <v>389</v>
+      </c>
+      <c r="E70" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C70" s="35" t="s">
-        <v>392</v>
-      </c>
-      <c r="D70" s="35" t="s">
-        <v>393</v>
-      </c>
-      <c r="E70" s="35" t="s">
-        <v>119</v>
-      </c>
       <c r="F70" s="35" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="G70" s="35" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H70" s="36">
         <v>2</v>
       </c>
       <c r="I70" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="J70" s="35"/>
-      <c r="K70" s="41"/>
+        <v>69</v>
+      </c>
+      <c r="J70" s="41"/>
+      <c r="K70" s="285" t="s">
+        <v>588</v>
+      </c>
       <c r="L70" s="35"/>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H71" s="23">
         <v>3</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="K71" s="287" t="s">
+        <v>590</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="72" spans="1:12" s="14" customFormat="1">
       <c r="A72" s="35" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B72" s="35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C72" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D72" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E72" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F72" s="35" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G72" s="35" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H72" s="36">
         <v>3</v>
       </c>
       <c r="I72" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="J72" s="35"/>
-      <c r="K72" s="41"/>
+        <v>69</v>
+      </c>
+      <c r="J72" s="41"/>
+      <c r="K72" s="285" t="s">
+        <v>590</v>
+      </c>
       <c r="L72" s="35"/>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H73" s="23">
         <v>2</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="K73" s="287" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="74" spans="1:12" s="14" customFormat="1">
       <c r="A74" s="35" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B74" s="35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C74" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D74" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E74" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F74" s="35" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G74" s="35" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="H74" s="36">
         <v>1</v>
       </c>
       <c r="I74" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="J74" s="35"/>
-      <c r="K74" s="41"/>
+        <v>76</v>
+      </c>
+      <c r="J74" s="41"/>
+      <c r="K74" s="285" t="s">
+        <v>589</v>
+      </c>
       <c r="L74" s="35"/>
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="H75" s="23">
         <v>1</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="K75" s="287" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="76" spans="1:12" s="14" customFormat="1">
       <c r="A76" s="35" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B76" s="35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C76" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D76" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E76" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F76" s="35" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G76" s="35" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H76" s="36">
         <v>2</v>
       </c>
       <c r="I76" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="J76" s="35"/>
-      <c r="K76" s="41"/>
+        <v>77</v>
+      </c>
+      <c r="J76" s="41"/>
+      <c r="K76" s="285"/>
       <c r="L76" s="35"/>
     </row>
     <row r="77" spans="1:12" s="63" customFormat="1">
       <c r="A77" s="58" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B77" s="58" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C77" s="61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D77" s="61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E77" s="58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F77" s="58" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="G77" s="58" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="H77" s="62">
         <v>3</v>
       </c>
       <c r="I77" s="58" t="s">
-        <v>70</v>
-      </c>
-      <c r="J77" s="58"/>
-      <c r="K77" s="61"/>
+        <v>69</v>
+      </c>
+      <c r="J77" s="61"/>
+      <c r="K77" s="289" t="s">
+        <v>588</v>
+      </c>
       <c r="L77" s="58"/>
     </row>
     <row r="78" spans="1:12" s="14" customFormat="1">
       <c r="A78" s="35" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B78" s="35" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C78" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D78" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E78" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F78" s="35" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="G78" s="35" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="H78" s="36">
         <v>1</v>
       </c>
-      <c r="I78" s="35"/>
-      <c r="J78" s="35"/>
-      <c r="K78" s="41" t="s">
-        <v>195</v>
+      <c r="I78" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="J78" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="K78" s="285" t="s">
+        <v>589</v>
       </c>
       <c r="L78" s="35"/>
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F79" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="G79" s="2" t="s">
         <v>572</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="C79" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D79" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F79" s="11" t="s">
-        <v>575</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>576</v>
       </c>
       <c r="H79" s="23">
         <v>1</v>
       </c>
-      <c r="K79" s="11" t="s">
-        <v>195</v>
+      <c r="I79" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="J79" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="K79" s="287" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="80" spans="1:12" s="14" customFormat="1">
       <c r="A80" s="35" t="s">
+        <v>576</v>
+      </c>
+      <c r="B80" s="35" t="s">
         <v>580</v>
       </c>
-      <c r="B80" s="35" t="s">
-        <v>584</v>
-      </c>
       <c r="C80" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D80" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E80" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F80" s="35" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="G80" s="35" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="H80" s="36">
         <v>1</v>
       </c>
-      <c r="I80" s="35"/>
-      <c r="J80" s="35"/>
-      <c r="K80" s="41" t="s">
-        <v>195</v>
+      <c r="I80" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="J80" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="K80" s="285" t="s">
+        <v>589</v>
       </c>
       <c r="L80" s="35"/>
     </row>
@@ -8257,7 +8695,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -8266,14 +8704,13 @@
     <col min="2" max="2" width="27.85546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="7.5703125" style="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="43.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="43.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="0" hidden="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -8287,220 +8724,210 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>4</v>
+        <v>187</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="14" customFormat="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="14" customFormat="1">
       <c r="A2" s="38" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C2" s="42">
         <v>1</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E2" s="38"/>
       <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C3" s="22">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="14" customFormat="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="14" customFormat="1">
       <c r="A4" s="35" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C4" s="43">
         <v>1</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E4" s="35"/>
       <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-    </row>
-    <row r="5" spans="1:7">
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C5" s="22">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="14" customFormat="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="14" customFormat="1">
       <c r="A6" s="35" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C6" s="43">
         <v>1</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E6" s="35"/>
       <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-    </row>
-    <row r="7" spans="1:7">
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C7" s="22">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="14" customFormat="1">
+        <v>80</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="14" customFormat="1">
       <c r="A8" s="35" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C8" s="43">
         <v>1</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E8" s="35"/>
       <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-    </row>
-    <row r="9" spans="1:7">
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C9" s="22">
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="14" customFormat="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="14" customFormat="1">
       <c r="A10" s="35" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C10" s="43">
         <v>1</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E10" s="35"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-    </row>
-    <row r="11" spans="1:7">
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C11" s="22">
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="14" customFormat="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="14" customFormat="1">
       <c r="A12" s="35" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C12" s="43">
         <v>1</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E12" s="35"/>
       <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-    </row>
-    <row r="13" spans="1:7">
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C13" s="22">
         <v>3</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="14" customFormat="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="14" customFormat="1">
       <c r="A14" s="35" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C14" s="43">
         <v>2</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E14" s="35"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8512,11 +8939,11 @@
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -8525,11 +8952,11 @@
     <col min="2" max="2" width="24" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.5703125" style="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" style="22" customWidth="1"/>
     <col min="7" max="7" width="69.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="0" hidden="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" hidden="1"/>
+    <col min="8" max="12" width="0" hidden="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1">
@@ -8546,564 +8973,647 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>586</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="13" customFormat="1">
       <c r="A2" s="25" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C2" s="27">
         <v>1</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>512</v>
-      </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25" t="s">
-        <v>190</v>
+        <v>508</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>582</v>
       </c>
       <c r="G2" s="25"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" s="22">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>190</v>
+        <v>527</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>582</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="13" customFormat="1">
       <c r="A4" s="26" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C4" s="28">
         <v>1</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>512</v>
-      </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26" t="s">
-        <v>190</v>
+        <v>508</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>583</v>
       </c>
       <c r="G4" s="26"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C5" s="22">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>190</v>
+        <v>508</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="13" customFormat="1">
       <c r="A6" s="26" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C6" s="28">
         <v>1</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>512</v>
-      </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26" t="s">
-        <v>190</v>
+        <v>508</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>582</v>
       </c>
       <c r="G6" s="26"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C7" s="22">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>556</v>
+        <v>508</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="13" customFormat="1">
       <c r="A8" s="26" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C8" s="28">
         <v>1</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>512</v>
-      </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26" t="s">
-        <v>190</v>
+        <v>508</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>582</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C9" s="22">
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>190</v>
+        <v>511</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>584</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="13" customFormat="1">
       <c r="A10" s="26" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C10" s="28">
         <v>1</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>512</v>
-      </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26" t="s">
-        <v>195</v>
+        <v>508</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>583</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C11" s="22">
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>190</v>
+        <v>508</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="13" customFormat="1">
       <c r="A12" s="26" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C12" s="28">
         <v>1</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>512</v>
-      </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26" t="s">
-        <v>190</v>
+        <v>508</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>584</v>
       </c>
       <c r="G12" s="26"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B13" s="58" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C13" s="22">
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>195</v>
+        <v>511</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="13" customFormat="1">
       <c r="A14" s="26" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C14" s="28">
         <v>2</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
+      <c r="F14" s="28" t="s">
+        <v>583</v>
+      </c>
       <c r="G14" s="26"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B15" s="58" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C15" s="22">
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>512</v>
+        <v>508</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="13" customFormat="1">
       <c r="A16" s="26" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C16" s="28">
         <v>3</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
+      <c r="F16" s="28" t="s">
+        <v>584</v>
+      </c>
       <c r="G16" s="26"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B17" s="58" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C17" s="22">
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>514</v>
+        <v>510</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="13" customFormat="1">
       <c r="A18" s="26" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C18" s="28">
         <v>1</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>512</v>
-      </c>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26" t="s">
-        <v>190</v>
+        <v>508</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>582</v>
       </c>
       <c r="G18" s="26"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B19" s="59" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C19" s="22">
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>512</v>
+        <v>508</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="13" customFormat="1">
       <c r="A20" s="26" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C20" s="28">
         <v>1</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
+      <c r="F20" s="28" t="s">
+        <v>583</v>
+      </c>
       <c r="G20" s="26"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B21" s="60" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C21" s="22">
         <v>2</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>190</v>
+        <v>508</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="13" customFormat="1">
       <c r="A22" s="26" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C22" s="28">
         <v>1</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
+      <c r="F22" s="28" t="s">
+        <v>584</v>
+      </c>
       <c r="G22" s="26"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C23" s="22">
         <v>3</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>513</v>
+        <v>509</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="13" customFormat="1">
       <c r="A24" s="26" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C24" s="28">
         <v>1</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
+      <c r="F24" s="28" t="s">
+        <v>582</v>
+      </c>
       <c r="G24" s="26"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C25" s="22">
         <v>3</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>512</v>
+        <v>508</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="13" customFormat="1">
       <c r="A26" s="26" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C26" s="28">
         <v>3</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
+      <c r="F26" s="28" t="s">
+        <v>582</v>
+      </c>
       <c r="G26" s="26"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C27" s="22">
         <v>3</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>501</v>
+        <v>497</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>584</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="13" customFormat="1">
       <c r="A28" s="26" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C28" s="28">
         <v>3</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
+      <c r="F28" s="28" t="s">
+        <v>584</v>
+      </c>
       <c r="G28" s="26" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C29" s="22">
         <v>3</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>512</v>
+        <v>508</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="13" customFormat="1">
       <c r="A30" s="26" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C30" s="28">
         <v>3</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
+      <c r="F30" s="28" t="s">
+        <v>583</v>
+      </c>
       <c r="G30" s="26"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C31" s="22">
         <v>2</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>533</v>
+        <v>529</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="13" customFormat="1">
       <c r="A32" s="26" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C32" s="28">
         <v>1</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>512</v>
-      </c>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26" t="s">
-        <v>190</v>
+        <v>508</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F32" s="28" t="s">
+        <v>582</v>
       </c>
       <c r="G32" s="26"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C33" s="22">
         <v>3</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>190</v>
+        <v>509</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>582</v>
       </c>
     </row>
   </sheetData>
@@ -9116,11 +9626,11 @@
   <sheetPr>
     <tabColor theme="0" tint="-4.9989318521683403E-2"/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -9129,11 +9639,11 @@
     <col min="2" max="2" width="18.140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="7.5703125" style="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="22" customWidth="1"/>
     <col min="7" max="7" width="33" style="2" customWidth="1"/>
-    <col min="8" max="9" width="0" hidden="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" hidden="1"/>
+    <col min="8" max="10" width="0" hidden="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1">
@@ -9150,294 +9660,302 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>586</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="19" customFormat="1">
       <c r="A2" s="18" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C2" s="44">
         <v>3</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="F2" s="44"/>
       <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C3" s="22">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="19" customFormat="1">
       <c r="A4" s="20" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C4" s="45">
         <v>2</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
+      <c r="F4" s="45"/>
       <c r="G4" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C5" s="22">
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="19" customFormat="1">
       <c r="A6" s="20" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C6" s="45">
         <v>1</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
+        <v>78</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>588</v>
+      </c>
       <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C7" s="22">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="19" customFormat="1">
       <c r="A8" s="20" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C8" s="45">
         <v>1</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
+        <v>80</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="F8" s="45" t="s">
+        <v>588</v>
+      </c>
       <c r="G8" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C9" s="22">
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="19" customFormat="1">
       <c r="A10" s="20" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C10" s="45">
         <v>2</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
+      <c r="F10" s="45"/>
       <c r="G10" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C11" s="22">
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="19" customFormat="1">
       <c r="A12" s="20" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C12" s="45">
         <v>2</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
+      <c r="F12" s="45"/>
       <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C13" s="22">
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="19" customFormat="1">
       <c r="A14" s="20" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C14" s="45">
         <v>2</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
+      <c r="F14" s="45"/>
       <c r="G14" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C15" s="22">
         <v>2</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="19" customFormat="1">
       <c r="A16" s="20" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C16" s="45">
         <v>3</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
+      <c r="F16" s="45"/>
       <c r="G16" s="20"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C17" s="22">
         <v>2</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="19" customFormat="1">
       <c r="A18" s="20" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C18" s="45">
         <v>2</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
+      <c r="F18" s="45"/>
       <c r="G18" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -9454,7 +9972,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -9463,14 +9981,13 @@
     <col min="2" max="2" width="22.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="7.5703125" style="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="33" style="2" customWidth="1"/>
-    <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="33" style="2" customWidth="1"/>
+    <col min="7" max="8" width="0" hidden="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -9484,264 +10001,259 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>4</v>
+        <v>187</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="19" customFormat="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="19" customFormat="1">
       <c r="A2" s="46" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C2" s="47">
         <v>3</v>
       </c>
       <c r="D2" s="46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E2" s="46"/>
       <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-    </row>
-    <row r="3" spans="1:7" s="2" customFormat="1">
+    </row>
+    <row r="3" spans="1:6" s="2" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C3" s="22">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="20" customFormat="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="20" customFormat="1">
       <c r="A4" s="20" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C4" s="45">
         <v>1</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="2" customFormat="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="2" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C5" s="22">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="20" customFormat="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="20" customFormat="1">
       <c r="A6" s="20" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C6" s="45">
         <v>2</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="2" customFormat="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="2" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C7" s="22">
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="20" customFormat="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="20" customFormat="1">
       <c r="A8" s="20" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C8" s="45">
         <v>2</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="2" customFormat="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="2" customFormat="1">
       <c r="A9" s="2" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C9" s="22">
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="20" customFormat="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="20" customFormat="1">
       <c r="A10" s="20" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" s="45">
         <v>3</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="2" customFormat="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="2" customFormat="1">
       <c r="A11" s="2" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C11" s="22">
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="20" customFormat="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="20" customFormat="1">
       <c r="A12" s="20" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C12" s="45">
         <v>2</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="2" customFormat="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="2" customFormat="1">
       <c r="A13" s="2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C13" s="22">
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="20" customFormat="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="20" customFormat="1">
       <c r="A14" s="20" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C14" s="45">
         <v>2</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="2" customFormat="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="2" customFormat="1">
       <c r="A15" s="2" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C15" s="22">
         <v>2</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="20" customFormat="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="20" customFormat="1">
       <c r="A16" s="20" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C16" s="45">
         <v>2</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="2" customFormat="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="2" customFormat="1">
       <c r="A17" s="2" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C17" s="22">
         <v>2</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="20" customFormat="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="20" customFormat="1">
       <c r="A18" s="20" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C18" s="45">
         <v>1</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="29"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9769,7 +10281,7 @@
     <col min="6" max="6" width="6.5703125" style="15" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" style="15" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="15" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="232" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="218" customWidth="1"/>
     <col min="10" max="10" width="15.7109375" style="15" customWidth="1"/>
     <col min="11" max="11" width="9.140625" style="15" customWidth="1"/>
     <col min="12" max="12" width="19.140625" style="15" customWidth="1"/>
@@ -9779,56 +10291,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A1" s="363" t="s">
+      <c r="A1" s="373" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="364"/>
+      <c r="B1" s="374"/>
       <c r="C1" s="15"/>
-      <c r="D1" s="247" t="s">
-        <v>188</v>
+      <c r="D1" s="232" t="s">
+        <v>187</v>
       </c>
       <c r="E1" s="32"/>
-      <c r="F1" s="365" t="s">
-        <v>201</v>
-      </c>
-      <c r="G1" s="366"/>
+      <c r="F1" s="375" t="s">
+        <v>200</v>
+      </c>
+      <c r="G1" s="376"/>
       <c r="H1" s="15"/>
-      <c r="I1" s="232"/>
-      <c r="J1" s="248" t="s">
-        <v>555</v>
+      <c r="I1" s="218"/>
+      <c r="J1" s="233" t="s">
+        <v>551</v>
       </c>
       <c r="K1" s="15"/>
-      <c r="L1" s="249" t="s">
-        <v>561</v>
+      <c r="L1" s="234" t="s">
+        <v>557</v>
       </c>
       <c r="M1" s="15"/>
       <c r="N1" s="15"/>
       <c r="O1" s="15"/>
     </row>
     <row r="2" spans="1:15" customFormat="1">
-      <c r="A2" s="252" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" s="253" t="s">
-        <v>83</v>
+      <c r="A2" s="237" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="238" t="s">
+        <v>82</v>
       </c>
       <c r="C2" s="15"/>
-      <c r="D2" s="254"/>
+      <c r="D2" s="239"/>
       <c r="E2" s="15"/>
       <c r="F2" s="50" t="s">
+        <v>196</v>
+      </c>
+      <c r="G2" s="51" t="s">
         <v>197</v>
       </c>
-      <c r="G2" s="51" t="s">
-        <v>198</v>
-      </c>
       <c r="H2" s="15"/>
-      <c r="I2" s="232"/>
-      <c r="J2" s="260" t="s">
-        <v>556</v>
+      <c r="I2" s="218"/>
+      <c r="J2" s="245" t="s">
+        <v>552</v>
       </c>
       <c r="K2" s="15"/>
-      <c r="L2" s="263" t="s">
-        <v>559</v>
+      <c r="L2" s="248" t="s">
+        <v>555</v>
       </c>
       <c r="M2" s="15"/>
       <c r="N2" s="15"/>
@@ -9836,61 +10348,61 @@
     </row>
     <row r="3" spans="1:15" customFormat="1">
       <c r="A3" s="30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" s="15"/>
-      <c r="D3" s="255" t="s">
-        <v>195</v>
+      <c r="D3" s="240" t="s">
+        <v>194</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="50" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G3" s="51" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H3" s="15"/>
-      <c r="I3" s="232"/>
-      <c r="J3" s="257" t="s">
-        <v>190</v>
+      <c r="I3" s="218"/>
+      <c r="J3" s="242" t="s">
+        <v>189</v>
       </c>
       <c r="K3" s="15"/>
-      <c r="L3" s="261" t="s">
-        <v>560</v>
+      <c r="L3" s="246" t="s">
+        <v>556</v>
       </c>
       <c r="M3" s="15"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
     <row r="4" spans="1:15" customFormat="1">
-      <c r="A4" s="250" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="251" t="s">
-        <v>84</v>
+      <c r="A4" s="235" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="236" t="s">
+        <v>83</v>
       </c>
       <c r="C4" s="15"/>
-      <c r="D4" s="256" t="s">
-        <v>189</v>
+      <c r="D4" s="241" t="s">
+        <v>188</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="50" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G4" s="51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H4" s="15"/>
-      <c r="I4" s="232"/>
-      <c r="J4" s="261" t="s">
-        <v>557</v>
+      <c r="I4" s="218"/>
+      <c r="J4" s="246" t="s">
+        <v>553</v>
       </c>
       <c r="K4" s="15"/>
-      <c r="L4" s="264" t="s">
-        <v>577</v>
+      <c r="L4" s="249" t="s">
+        <v>573</v>
       </c>
       <c r="M4" s="15"/>
       <c r="N4" s="15"/>
@@ -9900,20 +10412,20 @@
       <c r="A5" s="33"/>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
-      <c r="D5" s="257" t="s">
-        <v>190</v>
+      <c r="D5" s="242" t="s">
+        <v>189</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="50" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="G5" s="51" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H5" s="15"/>
-      <c r="I5" s="232"/>
-      <c r="J5" s="262" t="s">
-        <v>558</v>
+      <c r="I5" s="218"/>
+      <c r="J5" s="247" t="s">
+        <v>554</v>
       </c>
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
@@ -9925,18 +10437,18 @@
       <c r="A6" s="33"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
-      <c r="D6" s="258" t="s">
-        <v>191</v>
+      <c r="D6" s="243" t="s">
+        <v>190</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="50" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G6" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H6" s="15"/>
-      <c r="I6" s="232"/>
+      <c r="I6" s="218"/>
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
@@ -9945,39 +10457,39 @@
       <c r="O6" s="15"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="D7" s="259" t="s">
-        <v>192</v>
+      <c r="D7" s="244" t="s">
+        <v>191</v>
       </c>
       <c r="F7" s="50" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G7" s="51" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="D8" s="15"/>
       <c r="F8" s="48" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G8" s="49" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="F9" s="52" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G9" s="53" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="F10" s="54" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G10" s="55" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:15"/>

--- a/Planning & Assetlist.xlsx
+++ b/Planning & Assetlist.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="599">
   <si>
     <t>Code Name</t>
   </si>
@@ -307,9 +307,6 @@
     <t>Health Pickup</t>
   </si>
   <si>
-    <t>Crates</t>
-  </si>
-  <si>
     <t>(Broken) Truck</t>
   </si>
   <si>
@@ -325,18 +322,9 @@
     <t>Mail Box</t>
   </si>
   <si>
-    <t>Bushes</t>
-  </si>
-  <si>
     <t>Cracked Streets</t>
   </si>
   <si>
-    <t>Broken Walls</t>
-  </si>
-  <si>
-    <t>Barrels</t>
-  </si>
-  <si>
     <t>Planks</t>
   </si>
   <si>
@@ -1234,9 +1222,6 @@
     <t>2D_SHOU_003</t>
   </si>
   <si>
-    <t>Boss Room</t>
-  </si>
-  <si>
     <t>Medium House</t>
   </si>
   <si>
@@ -1811,6 +1796,27 @@
   </si>
   <si>
     <t>Inplement new assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>Boss Room, New boss room is Brandenburg</t>
+  </si>
+  <si>
+    <t>Crate</t>
+  </si>
+  <si>
+    <t>Bush</t>
+  </si>
+  <si>
+    <t>Barrel</t>
+  </si>
+  <si>
+    <t>Broken Wall</t>
   </si>
 </sst>
 </file>
@@ -2965,7 +2971,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="386">
+  <cellXfs count="398">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -3723,6 +3729,224 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3777,132 +4001,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3912,42 +4010,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3981,28 +4043,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4315,11 +4357,11 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:XFC153"/>
+  <dimension ref="A1:XFC159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
+      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="1"/>
@@ -4338,10 +4380,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="67" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A1" s="315" t="s">
+      <c r="A1" s="363" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="316"/>
+      <c r="B1" s="364"/>
       <c r="C1" s="64" t="s">
         <v>59</v>
       </c>
@@ -4371,14 +4413,14 @@
       <c r="B2" s="252" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="327" t="s">
+      <c r="C2" s="338" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="328"/>
-      <c r="E2" s="328"/>
-      <c r="F2" s="328"/>
-      <c r="G2" s="328"/>
-      <c r="H2" s="329"/>
+      <c r="D2" s="339"/>
+      <c r="E2" s="339"/>
+      <c r="F2" s="339"/>
+      <c r="G2" s="339"/>
+      <c r="H2" s="340"/>
       <c r="I2" s="101"/>
     </row>
     <row r="3" spans="1:9" s="74" customFormat="1" ht="15" customHeight="1" thickBot="1">
@@ -4388,14 +4430,14 @@
       <c r="B3" s="253" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="348" t="s">
+      <c r="C3" s="360" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="349"/>
-      <c r="E3" s="349"/>
-      <c r="F3" s="349"/>
-      <c r="G3" s="349"/>
-      <c r="H3" s="350"/>
+      <c r="D3" s="361"/>
+      <c r="E3" s="361"/>
+      <c r="F3" s="361"/>
+      <c r="G3" s="361"/>
+      <c r="H3" s="362"/>
       <c r="I3" s="81"/>
     </row>
     <row r="4" spans="1:9" s="100" customFormat="1" ht="15.75" thickBot="1">
@@ -4405,46 +4447,46 @@
       <c r="B4" s="254" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="345" t="s">
+      <c r="C4" s="357" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="346"/>
-      <c r="E4" s="346"/>
-      <c r="F4" s="346"/>
-      <c r="G4" s="346"/>
-      <c r="H4" s="347"/>
+      <c r="D4" s="358"/>
+      <c r="E4" s="358"/>
+      <c r="F4" s="358"/>
+      <c r="G4" s="358"/>
+      <c r="H4" s="359"/>
       <c r="I4" s="99"/>
     </row>
     <row r="5" spans="1:9" s="160" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A5" s="330" t="s">
+      <c r="A5" s="341" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="332" t="s">
+      <c r="B5" s="343" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="339" t="s">
+      <c r="C5" s="351" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="340"/>
-      <c r="E5" s="340"/>
-      <c r="F5" s="340"/>
-      <c r="G5" s="340"/>
-      <c r="H5" s="341"/>
+      <c r="D5" s="352"/>
+      <c r="E5" s="352"/>
+      <c r="F5" s="352"/>
+      <c r="G5" s="352"/>
+      <c r="H5" s="353"/>
       <c r="I5" s="158" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="160" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A6" s="331"/>
-      <c r="B6" s="333"/>
-      <c r="C6" s="342" t="s">
-        <v>524</v>
-      </c>
-      <c r="D6" s="343"/>
-      <c r="E6" s="343"/>
-      <c r="F6" s="343"/>
-      <c r="G6" s="343"/>
-      <c r="H6" s="344"/>
+      <c r="A6" s="342"/>
+      <c r="B6" s="344"/>
+      <c r="C6" s="354" t="s">
+        <v>519</v>
+      </c>
+      <c r="D6" s="355"/>
+      <c r="E6" s="355"/>
+      <c r="F6" s="355"/>
+      <c r="G6" s="355"/>
+      <c r="H6" s="356"/>
       <c r="I6" s="159"/>
     </row>
     <row r="7" spans="1:9" s="109" customFormat="1" ht="15.75" thickBot="1">
@@ -4461,115 +4503,115 @@
       <c r="G7" s="106"/>
       <c r="H7" s="107"/>
       <c r="I7" s="108" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="74" customFormat="1">
-      <c r="A8" s="317" t="s">
+      <c r="A8" s="345" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="319" t="s">
+      <c r="B8" s="348" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="73" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D8" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="E8" s="111" t="s">
         <v>212</v>
       </c>
-      <c r="E8" s="111" t="s">
-        <v>216</v>
-      </c>
       <c r="F8" s="122" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="G8" s="128" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="H8" s="111" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I8" s="75" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="318"/>
-      <c r="B9" s="320"/>
+      <c r="A9" s="346"/>
+      <c r="B9" s="349"/>
       <c r="C9" s="68"/>
       <c r="D9" s="129" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E9" s="112" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="F9" s="173"/>
       <c r="G9" s="129" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="H9" s="133" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="318"/>
-      <c r="B10" s="320"/>
+      <c r="A10" s="346"/>
+      <c r="B10" s="349"/>
       <c r="C10" s="68"/>
       <c r="D10" s="129" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E10" s="112" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F10" s="173"/>
       <c r="G10" s="170"/>
       <c r="H10" s="112" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="318"/>
-      <c r="B11" s="320"/>
+      <c r="A11" s="346"/>
+      <c r="B11" s="349"/>
       <c r="C11" s="68"/>
       <c r="D11" s="69"/>
       <c r="E11" s="112" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="F11" s="173"/>
       <c r="G11" s="170"/>
       <c r="H11" s="171"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="318"/>
-      <c r="B12" s="320"/>
+      <c r="A12" s="346"/>
+      <c r="B12" s="349"/>
       <c r="C12" s="68"/>
       <c r="D12" s="69"/>
       <c r="E12" s="112" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F12" s="173"/>
       <c r="G12" s="170"/>
       <c r="H12" s="171"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="318"/>
-      <c r="B13" s="320"/>
+      <c r="A13" s="346"/>
+      <c r="B13" s="349"/>
       <c r="C13" s="68"/>
       <c r="D13" s="69"/>
       <c r="E13" s="112" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="F13" s="173"/>
       <c r="G13" s="170"/>
       <c r="H13" s="171"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A14" s="318"/>
-      <c r="B14" s="320"/>
+      <c r="A14" s="346"/>
+      <c r="B14" s="349"/>
       <c r="C14" s="71"/>
       <c r="D14" s="72"/>
       <c r="E14" s="113" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F14" s="174"/>
       <c r="G14" s="175"/>
@@ -4577,62 +4619,62 @@
       <c r="I14" s="70"/>
     </row>
     <row r="15" spans="1:9" s="88" customFormat="1">
-      <c r="A15" s="321" t="s">
+      <c r="A15" s="329" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="324" t="s">
+      <c r="B15" s="302" t="s">
         <v>43</v>
       </c>
       <c r="C15" s="86" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D15" s="130" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E15" s="114" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F15" s="126" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="G15" s="220" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="H15" s="114" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I15" s="87"/>
     </row>
     <row r="16" spans="1:9" s="92" customFormat="1">
-      <c r="A16" s="322"/>
-      <c r="B16" s="325"/>
+      <c r="A16" s="330"/>
+      <c r="B16" s="303"/>
       <c r="C16" s="89" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D16" s="131" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E16" s="115" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="F16" s="273"/>
       <c r="G16" s="274"/>
       <c r="H16" s="115" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="I16" s="91"/>
     </row>
     <row r="17" spans="1:9" s="92" customFormat="1">
-      <c r="A17" s="322"/>
-      <c r="B17" s="325"/>
+      <c r="A17" s="330"/>
+      <c r="B17" s="303"/>
       <c r="C17" s="89" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D17" s="131" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E17" s="115" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="F17" s="273"/>
       <c r="G17" s="274"/>
@@ -4640,14 +4682,14 @@
       <c r="I17" s="91"/>
     </row>
     <row r="18" spans="1:9" s="92" customFormat="1">
-      <c r="A18" s="322"/>
-      <c r="B18" s="325"/>
+      <c r="A18" s="330"/>
+      <c r="B18" s="303"/>
       <c r="C18" s="93"/>
       <c r="D18" s="131" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E18" s="115" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="F18" s="273"/>
       <c r="G18" s="274"/>
@@ -4655,12 +4697,12 @@
       <c r="I18" s="91"/>
     </row>
     <row r="19" spans="1:9" s="92" customFormat="1">
-      <c r="A19" s="322"/>
-      <c r="B19" s="325"/>
+      <c r="A19" s="330"/>
+      <c r="B19" s="303"/>
       <c r="C19" s="93"/>
       <c r="D19" s="90"/>
       <c r="E19" s="115" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="F19" s="273"/>
       <c r="G19" s="274"/>
@@ -4668,12 +4710,12 @@
       <c r="I19" s="91"/>
     </row>
     <row r="20" spans="1:9" s="92" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A20" s="323"/>
-      <c r="B20" s="326"/>
+      <c r="A20" s="331"/>
+      <c r="B20" s="304"/>
       <c r="C20" s="94"/>
       <c r="D20" s="95"/>
       <c r="E20" s="165" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="F20" s="275"/>
       <c r="G20" s="276"/>
@@ -4681,119 +4723,119 @@
       <c r="I20" s="96"/>
     </row>
     <row r="21" spans="1:9" s="74" customFormat="1">
-      <c r="A21" s="317" t="s">
+      <c r="A21" s="345" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="253" t="s">
         <v>44</v>
       </c>
       <c r="C21" s="73" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D21" s="231" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E21" s="111" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F21" s="122" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="G21" s="167" t="s">
+        <v>470</v>
+      </c>
+      <c r="H21" s="169" t="s">
         <v>475</v>
       </c>
-      <c r="H21" s="169" t="s">
-        <v>480</v>
-      </c>
       <c r="I21" s="75" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="318"/>
+      <c r="A22" s="346"/>
       <c r="B22" s="256"/>
       <c r="C22" s="127" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D22" s="69"/>
       <c r="E22" s="112" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="F22" s="173"/>
       <c r="G22" s="170"/>
       <c r="H22" s="171"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="318"/>
+      <c r="A23" s="346"/>
       <c r="B23" s="256"/>
       <c r="C23" s="127" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D23" s="69"/>
       <c r="E23" s="112" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F23" s="173"/>
       <c r="G23" s="170"/>
       <c r="H23" s="171"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="318"/>
+      <c r="A24" s="346"/>
       <c r="B24" s="256"/>
       <c r="C24" s="135" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D24" s="69"/>
       <c r="E24" s="112" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="F24" s="173"/>
       <c r="G24" s="170"/>
       <c r="H24" s="171"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="318"/>
+      <c r="A25" s="346"/>
       <c r="B25" s="256"/>
       <c r="C25" s="68"/>
       <c r="D25" s="69"/>
       <c r="E25" s="112" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="F25" s="173"/>
       <c r="G25" s="170"/>
       <c r="H25" s="171"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="318"/>
+      <c r="A26" s="346"/>
       <c r="B26" s="256"/>
       <c r="C26" s="68"/>
       <c r="D26" s="69"/>
       <c r="E26" s="221" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F26" s="173"/>
       <c r="G26" s="170"/>
       <c r="H26" s="171"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="318"/>
+      <c r="A27" s="346"/>
       <c r="B27" s="256"/>
       <c r="C27" s="68"/>
       <c r="D27" s="69"/>
       <c r="E27" s="221" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F27" s="173"/>
       <c r="G27" s="170"/>
       <c r="H27" s="171"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A28" s="334"/>
+      <c r="A28" s="347"/>
       <c r="B28" s="259"/>
       <c r="C28" s="71"/>
       <c r="D28" s="72"/>
       <c r="E28" s="222" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F28" s="174"/>
       <c r="G28" s="175"/>
@@ -4801,69 +4843,69 @@
       <c r="I28" s="70"/>
     </row>
     <row r="29" spans="1:9" s="88" customFormat="1">
-      <c r="A29" s="321" t="s">
+      <c r="A29" s="329" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="324" t="s">
+      <c r="B29" s="302" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="86" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D29" s="130" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E29" s="168" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="F29" s="126" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="G29" s="166" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="H29" s="219" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="I29" s="97" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="92" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A30" s="322"/>
-      <c r="B30" s="325"/>
+      <c r="A30" s="330"/>
+      <c r="B30" s="303"/>
       <c r="C30" s="134" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D30" s="131" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E30" s="117"/>
       <c r="F30" s="273"/>
       <c r="G30" s="274"/>
       <c r="H30" s="277"/>
       <c r="I30" s="141" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="92" customFormat="1">
-      <c r="A31" s="322"/>
-      <c r="B31" s="325"/>
+      <c r="A31" s="330"/>
+      <c r="B31" s="303"/>
       <c r="C31" s="93"/>
       <c r="D31" s="131" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E31" s="117"/>
       <c r="F31" s="273"/>
       <c r="G31" s="274"/>
       <c r="H31" s="277"/>
       <c r="I31" s="141" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="92" customFormat="1">
-      <c r="A32" s="322"/>
-      <c r="B32" s="325"/>
+      <c r="A32" s="330"/>
+      <c r="B32" s="303"/>
       <c r="C32" s="93"/>
       <c r="D32" s="90"/>
       <c r="E32" s="117"/>
@@ -4871,12 +4913,12 @@
       <c r="G32" s="274"/>
       <c r="H32" s="277"/>
       <c r="I32" s="141" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="92" customFormat="1">
-      <c r="A33" s="322"/>
-      <c r="B33" s="325"/>
+      <c r="A33" s="330"/>
+      <c r="B33" s="303"/>
       <c r="C33" s="93"/>
       <c r="D33" s="90"/>
       <c r="E33" s="117"/>
@@ -4886,8 +4928,8 @@
       <c r="I33" s="141"/>
     </row>
     <row r="34" spans="1:9" s="92" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A34" s="323"/>
-      <c r="B34" s="326"/>
+      <c r="A34" s="331"/>
+      <c r="B34" s="304"/>
       <c r="C34" s="93"/>
       <c r="D34" s="90"/>
       <c r="E34" s="117"/>
@@ -4897,81 +4939,81 @@
       <c r="I34" s="142"/>
     </row>
     <row r="35" spans="1:9" s="74" customFormat="1">
-      <c r="A35" s="317" t="s">
+      <c r="A35" s="345" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="319" t="s">
+      <c r="B35" s="348" t="s">
         <v>46</v>
       </c>
       <c r="C35" s="127" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D35" s="128" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E35" s="132" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="F35" s="262" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="G35" s="229" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="H35" s="260" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="I35" s="75" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="12" customFormat="1" ht="15" customHeight="1">
-      <c r="A36" s="318"/>
-      <c r="B36" s="320"/>
+      <c r="A36" s="346"/>
+      <c r="B36" s="349"/>
       <c r="C36" s="127" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D36" s="230" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E36" s="261" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="F36" s="225"/>
       <c r="G36" s="170"/>
       <c r="H36" s="261" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="I36" s="140" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="12" customFormat="1">
-      <c r="A37" s="318"/>
-      <c r="B37" s="320"/>
+      <c r="A37" s="346"/>
+      <c r="B37" s="349"/>
       <c r="C37" s="139"/>
       <c r="D37" s="230" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E37" s="261" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="F37" s="176"/>
       <c r="G37" s="226"/>
       <c r="H37" s="177"/>
       <c r="I37" s="140" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="12" customFormat="1">
-      <c r="A38" s="318"/>
-      <c r="B38" s="320"/>
+      <c r="A38" s="346"/>
+      <c r="B38" s="349"/>
       <c r="C38" s="139"/>
       <c r="D38" s="230" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E38" s="261" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="F38" s="176"/>
       <c r="G38" s="226"/>
@@ -4979,14 +5021,14 @@
       <c r="I38" s="140"/>
     </row>
     <row r="39" spans="1:9" s="12" customFormat="1">
-      <c r="A39" s="318"/>
-      <c r="B39" s="320"/>
+      <c r="A39" s="346"/>
+      <c r="B39" s="349"/>
       <c r="C39" s="139"/>
       <c r="D39" s="230" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E39" s="261" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="F39" s="176"/>
       <c r="G39" s="226"/>
@@ -4994,11 +5036,11 @@
       <c r="I39" s="140"/>
     </row>
     <row r="40" spans="1:9" s="12" customFormat="1">
-      <c r="A40" s="318"/>
-      <c r="B40" s="320"/>
+      <c r="A40" s="346"/>
+      <c r="B40" s="349"/>
       <c r="C40" s="139"/>
       <c r="D40" s="230" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E40" s="143"/>
       <c r="F40" s="176"/>
@@ -5007,11 +5049,11 @@
       <c r="I40" s="140"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A41" s="334"/>
-      <c r="B41" s="335"/>
+      <c r="A41" s="347"/>
+      <c r="B41" s="350"/>
       <c r="C41" s="227"/>
       <c r="D41" s="290" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E41" s="228"/>
       <c r="F41" s="223"/>
@@ -5023,87 +5065,87 @@
       <c r="A42" s="264" t="s">
         <v>17</v>
       </c>
-      <c r="B42" s="324" t="s">
+      <c r="B42" s="302" t="s">
         <v>47</v>
       </c>
       <c r="C42" s="267" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D42" s="271" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E42" s="270" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="F42" s="272"/>
       <c r="G42" s="271" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="H42" s="269" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="I42" s="104" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="214" customFormat="1">
       <c r="A43" s="265"/>
-      <c r="B43" s="325"/>
-      <c r="C43" s="93" t="s">
-        <v>351</v>
+      <c r="B43" s="303"/>
+      <c r="C43" s="134" t="s">
+        <v>347</v>
       </c>
       <c r="D43" s="90" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E43" s="115" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="F43" s="273"/>
       <c r="G43" s="274"/>
       <c r="H43" s="115" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="I43" s="91"/>
     </row>
     <row r="44" spans="1:9" s="214" customFormat="1">
       <c r="A44" s="265"/>
-      <c r="B44" s="325"/>
+      <c r="B44" s="303"/>
       <c r="C44" s="93"/>
       <c r="D44" s="90" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E44" s="115" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="F44" s="273"/>
       <c r="G44" s="274"/>
       <c r="H44" s="115" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="I44" s="91"/>
     </row>
     <row r="45" spans="1:9" s="214" customFormat="1">
       <c r="A45" s="265"/>
-      <c r="B45" s="325"/>
+      <c r="B45" s="303"/>
       <c r="C45" s="93"/>
       <c r="D45" s="90"/>
-      <c r="E45" s="377" t="s">
-        <v>572</v>
+      <c r="E45" s="293" t="s">
+        <v>567</v>
       </c>
       <c r="F45" s="273"/>
       <c r="G45" s="274"/>
       <c r="H45" s="268" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I45" s="91"/>
     </row>
     <row r="46" spans="1:9" s="214" customFormat="1">
       <c r="A46" s="265"/>
-      <c r="B46" s="325"/>
+      <c r="B46" s="303"/>
       <c r="C46" s="93"/>
       <c r="D46" s="90"/>
-      <c r="E46" s="117" t="s">
-        <v>576</v>
+      <c r="E46" s="294" t="s">
+        <v>571</v>
       </c>
       <c r="F46" s="273"/>
       <c r="G46" s="274"/>
@@ -5112,11 +5154,11 @@
     </row>
     <row r="47" spans="1:9" s="214" customFormat="1">
       <c r="A47" s="265"/>
-      <c r="B47" s="325"/>
+      <c r="B47" s="303"/>
       <c r="C47" s="93"/>
       <c r="D47" s="90"/>
       <c r="E47" s="117" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="F47" s="273"/>
       <c r="G47" s="274"/>
@@ -5125,57 +5167,57 @@
     </row>
     <row r="48" spans="1:9" s="213" customFormat="1" ht="15.75" thickBot="1">
       <c r="A48" s="266"/>
-      <c r="B48" s="326"/>
+      <c r="B48" s="304"/>
       <c r="C48" s="209"/>
       <c r="D48" s="210"/>
       <c r="E48" s="117" t="s">
-        <v>578</v>
-      </c>
-      <c r="F48" s="354" t="s">
-        <v>532</v>
-      </c>
-      <c r="G48" s="355"/>
-      <c r="H48" s="356"/>
+        <v>573</v>
+      </c>
+      <c r="F48" s="305" t="s">
+        <v>527</v>
+      </c>
+      <c r="G48" s="306"/>
+      <c r="H48" s="307"/>
       <c r="I48" s="212"/>
     </row>
     <row r="49" spans="1:9" s="74" customFormat="1">
-      <c r="A49" s="309" t="s">
+      <c r="A49" s="332" t="s">
         <v>18</v>
       </c>
-      <c r="B49" s="312" t="s">
+      <c r="B49" s="335" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="82" t="s">
-        <v>351</v>
+      <c r="C49" s="295" t="s">
+        <v>347</v>
       </c>
       <c r="D49" s="83" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E49" s="263" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="F49" s="178" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="G49" s="229" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="H49" s="180" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="I49" s="81"/>
     </row>
     <row r="50" spans="1:9" s="138" customFormat="1">
-      <c r="A50" s="310"/>
-      <c r="B50" s="313"/>
-      <c r="C50" s="68" t="s">
-        <v>354</v>
+      <c r="A50" s="333"/>
+      <c r="B50" s="336"/>
+      <c r="C50" s="397" t="s">
+        <v>350</v>
       </c>
       <c r="D50" s="69" t="s">
-        <v>253</v>
-      </c>
-      <c r="E50" s="133" t="s">
-        <v>572</v>
+        <v>249</v>
+      </c>
+      <c r="E50" s="112" t="s">
+        <v>567</v>
       </c>
       <c r="F50" s="173"/>
       <c r="G50" s="170"/>
@@ -5183,14 +5225,16 @@
       <c r="I50" s="9"/>
     </row>
     <row r="51" spans="1:9" s="138" customFormat="1">
-      <c r="A51" s="310"/>
-      <c r="B51" s="313"/>
-      <c r="C51" s="68"/>
+      <c r="A51" s="333"/>
+      <c r="B51" s="336"/>
+      <c r="C51" s="68" t="s">
+        <v>236</v>
+      </c>
       <c r="D51" s="69" t="s">
-        <v>383</v>
-      </c>
-      <c r="E51" s="116" t="s">
-        <v>576</v>
+        <v>379</v>
+      </c>
+      <c r="E51" s="133" t="s">
+        <v>571</v>
       </c>
       <c r="F51" s="173"/>
       <c r="G51" s="170"/>
@@ -5198,14 +5242,14 @@
       <c r="I51" s="9"/>
     </row>
     <row r="52" spans="1:9" s="138" customFormat="1">
-      <c r="A52" s="310"/>
-      <c r="B52" s="313"/>
+      <c r="A52" s="333"/>
+      <c r="B52" s="336"/>
       <c r="C52" s="68"/>
       <c r="D52" s="69" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E52" s="116" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="F52" s="173"/>
       <c r="G52" s="170"/>
@@ -5213,12 +5257,12 @@
       <c r="I52" s="9"/>
     </row>
     <row r="53" spans="1:9" s="138" customFormat="1">
-      <c r="A53" s="310"/>
-      <c r="B53" s="313"/>
+      <c r="A53" s="333"/>
+      <c r="B53" s="336"/>
       <c r="C53" s="68"/>
       <c r="D53" s="69"/>
       <c r="E53" s="116" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="F53" s="173"/>
       <c r="G53" s="170"/>
@@ -5226,38 +5270,38 @@
       <c r="I53" s="9"/>
     </row>
     <row r="54" spans="1:9" s="138" customFormat="1">
-      <c r="A54" s="310"/>
-      <c r="B54" s="313"/>
+      <c r="A54" s="333"/>
+      <c r="B54" s="336"/>
       <c r="C54" s="68"/>
       <c r="D54" s="69"/>
       <c r="E54" s="116"/>
-      <c r="F54" s="351" t="s">
-        <v>532</v>
-      </c>
-      <c r="G54" s="352"/>
-      <c r="H54" s="353"/>
+      <c r="F54" s="383" t="s">
+        <v>527</v>
+      </c>
+      <c r="G54" s="384"/>
+      <c r="H54" s="385"/>
       <c r="I54" s="9"/>
     </row>
     <row r="55" spans="1:9" s="137" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A55" s="311"/>
-      <c r="B55" s="314"/>
-      <c r="C55" s="303" t="s">
-        <v>541</v>
-      </c>
-      <c r="D55" s="304"/>
-      <c r="E55" s="305"/>
-      <c r="F55" s="306" t="s">
-        <v>541</v>
-      </c>
-      <c r="G55" s="307"/>
-      <c r="H55" s="308"/>
+      <c r="A55" s="334"/>
+      <c r="B55" s="337"/>
+      <c r="C55" s="377" t="s">
+        <v>536</v>
+      </c>
+      <c r="D55" s="378"/>
+      <c r="E55" s="379"/>
+      <c r="F55" s="380" t="s">
+        <v>536</v>
+      </c>
+      <c r="G55" s="381"/>
+      <c r="H55" s="382"/>
       <c r="I55" s="136"/>
     </row>
     <row r="56" spans="1:9" s="148" customFormat="1">
-      <c r="A56" s="291" t="s">
+      <c r="A56" s="365" t="s">
         <v>19</v>
       </c>
-      <c r="B56" s="294" t="s">
+      <c r="B56" s="368" t="s">
         <v>49</v>
       </c>
       <c r="C56" s="144"/>
@@ -5267,29 +5311,29 @@
       <c r="G56" s="186"/>
       <c r="H56" s="187"/>
       <c r="I56" s="147" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
     <row r="57" spans="1:9" s="150" customFormat="1">
-      <c r="A57" s="292"/>
-      <c r="B57" s="295"/>
-      <c r="C57" s="297" t="s">
-        <v>547</v>
-      </c>
-      <c r="D57" s="298"/>
-      <c r="E57" s="299"/>
-      <c r="F57" s="300" t="s">
-        <v>547</v>
-      </c>
-      <c r="G57" s="301"/>
-      <c r="H57" s="302"/>
+      <c r="A57" s="366"/>
+      <c r="B57" s="369"/>
+      <c r="C57" s="371" t="s">
+        <v>542</v>
+      </c>
+      <c r="D57" s="372"/>
+      <c r="E57" s="373"/>
+      <c r="F57" s="374" t="s">
+        <v>542</v>
+      </c>
+      <c r="G57" s="375"/>
+      <c r="H57" s="376"/>
       <c r="I57" s="149" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="58" spans="1:9" s="150" customFormat="1">
-      <c r="A58" s="292"/>
-      <c r="B58" s="295"/>
+      <c r="A58" s="366"/>
+      <c r="B58" s="369"/>
       <c r="C58" s="151"/>
       <c r="D58" s="152"/>
       <c r="E58" s="153"/>
@@ -5299,8 +5343,8 @@
       <c r="I58" s="149"/>
     </row>
     <row r="59" spans="1:9" s="150" customFormat="1">
-      <c r="A59" s="292"/>
-      <c r="B59" s="295"/>
+      <c r="A59" s="366"/>
+      <c r="B59" s="369"/>
       <c r="C59" s="151"/>
       <c r="D59" s="152"/>
       <c r="E59" s="153"/>
@@ -5310,8 +5354,8 @@
       <c r="I59" s="149"/>
     </row>
     <row r="60" spans="1:9" s="150" customFormat="1">
-      <c r="A60" s="292"/>
-      <c r="B60" s="295"/>
+      <c r="A60" s="366"/>
+      <c r="B60" s="369"/>
       <c r="C60" s="151"/>
       <c r="D60" s="152"/>
       <c r="E60" s="153"/>
@@ -5321,8 +5365,8 @@
       <c r="I60" s="149"/>
     </row>
     <row r="61" spans="1:9" s="150" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A61" s="293"/>
-      <c r="B61" s="296"/>
+      <c r="A61" s="367"/>
+      <c r="B61" s="370"/>
       <c r="C61" s="154"/>
       <c r="D61" s="155"/>
       <c r="E61" s="156"/>
@@ -5345,14 +5389,14 @@
       <c r="G62" s="77"/>
       <c r="H62" s="78"/>
       <c r="I62" s="79" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="63" spans="1:9" s="88" customFormat="1">
-      <c r="A63" s="357" t="s">
+      <c r="A63" s="314" t="s">
         <v>21</v>
       </c>
-      <c r="B63" s="336" t="s">
+      <c r="B63" s="317" t="s">
         <v>52</v>
       </c>
       <c r="C63" s="102" t="s">
@@ -5360,28 +5404,28 @@
       </c>
       <c r="D63" s="103"/>
       <c r="E63" s="119" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F63" s="272" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="G63" s="279" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="H63" s="280" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="I63" s="104"/>
     </row>
     <row r="64" spans="1:9" s="214" customFormat="1">
-      <c r="A64" s="358"/>
-      <c r="B64" s="337"/>
+      <c r="A64" s="315"/>
+      <c r="B64" s="318"/>
       <c r="C64" s="93" t="s">
         <v>319</v>
       </c>
       <c r="D64" s="90"/>
       <c r="E64" s="117" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F64" s="273"/>
       <c r="G64" s="274"/>
@@ -5389,14 +5433,14 @@
       <c r="I64" s="91"/>
     </row>
     <row r="65" spans="1:9" s="214" customFormat="1">
-      <c r="A65" s="358"/>
-      <c r="B65" s="337"/>
+      <c r="A65" s="315"/>
+      <c r="B65" s="318"/>
       <c r="C65" s="93" t="s">
         <v>278</v>
       </c>
       <c r="D65" s="90"/>
       <c r="E65" s="117" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F65" s="273"/>
       <c r="G65" s="274"/>
@@ -5404,14 +5448,14 @@
       <c r="I65" s="91"/>
     </row>
     <row r="66" spans="1:9" s="214" customFormat="1">
-      <c r="A66" s="358"/>
-      <c r="B66" s="337"/>
+      <c r="A66" s="315"/>
+      <c r="B66" s="318"/>
       <c r="C66" s="93" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="D66" s="90"/>
       <c r="E66" s="117" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F66" s="273"/>
       <c r="G66" s="274"/>
@@ -5419,14 +5463,14 @@
       <c r="I66" s="91"/>
     </row>
     <row r="67" spans="1:9" s="214" customFormat="1">
-      <c r="A67" s="358"/>
-      <c r="B67" s="337"/>
+      <c r="A67" s="315"/>
+      <c r="B67" s="318"/>
       <c r="C67" s="93" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="D67" s="90"/>
       <c r="E67" s="117" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F67" s="273"/>
       <c r="G67" s="274"/>
@@ -5434,10 +5478,10 @@
       <c r="I67" s="91"/>
     </row>
     <row r="68" spans="1:9" s="214" customFormat="1">
-      <c r="A68" s="358"/>
-      <c r="B68" s="337"/>
+      <c r="A68" s="315"/>
+      <c r="B68" s="318"/>
       <c r="C68" s="93" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="D68" s="90"/>
       <c r="E68" s="117"/>
@@ -5447,11 +5491,9 @@
       <c r="I68" s="91"/>
     </row>
     <row r="69" spans="1:9" s="214" customFormat="1">
-      <c r="A69" s="358"/>
-      <c r="B69" s="337"/>
-      <c r="C69" s="93" t="s">
-        <v>219</v>
-      </c>
+      <c r="A69" s="315"/>
+      <c r="B69" s="318"/>
+      <c r="C69" s="93"/>
       <c r="D69" s="90"/>
       <c r="E69" s="117"/>
       <c r="F69" s="273"/>
@@ -5460,11 +5502,9 @@
       <c r="I69" s="91"/>
     </row>
     <row r="70" spans="1:9" s="214" customFormat="1">
-      <c r="A70" s="358"/>
-      <c r="B70" s="337"/>
-      <c r="C70" s="93" t="s">
-        <v>302</v>
-      </c>
+      <c r="A70" s="315"/>
+      <c r="B70" s="318"/>
+      <c r="C70" s="93"/>
       <c r="D70" s="90"/>
       <c r="E70" s="117"/>
       <c r="F70" s="273"/>
@@ -5473,11 +5513,9 @@
       <c r="I70" s="91"/>
     </row>
     <row r="71" spans="1:9" s="213" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A71" s="359"/>
-      <c r="B71" s="338"/>
-      <c r="C71" s="209" t="s">
-        <v>261</v>
-      </c>
+      <c r="A71" s="316"/>
+      <c r="B71" s="319"/>
+      <c r="C71" s="209"/>
       <c r="D71" s="210"/>
       <c r="E71" s="211"/>
       <c r="F71" s="281"/>
@@ -5486,41 +5524,41 @@
       <c r="I71" s="212"/>
     </row>
     <row r="72" spans="1:9" s="74" customFormat="1">
-      <c r="A72" s="309" t="s">
+      <c r="A72" s="332" t="s">
         <v>22</v>
       </c>
-      <c r="B72" s="312" t="s">
+      <c r="B72" s="335" t="s">
         <v>51</v>
       </c>
       <c r="C72" s="82" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="D72" s="83"/>
       <c r="E72" s="118" t="s">
-        <v>218</v>
+        <v>421</v>
       </c>
       <c r="F72" s="178" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="G72" s="179" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="H72" s="180" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="I72" s="81" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="73" spans="1:9" s="138" customFormat="1">
-      <c r="A73" s="310"/>
-      <c r="B73" s="313"/>
+      <c r="A73" s="333"/>
+      <c r="B73" s="336"/>
       <c r="C73" s="68" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="D73" s="69"/>
       <c r="E73" s="116" t="s">
-        <v>301</v>
+        <v>423</v>
       </c>
       <c r="F73" s="173"/>
       <c r="G73" s="170"/>
@@ -5528,14 +5566,14 @@
       <c r="I73" s="9"/>
     </row>
     <row r="74" spans="1:9" s="138" customFormat="1">
-      <c r="A74" s="310"/>
-      <c r="B74" s="313"/>
+      <c r="A74" s="333"/>
+      <c r="B74" s="336"/>
       <c r="C74" s="194" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="D74" s="69"/>
-      <c r="E74" s="116" t="s">
-        <v>260</v>
+      <c r="E74" s="68" t="s">
+        <v>425</v>
       </c>
       <c r="F74" s="173"/>
       <c r="G74" s="170"/>
@@ -5543,88 +5581,100 @@
       <c r="I74" s="9"/>
     </row>
     <row r="75" spans="1:9" s="138" customFormat="1">
-      <c r="A75" s="310"/>
-      <c r="B75" s="313"/>
+      <c r="A75" s="333"/>
+      <c r="B75" s="336"/>
       <c r="C75" s="68" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="D75" s="69"/>
-      <c r="E75" s="116"/>
+      <c r="E75" s="68" t="s">
+        <v>243</v>
+      </c>
       <c r="F75" s="173"/>
       <c r="G75" s="170"/>
       <c r="H75" s="171"/>
       <c r="I75" s="9"/>
     </row>
     <row r="76" spans="1:9" s="138" customFormat="1">
-      <c r="A76" s="310"/>
-      <c r="B76" s="313"/>
+      <c r="A76" s="333"/>
+      <c r="B76" s="336"/>
       <c r="C76" s="68" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="D76" s="69"/>
-      <c r="E76" s="116"/>
+      <c r="E76" s="194" t="s">
+        <v>326</v>
+      </c>
       <c r="F76" s="173"/>
       <c r="G76" s="170"/>
       <c r="H76" s="171"/>
       <c r="I76" s="9"/>
     </row>
     <row r="77" spans="1:9" s="12" customFormat="1">
-      <c r="A77" s="310"/>
-      <c r="B77" s="313"/>
+      <c r="A77" s="333"/>
+      <c r="B77" s="336"/>
       <c r="C77" s="68" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="D77" s="69"/>
-      <c r="E77" s="116"/>
+      <c r="E77" s="68" t="s">
+        <v>285</v>
+      </c>
       <c r="F77" s="173"/>
       <c r="G77" s="170"/>
       <c r="H77" s="171"/>
       <c r="I77" s="9"/>
     </row>
     <row r="78" spans="1:9" s="12" customFormat="1">
-      <c r="A78" s="310"/>
-      <c r="B78" s="313"/>
+      <c r="A78" s="333"/>
+      <c r="B78" s="336"/>
       <c r="C78" s="68" t="s">
-        <v>389</v>
+        <v>218</v>
       </c>
       <c r="D78" s="69"/>
-      <c r="E78" s="116"/>
+      <c r="E78" s="68" t="s">
+        <v>223</v>
+      </c>
       <c r="F78" s="173"/>
       <c r="G78" s="170"/>
       <c r="H78" s="171"/>
       <c r="I78" s="9"/>
     </row>
     <row r="79" spans="1:9" s="12" customFormat="1">
-      <c r="A79" s="310"/>
-      <c r="B79" s="313"/>
+      <c r="A79" s="333"/>
+      <c r="B79" s="336"/>
       <c r="C79" s="68" t="s">
-        <v>246</v>
+        <v>301</v>
       </c>
       <c r="D79" s="69"/>
-      <c r="E79" s="116"/>
+      <c r="E79" s="68" t="s">
+        <v>306</v>
+      </c>
       <c r="F79" s="173"/>
       <c r="G79" s="170"/>
       <c r="H79" s="171"/>
       <c r="I79" s="9"/>
     </row>
     <row r="80" spans="1:9" s="12" customFormat="1">
-      <c r="A80" s="310"/>
-      <c r="B80" s="313"/>
+      <c r="A80" s="333"/>
+      <c r="B80" s="336"/>
       <c r="C80" s="68" t="s">
-        <v>329</v>
+        <v>260</v>
       </c>
       <c r="D80" s="69"/>
-      <c r="E80" s="116"/>
+      <c r="E80" s="116" t="s">
+        <v>265</v>
+      </c>
       <c r="F80" s="173"/>
       <c r="G80" s="170"/>
       <c r="H80" s="171"/>
       <c r="I80" s="9"/>
     </row>
     <row r="81" spans="1:11" s="12" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A81" s="311"/>
-      <c r="B81" s="314"/>
+      <c r="A81" s="334"/>
+      <c r="B81" s="337"/>
       <c r="C81" s="68" t="s">
-        <v>288</v>
+        <v>215</v>
       </c>
       <c r="D81" s="69"/>
       <c r="E81" s="116"/>
@@ -5634,39 +5684,39 @@
       <c r="I81" s="9"/>
     </row>
     <row r="82" spans="1:11" s="88" customFormat="1">
-      <c r="A82" s="357" t="s">
+      <c r="A82" s="314" t="s">
         <v>23</v>
       </c>
-      <c r="B82" s="336" t="s">
+      <c r="B82" s="317" t="s">
         <v>50</v>
       </c>
       <c r="C82" s="102" t="s">
-        <v>521</v>
-      </c>
-      <c r="D82" s="103"/>
+        <v>215</v>
+      </c>
+      <c r="D82" s="102"/>
       <c r="E82" s="119" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F82" s="272" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="G82" s="279" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="H82" s="280" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="I82" s="104"/>
     </row>
     <row r="83" spans="1:11" s="214" customFormat="1">
-      <c r="A83" s="358"/>
-      <c r="B83" s="337"/>
-      <c r="C83" s="93" t="s">
-        <v>522</v>
-      </c>
-      <c r="D83" s="90"/>
+      <c r="A83" s="315"/>
+      <c r="B83" s="318"/>
+      <c r="C83" s="90" t="s">
+        <v>298</v>
+      </c>
+      <c r="D83" s="93"/>
       <c r="E83" s="117" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F83" s="273"/>
       <c r="G83" s="274"/>
@@ -5674,14 +5724,14 @@
       <c r="I83" s="91"/>
     </row>
     <row r="84" spans="1:11" s="214" customFormat="1">
-      <c r="A84" s="358"/>
-      <c r="B84" s="337"/>
-      <c r="C84" s="93" t="s">
-        <v>523</v>
-      </c>
-      <c r="D84" s="90"/>
+      <c r="A84" s="315"/>
+      <c r="B84" s="318"/>
+      <c r="C84" s="210" t="s">
+        <v>257</v>
+      </c>
+      <c r="D84" s="93"/>
       <c r="E84" s="117" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F84" s="273"/>
       <c r="G84" s="274"/>
@@ -5689,12 +5739,14 @@
       <c r="I84" s="91"/>
     </row>
     <row r="85" spans="1:11" s="214" customFormat="1">
-      <c r="A85" s="358"/>
-      <c r="B85" s="337"/>
-      <c r="C85" s="93"/>
-      <c r="D85" s="90"/>
-      <c r="E85" s="117" t="s">
-        <v>249</v>
+      <c r="A85" s="315"/>
+      <c r="B85" s="318"/>
+      <c r="C85" s="93" t="s">
+        <v>240</v>
+      </c>
+      <c r="D85" s="93"/>
+      <c r="E85" s="93" t="s">
+        <v>213</v>
       </c>
       <c r="F85" s="273"/>
       <c r="G85" s="274"/>
@@ -5702,12 +5754,14 @@
       <c r="I85" s="91"/>
     </row>
     <row r="86" spans="1:11" s="214" customFormat="1">
-      <c r="A86" s="358"/>
-      <c r="B86" s="337"/>
-      <c r="C86" s="93"/>
+      <c r="A86" s="315"/>
+      <c r="B86" s="318"/>
+      <c r="C86" s="93" t="s">
+        <v>323</v>
+      </c>
       <c r="D86" s="90"/>
-      <c r="E86" s="117" t="s">
-        <v>333</v>
+      <c r="E86" s="93" t="s">
+        <v>296</v>
       </c>
       <c r="F86" s="273"/>
       <c r="G86" s="274"/>
@@ -5715,12 +5769,14 @@
       <c r="I86" s="91"/>
     </row>
     <row r="87" spans="1:11" s="213" customFormat="1">
-      <c r="A87" s="358"/>
-      <c r="B87" s="337"/>
-      <c r="C87" s="93"/>
+      <c r="A87" s="315"/>
+      <c r="B87" s="318"/>
+      <c r="C87" s="93" t="s">
+        <v>282</v>
+      </c>
       <c r="D87" s="90"/>
-      <c r="E87" s="117" t="s">
-        <v>291</v>
+      <c r="E87" s="93" t="s">
+        <v>255</v>
       </c>
       <c r="F87" s="273"/>
       <c r="G87" s="274"/>
@@ -5730,12 +5786,14 @@
       <c r="K87" s="93"/>
     </row>
     <row r="88" spans="1:11" s="213" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A88" s="359"/>
-      <c r="B88" s="338"/>
-      <c r="C88" s="209"/>
+      <c r="A88" s="316"/>
+      <c r="B88" s="319"/>
+      <c r="C88" s="93" t="s">
+        <v>385</v>
+      </c>
       <c r="D88" s="210"/>
       <c r="E88" s="211" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="F88" s="281"/>
       <c r="G88" s="282"/>
@@ -5743,35 +5801,39 @@
       <c r="I88" s="212"/>
     </row>
     <row r="89" spans="1:11" s="74" customFormat="1">
-      <c r="A89" s="309" t="s">
+      <c r="A89" s="332" t="s">
         <v>24</v>
       </c>
-      <c r="B89" s="383" t="s">
+      <c r="B89" s="311" t="s">
         <v>54</v>
       </c>
-      <c r="C89" s="82"/>
+      <c r="C89" s="82" t="s">
+        <v>516</v>
+      </c>
       <c r="D89" s="83"/>
       <c r="E89" s="118" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="F89" s="178" t="s">
+        <v>512</v>
+      </c>
+      <c r="G89" s="179" t="s">
+        <v>471</v>
+      </c>
+      <c r="H89" s="180" t="s">
+        <v>496</v>
+      </c>
+      <c r="I89" s="81"/>
+    </row>
+    <row r="90" spans="1:11" s="138" customFormat="1">
+      <c r="A90" s="333"/>
+      <c r="B90" s="312"/>
+      <c r="C90" s="68" t="s">
         <v>517</v>
       </c>
-      <c r="G89" s="179" t="s">
-        <v>476</v>
-      </c>
-      <c r="H89" s="180" t="s">
-        <v>501</v>
-      </c>
-      <c r="I89" s="81"/>
-    </row>
-    <row r="90" spans="1:11" s="138" customFormat="1">
-      <c r="A90" s="310"/>
-      <c r="B90" s="384"/>
-      <c r="C90" s="68"/>
       <c r="D90" s="69"/>
       <c r="E90" s="116" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="F90" s="173"/>
       <c r="G90" s="170"/>
@@ -5779,12 +5841,14 @@
       <c r="I90" s="9"/>
     </row>
     <row r="91" spans="1:11" s="138" customFormat="1">
-      <c r="A91" s="310"/>
-      <c r="B91" s="384"/>
-      <c r="C91" s="68"/>
+      <c r="A91" s="333"/>
+      <c r="B91" s="312"/>
+      <c r="C91" s="68" t="s">
+        <v>518</v>
+      </c>
       <c r="D91" s="69"/>
       <c r="E91" s="116" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="F91" s="173"/>
       <c r="G91" s="170"/>
@@ -5792,12 +5856,12 @@
       <c r="I91" s="9"/>
     </row>
     <row r="92" spans="1:11" s="138" customFormat="1">
-      <c r="A92" s="310"/>
-      <c r="B92" s="384"/>
+      <c r="A92" s="333"/>
+      <c r="B92" s="312"/>
       <c r="C92" s="68"/>
       <c r="D92" s="69"/>
       <c r="E92" s="116" t="s">
-        <v>247</v>
+        <v>586</v>
       </c>
       <c r="F92" s="173"/>
       <c r="G92" s="170"/>
@@ -5805,12 +5869,12 @@
       <c r="I92" s="9"/>
     </row>
     <row r="93" spans="1:11" s="138" customFormat="1">
-      <c r="A93" s="310"/>
-      <c r="B93" s="384"/>
+      <c r="A93" s="333"/>
+      <c r="B93" s="312"/>
       <c r="C93" s="68"/>
       <c r="D93" s="69"/>
       <c r="E93" s="116" t="s">
-        <v>330</v>
+        <v>587</v>
       </c>
       <c r="F93" s="173"/>
       <c r="G93" s="170"/>
@@ -5818,12 +5882,12 @@
       <c r="I93" s="9"/>
     </row>
     <row r="94" spans="1:11" s="12" customFormat="1">
-      <c r="A94" s="310"/>
-      <c r="B94" s="384"/>
+      <c r="A94" s="333"/>
+      <c r="B94" s="312"/>
       <c r="C94" s="68"/>
       <c r="D94" s="69"/>
       <c r="E94" s="116" t="s">
-        <v>289</v>
+        <v>588</v>
       </c>
       <c r="F94" s="173"/>
       <c r="G94" s="170"/>
@@ -5831,12 +5895,12 @@
       <c r="I94" s="9"/>
     </row>
     <row r="95" spans="1:11" s="12" customFormat="1">
-      <c r="A95" s="310"/>
-      <c r="B95" s="384"/>
+      <c r="A95" s="333"/>
+      <c r="B95" s="312"/>
       <c r="C95" s="68"/>
       <c r="D95" s="69"/>
       <c r="E95" s="116" t="s">
-        <v>426</v>
+        <v>234</v>
       </c>
       <c r="F95" s="173"/>
       <c r="G95" s="170"/>
@@ -5844,88 +5908,94 @@
       <c r="I95" s="9"/>
     </row>
     <row r="96" spans="1:11" s="12" customFormat="1">
-      <c r="A96" s="310"/>
-      <c r="B96" s="384"/>
+      <c r="A96" s="333"/>
+      <c r="B96" s="312"/>
       <c r="C96" s="68"/>
       <c r="D96" s="69"/>
       <c r="E96" s="116" t="s">
-        <v>428</v>
+        <v>317</v>
       </c>
       <c r="F96" s="173"/>
       <c r="G96" s="170"/>
       <c r="H96" s="171"/>
       <c r="I96" s="9"/>
     </row>
-    <row r="97" spans="1:9" s="12" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A97" s="311"/>
-      <c r="B97" s="385"/>
-      <c r="C97" s="194"/>
-      <c r="D97" s="195"/>
-      <c r="E97" s="196" t="s">
-        <v>430</v>
-      </c>
-      <c r="F97" s="197"/>
-      <c r="G97" s="198"/>
-      <c r="H97" s="199"/>
-      <c r="I97" s="200"/>
-    </row>
-    <row r="98" spans="1:9" s="88" customFormat="1">
-      <c r="A98" s="357" t="s">
+    <row r="97" spans="1:9" s="12" customFormat="1">
+      <c r="A97" s="333"/>
+      <c r="B97" s="312"/>
+      <c r="C97" s="68"/>
+      <c r="D97" s="69"/>
+      <c r="E97" s="116" t="s">
+        <v>276</v>
+      </c>
+      <c r="F97" s="173"/>
+      <c r="G97" s="170"/>
+      <c r="H97" s="171"/>
+      <c r="I97" s="9"/>
+    </row>
+    <row r="98" spans="1:9" s="12" customFormat="1">
+      <c r="A98" s="333"/>
+      <c r="B98" s="312"/>
+      <c r="C98" s="68"/>
+      <c r="D98" s="69"/>
+      <c r="E98" s="116" t="s">
+        <v>238</v>
+      </c>
+      <c r="F98" s="173"/>
+      <c r="G98" s="170"/>
+      <c r="H98" s="171"/>
+      <c r="I98" s="9"/>
+    </row>
+    <row r="99" spans="1:9" s="12" customFormat="1">
+      <c r="A99" s="333"/>
+      <c r="B99" s="312"/>
+      <c r="C99" s="68"/>
+      <c r="D99" s="69"/>
+      <c r="E99" s="116" t="s">
+        <v>321</v>
+      </c>
+      <c r="F99" s="173"/>
+      <c r="G99" s="170"/>
+      <c r="H99" s="171"/>
+      <c r="I99" s="9"/>
+    </row>
+    <row r="100" spans="1:9" s="12" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A100" s="334"/>
+      <c r="B100" s="313"/>
+      <c r="C100" s="68"/>
+      <c r="D100" s="69"/>
+      <c r="E100" s="116" t="s">
+        <v>280</v>
+      </c>
+      <c r="F100" s="173"/>
+      <c r="G100" s="170"/>
+      <c r="H100" s="171"/>
+      <c r="I100" s="9"/>
+    </row>
+    <row r="101" spans="1:9" s="88" customFormat="1">
+      <c r="A101" s="314" t="s">
         <v>25</v>
       </c>
-      <c r="B98" s="336" t="s">
+      <c r="B101" s="317" t="s">
         <v>55</v>
       </c>
-      <c r="C98" s="102"/>
-      <c r="D98" s="103"/>
-      <c r="E98" s="119"/>
-      <c r="F98" s="272" t="s">
-        <v>517</v>
-      </c>
-      <c r="G98" s="279" t="s">
-        <v>520</v>
-      </c>
-      <c r="H98" s="280" t="s">
+      <c r="C101" s="102"/>
+      <c r="D101" s="103"/>
+      <c r="E101" s="119"/>
+      <c r="F101" s="272" t="s">
+        <v>512</v>
+      </c>
+      <c r="G101" s="279" t="s">
         <v>515</v>
       </c>
-      <c r="I98" s="104"/>
-    </row>
-    <row r="99" spans="1:9" s="214" customFormat="1">
-      <c r="A99" s="358"/>
-      <c r="B99" s="337"/>
-      <c r="C99" s="93"/>
-      <c r="D99" s="90"/>
-      <c r="E99" s="117"/>
-      <c r="F99" s="273"/>
-      <c r="G99" s="274"/>
-      <c r="H99" s="277"/>
-      <c r="I99" s="91"/>
-    </row>
-    <row r="100" spans="1:9" s="214" customFormat="1">
-      <c r="A100" s="358"/>
-      <c r="B100" s="337"/>
-      <c r="C100" s="93"/>
-      <c r="D100" s="90"/>
-      <c r="E100" s="117"/>
-      <c r="F100" s="273"/>
-      <c r="G100" s="274"/>
-      <c r="H100" s="277"/>
-      <c r="I100" s="91"/>
-    </row>
-    <row r="101" spans="1:9" s="214" customFormat="1">
-      <c r="A101" s="358"/>
-      <c r="B101" s="337"/>
-      <c r="C101" s="93"/>
-      <c r="D101" s="90"/>
-      <c r="E101" s="117"/>
-      <c r="F101" s="273"/>
-      <c r="G101" s="274"/>
-      <c r="H101" s="277"/>
-      <c r="I101" s="91"/>
+      <c r="H101" s="280" t="s">
+        <v>510</v>
+      </c>
+      <c r="I101" s="104"/>
     </row>
     <row r="102" spans="1:9" s="214" customFormat="1">
-      <c r="A102" s="358"/>
-      <c r="B102" s="337"/>
+      <c r="A102" s="315"/>
+      <c r="B102" s="318"/>
       <c r="C102" s="93"/>
       <c r="D102" s="90"/>
       <c r="E102" s="117"/>
@@ -5934,74 +6004,76 @@
       <c r="H102" s="277"/>
       <c r="I102" s="91"/>
     </row>
-    <row r="103" spans="1:9" s="213" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A103" s="359"/>
-      <c r="B103" s="338"/>
-      <c r="C103" s="209"/>
-      <c r="D103" s="210"/>
-      <c r="E103" s="211"/>
-      <c r="F103" s="281"/>
-      <c r="G103" s="282"/>
-      <c r="H103" s="283"/>
-      <c r="I103" s="212"/>
-    </row>
-    <row r="104" spans="1:9" s="74" customFormat="1">
-      <c r="A104" s="309" t="s">
+    <row r="103" spans="1:9" s="214" customFormat="1">
+      <c r="A103" s="315"/>
+      <c r="B103" s="318"/>
+      <c r="C103" s="93"/>
+      <c r="D103" s="90"/>
+      <c r="E103" s="117"/>
+      <c r="F103" s="273"/>
+      <c r="G103" s="274"/>
+      <c r="H103" s="277"/>
+      <c r="I103" s="91"/>
+    </row>
+    <row r="104" spans="1:9" s="214" customFormat="1">
+      <c r="A104" s="315"/>
+      <c r="B104" s="318"/>
+      <c r="C104" s="93"/>
+      <c r="D104" s="90"/>
+      <c r="E104" s="117"/>
+      <c r="F104" s="273"/>
+      <c r="G104" s="274"/>
+      <c r="H104" s="277"/>
+      <c r="I104" s="91"/>
+    </row>
+    <row r="105" spans="1:9" s="214" customFormat="1">
+      <c r="A105" s="315"/>
+      <c r="B105" s="318"/>
+      <c r="C105" s="93"/>
+      <c r="D105" s="90"/>
+      <c r="E105" s="117"/>
+      <c r="F105" s="273"/>
+      <c r="G105" s="274"/>
+      <c r="H105" s="277"/>
+      <c r="I105" s="91"/>
+    </row>
+    <row r="106" spans="1:9" s="213" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A106" s="316"/>
+      <c r="B106" s="319"/>
+      <c r="C106" s="209"/>
+      <c r="D106" s="210"/>
+      <c r="E106" s="211" t="s">
+        <v>535</v>
+      </c>
+      <c r="F106" s="281"/>
+      <c r="G106" s="282"/>
+      <c r="H106" s="283"/>
+      <c r="I106" s="212"/>
+    </row>
+    <row r="107" spans="1:9" s="74" customFormat="1">
+      <c r="A107" s="332" t="s">
         <v>26</v>
       </c>
-      <c r="B104" s="312" t="s">
+      <c r="B107" s="335" t="s">
         <v>56</v>
       </c>
-      <c r="C104" s="82"/>
-      <c r="D104" s="83"/>
-      <c r="E104" s="118"/>
-      <c r="F104" s="178" t="s">
-        <v>478</v>
-      </c>
-      <c r="G104" s="179" t="s">
-        <v>519</v>
-      </c>
-      <c r="H104" s="180" t="s">
+      <c r="C107" s="82"/>
+      <c r="D107" s="83"/>
+      <c r="E107" s="118"/>
+      <c r="F107" s="178" t="s">
+        <v>473</v>
+      </c>
+      <c r="G107" s="179" t="s">
         <v>514</v>
       </c>
-      <c r="I104" s="81"/>
-    </row>
-    <row r="105" spans="1:9" s="138" customFormat="1">
-      <c r="A105" s="310"/>
-      <c r="B105" s="313"/>
-      <c r="C105" s="68"/>
-      <c r="D105" s="69"/>
-      <c r="E105" s="116"/>
-      <c r="F105" s="173"/>
-      <c r="G105" s="170"/>
-      <c r="H105" s="171"/>
-      <c r="I105" s="9"/>
-    </row>
-    <row r="106" spans="1:9" s="138" customFormat="1">
-      <c r="A106" s="310"/>
-      <c r="B106" s="313"/>
-      <c r="C106" s="68"/>
-      <c r="D106" s="69"/>
-      <c r="E106" s="116"/>
-      <c r="F106" s="173"/>
-      <c r="G106" s="170"/>
-      <c r="H106" s="171"/>
-      <c r="I106" s="9"/>
-    </row>
-    <row r="107" spans="1:9" s="138" customFormat="1">
-      <c r="A107" s="310"/>
-      <c r="B107" s="313"/>
-      <c r="C107" s="68"/>
-      <c r="D107" s="69"/>
-      <c r="E107" s="116"/>
-      <c r="F107" s="173"/>
-      <c r="G107" s="170"/>
-      <c r="H107" s="171"/>
-      <c r="I107" s="9"/>
+      <c r="H107" s="180" t="s">
+        <v>509</v>
+      </c>
+      <c r="I107" s="81"/>
     </row>
     <row r="108" spans="1:9" s="138" customFormat="1">
-      <c r="A108" s="310"/>
-      <c r="B108" s="313"/>
+      <c r="A108" s="333"/>
+      <c r="B108" s="336"/>
       <c r="C108" s="68"/>
       <c r="D108" s="69"/>
       <c r="E108" s="116"/>
@@ -6010,341 +6082,638 @@
       <c r="H108" s="171"/>
       <c r="I108" s="9"/>
     </row>
-    <row r="109" spans="1:9" s="12" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A109" s="311"/>
-      <c r="B109" s="314"/>
-      <c r="C109" s="194"/>
-      <c r="D109" s="195"/>
-      <c r="E109" s="196"/>
-      <c r="F109" s="197"/>
-      <c r="G109" s="198"/>
-      <c r="H109" s="199"/>
-      <c r="I109" s="200"/>
-    </row>
-    <row r="110" spans="1:9" s="88" customFormat="1">
-      <c r="A110" s="357" t="s">
+    <row r="109" spans="1:9" s="138" customFormat="1">
+      <c r="A109" s="333"/>
+      <c r="B109" s="336"/>
+      <c r="C109" s="68"/>
+      <c r="D109" s="69"/>
+      <c r="E109" s="116"/>
+      <c r="F109" s="173"/>
+      <c r="G109" s="170"/>
+      <c r="H109" s="171"/>
+      <c r="I109" s="9"/>
+    </row>
+    <row r="110" spans="1:9" s="138" customFormat="1">
+      <c r="A110" s="333"/>
+      <c r="B110" s="336"/>
+      <c r="C110" s="68"/>
+      <c r="D110" s="69"/>
+      <c r="E110" s="116"/>
+      <c r="F110" s="173"/>
+      <c r="G110" s="170"/>
+      <c r="H110" s="171"/>
+      <c r="I110" s="9"/>
+    </row>
+    <row r="111" spans="1:9" s="138" customFormat="1">
+      <c r="A111" s="333"/>
+      <c r="B111" s="336"/>
+      <c r="C111" s="68"/>
+      <c r="D111" s="69"/>
+      <c r="E111" s="116"/>
+      <c r="F111" s="173"/>
+      <c r="G111" s="170"/>
+      <c r="H111" s="171"/>
+      <c r="I111" s="9"/>
+    </row>
+    <row r="112" spans="1:9" s="12" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A112" s="334"/>
+      <c r="B112" s="337"/>
+      <c r="C112" s="194"/>
+      <c r="D112" s="195"/>
+      <c r="E112" s="196" t="s">
+        <v>535</v>
+      </c>
+      <c r="F112" s="197"/>
+      <c r="G112" s="198"/>
+      <c r="H112" s="199"/>
+      <c r="I112" s="200"/>
+    </row>
+    <row r="113" spans="1:9" s="88" customFormat="1">
+      <c r="A113" s="314" t="s">
         <v>27</v>
       </c>
-      <c r="B110" s="336" t="s">
+      <c r="B113" s="317" t="s">
         <v>57</v>
       </c>
-      <c r="C110" s="102"/>
-      <c r="D110" s="103"/>
-      <c r="E110" s="119"/>
-      <c r="F110" s="272"/>
-      <c r="G110" s="279"/>
-      <c r="H110" s="280"/>
-      <c r="I110" s="104"/>
-    </row>
-    <row r="111" spans="1:9" s="214" customFormat="1">
-      <c r="A111" s="358"/>
-      <c r="B111" s="337"/>
-      <c r="C111" s="93"/>
-      <c r="D111" s="90"/>
-      <c r="E111" s="117"/>
-      <c r="F111" s="273"/>
-      <c r="G111" s="274"/>
-      <c r="H111" s="277"/>
-      <c r="I111" s="91"/>
-    </row>
-    <row r="112" spans="1:9" s="214" customFormat="1">
-      <c r="A112" s="358"/>
-      <c r="B112" s="337"/>
-      <c r="C112" s="93"/>
-      <c r="D112" s="90"/>
-      <c r="E112" s="117"/>
-      <c r="F112" s="273"/>
-      <c r="G112" s="274"/>
-      <c r="H112" s="277"/>
-      <c r="I112" s="91"/>
-    </row>
-    <row r="113" spans="1:9" s="214" customFormat="1">
-      <c r="A113" s="358"/>
-      <c r="B113" s="337"/>
-      <c r="C113" s="93"/>
-      <c r="D113" s="90"/>
-      <c r="E113" s="117"/>
-      <c r="F113" s="273"/>
-      <c r="G113" s="274"/>
-      <c r="H113" s="277"/>
-      <c r="I113" s="91"/>
+      <c r="C113" s="102"/>
+      <c r="D113" s="103"/>
+      <c r="E113" s="119"/>
+      <c r="F113" s="272"/>
+      <c r="G113" s="279"/>
+      <c r="H113" s="280"/>
+      <c r="I113" s="104"/>
     </row>
     <row r="114" spans="1:9" s="214" customFormat="1">
-      <c r="A114" s="358"/>
-      <c r="B114" s="337"/>
+      <c r="A114" s="315"/>
+      <c r="B114" s="318"/>
       <c r="C114" s="93"/>
       <c r="D114" s="90"/>
       <c r="E114" s="117"/>
-      <c r="F114" s="378" t="s">
-        <v>595</v>
-      </c>
-      <c r="G114" s="379"/>
-      <c r="H114" s="380"/>
+      <c r="F114" s="273"/>
+      <c r="G114" s="274"/>
+      <c r="H114" s="277"/>
       <c r="I114" s="91"/>
     </row>
-    <row r="115" spans="1:9" s="213" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A115" s="359"/>
-      <c r="B115" s="338"/>
-      <c r="C115" s="209"/>
-      <c r="D115" s="210"/>
-      <c r="E115" s="211"/>
-      <c r="F115" s="354" t="s">
-        <v>541</v>
-      </c>
-      <c r="G115" s="355"/>
-      <c r="H115" s="356"/>
-      <c r="I115" s="212"/>
-    </row>
-    <row r="116" spans="1:9" s="160" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A116" s="360" t="s">
+    <row r="115" spans="1:9" s="214" customFormat="1">
+      <c r="A115" s="315"/>
+      <c r="B115" s="318"/>
+      <c r="C115" s="93"/>
+      <c r="D115" s="90"/>
+      <c r="E115" s="117"/>
+      <c r="F115" s="273"/>
+      <c r="G115" s="274"/>
+      <c r="H115" s="277"/>
+      <c r="I115" s="91"/>
+    </row>
+    <row r="116" spans="1:9" s="214" customFormat="1">
+      <c r="A116" s="315"/>
+      <c r="B116" s="318"/>
+      <c r="C116" s="93"/>
+      <c r="D116" s="90"/>
+      <c r="E116" s="117"/>
+      <c r="F116" s="273"/>
+      <c r="G116" s="274"/>
+      <c r="H116" s="277"/>
+      <c r="I116" s="91"/>
+    </row>
+    <row r="117" spans="1:9" s="214" customFormat="1">
+      <c r="A117" s="315"/>
+      <c r="B117" s="318"/>
+      <c r="C117" s="93"/>
+      <c r="D117" s="90"/>
+      <c r="E117" s="117" t="s">
+        <v>535</v>
+      </c>
+      <c r="F117" s="308" t="s">
+        <v>590</v>
+      </c>
+      <c r="G117" s="309"/>
+      <c r="H117" s="310"/>
+      <c r="I117" s="91"/>
+    </row>
+    <row r="118" spans="1:9" s="213" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A118" s="316"/>
+      <c r="B118" s="319"/>
+      <c r="C118" s="320" t="s">
+        <v>536</v>
+      </c>
+      <c r="D118" s="321"/>
+      <c r="E118" s="322"/>
+      <c r="F118" s="305" t="s">
+        <v>536</v>
+      </c>
+      <c r="G118" s="306"/>
+      <c r="H118" s="307"/>
+      <c r="I118" s="212"/>
+    </row>
+    <row r="119" spans="1:9" s="160" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A119" s="323" t="s">
         <v>28</v>
       </c>
-      <c r="B116" s="363" t="s">
+      <c r="B119" s="326" t="s">
         <v>58</v>
       </c>
-      <c r="C116" s="161"/>
-      <c r="D116" s="162"/>
-      <c r="E116" s="163"/>
-      <c r="F116" s="182"/>
-      <c r="G116" s="183"/>
-      <c r="H116" s="184"/>
-      <c r="I116" s="164" t="s">
+      <c r="C119" s="161"/>
+      <c r="D119" s="162"/>
+      <c r="E119" s="163"/>
+      <c r="F119" s="182"/>
+      <c r="G119" s="183"/>
+      <c r="H119" s="184"/>
+      <c r="I119" s="164" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="117" spans="1:9" s="208" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A117" s="361"/>
-      <c r="B117" s="364"/>
-      <c r="C117" s="201"/>
-      <c r="D117" s="202"/>
-      <c r="E117" s="203"/>
-      <c r="F117" s="204"/>
-      <c r="G117" s="205"/>
-      <c r="H117" s="206"/>
-      <c r="I117" s="207"/>
-    </row>
-    <row r="118" spans="1:9" s="208" customFormat="1">
-      <c r="A118" s="362"/>
-      <c r="B118" s="365"/>
-      <c r="C118" s="201"/>
-      <c r="D118" s="202"/>
-      <c r="E118" s="203"/>
-      <c r="F118" s="204"/>
-      <c r="G118" s="205"/>
-      <c r="H118" s="206"/>
-      <c r="I118" s="207"/>
-    </row>
-    <row r="119" spans="1:9">
-      <c r="F119" s="173"/>
-      <c r="G119" s="170"/>
-      <c r="H119" s="171"/>
-    </row>
-    <row r="120" spans="1:9">
-      <c r="F120" s="173"/>
-      <c r="G120" s="170"/>
-      <c r="H120" s="171"/>
-    </row>
-    <row r="121" spans="1:9">
-      <c r="F121" s="173"/>
-      <c r="G121" s="170"/>
-      <c r="H121" s="171"/>
-    </row>
-    <row r="122" spans="1:9" hidden="1">
-      <c r="F122" s="173"/>
-      <c r="G122" s="170"/>
-      <c r="H122" s="171"/>
-    </row>
-    <row r="123" spans="1:9" hidden="1">
-      <c r="F123" s="173"/>
-      <c r="G123" s="170"/>
-      <c r="H123" s="171"/>
-    </row>
-    <row r="124" spans="1:9" hidden="1">
-      <c r="F124" s="173"/>
-      <c r="G124" s="170"/>
-      <c r="H124" s="171"/>
-    </row>
-    <row r="125" spans="1:9" hidden="1">
-      <c r="F125" s="173"/>
-      <c r="G125" s="170"/>
-      <c r="H125" s="171"/>
-    </row>
-    <row r="126" spans="1:9" hidden="1">
-      <c r="F126" s="173"/>
-      <c r="G126" s="170"/>
-      <c r="H126" s="171"/>
-    </row>
-    <row r="127" spans="1:9" hidden="1">
-      <c r="F127" s="173"/>
-      <c r="G127" s="170"/>
-      <c r="H127" s="171"/>
-    </row>
-    <row r="128" spans="1:9" hidden="1">
-      <c r="F128" s="173"/>
-      <c r="G128" s="170"/>
-      <c r="H128" s="171"/>
-    </row>
-    <row r="129" spans="6:8" hidden="1">
-      <c r="F129" s="173"/>
-      <c r="G129" s="170"/>
-      <c r="H129" s="171"/>
-    </row>
-    <row r="130" spans="6:8" hidden="1">
-      <c r="F130" s="173"/>
-      <c r="G130" s="170"/>
-      <c r="H130" s="171"/>
-    </row>
-    <row r="131" spans="6:8" hidden="1">
-      <c r="F131" s="173"/>
-      <c r="G131" s="170"/>
-      <c r="H131" s="171"/>
-    </row>
-    <row r="132" spans="6:8" hidden="1">
-      <c r="F132" s="173"/>
-      <c r="G132" s="170"/>
-      <c r="H132" s="171"/>
-    </row>
-    <row r="133" spans="6:8" hidden="1">
-      <c r="F133" s="173"/>
-      <c r="G133" s="170"/>
-      <c r="H133" s="171"/>
-    </row>
-    <row r="134" spans="6:8" hidden="1">
-      <c r="F134" s="173"/>
-      <c r="G134" s="170"/>
-      <c r="H134" s="171"/>
-    </row>
-    <row r="135" spans="6:8" hidden="1">
-      <c r="F135" s="173"/>
-      <c r="G135" s="170"/>
-      <c r="H135" s="171"/>
-    </row>
-    <row r="136" spans="6:8" hidden="1">
-      <c r="F136" s="173"/>
-      <c r="G136" s="170"/>
-      <c r="H136" s="171"/>
-    </row>
-    <row r="137" spans="6:8" hidden="1">
-      <c r="F137" s="173"/>
-      <c r="G137" s="170"/>
-      <c r="H137" s="171"/>
-    </row>
-    <row r="138" spans="6:8" hidden="1">
-      <c r="F138" s="173"/>
-      <c r="G138" s="170"/>
-      <c r="H138" s="171"/>
-    </row>
-    <row r="139" spans="6:8" hidden="1">
-      <c r="F139" s="173"/>
-      <c r="G139" s="170"/>
-      <c r="H139" s="171"/>
-    </row>
-    <row r="140" spans="6:8" hidden="1">
-      <c r="F140" s="173"/>
-      <c r="G140" s="170"/>
-      <c r="H140" s="171"/>
-    </row>
-    <row r="141" spans="6:8" hidden="1">
-      <c r="F141" s="173"/>
-      <c r="G141" s="170"/>
-      <c r="H141" s="171"/>
-    </row>
-    <row r="142" spans="6:8" hidden="1">
-      <c r="F142" s="173"/>
-      <c r="G142" s="170"/>
-      <c r="H142" s="171"/>
-    </row>
-    <row r="143" spans="6:8" hidden="1">
-      <c r="F143" s="173"/>
-      <c r="G143" s="170"/>
-      <c r="H143" s="171"/>
-    </row>
-    <row r="144" spans="6:8" hidden="1">
-      <c r="F144" s="173"/>
-      <c r="G144" s="170"/>
-      <c r="H144" s="171"/>
-    </row>
-    <row r="145" spans="6:8" hidden="1">
-      <c r="F145" s="173"/>
-      <c r="G145" s="170"/>
-      <c r="H145" s="171"/>
-    </row>
-    <row r="146" spans="6:8" hidden="1">
-      <c r="F146" s="173"/>
-      <c r="G146" s="170"/>
-      <c r="H146" s="171"/>
-    </row>
-    <row r="147" spans="6:8" hidden="1">
-      <c r="F147" s="173"/>
-      <c r="G147" s="170"/>
-      <c r="H147" s="171"/>
-    </row>
-    <row r="148" spans="6:8" hidden="1">
-      <c r="F148" s="173"/>
-      <c r="G148" s="170"/>
-      <c r="H148" s="171"/>
-    </row>
-    <row r="149" spans="6:8" hidden="1">
-      <c r="F149" s="173"/>
-      <c r="G149" s="170"/>
-      <c r="H149" s="171"/>
-    </row>
-    <row r="150" spans="6:8" hidden="1">
-      <c r="F150" s="173"/>
-      <c r="G150" s="170"/>
-      <c r="H150" s="171"/>
-    </row>
-    <row r="151" spans="6:8" hidden="1"/>
-    <row r="152" spans="6:8"/>
-    <row r="153" spans="6:8"/>
+    <row r="120" spans="1:9" s="208" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A120" s="324"/>
+      <c r="B120" s="327"/>
+      <c r="C120" s="201"/>
+      <c r="D120" s="202"/>
+      <c r="E120" s="203"/>
+      <c r="F120" s="204"/>
+      <c r="G120" s="205"/>
+      <c r="H120" s="206"/>
+      <c r="I120" s="207"/>
+    </row>
+    <row r="121" spans="1:9" s="208" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A121" s="324"/>
+      <c r="B121" s="327"/>
+      <c r="C121" s="201"/>
+      <c r="D121" s="202"/>
+      <c r="E121" s="203"/>
+      <c r="F121" s="204"/>
+      <c r="G121" s="205"/>
+      <c r="H121" s="206"/>
+      <c r="I121" s="207"/>
+    </row>
+    <row r="122" spans="1:9" s="208" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A122" s="324"/>
+      <c r="B122" s="327"/>
+      <c r="C122" s="201"/>
+      <c r="D122" s="202"/>
+      <c r="E122" s="203"/>
+      <c r="F122" s="204"/>
+      <c r="G122" s="205"/>
+      <c r="H122" s="206"/>
+      <c r="I122" s="207"/>
+    </row>
+    <row r="123" spans="1:9" s="208" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A123" s="324"/>
+      <c r="B123" s="327"/>
+      <c r="C123" s="201"/>
+      <c r="D123" s="202"/>
+      <c r="E123" s="203"/>
+      <c r="F123" s="204"/>
+      <c r="G123" s="205"/>
+      <c r="H123" s="206"/>
+      <c r="I123" s="207"/>
+    </row>
+    <row r="124" spans="1:9" s="208" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A124" s="325"/>
+      <c r="B124" s="328"/>
+      <c r="C124" s="201"/>
+      <c r="D124" s="202"/>
+      <c r="E124" s="203"/>
+      <c r="F124" s="204"/>
+      <c r="G124" s="205"/>
+      <c r="H124" s="206"/>
+      <c r="I124" s="207"/>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="299"/>
+      <c r="B125" s="296"/>
+      <c r="C125" s="102"/>
+      <c r="D125" s="103"/>
+      <c r="E125" s="119"/>
+      <c r="F125" s="272"/>
+      <c r="G125" s="279"/>
+      <c r="H125" s="280"/>
+      <c r="I125" s="104"/>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" s="300"/>
+      <c r="B126" s="297"/>
+      <c r="C126" s="93"/>
+      <c r="D126" s="90"/>
+      <c r="E126" s="117"/>
+      <c r="F126" s="273"/>
+      <c r="G126" s="274"/>
+      <c r="H126" s="277"/>
+      <c r="I126" s="91"/>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="300"/>
+      <c r="B127" s="297"/>
+      <c r="C127" s="93"/>
+      <c r="D127" s="90"/>
+      <c r="E127" s="117"/>
+      <c r="F127" s="273"/>
+      <c r="G127" s="274"/>
+      <c r="H127" s="277"/>
+      <c r="I127" s="91"/>
+    </row>
+    <row r="128" spans="1:9" ht="15" hidden="1" customHeight="1">
+      <c r="A128" s="300"/>
+      <c r="B128" s="297"/>
+      <c r="C128" s="93"/>
+      <c r="D128" s="90"/>
+      <c r="E128" s="117"/>
+      <c r="F128" s="273"/>
+      <c r="G128" s="274"/>
+      <c r="H128" s="277"/>
+      <c r="I128" s="91"/>
+    </row>
+    <row r="129" spans="1:9" ht="15" hidden="1" customHeight="1">
+      <c r="A129" s="300"/>
+      <c r="B129" s="297"/>
+      <c r="C129" s="93"/>
+      <c r="D129" s="90"/>
+      <c r="E129" s="117"/>
+      <c r="F129" s="272"/>
+      <c r="G129" s="279"/>
+      <c r="H129" s="280"/>
+      <c r="I129" s="91"/>
+    </row>
+    <row r="130" spans="1:9" ht="15.75" hidden="1" customHeight="1" thickBot="1">
+      <c r="A130" s="300"/>
+      <c r="B130" s="297"/>
+      <c r="C130" s="102"/>
+      <c r="D130" s="103"/>
+      <c r="E130" s="119"/>
+      <c r="F130" s="273"/>
+      <c r="G130" s="274"/>
+      <c r="H130" s="277"/>
+      <c r="I130" s="104"/>
+    </row>
+    <row r="131" spans="1:9" ht="15" hidden="1" customHeight="1">
+      <c r="A131" s="300"/>
+      <c r="B131" s="297"/>
+      <c r="C131" s="93"/>
+      <c r="D131" s="90"/>
+      <c r="E131" s="117"/>
+      <c r="F131" s="273"/>
+      <c r="G131" s="274"/>
+      <c r="H131" s="277"/>
+      <c r="I131" s="91"/>
+    </row>
+    <row r="132" spans="1:9" ht="15" hidden="1" customHeight="1">
+      <c r="A132" s="300"/>
+      <c r="B132" s="297"/>
+      <c r="C132" s="93"/>
+      <c r="D132" s="90"/>
+      <c r="E132" s="117"/>
+      <c r="F132" s="273"/>
+      <c r="G132" s="274"/>
+      <c r="H132" s="277"/>
+      <c r="I132" s="91"/>
+    </row>
+    <row r="133" spans="1:9" ht="15" hidden="1" customHeight="1">
+      <c r="A133" s="300"/>
+      <c r="B133" s="297"/>
+      <c r="C133" s="93"/>
+      <c r="D133" s="90"/>
+      <c r="E133" s="117"/>
+      <c r="F133" s="272"/>
+      <c r="G133" s="279"/>
+      <c r="H133" s="280"/>
+      <c r="I133" s="91"/>
+    </row>
+    <row r="134" spans="1:9" ht="15" hidden="1" customHeight="1">
+      <c r="A134" s="300"/>
+      <c r="B134" s="297"/>
+      <c r="C134" s="93"/>
+      <c r="D134" s="90"/>
+      <c r="E134" s="117"/>
+      <c r="F134" s="273"/>
+      <c r="G134" s="274"/>
+      <c r="H134" s="277"/>
+      <c r="I134" s="91"/>
+    </row>
+    <row r="135" spans="1:9" ht="15" hidden="1" customHeight="1">
+      <c r="A135" s="300"/>
+      <c r="B135" s="297"/>
+      <c r="C135" s="102"/>
+      <c r="D135" s="103"/>
+      <c r="E135" s="119"/>
+      <c r="F135" s="273"/>
+      <c r="G135" s="274"/>
+      <c r="H135" s="277"/>
+      <c r="I135" s="104"/>
+    </row>
+    <row r="136" spans="1:9" ht="15.75" hidden="1" customHeight="1" thickBot="1">
+      <c r="A136" s="300"/>
+      <c r="B136" s="297"/>
+      <c r="C136" s="93"/>
+      <c r="D136" s="90"/>
+      <c r="E136" s="117"/>
+      <c r="F136" s="273"/>
+      <c r="G136" s="274"/>
+      <c r="H136" s="277"/>
+      <c r="I136" s="91"/>
+    </row>
+    <row r="137" spans="1:9" ht="15" hidden="1" customHeight="1">
+      <c r="A137" s="300"/>
+      <c r="B137" s="297"/>
+      <c r="C137" s="93"/>
+      <c r="D137" s="90"/>
+      <c r="E137" s="117"/>
+      <c r="F137" s="272"/>
+      <c r="G137" s="279"/>
+      <c r="H137" s="280"/>
+      <c r="I137" s="91"/>
+    </row>
+    <row r="138" spans="1:9" ht="15" hidden="1" customHeight="1">
+      <c r="A138" s="300"/>
+      <c r="B138" s="297"/>
+      <c r="C138" s="93"/>
+      <c r="D138" s="90"/>
+      <c r="E138" s="117"/>
+      <c r="F138" s="273"/>
+      <c r="G138" s="274"/>
+      <c r="H138" s="277"/>
+      <c r="I138" s="91"/>
+    </row>
+    <row r="139" spans="1:9" ht="15" hidden="1" customHeight="1">
+      <c r="A139" s="300"/>
+      <c r="B139" s="297"/>
+      <c r="C139" s="93"/>
+      <c r="D139" s="90"/>
+      <c r="E139" s="117"/>
+      <c r="F139" s="273"/>
+      <c r="G139" s="274"/>
+      <c r="H139" s="277"/>
+      <c r="I139" s="91"/>
+    </row>
+    <row r="140" spans="1:9" ht="15" hidden="1" customHeight="1">
+      <c r="A140" s="300"/>
+      <c r="B140" s="297"/>
+      <c r="C140" s="102"/>
+      <c r="D140" s="103"/>
+      <c r="E140" s="119"/>
+      <c r="F140" s="273"/>
+      <c r="G140" s="274"/>
+      <c r="H140" s="277"/>
+      <c r="I140" s="104"/>
+    </row>
+    <row r="141" spans="1:9" ht="15" hidden="1" customHeight="1">
+      <c r="A141" s="300"/>
+      <c r="B141" s="297"/>
+      <c r="C141" s="93"/>
+      <c r="D141" s="90"/>
+      <c r="E141" s="117"/>
+      <c r="F141" s="272"/>
+      <c r="G141" s="279"/>
+      <c r="H141" s="280"/>
+      <c r="I141" s="91"/>
+    </row>
+    <row r="142" spans="1:9" ht="15.75" hidden="1" customHeight="1" thickBot="1">
+      <c r="A142" s="300"/>
+      <c r="B142" s="297"/>
+      <c r="C142" s="93"/>
+      <c r="D142" s="90"/>
+      <c r="E142" s="117"/>
+      <c r="F142" s="273"/>
+      <c r="G142" s="274"/>
+      <c r="H142" s="277"/>
+      <c r="I142" s="91"/>
+    </row>
+    <row r="143" spans="1:9" ht="15" hidden="1" customHeight="1">
+      <c r="A143" s="300"/>
+      <c r="B143" s="297"/>
+      <c r="C143" s="93"/>
+      <c r="D143" s="90"/>
+      <c r="E143" s="117"/>
+      <c r="F143" s="273"/>
+      <c r="G143" s="274"/>
+      <c r="H143" s="277"/>
+      <c r="I143" s="91"/>
+    </row>
+    <row r="144" spans="1:9" ht="15" hidden="1" customHeight="1">
+      <c r="A144" s="300"/>
+      <c r="B144" s="297"/>
+      <c r="C144" s="93"/>
+      <c r="D144" s="90"/>
+      <c r="E144" s="117"/>
+      <c r="F144" s="273"/>
+      <c r="G144" s="274"/>
+      <c r="H144" s="277"/>
+      <c r="I144" s="91"/>
+    </row>
+    <row r="145" spans="1:9" ht="15" hidden="1" customHeight="1">
+      <c r="A145" s="300"/>
+      <c r="B145" s="297"/>
+      <c r="C145" s="102"/>
+      <c r="D145" s="103"/>
+      <c r="E145" s="119"/>
+      <c r="F145" s="272"/>
+      <c r="G145" s="279"/>
+      <c r="H145" s="280"/>
+      <c r="I145" s="104"/>
+    </row>
+    <row r="146" spans="1:9" ht="15" hidden="1" customHeight="1">
+      <c r="A146" s="300"/>
+      <c r="B146" s="297"/>
+      <c r="C146" s="93"/>
+      <c r="D146" s="90"/>
+      <c r="E146" s="117"/>
+      <c r="F146" s="273"/>
+      <c r="G146" s="274"/>
+      <c r="H146" s="277"/>
+      <c r="I146" s="91"/>
+    </row>
+    <row r="147" spans="1:9" ht="15" hidden="1" customHeight="1">
+      <c r="A147" s="300"/>
+      <c r="B147" s="297"/>
+      <c r="C147" s="93"/>
+      <c r="D147" s="90"/>
+      <c r="E147" s="117"/>
+      <c r="F147" s="273"/>
+      <c r="G147" s="274"/>
+      <c r="H147" s="277"/>
+      <c r="I147" s="91"/>
+    </row>
+    <row r="148" spans="1:9" ht="15.75" hidden="1" customHeight="1" thickBot="1">
+      <c r="A148" s="300"/>
+      <c r="B148" s="297"/>
+      <c r="C148" s="93"/>
+      <c r="D148" s="90"/>
+      <c r="E148" s="117"/>
+      <c r="F148" s="273"/>
+      <c r="G148" s="274"/>
+      <c r="H148" s="277"/>
+      <c r="I148" s="91"/>
+    </row>
+    <row r="149" spans="1:9" ht="15" hidden="1" customHeight="1">
+      <c r="A149" s="300"/>
+      <c r="B149" s="297"/>
+      <c r="C149" s="93"/>
+      <c r="D149" s="90"/>
+      <c r="E149" s="117"/>
+      <c r="F149" s="272"/>
+      <c r="G149" s="279"/>
+      <c r="H149" s="280"/>
+      <c r="I149" s="91"/>
+    </row>
+    <row r="150" spans="1:9" ht="15" hidden="1" customHeight="1">
+      <c r="A150" s="300"/>
+      <c r="B150" s="297"/>
+      <c r="C150" s="102"/>
+      <c r="D150" s="103"/>
+      <c r="E150" s="119"/>
+      <c r="F150" s="273"/>
+      <c r="G150" s="274"/>
+      <c r="H150" s="277"/>
+      <c r="I150" s="104"/>
+    </row>
+    <row r="151" spans="1:9" ht="15" hidden="1" customHeight="1">
+      <c r="A151" s="300"/>
+      <c r="B151" s="297"/>
+      <c r="C151" s="93"/>
+      <c r="D151" s="90"/>
+      <c r="E151" s="117"/>
+      <c r="F151" s="273"/>
+      <c r="G151" s="274"/>
+      <c r="H151" s="277"/>
+      <c r="I151" s="91"/>
+    </row>
+    <row r="152" spans="1:9" ht="15" hidden="1" customHeight="1">
+      <c r="A152" s="300"/>
+      <c r="B152" s="297"/>
+      <c r="C152" s="93"/>
+      <c r="D152" s="90"/>
+      <c r="E152" s="117"/>
+      <c r="F152" s="273"/>
+      <c r="G152" s="274"/>
+      <c r="H152" s="277"/>
+      <c r="I152" s="91"/>
+    </row>
+    <row r="153" spans="1:9" ht="15" hidden="1" customHeight="1">
+      <c r="A153" s="300"/>
+      <c r="B153" s="297"/>
+      <c r="C153" s="93"/>
+      <c r="D153" s="90"/>
+      <c r="E153" s="117"/>
+      <c r="F153" s="272"/>
+      <c r="G153" s="279"/>
+      <c r="H153" s="280"/>
+      <c r="I153" s="91"/>
+    </row>
+    <row r="154" spans="1:9" ht="15.75" hidden="1" customHeight="1" thickBot="1">
+      <c r="A154" s="300"/>
+      <c r="B154" s="297"/>
+      <c r="C154" s="93"/>
+      <c r="D154" s="90"/>
+      <c r="E154" s="117"/>
+      <c r="F154" s="273"/>
+      <c r="G154" s="274"/>
+      <c r="H154" s="277"/>
+      <c r="I154" s="91"/>
+    </row>
+    <row r="155" spans="1:9" ht="15" hidden="1" customHeight="1">
+      <c r="A155" s="300"/>
+      <c r="B155" s="297"/>
+      <c r="C155" s="102"/>
+      <c r="D155" s="103"/>
+      <c r="E155" s="119"/>
+      <c r="F155" s="273"/>
+      <c r="G155" s="274"/>
+      <c r="H155" s="277"/>
+      <c r="I155" s="104"/>
+    </row>
+    <row r="156" spans="1:9" ht="15" hidden="1" customHeight="1">
+      <c r="A156" s="300"/>
+      <c r="B156" s="297"/>
+      <c r="C156" s="93"/>
+      <c r="D156" s="90"/>
+      <c r="E156" s="117"/>
+      <c r="F156" s="273"/>
+      <c r="G156" s="274"/>
+      <c r="H156" s="277"/>
+      <c r="I156" s="91"/>
+    </row>
+    <row r="157" spans="1:9" ht="15" hidden="1" customHeight="1">
+      <c r="A157" s="300"/>
+      <c r="B157" s="297"/>
+      <c r="C157" s="93"/>
+      <c r="D157" s="90"/>
+      <c r="E157" s="117"/>
+      <c r="F157" s="272"/>
+      <c r="G157" s="279"/>
+      <c r="H157" s="280"/>
+      <c r="I157" s="91"/>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" s="300"/>
+      <c r="B158" s="297"/>
+      <c r="C158" s="93"/>
+      <c r="D158" s="90"/>
+      <c r="E158" s="117"/>
+      <c r="F158" s="273"/>
+      <c r="G158" s="274"/>
+      <c r="H158" s="277"/>
+      <c r="I158" s="91"/>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" s="301"/>
+      <c r="B159" s="298"/>
+      <c r="C159" s="93"/>
+      <c r="D159" s="90"/>
+      <c r="E159" s="117"/>
+      <c r="F159" s="273"/>
+      <c r="G159" s="274"/>
+      <c r="H159" s="277"/>
+      <c r="I159" s="91"/>
+    </row>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="F115:H115"/>
-    <mergeCell ref="F114:H114"/>
-    <mergeCell ref="B89:B97"/>
-    <mergeCell ref="A110:A115"/>
-    <mergeCell ref="B110:B115"/>
-    <mergeCell ref="A116:A118"/>
-    <mergeCell ref="B116:B118"/>
+  <mergeCells count="49">
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="A49:A55"/>
+    <mergeCell ref="B49:B55"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="B8:B14"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A35:A41"/>
+    <mergeCell ref="B35:B41"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C3:H3"/>
     <mergeCell ref="A29:A34"/>
     <mergeCell ref="B29:B34"/>
-    <mergeCell ref="A89:A97"/>
-    <mergeCell ref="A98:A103"/>
-    <mergeCell ref="B98:B103"/>
-    <mergeCell ref="A104:A109"/>
-    <mergeCell ref="B104:B109"/>
+    <mergeCell ref="A89:A100"/>
+    <mergeCell ref="A101:A106"/>
+    <mergeCell ref="B101:B106"/>
     <mergeCell ref="A63:A71"/>
     <mergeCell ref="B63:B71"/>
     <mergeCell ref="A72:A81"/>
     <mergeCell ref="B72:B81"/>
     <mergeCell ref="A82:A88"/>
     <mergeCell ref="B82:B88"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="B42:B48"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A35:A41"/>
-    <mergeCell ref="B35:B41"/>
-    <mergeCell ref="A21:A28"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="B8:B14"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="B15:B20"/>
     <mergeCell ref="A56:A61"/>
     <mergeCell ref="B56:B61"/>
+    <mergeCell ref="B125:B159"/>
+    <mergeCell ref="A125:A159"/>
+    <mergeCell ref="B42:B48"/>
+    <mergeCell ref="F118:H118"/>
+    <mergeCell ref="F117:H117"/>
+    <mergeCell ref="B89:B100"/>
+    <mergeCell ref="A113:A118"/>
+    <mergeCell ref="B113:B118"/>
+    <mergeCell ref="C118:E118"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="A119:A124"/>
+    <mergeCell ref="B119:B124"/>
+    <mergeCell ref="A107:A112"/>
+    <mergeCell ref="B107:B112"/>
     <mergeCell ref="C57:E57"/>
     <mergeCell ref="F57:H57"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="A49:A55"/>
-    <mergeCell ref="B49:B55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6356,11 +6725,11 @@
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:O80"/>
+  <dimension ref="A1:O81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K66" sqref="K66"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K81" sqref="K81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -6391,13 +6760,13 @@
         <v>4</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>6</v>
@@ -6409,10 +6778,10 @@
         <v>3</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K1" s="284" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>10</v>
@@ -6420,25 +6789,25 @@
     </row>
     <row r="2" spans="1:12" s="14" customFormat="1">
       <c r="A2" s="37" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B2" s="37" t="s">
         <v>61</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G2" s="37" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H2" s="39">
         <v>1</v>
@@ -6447,13 +6816,13 @@
         <v>81</v>
       </c>
       <c r="J2" s="41" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="K2" s="285" t="s">
-        <v>588</v>
-      </c>
-      <c r="L2" s="366" t="s">
-        <v>128</v>
+        <v>583</v>
+      </c>
+      <c r="L2" s="386" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="14" customFormat="1">
@@ -6462,7 +6831,7 @@
       <c r="C3" s="56"/>
       <c r="D3" s="56"/>
       <c r="E3" s="38" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F3" s="56"/>
       <c r="G3" s="56"/>
@@ -6470,7 +6839,7 @@
       <c r="I3" s="56"/>
       <c r="J3" s="56"/>
       <c r="K3" s="286"/>
-      <c r="L3" s="367"/>
+      <c r="L3" s="387"/>
     </row>
     <row r="4" spans="1:12" s="14" customFormat="1">
       <c r="A4" s="56"/>
@@ -6478,7 +6847,7 @@
       <c r="C4" s="56"/>
       <c r="D4" s="56"/>
       <c r="E4" s="38" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F4" s="56"/>
       <c r="G4" s="56"/>
@@ -6486,7 +6855,7 @@
       <c r="I4" s="56"/>
       <c r="J4" s="56"/>
       <c r="K4" s="286"/>
-      <c r="L4" s="367"/>
+      <c r="L4" s="387"/>
     </row>
     <row r="5" spans="1:12" s="14" customFormat="1">
       <c r="A5" s="56"/>
@@ -6494,7 +6863,7 @@
       <c r="C5" s="56"/>
       <c r="D5" s="56"/>
       <c r="E5" s="35" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F5" s="56"/>
       <c r="G5" s="56"/>
@@ -6502,7 +6871,7 @@
       <c r="I5" s="56"/>
       <c r="J5" s="56"/>
       <c r="K5" s="286"/>
-      <c r="L5" s="367"/>
+      <c r="L5" s="387"/>
     </row>
     <row r="6" spans="1:12" s="14" customFormat="1">
       <c r="A6" s="56"/>
@@ -6510,7 +6879,7 @@
       <c r="C6" s="56"/>
       <c r="D6" s="56"/>
       <c r="E6" s="35" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F6" s="56"/>
       <c r="G6" s="56"/>
@@ -6518,7 +6887,7 @@
       <c r="I6" s="56"/>
       <c r="J6" s="56"/>
       <c r="K6" s="286"/>
-      <c r="L6" s="367"/>
+      <c r="L6" s="387"/>
     </row>
     <row r="7" spans="1:12" s="14" customFormat="1">
       <c r="A7" s="56"/>
@@ -6526,7 +6895,7 @@
       <c r="C7" s="56"/>
       <c r="D7" s="56"/>
       <c r="E7" s="35" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F7" s="56"/>
       <c r="G7" s="56"/>
@@ -6534,7 +6903,7 @@
       <c r="I7" s="56"/>
       <c r="J7" s="56"/>
       <c r="K7" s="286"/>
-      <c r="L7" s="367"/>
+      <c r="L7" s="387"/>
     </row>
     <row r="8" spans="1:12" s="14" customFormat="1">
       <c r="A8" s="56"/>
@@ -6542,7 +6911,7 @@
       <c r="C8" s="56"/>
       <c r="D8" s="56"/>
       <c r="E8" s="35" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F8" s="56"/>
       <c r="G8" s="56"/>
@@ -6550,7 +6919,7 @@
       <c r="I8" s="56"/>
       <c r="J8" s="56"/>
       <c r="K8" s="286"/>
-      <c r="L8" s="367"/>
+      <c r="L8" s="387"/>
     </row>
     <row r="9" spans="1:12" s="14" customFormat="1">
       <c r="A9" s="56"/>
@@ -6558,7 +6927,7 @@
       <c r="C9" s="56"/>
       <c r="D9" s="56"/>
       <c r="E9" s="35" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F9" s="56"/>
       <c r="G9" s="56"/>
@@ -6566,7 +6935,7 @@
       <c r="I9" s="56"/>
       <c r="J9" s="56"/>
       <c r="K9" s="286"/>
-      <c r="L9" s="367"/>
+      <c r="L9" s="387"/>
     </row>
     <row r="10" spans="1:12" s="14" customFormat="1">
       <c r="A10" s="56"/>
@@ -6574,7 +6943,7 @@
       <c r="C10" s="56"/>
       <c r="D10" s="56"/>
       <c r="E10" s="35" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F10" s="56"/>
       <c r="G10" s="56"/>
@@ -6582,7 +6951,7 @@
       <c r="I10" s="56"/>
       <c r="J10" s="56"/>
       <c r="K10" s="286"/>
-      <c r="L10" s="367"/>
+      <c r="L10" s="387"/>
     </row>
     <row r="11" spans="1:12" s="14" customFormat="1">
       <c r="A11" s="56"/>
@@ -6590,7 +6959,7 @@
       <c r="C11" s="56"/>
       <c r="D11" s="56"/>
       <c r="E11" s="40" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F11" s="56"/>
       <c r="G11" s="56"/>
@@ -6598,29 +6967,29 @@
       <c r="I11" s="56"/>
       <c r="J11" s="56"/>
       <c r="K11" s="286"/>
-      <c r="L11" s="368"/>
+      <c r="L11" s="388"/>
     </row>
     <row r="12" spans="1:12" s="2" customFormat="1">
       <c r="A12" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="382" t="s">
-        <v>382</v>
-      </c>
-      <c r="D12" s="382" t="s">
-        <v>391</v>
+      <c r="C12" s="292" t="s">
+        <v>378</v>
+      </c>
+      <c r="D12" s="292" t="s">
+        <v>387</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F12" s="382" t="s">
-        <v>293</v>
-      </c>
-      <c r="G12" s="382" t="s">
-        <v>252</v>
+        <v>135</v>
+      </c>
+      <c r="F12" s="292" t="s">
+        <v>289</v>
+      </c>
+      <c r="G12" s="292" t="s">
+        <v>248</v>
       </c>
       <c r="H12" s="23">
         <v>2</v>
@@ -6630,10 +6999,10 @@
       </c>
       <c r="J12" s="11"/>
       <c r="K12" s="287" t="s">
-        <v>589</v>
-      </c>
-      <c r="L12" s="369" t="s">
-        <v>127</v>
+        <v>584</v>
+      </c>
+      <c r="L12" s="389" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="12" customFormat="1">
@@ -6642,7 +7011,7 @@
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
       <c r="E13" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
@@ -6650,29 +7019,29 @@
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
       <c r="K13" s="288"/>
-      <c r="L13" s="370"/>
+      <c r="L13" s="390"/>
     </row>
     <row r="14" spans="1:12" s="35" customFormat="1">
       <c r="A14" s="35" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>90</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F14" s="35" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G14" s="35" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H14" s="36">
         <v>1</v>
@@ -6681,12 +7050,12 @@
         <v>70</v>
       </c>
       <c r="J14" s="41" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="K14" s="285" t="s">
-        <v>590</v>
-      </c>
-      <c r="L14" s="371"/>
+        <v>585</v>
+      </c>
+      <c r="L14" s="391"/>
     </row>
     <row r="15" spans="1:12" s="14" customFormat="1">
       <c r="A15" s="56"/>
@@ -6694,7 +7063,7 @@
       <c r="C15" s="56"/>
       <c r="D15" s="56"/>
       <c r="E15" s="38" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F15" s="56"/>
       <c r="G15" s="56"/>
@@ -6702,7 +7071,7 @@
       <c r="I15" s="56"/>
       <c r="J15" s="56"/>
       <c r="K15" s="286"/>
-      <c r="L15" s="367"/>
+      <c r="L15" s="387"/>
     </row>
     <row r="16" spans="1:12" s="14" customFormat="1">
       <c r="A16" s="56"/>
@@ -6710,7 +7079,7 @@
       <c r="C16" s="56"/>
       <c r="D16" s="56"/>
       <c r="E16" s="35" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F16" s="56"/>
       <c r="G16" s="56"/>
@@ -6718,7 +7087,7 @@
       <c r="I16" s="56"/>
       <c r="J16" s="56"/>
       <c r="K16" s="286"/>
-      <c r="L16" s="367"/>
+      <c r="L16" s="387"/>
     </row>
     <row r="17" spans="1:12" s="14" customFormat="1">
       <c r="A17" s="56"/>
@@ -6726,7 +7095,7 @@
       <c r="C17" s="56"/>
       <c r="D17" s="56"/>
       <c r="E17" s="35" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F17" s="56"/>
       <c r="G17" s="56"/>
@@ -6734,7 +7103,7 @@
       <c r="I17" s="56"/>
       <c r="J17" s="56"/>
       <c r="K17" s="286"/>
-      <c r="L17" s="367"/>
+      <c r="L17" s="387"/>
     </row>
     <row r="18" spans="1:12" s="14" customFormat="1">
       <c r="A18" s="56"/>
@@ -6742,7 +7111,7 @@
       <c r="C18" s="56"/>
       <c r="D18" s="56"/>
       <c r="E18" s="40" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F18" s="56"/>
       <c r="G18" s="56"/>
@@ -6750,29 +7119,29 @@
       <c r="I18" s="56"/>
       <c r="J18" s="56"/>
       <c r="K18" s="286"/>
-      <c r="L18" s="368"/>
+      <c r="L18" s="388"/>
     </row>
     <row r="19" spans="1:12" s="2" customFormat="1">
       <c r="A19" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H19" s="23">
         <v>1</v>
@@ -6781,12 +7150,12 @@
         <v>71</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K19" s="287" t="s">
-        <v>590</v>
-      </c>
-      <c r="L19" s="369"/>
+        <v>585</v>
+      </c>
+      <c r="L19" s="389"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="17"/>
@@ -6794,7 +7163,7 @@
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
       <c r="E20" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
@@ -6802,7 +7171,7 @@
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
       <c r="K20" s="288"/>
-      <c r="L20" s="370"/>
+      <c r="L20" s="390"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="17"/>
@@ -6810,7 +7179,7 @@
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
       <c r="E21" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
@@ -6818,7 +7187,7 @@
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
       <c r="K21" s="288"/>
-      <c r="L21" s="370"/>
+      <c r="L21" s="390"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="17"/>
@@ -6826,7 +7195,7 @@
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="16" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
@@ -6834,29 +7203,29 @@
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
       <c r="K22" s="288"/>
-      <c r="L22" s="372"/>
+      <c r="L22" s="392"/>
     </row>
     <row r="23" spans="1:12" s="35" customFormat="1">
       <c r="A23" s="35" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B23" s="35" t="s">
         <v>67</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>385</v>
+        <v>381</v>
    